--- a/data/REC.MI.xlsx
+++ b/data/REC.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1913" uniqueCount="1913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="1914">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,94 +38,94 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0686416625977</t>
+    <t xml:space="preserve">19.068639755249</t>
   </si>
   <si>
     <t xml:space="preserve">REC.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6574745178223</t>
+    <t xml:space="preserve">19.6574783325195</t>
   </si>
   <si>
     <t xml:space="preserve">19.3267593383789</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9637794494629</t>
+    <t xml:space="preserve">18.9637813568115</t>
   </si>
   <si>
     <t xml:space="preserve">18.8105182647705</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6572570800781</t>
+    <t xml:space="preserve">18.6572589874268</t>
   </si>
   <si>
     <t xml:space="preserve">18.6975936889648</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1087551116943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2297534942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6086483001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5441188812256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.527982711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2942810058594</t>
+    <t xml:space="preserve">18.1087532043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2297477722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.608642578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5441131591797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5279808044434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2942752838135</t>
   </si>
   <si>
     <t xml:space="preserve">18.5282001495361</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4959354400635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8266525268555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0280914306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3910751342773</t>
+    <t xml:space="preserve">18.4959373474121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8266544342041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0280876159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3910694122314</t>
   </si>
   <si>
     <t xml:space="preserve">18.7540550231934</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1329517364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8990325927734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2779312133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1325206756592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6727437973022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7937393188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3825721740723</t>
+    <t xml:space="preserve">18.1329536437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8990345001221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2779293060303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1325225830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6727418899536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7937412261963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3825759887695</t>
   </si>
   <si>
     <t xml:space="preserve">16.5197010040283</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1327342987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8183708190918</t>
+    <t xml:space="preserve">17.1327381134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8183670043945</t>
   </si>
   <si>
     <t xml:space="preserve">17.681245803833</t>
@@ -134,46 +134,46 @@
     <t xml:space="preserve">18.011962890625</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4233417510986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4475402832031</t>
+    <t xml:space="preserve">18.4233379364014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4475345611572</t>
   </si>
   <si>
     <t xml:space="preserve">18.7217903137207</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0601425170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0036792755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5199184417725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6893062591553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9151630401611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0684223175049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6731777191162</t>
+    <t xml:space="preserve">17.0601387023926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0036773681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5199165344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6893100738525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9151611328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0684261322021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6731796264648</t>
   </si>
   <si>
     <t xml:space="preserve">17.4392566680908</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3666591644287</t>
+    <t xml:space="preserve">17.3666610717773</t>
   </si>
   <si>
     <t xml:space="preserve">17.1811332702637</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5037860870361</t>
+    <t xml:space="preserve">17.5037822723389</t>
   </si>
   <si>
     <t xml:space="preserve">17.165002822876</t>
@@ -185,16 +185,16 @@
     <t xml:space="preserve">17.5521812438965</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6409130096436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5763816833496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3585929870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4069900512695</t>
+    <t xml:space="preserve">17.6409149169922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.576379776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3585948944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4069938659668</t>
   </si>
   <si>
     <t xml:space="preserve">17.5118503570557</t>
@@ -203,82 +203,82 @@
     <t xml:space="preserve">17.3182621002197</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6247749328613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7457695007324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7538414001465</t>
+    <t xml:space="preserve">17.6247806549072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7457733154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7538394927979</t>
   </si>
   <si>
     <t xml:space="preserve">17.8748340606689</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7861003875732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1490821838379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2136135101318</t>
+    <t xml:space="preserve">17.7861022949219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1490840911865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2136173248291</t>
   </si>
   <si>
     <t xml:space="preserve">18.1248874664307</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1006908416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1168155670166</t>
+    <t xml:space="preserve">18.1006889343262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1168193817139</t>
   </si>
   <si>
     <t xml:space="preserve">18.0442237854004</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0764865875244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4443988800049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3708171844482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.199125289917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2808876037598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0437889099121</t>
+    <t xml:space="preserve">18.0764904022217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4443969726562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.370813369751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1991214752197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2808799743652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0437870025635</t>
   </si>
   <si>
     <t xml:space="preserve">18.1091918945312</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1746006011963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3544654846191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0764904022217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1418952941895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0928401947021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2727069854736</t>
+    <t xml:space="preserve">18.174596786499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3544635772705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.076488494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1418991088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0928421020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2727031707764</t>
   </si>
   <si>
     <t xml:space="preserve">18.5752086639404</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6651382446289</t>
+    <t xml:space="preserve">18.6651401519775</t>
   </si>
   <si>
     <t xml:space="preserve">19.3846035003662</t>
@@ -287,46 +287,46 @@
     <t xml:space="preserve">19.6871032714844</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6217002868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4418354034424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7688636779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7443351745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7933902740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9487247467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0059547424316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8562316894531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0033912658691</t>
+    <t xml:space="preserve">19.6216983795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4418277740479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7688617706299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7443332672119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7933864593506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9487285614014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.005952835083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8562297821045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0033950805664</t>
   </si>
   <si>
     <t xml:space="preserve">21.1996097564697</t>
   </si>
   <si>
-    <t xml:space="preserve">21.101505279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.248664855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5511665344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6901550292969</t>
+    <t xml:space="preserve">21.1015033721924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2486610412598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5511646270752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6901512145996</t>
   </si>
   <si>
     <t xml:space="preserve">21.6983299255371</t>
@@ -335,58 +335,58 @@
     <t xml:space="preserve">22.0580596923828</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2297477722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8700218200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7964382171631</t>
+    <t xml:space="preserve">22.2297515869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8700160980225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7964420318604</t>
   </si>
   <si>
     <t xml:space="preserve">22.3115062713623</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2706241607666</t>
+    <t xml:space="preserve">22.2706298828125</t>
   </si>
   <si>
     <t xml:space="preserve">21.9517765045166</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2568435668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2077884674072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4121780395508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1423816680908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7336006164551</t>
+    <t xml:space="preserve">21.2568378448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.20778465271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4121799468994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1423873901367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7336025238037</t>
   </si>
   <si>
     <t xml:space="preserve">21.4285297393799</t>
   </si>
   <si>
-    <t xml:space="preserve">21.706506729126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6083984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9435997009277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8071804046631</t>
+    <t xml:space="preserve">21.7065010070801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6083965301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9436016082764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8071765899658</t>
   </si>
   <si>
     <t xml:space="preserve">21.6656246185303</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9599533081055</t>
+    <t xml:space="preserve">21.9599514007568</t>
   </si>
   <si>
     <t xml:space="preserve">22.0744094848633</t>
@@ -395,13 +395,13 @@
     <t xml:space="preserve">22.0989379882812</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0907611846924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9926509857178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8536682128906</t>
+    <t xml:space="preserve">22.090763092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.992654800415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8536643981934</t>
   </si>
   <si>
     <t xml:space="preserve">22.188871383667</t>
@@ -410,28 +410,28 @@
     <t xml:space="preserve">22.9165096282959</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1372509002686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9982662200928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7529964447021</t>
+    <t xml:space="preserve">23.1372547149658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9982643127441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7529926300049</t>
   </si>
   <si>
     <t xml:space="preserve">22.5567779541016</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7448177337646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6303577423096</t>
+    <t xml:space="preserve">22.7448196411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6303615570068</t>
   </si>
   <si>
     <t xml:space="preserve">23.0636711120605</t>
   </si>
   <si>
-    <t xml:space="preserve">23.513334274292</t>
+    <t xml:space="preserve">23.5133361816406</t>
   </si>
   <si>
     <t xml:space="preserve">23.4806327819824</t>
@@ -440,145 +440,145 @@
     <t xml:space="preserve">23.5215110778809</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2271881103516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6850261688232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6605014801025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5296878814697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7177276611328</t>
+    <t xml:space="preserve">23.2271862030029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6850280761719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.660493850708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5296840667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7177314758301</t>
   </si>
   <si>
     <t xml:space="preserve">24.0038795471191</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5869159698486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9655609130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3498191833496</t>
+    <t xml:space="preserve">23.5869140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9655628204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3498229980469</t>
   </si>
   <si>
     <t xml:space="preserve">23.0881996154785</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0227928161621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2598915100098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2190093994141</t>
+    <t xml:space="preserve">23.022798538208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2598876953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2190074920654</t>
   </si>
   <si>
     <t xml:space="preserve">23.3743476867676</t>
   </si>
   <si>
-    <t xml:space="preserve">22.736644744873</t>
+    <t xml:space="preserve">22.7366428375244</t>
   </si>
   <si>
     <t xml:space="preserve">22.7284660339355</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2951545715332</t>
+    <t xml:space="preserve">22.2951583862305</t>
   </si>
   <si>
     <t xml:space="preserve">22.4341449737549</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1479930877686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3033351898193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4259643554688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5240707397461</t>
+    <t xml:space="preserve">22.1479911804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3033275604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4259700775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.524076461792</t>
   </si>
   <si>
     <t xml:space="preserve">22.0171813964844</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0417098999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3605613708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1725234985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9272518157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1970462799072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0825862884521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8020496368408</t>
+    <t xml:space="preserve">22.0417079925537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3605632781982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1725215911865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.92724609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1970481872559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0825881958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8020515441895</t>
   </si>
   <si>
     <t xml:space="preserve">22.5158977508545</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8863677978516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8046112060547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7473812103271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.213399887085</t>
+    <t xml:space="preserve">21.8863716125488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8046131134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7473831176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2133979797363</t>
   </si>
   <si>
     <t xml:space="preserve">22.3687381744385</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9844779968262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2052230834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2215766906738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4423198699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4831962585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.243537902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4561023712158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3906993865967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2762393951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2026615142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1536064147949</t>
+    <t xml:space="preserve">21.9844760894775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2052268981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2215747833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4423160552979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4831943511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2435398101807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4561061859131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3907032012939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2762413024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2026596069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1536026000977</t>
   </si>
   <si>
     <t xml:space="preserve">23.030969619751</t>
@@ -587,13 +587,13 @@
     <t xml:space="preserve">22.9246845245361</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1127243041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.336030960083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5077247619629</t>
+    <t xml:space="preserve">23.1127300262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3360347747803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5077266693115</t>
   </si>
   <si>
     <t xml:space="preserve">22.0335330963135</t>
@@ -602,97 +602,97 @@
     <t xml:space="preserve">22.1643466949463</t>
   </si>
   <si>
-    <t xml:space="preserve">22.066234588623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9108982086182</t>
+    <t xml:space="preserve">22.0662364959717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9108963012695</t>
   </si>
   <si>
     <t xml:space="preserve">21.8945484161377</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0769786834717</t>
+    <t xml:space="preserve">21.0769748687744</t>
   </si>
   <si>
     <t xml:space="preserve">20.6191368103027</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9298133850098</t>
+    <t xml:space="preserve">20.9298095703125</t>
   </si>
   <si>
     <t xml:space="preserve">21.0279216766357</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5700817108154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.085147857666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0008296966553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2977180480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3386001586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9052848815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7826519012451</t>
+    <t xml:space="preserve">20.5700798034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0851516723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0008316040039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2977142333984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3385963439941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9052810668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7826480865479</t>
   </si>
   <si>
     <t xml:space="preserve">21.036096572876</t>
   </si>
   <si>
-    <t xml:space="preserve">20.986364364624</t>
+    <t xml:space="preserve">20.9863662719727</t>
   </si>
   <si>
     <t xml:space="preserve">20.4641933441162</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7791519165039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0278072357178</t>
+    <t xml:space="preserve">20.7791500091553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.027811050415</t>
   </si>
   <si>
     <t xml:space="preserve">21.1024036407471</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8537521362305</t>
+    <t xml:space="preserve">20.8537502288818</t>
   </si>
   <si>
     <t xml:space="preserve">21.1355571746826</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2930374145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5636558532715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.895191192627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1189823150635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3427715301514</t>
+    <t xml:space="preserve">21.293041229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5636577606201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8951930999756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1189785003662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3427696228027</t>
   </si>
   <si>
     <t xml:space="preserve">21.2847518920898</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1604251861572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5499820709229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2515926361084</t>
+    <t xml:space="preserve">21.1604232788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5499782562256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2515964508057</t>
   </si>
   <si>
     <t xml:space="preserve">21.5251140594482</t>
@@ -701,106 +701,106 @@
     <t xml:space="preserve">21.2018661499023</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9146747589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1716175079346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3373851776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1053066253662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9063854217529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7240390777588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3208045959473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4285564422607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1633243560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3125171661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6357688903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5611705780029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.677209854126</t>
+    <t xml:space="preserve">21.9146728515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1716136932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3373832702637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1053085327148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9063835144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7240371704102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3208084106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4285545349121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1633262634277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3125133514404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6357669830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5611724853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6772117614746</t>
   </si>
   <si>
     <t xml:space="preserve">23.0419006347656</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0253257751465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.536304473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0667686462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6191921234131</t>
+    <t xml:space="preserve">23.0253238677979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5363063812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0667629241943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6191902160645</t>
   </si>
   <si>
     <t xml:space="preserve">22.9507312774658</t>
   </si>
   <si>
-    <t xml:space="preserve">22.793249130249</t>
+    <t xml:space="preserve">22.7932472229004</t>
   </si>
   <si>
     <t xml:space="preserve">22.8264026641846</t>
   </si>
   <si>
-    <t xml:space="preserve">22.602611541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6109046936035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5777435302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2793636322021</t>
+    <t xml:space="preserve">22.6026153564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6109008789062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5777492523193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2793674468994</t>
   </si>
   <si>
     <t xml:space="preserve">22.4617118835449</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4368457794189</t>
+    <t xml:space="preserve">22.4368438720703</t>
   </si>
   <si>
     <t xml:space="preserve">21.8069229125977</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8898067474365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0638656616211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2545013427734</t>
+    <t xml:space="preserve">21.8898086547852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0638675689697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2544994354248</t>
   </si>
   <si>
     <t xml:space="preserve">21.8732299804688</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2710762023926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3788261413574</t>
+    <t xml:space="preserve">22.2710742950439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3788242340088</t>
   </si>
   <si>
     <t xml:space="preserve">23.2822666168213</t>
@@ -809,85 +809,85 @@
     <t xml:space="preserve">23.3983039855957</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4563236236572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6884021759033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4231739044189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9287700653076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0282287597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4509410858154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4177856445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3431873321533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7824745178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8404941558838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.77419090271</t>
+    <t xml:space="preserve">23.4563274383545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6884002685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4231700897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.928768157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.028226852417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4509353637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4177875518799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3431911468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7824764251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8404979705811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7741851806641</t>
   </si>
   <si>
     <t xml:space="preserve">25.0891532897949</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1554584503174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0062694549561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1057281494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2714977264404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5533027648926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5450191497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8019561767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9262866973877</t>
+    <t xml:space="preserve">25.1554527282715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0062656402588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1057262420654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2714958190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5533065795898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.545015335083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8019580841064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9262847900391</t>
   </si>
   <si>
     <t xml:space="preserve">26.2080917358398</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4070148468018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4401683807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9594345092773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8765506744385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.125207901001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2992649078369</t>
+    <t xml:space="preserve">26.407018661499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4401664733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9594383239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8765525817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1252059936523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2992630004883</t>
   </si>
   <si>
     <t xml:space="preserve">26.2412452697754</t>
@@ -896,130 +896,130 @@
     <t xml:space="preserve">26.605936050415</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3655700683594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1666469573975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2495384216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3324184417725</t>
+    <t xml:space="preserve">26.3655738830566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1666488647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2495346069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3324165344238</t>
   </si>
   <si>
     <t xml:space="preserve">26.5644931793213</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9374732971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9540538787842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2192840576172</t>
+    <t xml:space="preserve">26.9374771118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9540500640869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2192802429199</t>
   </si>
   <si>
     <t xml:space="preserve">27.0369358062744</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0120735168457</t>
+    <t xml:space="preserve">27.0120697021484</t>
   </si>
   <si>
     <t xml:space="preserve">27.4099178314209</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6751499176025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6254196166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3850555419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6585693359375</t>
+    <t xml:space="preserve">27.6751461029053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.625415802002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3850479125977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6585712432861</t>
   </si>
   <si>
     <t xml:space="preserve">28.0647048950195</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5093746185303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7407703399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5145950317383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.481086730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7742729187012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4894676208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.841287612915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6067352294922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.673755645752</t>
+    <t xml:space="preserve">27.5093765258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7407722473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5145931243896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4810943603516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7742748260498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.489465713501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8412914276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6067371368408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6737575531006</t>
   </si>
   <si>
     <t xml:space="preserve">29.4276657104492</t>
   </si>
   <si>
-    <t xml:space="preserve">29.8381309509277</t>
+    <t xml:space="preserve">29.8381252288818</t>
   </si>
   <si>
     <t xml:space="preserve">29.8129959106445</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5669078826904</t>
+    <t xml:space="preserve">30.5669097900391</t>
   </si>
   <si>
     <t xml:space="preserve">30.6590576171875</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5752868652344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.754358291626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.938648223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0307922363281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9302730560303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.871639251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0475463867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8967628479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2485904693604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4695510864258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.570068359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9972877502441</t>
+    <t xml:space="preserve">30.575288772583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7543640136719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9386520385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0307884216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.930269241333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8716259002686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0475482940674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8967666625977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.248592376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4695472717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5700721740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9972839355469</t>
   </si>
   <si>
     <t xml:space="preserve">31.7480373382568</t>
@@ -1028,247 +1028,247 @@
     <t xml:space="preserve">30.7511940002441</t>
   </si>
   <si>
-    <t xml:space="preserve">30.8768539428711</t>
+    <t xml:space="preserve">30.8768482208252</t>
   </si>
   <si>
     <t xml:space="preserve">30.3826217651367</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5585289001465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5920352935791</t>
+    <t xml:space="preserve">30.5585308074951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5920372009277</t>
   </si>
   <si>
     <t xml:space="preserve">30.0391674041748</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5250205993652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2202968597412</t>
+    <t xml:space="preserve">30.5250244140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2202987670898</t>
   </si>
   <si>
     <t xml:space="preserve">31.0276374816895</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2538108825684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4967384338379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1700382232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.329195022583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3658695220947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5449352264404</t>
+    <t xml:space="preserve">31.2538032531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.496732711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1700344085693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3292007446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3658599853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5449447631836</t>
   </si>
   <si>
     <t xml:space="preserve">29.1512298583984</t>
   </si>
   <si>
-    <t xml:space="preserve">29.653844833374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7292327880859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2852573394775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.226619720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5198135375977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3355255126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6957206726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3941612243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6789684295654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7459812164307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2234649658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2402114868164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1731967926025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9051418304443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7711143493652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9553966522217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7878684997559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7208480834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.854887008667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3271389007568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.042329788208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4360427856445</t>
+    <t xml:space="preserve">29.6538410186768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7292289733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2852592468262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2266178131104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5198078155518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.335521697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6957244873047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3941555023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6789665222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7459831237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2234573364258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.240213394165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1731986999512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.905143737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7711162567139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9554023742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7878665924072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7208518981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8548889160156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3271369934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0423374176025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4360408782959</t>
   </si>
   <si>
     <t xml:space="preserve">29.4946765899658</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2517509460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2768840789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.620325088501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3606548309326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6873435974121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5868225097656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4611759185791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8632583618164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1396923065186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4496307373047</t>
+    <t xml:space="preserve">29.2517490386963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2768821716309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6203346252441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3606491088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6873474121094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5868282318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4611701965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8632564544678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1396903991699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4496288299561</t>
   </si>
   <si>
     <t xml:space="preserve">30.3239803314209</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2988471984863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5166473388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9773693084717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1784191131592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1365242004395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2454261779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3710784912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9857540130615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2286720275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5637474060059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7647895812988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2171363830566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7281188964844</t>
+    <t xml:space="preserve">30.2988510131836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5166492462158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9773750305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1784172058105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1365299224854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2454223632812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3710765838623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9857482910156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2286758422852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5637512207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7647876739502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2171401977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7281227111816</t>
   </si>
   <si>
     <t xml:space="preserve">32.6359786987305</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5438346862793</t>
+    <t xml:space="preserve">32.543830871582</t>
   </si>
   <si>
     <t xml:space="preserve">33.0045547485352</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6694831848145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9794273376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7867546081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0129280090332</t>
+    <t xml:space="preserve">32.6694793701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.979419708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7867622375488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0129318237305</t>
   </si>
   <si>
     <t xml:space="preserve">33.1218299865723</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1469573974609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3898887634277</t>
+    <t xml:space="preserve">33.1469612121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3898811340332</t>
   </si>
   <si>
     <t xml:space="preserve">33.3647613525391</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5741806030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3312568664551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5909271240234</t>
+    <t xml:space="preserve">33.5741729736328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3312492370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5909309387207</t>
   </si>
   <si>
     <t xml:space="preserve">33.1804695129395</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2307319641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1134490966797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.264232635498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4568977355957</t>
+    <t xml:space="preserve">33.2307243347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1134452819824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2642402648926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.456901550293</t>
   </si>
   <si>
     <t xml:space="preserve">33.6579437255859</t>
@@ -1277,175 +1277,175 @@
     <t xml:space="preserve">33.1720886230469</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2558555603027</t>
+    <t xml:space="preserve">33.255859375</t>
   </si>
   <si>
     <t xml:space="preserve">33.4150123596191</t>
   </si>
   <si>
-    <t xml:space="preserve">33.599308013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.431770324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7249603271484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3480033874512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.009765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8924865722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3228759765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5071601867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.602466583252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.510326385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3427886962891</t>
+    <t xml:space="preserve">33.5993118286133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4317741394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7249565124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3480072021484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0097694396973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8924903869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.322868347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5071640014648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6024627685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5103149414062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3427848815918</t>
   </si>
   <si>
     <t xml:space="preserve">32.61083984375</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9742126464844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.367919921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8653030395508</t>
+    <t xml:space="preserve">31.9742107391357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3679237365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8653163909912</t>
   </si>
   <si>
     <t xml:space="preserve">32.4243469238281</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4667053222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3481178283691</t>
+    <t xml:space="preserve">32.4667015075684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3481140136719</t>
   </si>
   <si>
     <t xml:space="preserve">32.3989410400391</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1787033081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1702423095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8653106689453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0177726745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8737888336182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0940132141113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8055191040039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4497718811035</t>
+    <t xml:space="preserve">32.1787185668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.170238494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8653125762939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0177764892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8737831115723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0940093994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8055114746094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4497604370117</t>
   </si>
   <si>
     <t xml:space="preserve">32.2295303344727</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7631645202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7208099365234</t>
+    <t xml:space="preserve">32.7631683349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7208061218262</t>
   </si>
   <si>
     <t xml:space="preserve">32.78857421875</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0093116760254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3570919036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9759254455566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5519123077393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5349636077881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9843997955322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8742847442627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3401489257812</t>
+    <t xml:space="preserve">32.0093002319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3570880889893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9759349822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5519104003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.534969329834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9843940734863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8742809295654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3401546478271</t>
   </si>
   <si>
     <t xml:space="preserve">31.6196708679199</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6704902648926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3909740447998</t>
+    <t xml:space="preserve">31.6704940795898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3909759521484</t>
   </si>
   <si>
     <t xml:space="preserve">31.5942573547363</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4417915344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9330787658691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4921112060547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6276435852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7800941467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5429306030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3565902709961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6953926086426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2888259887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1194190979004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7128372192383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9669551849365</t>
+    <t xml:space="preserve">31.4417972564697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.933069229126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.492115020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6276397705078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.780101776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5429382324219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3565826416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6954002380371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2888221740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1194152832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7128448486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9669570922852</t>
   </si>
   <si>
     <t xml:space="preserve">32.6615219116211</t>
@@ -1454,31 +1454,31 @@
     <t xml:space="preserve">32.0347175598145</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5259971618652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4672088623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0606327056885</t>
+    <t xml:space="preserve">32.5259895324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4672107696533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0606269836426</t>
   </si>
   <si>
     <t xml:space="preserve">30.6794662475586</t>
   </si>
   <si>
-    <t xml:space="preserve">29.8832588195801</t>
+    <t xml:space="preserve">29.8832569122314</t>
   </si>
   <si>
     <t xml:space="preserve">29.2225723266602</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1891937255859</t>
+    <t xml:space="preserve">28.1891956329346</t>
   </si>
   <si>
     <t xml:space="preserve">29.4427967071533</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0711116790771</t>
+    <t xml:space="preserve">27.0711154937744</t>
   </si>
   <si>
     <t xml:space="preserve">26.1478500366211</t>
@@ -1487,34 +1487,34 @@
     <t xml:space="preserve">25.5718669891357</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0890598297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3172550201416</t>
+    <t xml:space="preserve">25.0890617370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3172569274902</t>
   </si>
   <si>
     <t xml:space="preserve">25.9869155883789</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3680744171143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4278755187988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.987419128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8180084228516</t>
+    <t xml:space="preserve">26.3680763244629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4278736114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9874134063721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8180103302002</t>
   </si>
   <si>
     <t xml:space="preserve">24.6147232055664</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3262252807617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1568202972412</t>
+    <t xml:space="preserve">25.3262271881104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1568241119385</t>
   </si>
   <si>
     <t xml:space="preserve">24.9450664520264</t>
@@ -1523,79 +1523,79 @@
     <t xml:space="preserve">24.6231937408447</t>
   </si>
   <si>
-    <t xml:space="preserve">24.021800994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4707279205322</t>
+    <t xml:space="preserve">24.0218029022217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.470724105835</t>
   </si>
   <si>
     <t xml:space="preserve">24.5469627380371</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3516426086426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.241527557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4871673583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1229419708252</t>
+    <t xml:space="preserve">25.3516407012939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2415237426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4871635437012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1229438781738</t>
   </si>
   <si>
     <t xml:space="preserve">24.699426651001</t>
   </si>
   <si>
-    <t xml:space="preserve">24.978946685791</t>
+    <t xml:space="preserve">24.9789447784424</t>
   </si>
   <si>
     <t xml:space="preserve">24.8349514007568</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6062526702881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2250900268555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1234436035156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0726222991943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0387439727783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3102951049805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7168712615967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4453182220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3939895629883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0043621063232</t>
+    <t xml:space="preserve">24.6062545776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2250881195068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1234455108643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.072624206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0387382507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3102989196777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7168731689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4453163146973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3939914703369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0043563842773</t>
   </si>
   <si>
     <t xml:space="preserve">25.309289932251</t>
   </si>
   <si>
-    <t xml:space="preserve">25.283878326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0128307342529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0467052459717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8264808654785</t>
+    <t xml:space="preserve">25.2838802337646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0128326416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0467090606689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8264789581299</t>
   </si>
   <si>
     <t xml:space="preserve">25.1314144134521</t>
@@ -1604,16 +1604,16 @@
     <t xml:space="preserve">25.0721225738525</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2754077911377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4902629852295</t>
+    <t xml:space="preserve">25.2754058837891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4902648925781</t>
   </si>
   <si>
     <t xml:space="preserve">25.2152481079102</t>
   </si>
   <si>
-    <t xml:space="preserve">25.43869972229</t>
+    <t xml:space="preserve">25.4386978149414</t>
   </si>
   <si>
     <t xml:space="preserve">25.3871326446533</t>
@@ -1625,7 +1625,7 @@
     <t xml:space="preserve">26.5129680633545</t>
   </si>
   <si>
-    <t xml:space="preserve">26.272331237793</t>
+    <t xml:space="preserve">26.2723293304443</t>
   </si>
   <si>
     <t xml:space="preserve">26.3410816192627</t>
@@ -1640,148 +1640,148 @@
     <t xml:space="preserve">26.3926486968994</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1090393066406</t>
+    <t xml:space="preserve">26.1090412139893</t>
   </si>
   <si>
     <t xml:space="preserve">26.2121696472168</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5043754577637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3840579986572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8770008087158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6388034820557</t>
+    <t xml:space="preserve">26.504373550415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3840560913086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8769989013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6387996673584</t>
   </si>
   <si>
     <t xml:space="preserve">27.4325408935547</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6989612579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5614547729492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.518482208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5786418914795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6130199432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2434692382812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1059627532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2606601715088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3466014862061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.295036315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.291955947876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3607139587402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.317741394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9739685058594</t>
+    <t xml:space="preserve">27.6989593505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5614528656006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5184841156006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5786457061768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6130180358887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2434730529785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1059684753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2606563568115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3465995788574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2950344085693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2919578552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.360710144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3177433013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9739723205566</t>
   </si>
   <si>
     <t xml:space="preserve">28.1630477905273</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2232036590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6185359954834</t>
+    <t xml:space="preserve">28.223201751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6185340881348</t>
   </si>
   <si>
     <t xml:space="preserve">28.2317962646484</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0942935943604</t>
+    <t xml:space="preserve">28.0942916870117</t>
   </si>
   <si>
     <t xml:space="preserve">28.8419818878174</t>
   </si>
   <si>
-    <t xml:space="preserve">29.632640838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3576354980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4263858795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5497817993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4982147216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8591766357422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8247928619385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2716941833496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6277694702148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6050643920898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.957426071167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2668132781982</t>
+    <t xml:space="preserve">29.6326446533203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.357629776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4263877868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5497856140137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.498218536377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8591709136963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8247890472412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2716884613037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6277656555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6050624847412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9574222564697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2668113708496</t>
   </si>
   <si>
     <t xml:space="preserve">25.7480869293213</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9973163604736</t>
+    <t xml:space="preserve">25.997314453125</t>
   </si>
   <si>
     <t xml:space="preserve">26.6418762207031</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6504745483398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3238964080811</t>
+    <t xml:space="preserve">26.6504726409912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3238925933838</t>
   </si>
   <si>
     <t xml:space="preserve">26.4184303283691</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8254356384277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6965179443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8082447052002</t>
+    <t xml:space="preserve">25.8254318237305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6965198516846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8082466125488</t>
   </si>
   <si>
     <t xml:space="preserve">26.8137607574463</t>
@@ -1790,67 +1790,67 @@
     <t xml:space="preserve">26.6676635742188</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8911094665527</t>
+    <t xml:space="preserve">26.89111328125</t>
   </si>
   <si>
     <t xml:space="preserve">27.0543975830078</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0372085571289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7364158630371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8997020721436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4841060638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5098838806152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2348766326904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5872344970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7161483764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9997539520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.016939163208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8966274261475</t>
+    <t xml:space="preserve">27.0372104644775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7364177703857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8997001647949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.48410987854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5098876953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2348785400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5872364044189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7161445617676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9997577667236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0169429779053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8966217041016</t>
   </si>
   <si>
     <t xml:space="preserve">27.501293182373</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2262840270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6160926818848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2379570007324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5645294189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4012413024902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1520118713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9285659790039</t>
+    <t xml:space="preserve">27.2262802124023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6160945892334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2379550933838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5645313262939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4012451171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1520137786865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9285621643066</t>
   </si>
   <si>
     <t xml:space="preserve">25.9543476104736</t>
@@ -1862,70 +1862,70 @@
     <t xml:space="preserve">25.9199676513672</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2035789489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1176357269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2551403045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8340263366699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2207622528076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7566795349121</t>
+    <t xml:space="preserve">26.203577041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1176338195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2551383972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8340282440186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2207641601562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7566814422607</t>
   </si>
   <si>
     <t xml:space="preserve">25.5676097869873</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6105823516846</t>
+    <t xml:space="preserve">25.6105804443359</t>
   </si>
   <si>
     <t xml:space="preserve">25.4988574981689</t>
   </si>
   <si>
-    <t xml:space="preserve">25.318380355835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2238426208496</t>
+    <t xml:space="preserve">25.3183784484863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.223840713501</t>
   </si>
   <si>
     <t xml:space="preserve">25.0261783599854</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2324409484863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3785400390625</t>
+    <t xml:space="preserve">25.2324371337891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3785419464111</t>
   </si>
   <si>
     <t xml:space="preserve">25.5504207611084</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0605564117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2840003967285</t>
+    <t xml:space="preserve">25.0605525970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2840023040771</t>
   </si>
   <si>
     <t xml:space="preserve">25.4215068817139</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3496761322021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0746669769287</t>
+    <t xml:space="preserve">26.3496742248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0746631622314</t>
   </si>
   <si>
     <t xml:space="preserve">25.6621475219727</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7996520996094</t>
+    <t xml:space="preserve">25.7996501922607</t>
   </si>
   <si>
     <t xml:space="preserve">25.9715328216553</t>
@@ -1946,85 +1946,85 @@
     <t xml:space="preserve">25.069149017334</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4558868408203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7738666534424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5246353149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6019897460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1722774505615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0402889251709</t>
+    <t xml:space="preserve">25.4558849334717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.773868560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.52463722229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6019859313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1722755432129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0402870178223</t>
   </si>
   <si>
     <t xml:space="preserve">26.5817203521729</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7137088775635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8598117828369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.911376953125</t>
+    <t xml:space="preserve">25.7137107849121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8598098754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9113731384277</t>
   </si>
   <si>
     <t xml:space="preserve">25.7394943237305</t>
   </si>
   <si>
-    <t xml:space="preserve">25.868408203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6363620758057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9801254272461</t>
+    <t xml:space="preserve">25.8684024810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6363639831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9801273345947</t>
   </si>
   <si>
     <t xml:space="preserve">25.6535511016846</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4644756317139</t>
+    <t xml:space="preserve">25.4644794464111</t>
   </si>
   <si>
     <t xml:space="preserve">24.8542938232422</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9230499267578</t>
+    <t xml:space="preserve">24.9230442047119</t>
   </si>
   <si>
     <t xml:space="preserve">25.0433673858643</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1306533813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7727718353271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7640399932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3799648284912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3712348937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4323406219482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2315731048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.798957824707</t>
+    <t xml:space="preserve">25.1306552886963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7727680206299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7640419006348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3799667358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3712368011475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4323387145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.231575012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7989540100098</t>
   </si>
   <si>
     <t xml:space="preserve">25.1393814086914</t>
@@ -2033,40 +2033,40 @@
     <t xml:space="preserve">25.1131973266602</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9648056030273</t>
+    <t xml:space="preserve">24.9648036956787</t>
   </si>
   <si>
     <t xml:space="preserve">24.441068649292</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5283584594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3886909484863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.35378074646</t>
+    <t xml:space="preserve">24.5283603668213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.388692855835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3537788391113</t>
   </si>
   <si>
     <t xml:space="preserve">24.8164119720459</t>
   </si>
   <si>
-    <t xml:space="preserve">24.790225982666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0520973205566</t>
+    <t xml:space="preserve">24.7902221679688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.052095413208</t>
   </si>
   <si>
     <t xml:space="preserve">25.31396484375</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4885444641113</t>
+    <t xml:space="preserve">25.4885406494141</t>
   </si>
   <si>
     <t xml:space="preserve">25.8813438415527</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4487247467041</t>
+    <t xml:space="preserve">26.4487266540527</t>
   </si>
   <si>
     <t xml:space="preserve">27.0684852600098</t>
@@ -2075,292 +2075,292 @@
     <t xml:space="preserve">26.439998626709</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2043190002441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.012279510498</t>
+    <t xml:space="preserve">26.2043170928955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0122814178467</t>
   </si>
   <si>
     <t xml:space="preserve">26.2916049957275</t>
   </si>
   <si>
-    <t xml:space="preserve">25.968635559082</t>
+    <t xml:space="preserve">25.9686336517334</t>
   </si>
   <si>
     <t xml:space="preserve">25.8377017974854</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1170253753662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.863883972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7804260253906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8415298461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9811916351318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6009483337402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2343349456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.797887802124</t>
+    <t xml:space="preserve">26.1170291900635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8638877868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7804279327393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8415279388428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9811935424805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6009464263916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2343330383301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7978858947754</t>
   </si>
   <si>
     <t xml:space="preserve">26.3352508544922</t>
   </si>
   <si>
-    <t xml:space="preserve">26.134485244751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1606693267822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2392292022705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5622024536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.618408203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3914546966553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0286655426025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9364776611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8928318023682</t>
+    <t xml:space="preserve">26.1344814300537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1606712341309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2392311096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5622043609619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6184062957764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3914527893066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0286674499512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9364814758301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8928337097168</t>
   </si>
   <si>
     <t xml:space="preserve">28.1770572662354</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6707801818848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9675674438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3516387939453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1896171569824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2594509124756</t>
+    <t xml:space="preserve">27.6707782745361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.967565536499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3516368865967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1896152496338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2594528198242</t>
   </si>
   <si>
     <t xml:space="preserve">29.5300464630127</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6435241699219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1110553741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2681789398193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8579216003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6571521759033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6309661865234</t>
+    <t xml:space="preserve">29.643518447876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1110534667969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2681770324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8579196929932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.657154083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6309680938721</t>
   </si>
   <si>
     <t xml:space="preserve">28.8753776550293</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7357139587402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8666458129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0761432647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5475063323975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6784343719482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.617338180542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4776706695557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4427604675293</t>
+    <t xml:space="preserve">28.7357120513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8666496276855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0761413574219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5475044250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6784439086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6173362731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4776725769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.442756652832</t>
   </si>
   <si>
     <t xml:space="preserve">30.0014114379883</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1323432922363</t>
+    <t xml:space="preserve">30.1323490142822</t>
   </si>
   <si>
     <t xml:space="preserve">30.4989604949951</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4504203796387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5726203918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0090751647949</t>
+    <t xml:space="preserve">31.4504108428955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5726318359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0090675354004</t>
   </si>
   <si>
     <t xml:space="preserve">32.0788993835449</t>
   </si>
   <si>
-    <t xml:space="preserve">31.913049697876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.109992980957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2060031890869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3282108306885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0401611328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.966495513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2981948852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5076923370361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0663414001465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2845687866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9703178405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5027847290039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5464324951172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2671051025391</t>
+    <t xml:space="preserve">31.9130535125732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1099872589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2060050964355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3282051086426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0401554107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9664974212646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2981910705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5076904296875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0663433074951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2845649719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.970329284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5027923583984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5464344024658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2671070098877</t>
   </si>
   <si>
     <t xml:space="preserve">31.4766044616699</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5638904571533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.677375793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5115184783936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9877796173096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7841720581055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4126319885254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4391689300537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0318641662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8195495605469</t>
+    <t xml:space="preserve">31.5638942718506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6773700714111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5115146636963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9877853393555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7841758728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4126281738281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4391746520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0318603515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8195533752441</t>
   </si>
   <si>
     <t xml:space="preserve">31.8372478485107</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9964752197266</t>
+    <t xml:space="preserve">31.9964866638184</t>
   </si>
   <si>
     <t xml:space="preserve">32.0141677856445</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3595600128174</t>
+    <t xml:space="preserve">31.3595542907715</t>
   </si>
   <si>
     <t xml:space="preserve">31.5453243255615</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2618598937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2887840270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1118602752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9618644714355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5280132293701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2534065246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3591651916504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3237800598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3326377868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8014755249023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4476280212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0053176879883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4564743041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.155704498291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3945503234863</t>
+    <t xml:space="preserve">32.2618637084961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2887859344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1118621826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9618625640869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.528018951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.253396987915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3591690063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.323787689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3326301574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8014793395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4476318359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0053253173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4564781188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1557006835938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3945465087891</t>
   </si>
   <si>
     <t xml:space="preserve">32.5980110168457</t>
@@ -2372,28 +2372,28 @@
     <t xml:space="preserve">32.7307090759277</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1907005310059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1818542480469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6153182983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5799331665039</t>
+    <t xml:space="preserve">33.1907043457031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1818580627441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6153144836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5799255371094</t>
   </si>
   <si>
     <t xml:space="preserve">33.7037811279297</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6860961914062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2880172729492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.270320892334</t>
+    <t xml:space="preserve">33.6860885620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.288013458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2703132629395</t>
   </si>
   <si>
     <t xml:space="preserve">33.0845527648926</t>
@@ -2402,22 +2402,22 @@
     <t xml:space="preserve">32.7749328613281</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2353210449219</t>
+    <t xml:space="preserve">32.2353248596191</t>
   </si>
   <si>
     <t xml:space="preserve">32.7130165100098</t>
   </si>
   <si>
-    <t xml:space="preserve">32.99609375</t>
+    <t xml:space="preserve">32.9960899353027</t>
   </si>
   <si>
     <t xml:space="preserve">33.0757064819336</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1203269958496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.934549331665</t>
+    <t xml:space="preserve">32.1203231811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9345474243164</t>
   </si>
   <si>
     <t xml:space="preserve">32.4299354553223</t>
@@ -2426,13 +2426,13 @@
     <t xml:space="preserve">32.5449409484863</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8987808227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.252628326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3764686584473</t>
+    <t xml:space="preserve">32.8987884521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2526321411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3764724731445</t>
   </si>
   <si>
     <t xml:space="preserve">33.8364753723145</t>
@@ -2441,7 +2441,7 @@
     <t xml:space="preserve">33.3676261901855</t>
   </si>
   <si>
-    <t xml:space="preserve">34.075325012207</t>
+    <t xml:space="preserve">34.0753211975098</t>
   </si>
   <si>
     <t xml:space="preserve">34.0576248168945</t>
@@ -2456,19 +2456,19 @@
     <t xml:space="preserve">34.6857032775879</t>
   </si>
   <si>
-    <t xml:space="preserve">35.0749359130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.048397064209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1810836791992</t>
+    <t xml:space="preserve">35.0749282836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0483932495117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1810913085938</t>
   </si>
   <si>
     <t xml:space="preserve">35.322624206543</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7295455932617</t>
+    <t xml:space="preserve">35.729549407959</t>
   </si>
   <si>
     <t xml:space="preserve">35.4730072021484</t>
@@ -2477,94 +2477,94 @@
     <t xml:space="preserve">35.5526237487793</t>
   </si>
   <si>
-    <t xml:space="preserve">35.5083961486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1987838745117</t>
+    <t xml:space="preserve">35.5084037780762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1987800598145</t>
   </si>
   <si>
     <t xml:space="preserve">35.8533897399902</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8710823059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0395469665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3495559692383</t>
+    <t xml:space="preserve">35.8710861206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.03955078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3495483398438</t>
   </si>
   <si>
     <t xml:space="preserve">34.4380111694336</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1191673278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2872314453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6591644287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3760833740234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7922439575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3230133056641</t>
+    <t xml:space="preserve">35.1191635131836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2872352600098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6591606140137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.376091003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7922401428223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3230094909668</t>
   </si>
   <si>
     <t xml:space="preserve">34.5530090332031</t>
   </si>
   <si>
-    <t xml:space="preserve">34.1814765930176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2518501281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9510879516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3668556213379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2960891723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2426261901855</t>
+    <t xml:space="preserve">34.1814804077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2518539428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9510841369629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3668518066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2960929870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.2426223754883</t>
   </si>
   <si>
     <t xml:space="preserve">35.6056976318359</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2607078552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9153137207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7914619445801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8445472717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3314666748047</t>
+    <t xml:space="preserve">35.2607002258301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9153175354004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7914695739746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8445434570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.331470489502</t>
   </si>
   <si>
     <t xml:space="preserve">35.3491592407227</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8099327087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9068565368652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7833938598633</t>
+    <t xml:space="preserve">33.8099365234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.906852722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7834014892578</t>
   </si>
   <si>
     <t xml:space="preserve">34.3672409057617</t>
@@ -2579,19 +2579,19 @@
     <t xml:space="preserve">35.2076187133789</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5707054138184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9245452880859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8095474243164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8183937072754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1903114318848</t>
+    <t xml:space="preserve">34.5707015991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9245414733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8095436096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8183975219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1903228759766</t>
   </si>
   <si>
     <t xml:space="preserve">32.8633995056152</t>
@@ -2603,10 +2603,10 @@
     <t xml:space="preserve">32.571475982666</t>
   </si>
   <si>
-    <t xml:space="preserve">33.022632598877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4653244018555</t>
+    <t xml:space="preserve">33.0226249694824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4653205871582</t>
   </si>
   <si>
     <t xml:space="preserve">32.7837829589844</t>
@@ -2615,7 +2615,7 @@
     <t xml:space="preserve">33.1464767456055</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7657051086426</t>
+    <t xml:space="preserve">33.7657012939453</t>
   </si>
   <si>
     <t xml:space="preserve">33.1376266479492</t>
@@ -2624,46 +2624,46 @@
     <t xml:space="preserve">33.3499374389648</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5360870361328</t>
+    <t xml:space="preserve">32.5360908508301</t>
   </si>
   <si>
     <t xml:space="preserve">32.3149375915527</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3414726257324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6068649291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8103179931641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6330108642578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3233871459961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3768615722656</t>
+    <t xml:space="preserve">32.3414764404297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6068534851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8103218078613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6330146789551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3234024047852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3768577575684</t>
   </si>
   <si>
     <t xml:space="preserve">32.9253234863281</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6599273681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1553230285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1110916137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4649353027344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5268592834473</t>
+    <t xml:space="preserve">32.6599349975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1553192138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1110954284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4649314880371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.52685546875</t>
   </si>
   <si>
     <t xml:space="preserve">33.2939109802246</t>
@@ -2672,31 +2672,31 @@
     <t xml:space="preserve">33.1505584716797</t>
   </si>
   <si>
-    <t xml:space="preserve">34.1271553039551</t>
+    <t xml:space="preserve">34.1271514892578</t>
   </si>
   <si>
     <t xml:space="preserve">33.9569206237793</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3118286132812</t>
+    <t xml:space="preserve">33.311824798584</t>
   </si>
   <si>
     <t xml:space="preserve">33.5358200073242</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8583641052246</t>
+    <t xml:space="preserve">33.8583602905273</t>
   </si>
   <si>
     <t xml:space="preserve">33.4372673034668</t>
   </si>
   <si>
-    <t xml:space="preserve">34.1092376708984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3979415893555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8907279968262</t>
+    <t xml:space="preserve">34.1092338562012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3979454040527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8907203674316</t>
   </si>
   <si>
     <t xml:space="preserve">32.9534378051758</t>
@@ -2708,37 +2708,37 @@
     <t xml:space="preserve">32.7294540405273</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7439002990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2814750671387</t>
+    <t xml:space="preserve">31.7438926696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2814674377441</t>
   </si>
   <si>
     <t xml:space="preserve">32.4785804748535</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6577758789062</t>
+    <t xml:space="preserve">32.6577796936035</t>
   </si>
   <si>
     <t xml:space="preserve">32.6040229797363</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2043113708496</t>
+    <t xml:space="preserve">33.2043151855469</t>
   </si>
   <si>
     <t xml:space="preserve">33.8135719299316</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0017166137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6702117919922</t>
+    <t xml:space="preserve">34.0017204284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6702079772949</t>
   </si>
   <si>
     <t xml:space="preserve">34.2257080078125</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0106773376465</t>
+    <t xml:space="preserve">34.0106735229492</t>
   </si>
   <si>
     <t xml:space="preserve">33.6612510681152</t>
@@ -2747,7 +2747,7 @@
     <t xml:space="preserve">34.3421859741211</t>
   </si>
   <si>
-    <t xml:space="preserve">33.831485748291</t>
+    <t xml:space="preserve">33.8314819335938</t>
   </si>
   <si>
     <t xml:space="preserve">33.9479598999023</t>
@@ -2756,16 +2756,16 @@
     <t xml:space="preserve">34.7543258666992</t>
   </si>
   <si>
-    <t xml:space="preserve">34.736400604248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7274475097656</t>
+    <t xml:space="preserve">34.7364044189453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7274398803711</t>
   </si>
   <si>
     <t xml:space="preserve">35.1395874023438</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6950874328613</t>
+    <t xml:space="preserve">35.6950836181641</t>
   </si>
   <si>
     <t xml:space="preserve">34.9603958129883</t>
@@ -2774,10 +2774,10 @@
     <t xml:space="preserve">35.3814964294434</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4621353149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8384437561035</t>
+    <t xml:space="preserve">35.4621391296387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8384399414062</t>
   </si>
   <si>
     <t xml:space="preserve">36.1251449584961</t>
@@ -2789,28 +2789,28 @@
     <t xml:space="preserve">35.7757225036621</t>
   </si>
   <si>
-    <t xml:space="preserve">36.6268844604492</t>
+    <t xml:space="preserve">36.6268768310547</t>
   </si>
   <si>
     <t xml:space="preserve">35.5606880187988</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6109733581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2471084594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8653144836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8563575744629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2864227294922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0086708068848</t>
+    <t xml:space="preserve">34.610969543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2471008300781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8653106689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8563499450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.2864151000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0086669921875</t>
   </si>
   <si>
     <t xml:space="preserve">36.367057800293</t>
@@ -2819,22 +2819,22 @@
     <t xml:space="preserve">36.6627235412598</t>
   </si>
   <si>
-    <t xml:space="preserve">37.0121459960938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7343940734863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1520195007324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8239974975586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2092590332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7737159729004</t>
+    <t xml:space="preserve">37.0121421813965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7343978881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.152027130127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8239936828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2092514038086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.7737121582031</t>
   </si>
   <si>
     <t xml:space="preserve">36.4028930664062</t>
@@ -2843,73 +2843,73 @@
     <t xml:space="preserve">34.485538482666</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6199340820312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6502914428711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6682052612305</t>
+    <t xml:space="preserve">34.6199264526367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6502876281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6682090759277</t>
   </si>
   <si>
     <t xml:space="preserve">34.6557655334473</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4676132202148</t>
+    <t xml:space="preserve">34.4676170349121</t>
   </si>
   <si>
     <t xml:space="preserve">35.1575126647949</t>
   </si>
   <si>
-    <t xml:space="preserve">35.265022277832</t>
+    <t xml:space="preserve">35.2650260925293</t>
   </si>
   <si>
     <t xml:space="preserve">34.5751342773438</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9892807006836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7762565612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3103580474854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3198566436768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0594882965088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6473484039307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6149826049805</t>
+    <t xml:space="preserve">32.9892845153809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7762546539307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.310359954834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3198528289795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0594902038574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.647346496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6149845123291</t>
   </si>
   <si>
     <t xml:space="preserve">31.1794414520264</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5647068023682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5736656188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2959117889404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3710670471191</t>
+    <t xml:space="preserve">31.5647029876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5736637115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.295919418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3710708618164</t>
   </si>
   <si>
     <t xml:space="preserve">32.5681762695312</t>
   </si>
   <si>
-    <t xml:space="preserve">35.058952331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5303344726562</t>
+    <t xml:space="preserve">35.0589485168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5303382873535</t>
   </si>
   <si>
     <t xml:space="preserve">33.7777290344238</t>
@@ -2921,7 +2921,7 @@
     <t xml:space="preserve">33.2132720947266</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7329368591309</t>
+    <t xml:space="preserve">33.7329292297363</t>
   </si>
   <si>
     <t xml:space="preserve">33.4820594787598</t>
@@ -2930,70 +2930,70 @@
     <t xml:space="preserve">32.9176063537598</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8493995666504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4944953918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2973823547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8225250244141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7722434997559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1898612976074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5930480957031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.315299987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0141563415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6000022888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5427742004395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3725357055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.277458190918</t>
+    <t xml:space="preserve">33.8494033813477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.494499206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2973785400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8225288391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7722396850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.189868927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5930519104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3153038024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0141525268555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5999984741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5427665710449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3725433349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.2774620056152</t>
   </si>
   <si>
     <t xml:space="preserve">35.7309265136719</t>
   </si>
   <si>
-    <t xml:space="preserve">36.6537628173828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.0927886962891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.4222793579102</t>
+    <t xml:space="preserve">36.6537590026855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0927848815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.4222831726074</t>
   </si>
   <si>
     <t xml:space="preserve">38.6338348388672</t>
   </si>
   <si>
-    <t xml:space="preserve">39.14453125</t>
+    <t xml:space="preserve">39.1445274353027</t>
   </si>
   <si>
     <t xml:space="preserve">37.8991470336914</t>
   </si>
   <si>
-    <t xml:space="preserve">40.1928062438965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3015823364258</t>
+    <t xml:space="preserve">40.1928100585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3015785217285</t>
   </si>
   <si>
     <t xml:space="preserve">37.04736328125</t>
@@ -3005,31 +3005,31 @@
     <t xml:space="preserve">37.328369140625</t>
   </si>
   <si>
-    <t xml:space="preserve">38.2167091369629</t>
+    <t xml:space="preserve">38.2167053222656</t>
   </si>
   <si>
     <t xml:space="preserve">38.1623153686523</t>
   </si>
   <si>
-    <t xml:space="preserve">38.3798713684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.4643402099609</t>
+    <t xml:space="preserve">38.3798789978027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4643363952637</t>
   </si>
   <si>
     <t xml:space="preserve">37.8722457885742</t>
   </si>
   <si>
-    <t xml:space="preserve">37.0926818847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8479423522949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2739791870117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1924018859863</t>
+    <t xml:space="preserve">37.0926856994629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8479385375977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2739715576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1923904418945</t>
   </si>
   <si>
     <t xml:space="preserve">37.7816009521484</t>
@@ -3041,55 +3041,55 @@
     <t xml:space="preserve">37.3646278381348</t>
   </si>
   <si>
-    <t xml:space="preserve">37.6003036499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.9719619750977</t>
+    <t xml:space="preserve">37.6003074645996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9719581604004</t>
   </si>
   <si>
     <t xml:space="preserve">36.7482299804688</t>
   </si>
   <si>
-    <t xml:space="preserve">36.7663536071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.663761138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5974273681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0176963806152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0930938720703</t>
+    <t xml:space="preserve">36.7663612365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6637573242188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5974197387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.017692565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0930976867676</t>
   </si>
   <si>
     <t xml:space="preserve">41.1445960998535</t>
   </si>
   <si>
-    <t xml:space="preserve">41.162727355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8244514465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7910804748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9632987976074</t>
+    <t xml:space="preserve">41.1627311706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8244476318359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.791072845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9633026123047</t>
   </si>
   <si>
     <t xml:space="preserve">40.7094917297363</t>
   </si>
   <si>
-    <t xml:space="preserve">40.2925186157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1717910766602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4527969360352</t>
+    <t xml:space="preserve">40.2925148010254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1717872619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4528007507324</t>
   </si>
   <si>
     <t xml:space="preserve">41.5525131225586</t>
@@ -3098,22 +3098,22 @@
     <t xml:space="preserve">42.2776870727539</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6884841918945</t>
+    <t xml:space="preserve">41.6884803771973</t>
   </si>
   <si>
     <t xml:space="preserve">41.6975440979004</t>
   </si>
   <si>
-    <t xml:space="preserve">41.8335189819336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3349609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3139457702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6221389770508</t>
+    <t xml:space="preserve">41.8335113525391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3349533081055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3139381408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.622142791748</t>
   </si>
   <si>
     <t xml:space="preserve">42.9666023254395</t>
@@ -3122,7 +3122,7 @@
     <t xml:space="preserve">43.1569557189941</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8005485534668</t>
+    <t xml:space="preserve">43.8005523681641</t>
   </si>
   <si>
     <t xml:space="preserve">44.1993942260742</t>
@@ -3134,58 +3134,58 @@
     <t xml:space="preserve">43.202278137207</t>
   </si>
   <si>
-    <t xml:space="preserve">43.6373901367188</t>
+    <t xml:space="preserve">43.6373825073242</t>
   </si>
   <si>
     <t xml:space="preserve">42.5677528381348</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8940849304199</t>
+    <t xml:space="preserve">42.8940811157227</t>
   </si>
   <si>
     <t xml:space="preserve">42.9031524658203</t>
   </si>
   <si>
-    <t xml:space="preserve">42.7037239074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4074745178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0086326599121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.525318145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.5372657775879</t>
+    <t xml:space="preserve">42.703727722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4074783325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0086250305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5253143310547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.5372619628906</t>
   </si>
   <si>
     <t xml:space="preserve">40.4828758239746</t>
   </si>
   <si>
-    <t xml:space="preserve">40.4466133117676</t>
+    <t xml:space="preserve">40.4466171264648</t>
   </si>
   <si>
     <t xml:space="preserve">40.6279106140137</t>
   </si>
   <si>
-    <t xml:space="preserve">40.374095916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8788414001465</t>
+    <t xml:space="preserve">40.3741035461426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8788299560547</t>
   </si>
   <si>
     <t xml:space="preserve">40.8545303344727</t>
   </si>
   <si>
-    <t xml:space="preserve">41.5978317260742</t>
+    <t xml:space="preserve">41.5978355407715</t>
   </si>
   <si>
     <t xml:space="preserve">41.353084564209</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0630187988281</t>
+    <t xml:space="preserve">41.0630111694336</t>
   </si>
   <si>
     <t xml:space="preserve">41.7881889343262</t>
@@ -3194,85 +3194,85 @@
     <t xml:space="preserve">42.1507797241211</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1536674499512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3984107971191</t>
+    <t xml:space="preserve">41.1536598205566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3984069824219</t>
   </si>
   <si>
     <t xml:space="preserve">41.0992736816406</t>
   </si>
   <si>
-    <t xml:space="preserve">41.507194519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7366905212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2290649414062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9723663330078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8302154541016</t>
+    <t xml:space="preserve">41.5071868896484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7366828918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2290687561035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9723701477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8302192687988</t>
   </si>
   <si>
     <t xml:space="preserve">40.9542388916016</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6551094055176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9179763793945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9995651245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.5463333129883</t>
+    <t xml:space="preserve">40.655101776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9179801940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9995613098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.5463256835938</t>
   </si>
   <si>
     <t xml:space="preserve">40.2109336853027</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6913642883301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6460418701172</t>
+    <t xml:space="preserve">40.6913604736328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6460380554199</t>
   </si>
   <si>
     <t xml:space="preserve">40.5825881958008</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7820129394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4556846618652</t>
+    <t xml:space="preserve">40.7820167541504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4556884765625</t>
   </si>
   <si>
     <t xml:space="preserve">39.6489295959473</t>
   </si>
   <si>
-    <t xml:space="preserve">39.7848968505859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9752578735352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3712196350098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5343856811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3411331176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0238761901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0782585144043</t>
+    <t xml:space="preserve">39.7848930358887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9752540588379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3712158203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5343780517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3411407470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.023868560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.0782661437988</t>
   </si>
   <si>
     <t xml:space="preserve">41.7972564697266</t>
@@ -3281,46 +3281,46 @@
     <t xml:space="preserve">42.8306312561035</t>
   </si>
   <si>
-    <t xml:space="preserve">42.2504920959473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8759536743164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.5405616760254</t>
+    <t xml:space="preserve">42.25048828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8759574890137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5405654907227</t>
   </si>
   <si>
     <t xml:space="preserve">43.2838668823242</t>
   </si>
   <si>
-    <t xml:space="preserve">43.2657318115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2566719055176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.513370513916</t>
+    <t xml:space="preserve">43.2657356262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.2566680908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5133743286133</t>
   </si>
   <si>
     <t xml:space="preserve">41.9966812133789</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3287811279297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7787208557129</t>
+    <t xml:space="preserve">40.3287773132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7787170410156</t>
   </si>
   <si>
     <t xml:space="preserve">40.8363990783691</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9060325622559</t>
+    <t xml:space="preserve">41.9060363769531</t>
   </si>
   <si>
     <t xml:space="preserve">41.9785499572754</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6250267028809</t>
+    <t xml:space="preserve">41.6250190734863</t>
   </si>
   <si>
     <t xml:space="preserve">40.3197135925293</t>
@@ -3329,28 +3329,28 @@
     <t xml:space="preserve">41.3440246582031</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6159629821777</t>
+    <t xml:space="preserve">41.615966796875</t>
   </si>
   <si>
     <t xml:space="preserve">42.8668899536133</t>
   </si>
   <si>
-    <t xml:space="preserve">42.3501968383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8607063293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9332237243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2276191711426</t>
+    <t xml:space="preserve">42.3502044677734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.860710144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9332275390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2276229858398</t>
   </si>
   <si>
     <t xml:space="preserve">40.1646270751953</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7052841186523</t>
+    <t xml:space="preserve">40.7052879333496</t>
   </si>
   <si>
     <t xml:space="preserve">41.1084938049316</t>
@@ -3362,46 +3362,46 @@
     <t xml:space="preserve">40.8977279663086</t>
   </si>
   <si>
-    <t xml:space="preserve">40.1279678344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.4406852722168</t>
+    <t xml:space="preserve">40.1279716491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.4406929016113</t>
   </si>
   <si>
     <t xml:space="preserve">39.3490524291992</t>
   </si>
   <si>
-    <t xml:space="preserve">39.5781440734863</t>
+    <t xml:space="preserve">39.5781478881836</t>
   </si>
   <si>
     <t xml:space="preserve">40.0088424682617</t>
   </si>
   <si>
-    <t xml:space="preserve">40.4303703308105</t>
+    <t xml:space="preserve">40.4303741455078</t>
   </si>
   <si>
     <t xml:space="preserve">40.2929191589355</t>
   </si>
   <si>
-    <t xml:space="preserve">40.338737487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0260162353516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.807243347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.677791595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3295745849609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7511024475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.5861663818359</t>
+    <t xml:space="preserve">40.3387413024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0260200500488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8072395324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6777954101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3295707702637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.751106262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.5861587524414</t>
   </si>
   <si>
     <t xml:space="preserve">40.9801979064941</t>
@@ -3413,49 +3413,49 @@
     <t xml:space="preserve">41.5391883850098</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3834037780762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9172058105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4143524169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2116050720215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2574157714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2757415771484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9721870422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.155460357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0180053710938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0546569824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8805541992188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9916687011719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.083309173584</t>
+    <t xml:space="preserve">41.3834075927734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9172096252441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.4143486022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.211597442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2574195861816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2757453918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9721908569336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1554641723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0180015563965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0546607971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8805503845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9916648864746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.0833053588867</t>
   </si>
   <si>
     <t xml:space="preserve">39.3398933410645</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8725357055664</t>
+    <t xml:space="preserve">38.8725395202637</t>
   </si>
   <si>
     <t xml:space="preserve">38.9550132751465</t>
@@ -3464,19 +3464,19 @@
     <t xml:space="preserve">38.9458503723145</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6067886352539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.1474494934082</t>
+    <t xml:space="preserve">38.6067924499512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.1474571228027</t>
   </si>
   <si>
     <t xml:space="preserve">39.8438987731934</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3845558166504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2654228210449</t>
+    <t xml:space="preserve">40.3845520019531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2654266357422</t>
   </si>
   <si>
     <t xml:space="preserve">39.81640625</t>
@@ -3488,19 +3488,19 @@
     <t xml:space="preserve">41.6033363342285</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7682800292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.465877532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5025253295898</t>
+    <t xml:space="preserve">41.7682762145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4658699035645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5025367736816</t>
   </si>
   <si>
     <t xml:space="preserve">41.0901641845703</t>
   </si>
   <si>
-    <t xml:space="preserve">40.549503326416</t>
+    <t xml:space="preserve">40.5494995117188</t>
   </si>
   <si>
     <t xml:space="preserve">40.3204078674316</t>
@@ -3509,7 +3509,7 @@
     <t xml:space="preserve">40.0821571350098</t>
   </si>
   <si>
-    <t xml:space="preserve">40.1371383666992</t>
+    <t xml:space="preserve">40.1371307373047</t>
   </si>
   <si>
     <t xml:space="preserve">38.7808990478516</t>
@@ -3518,34 +3518,34 @@
     <t xml:space="preserve">38.900032043457</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2849006652832</t>
+    <t xml:space="preserve">39.284912109375</t>
   </si>
   <si>
     <t xml:space="preserve">39.220760345459</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6159515380859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8908653259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.1016311645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.4131927490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0454978942871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.7247695922852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0351829528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3742408752441</t>
+    <t xml:space="preserve">38.6159591674805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8908729553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.101634979248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.413200378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0455017089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.7247619628906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0351791381836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3742332458496</t>
   </si>
   <si>
     <t xml:space="preserve">40.6228179931641</t>
@@ -3560,34 +3560,34 @@
     <t xml:space="preserve">41.4383850097656</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1818008422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1726379394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9985275268555</t>
+    <t xml:space="preserve">41.1817970275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1726341247559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9985313415527</t>
   </si>
   <si>
     <t xml:space="preserve">41.4292182922363</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6766395568848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.410888671875</t>
+    <t xml:space="preserve">41.676643371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4108924865723</t>
   </si>
   <si>
     <t xml:space="preserve">41.3925666809082</t>
   </si>
   <si>
-    <t xml:space="preserve">41.8232650756836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0340270996094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.9595680236816</t>
+    <t xml:space="preserve">41.8232574462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.0340232849121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.9595642089844</t>
   </si>
   <si>
     <t xml:space="preserve">42.2997741699219</t>
@@ -3605,13 +3605,13 @@
     <t xml:space="preserve">41.7499542236328</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7316284179688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8965721130371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0523529052734</t>
+    <t xml:space="preserve">41.7316246032715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8965759277344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.0523567199707</t>
   </si>
   <si>
     <t xml:space="preserve">42.1073379516602</t>
@@ -3626,25 +3626,25 @@
     <t xml:space="preserve">42.6479988098145</t>
   </si>
   <si>
-    <t xml:space="preserve">42.5746879577637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3089332580566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1989784240723</t>
+    <t xml:space="preserve">42.5746917724609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3089370727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.198974609375</t>
   </si>
   <si>
     <t xml:space="preserve">41.9057350158691</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0065383911133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9698829650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0248641967773</t>
+    <t xml:space="preserve">42.006534576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9698791503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.0248680114746</t>
   </si>
   <si>
     <t xml:space="preserve">41.2551116943359</t>
@@ -3653,16 +3653,16 @@
     <t xml:space="preserve">41.0535087585449</t>
   </si>
   <si>
-    <t xml:space="preserve">40.1188049316406</t>
+    <t xml:space="preserve">40.1188087463379</t>
   </si>
   <si>
     <t xml:space="preserve">40.0363311767578</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3753967285156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.5036888122559</t>
+    <t xml:space="preserve">40.3753929138184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.5036811828613</t>
   </si>
   <si>
     <t xml:space="preserve">41.2092933654785</t>
@@ -3680,7 +3680,7 @@
     <t xml:space="preserve">42.6949157714844</t>
   </si>
   <si>
-    <t xml:space="preserve">42.9545669555664</t>
+    <t xml:space="preserve">42.9545707702637</t>
   </si>
   <si>
     <t xml:space="preserve">42.6021766662598</t>
@@ -3692,28 +3692,28 @@
     <t xml:space="preserve">42.4630737304688</t>
   </si>
   <si>
-    <t xml:space="preserve">42.1848793029785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.147777557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9437675476074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.4167060852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.7691040039062</t>
+    <t xml:space="preserve">42.1848754882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1477851867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9437637329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.4167098999023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.769100189209</t>
   </si>
   <si>
     <t xml:space="preserve">43.5480728149414</t>
   </si>
   <si>
-    <t xml:space="preserve">43.9004592895508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.3270378112793</t>
+    <t xml:space="preserve">43.900463104248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.3270416259766</t>
   </si>
   <si>
     <t xml:space="preserve">43.928279876709</t>
@@ -3725,46 +3725,46 @@
     <t xml:space="preserve">44.2435760498047</t>
   </si>
   <si>
-    <t xml:space="preserve">44.484691619873</t>
+    <t xml:space="preserve">44.4846878051758</t>
   </si>
   <si>
     <t xml:space="preserve">44.8927192687988</t>
   </si>
   <si>
-    <t xml:space="preserve">44.9761810302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.6701507568359</t>
+    <t xml:space="preserve">44.9761734008789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.6701545715332</t>
   </si>
   <si>
     <t xml:space="preserve">44.5866966247559</t>
   </si>
   <si>
-    <t xml:space="preserve">44.1044807434082</t>
+    <t xml:space="preserve">44.1044769287109</t>
   </si>
   <si>
     <t xml:space="preserve">44.7443428039551</t>
   </si>
   <si>
-    <t xml:space="preserve">44.7628898620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.9112663269043</t>
+    <t xml:space="preserve">44.7628936767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.9112701416016</t>
   </si>
   <si>
     <t xml:space="preserve">44.9019889831543</t>
   </si>
   <si>
-    <t xml:space="preserve">44.6979789733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.1987457275391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.1338233947754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.1152839660645</t>
+    <t xml:space="preserve">44.6979751586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.1987419128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.1338310241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.1152801513672</t>
   </si>
   <si>
     <t xml:space="preserve">46.4599266052246</t>
@@ -3782,7 +3782,7 @@
     <t xml:space="preserve">48.0178642272949</t>
   </si>
   <si>
-    <t xml:space="preserve">47.6283798217773</t>
+    <t xml:space="preserve">47.6283836364746</t>
   </si>
   <si>
     <t xml:space="preserve">46.8494110107422</t>
@@ -3791,49 +3791,49 @@
     <t xml:space="preserve">46.8679618835449</t>
   </si>
   <si>
-    <t xml:space="preserve">46.3300971984863</t>
+    <t xml:space="preserve">46.3301010131836</t>
   </si>
   <si>
     <t xml:space="preserve">46.1724510192871</t>
   </si>
   <si>
-    <t xml:space="preserve">46.9421463012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.0534324645996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.5171051025391</t>
+    <t xml:space="preserve">46.9421424865723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.0534362792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.5171012878418</t>
   </si>
   <si>
     <t xml:space="preserve">47.0163345336914</t>
   </si>
   <si>
-    <t xml:space="preserve">47.2945404052734</t>
+    <t xml:space="preserve">47.2945327758789</t>
   </si>
   <si>
     <t xml:space="preserve">48.2218856811523</t>
   </si>
   <si>
-    <t xml:space="preserve">47.7396621704102</t>
+    <t xml:space="preserve">47.7396659851074</t>
   </si>
   <si>
     <t xml:space="preserve">48.3888053894043</t>
   </si>
   <si>
-    <t xml:space="preserve">48.833927154541</t>
+    <t xml:space="preserve">48.8339347839355</t>
   </si>
   <si>
     <t xml:space="preserve">49.4274291992188</t>
   </si>
   <si>
-    <t xml:space="preserve">49.9838371276855</t>
+    <t xml:space="preserve">49.9838333129883</t>
   </si>
   <si>
     <t xml:space="preserve">49.8911018371582</t>
   </si>
   <si>
-    <t xml:space="preserve">50.9482688903809</t>
+    <t xml:space="preserve">50.9482727050781</t>
   </si>
   <si>
     <t xml:space="preserve">50.9111824035645</t>
@@ -3842,28 +3842,28 @@
     <t xml:space="preserve">52.0981788635254</t>
   </si>
   <si>
-    <t xml:space="preserve">52.3392868041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.7102317810059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.0069732666016</t>
+    <t xml:space="preserve">52.3392906188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.7102279663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.0069770812988</t>
   </si>
   <si>
     <t xml:space="preserve">52.4320259094238</t>
   </si>
   <si>
-    <t xml:space="preserve">52.7287788391113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.9142417907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.2666282653809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.598949432373</t>
+    <t xml:space="preserve">52.7287712097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.9142456054688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.2666320800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.5989418029785</t>
   </si>
   <si>
     <t xml:space="preserve">51.8941650390625</t>
@@ -3872,7 +3872,7 @@
     <t xml:space="preserve">51.467586517334</t>
   </si>
   <si>
-    <t xml:space="preserve">52.0610847473145</t>
+    <t xml:space="preserve">52.061092376709</t>
   </si>
   <si>
     <t xml:space="preserve">51.8014297485352</t>
@@ -3881,7 +3881,7 @@
     <t xml:space="preserve">51.5232276916504</t>
   </si>
   <si>
-    <t xml:space="preserve">51.6530570983887</t>
+    <t xml:space="preserve">51.6530532836914</t>
   </si>
   <si>
     <t xml:space="preserve">51.430492401123</t>
@@ -3890,7 +3890,7 @@
     <t xml:space="preserve">51.8570709228516</t>
   </si>
   <si>
-    <t xml:space="preserve">50.6886100769043</t>
+    <t xml:space="preserve">50.6886177062988</t>
   </si>
   <si>
     <t xml:space="preserve">49.9467430114746</t>
@@ -3899,10 +3899,10 @@
     <t xml:space="preserve">49.0564918518066</t>
   </si>
   <si>
-    <t xml:space="preserve">48.7411956787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.6670036315918</t>
+    <t xml:space="preserve">48.7411994934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.6670074462891</t>
   </si>
   <si>
     <t xml:space="preserve">47.3872718811035</t>
@@ -3911,13 +3911,13 @@
     <t xml:space="preserve">48.0920524597168</t>
   </si>
   <si>
-    <t xml:space="preserve">46.9235992431641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.3857383728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.3501815795898</t>
+    <t xml:space="preserve">46.9236030578613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.3857421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.3501853942871</t>
   </si>
   <si>
     <t xml:space="preserve">46.9050559997559</t>
@@ -3929,40 +3929,40 @@
     <t xml:space="preserve">47.1647109985352</t>
   </si>
   <si>
-    <t xml:space="preserve">45.365665435791</t>
+    <t xml:space="preserve">45.3656616210938</t>
   </si>
   <si>
     <t xml:space="preserve">45.4305763244629</t>
   </si>
   <si>
-    <t xml:space="preserve">46.6268501281738</t>
+    <t xml:space="preserve">46.6268463134766</t>
   </si>
   <si>
     <t xml:space="preserve">45.7829704284668</t>
   </si>
   <si>
-    <t xml:space="preserve">45.3563919067383</t>
+    <t xml:space="preserve">45.3563842773438</t>
   </si>
   <si>
     <t xml:space="preserve">45.6160469055176</t>
   </si>
   <si>
-    <t xml:space="preserve">45.4120330810547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.3378448486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.8200607299805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.9591636657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.146167755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.4243698120117</t>
+    <t xml:space="preserve">45.412036895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.3378410339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.8200645446777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.9591674804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.1461639404297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.424373626709</t>
   </si>
   <si>
     <t xml:space="preserve">47.3687286376953</t>
@@ -3971,16 +3971,16 @@
     <t xml:space="preserve">47.6654739379883</t>
   </si>
   <si>
-    <t xml:space="preserve">47.9436836242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.2589797973633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.8895721435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.6113662719727</t>
+    <t xml:space="preserve">47.9436798095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.258975982666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.8895683288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.6113700866699</t>
   </si>
   <si>
     <t xml:space="preserve">49.019401550293</t>
@@ -3992,7 +3992,7 @@
     <t xml:space="preserve">51.0781021118164</t>
   </si>
   <si>
-    <t xml:space="preserve">52.2280082702637</t>
+    <t xml:space="preserve">52.2280120849609</t>
   </si>
   <si>
     <t xml:space="preserve">52.3949317932129</t>
@@ -4007,25 +4007,25 @@
     <t xml:space="preserve">52.1352767944336</t>
   </si>
   <si>
-    <t xml:space="preserve">52.357837677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.0255241394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.580394744873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0239906311035</t>
+    <t xml:space="preserve">52.3578338623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.0255279541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.5803985595703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.0239868164062</t>
   </si>
   <si>
     <t xml:space="preserve">51.0410079956055</t>
   </si>
   <si>
-    <t xml:space="preserve">52.4134712219238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.6849555969238</t>
+    <t xml:space="preserve">52.4134788513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.6849517822266</t>
   </si>
   <si>
     <t xml:space="preserve">51.8611679077148</t>
@@ -4043,19 +4043,19 @@
     <t xml:space="preserve">51.4492721557617</t>
   </si>
   <si>
-    <t xml:space="preserve">51.8986129760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.5054473876953</t>
+    <t xml:space="preserve">51.898609161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.5054397583008</t>
   </si>
   <si>
     <t xml:space="preserve">50.2884826660156</t>
   </si>
   <si>
-    <t xml:space="preserve">50.0263671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.3820953369141</t>
+    <t xml:space="preserve">50.0263633728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.3820915222168</t>
   </si>
   <si>
     <t xml:space="preserve">51.7301063537598</t>
@@ -4067,19 +4067,19 @@
     <t xml:space="preserve">50.4757041931152</t>
   </si>
   <si>
-    <t xml:space="preserve">50.1387023925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.8688812255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.0450897216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.3556594848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.6552238464355</t>
+    <t xml:space="preserve">50.1386985778809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.8688735961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.0450859069824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.3556671142578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.655216217041</t>
   </si>
   <si>
     <t xml:space="preserve">51.973503112793</t>
@@ -4091,16 +4091,16 @@
     <t xml:space="preserve">52.9096221923828</t>
   </si>
   <si>
-    <t xml:space="preserve">52.1981658935547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.3666763305664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.7598457336426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.9283447265625</t>
+    <t xml:space="preserve">52.1981735229492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.3666725158691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.7598419189453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.9283485412598</t>
   </si>
   <si>
     <t xml:space="preserve">52.8908996582031</t>
@@ -4109,10 +4109,10 @@
     <t xml:space="preserve">51.9922294616699</t>
   </si>
   <si>
-    <t xml:space="preserve">51.1309928894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.1684341430664</t>
+    <t xml:space="preserve">51.130989074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.1684379577637</t>
   </si>
   <si>
     <t xml:space="preserve">50.8875999450684</t>
@@ -4121,58 +4121,58 @@
     <t xml:space="preserve">50.62548828125</t>
   </si>
   <si>
-    <t xml:space="preserve">50.9999351501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.4118270874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.1574287414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.8843040466309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.9294548034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.6783485412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.2102890014648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.2928924560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.7593002319336</t>
+    <t xml:space="preserve">50.9999389648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.4118309020996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.1574211120605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.8843002319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.9294509887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.678352355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.2102928161621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.2928886413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.7593040466309</t>
   </si>
   <si>
     <t xml:space="preserve">46.3193206787109</t>
   </si>
   <si>
-    <t xml:space="preserve">46.3474044799805</t>
+    <t xml:space="preserve">46.3474082946777</t>
   </si>
   <si>
     <t xml:space="preserve">46.3754920959473</t>
   </si>
   <si>
-    <t xml:space="preserve">46.5814361572266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.7686576843262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4393653869629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.325382232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.9134902954102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.145866394043</t>
+    <t xml:space="preserve">46.5814399719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.7686614990234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4393692016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.3253860473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.9134941101074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1458702087402</t>
   </si>
   <si>
     <t xml:space="preserve">43.5764846801758</t>
@@ -4190,13 +4190,13 @@
     <t xml:space="preserve">42.8275871276855</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6029167175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8837547302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2488403320312</t>
+    <t xml:space="preserve">42.602912902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8837585449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.2488441467285</t>
   </si>
   <si>
     <t xml:space="preserve">43.1645927429199</t>
@@ -4205,46 +4205,46 @@
     <t xml:space="preserve">43.3330955505371</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1552314758301</t>
+    <t xml:space="preserve">43.1552276611328</t>
   </si>
   <si>
     <t xml:space="preserve">40.5808944702148</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7978515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9647026062012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.7290191650391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4123878479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0941162109375</t>
+    <t xml:space="preserve">41.7978553771973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9647064208984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.7290229797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4123916625977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0941123962402</t>
   </si>
   <si>
     <t xml:space="preserve">39.3639335632324</t>
   </si>
   <si>
-    <t xml:space="preserve">39.1767158508301</t>
+    <t xml:space="preserve">39.1767082214355</t>
   </si>
   <si>
     <t xml:space="preserve">37.7725257873535</t>
   </si>
   <si>
-    <t xml:space="preserve">41.4140510559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2719764709473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.749397277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9382743835449</t>
+    <t xml:space="preserve">41.4140434265137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.27197265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7493934631348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9382705688477</t>
   </si>
   <si>
     <t xml:space="preserve">41.3672409057617</t>
@@ -4256,7 +4256,7 @@
     <t xml:space="preserve">42.7433395385742</t>
   </si>
   <si>
-    <t xml:space="preserve">42.7339782714844</t>
+    <t xml:space="preserve">42.7339744567871</t>
   </si>
   <si>
     <t xml:space="preserve">42.7995071411133</t>
@@ -4271,31 +4271,31 @@
     <t xml:space="preserve">42.5186653137207</t>
   </si>
   <si>
-    <t xml:space="preserve">42.1348533630371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.9696617126465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.8854064941406</t>
+    <t xml:space="preserve">42.1348571777344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.9696578979492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.8854103088379</t>
   </si>
   <si>
     <t xml:space="preserve">42.7246131896973</t>
   </si>
   <si>
-    <t xml:space="preserve">44.2130470275879</t>
+    <t xml:space="preserve">44.2130508422852</t>
   </si>
   <si>
     <t xml:space="preserve">45.7576522827148</t>
   </si>
   <si>
-    <t xml:space="preserve">44.7279167175293</t>
+    <t xml:space="preserve">44.727912902832</t>
   </si>
   <si>
     <t xml:space="preserve">45.9823188781738</t>
   </si>
   <si>
-    <t xml:space="preserve">46.0665740966797</t>
+    <t xml:space="preserve">46.0665702819824</t>
   </si>
   <si>
     <t xml:space="preserve">45.5142593383789</t>
@@ -4310,46 +4310,46 @@
     <t xml:space="preserve">45.1117248535156</t>
   </si>
   <si>
-    <t xml:space="preserve">45.0649147033691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.5891456604004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.8215293884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3050079345703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.7527008056641</t>
+    <t xml:space="preserve">45.0649223327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.5891494750977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.8215255737305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3050117492676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.7526969909668</t>
   </si>
   <si>
     <t xml:space="preserve">42.0786895751953</t>
   </si>
   <si>
-    <t xml:space="preserve">41.872745513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0522613525391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6293563842773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6183433532715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1034736633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.4201049804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7929039001465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.7009429931641</t>
+    <t xml:space="preserve">41.8727378845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0522575378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6293525695801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6183395385742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1034698486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.4201011657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7929000854492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.7009353637695</t>
   </si>
   <si>
     <t xml:space="preserve">39.326488494873</t>
@@ -4370,22 +4370,22 @@
     <t xml:space="preserve">38.7180137634277</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8584251403809</t>
+    <t xml:space="preserve">38.8584289550781</t>
   </si>
   <si>
     <t xml:space="preserve">39.8413581848145</t>
   </si>
   <si>
-    <t xml:space="preserve">40.1639595031738</t>
+    <t xml:space="preserve">40.1639633178711</t>
   </si>
   <si>
     <t xml:space="preserve">39.3764305114746</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2625694274902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.6705703735352</t>
+    <t xml:space="preserve">39.2625732421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.6705741882324</t>
   </si>
   <si>
     <t xml:space="preserve">39.9362411499023</t>
@@ -4394,10 +4394,10 @@
     <t xml:space="preserve">40.6004219055176</t>
   </si>
   <si>
-    <t xml:space="preserve">39.5472221374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6742935180664</t>
+    <t xml:space="preserve">39.5472183227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6742973327637</t>
   </si>
   <si>
     <t xml:space="preserve">38.636344909668</t>
@@ -4406,7 +4406,7 @@
     <t xml:space="preserve">37.5167274475098</t>
   </si>
   <si>
-    <t xml:space="preserve">37.8013763427734</t>
+    <t xml:space="preserve">37.8013725280762</t>
   </si>
   <si>
     <t xml:space="preserve">37.2320785522461</t>
@@ -4418,22 +4418,22 @@
     <t xml:space="preserve">36.7576637268066</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1351623535156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.647533416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6570205688477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8847351074219</t>
+    <t xml:space="preserve">35.1351661682129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6475296020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6570167541504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8847389221191</t>
   </si>
   <si>
     <t xml:space="preserve">35.7898559570312</t>
   </si>
   <si>
-    <t xml:space="preserve">37.0233383178711</t>
+    <t xml:space="preserve">37.0233306884766</t>
   </si>
   <si>
     <t xml:space="preserve">37.4218406677246</t>
@@ -4457,10 +4457,10 @@
     <t xml:space="preserve">39.072811126709</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3479690551758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.3859176635742</t>
+    <t xml:space="preserve">39.3479652404785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.3859214782715</t>
   </si>
   <si>
     <t xml:space="preserve">40.8376312255859</t>
@@ -4469,10 +4469,10 @@
     <t xml:space="preserve">40.8186531066895</t>
   </si>
   <si>
-    <t xml:space="preserve">40.714282989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.027400970459</t>
+    <t xml:space="preserve">40.7142791748047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0273971557617</t>
   </si>
   <si>
     <t xml:space="preserve">41.2835807800293</t>
@@ -4484,34 +4484,34 @@
     <t xml:space="preserve">41.568229675293</t>
   </si>
   <si>
-    <t xml:space="preserve">40.9799575805664</t>
+    <t xml:space="preserve">40.9799537658691</t>
   </si>
   <si>
     <t xml:space="preserve">40.799674987793</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0026626586914</t>
+    <t xml:space="preserve">40.0026588439941</t>
   </si>
   <si>
     <t xml:space="preserve">40.7806968688965</t>
   </si>
   <si>
-    <t xml:space="preserve">40.9420051574707</t>
+    <t xml:space="preserve">40.9420013427734</t>
   </si>
   <si>
     <t xml:space="preserve">41.1886978149414</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3784637451172</t>
+    <t xml:space="preserve">41.3784599304199</t>
   </si>
   <si>
     <t xml:space="preserve">40.7047958374023</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6573486328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.296802520752</t>
+    <t xml:space="preserve">40.6573524475098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2967987060547</t>
   </si>
   <si>
     <t xml:space="preserve">40.0311241149902</t>
@@ -4520,13 +4520,13 @@
     <t xml:space="preserve">39.5662002563477</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0179100036621</t>
+    <t xml:space="preserve">41.0179061889648</t>
   </si>
   <si>
     <t xml:space="preserve">40.4960517883301</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1222763061523</t>
+    <t xml:space="preserve">41.1222801208496</t>
   </si>
   <si>
     <t xml:space="preserve">41.3120460510254</t>
@@ -4544,19 +4544,19 @@
     <t xml:space="preserve">40.5719566345215</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6478652954102</t>
+    <t xml:space="preserve">40.6478614807129</t>
   </si>
   <si>
     <t xml:space="preserve">40.1070327758789</t>
   </si>
   <si>
-    <t xml:space="preserve">40.1354904174805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9077796936035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2398681640625</t>
+    <t xml:space="preserve">40.1354942321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9077758789062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2398643493652</t>
   </si>
   <si>
     <t xml:space="preserve">41.074836730957</t>
@@ -4571,13 +4571,13 @@
     <t xml:space="preserve">41.9857139587402</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3499984741211</t>
+    <t xml:space="preserve">41.3500022888184</t>
   </si>
   <si>
     <t xml:space="preserve">39.9647064208984</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9779281616211</t>
+    <t xml:space="preserve">38.9779243469238</t>
   </si>
   <si>
     <t xml:space="preserve">38.4465789794922</t>
@@ -4586,58 +4586,58 @@
     <t xml:space="preserve">38.6553230285645</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6078796386719</t>
+    <t xml:space="preserve">38.6078758239746</t>
   </si>
   <si>
     <t xml:space="preserve">39.2720603942871</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1619338989258</t>
+    <t xml:space="preserve">38.1619300842285</t>
   </si>
   <si>
     <t xml:space="preserve">38.7976455688477</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4181175231934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8925285339355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.550952911377</t>
+    <t xml:space="preserve">38.4181137084961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8925361633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5509490966797</t>
   </si>
   <si>
     <t xml:space="preserve">39.0253677368164</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4560661315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.0480690002441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1050033569336</t>
+    <t xml:space="preserve">38.4560699462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.0480651855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1049995422363</t>
   </si>
   <si>
     <t xml:space="preserve">37.7254676818848</t>
   </si>
   <si>
-    <t xml:space="preserve">37.5546836853027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.0043601989746</t>
+    <t xml:space="preserve">37.5546798706055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0043563842773</t>
   </si>
   <si>
     <t xml:space="preserve">36.956916809082</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2015762329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5848426818848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3913497924805</t>
+    <t xml:space="preserve">35.2015800476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5848388671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3913459777832</t>
   </si>
   <si>
     <t xml:space="preserve">34.8600044250488</t>
@@ -4646,25 +4646,25 @@
     <t xml:space="preserve">35.7613906860352</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4919853210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2527542114258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4936904907227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5506210327148</t>
+    <t xml:space="preserve">36.4919929504395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2527503967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4936866760254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5506172180176</t>
   </si>
   <si>
     <t xml:space="preserve">33.9965705871582</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7119140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.626522064209</t>
+    <t xml:space="preserve">33.7119178771973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6265182495117</t>
   </si>
   <si>
     <t xml:space="preserve">34.6987037658691</t>
@@ -4673,22 +4673,22 @@
     <t xml:space="preserve">34.9169311523438</t>
   </si>
   <si>
-    <t xml:space="preserve">34.935905456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1104278564453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2148017883301</t>
+    <t xml:space="preserve">34.9359092712402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1104316711426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2147979736328</t>
   </si>
   <si>
     <t xml:space="preserve">33.6360130310059</t>
   </si>
   <si>
-    <t xml:space="preserve">34.793586730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9891128540039</t>
+    <t xml:space="preserve">34.7935829162598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9891090393066</t>
   </si>
   <si>
     <t xml:space="preserve">36.0555305480957</t>
@@ -4697,55 +4697,55 @@
     <t xml:space="preserve">35.770881652832</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4065971374512</t>
+    <t xml:space="preserve">36.4065933227539</t>
   </si>
   <si>
     <t xml:space="preserve">36.0839920043945</t>
   </si>
   <si>
-    <t xml:space="preserve">36.1314353942871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5014762878418</t>
+    <t xml:space="preserve">36.1314392089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5014839172363</t>
   </si>
   <si>
     <t xml:space="preserve">35.9226913452148</t>
   </si>
   <si>
-    <t xml:space="preserve">36.5109634399414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9321746826172</t>
+    <t xml:space="preserve">36.5109672546387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9321823120117</t>
   </si>
   <si>
     <t xml:space="preserve">36.4825019836426</t>
   </si>
   <si>
-    <t xml:space="preserve">38.5035095214844</t>
+    <t xml:space="preserve">38.5035133361816</t>
   </si>
   <si>
     <t xml:space="preserve">39.4048957824707</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6648063659668</t>
+    <t xml:space="preserve">38.6648139953613</t>
   </si>
   <si>
     <t xml:space="preserve">38.2188606262207</t>
   </si>
   <si>
-    <t xml:space="preserve">37.7918853759766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.3079795837402</t>
+    <t xml:space="preserve">37.7918891906738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.3079833984375</t>
   </si>
   <si>
     <t xml:space="preserve">37.1941261291504</t>
   </si>
   <si>
-    <t xml:space="preserve">37.4692878723145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5943717956543</t>
+    <t xml:space="preserve">37.4692840576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5943756103516</t>
   </si>
   <si>
     <t xml:space="preserve">37.1613655090332</t>
@@ -4763,7 +4763,7 @@
     <t xml:space="preserve">38.6720733642578</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4988670349121</t>
+    <t xml:space="preserve">38.4988708496094</t>
   </si>
   <si>
     <t xml:space="preserve">39.1050758361816</t>
@@ -4772,13 +4772,13 @@
     <t xml:space="preserve">40.0288200378418</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9229774475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8363723754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.893383026123</t>
+    <t xml:space="preserve">39.9229736328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8363761901855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8933868408203</t>
   </si>
   <si>
     <t xml:space="preserve">38.9703636169434</t>
@@ -4790,7 +4790,7 @@
     <t xml:space="preserve">40.3078651428223</t>
   </si>
   <si>
-    <t xml:space="preserve">40.2982482910156</t>
+    <t xml:space="preserve">40.2982444763184</t>
   </si>
   <si>
     <t xml:space="preserve">40.0576858520508</t>
@@ -4799,19 +4799,19 @@
     <t xml:space="preserve">38.9222564697266</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1043548583984</t>
+    <t xml:space="preserve">38.1043586730957</t>
   </si>
   <si>
     <t xml:space="preserve">37.738712310791</t>
   </si>
   <si>
-    <t xml:space="preserve">37.0170364379883</t>
+    <t xml:space="preserve">37.0170402526855</t>
   </si>
   <si>
     <t xml:space="preserve">37.7002182006836</t>
   </si>
   <si>
-    <t xml:space="preserve">37.267219543457</t>
+    <t xml:space="preserve">37.2672157287598</t>
   </si>
   <si>
     <t xml:space="preserve">37.6424865722656</t>
@@ -4823,7 +4823,7 @@
     <t xml:space="preserve">37.5751266479492</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1717147827148</t>
+    <t xml:space="preserve">38.1717109680176</t>
   </si>
   <si>
     <t xml:space="preserve">37.2864608764648</t>
@@ -4835,10 +4835,10 @@
     <t xml:space="preserve">37.4500350952148</t>
   </si>
   <si>
-    <t xml:space="preserve">36.9496841430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2191047668457</t>
+    <t xml:space="preserve">36.9496803283691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.219108581543</t>
   </si>
   <si>
     <t xml:space="preserve">37.8541793823242</t>
@@ -4853,22 +4853,22 @@
     <t xml:space="preserve">37.9022903442383</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6528244018555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5662307739258</t>
+    <t xml:space="preserve">38.6528282165527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5662269592285</t>
   </si>
   <si>
     <t xml:space="preserve">40.2693748474121</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6446495056152</t>
+    <t xml:space="preserve">40.6446533203125</t>
   </si>
   <si>
     <t xml:space="preserve">39.8652420043945</t>
   </si>
   <si>
-    <t xml:space="preserve">39.7497749328613</t>
+    <t xml:space="preserve">39.7497711181641</t>
   </si>
   <si>
     <t xml:space="preserve">39.4707260131836</t>
@@ -4883,7 +4883,7 @@
     <t xml:space="preserve">39.6920394897461</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6143379211426</t>
+    <t xml:space="preserve">38.6143417358398</t>
   </si>
   <si>
     <t xml:space="preserve">37.6328620910645</t>
@@ -4898,16 +4898,16 @@
     <t xml:space="preserve">39.0858306884766</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3745040893555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.7016563415527</t>
+    <t xml:space="preserve">39.3745002746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.70166015625</t>
   </si>
   <si>
     <t xml:space="preserve">39.5380783081055</t>
   </si>
   <si>
-    <t xml:space="preserve">38.729808807373</t>
+    <t xml:space="preserve">38.7298049926758</t>
   </si>
   <si>
     <t xml:space="preserve">39.2109260559082</t>
@@ -4916,10 +4916,10 @@
     <t xml:space="preserve">39.4995918273926</t>
   </si>
   <si>
-    <t xml:space="preserve">39.4226112365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8171272277832</t>
+    <t xml:space="preserve">39.4226150512695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8171310424805</t>
   </si>
   <si>
     <t xml:space="preserve">39.5477027893066</t>
@@ -4955,7 +4955,7 @@
     <t xml:space="preserve">37.2479705810547</t>
   </si>
   <si>
-    <t xml:space="preserve">37.1806106567383</t>
+    <t xml:space="preserve">37.1806144714355</t>
   </si>
   <si>
     <t xml:space="preserve">36.5647888183594</t>
@@ -4967,7 +4967,7 @@
     <t xml:space="preserve">36.8342132568359</t>
   </si>
   <si>
-    <t xml:space="preserve">37.0843963623047</t>
+    <t xml:space="preserve">37.0843925476074</t>
   </si>
   <si>
     <t xml:space="preserve">37.2287254333496</t>
@@ -4976,16 +4976,16 @@
     <t xml:space="preserve">38.4507598876953</t>
   </si>
   <si>
-    <t xml:space="preserve">37.7579574584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7771987915039</t>
+    <t xml:space="preserve">37.7579536437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.7771949768066</t>
   </si>
   <si>
     <t xml:space="preserve">37.4885292053223</t>
   </si>
   <si>
-    <t xml:space="preserve">37.5847549438477</t>
+    <t xml:space="preserve">37.5847587585449</t>
   </si>
   <si>
     <t xml:space="preserve">37.8734245300293</t>
@@ -4994,22 +4994,22 @@
     <t xml:space="preserve">38.344913482666</t>
   </si>
   <si>
-    <t xml:space="preserve">38.402645111084</t>
+    <t xml:space="preserve">38.4026489257812</t>
   </si>
   <si>
     <t xml:space="preserve">38.787540435791</t>
   </si>
   <si>
-    <t xml:space="preserve">39.1916809082031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.287899017334</t>
+    <t xml:space="preserve">39.1916770935059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2879028320312</t>
   </si>
   <si>
     <t xml:space="preserve">38.9030075073242</t>
   </si>
   <si>
-    <t xml:space="preserve">38.7201881408691</t>
+    <t xml:space="preserve">38.7201843261719</t>
   </si>
   <si>
     <t xml:space="preserve">38.3545379638672</t>
@@ -5033,10 +5033,10 @@
     <t xml:space="preserve">39.5573272705078</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8755798339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4906883239746</t>
+    <t xml:space="preserve">40.8755836486816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4906921386719</t>
   </si>
   <si>
     <t xml:space="preserve">40.4137153625488</t>
@@ -5048,7 +5048,7 @@
     <t xml:space="preserve">41.5106544494629</t>
   </si>
   <si>
-    <t xml:space="preserve">42.4247779846191</t>
+    <t xml:space="preserve">42.4247741699219</t>
   </si>
   <si>
     <t xml:space="preserve">44.1664161682129</t>
@@ -5751,6 +5751,9 @@
   </si>
   <si>
     <t xml:space="preserve">48.5999984741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.2400016784668</t>
   </si>
 </sst>
 </file>
@@ -61836,7 +61839,7 @@
     </row>
     <row r="2145">
       <c r="A2145" s="1" t="n">
-        <v>45448.6512384259</v>
+        <v>45448.2916666667</v>
       </c>
       <c r="B2145" t="n">
         <v>172724</v>
@@ -61857,6 +61860,32 @@
         <v>1912</v>
       </c>
       <c r="H2145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" s="1" t="n">
+        <v>45449.6496296296</v>
+      </c>
+      <c r="B2146" t="n">
+        <v>205488</v>
+      </c>
+      <c r="C2146" t="n">
+        <v>49.3400001525879</v>
+      </c>
+      <c r="D2146" t="n">
+        <v>48.7200012207031</v>
+      </c>
+      <c r="E2146" t="n">
+        <v>48.7200012207031</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>49.2400016784668</v>
+      </c>
+      <c r="G2146" t="s">
+        <v>1913</v>
+      </c>
+      <c r="H2146" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/REC.MI.xlsx
+++ b/data/REC.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="1923">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1925" uniqueCount="1925">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,46 +44,46 @@
     <t xml:space="preserve">REC.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6574745178223</t>
+    <t xml:space="preserve">19.6574783325195</t>
   </si>
   <si>
     <t xml:space="preserve">19.3267593383789</t>
   </si>
   <si>
-    <t xml:space="preserve">18.963773727417</t>
+    <t xml:space="preserve">18.9637775421143</t>
   </si>
   <si>
     <t xml:space="preserve">18.8105201721191</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6572570800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6975879669189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1087551116943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2297458648682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6086444854736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.544116973877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5279865264893</t>
+    <t xml:space="preserve">18.657262802124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6975917816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.108757019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2297515869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6086463928223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5441188812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5279808044434</t>
   </si>
   <si>
     <t xml:space="preserve">18.2942790985107</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5282001495361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4959373474121</t>
+    <t xml:space="preserve">18.5281982421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4959354400635</t>
   </si>
   <si>
     <t xml:space="preserve">18.8266525268555</t>
@@ -98,13 +98,13 @@
     <t xml:space="preserve">18.7540550231934</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1329517364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8990306854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2779312133789</t>
+    <t xml:space="preserve">18.1329536437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8990287780762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2779293060303</t>
   </si>
   <si>
     <t xml:space="preserve">16.1325225830078</t>
@@ -113,58 +113,58 @@
     <t xml:space="preserve">15.6727466583252</t>
   </si>
   <si>
-    <t xml:space="preserve">15.793737411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3825759887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5197010040283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1327362060547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8183727264404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6812381744385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0119590759277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.42333984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4475402832031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7217903137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0601406097412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0036754608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5199203491211</t>
+    <t xml:space="preserve">15.7937393188477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3825721740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5196971893311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1327381134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8183708190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6812438964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0119609832764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4233360290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4475345611572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7217922210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0601425170898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0036773681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5199146270752</t>
   </si>
   <si>
     <t xml:space="preserve">17.6893119812012</t>
   </si>
   <si>
-    <t xml:space="preserve">17.9151630401611</t>
+    <t xml:space="preserve">17.9151649475098</t>
   </si>
   <si>
     <t xml:space="preserve">18.0684223175049</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6731739044189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4392547607422</t>
+    <t xml:space="preserve">17.6731758117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4392566680908</t>
   </si>
   <si>
     <t xml:space="preserve">17.3666610717773</t>
@@ -176,40 +176,40 @@
     <t xml:space="preserve">17.5037860870361</t>
   </si>
   <si>
-    <t xml:space="preserve">17.165002822876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4473190307617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5521831512451</t>
+    <t xml:space="preserve">17.1650009155273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.447322845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5521812438965</t>
   </si>
   <si>
     <t xml:space="preserve">17.6409111022949</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5763854980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3585948944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4069881439209</t>
+    <t xml:space="preserve">17.576379776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3585968017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4069919586182</t>
   </si>
   <si>
     <t xml:space="preserve">17.5118503570557</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3182601928711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6247806549072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7457714080811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7538394927979</t>
+    <t xml:space="preserve">17.3182640075684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6247787475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7457752227783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7538375854492</t>
   </si>
   <si>
     <t xml:space="preserve">17.8748340606689</t>
@@ -218,64 +218,64 @@
     <t xml:space="preserve">17.7861022949219</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1490879058838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2136173248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.124885559082</t>
+    <t xml:space="preserve">18.1490859985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2136192321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1248874664307</t>
   </si>
   <si>
     <t xml:space="preserve">18.1006908416748</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1168174743652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0442276000977</t>
+    <t xml:space="preserve">18.1168212890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.044225692749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.076488494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4443988800049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3708152770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1991291046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2808818817139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0437870025635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1091938018799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1746006011963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3544654846191</t>
   </si>
   <si>
     <t xml:space="preserve">18.0764904022217</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4443950653076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.370813369751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1991233825684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2808856964111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0437908172607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1091918945312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1746006011963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3544635772705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0764923095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1418952941895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0928421020508</t>
+    <t xml:space="preserve">18.1418991088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0928382873535</t>
   </si>
   <si>
     <t xml:space="preserve">18.2727108001709</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5752048492432</t>
+    <t xml:space="preserve">18.5752086639404</t>
   </si>
   <si>
     <t xml:space="preserve">18.6651382446289</t>
@@ -284,22 +284,22 @@
     <t xml:space="preserve">19.3846035003662</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6871013641357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6216983795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4418315887451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7688617706299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7443351745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7933902740479</t>
+    <t xml:space="preserve">19.6871070861816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6217021942139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4418354034424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7688655853271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7443332672119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7933883666992</t>
   </si>
   <si>
     <t xml:space="preserve">19.9487266540527</t>
@@ -308,7 +308,7 @@
     <t xml:space="preserve">20.0059566497803</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8562355041504</t>
+    <t xml:space="preserve">20.8562297821045</t>
   </si>
   <si>
     <t xml:space="preserve">21.0033931732178</t>
@@ -323,178 +323,178 @@
     <t xml:space="preserve">21.248664855957</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5511665344238</t>
+    <t xml:space="preserve">21.5511646270752</t>
   </si>
   <si>
     <t xml:space="preserve">21.6901531219482</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6983318328857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0580615997314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2297458648682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8700218200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7964382171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3115062713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2706279754639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9517784118652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2568416595459</t>
+    <t xml:space="preserve">21.6983299255371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0580558776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2297477722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8700199127197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7964344024658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3115081787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2706260681152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9517765045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2568397521973</t>
   </si>
   <si>
     <t xml:space="preserve">21.20778465271</t>
   </si>
   <si>
-    <t xml:space="preserve">21.412181854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1423759460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7335968017578</t>
+    <t xml:space="preserve">21.4121799468994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1423835754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7335929870605</t>
   </si>
   <si>
     <t xml:space="preserve">21.4285316467285</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7065029144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6083984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9435997009277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8071746826172</t>
+    <t xml:space="preserve">21.7064990997314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6083946228027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9436016082764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8071784973145</t>
   </si>
   <si>
     <t xml:space="preserve">21.6656265258789</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9599533081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0744094848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0989360809326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0907649993896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.992654800415</t>
+    <t xml:space="preserve">21.9599552154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0744132995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0989379882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.090763092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9926567077637</t>
   </si>
   <si>
     <t xml:space="preserve">21.853666305542</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1888751983643</t>
+    <t xml:space="preserve">22.1888732910156</t>
   </si>
   <si>
     <t xml:space="preserve">22.9165077209473</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1372528076172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9982681274414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7529964447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5567760467529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7448196411133</t>
+    <t xml:space="preserve">23.1372547149658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9982643127441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7529945373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5567798614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7448215484619</t>
   </si>
   <si>
     <t xml:space="preserve">22.6303615570068</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0636711120605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5133380889893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4806346893311</t>
+    <t xml:space="preserve">23.0636692047119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5133361816406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4806327819824</t>
   </si>
   <si>
     <t xml:space="preserve">23.5215110778809</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2271842956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6850242614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6605014801025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5296897888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7177276611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0038776397705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5869197845459</t>
+    <t xml:space="preserve">23.2271823883057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.685022354126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6604976654053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5296878814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7177257537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0038814544678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5869159698486</t>
   </si>
   <si>
     <t xml:space="preserve">22.9655628204346</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3498229980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0881958007812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0227909088135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2598896026611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2190113067627</t>
+    <t xml:space="preserve">23.3498249053955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0881977081299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0227928161621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2598857879639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2190093994141</t>
   </si>
   <si>
     <t xml:space="preserve">23.3743495941162</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7366428375244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7284641265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2951583862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4341449737549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1479930877686</t>
+    <t xml:space="preserve">22.7366390228271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7284660339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2951564788818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4341430664062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1479911804199</t>
   </si>
   <si>
     <t xml:space="preserve">22.3033332824707</t>
@@ -503,76 +503,76 @@
     <t xml:space="preserve">22.4259700775146</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5240745544434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0171794891357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0417060852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.360559463501</t>
+    <t xml:space="preserve">22.524076461792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0171813964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0417079925537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3605613708496</t>
   </si>
   <si>
     <t xml:space="preserve">22.1725215911865</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9272480010986</t>
+    <t xml:space="preserve">21.9272499084473</t>
   </si>
   <si>
     <t xml:space="preserve">22.1970462799072</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0825881958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8020439147949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5159015655518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8863697052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8046131134033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.747386932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.213399887085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3687381744385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9844818115234</t>
+    <t xml:space="preserve">22.0825843811035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8020477294922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5158996582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8863716125488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8046169281006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7473831176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2133960723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3687362670898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9844760894775</t>
   </si>
   <si>
     <t xml:space="preserve">22.2052211761475</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2215728759766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4423160552979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4831943511963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2435398101807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4561061859131</t>
+    <t xml:space="preserve">22.2215766906738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4423198699951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4831981658936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2435359954834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4561042785645</t>
   </si>
   <si>
     <t xml:space="preserve">23.3906993865967</t>
   </si>
   <si>
-    <t xml:space="preserve">23.276237487793</t>
+    <t xml:space="preserve">23.2762393951416</t>
   </si>
   <si>
     <t xml:space="preserve">23.2026596069336</t>
@@ -581,16 +581,16 @@
     <t xml:space="preserve">23.1536045074463</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0309677124023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9246845245361</t>
+    <t xml:space="preserve">23.0309715270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9246883392334</t>
   </si>
   <si>
     <t xml:space="preserve">23.1127281188965</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3360328674316</t>
+    <t xml:space="preserve">22.3360385894775</t>
   </si>
   <si>
     <t xml:space="preserve">22.5077228546143</t>
@@ -599,16 +599,16 @@
     <t xml:space="preserve">22.0335330963135</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1643447875977</t>
+    <t xml:space="preserve">22.164342880249</t>
   </si>
   <si>
     <t xml:space="preserve">22.066234588623</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9108963012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8945446014404</t>
+    <t xml:space="preserve">21.9108982086182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8945465087891</t>
   </si>
   <si>
     <t xml:space="preserve">21.0769748687744</t>
@@ -617,25 +617,25 @@
     <t xml:space="preserve">20.6191349029541</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9298133850098</t>
+    <t xml:space="preserve">20.929817199707</t>
   </si>
   <si>
     <t xml:space="preserve">21.0279178619385</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5700817108154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0851535797119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0008316040039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2977180480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3386001586914</t>
+    <t xml:space="preserve">20.5700836181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0851516723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0008277893066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2977199554443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3385963439941</t>
   </si>
   <si>
     <t xml:space="preserve">20.9052867889404</t>
@@ -644,76 +644,76 @@
     <t xml:space="preserve">20.7826499938965</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0360946655273</t>
+    <t xml:space="preserve">21.0360984802246</t>
   </si>
   <si>
     <t xml:space="preserve">20.986364364624</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4641914367676</t>
+    <t xml:space="preserve">20.4641952514648</t>
   </si>
   <si>
     <t xml:space="preserve">20.7791538238525</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0278091430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1024036407471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8537502288818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1355609893799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2930393218994</t>
+    <t xml:space="preserve">21.027811050415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1023998260498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8537521362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1355590820312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2930374145508</t>
   </si>
   <si>
     <t xml:space="preserve">20.5636539459229</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8951930999756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1189785003662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3427658081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2847480773926</t>
+    <t xml:space="preserve">20.895191192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1189823150635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3427715301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2847499847412</t>
   </si>
   <si>
     <t xml:space="preserve">21.1604251861572</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5499820709229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2515964508057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5251159667969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2018642425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9146709442139</t>
+    <t xml:space="preserve">21.5499801635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.251594543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5251121520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2018661499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9146747589111</t>
   </si>
   <si>
     <t xml:space="preserve">22.1716156005859</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3373851776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1053066253662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9063854217529</t>
+    <t xml:space="preserve">22.3373832702637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1053104400635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9063835144043</t>
   </si>
   <si>
     <t xml:space="preserve">21.7240390777588</t>
@@ -722,10 +722,10 @@
     <t xml:space="preserve">22.3208065032959</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4285583496094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1633243560791</t>
+    <t xml:space="preserve">22.4285526275635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1633262634277</t>
   </si>
   <si>
     <t xml:space="preserve">22.3125190734863</t>
@@ -734,16 +734,16 @@
     <t xml:space="preserve">22.6357669830322</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5611705780029</t>
+    <t xml:space="preserve">22.5611724853516</t>
   </si>
   <si>
     <t xml:space="preserve">22.677209854126</t>
   </si>
   <si>
-    <t xml:space="preserve">23.041898727417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0253238677979</t>
+    <t xml:space="preserve">23.0419006347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0253276824951</t>
   </si>
   <si>
     <t xml:space="preserve">22.536304473877</t>
@@ -752,97 +752,97 @@
     <t xml:space="preserve">23.0667667388916</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6191902160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9507293701172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7932472229004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8264045715332</t>
+    <t xml:space="preserve">22.6191921234131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9507274627686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.793249130249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8264026641846</t>
   </si>
   <si>
     <t xml:space="preserve">22.6026153564453</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6109066009521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5777492523193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2793636322021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4617099761963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4368476867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8069190979004</t>
+    <t xml:space="preserve">22.6109046936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5777473449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2793617248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4617137908936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4368457794189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.806921005249</t>
   </si>
   <si>
     <t xml:space="preserve">21.8898067474365</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0638637542725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2545013427734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8732318878174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2710781097412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3788242340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2822647094727</t>
+    <t xml:space="preserve">22.0638656616211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2544994354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8732261657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2710742950439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3788280487061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2822666168213</t>
   </si>
   <si>
     <t xml:space="preserve">23.3983058929443</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4563217163086</t>
+    <t xml:space="preserve">23.4563255310059</t>
   </si>
   <si>
     <t xml:space="preserve">23.6884002685547</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4231719970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9287643432617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0282306671143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4509410858154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.417781829834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.343189239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7824802398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8404960632324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7741870880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0891532897949</t>
+    <t xml:space="preserve">23.4231700897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.928768157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0282287597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4509372711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4177837371826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3431854248047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7824783325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8404922485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7741889953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0891494750977</t>
   </si>
   <si>
     <t xml:space="preserve">25.1554584503174</t>
@@ -851,37 +851,37 @@
     <t xml:space="preserve">25.0062656402588</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1057281494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2714939117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5533065795898</t>
+    <t xml:space="preserve">25.1057300567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2714958190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5533027648926</t>
   </si>
   <si>
     <t xml:space="preserve">25.5450134277344</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8019561767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9262886047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2080917358398</t>
+    <t xml:space="preserve">25.8019580841064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9262847900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2080936431885</t>
   </si>
   <si>
     <t xml:space="preserve">26.4070167541504</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4401702880859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9594326019287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8765544891357</t>
+    <t xml:space="preserve">26.4401683807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9594383239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8765525817871</t>
   </si>
   <si>
     <t xml:space="preserve">26.1252059936523</t>
@@ -890,7 +890,7 @@
     <t xml:space="preserve">26.2992630004883</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2412452697754</t>
+    <t xml:space="preserve">26.2412433624268</t>
   </si>
   <si>
     <t xml:space="preserve">26.605936050415</t>
@@ -905,97 +905,97 @@
     <t xml:space="preserve">26.2495346069336</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3324184417725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5644969940186</t>
+    <t xml:space="preserve">26.3324203491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5644912719727</t>
   </si>
   <si>
     <t xml:space="preserve">26.9374752044678</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9540481567383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2192840576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0369338989258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0120735168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4099159240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6751518249512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6254196166992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3850498199463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6585712432861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0647029876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5093746185303</t>
+    <t xml:space="preserve">26.9540519714355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2192764282227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0369358062744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0120716094971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4099197387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6751499176025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6254177093506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3850536346436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6585750579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0647068023682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5093841552734</t>
   </si>
   <si>
     <t xml:space="preserve">28.7407665252686</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5145988464355</t>
+    <t xml:space="preserve">28.5145950317383</t>
   </si>
   <si>
     <t xml:space="preserve">28.481086730957</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7742748260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4894676208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.841287612915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6067447662354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6737499237061</t>
+    <t xml:space="preserve">28.7742729187012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4894638061523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8412914276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6067352294922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6737480163574</t>
   </si>
   <si>
     <t xml:space="preserve">29.4276676177979</t>
   </si>
   <si>
-    <t xml:space="preserve">29.8381252288818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8129978179932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5669078826904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.659049987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5752906799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7543525695801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9386463165283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0307941436768</t>
+    <t xml:space="preserve">29.8381214141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8129997253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5669059753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6590538024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5752849578857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.754358291626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.938648223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0307960510254</t>
   </si>
   <si>
     <t xml:space="preserve">29.930269241333</t>
@@ -1004,79 +1004,79 @@
     <t xml:space="preserve">29.8716335296631</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0475463867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8967571258545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2485942840576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.469554901123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5700740814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9972915649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7480392456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7511940002441</t>
+    <t xml:space="preserve">30.0475444793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8967609405518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.248592376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4695453643799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5700626373291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9972877502441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7480316162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7511978149414</t>
   </si>
   <si>
     <t xml:space="preserve">30.8768539428711</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3826179504395</t>
+    <t xml:space="preserve">30.3826236724854</t>
   </si>
   <si>
     <t xml:space="preserve">30.5585327148438</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5920448303223</t>
+    <t xml:space="preserve">30.592041015625</t>
   </si>
   <si>
     <t xml:space="preserve">30.0391712188721</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5250282287598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2203006744385</t>
+    <t xml:space="preserve">30.5250244140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2202987670898</t>
   </si>
   <si>
     <t xml:space="preserve">31.0276374816895</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2538051605225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4967308044434</t>
+    <t xml:space="preserve">31.2538089752197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4967269897461</t>
   </si>
   <si>
     <t xml:space="preserve">31.170036315918</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3291931152344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3658676147461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.544942855835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1512279510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6538429260254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7292251586914</t>
+    <t xml:space="preserve">31.3291988372803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3658599853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5449409484863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1512317657471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6538467407227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7292289733887</t>
   </si>
   <si>
     <t xml:space="preserve">29.2852573394775</t>
@@ -1088,79 +1088,79 @@
     <t xml:space="preserve">29.519811630249</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3355178833008</t>
+    <t xml:space="preserve">29.3355236053467</t>
   </si>
   <si>
     <t xml:space="preserve">29.6957225799561</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3941535949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6789684295654</t>
+    <t xml:space="preserve">29.3941593170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6789703369141</t>
   </si>
   <si>
     <t xml:space="preserve">29.7459850311279</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2234630584717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2402153015137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1732025146484</t>
+    <t xml:space="preserve">30.223461151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2402095794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1731986999512</t>
   </si>
   <si>
     <t xml:space="preserve">29.9051418304443</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7711086273193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9554061889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7878646850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7208557128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8548812866211</t>
+    <t xml:space="preserve">29.7711124420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9554004669189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7878684997559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.720853805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8548755645752</t>
   </si>
   <si>
     <t xml:space="preserve">29.3271427154541</t>
   </si>
   <si>
-    <t xml:space="preserve">29.042329788208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4360408782959</t>
+    <t xml:space="preserve">29.0423374176025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.43603515625</t>
   </si>
   <si>
     <t xml:space="preserve">29.4946823120117</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2517471313477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2768859863281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6203346252441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3606491088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.687349319458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5868244171143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4611682891846</t>
+    <t xml:space="preserve">29.2517509460449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.276876449585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6203365325928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3606510162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6873474121094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.586820602417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4611740112305</t>
   </si>
   <si>
     <t xml:space="preserve">29.8632583618164</t>
@@ -1169,64 +1169,64 @@
     <t xml:space="preserve">30.1396884918213</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4496288299561</t>
+    <t xml:space="preserve">30.4496307373047</t>
   </si>
   <si>
     <t xml:space="preserve">30.3239803314209</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2988433837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5166492462158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9773635864258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1784210205078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1365280151367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2454280853271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3710784912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9857540130615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2286758422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5637474060059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7647914886475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2171401977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7281227111816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6359748840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.543830871582</t>
+    <t xml:space="preserve">30.2988471984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5166511535645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9773654937744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1784172058105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1365299224854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2454242706299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3710803985596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9857501983643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2286682128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5637531280518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7647857666016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2171249389648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7281188964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6359710693359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5438270568848</t>
   </si>
   <si>
     <t xml:space="preserve">33.0045547485352</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6694831848145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9794273376465</t>
+    <t xml:space="preserve">32.6694755554199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9794235229492</t>
   </si>
   <si>
     <t xml:space="preserve">32.7867584228516</t>
@@ -1238,115 +1238,115 @@
     <t xml:space="preserve">33.1218299865723</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1469573974609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3898849487305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3647499084473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5741806030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3312530517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5909271240234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1804733276367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2307319641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1134490966797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.264232635498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4568977355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6579475402832</t>
+    <t xml:space="preserve">33.1469497680664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.389892578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3647575378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5741767883301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3312492370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.590934753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1804656982422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2307281494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.113452911377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2642364501953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.456901550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6579437255859</t>
   </si>
   <si>
     <t xml:space="preserve">33.1720886230469</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2558517456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4150123596191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5993118286133</t>
+    <t xml:space="preserve">33.255859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4150199890137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5993041992188</t>
   </si>
   <si>
     <t xml:space="preserve">33.431770324707</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7249565124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3480110168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0097732543945</t>
+    <t xml:space="preserve">33.7249641418457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3480072021484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0097618103027</t>
   </si>
   <si>
     <t xml:space="preserve">33.8924903869629</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3228759765625</t>
+    <t xml:space="preserve">33.3228721618652</t>
   </si>
   <si>
     <t xml:space="preserve">33.5071601867676</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6024780273438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.510326385498</t>
+    <t xml:space="preserve">32.6024627685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5103225708008</t>
   </si>
   <si>
     <t xml:space="preserve">32.3427886962891</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6108474731445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9742069244385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.367919921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.865306854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4243545532227</t>
+    <t xml:space="preserve">32.6108436584473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9742088317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3679161071777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8653125762939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4243431091309</t>
   </si>
   <si>
     <t xml:space="preserve">32.4667091369629</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3481063842773</t>
+    <t xml:space="preserve">32.3481140136719</t>
   </si>
   <si>
     <t xml:space="preserve">32.3989372253418</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1787147521973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.170238494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8653030395508</t>
+    <t xml:space="preserve">32.1787071228027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1702423095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8653049468994</t>
   </si>
   <si>
     <t xml:space="preserve">32.0177803039551</t>
@@ -1355,67 +1355,67 @@
     <t xml:space="preserve">31.8737812042236</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0940055847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8055114746094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.449764251709</t>
+    <t xml:space="preserve">32.0940132141113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8055152893066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4497604370117</t>
   </si>
   <si>
     <t xml:space="preserve">32.2295265197754</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7631530761719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7208137512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7885704040527</t>
+    <t xml:space="preserve">32.7631607055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7208099365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7885780334473</t>
   </si>
   <si>
     <t xml:space="preserve">32.0093078613281</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3570919036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9759311676025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5519104003906</t>
+    <t xml:space="preserve">31.3570938110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9759273529053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.551908493042</t>
   </si>
   <si>
     <t xml:space="preserve">31.534969329834</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9843978881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8742828369141</t>
+    <t xml:space="preserve">30.9844017028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8742790222168</t>
   </si>
   <si>
     <t xml:space="preserve">31.3401527404785</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6196689605713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6704921722412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3909778594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.594259262085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4417896270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9330730438232</t>
+    <t xml:space="preserve">31.6196746826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6704864501953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3909740447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5942573547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4417991638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9330768585205</t>
   </si>
   <si>
     <t xml:space="preserve">32.4921112060547</t>
@@ -1424,100 +1424,100 @@
     <t xml:space="preserve">32.6276435852051</t>
   </si>
   <si>
-    <t xml:space="preserve">32.780101776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5429344177246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3565902709961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6954040527344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2888259887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1194229125977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7128429412842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9669532775879</t>
+    <t xml:space="preserve">32.7801055908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5429306030273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3565864562988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6953964233398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2888221740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1194190979004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7128410339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9669551849365</t>
   </si>
   <si>
     <t xml:space="preserve">32.6615219116211</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0347099304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5259971618652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4672107696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0606250762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6794681549072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8832511901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2225780487061</t>
+    <t xml:space="preserve">32.0347175598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.525993347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4672069549561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0606288909912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6794719696045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8832569122314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2225704193115</t>
   </si>
   <si>
     <t xml:space="preserve">28.1891956329346</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4427947998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0711116790771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1478519439697</t>
+    <t xml:space="preserve">29.4428005218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0711097717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1478538513184</t>
   </si>
   <si>
     <t xml:space="preserve">25.5718688964844</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0890636444092</t>
+    <t xml:space="preserve">25.0890598297119</t>
   </si>
   <si>
     <t xml:space="preserve">26.3172550201416</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9869136810303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3680782318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4278736114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.987419128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8180122375488</t>
+    <t xml:space="preserve">25.9869155883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3680763244629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4278717041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9874153137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8180103302002</t>
   </si>
   <si>
     <t xml:space="preserve">24.614725112915</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3262310028076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1568241119385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9450664520264</t>
+    <t xml:space="preserve">25.3262329101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1568260192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9450645446777</t>
   </si>
   <si>
     <t xml:space="preserve">24.6231937408447</t>
@@ -1529,31 +1529,31 @@
     <t xml:space="preserve">24.4707279205322</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5469589233398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3516407012939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2415237426758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4871635437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1229381561279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.699426651001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9789447784424</t>
+    <t xml:space="preserve">24.5469646453857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3516387939453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.241527557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4871654510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1229419708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6994285583496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9789485931396</t>
   </si>
   <si>
     <t xml:space="preserve">24.8349533081055</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6062545776367</t>
+    <t xml:space="preserve">24.6062507629395</t>
   </si>
   <si>
     <t xml:space="preserve">24.2250900268555</t>
@@ -1562,7 +1562,7 @@
     <t xml:space="preserve">24.1234474182129</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0726280212402</t>
+    <t xml:space="preserve">24.0726261138916</t>
   </si>
   <si>
     <t xml:space="preserve">24.0387420654297</t>
@@ -1571,13 +1571,13 @@
     <t xml:space="preserve">23.3102951049805</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7168712615967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4453163146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3939933776855</t>
+    <t xml:space="preserve">23.7168731689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4453182220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3939895629883</t>
   </si>
   <si>
     <t xml:space="preserve">25.004358291626</t>
@@ -1586,52 +1586,52 @@
     <t xml:space="preserve">25.3092880249023</t>
   </si>
   <si>
-    <t xml:space="preserve">25.283878326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0128231048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0467109680176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8264827728271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1314144134521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0721225738525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2754096984863</t>
+    <t xml:space="preserve">25.2838802337646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0128288269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0467090606689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8264789581299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1314105987549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0721206665039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.275411605835</t>
   </si>
   <si>
     <t xml:space="preserve">25.4902610778809</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2152500152588</t>
+    <t xml:space="preserve">25.2152519226074</t>
   </si>
   <si>
     <t xml:space="preserve">25.4386978149414</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3871326446533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.48166847229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5129661560059</t>
+    <t xml:space="preserve">25.3871307373047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4816665649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5129699707031</t>
   </si>
   <si>
     <t xml:space="preserve">26.2723293304443</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3410816192627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5731258392334</t>
+    <t xml:space="preserve">26.3410835266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5731239318848</t>
   </si>
   <si>
     <t xml:space="preserve">26.2981147766113</t>
@@ -1640,52 +1640,52 @@
     <t xml:space="preserve">26.3926486968994</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1090412139893</t>
+    <t xml:space="preserve">26.109037399292</t>
   </si>
   <si>
     <t xml:space="preserve">26.2121734619141</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5043716430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3840522766113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8770008087158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6387996673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4325428009033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6989612579346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5614528656006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5184860229492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5786418914795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6130180358887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2434730529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1059646606445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2606601715088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3465938568115</t>
+    <t xml:space="preserve">26.5043697357178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3840503692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8769989013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.638801574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4325408935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6989593505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.561450958252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5184841156006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5786399841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6130199432373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2434692382812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1059608459473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2606582641602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3466014862061</t>
   </si>
   <si>
     <t xml:space="preserve">27.2950344085693</t>
@@ -1694,52 +1694,52 @@
     <t xml:space="preserve">28.2919540405273</t>
   </si>
   <si>
-    <t xml:space="preserve">28.360710144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3177452087402</t>
+    <t xml:space="preserve">28.3607082366943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3177394866943</t>
   </si>
   <si>
     <t xml:space="preserve">27.9739742279053</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1630458831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2232055664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6185359954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2317981719971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0942916870117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8419780731201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6326465606689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3576316833496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4263858795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5497856140137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4982223510742</t>
+    <t xml:space="preserve">28.1630439758301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2231998443604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6185340881348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2317962646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0942878723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8419876098633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6326446533203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.357629776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4263896942139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5497817993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4982128143311</t>
   </si>
   <si>
     <t xml:space="preserve">28.8591728210449</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8247928619385</t>
+    <t xml:space="preserve">28.8247985839844</t>
   </si>
   <si>
     <t xml:space="preserve">29.2716941833496</t>
@@ -1748,28 +1748,28 @@
     <t xml:space="preserve">25.6277656555176</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6050682067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9574279785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2668132781982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7480869293213</t>
+    <t xml:space="preserve">24.6050643920898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.957426071167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2668151855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7480850219727</t>
   </si>
   <si>
     <t xml:space="preserve">25.9973201751709</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6418762207031</t>
+    <t xml:space="preserve">26.6418781280518</t>
   </si>
   <si>
     <t xml:space="preserve">26.6504726409912</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3238964080811</t>
+    <t xml:space="preserve">26.3238945007324</t>
   </si>
   <si>
     <t xml:space="preserve">26.4184284210205</t>
@@ -1778,31 +1778,31 @@
     <t xml:space="preserve">25.8254356384277</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6965198516846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8082485198975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8137626647949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6676635742188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8911075592041</t>
+    <t xml:space="preserve">25.6965236663818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8082466125488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8137607574463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6676616668701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8911113739014</t>
   </si>
   <si>
     <t xml:space="preserve">27.0543994903564</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0372085571289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7364158630371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8997058868408</t>
+    <t xml:space="preserve">27.0372104644775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7364139556885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8997039794922</t>
   </si>
   <si>
     <t xml:space="preserve">27.4841060638428</t>
@@ -1811,73 +1811,73 @@
     <t xml:space="preserve">27.5098876953125</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2348747253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5872344970703</t>
+    <t xml:space="preserve">27.2348766326904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5872325897217</t>
   </si>
   <si>
     <t xml:space="preserve">27.7161483764648</t>
   </si>
   <si>
-    <t xml:space="preserve">27.999755859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0169429779053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8966274261475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.501293182373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2262840270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6160945892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2379512786865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5645275115967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4012432098389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1520118713379</t>
+    <t xml:space="preserve">27.9997577667236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0169410705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8966236114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5012950897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.226282119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6160984039307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2379531860352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5645332336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4012413024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1520137786865</t>
   </si>
   <si>
     <t xml:space="preserve">25.9285640716553</t>
   </si>
   <si>
-    <t xml:space="preserve">25.954345703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0660667419434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9199714660645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2035751342773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1176300048828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2551422119141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8340301513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2207622528076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7566795349121</t>
+    <t xml:space="preserve">25.9543476104736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0660724639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9199733734131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.203577041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1176357269287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2551364898682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8340282440186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2207641601562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7566757202148</t>
   </si>
   <si>
     <t xml:space="preserve">25.5676097869873</t>
@@ -1886,13 +1886,13 @@
     <t xml:space="preserve">25.6105804443359</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4988555908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3183765411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.223840713501</t>
+    <t xml:space="preserve">25.4988536834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3183746337891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2238445281982</t>
   </si>
   <si>
     <t xml:space="preserve">25.0261783599854</t>
@@ -1901,10 +1901,10 @@
     <t xml:space="preserve">25.2324371337891</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3785400390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5504207611084</t>
+    <t xml:space="preserve">25.3785381317139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.550422668457</t>
   </si>
   <si>
     <t xml:space="preserve">25.0605564117432</t>
@@ -1913,22 +1913,22 @@
     <t xml:space="preserve">25.2840023040771</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4215087890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3496799468994</t>
+    <t xml:space="preserve">25.4215106964111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3496761322021</t>
   </si>
   <si>
     <t xml:space="preserve">26.0746612548828</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6621437072754</t>
+    <t xml:space="preserve">25.662145614624</t>
   </si>
   <si>
     <t xml:space="preserve">25.7996501922607</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9715366363525</t>
+    <t xml:space="preserve">25.9715347290039</t>
   </si>
   <si>
     <t xml:space="preserve">25.0089893341064</t>
@@ -1937,31 +1937,31 @@
     <t xml:space="preserve">24.862886428833</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7253799438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.914457321167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.069149017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4558868408203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.773868560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5246391296387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6019897460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1722793579102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0402889251709</t>
+    <t xml:space="preserve">24.7253837585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9144535064697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0691471099854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4558849334717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7738704681396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5246410369873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6019859313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1722755432129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.040283203125</t>
   </si>
   <si>
     <t xml:space="preserve">26.5817203521729</t>
@@ -1976,28 +1976,28 @@
     <t xml:space="preserve">25.9113750457764</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7394943237305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8684062957764</t>
+    <t xml:space="preserve">25.7394924163818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8684043884277</t>
   </si>
   <si>
     <t xml:space="preserve">25.636360168457</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9801273345947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6535472869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4644794464111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8542919158936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9230461120605</t>
+    <t xml:space="preserve">25.9801292419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6535511016846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4644756317139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8542957305908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9230518341064</t>
   </si>
   <si>
     <t xml:space="preserve">25.0433654785156</t>
@@ -2009,7 +2009,7 @@
     <t xml:space="preserve">24.7727680206299</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7640399932861</t>
+    <t xml:space="preserve">24.7640419006348</t>
   </si>
   <si>
     <t xml:space="preserve">24.3799648284912</t>
@@ -2018,19 +2018,19 @@
     <t xml:space="preserve">24.3712368011475</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4323387145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2315769195557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7989540100098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1393871307373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1131954193115</t>
+    <t xml:space="preserve">24.432336807251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2315731048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7989559173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1393814086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1131973266602</t>
   </si>
   <si>
     <t xml:space="preserve">24.9648056030273</t>
@@ -2039,13 +2039,13 @@
     <t xml:space="preserve">24.441068649292</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5283546447754</t>
+    <t xml:space="preserve">24.5283603668213</t>
   </si>
   <si>
     <t xml:space="preserve">24.3886947631836</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3537769317627</t>
+    <t xml:space="preserve">24.3537750244141</t>
   </si>
   <si>
     <t xml:space="preserve">24.8164138793945</t>
@@ -2054,34 +2054,34 @@
     <t xml:space="preserve">24.790225982666</t>
   </si>
   <si>
-    <t xml:space="preserve">25.052095413208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3139629364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4885406494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8813457489014</t>
+    <t xml:space="preserve">25.0520973205566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3139610290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4885425567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8813438415527</t>
   </si>
   <si>
     <t xml:space="preserve">26.4487285614014</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0684814453125</t>
+    <t xml:space="preserve">27.0684852600098</t>
   </si>
   <si>
     <t xml:space="preserve">26.439998626709</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2043132781982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0122814178467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2916049957275</t>
+    <t xml:space="preserve">26.2043170928955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0122756958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2916069030762</t>
   </si>
   <si>
     <t xml:space="preserve">25.968635559082</t>
@@ -2090,10 +2090,10 @@
     <t xml:space="preserve">25.8376998901367</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1170272827148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8638858795166</t>
+    <t xml:space="preserve">26.1170253753662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.863883972168</t>
   </si>
   <si>
     <t xml:space="preserve">26.7804279327393</t>
@@ -2105,31 +2105,31 @@
     <t xml:space="preserve">26.9811916351318</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6009502410889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2343330383301</t>
+    <t xml:space="preserve">27.6009483337402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2343368530273</t>
   </si>
   <si>
     <t xml:space="preserve">26.7978858947754</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3352527618408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1344871520996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1606693267822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2392330169678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5622024536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6184043884277</t>
+    <t xml:space="preserve">26.3352489471436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.134485244751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1606712341309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2392292022705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5622005462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.618408203125</t>
   </si>
   <si>
     <t xml:space="preserve">27.391450881958</t>
@@ -2138,274 +2138,274 @@
     <t xml:space="preserve">28.0286674499512</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9364814758301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8928298950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1770572662354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.670783996582</t>
+    <t xml:space="preserve">28.9364795684814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8928337097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1770610809326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6707782745361</t>
   </si>
   <si>
     <t xml:space="preserve">27.967565536499</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3516407012939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1896190643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2594470977783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5300464630127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6435222625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1110553741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2681770324707</t>
+    <t xml:space="preserve">28.3516368865967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1896171569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.259449005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5300521850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6435279846191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1110572814941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2681751251221</t>
   </si>
   <si>
     <t xml:space="preserve">28.8579177856445</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6571559906006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6309661865234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8753795623779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7357082366943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8666439056396</t>
+    <t xml:space="preserve">28.6571521759033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6309680938721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8753776550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7357139587402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8666458129883</t>
   </si>
   <si>
     <t xml:space="preserve">29.0761432647705</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5475082397461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6784400939941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6173362731934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4776782989502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4427585601807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0014114379883</t>
+    <t xml:space="preserve">29.5475025177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6784362792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6173400878906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4776725769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4427623748779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0014095306396</t>
   </si>
   <si>
     <t xml:space="preserve">30.1323432922363</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4989624023438</t>
+    <t xml:space="preserve">30.4989604949951</t>
   </si>
   <si>
     <t xml:space="preserve">31.4504127502441</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5726146697998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0090675354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0789108276367</t>
+    <t xml:space="preserve">31.5726203918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0090637207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0788993835449</t>
   </si>
   <si>
     <t xml:space="preserve">31.913049697876</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1099834442139</t>
+    <t xml:space="preserve">31.1099853515625</t>
   </si>
   <si>
     <t xml:space="preserve">31.2060089111328</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3282051086426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.040153503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.966495513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2981929779053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5076904296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.066349029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2845668792725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9703254699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5027885437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5464344024658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2671127319336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4766063690186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5638885498047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6773719787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5115184783936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9877853393555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7841663360596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.412633895874</t>
+    <t xml:space="preserve">31.3282032012939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0401611328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9665012359619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2981967926025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5076885223389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0663452148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2845649719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9703216552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5027942657471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5464382171631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.267110824585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.476598739624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.563892364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6773738861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5115165710449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9877777099609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7841720581055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4126243591309</t>
   </si>
   <si>
     <t xml:space="preserve">31.4391689300537</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0318565368652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8195514678955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8372497558594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9964733123779</t>
+    <t xml:space="preserve">32.0318641662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8195495605469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8372421264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9964752197266</t>
   </si>
   <si>
     <t xml:space="preserve">32.0141639709473</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3595561981201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5453205108643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2618675231934</t>
+    <t xml:space="preserve">31.3595542907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5453243255615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2618560791016</t>
   </si>
   <si>
     <t xml:space="preserve">31.2887859344482</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1118564605713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9618644714355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5280208587646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2534008026123</t>
+    <t xml:space="preserve">31.1118602752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9618606567383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5280113220215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2534046173096</t>
   </si>
   <si>
     <t xml:space="preserve">32.3591690063477</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3237800598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3326263427734</t>
+    <t xml:space="preserve">32.3237838745117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3326301574707</t>
   </si>
   <si>
     <t xml:space="preserve">32.8014793395996</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4476280212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0053215026855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4564781188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.155704498291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3945503234863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5980186462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6953163146973</t>
+    <t xml:space="preserve">32.4476318359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0053253173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4564743041992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1557006835938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3945541381836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5980110168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6953201293945</t>
   </si>
   <si>
     <t xml:space="preserve">32.7307052612305</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1907005310059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1818504333496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6153221130371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5799369812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.703784942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6860961914062</t>
+    <t xml:space="preserve">33.1907043457031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1818542480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6153144836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5799407958984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7037811279297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.686092376709</t>
   </si>
   <si>
     <t xml:space="preserve">33.288013458252</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2703247070312</t>
+    <t xml:space="preserve">33.270320892334</t>
   </si>
   <si>
     <t xml:space="preserve">33.0845489501953</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7749328613281</t>
+    <t xml:space="preserve">32.7749366760254</t>
   </si>
   <si>
     <t xml:space="preserve">32.2353172302246</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7130126953125</t>
+    <t xml:space="preserve">32.7130165100098</t>
   </si>
   <si>
     <t xml:space="preserve">32.9960899353027</t>
@@ -2414,109 +2414,109 @@
     <t xml:space="preserve">33.0757026672363</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1203269958496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9345550537109</t>
+    <t xml:space="preserve">32.1203231811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9345531463623</t>
   </si>
   <si>
     <t xml:space="preserve">32.4299354553223</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5449371337891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8987808227539</t>
+    <t xml:space="preserve">32.5449409484863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8987846374512</t>
   </si>
   <si>
     <t xml:space="preserve">33.252628326416</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3764801025391</t>
+    <t xml:space="preserve">33.3764762878418</t>
   </si>
   <si>
     <t xml:space="preserve">33.8364753723145</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3676261901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0753173828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0576248168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7653121948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7918548583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6856994628906</t>
+    <t xml:space="preserve">33.3676300048828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0753211975098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0576286315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7653198242188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.791862487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6856956481934</t>
   </si>
   <si>
     <t xml:space="preserve">35.0749320983887</t>
   </si>
   <si>
-    <t xml:space="preserve">35.0483818054199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1810836791992</t>
+    <t xml:space="preserve">35.0483932495117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1810913085938</t>
   </si>
   <si>
     <t xml:space="preserve">35.3226203918457</t>
   </si>
   <si>
-    <t xml:space="preserve">35.729549407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4730072021484</t>
+    <t xml:space="preserve">35.7295455932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4730033874512</t>
   </si>
   <si>
     <t xml:space="preserve">35.5526237487793</t>
   </si>
   <si>
-    <t xml:space="preserve">35.5083885192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1987724304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8533897399902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8710861206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0395545959473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3495445251465</t>
+    <t xml:space="preserve">35.5083923339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1987838745117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8533935546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8710784912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0395431518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.349552154541</t>
   </si>
   <si>
     <t xml:space="preserve">34.4380111694336</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1191596984863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.287239074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6591567993164</t>
+    <t xml:space="preserve">35.1191673278809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2872428894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6591644287109</t>
   </si>
   <si>
     <t xml:space="preserve">34.3760871887207</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7922477722168</t>
+    <t xml:space="preserve">33.7922401428223</t>
   </si>
   <si>
     <t xml:space="preserve">34.3230094909668</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5530166625977</t>
+    <t xml:space="preserve">34.5530128479004</t>
   </si>
   <si>
     <t xml:space="preserve">34.1814727783203</t>
@@ -2525,7 +2525,7 @@
     <t xml:space="preserve">35.2518539428711</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9510841369629</t>
+    <t xml:space="preserve">34.9510803222656</t>
   </si>
   <si>
     <t xml:space="preserve">35.3668556213379</t>
@@ -2537,55 +2537,55 @@
     <t xml:space="preserve">36.242618560791</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6056976318359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2607078552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9153099060059</t>
+    <t xml:space="preserve">35.6057014465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2607002258301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9153137207031</t>
   </si>
   <si>
     <t xml:space="preserve">35.7914657592773</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8445510864258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.331470489502</t>
+    <t xml:space="preserve">35.8445434570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3314666748047</t>
   </si>
   <si>
     <t xml:space="preserve">35.3491630554199</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8099365234375</t>
+    <t xml:space="preserve">33.8099327087402</t>
   </si>
   <si>
     <t xml:space="preserve">34.906852722168</t>
   </si>
   <si>
-    <t xml:space="preserve">33.783390045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3672370910645</t>
+    <t xml:space="preserve">33.7834014892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3672409057617</t>
   </si>
   <si>
     <t xml:space="preserve">34.8980102539062</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1280097961426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2076187133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5707092285156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9245529174805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8095512390137</t>
+    <t xml:space="preserve">35.1280136108398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2076263427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5707054138184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9245452880859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8095474243164</t>
   </si>
   <si>
     <t xml:space="preserve">34.8183937072754</t>
@@ -2597,28 +2597,28 @@
     <t xml:space="preserve">32.8633995056152</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0403175354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.571475982666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.022632598877</t>
+    <t xml:space="preserve">33.0403099060059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5714683532715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0226287841797</t>
   </si>
   <si>
     <t xml:space="preserve">32.4653205871582</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7837867736816</t>
+    <t xml:space="preserve">32.7837829589844</t>
   </si>
   <si>
     <t xml:space="preserve">33.1464767456055</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7657012939453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1376266479492</t>
+    <t xml:space="preserve">33.7657051086426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1376304626465</t>
   </si>
   <si>
     <t xml:space="preserve">33.3499374389648</t>
@@ -2633,43 +2633,43 @@
     <t xml:space="preserve">32.341480255127</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6068649291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8103179931641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6330108642578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3233947753906</t>
+    <t xml:space="preserve">32.6068572998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8103218078613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6330184936523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3233985900879</t>
   </si>
   <si>
     <t xml:space="preserve">32.3768615722656</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9253273010254</t>
+    <t xml:space="preserve">32.9253234863281</t>
   </si>
   <si>
     <t xml:space="preserve">32.6599311828613</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1553153991699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1110916137695</t>
+    <t xml:space="preserve">33.1553192138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1110954284668</t>
   </si>
   <si>
     <t xml:space="preserve">33.4649314880371</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5268592834473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2939147949219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1505508422852</t>
+    <t xml:space="preserve">33.5268669128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2939071655273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1505546569824</t>
   </si>
   <si>
     <t xml:space="preserve">34.1271514892578</t>
@@ -2678,19 +2678,19 @@
     <t xml:space="preserve">33.9569244384766</t>
   </si>
   <si>
-    <t xml:space="preserve">33.52685546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.311824798584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.535816192627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8583679199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4372596740723</t>
+    <t xml:space="preserve">33.5268630981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3118286132812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5358200073242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8583641052246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4372634887695</t>
   </si>
   <si>
     <t xml:space="preserve">34.1092338562012</t>
@@ -2702,46 +2702,46 @@
     <t xml:space="preserve">32.8907241821289</t>
   </si>
   <si>
-    <t xml:space="preserve">32.953441619873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7921714782715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7294540405273</t>
+    <t xml:space="preserve">32.9534454345703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7921676635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7294502258301</t>
   </si>
   <si>
     <t xml:space="preserve">31.7439002990723</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2814674377441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4785804748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6577796936035</t>
+    <t xml:space="preserve">32.2814712524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4785842895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6577758789062</t>
   </si>
   <si>
     <t xml:space="preserve">32.6040191650391</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2043151855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8135681152344</t>
+    <t xml:space="preserve">33.2043113708496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8135643005371</t>
   </si>
   <si>
     <t xml:space="preserve">34.0017166137695</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6702156066895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2257118225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0106735229492</t>
+    <t xml:space="preserve">33.6702194213867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2257080078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0106811523438</t>
   </si>
   <si>
     <t xml:space="preserve">33.6612548828125</t>
@@ -2750,16 +2750,16 @@
     <t xml:space="preserve">34.3421821594238</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8314781188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9479598999023</t>
+    <t xml:space="preserve">33.8314819335938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9479637145996</t>
   </si>
   <si>
     <t xml:space="preserve">34.754322052002</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7364044189453</t>
+    <t xml:space="preserve">34.7364082336426</t>
   </si>
   <si>
     <t xml:space="preserve">34.7274436950684</t>
@@ -2768,22 +2768,22 @@
     <t xml:space="preserve">35.1395874023438</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6950874328613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9603996276855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3815002441406</t>
+    <t xml:space="preserve">35.6950836181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9603958129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3815040588379</t>
   </si>
   <si>
     <t xml:space="preserve">35.4621353149414</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8384399414062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1251449584961</t>
+    <t xml:space="preserve">35.8384437561035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1251411437988</t>
   </si>
   <si>
     <t xml:space="preserve">36.0982666015625</t>
@@ -2792,22 +2792,22 @@
     <t xml:space="preserve">35.7757225036621</t>
   </si>
   <si>
-    <t xml:space="preserve">36.6268882751465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5606918334961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6109733581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2470970153809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8653182983398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8563613891602</t>
+    <t xml:space="preserve">36.6268844604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5606880187988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.610969543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2471046447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8653144836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8563575744629</t>
   </si>
   <si>
     <t xml:space="preserve">36.2864189147949</t>
@@ -2822,136 +2822,136 @@
     <t xml:space="preserve">36.6627235412598</t>
   </si>
   <si>
-    <t xml:space="preserve">37.0121459960938</t>
+    <t xml:space="preserve">37.012149810791</t>
   </si>
   <si>
     <t xml:space="preserve">36.7344055175781</t>
   </si>
   <si>
-    <t xml:space="preserve">36.1520233154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8239898681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2092590332031</t>
+    <t xml:space="preserve">36.1520156860352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8239936828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2092552185059</t>
   </si>
   <si>
     <t xml:space="preserve">37.7737159729004</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4028854370117</t>
+    <t xml:space="preserve">36.402889251709</t>
   </si>
   <si>
     <t xml:space="preserve">34.4855422973633</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6199264526367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6502799987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6682052612305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6557655334473</t>
+    <t xml:space="preserve">34.619930267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6502876281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6682090759277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6557731628418</t>
   </si>
   <si>
     <t xml:space="preserve">34.4676132202148</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1575126647949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2650184631348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5751342773438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9892845153809</t>
+    <t xml:space="preserve">35.1575088500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2650260925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5751304626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9892768859863</t>
   </si>
   <si>
     <t xml:space="preserve">30.7762546539307</t>
   </si>
   <si>
-    <t xml:space="preserve">30.310359954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3198566436768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0594863891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6473426818848</t>
+    <t xml:space="preserve">30.3103580474854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3198547363281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0594902038574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6473484039307</t>
   </si>
   <si>
     <t xml:space="preserve">30.6149826049805</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1794357299805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5647010803223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5736618041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2959175109863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3710670471191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5681762695312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.058952331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5303382873535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7777290344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2167434692383</t>
+    <t xml:space="preserve">31.1794452667236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5647029876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5736656188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2959156036377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3710746765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.568172454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0589561462402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5303344726562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7777328491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2167510986328</t>
   </si>
   <si>
     <t xml:space="preserve">33.2132720947266</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7329368591309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4820594787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9176139831543</t>
+    <t xml:space="preserve">33.7329292297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4820556640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9176063537598</t>
   </si>
   <si>
     <t xml:space="preserve">33.8494071960449</t>
   </si>
   <si>
-    <t xml:space="preserve">34.494499206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2973861694336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8225288391113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7722396850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1898651123047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5930519104004</t>
+    <t xml:space="preserve">34.4944953918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2973823547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8225212097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7722473144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1898765563965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5930557250977</t>
   </si>
   <si>
     <t xml:space="preserve">34.3153038024902</t>
@@ -2960,52 +2960,52 @@
     <t xml:space="preserve">35.0141563415527</t>
   </si>
   <si>
-    <t xml:space="preserve">36.6000022888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5427703857422</t>
+    <t xml:space="preserve">36.5999984741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5427627563477</t>
   </si>
   <si>
     <t xml:space="preserve">35.3725357055664</t>
   </si>
   <si>
-    <t xml:space="preserve">36.277458190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7309265136719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6537590026855</t>
+    <t xml:space="preserve">36.2774620056152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7309226989746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6537628173828</t>
   </si>
   <si>
     <t xml:space="preserve">37.0927810668945</t>
   </si>
   <si>
-    <t xml:space="preserve">39.4222869873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6338386535645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.14453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.8991394042969</t>
+    <t xml:space="preserve">39.4222793579102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6338348388672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.1445350646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.8991508483887</t>
   </si>
   <si>
     <t xml:space="preserve">40.1928100585938</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3015785217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.04736328125</t>
+    <t xml:space="preserve">40.3015747070312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0473594665527</t>
   </si>
   <si>
     <t xml:space="preserve">37.6728248596191</t>
   </si>
   <si>
-    <t xml:space="preserve">37.3283729553223</t>
+    <t xml:space="preserve">37.328369140625</t>
   </si>
   <si>
     <t xml:space="preserve">38.2167091369629</t>
@@ -3014,13 +3014,13 @@
     <t xml:space="preserve">38.1623191833496</t>
   </si>
   <si>
-    <t xml:space="preserve">38.3798713684082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.4643402099609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.8722457885742</t>
+    <t xml:space="preserve">38.3798675537109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4643363952637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.8722534179688</t>
   </si>
   <si>
     <t xml:space="preserve">37.0926856994629</t>
@@ -3029,94 +3029,94 @@
     <t xml:space="preserve">36.8479385375977</t>
   </si>
   <si>
-    <t xml:space="preserve">37.2739753723145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1923904418945</t>
+    <t xml:space="preserve">37.2739791870117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1923942565918</t>
   </si>
   <si>
     <t xml:space="preserve">37.7816009521484</t>
   </si>
   <si>
-    <t xml:space="preserve">37.4824676513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.3646278381348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6003036499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.9719581604004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7482223510742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7663612365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6637573242188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5974273681641</t>
+    <t xml:space="preserve">37.4824638366699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.3646240234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6003112792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9719619750977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7482299804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.766357421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6637649536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5974235534668</t>
   </si>
   <si>
     <t xml:space="preserve">41.017692565918</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0930976867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1445960998535</t>
+    <t xml:space="preserve">40.0931015014648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1445999145508</t>
   </si>
   <si>
     <t xml:space="preserve">41.1627311706543</t>
   </si>
   <si>
-    <t xml:space="preserve">41.8244476318359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7910766601562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.963306427002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7094879150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2925224304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1717872619629</t>
+    <t xml:space="preserve">41.8244514465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.791072845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9633026123047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7094917297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2925148010254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1717948913574</t>
   </si>
   <si>
     <t xml:space="preserve">41.4527931213379</t>
   </si>
   <si>
-    <t xml:space="preserve">41.5525093078613</t>
+    <t xml:space="preserve">41.5525054931641</t>
   </si>
   <si>
     <t xml:space="preserve">42.2776870727539</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6884803771973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6975402832031</t>
+    <t xml:space="preserve">41.6884841918945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6975440979004</t>
   </si>
   <si>
     <t xml:space="preserve">41.8335151672363</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3349571228027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3139419555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6221466064453</t>
+    <t xml:space="preserve">41.3349609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3139381408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.622142791748</t>
   </si>
   <si>
     <t xml:space="preserve">42.9666023254395</t>
@@ -3125,52 +3125,52 @@
     <t xml:space="preserve">43.1569557189941</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8005523681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1994018554688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.8096199035645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2022857666016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.6373825073242</t>
+    <t xml:space="preserve">43.8005485534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1993942260742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.8096160888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.2022819519043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.6373863220215</t>
   </si>
   <si>
     <t xml:space="preserve">42.567756652832</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8940773010254</t>
+    <t xml:space="preserve">42.8940849304199</t>
   </si>
   <si>
     <t xml:space="preserve">42.903148651123</t>
   </si>
   <si>
-    <t xml:space="preserve">42.703727722168</t>
+    <t xml:space="preserve">42.7037200927734</t>
   </si>
   <si>
     <t xml:space="preserve">41.4074783325195</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0086288452148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.525318145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.5372695922852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4828720092773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4466171264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6279106140137</t>
+    <t xml:space="preserve">41.0086326599121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5253143310547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.5372657775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4828758239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4466209411621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6279067993164</t>
   </si>
   <si>
     <t xml:space="preserve">40.3740997314453</t>
@@ -3179,19 +3179,19 @@
     <t xml:space="preserve">41.878833770752</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8545265197754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5978317260742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3530883789062</t>
+    <t xml:space="preserve">40.8545341491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5978355407715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.353084564209</t>
   </si>
   <si>
     <t xml:space="preserve">41.0630149841309</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7881927490234</t>
+    <t xml:space="preserve">41.7881889343262</t>
   </si>
   <si>
     <t xml:space="preserve">42.1507797241211</t>
@@ -3200,7 +3200,7 @@
     <t xml:space="preserve">41.1536636352539</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3984069824219</t>
+    <t xml:space="preserve">41.3984107971191</t>
   </si>
   <si>
     <t xml:space="preserve">41.0992774963379</t>
@@ -3212,13 +3212,13 @@
     <t xml:space="preserve">40.736686706543</t>
   </si>
   <si>
-    <t xml:space="preserve">40.229061126709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9723739624023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8302192687988</t>
+    <t xml:space="preserve">40.2290649414062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9723777770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8302154541016</t>
   </si>
   <si>
     <t xml:space="preserve">40.9542388916016</t>
@@ -3227,28 +3227,28 @@
     <t xml:space="preserve">40.6551055908203</t>
   </si>
   <si>
-    <t xml:space="preserve">40.9179801940918</t>
+    <t xml:space="preserve">40.9179878234863</t>
   </si>
   <si>
     <t xml:space="preserve">40.9995651245117</t>
   </si>
   <si>
-    <t xml:space="preserve">40.5463256835938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2109413146973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6913604736328</t>
+    <t xml:space="preserve">40.5463333129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6913642883301</t>
   </si>
   <si>
     <t xml:space="preserve">40.6460456848145</t>
   </si>
   <si>
-    <t xml:space="preserve">40.582592010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7820129394531</t>
+    <t xml:space="preserve">40.5825843811035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7820091247559</t>
   </si>
   <si>
     <t xml:space="preserve">40.455680847168</t>
@@ -3260,31 +3260,31 @@
     <t xml:space="preserve">39.7848968505859</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9752540588379</t>
+    <t xml:space="preserve">39.9752502441406</t>
   </si>
   <si>
     <t xml:space="preserve">41.3712158203125</t>
   </si>
   <si>
-    <t xml:space="preserve">41.5343818664551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3411293029785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.023868560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0782585144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7972564697266</t>
+    <t xml:space="preserve">41.5343780517578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3411407470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.0238723754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.078254699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7972640991211</t>
   </si>
   <si>
     <t xml:space="preserve">42.8306274414062</t>
   </si>
   <si>
-    <t xml:space="preserve">42.2504959106445</t>
+    <t xml:space="preserve">42.2504920959473</t>
   </si>
   <si>
     <t xml:space="preserve">42.8759536743164</t>
@@ -3293,19 +3293,19 @@
     <t xml:space="preserve">42.5405616760254</t>
   </si>
   <si>
-    <t xml:space="preserve">43.2838668823242</t>
+    <t xml:space="preserve">43.283863067627</t>
   </si>
   <si>
     <t xml:space="preserve">43.2657356262207</t>
   </si>
   <si>
-    <t xml:space="preserve">43.2566680908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.5133628845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9966850280762</t>
+    <t xml:space="preserve">43.2566719055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.513370513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9966773986816</t>
   </si>
   <si>
     <t xml:space="preserve">40.3287811279297</t>
@@ -3317,25 +3317,25 @@
     <t xml:space="preserve">40.8363990783691</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9060287475586</t>
+    <t xml:space="preserve">41.9060325622559</t>
   </si>
   <si>
     <t xml:space="preserve">41.9785499572754</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6250228881836</t>
+    <t xml:space="preserve">41.6250267028809</t>
   </si>
   <si>
     <t xml:space="preserve">40.3197174072266</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3440246582031</t>
+    <t xml:space="preserve">41.3440208435059</t>
   </si>
   <si>
     <t xml:space="preserve">41.6159591674805</t>
   </si>
   <si>
-    <t xml:space="preserve">42.866886138916</t>
+    <t xml:space="preserve">42.8668899536133</t>
   </si>
   <si>
     <t xml:space="preserve">42.3502006530762</t>
@@ -3344,16 +3344,16 @@
     <t xml:space="preserve">41.860710144043</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9332275390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2276191711426</t>
+    <t xml:space="preserve">41.9332237243652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2276229858398</t>
   </si>
   <si>
     <t xml:space="preserve">40.164623260498</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7052803039551</t>
+    <t xml:space="preserve">40.7052841186523</t>
   </si>
   <si>
     <t xml:space="preserve">41.1084938049316</t>
@@ -3365,7 +3365,7 @@
     <t xml:space="preserve">40.8977241516113</t>
   </si>
   <si>
-    <t xml:space="preserve">40.1279678344727</t>
+    <t xml:space="preserve">40.1279716491699</t>
   </si>
   <si>
     <t xml:space="preserve">39.4406929016113</t>
@@ -3374,13 +3374,13 @@
     <t xml:space="preserve">39.3490562438965</t>
   </si>
   <si>
-    <t xml:space="preserve">39.5781517028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0088386535645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4303703308105</t>
+    <t xml:space="preserve">39.5781478881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0088424682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4303779602051</t>
   </si>
   <si>
     <t xml:space="preserve">40.2929191589355</t>
@@ -3398,7 +3398,7 @@
     <t xml:space="preserve">40.6777954101562</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3295707702637</t>
+    <t xml:space="preserve">40.3295745849609</t>
   </si>
   <si>
     <t xml:space="preserve">40.751106262207</t>
@@ -3407,49 +3407,49 @@
     <t xml:space="preserve">40.5861587524414</t>
   </si>
   <si>
-    <t xml:space="preserve">40.9802017211914</t>
+    <t xml:space="preserve">40.9801979064941</t>
   </si>
   <si>
     <t xml:space="preserve">41.2367820739746</t>
   </si>
   <si>
-    <t xml:space="preserve">41.5391845703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3833961486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9172058105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4143524169922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2115936279297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2574195861816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2757415771484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9721832275391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.155460357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0180015563965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0546569824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8805541992188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9916725158691</t>
+    <t xml:space="preserve">41.5391883850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3834037780762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9172096252441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.4143562316895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.211597442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2574234008789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2757453918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9721870422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1554641723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0180053710938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0546607971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8805465698242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9916687011719</t>
   </si>
   <si>
     <t xml:space="preserve">39.0833053588867</t>
@@ -3458,10 +3458,10 @@
     <t xml:space="preserve">39.3398895263672</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8725357055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9550170898438</t>
+    <t xml:space="preserve">38.8725395202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9550132751465</t>
   </si>
   <si>
     <t xml:space="preserve">38.9458465576172</t>
@@ -3470,16 +3470,16 @@
     <t xml:space="preserve">38.6067924499512</t>
   </si>
   <si>
-    <t xml:space="preserve">39.1474571228027</t>
+    <t xml:space="preserve">39.1474533081055</t>
   </si>
   <si>
     <t xml:space="preserve">39.8438949584961</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3845520019531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2654304504395</t>
+    <t xml:space="preserve">40.3845481872559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2654228210449</t>
   </si>
   <si>
     <t xml:space="preserve">39.8164024353027</t>
@@ -3491,19 +3491,19 @@
     <t xml:space="preserve">41.6033325195312</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7682723999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4658699035645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5025291442871</t>
+    <t xml:space="preserve">41.7682838439941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.465877532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5025329589844</t>
   </si>
   <si>
     <t xml:space="preserve">41.0901641845703</t>
   </si>
   <si>
-    <t xml:space="preserve">40.5494995117188</t>
+    <t xml:space="preserve">40.5495071411133</t>
   </si>
   <si>
     <t xml:space="preserve">40.3204078674316</t>
@@ -3518,28 +3518,28 @@
     <t xml:space="preserve">38.7808990478516</t>
   </si>
   <si>
-    <t xml:space="preserve">38.900032043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2849006652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2207641601562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6159591674805</t>
+    <t xml:space="preserve">38.9000282287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2849082946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.220760345459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6159553527832</t>
   </si>
   <si>
     <t xml:space="preserve">38.8908653259277</t>
   </si>
   <si>
-    <t xml:space="preserve">39.1016311645508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.413200378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0454940795898</t>
+    <t xml:space="preserve">39.101634979248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.4131965637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0454978942871</t>
   </si>
   <si>
     <t xml:space="preserve">39.7247657775879</t>
@@ -3548,13 +3548,13 @@
     <t xml:space="preserve">41.0351791381836</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3742408752441</t>
+    <t xml:space="preserve">41.3742370605469</t>
   </si>
   <si>
     <t xml:space="preserve">40.6228103637695</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3559112548828</t>
+    <t xml:space="preserve">41.3559150695801</t>
   </si>
   <si>
     <t xml:space="preserve">40.8060836791992</t>
@@ -3563,46 +3563,46 @@
     <t xml:space="preserve">41.4383888244629</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1818008422852</t>
+    <t xml:space="preserve">41.1817970275879</t>
   </si>
   <si>
     <t xml:space="preserve">41.1726379394531</t>
   </si>
   <si>
-    <t xml:space="preserve">40.9985237121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4292182922363</t>
+    <t xml:space="preserve">40.9985275268555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4292221069336</t>
   </si>
   <si>
     <t xml:space="preserve">41.6766395568848</t>
   </si>
   <si>
-    <t xml:space="preserve">41.4108924865723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3925628662109</t>
+    <t xml:space="preserve">41.4108963012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3925666809082</t>
   </si>
   <si>
     <t xml:space="preserve">41.8232612609863</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0340194702148</t>
+    <t xml:space="preserve">42.0340232849121</t>
   </si>
   <si>
     <t xml:space="preserve">42.9595642089844</t>
   </si>
   <si>
-    <t xml:space="preserve">42.2997665405273</t>
+    <t xml:space="preserve">42.2997779846191</t>
   </si>
   <si>
     <t xml:space="preserve">42.0798454284668</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6583099365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5758323669434</t>
+    <t xml:space="preserve">41.6583137512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5758361816406</t>
   </si>
   <si>
     <t xml:space="preserve">41.7499542236328</t>
@@ -3617,7 +3617,7 @@
     <t xml:space="preserve">42.0523529052734</t>
   </si>
   <si>
-    <t xml:space="preserve">42.1073303222656</t>
+    <t xml:space="preserve">42.1073341369629</t>
   </si>
   <si>
     <t xml:space="preserve">43.1886558532715</t>
@@ -3626,10 +3626,10 @@
     <t xml:space="preserve">43.0878601074219</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6479949951172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.5746841430664</t>
+    <t xml:space="preserve">42.6479988098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5746879577637</t>
   </si>
   <si>
     <t xml:space="preserve">42.3089370727539</t>
@@ -3644,52 +3644,52 @@
     <t xml:space="preserve">42.0065383911133</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9698829650879</t>
+    <t xml:space="preserve">41.9698791503906</t>
   </si>
   <si>
     <t xml:space="preserve">42.0248641967773</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2551078796387</t>
+    <t xml:space="preserve">41.2551040649414</t>
   </si>
   <si>
     <t xml:space="preserve">41.0535087585449</t>
   </si>
   <si>
-    <t xml:space="preserve">40.1188011169434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0363311767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3753967285156</t>
+    <t xml:space="preserve">40.1188163757324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0363349914551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3753929138184</t>
   </si>
   <si>
     <t xml:space="preserve">40.5036811828613</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2092933654785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5300216674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8690757751465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6021766662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6949119567871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.9545707702637</t>
+    <t xml:space="preserve">41.2092971801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5300254821777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8690795898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.602180480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6949157714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.9545669555664</t>
   </si>
   <si>
     <t xml:space="preserve">42.0272254943848</t>
   </si>
   <si>
-    <t xml:space="preserve">42.4630737304688</t>
+    <t xml:space="preserve">42.463077545166</t>
   </si>
   <si>
     <t xml:space="preserve">42.1848754882812</t>
@@ -3698,40 +3698,40 @@
     <t xml:space="preserve">42.1477813720703</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9437637329102</t>
+    <t xml:space="preserve">41.9437675476074</t>
   </si>
   <si>
     <t xml:space="preserve">42.4167098999023</t>
   </si>
   <si>
-    <t xml:space="preserve">42.7690963745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5480690002441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.9004554748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.3270378112793</t>
+    <t xml:space="preserve">42.769100189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5480728149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.9004592895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.327033996582</t>
   </si>
   <si>
     <t xml:space="preserve">43.928279876709</t>
   </si>
   <si>
-    <t xml:space="preserve">44.1508445739746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.2435722351074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.4846839904785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.8927192687988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.9761772155762</t>
+    <t xml:space="preserve">44.1508407592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.2435760498047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.484691619873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.8927154541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.9761810302734</t>
   </si>
   <si>
     <t xml:space="preserve">44.6701545715332</t>
@@ -3740,10 +3740,10 @@
     <t xml:space="preserve">44.5866928100586</t>
   </si>
   <si>
-    <t xml:space="preserve">44.1044769287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.7443389892578</t>
+    <t xml:space="preserve">44.1044807434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.7443428039551</t>
   </si>
   <si>
     <t xml:space="preserve">44.7628898620605</t>
@@ -3758,7 +3758,7 @@
     <t xml:space="preserve">44.6979751586914</t>
   </si>
   <si>
-    <t xml:space="preserve">45.1987457275391</t>
+    <t xml:space="preserve">45.1987419128418</t>
   </si>
   <si>
     <t xml:space="preserve">45.1338195800781</t>
@@ -3767,49 +3767,49 @@
     <t xml:space="preserve">45.1152801513672</t>
   </si>
   <si>
-    <t xml:space="preserve">46.4599304199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.9807815551758</t>
+    <t xml:space="preserve">46.4599266052246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.9807739257812</t>
   </si>
   <si>
     <t xml:space="preserve">46.5526657104492</t>
   </si>
   <si>
-    <t xml:space="preserve">48.7782859802246</t>
+    <t xml:space="preserve">48.7782897949219</t>
   </si>
   <si>
     <t xml:space="preserve">48.0178718566895</t>
   </si>
   <si>
-    <t xml:space="preserve">47.6283836364746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8494186401367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8679656982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.3301010131836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.1724510192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.9421539306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.0534362792969</t>
+    <t xml:space="preserve">47.6283760070801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8494148254395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8679580688477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.3300971984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.1724548339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.9421463012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.0534324645996</t>
   </si>
   <si>
     <t xml:space="preserve">47.5171051025391</t>
   </si>
   <si>
-    <t xml:space="preserve">47.0163383483887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.2945404052734</t>
+    <t xml:space="preserve">47.0163345336914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.2945365905762</t>
   </si>
   <si>
     <t xml:space="preserve">48.2218856811523</t>
@@ -3821,19 +3821,19 @@
     <t xml:space="preserve">48.388801574707</t>
   </si>
   <si>
-    <t xml:space="preserve">48.8339347839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.4274253845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.9838371276855</t>
+    <t xml:space="preserve">48.8339309692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.4274291992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.9838409423828</t>
   </si>
   <si>
     <t xml:space="preserve">49.8911018371582</t>
   </si>
   <si>
-    <t xml:space="preserve">50.9482727050781</t>
+    <t xml:space="preserve">50.9482765197754</t>
   </si>
   <si>
     <t xml:space="preserve">50.9111824035645</t>
@@ -3845,13 +3845,13 @@
     <t xml:space="preserve">52.3392906188965</t>
   </si>
   <si>
-    <t xml:space="preserve">52.7102279663086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.0069770812988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.4320297241211</t>
+    <t xml:space="preserve">52.7102317810059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.0069808959961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.4320220947266</t>
   </si>
   <si>
     <t xml:space="preserve">52.7287750244141</t>
@@ -3860,64 +3860,64 @@
     <t xml:space="preserve">52.9142456054688</t>
   </si>
   <si>
-    <t xml:space="preserve">53.2666320800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.598949432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.8941688537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.4675903320312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0610847473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.8014335632324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.5232276916504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.6530570983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.4304962158203</t>
+    <t xml:space="preserve">53.2666282653809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.5989456176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.8941650390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.467586517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.0610809326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.8014297485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.5232315063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.6530532836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.430492401123</t>
   </si>
   <si>
     <t xml:space="preserve">51.8570709228516</t>
   </si>
   <si>
-    <t xml:space="preserve">50.6886215209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.9467391967773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.0564956665039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.7411994934082</t>
+    <t xml:space="preserve">50.6886100769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.9467430114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.0564918518066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.7411956787109</t>
   </si>
   <si>
     <t xml:space="preserve">48.6670112609863</t>
   </si>
   <si>
-    <t xml:space="preserve">47.3872756958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.0920600891113</t>
+    <t xml:space="preserve">47.3872680664062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.0920562744141</t>
   </si>
   <si>
     <t xml:space="preserve">46.9236030578613</t>
   </si>
   <si>
-    <t xml:space="preserve">46.3857421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.3501777648926</t>
+    <t xml:space="preserve">46.3857383728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.3501853942871</t>
   </si>
   <si>
     <t xml:space="preserve">46.9050598144531</t>
@@ -3926,13 +3926,13 @@
     <t xml:space="preserve">47.4614639282227</t>
   </si>
   <si>
-    <t xml:space="preserve">47.1647148132324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.3656616210938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4305801391602</t>
+    <t xml:space="preserve">47.1647109985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.365665435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4305763244629</t>
   </si>
   <si>
     <t xml:space="preserve">46.6268501281738</t>
@@ -3947,10 +3947,10 @@
     <t xml:space="preserve">45.6160469055176</t>
   </si>
   <si>
-    <t xml:space="preserve">45.4120254516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.3378372192383</t>
+    <t xml:space="preserve">45.4120330810547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.3378410339355</t>
   </si>
   <si>
     <t xml:space="preserve">45.8200645446777</t>
@@ -3962,10 +3962,10 @@
     <t xml:space="preserve">47.146167755127</t>
   </si>
   <si>
-    <t xml:space="preserve">47.4243659973145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.3687324523926</t>
+    <t xml:space="preserve">47.4243698120117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.3687286376953</t>
   </si>
   <si>
     <t xml:space="preserve">47.6654815673828</t>
@@ -3977,25 +3977,25 @@
     <t xml:space="preserve">48.258975982666</t>
   </si>
   <si>
-    <t xml:space="preserve">48.8895721435547</t>
+    <t xml:space="preserve">48.889575958252</t>
   </si>
   <si>
     <t xml:space="preserve">48.6113662719727</t>
   </si>
   <si>
-    <t xml:space="preserve">49.019401550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.1878547668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.0781059265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.2280082702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.3949356079102</t>
+    <t xml:space="preserve">49.0193977355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.1878509521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.0781021118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.2280044555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.3949279785156</t>
   </si>
   <si>
     <t xml:space="preserve">52.2465553283691</t>
@@ -4004,7 +4004,7 @@
     <t xml:space="preserve">51.9312591552734</t>
   </si>
   <si>
-    <t xml:space="preserve">52.1352729797363</t>
+    <t xml:space="preserve">52.1352767944336</t>
   </si>
   <si>
     <t xml:space="preserve">52.357837677002</t>
@@ -4016,13 +4016,13 @@
     <t xml:space="preserve">52.5804023742676</t>
   </si>
   <si>
-    <t xml:space="preserve">52.0239944458008</t>
+    <t xml:space="preserve">52.0239906311035</t>
   </si>
   <si>
     <t xml:space="preserve">51.0410118103027</t>
   </si>
   <si>
-    <t xml:space="preserve">52.4134826660156</t>
+    <t xml:space="preserve">52.4134750366211</t>
   </si>
   <si>
     <t xml:space="preserve">52.6849555969238</t>
@@ -4031,118 +4031,118 @@
     <t xml:space="preserve">51.8611679077148</t>
   </si>
   <si>
-    <t xml:space="preserve">52.029670715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.4228363037109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.2620506286621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.4492721557617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.8986129760742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.5054397583008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.2884864807129</t>
+    <t xml:space="preserve">52.0296669006348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.4228439331055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.2620429992676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.449275970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.898609161377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.5054473876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.2884826660156</t>
   </si>
   <si>
     <t xml:space="preserve">50.0263633728027</t>
   </si>
   <si>
-    <t xml:space="preserve">50.3820915222168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.730110168457</t>
+    <t xml:space="preserve">50.3820953369141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.7301063537598</t>
   </si>
   <si>
     <t xml:space="preserve">50.4944267272949</t>
   </si>
   <si>
-    <t xml:space="preserve">50.475700378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.1387062072754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.8688774108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.0450897216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.3556594848633</t>
+    <t xml:space="preserve">50.4757041931152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.1387023925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.8688812255859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.0450859069824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.355655670166</t>
   </si>
   <si>
     <t xml:space="preserve">51.6552200317383</t>
   </si>
   <si>
-    <t xml:space="preserve">51.9734992980957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0109481811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.9096260070801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.1981735229492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.3666725158691</t>
+    <t xml:space="preserve">51.973503112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.0109443664551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.9096221923828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.198169708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.3666763305664</t>
   </si>
   <si>
     <t xml:space="preserve">52.7598457336426</t>
   </si>
   <si>
-    <t xml:space="preserve">52.928352355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.8909034729004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.9922294616699</t>
+    <t xml:space="preserve">52.9283447265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.8908996582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.9922256469727</t>
   </si>
   <si>
     <t xml:space="preserve">51.130989074707</t>
   </si>
   <si>
-    <t xml:space="preserve">51.1684379577637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.8875999450684</t>
+    <t xml:space="preserve">51.1684341430664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.8876037597656</t>
   </si>
   <si>
     <t xml:space="preserve">50.62548828125</t>
   </si>
   <si>
-    <t xml:space="preserve">50.9999389648438</t>
+    <t xml:space="preserve">50.9999351501465</t>
   </si>
   <si>
     <t xml:space="preserve">51.4118232727051</t>
   </si>
   <si>
-    <t xml:space="preserve">50.1574287414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.8842964172363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.9294548034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.6783447265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.2102928161621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.2928886413574</t>
+    <t xml:space="preserve">50.1574249267578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.8843002319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.9294586181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.678352355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.2102890014648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.2928924560547</t>
   </si>
   <si>
     <t xml:space="preserve">46.7593040466309</t>
@@ -4151,70 +4151,70 @@
     <t xml:space="preserve">46.3193244934082</t>
   </si>
   <si>
-    <t xml:space="preserve">46.3474044799805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.3754959106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.5814361572266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.7686614990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4393730163574</t>
+    <t xml:space="preserve">46.3474006652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.3754920959473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.5814399719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.7686576843262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4393692016602</t>
   </si>
   <si>
     <t xml:space="preserve">44.325382232666</t>
   </si>
   <si>
-    <t xml:space="preserve">43.9134864807129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1458740234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5764808654785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.874397277832</t>
+    <t xml:space="preserve">43.9134902954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.145866394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5764846801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8743934631348</t>
   </si>
   <si>
     <t xml:space="preserve">42.4999465942383</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9195518493652</t>
+    <t xml:space="preserve">41.919548034668</t>
   </si>
   <si>
     <t xml:space="preserve">42.8275871276855</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6029205322266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8837547302246</t>
+    <t xml:space="preserve">42.6029167175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8837585449219</t>
   </si>
   <si>
     <t xml:space="preserve">43.2488403320312</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1645965576172</t>
+    <t xml:space="preserve">43.1645927429199</t>
   </si>
   <si>
     <t xml:space="preserve">43.3330917358398</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1552238464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.5808906555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7978591918945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9647026062012</t>
+    <t xml:space="preserve">43.1552276611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.5808944702148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7978553771973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9647064208984</t>
   </si>
   <si>
     <t xml:space="preserve">39.7290229797363</t>
@@ -4223,28 +4223,28 @@
     <t xml:space="preserve">40.4123916625977</t>
   </si>
   <si>
-    <t xml:space="preserve">40.094108581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.3639373779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.1767082214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7725296020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4140434265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2719764709473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7494010925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9382743835449</t>
+    <t xml:space="preserve">40.0941123962402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.3639335632324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.1767158508301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.7725257873535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4140472412109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.27197265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7493934631348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9382705688477</t>
   </si>
   <si>
     <t xml:space="preserve">41.3672370910645</t>
@@ -4253,16 +4253,16 @@
     <t xml:space="preserve">42.5280303955078</t>
   </si>
   <si>
-    <t xml:space="preserve">42.7433395385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.7339706420898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.7995071411133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2113952636719</t>
+    <t xml:space="preserve">42.743335723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.7339782714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.799503326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.2113990783691</t>
   </si>
   <si>
     <t xml:space="preserve">42.9399223327637</t>
@@ -4280,13 +4280,13 @@
     <t xml:space="preserve">43.8854064941406</t>
   </si>
   <si>
-    <t xml:space="preserve">42.7246170043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.2130508422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.7576560974121</t>
+    <t xml:space="preserve">42.7246131896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.2130470275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.7576484680176</t>
   </si>
   <si>
     <t xml:space="preserve">44.7279167175293</t>
@@ -4295,25 +4295,25 @@
     <t xml:space="preserve">45.9823188781738</t>
   </si>
   <si>
-    <t xml:space="preserve">46.0665664672852</t>
+    <t xml:space="preserve">46.0665740966797</t>
   </si>
   <si>
     <t xml:space="preserve">45.5142593383789</t>
   </si>
   <si>
-    <t xml:space="preserve">44.6343078613281</t>
+    <t xml:space="preserve">44.6343002319336</t>
   </si>
   <si>
     <t xml:space="preserve">45.0368385314941</t>
   </si>
   <si>
-    <t xml:space="preserve">45.1117248535156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.0649185180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.5891494750977</t>
+    <t xml:space="preserve">45.1117210388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.0649147033691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.5891456604004</t>
   </si>
   <si>
     <t xml:space="preserve">44.8215293884277</t>
@@ -4328,10 +4328,10 @@
     <t xml:space="preserve">42.0786895751953</t>
   </si>
   <si>
-    <t xml:space="preserve">41.8727416992188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0522575378418</t>
+    <t xml:space="preserve">41.872745513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0522613525391</t>
   </si>
   <si>
     <t xml:space="preserve">41.6293563842773</t>
@@ -4346,7 +4346,7 @@
     <t xml:space="preserve">39.4201049804688</t>
   </si>
   <si>
-    <t xml:space="preserve">38.7929000854492</t>
+    <t xml:space="preserve">38.7929039001465</t>
   </si>
   <si>
     <t xml:space="preserve">39.7009391784668</t>
@@ -4355,7 +4355,7 @@
     <t xml:space="preserve">39.3264923095703</t>
   </si>
   <si>
-    <t xml:space="preserve">37.3512763977051</t>
+    <t xml:space="preserve">37.3512802124023</t>
   </si>
   <si>
     <t xml:space="preserve">38.6992874145508</t>
@@ -4364,13 +4364,13 @@
     <t xml:space="preserve">39.1579933166504</t>
   </si>
   <si>
-    <t xml:space="preserve">39.1954307556152</t>
+    <t xml:space="preserve">39.1954345703125</t>
   </si>
   <si>
     <t xml:space="preserve">38.7180137634277</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8584327697754</t>
+    <t xml:space="preserve">38.8584251403809</t>
   </si>
   <si>
     <t xml:space="preserve">39.8413619995117</t>
@@ -4379,13 +4379,13 @@
     <t xml:space="preserve">40.1639633178711</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3764305114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2625732421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.6705665588379</t>
+    <t xml:space="preserve">39.3764343261719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2625694274902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.6705703735352</t>
   </si>
   <si>
     <t xml:space="preserve">39.9362449645996</t>
@@ -4397,10 +4397,10 @@
     <t xml:space="preserve">39.5472221374512</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6743011474609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6363487243652</t>
+    <t xml:space="preserve">38.6742973327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.636344909668</t>
   </si>
   <si>
     <t xml:space="preserve">37.5167274475098</t>
@@ -4409,10 +4409,10 @@
     <t xml:space="preserve">37.8013763427734</t>
   </si>
   <si>
-    <t xml:space="preserve">37.2320823669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.4408149719238</t>
+    <t xml:space="preserve">37.2320785522461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4408187866211</t>
   </si>
   <si>
     <t xml:space="preserve">36.7576637268066</t>
@@ -4445,7 +4445,7 @@
     <t xml:space="preserve">35.5905990600586</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8999862670898</t>
+    <t xml:space="preserve">36.8999824523926</t>
   </si>
   <si>
     <t xml:space="preserve">39.7180137634277</t>
@@ -4454,13 +4454,13 @@
     <t xml:space="preserve">39.0063896179199</t>
   </si>
   <si>
-    <t xml:space="preserve">39.0728073120117</t>
+    <t xml:space="preserve">39.072811126709</t>
   </si>
   <si>
     <t xml:space="preserve">39.3479690551758</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3859214782715</t>
+    <t xml:space="preserve">39.3859176635742</t>
   </si>
   <si>
     <t xml:space="preserve">40.8376312255859</t>
@@ -4469,7 +4469,7 @@
     <t xml:space="preserve">40.8186569213867</t>
   </si>
   <si>
-    <t xml:space="preserve">40.714282989502</t>
+    <t xml:space="preserve">40.7142791748047</t>
   </si>
   <si>
     <t xml:space="preserve">41.0273971557617</t>
@@ -4484,7 +4484,7 @@
     <t xml:space="preserve">41.568229675293</t>
   </si>
   <si>
-    <t xml:space="preserve">40.9799575805664</t>
+    <t xml:space="preserve">40.9799537658691</t>
   </si>
   <si>
     <t xml:space="preserve">40.7996788024902</t>
@@ -4499,7 +4499,7 @@
     <t xml:space="preserve">40.9420051574707</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1886940002441</t>
+    <t xml:space="preserve">41.1886978149414</t>
   </si>
   <si>
     <t xml:space="preserve">41.3784637451172</t>
@@ -4508,7 +4508,7 @@
     <t xml:space="preserve">40.7047958374023</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6573524475098</t>
+    <t xml:space="preserve">40.6573486328125</t>
   </si>
   <si>
     <t xml:space="preserve">40.2967987060547</t>
@@ -4517,28 +4517,28 @@
     <t xml:space="preserve">40.0311241149902</t>
   </si>
   <si>
-    <t xml:space="preserve">39.5662002563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0179100036621</t>
+    <t xml:space="preserve">39.5661964416504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0179061889648</t>
   </si>
   <si>
     <t xml:space="preserve">40.4960517883301</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1222801208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3120422363281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2019157409668</t>
+    <t xml:space="preserve">41.1222763061523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3120460510254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2019119262695</t>
   </si>
   <si>
     <t xml:space="preserve">40.0880546569824</t>
   </si>
   <si>
-    <t xml:space="preserve">39.5377311706543</t>
+    <t xml:space="preserve">39.5377349853516</t>
   </si>
   <si>
     <t xml:space="preserve">40.5719566345215</t>
@@ -4559,7 +4559,7 @@
     <t xml:space="preserve">40.2398681640625</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0748405456543</t>
+    <t xml:space="preserve">41.074836730957</t>
   </si>
   <si>
     <t xml:space="preserve">41.7579917907715</t>
@@ -4574,7 +4574,7 @@
     <t xml:space="preserve">41.3499984741211</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9647026062012</t>
+    <t xml:space="preserve">39.9647064208984</t>
   </si>
   <si>
     <t xml:space="preserve">38.9779281616211</t>
@@ -4589,19 +4589,19 @@
     <t xml:space="preserve">38.6078796386719</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2720565795898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1619338989258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7976455688477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4181175231934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8925323486328</t>
+    <t xml:space="preserve">39.2720603942871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1619300842285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7976417541504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.4181137084961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8925285339355</t>
   </si>
   <si>
     <t xml:space="preserve">38.550952911377</t>
@@ -4613,16 +4613,16 @@
     <t xml:space="preserve">38.4560661315918</t>
   </si>
   <si>
-    <t xml:space="preserve">38.0480728149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1049995422363</t>
+    <t xml:space="preserve">38.0480690002441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1050033569336</t>
   </si>
   <si>
     <t xml:space="preserve">37.7254676818848</t>
   </si>
   <si>
-    <t xml:space="preserve">37.5546836853027</t>
+    <t xml:space="preserve">37.5546798706055</t>
   </si>
   <si>
     <t xml:space="preserve">37.0043601989746</t>
@@ -4649,13 +4649,13 @@
     <t xml:space="preserve">36.4919891357422</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2527542114258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4936866760254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5506172180176</t>
+    <t xml:space="preserve">34.2527503967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4936904907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5506210327148</t>
   </si>
   <si>
     <t xml:space="preserve">33.9965705871582</t>
@@ -4667,7 +4667,7 @@
     <t xml:space="preserve">33.626522064209</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6987037658691</t>
+    <t xml:space="preserve">34.6986999511719</t>
   </si>
   <si>
     <t xml:space="preserve">34.9169311523438</t>
@@ -4688,7 +4688,7 @@
     <t xml:space="preserve">34.7935829162598</t>
   </si>
   <si>
-    <t xml:space="preserve">35.9891128540039</t>
+    <t xml:space="preserve">35.9891090393066</t>
   </si>
   <si>
     <t xml:space="preserve">36.0555267333984</t>
@@ -4700,10 +4700,10 @@
     <t xml:space="preserve">36.4065933227539</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0839920043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1314392089844</t>
+    <t xml:space="preserve">36.0839881896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1314353942871</t>
   </si>
   <si>
     <t xml:space="preserve">36.5014762878418</t>
@@ -4715,7 +4715,7 @@
     <t xml:space="preserve">36.5109672546387</t>
   </si>
   <si>
-    <t xml:space="preserve">35.9321746826172</t>
+    <t xml:space="preserve">35.9321784973145</t>
   </si>
   <si>
     <t xml:space="preserve">36.4825019836426</t>
@@ -4727,7 +4727,7 @@
     <t xml:space="preserve">39.4048957824707</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6648063659668</t>
+    <t xml:space="preserve">38.6648101806641</t>
   </si>
   <si>
     <t xml:space="preserve">38.2188568115234</t>
@@ -4736,10 +4736,10 @@
     <t xml:space="preserve">37.7918853759766</t>
   </si>
   <si>
-    <t xml:space="preserve">37.3079833984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1941223144531</t>
+    <t xml:space="preserve">37.3079795837402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1941261291504</t>
   </si>
   <si>
     <t xml:space="preserve">37.4692878723145</t>
@@ -4748,7 +4748,7 @@
     <t xml:space="preserve">37.5943756103516</t>
   </si>
   <si>
-    <t xml:space="preserve">37.1613693237305</t>
+    <t xml:space="preserve">37.1613655090332</t>
   </si>
   <si>
     <t xml:space="preserve">37.6713562011719</t>
@@ -4763,7 +4763,7 @@
     <t xml:space="preserve">38.6720733642578</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4988708496094</t>
+    <t xml:space="preserve">38.4988670349121</t>
   </si>
   <si>
     <t xml:space="preserve">39.1050796508789</t>
@@ -4772,22 +4772,22 @@
     <t xml:space="preserve">40.0288200378418</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9229774475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8363761901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8933868408203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9703636169434</t>
+    <t xml:space="preserve">39.922981262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8363723754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.893383026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9703674316406</t>
   </si>
   <si>
     <t xml:space="preserve">39.2975234985352</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3078651428223</t>
+    <t xml:space="preserve">40.3078689575195</t>
   </si>
   <si>
     <t xml:space="preserve">40.2982444763184</t>
@@ -4796,37 +4796,37 @@
     <t xml:space="preserve">40.057689666748</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9222526550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1043586730957</t>
+    <t xml:space="preserve">38.9222564697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1043548583984</t>
   </si>
   <si>
     <t xml:space="preserve">37.7387084960938</t>
   </si>
   <si>
-    <t xml:space="preserve">37.0170402526855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7002182006836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2672157287598</t>
+    <t xml:space="preserve">37.0170364379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.7002220153809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.267219543457</t>
   </si>
   <si>
     <t xml:space="preserve">37.6424865722656</t>
   </si>
   <si>
-    <t xml:space="preserve">37.1709938049316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5751266479492</t>
+    <t xml:space="preserve">37.1709899902344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5751304626465</t>
   </si>
   <si>
     <t xml:space="preserve">38.1717109680176</t>
   </si>
   <si>
-    <t xml:space="preserve">37.2864608764648</t>
+    <t xml:space="preserve">37.2864570617676</t>
   </si>
   <si>
     <t xml:space="preserve">37.353816986084</t>
@@ -4838,43 +4838,43 @@
     <t xml:space="preserve">36.9496803283691</t>
   </si>
   <si>
-    <t xml:space="preserve">37.219108581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.8541793823242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5655059814453</t>
+    <t xml:space="preserve">37.2191047668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.854175567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5655097961426</t>
   </si>
   <si>
     <t xml:space="preserve">37.3345718383789</t>
   </si>
   <si>
-    <t xml:space="preserve">37.902286529541</t>
+    <t xml:space="preserve">37.9022903442383</t>
   </si>
   <si>
     <t xml:space="preserve">38.6528282165527</t>
   </si>
   <si>
-    <t xml:space="preserve">38.5662269592285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2693786621094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6446533203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8652381896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.7497711181641</t>
+    <t xml:space="preserve">38.5662307739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2693748474121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6446495056152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8652420043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.7497749328613</t>
   </si>
   <si>
     <t xml:space="preserve">39.4707260131836</t>
   </si>
   <si>
-    <t xml:space="preserve">39.0377197265625</t>
+    <t xml:space="preserve">39.0377235412598</t>
   </si>
   <si>
     <t xml:space="preserve">39.2205467224121</t>
@@ -4883,13 +4883,13 @@
     <t xml:space="preserve">39.6920394897461</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6143417358398</t>
+    <t xml:space="preserve">38.6143379211426</t>
   </si>
   <si>
     <t xml:space="preserve">37.6328659057617</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4700050354004</t>
+    <t xml:space="preserve">38.4700088500977</t>
   </si>
   <si>
     <t xml:space="preserve">38.7394256591797</t>
@@ -4910,7 +4910,7 @@
     <t xml:space="preserve">38.729808807373</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2109260559082</t>
+    <t xml:space="preserve">39.2109222412109</t>
   </si>
   <si>
     <t xml:space="preserve">39.4995918273926</t>
@@ -4919,16 +4919,16 @@
     <t xml:space="preserve">39.4226150512695</t>
   </si>
   <si>
-    <t xml:space="preserve">39.8171348571777</t>
+    <t xml:space="preserve">39.8171272277832</t>
   </si>
   <si>
     <t xml:space="preserve">39.5477027893066</t>
   </si>
   <si>
-    <t xml:space="preserve">39.0569686889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.0562477111816</t>
+    <t xml:space="preserve">39.0569648742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.0562438964844</t>
   </si>
   <si>
     <t xml:space="preserve">38.5181159973145</t>
@@ -4937,10 +4937,10 @@
     <t xml:space="preserve">37.9600219726562</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6047210693359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6239624023438</t>
+    <t xml:space="preserve">38.6047172546387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6239585876465</t>
   </si>
   <si>
     <t xml:space="preserve">37.8156852722168</t>
@@ -4952,19 +4952,19 @@
     <t xml:space="preserve">37.796443939209</t>
   </si>
   <si>
-    <t xml:space="preserve">37.2479705810547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1806182861328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5647850036621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.3923110961914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8342132568359</t>
+    <t xml:space="preserve">37.247974395752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1806144714355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5647888183594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.3923072814941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8342094421387</t>
   </si>
   <si>
     <t xml:space="preserve">37.0843925476074</t>
@@ -4976,13 +4976,13 @@
     <t xml:space="preserve">38.4507598876953</t>
   </si>
   <si>
-    <t xml:space="preserve">37.7579536437988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7771949768066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.488525390625</t>
+    <t xml:space="preserve">37.7579574584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.7771987915039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4885292053223</t>
   </si>
   <si>
     <t xml:space="preserve">37.5847549438477</t>
@@ -4997,7 +4997,7 @@
     <t xml:space="preserve">38.4026489257812</t>
   </si>
   <si>
-    <t xml:space="preserve">38.787540435791</t>
+    <t xml:space="preserve">38.7875442504883</t>
   </si>
   <si>
     <t xml:space="preserve">39.1916770935059</t>
@@ -5006,7 +5006,7 @@
     <t xml:space="preserve">39.2879028320312</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9030075073242</t>
+    <t xml:space="preserve">38.9030113220215</t>
   </si>
   <si>
     <t xml:space="preserve">38.7201881408691</t>
@@ -5021,10 +5021,10 @@
     <t xml:space="preserve">39.1628112792969</t>
   </si>
   <si>
-    <t xml:space="preserve">38.5084953308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1539115905762</t>
+    <t xml:space="preserve">38.5084915161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1539077758789</t>
   </si>
   <si>
     <t xml:space="preserve">39.3841247558594</t>
@@ -5033,10 +5033,10 @@
     <t xml:space="preserve">39.5573272705078</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8755836486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4906921386719</t>
+    <t xml:space="preserve">40.8755798339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4906883239746</t>
   </si>
   <si>
     <t xml:space="preserve">40.4137115478516</t>
@@ -5048,13 +5048,13 @@
     <t xml:space="preserve">41.5106544494629</t>
   </si>
   <si>
-    <t xml:space="preserve">42.4247741699219</t>
+    <t xml:space="preserve">42.4247779846191</t>
   </si>
   <si>
     <t xml:space="preserve">44.1664161682129</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8969879150391</t>
+    <t xml:space="preserve">43.8969917297363</t>
   </si>
   <si>
     <t xml:space="preserve">43.300407409668</t>
@@ -5063,10 +5063,10 @@
     <t xml:space="preserve">42.877025604248</t>
   </si>
   <si>
-    <t xml:space="preserve">42.9590759277344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2418899536133</t>
+    <t xml:space="preserve">42.9590721130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.2418937683105</t>
   </si>
   <si>
     <t xml:space="preserve">42.0618591308594</t>
@@ -5093,10 +5093,10 @@
     <t xml:space="preserve">41.7790412902832</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9350738525391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0273399353027</t>
+    <t xml:space="preserve">41.9350776672363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0273361206055</t>
   </si>
   <si>
     <t xml:space="preserve">43.5149574279785</t>
@@ -5105,25 +5105,28 @@
     <t xml:space="preserve">43.7392578125</t>
   </si>
   <si>
-    <t xml:space="preserve">43.2906532287598</t>
+    <t xml:space="preserve">43.2906494140625</t>
   </si>
   <si>
     <t xml:space="preserve">44.373161315918</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8660430908203</t>
+    <t xml:space="preserve">43.866039276123</t>
   </si>
   <si>
     <t xml:space="preserve">43.8172798156738</t>
   </si>
   <si>
-    <t xml:space="preserve">44.1391067504883</t>
+    <t xml:space="preserve">44.139102935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3004035949707</t>
   </si>
   <si>
     <t xml:space="preserve">42.9688262939453</t>
   </si>
   <si>
-    <t xml:space="preserve">42.2081413269043</t>
+    <t xml:space="preserve">42.2081451416016</t>
   </si>
   <si>
     <t xml:space="preserve">41.7205238342285</t>
@@ -5147,13 +5150,13 @@
     <t xml:space="preserve">42.2959136962891</t>
   </si>
   <si>
-    <t xml:space="preserve">42.5007171630859</t>
+    <t xml:space="preserve">42.5007133483887</t>
   </si>
   <si>
     <t xml:space="preserve">42.6079902648926</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1743927001953</t>
+    <t xml:space="preserve">41.1743965148926</t>
   </si>
   <si>
     <t xml:space="preserve">40.9208335876465</t>
@@ -5171,7 +5174,7 @@
     <t xml:space="preserve">41.8278007507324</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0130958557129</t>
+    <t xml:space="preserve">42.0130996704102</t>
   </si>
   <si>
     <t xml:space="preserve">41.9448280334473</t>
@@ -5186,7 +5189,7 @@
     <t xml:space="preserve">42.0911140441895</t>
   </si>
   <si>
-    <t xml:space="preserve">44.2073745727539</t>
+    <t xml:space="preserve">44.2073783874512</t>
   </si>
   <si>
     <t xml:space="preserve">43.9440612792969</t>
@@ -5210,7 +5213,7 @@
     <t xml:space="preserve">44.8412742614746</t>
   </si>
   <si>
-    <t xml:space="preserve">44.4706840515137</t>
+    <t xml:space="preserve">44.4706878662109</t>
   </si>
   <si>
     <t xml:space="preserve">43.4759483337402</t>
@@ -5219,13 +5222,13 @@
     <t xml:space="preserve">42.432445526123</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8367881774902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.334156036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.8855438232422</t>
+    <t xml:space="preserve">43.836784362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.3341522216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.8855476379395</t>
   </si>
   <si>
     <t xml:space="preserve">44.3244018554688</t>
@@ -5264,7 +5267,7 @@
     <t xml:space="preserve">45.2313690185547</t>
   </si>
   <si>
-    <t xml:space="preserve">44.6559829711914</t>
+    <t xml:space="preserve">44.6559791564941</t>
   </si>
   <si>
     <t xml:space="preserve">44.4414291381836</t>
@@ -5279,13 +5282,13 @@
     <t xml:space="preserve">44.4609336853027</t>
   </si>
   <si>
-    <t xml:space="preserve">44.1001014709473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.3439064025879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.5096969604492</t>
+    <t xml:space="preserve">44.10009765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.3439102172852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.509693145752</t>
   </si>
   <si>
     <t xml:space="preserve">45.2021102905273</t>
@@ -5321,10 +5324,10 @@
     <t xml:space="preserve">43.0565986633301</t>
   </si>
   <si>
-    <t xml:space="preserve">43.6027297973633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.9785766601562</t>
+    <t xml:space="preserve">43.602725982666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.9785804748535</t>
   </si>
   <si>
     <t xml:space="preserve">42.6567535400391</t>
@@ -5336,28 +5339,28 @@
     <t xml:space="preserve">43.5832214355469</t>
   </si>
   <si>
-    <t xml:space="preserve">43.5344581604004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.4901885986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.4121704101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.3634147644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.7197608947754</t>
+    <t xml:space="preserve">43.5344619750977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.4901924133301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.4121742248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.363410949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.7197570800781</t>
   </si>
   <si>
     <t xml:space="preserve">42.9200630187988</t>
   </si>
   <si>
-    <t xml:space="preserve">42.900562286377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2711448669434</t>
+    <t xml:space="preserve">42.9005584716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.2711486816406</t>
   </si>
   <si>
     <t xml:space="preserve">42.8810577392578</t>
@@ -5366,40 +5369,40 @@
     <t xml:space="preserve">42.6274909973145</t>
   </si>
   <si>
-    <t xml:space="preserve">42.3446731567383</t>
+    <t xml:space="preserve">42.3446769714355</t>
   </si>
   <si>
     <t xml:space="preserve">42.1593818664551</t>
   </si>
   <si>
-    <t xml:space="preserve">42.5202178955078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0370941162109</t>
+    <t xml:space="preserve">42.5202140808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0370903015137</t>
   </si>
   <si>
     <t xml:space="preserve">43.202880859375</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8615493774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0078315734863</t>
+    <t xml:space="preserve">42.8615531921387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0078353881836</t>
   </si>
   <si>
     <t xml:space="preserve">42.7152633666992</t>
   </si>
   <si>
-    <t xml:space="preserve">43.6514854431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1638717651367</t>
+    <t xml:space="preserve">43.6514892578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1638679504395</t>
   </si>
   <si>
     <t xml:space="preserve">43.7977752685547</t>
   </si>
   <si>
-    <t xml:space="preserve">44.7144966125488</t>
+    <t xml:space="preserve">44.7144927978516</t>
   </si>
   <si>
     <t xml:space="preserve">43.436939239502</t>
@@ -5781,6 +5784,9 @@
   </si>
   <si>
     <t xml:space="preserve">50.0999984741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.4000015258789</t>
   </si>
 </sst>
 </file>
@@ -55514,7 +55520,7 @@
         <v>44.4000015258789</v>
       </c>
       <c r="G1900" t="s">
-        <v>1681</v>
+        <v>1702</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -55540,7 +55546,7 @@
         <v>44.060001373291</v>
       </c>
       <c r="G1901" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -55566,7 +55572,7 @@
         <v>43.2799987792969</v>
       </c>
       <c r="G1902" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -55592,7 +55598,7 @@
         <v>42.7799987792969</v>
       </c>
       <c r="G1903" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -55644,7 +55650,7 @@
         <v>42.9300003051758</v>
       </c>
       <c r="G1905" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -55670,7 +55676,7 @@
         <v>42.7099990844727</v>
       </c>
       <c r="G1906" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -55696,7 +55702,7 @@
         <v>43.0999984741211</v>
       </c>
       <c r="G1907" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -55722,7 +55728,7 @@
         <v>43.3199996948242</v>
       </c>
       <c r="G1908" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -55748,7 +55754,7 @@
         <v>43.75</v>
       </c>
       <c r="G1909" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -55774,7 +55780,7 @@
         <v>43.3699989318848</v>
       </c>
       <c r="G1910" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -55800,7 +55806,7 @@
         <v>43.5800018310547</v>
       </c>
       <c r="G1911" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -55826,7 +55832,7 @@
         <v>43.689998626709</v>
       </c>
       <c r="G1912" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -55852,7 +55858,7 @@
         <v>42.2200012207031</v>
       </c>
       <c r="G1913" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -55878,7 +55884,7 @@
         <v>41.9599990844727</v>
       </c>
       <c r="G1914" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -55904,7 +55910,7 @@
         <v>42.3199996948242</v>
       </c>
       <c r="G1915" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -55930,7 +55936,7 @@
         <v>42.25</v>
       </c>
       <c r="G1916" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -55956,7 +55962,7 @@
         <v>42.9099998474121</v>
       </c>
       <c r="G1917" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -55982,7 +55988,7 @@
         <v>42.8899993896484</v>
       </c>
       <c r="G1918" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -56008,7 +56014,7 @@
         <v>43.0800018310547</v>
       </c>
       <c r="G1919" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -56034,7 +56040,7 @@
         <v>43.0099983215332</v>
       </c>
       <c r="G1920" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -56060,7 +56066,7 @@
         <v>43.2900009155273</v>
       </c>
       <c r="G1921" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -56086,7 +56092,7 @@
         <v>43.4799995422363</v>
       </c>
       <c r="G1922" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -56112,7 +56118,7 @@
         <v>43.1599998474121</v>
       </c>
       <c r="G1923" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -56138,7 +56144,7 @@
         <v>45.3300018310547</v>
       </c>
       <c r="G1924" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -56164,7 +56170,7 @@
         <v>45.060001373291</v>
       </c>
       <c r="G1925" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -56190,7 +56196,7 @@
         <v>44.4500007629395</v>
       </c>
       <c r="G1926" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -56216,7 +56222,7 @@
         <v>45.2799987792969</v>
       </c>
       <c r="G1927" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -56242,7 +56248,7 @@
         <v>46.4900016784668</v>
       </c>
       <c r="G1928" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -56268,7 +56274,7 @@
         <v>46.810001373291</v>
       </c>
       <c r="G1929" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -56294,7 +56300,7 @@
         <v>46.9500007629395</v>
       </c>
       <c r="G1930" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -56320,7 +56326,7 @@
         <v>45.9799995422363</v>
       </c>
       <c r="G1931" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -56346,7 +56352,7 @@
         <v>45.5999984741211</v>
       </c>
       <c r="G1932" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -56372,7 +56378,7 @@
         <v>44.5800018310547</v>
       </c>
       <c r="G1933" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -56398,7 +56404,7 @@
         <v>43.5099983215332</v>
       </c>
       <c r="G1934" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -56424,7 +56430,7 @@
         <v>43.3199996948242</v>
       </c>
       <c r="G1935" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -56450,7 +56456,7 @@
         <v>44.4000015258789</v>
       </c>
       <c r="G1936" t="s">
-        <v>1681</v>
+        <v>1702</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -56476,7 +56482,7 @@
         <v>44.9500007629395</v>
       </c>
       <c r="G1937" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -56502,7 +56508,7 @@
         <v>45.4599990844727</v>
       </c>
       <c r="G1938" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -56528,7 +56534,7 @@
         <v>45</v>
       </c>
       <c r="G1939" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -56554,7 +56560,7 @@
         <v>45.4500007629395</v>
       </c>
       <c r="G1940" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -56580,7 +56586,7 @@
         <v>45.3600006103516</v>
       </c>
       <c r="G1941" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -56606,7 +56612,7 @@
         <v>44.810001373291</v>
       </c>
       <c r="G1942" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -56632,7 +56638,7 @@
         <v>44.6500015258789</v>
       </c>
       <c r="G1943" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -56658,7 +56664,7 @@
         <v>44.6800003051758</v>
       </c>
       <c r="G1944" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -56684,7 +56690,7 @@
         <v>45.2799987792969</v>
       </c>
       <c r="G1945" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -56710,7 +56716,7 @@
         <v>45.7599983215332</v>
       </c>
       <c r="G1946" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -56736,7 +56742,7 @@
         <v>45.560001373291</v>
       </c>
       <c r="G1947" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -56762,7 +56768,7 @@
         <v>45.8400001525879</v>
       </c>
       <c r="G1948" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -56788,7 +56794,7 @@
         <v>46.189998626709</v>
       </c>
       <c r="G1949" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -56814,7 +56820,7 @@
         <v>46.8899993896484</v>
       </c>
       <c r="G1950" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -56840,7 +56846,7 @@
         <v>46.4700012207031</v>
       </c>
       <c r="G1951" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -56866,7 +56872,7 @@
         <v>46.3800010681152</v>
       </c>
       <c r="G1952" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -56892,7 +56898,7 @@
         <v>45.7900009155273</v>
       </c>
       <c r="G1953" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -56918,7 +56924,7 @@
         <v>45.5699996948242</v>
       </c>
       <c r="G1954" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -56970,7 +56976,7 @@
         <v>44.3600006103516</v>
       </c>
       <c r="G1956" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -56996,7 +57002,7 @@
         <v>45.0099983215332</v>
       </c>
       <c r="G1957" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -57022,7 +57028,7 @@
         <v>45.5900001525879</v>
       </c>
       <c r="G1958" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -57048,7 +57054,7 @@
         <v>45.2200012207031</v>
       </c>
       <c r="G1959" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -57074,7 +57080,7 @@
         <v>45.4700012207031</v>
       </c>
       <c r="G1960" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -57100,7 +57106,7 @@
         <v>45.6399993896484</v>
       </c>
       <c r="G1961" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -57126,7 +57132,7 @@
         <v>46.3499984741211</v>
       </c>
       <c r="G1962" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -57152,7 +57158,7 @@
         <v>46.8199996948242</v>
       </c>
       <c r="G1963" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -57178,7 +57184,7 @@
         <v>46.9300003051758</v>
       </c>
       <c r="G1964" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -57204,7 +57210,7 @@
         <v>46.9799995422363</v>
       </c>
       <c r="G1965" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -57230,7 +57236,7 @@
         <v>47.4000015258789</v>
       </c>
       <c r="G1966" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -57256,7 +57262,7 @@
         <v>44.9000015258789</v>
       </c>
       <c r="G1967" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -57282,7 +57288,7 @@
         <v>45.2999992370605</v>
       </c>
       <c r="G1968" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -57308,7 +57314,7 @@
         <v>44.7900009155273</v>
       </c>
       <c r="G1969" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -57334,7 +57340,7 @@
         <v>44.7799987792969</v>
       </c>
       <c r="G1970" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -57360,7 +57366,7 @@
         <v>44.0299987792969</v>
       </c>
       <c r="G1971" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -57386,7 +57392,7 @@
         <v>44.1500015258789</v>
       </c>
       <c r="G1972" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -57412,7 +57418,7 @@
         <v>44.7099990844727</v>
       </c>
       <c r="G1973" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -57438,7 +57444,7 @@
         <v>44.0699996948242</v>
       </c>
       <c r="G1974" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -57464,7 +57470,7 @@
         <v>43.7400016784668</v>
       </c>
       <c r="G1975" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -57490,7 +57496,7 @@
         <v>44.0200004577637</v>
       </c>
       <c r="G1976" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -57516,7 +57522,7 @@
         <v>44.689998626709</v>
       </c>
       <c r="G1977" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -57542,7 +57548,7 @@
         <v>45.2799987792969</v>
       </c>
       <c r="G1978" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -57568,7 +57574,7 @@
         <v>44.6399993896484</v>
       </c>
       <c r="G1979" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -57594,7 +57600,7 @@
         <v>45.6199989318848</v>
       </c>
       <c r="G1980" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -57646,7 +57652,7 @@
         <v>45.5400009155273</v>
       </c>
       <c r="G1982" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -57698,7 +57704,7 @@
         <v>45.4900016784668</v>
       </c>
       <c r="G1984" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -57724,7 +57730,7 @@
         <v>44.8300018310547</v>
       </c>
       <c r="G1985" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -57750,7 +57756,7 @@
         <v>44.0099983215332</v>
       </c>
       <c r="G1986" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -57802,7 +57808,7 @@
         <v>43.9900016784668</v>
       </c>
       <c r="G1988" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -57828,7 +57834,7 @@
         <v>44.0299987792969</v>
       </c>
       <c r="G1989" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -57854,7 +57860,7 @@
         <v>44.3699989318848</v>
       </c>
       <c r="G1990" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -57880,7 +57886,7 @@
         <v>43.9700012207031</v>
       </c>
       <c r="G1991" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -57906,7 +57912,7 @@
         <v>43.7099990844727</v>
       </c>
       <c r="G1992" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -57932,7 +57938,7 @@
         <v>43.4199981689453</v>
       </c>
       <c r="G1993" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -57958,7 +57964,7 @@
         <v>43.2299995422363</v>
       </c>
       <c r="G1994" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -57984,7 +57990,7 @@
         <v>43.5999984741211</v>
       </c>
       <c r="G1995" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -58010,7 +58016,7 @@
         <v>44.1300010681152</v>
       </c>
       <c r="G1996" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -58036,7 +58042,7 @@
         <v>44.2999992370605</v>
       </c>
       <c r="G1997" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -58062,7 +58068,7 @@
         <v>43.9500007629395</v>
       </c>
       <c r="G1998" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -58088,7 +58094,7 @@
         <v>44.0999984741211</v>
       </c>
       <c r="G1999" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -58114,7 +58120,7 @@
         <v>45.0099983215332</v>
       </c>
       <c r="G2000" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -58140,7 +58146,7 @@
         <v>43.7999992370605</v>
       </c>
       <c r="G2001" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -58166,7 +58172,7 @@
         <v>44.7599983215332</v>
       </c>
       <c r="G2002" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -58192,7 +58198,7 @@
         <v>44.2599983215332</v>
       </c>
       <c r="G2003" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -58218,7 +58224,7 @@
         <v>44.9099998474121</v>
       </c>
       <c r="G2004" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -58244,7 +58250,7 @@
         <v>45.8499984741211</v>
       </c>
       <c r="G2005" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -58296,7 +58302,7 @@
         <v>44.5400009155273</v>
       </c>
       <c r="G2007" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -58322,7 +58328,7 @@
         <v>45.1800003051758</v>
       </c>
       <c r="G2008" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -58348,7 +58354,7 @@
         <v>44.6199989318848</v>
       </c>
       <c r="G2009" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -58374,7 +58380,7 @@
         <v>44.8800010681152</v>
       </c>
       <c r="G2010" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -58400,7 +58406,7 @@
         <v>44.3899993896484</v>
       </c>
       <c r="G2011" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -58426,7 +58432,7 @@
         <v>44.5499992370605</v>
       </c>
       <c r="G2012" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -58452,7 +58458,7 @@
         <v>44.6100006103516</v>
       </c>
       <c r="G2013" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -58478,7 +58484,7 @@
         <v>44.4199981689453</v>
       </c>
       <c r="G2014" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -58504,7 +58510,7 @@
         <v>44.3699989318848</v>
       </c>
       <c r="G2015" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -58530,7 +58536,7 @@
         <v>44.3199996948242</v>
       </c>
       <c r="G2016" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -58556,7 +58562,7 @@
         <v>44.1699981689453</v>
       </c>
       <c r="G2017" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -58582,7 +58588,7 @@
         <v>44.189998626709</v>
       </c>
       <c r="G2018" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -58608,7 +58614,7 @@
         <v>45.2200012207031</v>
       </c>
       <c r="G2019" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -58634,7 +58640,7 @@
         <v>45.9000015258789</v>
       </c>
       <c r="G2020" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -58660,7 +58666,7 @@
         <v>46.2400016784668</v>
       </c>
       <c r="G2021" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -58686,7 +58692,7 @@
         <v>45.6599998474121</v>
       </c>
       <c r="G2022" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -58712,7 +58718,7 @@
         <v>46.7000007629395</v>
       </c>
       <c r="G2023" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -58738,7 +58744,7 @@
         <v>46.6500015258789</v>
       </c>
       <c r="G2024" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -58764,7 +58770,7 @@
         <v>47.2200012207031</v>
       </c>
       <c r="G2025" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -58790,7 +58796,7 @@
         <v>47.0099983215332</v>
       </c>
       <c r="G2026" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -58816,7 +58822,7 @@
         <v>47.3300018310547</v>
       </c>
       <c r="G2027" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -58842,7 +58848,7 @@
         <v>47.8800010681152</v>
       </c>
       <c r="G2028" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -58868,7 +58874,7 @@
         <v>47.8699989318848</v>
       </c>
       <c r="G2029" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -58894,7 +58900,7 @@
         <v>47.9900016784668</v>
       </c>
       <c r="G2030" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -58920,7 +58926,7 @@
         <v>47.5900001525879</v>
       </c>
       <c r="G2031" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -58946,7 +58952,7 @@
         <v>48.1300010681152</v>
       </c>
       <c r="G2032" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -58972,7 +58978,7 @@
         <v>48.2200012207031</v>
       </c>
       <c r="G2033" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -58998,7 +59004,7 @@
         <v>48.3300018310547</v>
       </c>
       <c r="G2034" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -59024,7 +59030,7 @@
         <v>48.439998626709</v>
       </c>
       <c r="G2035" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -59050,7 +59056,7 @@
         <v>48.8300018310547</v>
       </c>
       <c r="G2036" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -59076,7 +59082,7 @@
         <v>49</v>
       </c>
       <c r="G2037" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -59102,7 +59108,7 @@
         <v>48.0200004577637</v>
       </c>
       <c r="G2038" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -59128,7 +59134,7 @@
         <v>48.5200004577637</v>
       </c>
       <c r="G2039" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -59154,7 +59160,7 @@
         <v>47.8199996948242</v>
       </c>
       <c r="G2040" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -59180,7 +59186,7 @@
         <v>48.2000007629395</v>
       </c>
       <c r="G2041" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -59206,7 +59212,7 @@
         <v>48.9199981689453</v>
       </c>
       <c r="G2042" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -59232,7 +59238,7 @@
         <v>49.0999984741211</v>
       </c>
       <c r="G2043" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -59258,7 +59264,7 @@
         <v>49.2200012207031</v>
       </c>
       <c r="G2044" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -59284,7 +59290,7 @@
         <v>50.9599990844727</v>
       </c>
       <c r="G2045" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -59310,7 +59316,7 @@
         <v>49.9900016784668</v>
       </c>
       <c r="G2046" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -59336,7 +59342,7 @@
         <v>50.2599983215332</v>
       </c>
       <c r="G2047" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -59362,7 +59368,7 @@
         <v>50.5</v>
       </c>
       <c r="G2048" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -59388,7 +59394,7 @@
         <v>49.7900009155273</v>
       </c>
       <c r="G2049" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -59414,7 +59420,7 @@
         <v>49.7599983215332</v>
       </c>
       <c r="G2050" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -59440,7 +59446,7 @@
         <v>49.5699996948242</v>
       </c>
       <c r="G2051" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -59466,7 +59472,7 @@
         <v>49.7200012207031</v>
       </c>
       <c r="G2052" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -59492,7 +59498,7 @@
         <v>49.939998626709</v>
       </c>
       <c r="G2053" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -59518,7 +59524,7 @@
         <v>49.9799995422363</v>
       </c>
       <c r="G2054" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -59544,7 +59550,7 @@
         <v>50.9000015258789</v>
       </c>
       <c r="G2055" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -59570,7 +59576,7 @@
         <v>50.6399993896484</v>
       </c>
       <c r="G2056" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -59596,7 +59602,7 @@
         <v>50.7999992370605</v>
       </c>
       <c r="G2057" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -59622,7 +59628,7 @@
         <v>51.2999992370605</v>
       </c>
       <c r="G2058" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -59648,7 +59654,7 @@
         <v>50.9599990844727</v>
       </c>
       <c r="G2059" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -59674,7 +59680,7 @@
         <v>50.7000007629395</v>
       </c>
       <c r="G2060" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -59700,7 +59706,7 @@
         <v>50.8199996948242</v>
       </c>
       <c r="G2061" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -59726,7 +59732,7 @@
         <v>51.0999984741211</v>
       </c>
       <c r="G2062" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -59752,7 +59758,7 @@
         <v>50.439998626709</v>
       </c>
       <c r="G2063" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -59778,7 +59784,7 @@
         <v>50.4599990844727</v>
       </c>
       <c r="G2064" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -59804,7 +59810,7 @@
         <v>50.560001373291</v>
       </c>
       <c r="G2065" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -59830,7 +59836,7 @@
         <v>50.7000007629395</v>
       </c>
       <c r="G2066" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -59856,7 +59862,7 @@
         <v>50.3800010681152</v>
       </c>
       <c r="G2067" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -59882,7 +59888,7 @@
         <v>50.4799995422363</v>
       </c>
       <c r="G2068" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -59908,7 +59914,7 @@
         <v>50.7000007629395</v>
       </c>
       <c r="G2069" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -59934,7 +59940,7 @@
         <v>51.0200004577637</v>
       </c>
       <c r="G2070" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -59960,7 +59966,7 @@
         <v>51.2400016784668</v>
       </c>
       <c r="G2071" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -59986,7 +59992,7 @@
         <v>52.1199989318848</v>
       </c>
       <c r="G2072" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -60012,7 +60018,7 @@
         <v>52.0800018310547</v>
       </c>
       <c r="G2073" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -60038,7 +60044,7 @@
         <v>51.6800003051758</v>
       </c>
       <c r="G2074" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -60064,7 +60070,7 @@
         <v>52.8800010681152</v>
       </c>
       <c r="G2075" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -60090,7 +60096,7 @@
         <v>51.6599998474121</v>
       </c>
       <c r="G2076" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -60116,7 +60122,7 @@
         <v>50.9799995422363</v>
       </c>
       <c r="G2077" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -60142,7 +60148,7 @@
         <v>50.7200012207031</v>
       </c>
       <c r="G2078" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -60168,7 +60174,7 @@
         <v>51.7599983215332</v>
       </c>
       <c r="G2079" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -60194,7 +60200,7 @@
         <v>51.9599990844727</v>
       </c>
       <c r="G2080" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -60220,7 +60226,7 @@
         <v>51.7200012207031</v>
       </c>
       <c r="G2081" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -60246,7 +60252,7 @@
         <v>51.7200012207031</v>
       </c>
       <c r="G2082" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -60272,7 +60278,7 @@
         <v>51.9599990844727</v>
       </c>
       <c r="G2083" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -60298,7 +60304,7 @@
         <v>52.5800018310547</v>
       </c>
       <c r="G2084" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -60324,7 +60330,7 @@
         <v>52.8600006103516</v>
       </c>
       <c r="G2085" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -60350,7 +60356,7 @@
         <v>52.7400016784668</v>
       </c>
       <c r="G2086" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -60376,7 +60382,7 @@
         <v>53.0800018310547</v>
       </c>
       <c r="G2087" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -60402,7 +60408,7 @@
         <v>52.8600006103516</v>
       </c>
       <c r="G2088" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -60428,7 +60434,7 @@
         <v>52.7799987792969</v>
       </c>
       <c r="G2089" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -60454,7 +60460,7 @@
         <v>52.8400001525879</v>
       </c>
       <c r="G2090" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -60480,7 +60486,7 @@
         <v>51.8600006103516</v>
       </c>
       <c r="G2091" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -60506,7 +60512,7 @@
         <v>51.2200012207031</v>
       </c>
       <c r="G2092" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -60532,7 +60538,7 @@
         <v>50.8600006103516</v>
       </c>
       <c r="G2093" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -60558,7 +60564,7 @@
         <v>51.3800010681152</v>
       </c>
       <c r="G2094" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -60584,7 +60590,7 @@
         <v>52.3600006103516</v>
       </c>
       <c r="G2095" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -60610,7 +60616,7 @@
         <v>52</v>
       </c>
       <c r="G2096" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -60636,7 +60642,7 @@
         <v>51.4000015258789</v>
       </c>
       <c r="G2097" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -60662,7 +60668,7 @@
         <v>51.7400016784668</v>
       </c>
       <c r="G2098" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -60688,7 +60694,7 @@
         <v>51.2400016784668</v>
       </c>
       <c r="G2099" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -60714,7 +60720,7 @@
         <v>50.75</v>
       </c>
       <c r="G2100" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -60740,7 +60746,7 @@
         <v>50.5499992370605</v>
       </c>
       <c r="G2101" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -60766,7 +60772,7 @@
         <v>49.8199996948242</v>
       </c>
       <c r="G2102" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -60792,7 +60798,7 @@
         <v>48.7000007629395</v>
       </c>
       <c r="G2103" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -60818,7 +60824,7 @@
         <v>49.9199981689453</v>
       </c>
       <c r="G2104" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -60844,7 +60850,7 @@
         <v>49.560001373291</v>
       </c>
       <c r="G2105" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -60870,7 +60876,7 @@
         <v>50</v>
       </c>
       <c r="G2106" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -60896,7 +60902,7 @@
         <v>49.0999984741211</v>
       </c>
       <c r="G2107" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -60922,7 +60928,7 @@
         <v>49.4199981689453</v>
       </c>
       <c r="G2108" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -60948,7 +60954,7 @@
         <v>49.9799995422363</v>
       </c>
       <c r="G2109" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -60974,7 +60980,7 @@
         <v>49.3400001525879</v>
       </c>
       <c r="G2110" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -61000,7 +61006,7 @@
         <v>48.939998626709</v>
       </c>
       <c r="G2111" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -61026,7 +61032,7 @@
         <v>49.7400016784668</v>
       </c>
       <c r="G2112" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -61052,7 +61058,7 @@
         <v>49.8600006103516</v>
       </c>
       <c r="G2113" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -61078,7 +61084,7 @@
         <v>51.0999984741211</v>
       </c>
       <c r="G2114" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -61104,7 +61110,7 @@
         <v>52.5999984741211</v>
       </c>
       <c r="G2115" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -61130,7 +61136,7 @@
         <v>49.9799995422363</v>
       </c>
       <c r="G2116" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -61156,7 +61162,7 @@
         <v>48.7999992370605</v>
       </c>
       <c r="G2117" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -61182,7 +61188,7 @@
         <v>49.0999984741211</v>
       </c>
       <c r="G2118" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -61208,7 +61214,7 @@
         <v>49.4199981689453</v>
       </c>
       <c r="G2119" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -61234,7 +61240,7 @@
         <v>50.0499992370605</v>
       </c>
       <c r="G2120" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -61260,7 +61266,7 @@
         <v>50.2000007629395</v>
       </c>
       <c r="G2121" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -61286,7 +61292,7 @@
         <v>50.75</v>
       </c>
       <c r="G2122" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -61312,7 +61318,7 @@
         <v>50.3499984741211</v>
       </c>
       <c r="G2123" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -61338,7 +61344,7 @@
         <v>50.5</v>
       </c>
       <c r="G2124" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -61364,7 +61370,7 @@
         <v>51.2000007629395</v>
       </c>
       <c r="G2125" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -61390,7 +61396,7 @@
         <v>50.3499984741211</v>
       </c>
       <c r="G2126" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -61416,7 +61422,7 @@
         <v>50.7999992370605</v>
       </c>
       <c r="G2127" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -61442,7 +61448,7 @@
         <v>50.5</v>
       </c>
       <c r="G2128" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -61468,7 +61474,7 @@
         <v>50.75</v>
       </c>
       <c r="G2129" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -61494,7 +61500,7 @@
         <v>51.7999992370605</v>
       </c>
       <c r="G2130" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -61520,7 +61526,7 @@
         <v>50.7999992370605</v>
       </c>
       <c r="G2131" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -61546,7 +61552,7 @@
         <v>51.2000007629395</v>
       </c>
       <c r="G2132" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -61572,7 +61578,7 @@
         <v>50.3499984741211</v>
       </c>
       <c r="G2133" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -61598,7 +61604,7 @@
         <v>48.8199996948242</v>
       </c>
       <c r="G2134" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -61624,7 +61630,7 @@
         <v>49.1599998474121</v>
       </c>
       <c r="G2135" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -61650,7 +61656,7 @@
         <v>48.5200004577637</v>
       </c>
       <c r="G2136" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -61676,7 +61682,7 @@
         <v>48.3400001525879</v>
       </c>
       <c r="G2137" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -61702,7 +61708,7 @@
         <v>48.6800003051758</v>
       </c>
       <c r="G2138" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -61728,7 +61734,7 @@
         <v>48.0999984741211</v>
       </c>
       <c r="G2139" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -61754,7 +61760,7 @@
         <v>47.7000007629395</v>
       </c>
       <c r="G2140" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -61780,7 +61786,7 @@
         <v>47.4599990844727</v>
       </c>
       <c r="G2141" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -61806,7 +61812,7 @@
         <v>48.4000015258789</v>
       </c>
       <c r="G2142" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -61832,7 +61838,7 @@
         <v>48.3600006103516</v>
       </c>
       <c r="G2143" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -61858,7 +61864,7 @@
         <v>48.2000007629395</v>
       </c>
       <c r="G2144" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -61884,7 +61890,7 @@
         <v>48.5999984741211</v>
       </c>
       <c r="G2145" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -61910,7 +61916,7 @@
         <v>49.2400016784668</v>
       </c>
       <c r="G2146" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -61936,7 +61942,7 @@
         <v>49.7000007629395</v>
       </c>
       <c r="G2147" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -61962,7 +61968,7 @@
         <v>49.5400009155273</v>
       </c>
       <c r="G2148" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -61988,7 +61994,7 @@
         <v>48.4199981689453</v>
       </c>
       <c r="G2149" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -62014,7 +62020,7 @@
         <v>49.2599983215332</v>
       </c>
       <c r="G2150" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -62040,7 +62046,7 @@
         <v>48.7799987792969</v>
       </c>
       <c r="G2151" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -62066,7 +62072,7 @@
         <v>48.0999984741211</v>
       </c>
       <c r="G2152" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -62092,7 +62098,7 @@
         <v>47.4199981689453</v>
       </c>
       <c r="G2153" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -62118,7 +62124,7 @@
         <v>48.4000015258789</v>
       </c>
       <c r="G2154" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -62144,7 +62150,7 @@
         <v>47.8400001525879</v>
       </c>
       <c r="G2155" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -62170,7 +62176,7 @@
         <v>49.2400016784668</v>
       </c>
       <c r="G2156" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -62196,7 +62202,7 @@
         <v>49.2000007629395</v>
       </c>
       <c r="G2157" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -62204,7 +62210,7 @@
     </row>
     <row r="2158">
       <c r="A2158" s="1" t="n">
-        <v>45467.65</v>
+        <v>45467.2916666667</v>
       </c>
       <c r="B2158" t="n">
         <v>203785</v>
@@ -62216,15 +62222,41 @@
         <v>49.0800018310547</v>
       </c>
       <c r="E2158" t="n">
-        <v>48.7400016784668</v>
+        <v>49.2999992370605</v>
       </c>
       <c r="F2158" t="n">
         <v>50.0999984741211</v>
       </c>
       <c r="G2158" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="H2158" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" s="1" t="n">
+        <v>45468.6496296296</v>
+      </c>
+      <c r="B2159" t="n">
+        <v>191520</v>
+      </c>
+      <c r="C2159" t="n">
+        <v>50.3499984741211</v>
+      </c>
+      <c r="D2159" t="n">
+        <v>49.2000007629395</v>
+      </c>
+      <c r="E2159" t="n">
+        <v>50.0999984741211</v>
+      </c>
+      <c r="F2159" t="n">
+        <v>49.4000015258789</v>
+      </c>
+      <c r="G2159" t="s">
+        <v>1924</v>
+      </c>
+      <c r="H2159" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/REC.MI.xlsx
+++ b/data/REC.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="1931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="1932">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,46 +38,46 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0686416625977</t>
+    <t xml:space="preserve">19.0686378479004</t>
   </si>
   <si>
     <t xml:space="preserve">REC.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6574783325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3267593383789</t>
+    <t xml:space="preserve">19.6574802398682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3267612457275</t>
   </si>
   <si>
     <t xml:space="preserve">18.9637775421143</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8105182647705</t>
+    <t xml:space="preserve">18.8105163574219</t>
   </si>
   <si>
     <t xml:space="preserve">18.6572589874268</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6975955963135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1087512969971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2297458648682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6086463928223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5441150665283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.527982711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2942771911621</t>
+    <t xml:space="preserve">18.6975917816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.108757019043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2297477722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6086502075195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5441188812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5279846191406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2942810058594</t>
   </si>
   <si>
     <t xml:space="preserve">18.5282001495361</t>
@@ -86,79 +86,79 @@
     <t xml:space="preserve">18.4959354400635</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8266525268555</t>
+    <t xml:space="preserve">18.8266506195068</t>
   </si>
   <si>
     <t xml:space="preserve">18.0280933380127</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3910732269287</t>
+    <t xml:space="preserve">18.3910751342773</t>
   </si>
   <si>
     <t xml:space="preserve">18.754056930542</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1329555511475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8990345001221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2779312133789</t>
+    <t xml:space="preserve">18.1329498291016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8990325927734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2779293060303</t>
   </si>
   <si>
     <t xml:space="preserve">16.1325206756592</t>
   </si>
   <si>
-    <t xml:space="preserve">15.6727437973022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7937393188477</t>
+    <t xml:space="preserve">15.672739982605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7937383651733</t>
   </si>
   <si>
     <t xml:space="preserve">16.3825721740723</t>
   </si>
   <si>
-    <t xml:space="preserve">16.5196990966797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1327362060547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8183708190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6812381744385</t>
+    <t xml:space="preserve">16.5197010040283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1327381134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8183689117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6812419891357</t>
   </si>
   <si>
     <t xml:space="preserve">18.0119609832764</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4233379364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4475364685059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7217884063721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0601406097412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0036754608154</t>
+    <t xml:space="preserve">18.42333984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4475402832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7217922210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0601387023926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0036773681641</t>
   </si>
   <si>
     <t xml:space="preserve">17.5199184417725</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6893081665039</t>
+    <t xml:space="preserve">17.6893100738525</t>
   </si>
   <si>
     <t xml:space="preserve">17.9151630401611</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0684242248535</t>
+    <t xml:space="preserve">18.0684280395508</t>
   </si>
   <si>
     <t xml:space="preserve">17.6731777191162</t>
@@ -167,157 +167,157 @@
     <t xml:space="preserve">17.4392566680908</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3666591644287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1811370849609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5037822723389</t>
+    <t xml:space="preserve">17.3666610717773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1811351776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5037841796875</t>
   </si>
   <si>
     <t xml:space="preserve">17.1650047302246</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4473247528076</t>
+    <t xml:space="preserve">17.4473190307617</t>
   </si>
   <si>
     <t xml:space="preserve">17.5521850585938</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6409111022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5763835906982</t>
+    <t xml:space="preserve">17.6409091949463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5763854980469</t>
   </si>
   <si>
     <t xml:space="preserve">17.3585948944092</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4069938659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5118503570557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.318265914917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.62477684021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7457733154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7538433074951</t>
+    <t xml:space="preserve">17.4069862365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5118522644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3182601928711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6247806549072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7457752227783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7538394927979</t>
   </si>
   <si>
     <t xml:space="preserve">17.8748340606689</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7861042022705</t>
+    <t xml:space="preserve">17.7861061096191</t>
   </si>
   <si>
     <t xml:space="preserve">18.1490879058838</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2136173248291</t>
+    <t xml:space="preserve">18.2136154174805</t>
   </si>
   <si>
     <t xml:space="preserve">18.1248893737793</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1006908416748</t>
+    <t xml:space="preserve">18.1006889343262</t>
   </si>
   <si>
     <t xml:space="preserve">18.1168193817139</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0442295074463</t>
+    <t xml:space="preserve">18.044225692749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.076488494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4443950653076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3708190917969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1991271972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2808876037598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0437889099121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1091957092285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1746006011963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3544673919678</t>
   </si>
   <si>
     <t xml:space="preserve">18.0764904022217</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4443950653076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3708171844482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1991291046143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2808856964111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0437831878662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1091918945312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1746006011963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3544654846191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0764942169189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1419010162354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0928363800049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2727088928223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5752105712891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6651439666748</t>
+    <t xml:space="preserve">18.1418952941895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0928440093994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2727069854736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5752086639404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6651420593262</t>
   </si>
   <si>
     <t xml:space="preserve">19.3846035003662</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6871032714844</t>
+    <t xml:space="preserve">19.6871070861816</t>
   </si>
   <si>
     <t xml:space="preserve">19.6216983795166</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4418354034424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7688636779785</t>
+    <t xml:space="preserve">19.441837310791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7688617706299</t>
   </si>
   <si>
     <t xml:space="preserve">19.7443351745605</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7933902740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9487266540527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0059547424316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8562316894531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0033931732178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1996097564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1014995574951</t>
+    <t xml:space="preserve">19.793384552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9487285614014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0059604644775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8562297821045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0033950805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.199613571167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1015014648438</t>
   </si>
   <si>
     <t xml:space="preserve">21.2486667633057</t>
@@ -326,31 +326,31 @@
     <t xml:space="preserve">21.5511646270752</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6901512145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6983280181885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0580596923828</t>
+    <t xml:space="preserve">21.6901531219482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6983299255371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0580615997314</t>
   </si>
   <si>
     <t xml:space="preserve">22.2297496795654</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8700160980225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7964382171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3115081787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2706336975098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.951774597168</t>
+    <t xml:space="preserve">21.8700199127197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7964363098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3115062713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2706260681152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9517726898193</t>
   </si>
   <si>
     <t xml:space="preserve">21.2568416595459</t>
@@ -359,64 +359,64 @@
     <t xml:space="preserve">21.2077884674072</t>
   </si>
   <si>
-    <t xml:space="preserve">21.4121799468994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1423797607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7335929870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4285259246826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7065029144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6084003448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9435997009277</t>
+    <t xml:space="preserve">21.4121780395508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1423816680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7335968017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4285278320312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7065048217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6083984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9435977935791</t>
   </si>
   <si>
     <t xml:space="preserve">20.8071765899658</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6656284332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9599552154541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.074405670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0989379882812</t>
+    <t xml:space="preserve">21.6656265258789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9599533081055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0744132995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0989360809326</t>
   </si>
   <si>
     <t xml:space="preserve">22.0907611846924</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9926509857178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.853666305542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.188871383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9165134429932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1372509002686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9982662200928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7529983520508</t>
+    <t xml:space="preserve">21.992654800415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8536701202393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1888694763184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9165096282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1372528076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9982681274414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7529945373535</t>
   </si>
   <si>
     <t xml:space="preserve">22.5567798614502</t>
@@ -425,16 +425,16 @@
     <t xml:space="preserve">22.7448215484619</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6303577423096</t>
+    <t xml:space="preserve">22.6303596496582</t>
   </si>
   <si>
     <t xml:space="preserve">23.0636711120605</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5133380889893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4806365966797</t>
+    <t xml:space="preserve">23.5133361816406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4806346893311</t>
   </si>
   <si>
     <t xml:space="preserve">23.5215129852295</t>
@@ -446,178 +446,178 @@
     <t xml:space="preserve">23.6850261688232</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6605014801025</t>
+    <t xml:space="preserve">23.6604995727539</t>
   </si>
   <si>
     <t xml:space="preserve">23.5296859741211</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7177238464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0038776397705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5869159698486</t>
+    <t xml:space="preserve">23.7177295684814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0038738250732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5869178771973</t>
   </si>
   <si>
     <t xml:space="preserve">22.9655609130859</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3498210906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0881938934326</t>
+    <t xml:space="preserve">23.3498229980469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0882034301758</t>
   </si>
   <si>
     <t xml:space="preserve">23.0227928161621</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2598876953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2190093994141</t>
+    <t xml:space="preserve">23.2598896026611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2190074920654</t>
   </si>
   <si>
     <t xml:space="preserve">23.3743495941162</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7366390228271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7284679412842</t>
+    <t xml:space="preserve">22.7366409301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7284698486328</t>
   </si>
   <si>
     <t xml:space="preserve">22.2951564788818</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4341487884521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1479911804199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3033313751221</t>
+    <t xml:space="preserve">22.4341449737549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1479949951172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.303337097168</t>
   </si>
   <si>
     <t xml:space="preserve">22.4259662628174</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5240745544434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0171794891357</t>
+    <t xml:space="preserve">22.5240726470947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0171813964844</t>
   </si>
   <si>
     <t xml:space="preserve">22.0417079925537</t>
   </si>
   <si>
-    <t xml:space="preserve">22.360559463501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1725196838379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9272441864014</t>
+    <t xml:space="preserve">22.3605632781982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1725177764893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9272480010986</t>
   </si>
   <si>
     <t xml:space="preserve">22.1970462799072</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0825881958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8020458221436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5158977508545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8863716125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.804615020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7473850250244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2133979797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3687362670898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9844779968262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2052268981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2215709686279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4423198699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4831981658936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.243537902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4561042785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3907051086426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2762413024902</t>
+    <t xml:space="preserve">22.0825862884521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8020477294922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5158996582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8863697052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8046092987061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7473831176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2133960723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3687343597412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9844760894775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2052211761475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2215728759766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4423179626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4831962585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2435398101807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4561080932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.390697479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.276237487793</t>
   </si>
   <si>
     <t xml:space="preserve">23.2026596069336</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1536064147949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0309677124023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9246883392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1127223968506</t>
+    <t xml:space="preserve">23.1536026000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.030969619751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9246845245361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1127262115479</t>
   </si>
   <si>
     <t xml:space="preserve">22.3360328674316</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5077228546143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0335350036621</t>
+    <t xml:space="preserve">22.5077266693115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0335311889648</t>
   </si>
   <si>
     <t xml:space="preserve">22.1643447875977</t>
   </si>
   <si>
-    <t xml:space="preserve">22.066234588623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9108943939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8945503234863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0769710540771</t>
+    <t xml:space="preserve">22.0662326812744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9108982086182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8945465087891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0769786834717</t>
   </si>
   <si>
     <t xml:space="preserve">20.6191349029541</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9298095703125</t>
+    <t xml:space="preserve">20.9298133850098</t>
   </si>
   <si>
     <t xml:space="preserve">21.0279216766357</t>
@@ -626,52 +626,52 @@
     <t xml:space="preserve">20.5700798034668</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0851554870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.000825881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.297721862793</t>
+    <t xml:space="preserve">21.0851497650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0008316040039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2977199554443</t>
   </si>
   <si>
     <t xml:space="preserve">21.3385982513428</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9052829742432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7826499938965</t>
+    <t xml:space="preserve">20.9052848815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7826519012451</t>
   </si>
   <si>
     <t xml:space="preserve">21.036096572876</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9863624572754</t>
+    <t xml:space="preserve">20.9863662719727</t>
   </si>
   <si>
     <t xml:space="preserve">20.4641952514648</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7791519165039</t>
+    <t xml:space="preserve">20.7791538238525</t>
   </si>
   <si>
     <t xml:space="preserve">21.0278091430664</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1024017333984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8537464141846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1355590820312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2930393218994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5636558532715</t>
+    <t xml:space="preserve">21.1024055480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8537521362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1355571746826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.293041229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5636539459229</t>
   </si>
   <si>
     <t xml:space="preserve">20.8951930999756</t>
@@ -680,202 +680,202 @@
     <t xml:space="preserve">21.1189804077148</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3427658081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2847518920898</t>
+    <t xml:space="preserve">21.3427696228027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2847480773926</t>
   </si>
   <si>
     <t xml:space="preserve">21.1604251861572</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5499801635742</t>
+    <t xml:space="preserve">21.5499782562256</t>
   </si>
   <si>
     <t xml:space="preserve">21.2515983581543</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5251159667969</t>
+    <t xml:space="preserve">21.5251178741455</t>
   </si>
   <si>
     <t xml:space="preserve">21.2018661499023</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9146709442139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1716156005859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3373889923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1053104400635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9063835144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7240371704102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3208065032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.428560256958</t>
+    <t xml:space="preserve">21.9146728515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1716136932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.337381362915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1053047180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9063854217529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7240352630615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3208026885986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4285545349121</t>
   </si>
   <si>
     <t xml:space="preserve">22.1633262634277</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3125171661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6357688903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5611705780029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.677209854126</t>
+    <t xml:space="preserve">22.3125190734863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6357669830322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5611686706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6772117614746</t>
   </si>
   <si>
     <t xml:space="preserve">23.0419025421143</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0253257751465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5363082885742</t>
+    <t xml:space="preserve">23.0253238677979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5363063812256</t>
   </si>
   <si>
     <t xml:space="preserve">23.0667667388916</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6191902160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9507255554199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7932434082031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8263988494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.602611541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6109008789062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5777492523193</t>
+    <t xml:space="preserve">22.6191883087158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9507293701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.793249130249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8264007568359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6026153564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6109066009521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5777454376221</t>
   </si>
   <si>
     <t xml:space="preserve">22.2793636322021</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4617099761963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4368457794189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8069190979004</t>
+    <t xml:space="preserve">22.461706161499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4368438720703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8069248199463</t>
   </si>
   <si>
     <t xml:space="preserve">21.8898067474365</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0638675689697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2544994354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.873233795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2710742950439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3788223266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2822647094727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3983058929443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4563236236572</t>
+    <t xml:space="preserve">22.0638637542725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2544956207275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8732318878174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2710781097412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3788261413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2822666168213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.398307800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4563217163086</t>
   </si>
   <si>
     <t xml:space="preserve">23.6884021759033</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4231739044189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9287662506104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0282306671143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4509410858154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4177837371826</t>
+    <t xml:space="preserve">23.4231719970703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9287700653076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0282249450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4509391784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.417781829834</t>
   </si>
   <si>
     <t xml:space="preserve">24.343189239502</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7824802398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8404998779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7741870880127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0891494750977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1554565429688</t>
+    <t xml:space="preserve">24.7824783325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8404960632324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.77419090271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0891532897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1554622650146</t>
   </si>
   <si>
     <t xml:space="preserve">25.0062637329102</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1057319641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2714977264404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5533046722412</t>
+    <t xml:space="preserve">25.1057281494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2714939117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5533027648926</t>
   </si>
   <si>
     <t xml:space="preserve">25.545015335083</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8019580841064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9262886047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2080936431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4070129394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4401664733887</t>
+    <t xml:space="preserve">25.8019561767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9262847900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2080917358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4070167541504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4401683807373</t>
   </si>
   <si>
     <t xml:space="preserve">25.959436416626</t>
@@ -884,19 +884,19 @@
     <t xml:space="preserve">25.8765525817871</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1252098083496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2992630004883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2412452697754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.605936050415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3655700683594</t>
+    <t xml:space="preserve">26.1252059936523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2992649078369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.241247177124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6059379577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3655757904053</t>
   </si>
   <si>
     <t xml:space="preserve">26.1666469573975</t>
@@ -905,31 +905,31 @@
     <t xml:space="preserve">26.2495346069336</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3324203491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5644969940186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9374752044678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9540519714355</t>
+    <t xml:space="preserve">26.3324184417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5644950866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9374771118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9540538787842</t>
   </si>
   <si>
     <t xml:space="preserve">27.2192802429199</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0369396209717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0120754241943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4099197387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6751461029053</t>
+    <t xml:space="preserve">27.036937713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0120735168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4099140167236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6751499176025</t>
   </si>
   <si>
     <t xml:space="preserve">27.6254177093506</t>
@@ -938,247 +938,247 @@
     <t xml:space="preserve">27.3850536346436</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6585655212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0647048950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5093765258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7407741546631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5145969390869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4810886383057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7742710113525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4894676208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.841287612915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.606746673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6737537384033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4276695251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8381252288818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8130016326904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5669136047363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.659049987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.575288772583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7543544769287</t>
+    <t xml:space="preserve">27.6585731506348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0647068023682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5093784332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7407627105713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5145950317383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4810848236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7742786407471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4894638061523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8412933349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6067390441895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.673755645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4276638031006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8381328582764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8129940032959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5669078826904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6590518951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5752811431885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7543563842773</t>
   </si>
   <si>
     <t xml:space="preserve">29.9386520385742</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0307865142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9302711486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8716316223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0475444793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.896764755249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2485904693604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4695491790771</t>
+    <t xml:space="preserve">30.0307960510254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9302673339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8716373443604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.047550201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8967685699463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2485942840576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4695529937744</t>
   </si>
   <si>
     <t xml:space="preserve">29.570068359375</t>
   </si>
   <si>
-    <t xml:space="preserve">29.9972877502441</t>
+    <t xml:space="preserve">29.9972915649414</t>
   </si>
   <si>
     <t xml:space="preserve">31.7480430603027</t>
   </si>
   <si>
-    <t xml:space="preserve">30.7512035369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8768463134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3826198577881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5585346221924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.592041015625</t>
+    <t xml:space="preserve">30.7511940002441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8768558502197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3826179504395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5585308074951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5920467376709</t>
   </si>
   <si>
     <t xml:space="preserve">30.0391693115234</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5250225067139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2202949523926</t>
+    <t xml:space="preserve">30.5250244140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2203006744385</t>
   </si>
   <si>
     <t xml:space="preserve">31.0276317596436</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2538089752197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4967288970947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1700344085693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3291969299316</t>
+    <t xml:space="preserve">31.2538032531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.496732711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.170036315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.329195022583</t>
   </si>
   <si>
     <t xml:space="preserve">30.3658695220947</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5449390411377</t>
+    <t xml:space="preserve">29.5449371337891</t>
   </si>
   <si>
     <t xml:space="preserve">29.1512336730957</t>
   </si>
   <si>
-    <t xml:space="preserve">29.653844833374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7292289733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2852592468262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2266216278076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5198097229004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3355236053467</t>
+    <t xml:space="preserve">29.6538372039795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7292308807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2852573394775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2266292572021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.519811630249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3355178833008</t>
   </si>
   <si>
     <t xml:space="preserve">29.6957187652588</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3941497802734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6789703369141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7459774017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.223461151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.240213394165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1732025146484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.905143737793</t>
+    <t xml:space="preserve">29.3941555023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6789665222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7459831237793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2234630584717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2402095794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1731986999512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9051380157471</t>
   </si>
   <si>
     <t xml:space="preserve">29.7711143493652</t>
   </si>
   <si>
-    <t xml:space="preserve">29.9554042816162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7878723144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7208461761475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8548755645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3271446228027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.042329788208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4360427856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4946784973145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.251745223999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2768821716309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6203384399414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3606452941895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6873397827148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.586820602417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4611721038818</t>
+    <t xml:space="preserve">29.9554023742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7878704071045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7208518981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8548812866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3271465301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0423278808594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4360466003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4946765899658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2517509460449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2768840789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6203346252441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3606510162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6873416900635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5868225097656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4611740112305</t>
   </si>
   <si>
     <t xml:space="preserve">29.8632545471191</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1396923065186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4496364593506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3239803314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2988452911377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5166492462158</t>
+    <t xml:space="preserve">30.1396903991699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.449634552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3239765167236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2988471984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5166473388672</t>
   </si>
   <si>
     <t xml:space="preserve">30.9773750305176</t>
@@ -1187,118 +1187,118 @@
     <t xml:space="preserve">31.1784152984619</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1365356445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2454319000244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3710765838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.985746383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2286739349365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5637474060059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7647876739502</t>
+    <t xml:space="preserve">31.136531829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2454280853271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3710842132568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9857559204102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2286758422852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5637454986572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7647895812988</t>
   </si>
   <si>
     <t xml:space="preserve">32.2171401977539</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7281188964844</t>
+    <t xml:space="preserve">32.7281150817871</t>
   </si>
   <si>
     <t xml:space="preserve">32.6359748840332</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5438270568848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0045547485352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6694869995117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9794120788574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7867546081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0129318237305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.121826171875</t>
+    <t xml:space="preserve">32.5438194274902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0045509338379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6694831848145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9794273376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7867584228516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0129241943359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1218299865723</t>
   </si>
   <si>
     <t xml:space="preserve">33.1469612121582</t>
   </si>
   <si>
-    <t xml:space="preserve">33.389892578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3647499084473</t>
+    <t xml:space="preserve">33.3898887634277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3647613525391</t>
   </si>
   <si>
     <t xml:space="preserve">33.5741806030273</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3312530517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5909233093262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1804733276367</t>
+    <t xml:space="preserve">33.3312492370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5909271240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1804695129395</t>
   </si>
   <si>
     <t xml:space="preserve">33.2307243347168</t>
   </si>
   <si>
-    <t xml:space="preserve">33.113452911377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2642364501953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4568977355957</t>
+    <t xml:space="preserve">33.1134490966797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.264232635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.456901550293</t>
   </si>
   <si>
     <t xml:space="preserve">33.6579475402832</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1720848083496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2558555603027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4150161743164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5993003845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4317665100098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7249565124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3480072021484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0097732543945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8924942016602</t>
+    <t xml:space="preserve">33.1720886230469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2558631896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4150276184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.599308013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.431770324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7249603271484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3480033874512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0097694396973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8924903869629</t>
   </si>
   <si>
     <t xml:space="preserve">33.3228721618652</t>
@@ -1310,58 +1310,58 @@
     <t xml:space="preserve">32.6024703979492</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5103187561035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3427848815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6108512878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9742126464844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.367919921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8653125762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4243545532227</t>
+    <t xml:space="preserve">32.5103302001953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3427925109863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6108474731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9742031097412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3679237365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8653106689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4243507385254</t>
   </si>
   <si>
     <t xml:space="preserve">32.4667053222656</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3481178283691</t>
+    <t xml:space="preserve">32.3481140136719</t>
   </si>
   <si>
     <t xml:space="preserve">32.3989410400391</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1787109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1702499389648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8653087615967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0177764892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8737831115723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0940132141113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8055152893066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.449764251709</t>
+    <t xml:space="preserve">32.1787071228027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1702346801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.865306854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0177726745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8737850189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0940093994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8055076599121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4497528076172</t>
   </si>
   <si>
     <t xml:space="preserve">32.2295379638672</t>
@@ -1373,142 +1373,142 @@
     <t xml:space="preserve">32.7208099365234</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7885704040527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0093078613281</t>
+    <t xml:space="preserve">32.7885818481445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0093116760254</t>
   </si>
   <si>
     <t xml:space="preserve">31.3570880889893</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9759292602539</t>
+    <t xml:space="preserve">30.9759254455566</t>
   </si>
   <si>
     <t xml:space="preserve">31.5519046783447</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5349636077881</t>
+    <t xml:space="preserve">31.5349655151367</t>
   </si>
   <si>
     <t xml:space="preserve">30.9844036102295</t>
   </si>
   <si>
-    <t xml:space="preserve">30.8742809295654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3401470184326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6196670532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6704864501953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3909740447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5942649841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4417972564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9330768585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4921188354492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6276359558105</t>
+    <t xml:space="preserve">30.8742790222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3401489257812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6196746826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6704902648926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3909721374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.594259262085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4417953491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9330730438232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.492115020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6276397705078</t>
   </si>
   <si>
     <t xml:space="preserve">32.7800979614258</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5429267883301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3565864562988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6953964233398</t>
+    <t xml:space="preserve">32.5429344177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3565902709961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6953926086426</t>
   </si>
   <si>
     <t xml:space="preserve">32.2888221740723</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1194152832031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7128429412842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9669589996338</t>
+    <t xml:space="preserve">32.1194190979004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7128448486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9669570922852</t>
   </si>
   <si>
     <t xml:space="preserve">32.6615219116211</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0347213745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.525993347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4671993255615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0606327056885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6794681549072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8832607269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2225723266602</t>
+    <t xml:space="preserve">32.0347137451172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5260009765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4672107696533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0606269836426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6794738769531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8832550048828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2225742340088</t>
   </si>
   <si>
     <t xml:space="preserve">28.1891918182373</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4428024291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0711135864258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1478500366211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.571870803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0890598297119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3172550201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9869136810303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3680744171143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4278736114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9874172210693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8180084228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6147193908691</t>
+    <t xml:space="preserve">29.4428005218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0711154937744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1478481292725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5718688964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0890617370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3172569274902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9869155883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3680763244629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4278717041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9874153137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8180122375488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6147212982178</t>
   </si>
   <si>
     <t xml:space="preserve">25.326229095459</t>
@@ -1517,43 +1517,43 @@
     <t xml:space="preserve">25.1568241119385</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9450664520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6231937408447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0218029022217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4707260131836</t>
+    <t xml:space="preserve">24.945068359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.623197555542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0218048095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4707279205322</t>
   </si>
   <si>
     <t xml:space="preserve">24.5469627380371</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3516407012939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.241527557373</t>
+    <t xml:space="preserve">25.3516426086426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2415237426758</t>
   </si>
   <si>
     <t xml:space="preserve">25.4871654510498</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1229438781738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6994285583496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9789447784424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8349494934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6062507629395</t>
+    <t xml:space="preserve">25.1229457855225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.699426651001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9789485931396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8349514007568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6062526702881</t>
   </si>
   <si>
     <t xml:space="preserve">24.2250881195068</t>
@@ -1562,13 +1562,13 @@
     <t xml:space="preserve">24.1234455108643</t>
   </si>
   <si>
-    <t xml:space="preserve">24.072624206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0387439727783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3102931976318</t>
+    <t xml:space="preserve">24.0726222991943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0387420654297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3102951049805</t>
   </si>
   <si>
     <t xml:space="preserve">23.716869354248</t>
@@ -1580,34 +1580,34 @@
     <t xml:space="preserve">25.3939933776855</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0043621063232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3092861175537</t>
+    <t xml:space="preserve">25.004358291626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.309289932251</t>
   </si>
   <si>
     <t xml:space="preserve">25.283878326416</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0128307342529</t>
+    <t xml:space="preserve">25.0128288269043</t>
   </si>
   <si>
     <t xml:space="preserve">25.0467109680176</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8264808654785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1314105987549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0721225738525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2754096984863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4902629852295</t>
+    <t xml:space="preserve">24.8264789581299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1314125061035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0721244812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2754077911377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4902648925781</t>
   </si>
   <si>
     <t xml:space="preserve">25.2152481079102</t>
@@ -1616,10 +1616,10 @@
     <t xml:space="preserve">25.43869972229</t>
   </si>
   <si>
-    <t xml:space="preserve">25.387134552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4816665649414</t>
+    <t xml:space="preserve">25.3871364593506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.48166847229</t>
   </si>
   <si>
     <t xml:space="preserve">26.5129680633545</t>
@@ -1628,40 +1628,40 @@
     <t xml:space="preserve">26.272331237793</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3410797119141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.573127746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2981109619141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3926486968994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1090412139893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2121734619141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.504373550415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3840522766113</t>
+    <t xml:space="preserve">26.3410835266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5731258392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2981128692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3926467895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1090393066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2121696472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5043716430664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.38405418396</t>
   </si>
   <si>
     <t xml:space="preserve">25.8770008087158</t>
   </si>
   <si>
-    <t xml:space="preserve">27.638801574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4325428009033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6989612579346</t>
+    <t xml:space="preserve">27.6387996673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4325408935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6989593505859</t>
   </si>
   <si>
     <t xml:space="preserve">27.5614528656006</t>
@@ -1670,25 +1670,25 @@
     <t xml:space="preserve">27.5184803009033</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5786437988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6130218505859</t>
+    <t xml:space="preserve">27.5786418914795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6130199432373</t>
   </si>
   <si>
     <t xml:space="preserve">27.2434711456299</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1059627532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2606563568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3465957641602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2950344085693</t>
+    <t xml:space="preserve">27.1059665679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2606582641602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3466014862061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.295036315918</t>
   </si>
   <si>
     <t xml:space="preserve">28.291955947876</t>
@@ -1700,73 +1700,73 @@
     <t xml:space="preserve">28.3177394866943</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9739665985107</t>
+    <t xml:space="preserve">27.9739685058594</t>
   </si>
   <si>
     <t xml:space="preserve">28.1630439758301</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2232055664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6185302734375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2317962646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0942916870117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8419818878174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6326484680176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3576316833496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.426383972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5497779846191</t>
+    <t xml:space="preserve">28.2232036590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6185321807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2317981719971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0942878723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8419780731201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6326446533203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3576335906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4263858795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5497798919678</t>
   </si>
   <si>
     <t xml:space="preserve">28.4982166290283</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8591690063477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8247928619385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2716941833496</t>
+    <t xml:space="preserve">28.8591709136963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8247966766357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2716884613037</t>
   </si>
   <si>
     <t xml:space="preserve">25.6277694702148</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6050662994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.957426071167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2668113708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7480850219727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9973182678223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6418781280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6504764556885</t>
+    <t xml:space="preserve">24.6050643920898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9574241638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2668132781982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7480888366699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9973163604736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6418800354004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6504745483398</t>
   </si>
   <si>
     <t xml:space="preserve">26.3238945007324</t>
@@ -1787,19 +1787,19 @@
     <t xml:space="preserve">26.8137626647949</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6676616668701</t>
+    <t xml:space="preserve">26.6676635742188</t>
   </si>
   <si>
     <t xml:space="preserve">26.8911113739014</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0543975830078</t>
+    <t xml:space="preserve">27.0543994903564</t>
   </si>
   <si>
     <t xml:space="preserve">27.0372085571289</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7364177703857</t>
+    <t xml:space="preserve">26.7364158630371</t>
   </si>
   <si>
     <t xml:space="preserve">26.8997039794922</t>
@@ -1808,40 +1808,40 @@
     <t xml:space="preserve">27.4841060638428</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5098876953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2348747253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5872325897217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7161483764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.999755859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.016939163208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8966274261475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5012969970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.226282119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6160984039307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2379531860352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5645294189453</t>
+    <t xml:space="preserve">27.5098838806152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2348785400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5872364044189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7161502838135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9997577667236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0169410705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8966236114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5012950897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2262840270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6160945892334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2379512786865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5645313262939</t>
   </si>
   <si>
     <t xml:space="preserve">26.4012432098389</t>
@@ -1856,7 +1856,7 @@
     <t xml:space="preserve">25.9543476104736</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0660705566406</t>
+    <t xml:space="preserve">26.0660724639893</t>
   </si>
   <si>
     <t xml:space="preserve">25.9199676513672</t>
@@ -1865,82 +1865,82 @@
     <t xml:space="preserve">26.2035789489746</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1176338195801</t>
+    <t xml:space="preserve">26.1176357269287</t>
   </si>
   <si>
     <t xml:space="preserve">26.2551422119141</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8340282440186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2207679748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7566814422607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5676078796387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6105804443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4988536834717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3183784484863</t>
+    <t xml:space="preserve">25.8340301513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2207660675049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7566795349121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5676097869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6105785369873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4988555908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3183765411377</t>
   </si>
   <si>
     <t xml:space="preserve">25.2238445281982</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0261783599854</t>
+    <t xml:space="preserve">25.026180267334</t>
   </si>
   <si>
     <t xml:space="preserve">25.2324352264404</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3785400390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5504207611084</t>
+    <t xml:space="preserve">25.3785419464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5504188537598</t>
   </si>
   <si>
     <t xml:space="preserve">25.0605564117432</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2840042114258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4215106964111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3496799468994</t>
+    <t xml:space="preserve">25.2840023040771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4215049743652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3496780395508</t>
   </si>
   <si>
     <t xml:space="preserve">26.0746650695801</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6621475219727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7996520996094</t>
+    <t xml:space="preserve">25.6621437072754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7996501922607</t>
   </si>
   <si>
     <t xml:space="preserve">25.9715328216553</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0089874267578</t>
+    <t xml:space="preserve">25.0089912414551</t>
   </si>
   <si>
     <t xml:space="preserve">24.862886428833</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7253837585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9144515991211</t>
+    <t xml:space="preserve">24.7253818511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9144535064697</t>
   </si>
   <si>
     <t xml:space="preserve">25.0691471099854</t>
@@ -1949,7 +1949,7 @@
     <t xml:space="preserve">25.4558849334717</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7738723754883</t>
+    <t xml:space="preserve">25.7738704681396</t>
   </si>
   <si>
     <t xml:space="preserve">25.5246391296387</t>
@@ -1961,79 +1961,79 @@
     <t xml:space="preserve">25.1722831726074</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0402851104736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5817222595215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7137088775635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8598098754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.911376953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7394943237305</t>
+    <t xml:space="preserve">26.0402870178223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5817184448242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7137107849121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8598117828369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9113731384277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7394924163818</t>
   </si>
   <si>
     <t xml:space="preserve">25.8684062957764</t>
   </si>
   <si>
-    <t xml:space="preserve">25.636360168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.980131149292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6535511016846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4644775390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8542938232422</t>
+    <t xml:space="preserve">25.6363658905029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9801273345947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6535491943359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4644794464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8542957305908</t>
   </si>
   <si>
     <t xml:space="preserve">24.9230499267578</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0433673858643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1306533813477</t>
+    <t xml:space="preserve">25.043363571167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1306552886963</t>
   </si>
   <si>
     <t xml:space="preserve">24.7727680206299</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7640399932861</t>
+    <t xml:space="preserve">24.7640380859375</t>
   </si>
   <si>
     <t xml:space="preserve">24.3799648284912</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3712368011475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.432336807251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2315711975098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7989540100098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.13938331604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1131992340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9648056030273</t>
+    <t xml:space="preserve">24.3712348937988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4323387145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2315731048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7989559173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1393871307373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1131973266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.964807510376</t>
   </si>
   <si>
     <t xml:space="preserve">24.4410667419434</t>
@@ -2042,16 +2042,16 @@
     <t xml:space="preserve">24.5283584594727</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3886947631836</t>
+    <t xml:space="preserve">24.388692855835</t>
   </si>
   <si>
     <t xml:space="preserve">24.3537750244141</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8164138793945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7902240753174</t>
+    <t xml:space="preserve">24.8164157867432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7902221679688</t>
   </si>
   <si>
     <t xml:space="preserve">25.052095413208</t>
@@ -2060,25 +2060,25 @@
     <t xml:space="preserve">25.3139629364014</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4885425567627</t>
+    <t xml:space="preserve">25.4885444641113</t>
   </si>
   <si>
     <t xml:space="preserve">25.8813457489014</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4487247467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0684871673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4400005340576</t>
+    <t xml:space="preserve">26.4487266540527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0684852600098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4399948120117</t>
   </si>
   <si>
     <t xml:space="preserve">26.2043170928955</t>
   </si>
   <si>
-    <t xml:space="preserve">26.012279510498</t>
+    <t xml:space="preserve">26.0122756958008</t>
   </si>
   <si>
     <t xml:space="preserve">26.2916069030762</t>
@@ -2090,25 +2090,25 @@
     <t xml:space="preserve">25.837703704834</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1170253753662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8638877868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7804279327393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8415298461914</t>
+    <t xml:space="preserve">26.1170272827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.863883972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7804260253906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.84153175354</t>
   </si>
   <si>
     <t xml:space="preserve">26.9811916351318</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6009521484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2343330383301</t>
+    <t xml:space="preserve">27.6009483337402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2343349456787</t>
   </si>
   <si>
     <t xml:space="preserve">26.7978839874268</t>
@@ -2123,28 +2123,28 @@
     <t xml:space="preserve">26.1606712341309</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2392311096191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5622024536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6184043884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3914527893066</t>
+    <t xml:space="preserve">26.2392330169678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5622005462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6184062957764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.391450881958</t>
   </si>
   <si>
     <t xml:space="preserve">28.0286674499512</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9364776611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8928318023682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.177059173584</t>
+    <t xml:space="preserve">28.9364814758301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8928356170654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1770610809326</t>
   </si>
   <si>
     <t xml:space="preserve">27.6707820892334</t>
@@ -2156,25 +2156,25 @@
     <t xml:space="preserve">28.3516387939453</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1896171569824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.259449005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5300521850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6435279846191</t>
+    <t xml:space="preserve">29.1896152496338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2594528198242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.53005027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6435222625732</t>
   </si>
   <si>
     <t xml:space="preserve">29.1110534667969</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2681770324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8579196929932</t>
+    <t xml:space="preserve">29.2681751251221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8579216003418</t>
   </si>
   <si>
     <t xml:space="preserve">28.6571521759033</t>
@@ -2183,121 +2183,121 @@
     <t xml:space="preserve">28.6309661865234</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8753776550293</t>
+    <t xml:space="preserve">28.8753852844238</t>
   </si>
   <si>
     <t xml:space="preserve">28.7357120513916</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8666458129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0761432647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5475006103516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6784400939941</t>
+    <t xml:space="preserve">28.8666477203369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0761451721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5475082397461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6784381866455</t>
   </si>
   <si>
     <t xml:space="preserve">29.6173400878906</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4776725769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4427623748779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0014057159424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1323509216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4989585876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.45041847229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5726203918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0090713500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0788993835449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9130554199219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1099891662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2060070037842</t>
+    <t xml:space="preserve">29.4776744842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.442756652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.001407623291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.132345199585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4989624023438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4504127502441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5726184844971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0090637207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0789070129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9130477905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1099872589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2059993743896</t>
   </si>
   <si>
     <t xml:space="preserve">31.3282089233398</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0401554107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9664936065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2981967926025</t>
+    <t xml:space="preserve">31.0401592254639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.966495513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2981929779053</t>
   </si>
   <si>
     <t xml:space="preserve">30.5076866149902</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0663394927979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2845726013184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9703311920166</t>
+    <t xml:space="preserve">31.0663375854492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2845649719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9703235626221</t>
   </si>
   <si>
     <t xml:space="preserve">31.5027885437012</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5464363098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2671089172363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4766025543213</t>
+    <t xml:space="preserve">31.5464382171631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2671051025391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4766044616699</t>
   </si>
   <si>
     <t xml:space="preserve">31.5638942718506</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6773700714111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5115203857422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9877796173096</t>
+    <t xml:space="preserve">31.6773738861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5115242004395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9877834320068</t>
   </si>
   <si>
     <t xml:space="preserve">31.7841682434082</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4126281738281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.439172744751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0318603515625</t>
+    <t xml:space="preserve">31.412633895874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4391708374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0318641662598</t>
   </si>
   <si>
     <t xml:space="preserve">31.8195552825928</t>
@@ -2309,58 +2309,58 @@
     <t xml:space="preserve">31.9964733123779</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0141639709473</t>
+    <t xml:space="preserve">32.0141677856445</t>
   </si>
   <si>
     <t xml:space="preserve">31.3595561981201</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5453243255615</t>
+    <t xml:space="preserve">31.5453224182129</t>
   </si>
   <si>
     <t xml:space="preserve">32.2618598937988</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2887840270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1118564605713</t>
+    <t xml:space="preserve">31.2887878417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1118640899658</t>
   </si>
   <si>
     <t xml:space="preserve">29.9618625640869</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5280132293701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2533988952637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3591728210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.323787689209</t>
+    <t xml:space="preserve">30.5280113220215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2534027099609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3591651916504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3237838745117</t>
   </si>
   <si>
     <t xml:space="preserve">32.3326301574707</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8014755249023</t>
+    <t xml:space="preserve">32.8014793395996</t>
   </si>
   <si>
     <t xml:space="preserve">32.4476318359375</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0053291320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4564781188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.155704498291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3945541381836</t>
+    <t xml:space="preserve">32.0053253173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4564743041992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1557083129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3945503234863</t>
   </si>
   <si>
     <t xml:space="preserve">32.5980110168457</t>
@@ -2369,76 +2369,76 @@
     <t xml:space="preserve">32.6953201293945</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7307014465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1907081604004</t>
+    <t xml:space="preserve">32.7307052612305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1907119750977</t>
   </si>
   <si>
     <t xml:space="preserve">33.1818542480469</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6153221130371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5799331665039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7037811279297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.686092376709</t>
+    <t xml:space="preserve">33.6153182983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5799369812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7037773132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6860885620117</t>
   </si>
   <si>
     <t xml:space="preserve">33.2880172729492</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2703247070312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0845565795898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7749290466309</t>
+    <t xml:space="preserve">33.270320892334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.084545135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7749366760254</t>
   </si>
   <si>
     <t xml:space="preserve">32.2353286743164</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7130165100098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.99609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0756988525391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1203269958496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9345550537109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4299392700195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5449333190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8987808227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2526245117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3764724731445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8364753723145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3676338195801</t>
+    <t xml:space="preserve">32.7130126953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9960861206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0757064819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1203231811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9345588684082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.429931640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5449371337891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8987846374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.252628326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3764801025391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8364715576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3676261901855</t>
   </si>
   <si>
     <t xml:space="preserve">34.0753173828125</t>
@@ -2453,85 +2453,85 @@
     <t xml:space="preserve">34.7918586730957</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6856994628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0749359130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0483894348145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1810913085938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3226280212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.729549407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4730072021484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5526275634766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5083885192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1987762451172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8533935546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8710861206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.03955078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.349552154541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4380111694336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1191596984863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2872352600098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6591606140137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3760833740234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7922401428223</t>
+    <t xml:space="preserve">34.6857032775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0749320983887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.048397064209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.181079864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3226203918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7295455932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4730033874512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5526237487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5083923339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1987800598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8533973693848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8710823059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0395469665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3495483398438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4380073547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1191635131836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.287239074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6591682434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3760871887207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7922439575195</t>
   </si>
   <si>
     <t xml:space="preserve">34.3230094909668</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5530090332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1814727783203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2518577575684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9510879516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3668518066406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2960891723633</t>
+    <t xml:space="preserve">34.5530128479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.181468963623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2518539428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9510841369629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3668594360352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.296085357666</t>
   </si>
   <si>
     <t xml:space="preserve">36.2426261901855</t>
@@ -2549,19 +2549,19 @@
     <t xml:space="preserve">35.7914657592773</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8445510864258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3314666748047</t>
+    <t xml:space="preserve">35.8445434570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.331470489502</t>
   </si>
   <si>
     <t xml:space="preserve">35.3491592407227</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8099327087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.906852722168</t>
+    <t xml:space="preserve">33.809928894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9068565368652</t>
   </si>
   <si>
     <t xml:space="preserve">33.7833938598633</t>
@@ -2570,70 +2570,70 @@
     <t xml:space="preserve">34.3672370910645</t>
   </si>
   <si>
-    <t xml:space="preserve">34.898006439209</t>
+    <t xml:space="preserve">34.8980102539062</t>
   </si>
   <si>
     <t xml:space="preserve">35.1280059814453</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2076263427734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5707015991211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9245452880859</t>
+    <t xml:space="preserve">35.2076225280762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5707092285156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9245414733887</t>
   </si>
   <si>
     <t xml:space="preserve">34.8095474243164</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8183898925781</t>
+    <t xml:space="preserve">34.8183975219727</t>
   </si>
   <si>
     <t xml:space="preserve">34.1903190612793</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8633918762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0403251647949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5714721679688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0226249694824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4653205871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7837829589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1464729309082</t>
+    <t xml:space="preserve">32.863395690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0403213500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.571475982666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0226287841797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4653167724609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7837791442871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1464767456055</t>
   </si>
   <si>
     <t xml:space="preserve">33.7657012939453</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1376266479492</t>
+    <t xml:space="preserve">33.1376190185547</t>
   </si>
   <si>
     <t xml:space="preserve">33.3499412536621</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5360946655273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3149337768555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.341480255127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.606861114502</t>
+    <t xml:space="preserve">32.5360908508301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3149299621582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3414726257324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6068649291992</t>
   </si>
   <si>
     <t xml:space="preserve">32.8103218078613</t>
@@ -2642,16 +2642,16 @@
     <t xml:space="preserve">33.6330108642578</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3233909606934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3768615722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9253234863281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6599311828613</t>
+    <t xml:space="preserve">33.3233947753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3768577575684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9253196716309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6599349975586</t>
   </si>
   <si>
     <t xml:space="preserve">33.1553192138672</t>
@@ -2660,46 +2660,43 @@
     <t xml:space="preserve">33.1110954284668</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4649353027344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5268630981445</t>
+    <t xml:space="preserve">33.4649429321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5268592834473</t>
   </si>
   <si>
     <t xml:space="preserve">33.2939071655273</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1505508422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1271514892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9569244384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5268592834473</t>
+    <t xml:space="preserve">33.1505584716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1271476745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.956916809082</t>
   </si>
   <si>
     <t xml:space="preserve">33.311824798584</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5358200073242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8583679199219</t>
+    <t xml:space="preserve">33.535816192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8583641052246</t>
   </si>
   <si>
     <t xml:space="preserve">33.4372634887695</t>
   </si>
   <si>
-    <t xml:space="preserve">34.1092338562012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3979454040527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8907203674316</t>
+    <t xml:space="preserve">34.1092376708984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.39794921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8907279968262</t>
   </si>
   <si>
     <t xml:space="preserve">32.9534454345703</t>
@@ -2708,43 +2705,43 @@
     <t xml:space="preserve">32.7921714782715</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7294502258301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7438907623291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2814750671387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4785804748535</t>
+    <t xml:space="preserve">32.7294464111328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7438983917236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2814712524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4785842895508</t>
   </si>
   <si>
     <t xml:space="preserve">32.6577758789062</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6040229797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2043151855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8135681152344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0017204284668</t>
+    <t xml:space="preserve">32.6040191650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2043113708496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8135643005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0017166137695</t>
   </si>
   <si>
     <t xml:space="preserve">33.6702156066895</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2257041931152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0106773376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6612510681152</t>
+    <t xml:space="preserve">34.2257080078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0106811523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6612548828125</t>
   </si>
   <si>
     <t xml:space="preserve">34.3421859741211</t>
@@ -2762,16 +2759,16 @@
     <t xml:space="preserve">34.7364082336426</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7274398803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.139591217041</t>
+    <t xml:space="preserve">34.7274436950684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1395874023438</t>
   </si>
   <si>
     <t xml:space="preserve">35.6950836181641</t>
   </si>
   <si>
-    <t xml:space="preserve">34.960391998291</t>
+    <t xml:space="preserve">34.9603958129883</t>
   </si>
   <si>
     <t xml:space="preserve">35.3815002441406</t>
@@ -2780,46 +2777,46 @@
     <t xml:space="preserve">35.4621353149414</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8384399414062</t>
+    <t xml:space="preserve">35.838436126709</t>
   </si>
   <si>
     <t xml:space="preserve">36.1251449584961</t>
   </si>
   <si>
-    <t xml:space="preserve">36.098274230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7757225036621</t>
+    <t xml:space="preserve">36.0982627868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7757148742676</t>
   </si>
   <si>
     <t xml:space="preserve">36.6268844604492</t>
   </si>
   <si>
-    <t xml:space="preserve">35.5606918334961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.610969543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2471008300781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8653221130371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8563537597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2864189147949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.008674621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3670539855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6627197265625</t>
+    <t xml:space="preserve">35.5606842041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6109733581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2471084594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8653182983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8563575744629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.2864151000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0086708068848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.367057800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6627235412598</t>
   </si>
   <si>
     <t xml:space="preserve">37.0121459960938</t>
@@ -2831,7 +2828,7 @@
     <t xml:space="preserve">36.1520233154297</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8239898681641</t>
+    <t xml:space="preserve">36.8239974975586</t>
   </si>
   <si>
     <t xml:space="preserve">37.2092590332031</t>
@@ -2840,10 +2837,10 @@
     <t xml:space="preserve">37.7737121582031</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4028930664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.485538482666</t>
+    <t xml:space="preserve">36.4028968811035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4855422973633</t>
   </si>
   <si>
     <t xml:space="preserve">34.619930267334</t>
@@ -2852,25 +2849,25 @@
     <t xml:space="preserve">35.6502838134766</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6682052612305</t>
+    <t xml:space="preserve">35.6682090759277</t>
   </si>
   <si>
     <t xml:space="preserve">34.6557655334473</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4676208496094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1575050354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2650184631348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5751266479492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9892768859863</t>
+    <t xml:space="preserve">34.4676170349121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1575126647949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.265022277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5751304626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9892807006836</t>
   </si>
   <si>
     <t xml:space="preserve">30.7762565612793</t>
@@ -2882,43 +2879,43 @@
     <t xml:space="preserve">25.3198566436768</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0594882965088</t>
+    <t xml:space="preserve">30.0594921112061</t>
   </si>
   <si>
     <t xml:space="preserve">29.6473445892334</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6149845123291</t>
+    <t xml:space="preserve">30.6149826049805</t>
   </si>
   <si>
     <t xml:space="preserve">31.1794414520264</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5646991729736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5736618041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2959098815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3710746765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5681762695312</t>
+    <t xml:space="preserve">31.5647068023682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5736675262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2959136962891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3710708618164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5681800842285</t>
   </si>
   <si>
     <t xml:space="preserve">35.058952331543</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5303421020508</t>
+    <t xml:space="preserve">34.5303382873535</t>
   </si>
   <si>
     <t xml:space="preserve">33.7777290344238</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2167472839355</t>
+    <t xml:space="preserve">34.2167434692383</t>
   </si>
   <si>
     <t xml:space="preserve">33.2132720947266</t>
@@ -2927,28 +2924,28 @@
     <t xml:space="preserve">33.7329292297363</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4820594787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9176025390625</t>
+    <t xml:space="preserve">33.4820556640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9176063537598</t>
   </si>
   <si>
     <t xml:space="preserve">33.8494033813477</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4944953918457</t>
+    <t xml:space="preserve">34.494499206543</t>
   </si>
   <si>
     <t xml:space="preserve">34.2973861694336</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8225212097168</t>
+    <t xml:space="preserve">33.8225288391113</t>
   </si>
   <si>
     <t xml:space="preserve">34.7722473144531</t>
   </si>
   <si>
-    <t xml:space="preserve">34.189868927002</t>
+    <t xml:space="preserve">34.1898651123047</t>
   </si>
   <si>
     <t xml:space="preserve">34.5930519104004</t>
@@ -2957,52 +2954,52 @@
     <t xml:space="preserve">34.315299987793</t>
   </si>
   <si>
-    <t xml:space="preserve">35.0141525268555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6000061035156</t>
+    <t xml:space="preserve">35.01416015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6000022888184</t>
   </si>
   <si>
     <t xml:space="preserve">35.5427703857422</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3725357055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2774620056152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7309226989746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6537628173828</t>
+    <t xml:space="preserve">35.3725318908691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.277458190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7309303283691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6537590026855</t>
   </si>
   <si>
     <t xml:space="preserve">37.0927810668945</t>
   </si>
   <si>
-    <t xml:space="preserve">39.4222831726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6338310241699</t>
+    <t xml:space="preserve">39.4222793579102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6338348388672</t>
   </si>
   <si>
     <t xml:space="preserve">39.1445350646973</t>
   </si>
   <si>
-    <t xml:space="preserve">37.8991470336914</t>
+    <t xml:space="preserve">37.8991508483887</t>
   </si>
   <si>
     <t xml:space="preserve">40.1928062438965</t>
   </si>
   <si>
-    <t xml:space="preserve">40.301586151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.0473594665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6728248596191</t>
+    <t xml:space="preserve">40.3015785217285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0473709106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6728286743164</t>
   </si>
   <si>
     <t xml:space="preserve">37.328369140625</t>
@@ -3017,37 +3014,37 @@
     <t xml:space="preserve">38.3798675537109</t>
   </si>
   <si>
-    <t xml:space="preserve">37.4643440246582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.872257232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.0926856994629</t>
+    <t xml:space="preserve">37.4643402099609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.8722496032715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0926895141602</t>
   </si>
   <si>
     <t xml:space="preserve">36.8479385375977</t>
   </si>
   <si>
-    <t xml:space="preserve">37.2739791870117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1923942565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7816047668457</t>
+    <t xml:space="preserve">37.2739715576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1923980712891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.781608581543</t>
   </si>
   <si>
     <t xml:space="preserve">37.4824676513672</t>
   </si>
   <si>
-    <t xml:space="preserve">37.3646240234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6003112792969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.9719619750977</t>
+    <t xml:space="preserve">37.364631652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6003074645996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9719581604004</t>
   </si>
   <si>
     <t xml:space="preserve">36.7482261657715</t>
@@ -3059,13 +3056,13 @@
     <t xml:space="preserve">37.663761138916</t>
   </si>
   <si>
-    <t xml:space="preserve">38.5974197387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.017692565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0930938720703</t>
+    <t xml:space="preserve">38.5974235534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0176887512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0930976867676</t>
   </si>
   <si>
     <t xml:space="preserve">41.1445999145508</t>
@@ -3074,16 +3071,16 @@
     <t xml:space="preserve">41.1627311706543</t>
   </si>
   <si>
-    <t xml:space="preserve">41.8244476318359</t>
+    <t xml:space="preserve">41.8244514465332</t>
   </si>
   <si>
     <t xml:space="preserve">40.791072845459</t>
   </si>
   <si>
-    <t xml:space="preserve">40.963306427002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7094955444336</t>
+    <t xml:space="preserve">40.9633026123047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7094993591309</t>
   </si>
   <si>
     <t xml:space="preserve">40.2925186157227</t>
@@ -3095,13 +3092,13 @@
     <t xml:space="preserve">41.4527969360352</t>
   </si>
   <si>
-    <t xml:space="preserve">41.5525169372559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.2776794433594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6884841918945</t>
+    <t xml:space="preserve">41.5525131225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.2776832580566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6884880065918</t>
   </si>
   <si>
     <t xml:space="preserve">41.6975440979004</t>
@@ -3113,10 +3110,10 @@
     <t xml:space="preserve">41.3349533081055</t>
   </si>
   <si>
-    <t xml:space="preserve">42.3139419555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6221504211426</t>
+    <t xml:space="preserve">42.3139457702637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.622142791748</t>
   </si>
   <si>
     <t xml:space="preserve">42.9666023254395</t>
@@ -3125,7 +3122,7 @@
     <t xml:space="preserve">43.1569595336914</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8005523681641</t>
+    <t xml:space="preserve">43.8005447387695</t>
   </si>
   <si>
     <t xml:space="preserve">44.1993980407715</t>
@@ -3134,31 +3131,31 @@
     <t xml:space="preserve">43.8096199035645</t>
   </si>
   <si>
-    <t xml:space="preserve">43.2022819519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.6373863220215</t>
+    <t xml:space="preserve">43.2022857666016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.6373901367188</t>
   </si>
   <si>
     <t xml:space="preserve">42.5677528381348</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8940811157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.9031448364258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.703727722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4074745178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0086250305176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.525318145752</t>
+    <t xml:space="preserve">42.8940849304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.903148651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.7037239074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4074783325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0086326599121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5253219604492</t>
   </si>
   <si>
     <t xml:space="preserve">40.5372657775879</t>
@@ -3167,34 +3164,34 @@
     <t xml:space="preserve">40.4828758239746</t>
   </si>
   <si>
-    <t xml:space="preserve">40.4466171264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6279067993164</t>
+    <t xml:space="preserve">40.4466209411621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6279106140137</t>
   </si>
   <si>
     <t xml:space="preserve">40.3741035461426</t>
   </si>
   <si>
-    <t xml:space="preserve">41.8788414001465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8545341491699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.597827911377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3530807495117</t>
+    <t xml:space="preserve">41.8788375854492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8545227050781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5978317260742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.353084564209</t>
   </si>
   <si>
     <t xml:space="preserve">41.0630149841309</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7881927490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1507835388184</t>
+    <t xml:space="preserve">41.7881889343262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1507759094238</t>
   </si>
   <si>
     <t xml:space="preserve">41.1536674499512</t>
@@ -3203,28 +3200,28 @@
     <t xml:space="preserve">41.3984107971191</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0992736816406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5071868896484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7366905212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2290687561035</t>
+    <t xml:space="preserve">41.0992774963379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5071907043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.736686706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2290725708008</t>
   </si>
   <si>
     <t xml:space="preserve">40.9723701477051</t>
   </si>
   <si>
-    <t xml:space="preserve">39.8302230834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9542427062988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6550979614258</t>
+    <t xml:space="preserve">39.8302192687988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9542465209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6551055908203</t>
   </si>
   <si>
     <t xml:space="preserve">40.9179801940918</t>
@@ -3233,73 +3230,73 @@
     <t xml:space="preserve">40.9995651245117</t>
   </si>
   <si>
-    <t xml:space="preserve">40.5463333129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6913642883301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6460342407227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.5825881958008</t>
+    <t xml:space="preserve">40.546329498291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2109336853027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6913604736328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6460418701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.5825843811035</t>
   </si>
   <si>
     <t xml:space="preserve">40.7820167541504</t>
   </si>
   <si>
-    <t xml:space="preserve">40.4556846618652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.64892578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.7848892211914</t>
+    <t xml:space="preserve">40.455680847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.6489219665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.7848968505859</t>
   </si>
   <si>
     <t xml:space="preserve">39.9752540588379</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3712196350098</t>
+    <t xml:space="preserve">41.3712120056152</t>
   </si>
   <si>
     <t xml:space="preserve">41.5343780517578</t>
   </si>
   <si>
-    <t xml:space="preserve">42.3411407470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0238761901855</t>
+    <t xml:space="preserve">42.3411331176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.0238723754883</t>
   </si>
   <si>
     <t xml:space="preserve">42.0782585144043</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7972564697266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8306312561035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.25048828125</t>
+    <t xml:space="preserve">41.7972602844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8306350708008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.2504920959473</t>
   </si>
   <si>
     <t xml:space="preserve">42.8759536743164</t>
   </si>
   <si>
-    <t xml:space="preserve">42.5405578613281</t>
+    <t xml:space="preserve">42.5405616760254</t>
   </si>
   <si>
     <t xml:space="preserve">43.2838668823242</t>
   </si>
   <si>
-    <t xml:space="preserve">43.2657356262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2566680908203</t>
+    <t xml:space="preserve">43.2657318115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.2566719055176</t>
   </si>
   <si>
     <t xml:space="preserve">42.5133666992188</t>
@@ -3308,13 +3305,13 @@
     <t xml:space="preserve">41.9966812133789</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3287773132324</t>
+    <t xml:space="preserve">40.3287734985352</t>
   </si>
   <si>
     <t xml:space="preserve">38.7787132263184</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8363952636719</t>
+    <t xml:space="preserve">40.8363990783691</t>
   </si>
   <si>
     <t xml:space="preserve">41.9060325622559</t>
@@ -3326,49 +3323,49 @@
     <t xml:space="preserve">41.6250267028809</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3197135925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3440208435059</t>
+    <t xml:space="preserve">40.3197174072266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3440284729004</t>
   </si>
   <si>
     <t xml:space="preserve">41.6159629821777</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8668937683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3502044677734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8607139587402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9332237243652</t>
+    <t xml:space="preserve">42.8668899536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3502006530762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8607063293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.933219909668</t>
   </si>
   <si>
     <t xml:space="preserve">41.2276191711426</t>
   </si>
   <si>
-    <t xml:space="preserve">40.1646270751953</t>
+    <t xml:space="preserve">40.1646308898926</t>
   </si>
   <si>
     <t xml:space="preserve">40.7052841186523</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1084976196289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5208587646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8977241516113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1279716491699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.4406929016113</t>
+    <t xml:space="preserve">41.1084938049316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5208625793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8977279663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1279754638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.4406890869141</t>
   </si>
   <si>
     <t xml:space="preserve">39.3490524291992</t>
@@ -3386,19 +3383,19 @@
     <t xml:space="preserve">40.2929191589355</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3387413024902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0260124206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8072395324707</t>
+    <t xml:space="preserve">40.3387451171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0260162353516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8072357177734</t>
   </si>
   <si>
     <t xml:space="preserve">40.677791595459</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3295707702637</t>
+    <t xml:space="preserve">40.3295783996582</t>
   </si>
   <si>
     <t xml:space="preserve">40.751106262207</t>
@@ -3407,145 +3404,145 @@
     <t xml:space="preserve">40.5861625671387</t>
   </si>
   <si>
-    <t xml:space="preserve">40.9802017211914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2367858886719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5391845703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3833999633789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9172058105469</t>
+    <t xml:space="preserve">40.9801979064941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2367820739746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5391883850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3834037780762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9172019958496</t>
   </si>
   <si>
     <t xml:space="preserve">38.4143524169922</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2116012573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2574195861816</t>
+    <t xml:space="preserve">39.211597442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2574157714844</t>
   </si>
   <si>
     <t xml:space="preserve">39.2757415771484</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9721870422363</t>
+    <t xml:space="preserve">39.9721832275391</t>
   </si>
   <si>
     <t xml:space="preserve">40.1554641723633</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0180015563965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0546607971191</t>
+    <t xml:space="preserve">40.018009185791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0546646118164</t>
   </si>
   <si>
     <t xml:space="preserve">39.8805503845215</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9916687011719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.0833129882812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.3398933410645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8725395202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9550170898438</t>
+    <t xml:space="preserve">38.9916648864746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.083309173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.3398895263672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8725433349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9550094604492</t>
   </si>
   <si>
     <t xml:space="preserve">38.9458503723145</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6067962646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.1474533081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8438949584961</t>
+    <t xml:space="preserve">38.6067924499512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.1474571228027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8438987731934</t>
   </si>
   <si>
     <t xml:space="preserve">40.3845558166504</t>
   </si>
   <si>
-    <t xml:space="preserve">40.2654304504395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8164100646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1268196105957</t>
+    <t xml:space="preserve">40.2654266357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8164024353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1268157958984</t>
   </si>
   <si>
     <t xml:space="preserve">41.6033325195312</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7682762145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4658813476562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5025291442871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0901679992676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.5494995117188</t>
+    <t xml:space="preserve">41.7682800292969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.465877532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5025329589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0901641845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.549503326416</t>
   </si>
   <si>
     <t xml:space="preserve">40.3204078674316</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0821571350098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.137134552002</t>
+    <t xml:space="preserve">40.0821533203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1371307373047</t>
   </si>
   <si>
     <t xml:space="preserve">38.7809028625488</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9000282287598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2849082946777</t>
+    <t xml:space="preserve">38.900032043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2849044799805</t>
   </si>
   <si>
     <t xml:space="preserve">39.2207641601562</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6159629821777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.890869140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.101634979248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.413200378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0455017089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.7247657775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0351791381836</t>
+    <t xml:space="preserve">38.6159591674805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8908653259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.1016273498535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.4131965637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0454940795898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.7247695922852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0351753234863</t>
   </si>
   <si>
     <t xml:space="preserve">41.3742408752441</t>
@@ -3557,22 +3554,22 @@
     <t xml:space="preserve">41.3559150695801</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8060836791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4383811950684</t>
+    <t xml:space="preserve">40.8060874938965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4383850097656</t>
   </si>
   <si>
     <t xml:space="preserve">41.1817970275879</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1726341247559</t>
+    <t xml:space="preserve">41.1726379394531</t>
   </si>
   <si>
     <t xml:space="preserve">40.9985275268555</t>
   </si>
   <si>
-    <t xml:space="preserve">41.4292259216309</t>
+    <t xml:space="preserve">41.4292221069336</t>
   </si>
   <si>
     <t xml:space="preserve">41.6766395568848</t>
@@ -3581,10 +3578,10 @@
     <t xml:space="preserve">41.4108924865723</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3925590515137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8232650756836</t>
+    <t xml:space="preserve">41.3925666809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8232574462891</t>
   </si>
   <si>
     <t xml:space="preserve">42.0340270996094</t>
@@ -3593,28 +3590,28 @@
     <t xml:space="preserve">42.9595680236816</t>
   </si>
   <si>
-    <t xml:space="preserve">42.2997703552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0798492431641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6583137512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5758438110352</t>
+    <t xml:space="preserve">42.2997779846191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.0798454284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6583099365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5758399963379</t>
   </si>
   <si>
     <t xml:space="preserve">41.7499504089355</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7316284179688</t>
+    <t xml:space="preserve">41.7316246032715</t>
   </si>
   <si>
     <t xml:space="preserve">41.8965721130371</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0523529052734</t>
+    <t xml:space="preserve">42.0523567199707</t>
   </si>
   <si>
     <t xml:space="preserve">42.1073379516602</t>
@@ -3629,34 +3626,34 @@
     <t xml:space="preserve">42.6479988098145</t>
   </si>
   <si>
-    <t xml:space="preserve">42.5746879577637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3089408874512</t>
+    <t xml:space="preserve">42.5746917724609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3089332580566</t>
   </si>
   <si>
     <t xml:space="preserve">42.198974609375</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9057350158691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0065383911133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9698829650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0248603820801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2551155090332</t>
+    <t xml:space="preserve">41.9057312011719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.006534576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9698791503906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.0248641967773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2551078796387</t>
   </si>
   <si>
     <t xml:space="preserve">41.0535049438477</t>
   </si>
   <si>
-    <t xml:space="preserve">40.1188049316406</t>
+    <t xml:space="preserve">40.1188087463379</t>
   </si>
   <si>
     <t xml:space="preserve">40.0363311767578</t>
@@ -3665,7 +3662,7 @@
     <t xml:space="preserve">40.3753929138184</t>
   </si>
   <si>
-    <t xml:space="preserve">40.5036849975586</t>
+    <t xml:space="preserve">40.5036811828613</t>
   </si>
   <si>
     <t xml:space="preserve">41.2092971801758</t>
@@ -3686,19 +3683,22 @@
     <t xml:space="preserve">42.9545707702637</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0272178649902</t>
+    <t xml:space="preserve">42.6021766662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.0272216796875</t>
   </si>
   <si>
     <t xml:space="preserve">42.463077545166</t>
   </si>
   <si>
-    <t xml:space="preserve">42.1848793029785</t>
+    <t xml:space="preserve">42.1848754882812</t>
   </si>
   <si>
     <t xml:space="preserve">42.1477813720703</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9437637329102</t>
+    <t xml:space="preserve">41.9437599182129</t>
   </si>
   <si>
     <t xml:space="preserve">42.4167098999023</t>
@@ -3710,79 +3710,79 @@
     <t xml:space="preserve">43.5480728149414</t>
   </si>
   <si>
-    <t xml:space="preserve">43.9004554748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.3270416259766</t>
+    <t xml:space="preserve">43.9004592895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.3270378112793</t>
   </si>
   <si>
     <t xml:space="preserve">43.928279876709</t>
   </si>
   <si>
-    <t xml:space="preserve">44.1508407592773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.2435722351074</t>
+    <t xml:space="preserve">44.1508445739746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.2435760498047</t>
   </si>
   <si>
     <t xml:space="preserve">44.4846839904785</t>
   </si>
   <si>
-    <t xml:space="preserve">44.8927192687988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.9761772155762</t>
+    <t xml:space="preserve">44.8927154541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.9761810302734</t>
   </si>
   <si>
     <t xml:space="preserve">44.6701545715332</t>
   </si>
   <si>
-    <t xml:space="preserve">44.5866928100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1044807434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.7443466186523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.7628898620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.9112701416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.9019889831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.6979713439941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.1987457275391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.1338233947754</t>
+    <t xml:space="preserve">44.5867004394531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1044769287109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.7443428039551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.7628860473633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.9112663269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.9019927978516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.6979751586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.1987419128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.1338272094727</t>
   </si>
   <si>
     <t xml:space="preserve">45.1152839660645</t>
   </si>
   <si>
-    <t xml:space="preserve">46.4599266052246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.9807739257812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.552661895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.7782897949219</t>
+    <t xml:space="preserve">46.4599304199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.980770111084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.5526657104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.7782859802246</t>
   </si>
   <si>
     <t xml:space="preserve">48.0178642272949</t>
   </si>
   <si>
-    <t xml:space="preserve">47.6283836364746</t>
+    <t xml:space="preserve">47.6283798217773</t>
   </si>
   <si>
     <t xml:space="preserve">46.8494148254395</t>
@@ -3791,7 +3791,7 @@
     <t xml:space="preserve">46.8679618835449</t>
   </si>
   <si>
-    <t xml:space="preserve">46.3300971984863</t>
+    <t xml:space="preserve">46.3301010131836</t>
   </si>
   <si>
     <t xml:space="preserve">46.1724548339844</t>
@@ -3800,22 +3800,22 @@
     <t xml:space="preserve">46.9421463012695</t>
   </si>
   <si>
-    <t xml:space="preserve">47.0534324645996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.5171089172363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.0163383483887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.2945404052734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.2218780517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.7396659851074</t>
+    <t xml:space="preserve">47.0534362792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.5171012878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.0163345336914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.2945365905762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.2218856811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.7396621704102</t>
   </si>
   <si>
     <t xml:space="preserve">48.3888053894043</t>
@@ -3827,157 +3827,157 @@
     <t xml:space="preserve">49.4274291992188</t>
   </si>
   <si>
-    <t xml:space="preserve">49.9838371276855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.8911056518555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.9482727050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.9111747741699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0981826782227</t>
+    <t xml:space="preserve">49.9838409423828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.8911018371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.9482688903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.9111862182617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.0981788635254</t>
   </si>
   <si>
     <t xml:space="preserve">52.3392868041992</t>
   </si>
   <si>
-    <t xml:space="preserve">52.7102241516113</t>
+    <t xml:space="preserve">52.7102279663086</t>
   </si>
   <si>
     <t xml:space="preserve">53.0069770812988</t>
   </si>
   <si>
-    <t xml:space="preserve">52.4320297241211</t>
+    <t xml:space="preserve">52.4320220947266</t>
   </si>
   <si>
     <t xml:space="preserve">52.7287750244141</t>
   </si>
   <si>
-    <t xml:space="preserve">52.9142417907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.2666320800781</t>
+    <t xml:space="preserve">52.914249420166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.2666282653809</t>
   </si>
   <si>
     <t xml:space="preserve">52.598949432373</t>
   </si>
   <si>
-    <t xml:space="preserve">51.8941612243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.4675827026367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0610885620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.8014297485352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.5232353210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.6530570983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.4304885864258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.8570709228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.6886138916016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.9467430114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.0564880371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.7411956787109</t>
+    <t xml:space="preserve">51.8941650390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.467586517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.0610847473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.8014335632324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.5232315063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.6530609130859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.4304962158203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.8570671081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.6886177062988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.9467391967773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.0564956665039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.7411994934082</t>
   </si>
   <si>
     <t xml:space="preserve">48.6670074462891</t>
   </si>
   <si>
-    <t xml:space="preserve">47.3872718811035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.0920600891113</t>
+    <t xml:space="preserve">47.3872756958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.0920562744141</t>
   </si>
   <si>
     <t xml:space="preserve">46.9235992431641</t>
   </si>
   <si>
-    <t xml:space="preserve">46.3857421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.3501815795898</t>
+    <t xml:space="preserve">46.3857383728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.3501777648926</t>
   </si>
   <si>
     <t xml:space="preserve">46.9050559997559</t>
   </si>
   <si>
-    <t xml:space="preserve">47.4614601135254</t>
+    <t xml:space="preserve">47.4614562988281</t>
   </si>
   <si>
     <t xml:space="preserve">47.1647148132324</t>
   </si>
   <si>
-    <t xml:space="preserve">45.365665435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4305801391602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.6268501281738</t>
+    <t xml:space="preserve">45.3656578063965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4305763244629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.6268463134766</t>
   </si>
   <si>
     <t xml:space="preserve">45.7829666137695</t>
   </si>
   <si>
-    <t xml:space="preserve">45.356388092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.6160430908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4120292663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.3378410339355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.8200645446777</t>
+    <t xml:space="preserve">45.3563919067383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.6160469055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4120330810547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.3378448486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.8200607299805</t>
   </si>
   <si>
     <t xml:space="preserve">45.9591674804688</t>
   </si>
   <si>
-    <t xml:space="preserve">47.1461601257324</t>
+    <t xml:space="preserve">47.1461639404297</t>
   </si>
   <si>
     <t xml:space="preserve">47.4243659973145</t>
   </si>
   <si>
-    <t xml:space="preserve">47.368724822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.6654739379883</t>
+    <t xml:space="preserve">47.3687286376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.6654777526855</t>
   </si>
   <si>
     <t xml:space="preserve">47.9436836242676</t>
   </si>
   <si>
-    <t xml:space="preserve">48.2589797973633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.889575958252</t>
+    <t xml:space="preserve">48.258975982666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.8895721435547</t>
   </si>
   <si>
     <t xml:space="preserve">48.6113700866699</t>
@@ -3986,37 +3986,37 @@
     <t xml:space="preserve">49.0193977355957</t>
   </si>
   <si>
-    <t xml:space="preserve">50.1878509521484</t>
+    <t xml:space="preserve">50.1878547668457</t>
   </si>
   <si>
     <t xml:space="preserve">51.0781021118164</t>
   </si>
   <si>
-    <t xml:space="preserve">52.2280082702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.3949356079102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.2465515136719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.9312591552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.1352729797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.3578338623047</t>
+    <t xml:space="preserve">52.2280044555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.3949317932129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.2465553283691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.9312553405762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.1352767944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.357837677002</t>
   </si>
   <si>
     <t xml:space="preserve">53.0255241394043</t>
   </si>
   <si>
-    <t xml:space="preserve">52.5803985595703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0239868164062</t>
+    <t xml:space="preserve">52.5804023742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.0239944458008</t>
   </si>
   <si>
     <t xml:space="preserve">51.0410079956055</t>
@@ -4028,7 +4028,7 @@
     <t xml:space="preserve">52.6849555969238</t>
   </si>
   <si>
-    <t xml:space="preserve">51.8611717224121</t>
+    <t xml:space="preserve">51.8611679077148</t>
   </si>
   <si>
     <t xml:space="preserve">52.0296745300293</t>
@@ -4037,10 +4037,10 @@
     <t xml:space="preserve">52.4228401184082</t>
   </si>
   <si>
-    <t xml:space="preserve">51.2620506286621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.449275970459</t>
+    <t xml:space="preserve">51.2620544433594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.4492721557617</t>
   </si>
   <si>
     <t xml:space="preserve">51.8986129760742</t>
@@ -4055,16 +4055,16 @@
     <t xml:space="preserve">50.0263671875</t>
   </si>
   <si>
-    <t xml:space="preserve">50.3820953369141</t>
+    <t xml:space="preserve">50.3820915222168</t>
   </si>
   <si>
     <t xml:space="preserve">51.730110168457</t>
   </si>
   <si>
-    <t xml:space="preserve">50.4944267272949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.4757041931152</t>
+    <t xml:space="preserve">50.4944229125977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.4757080078125</t>
   </si>
   <si>
     <t xml:space="preserve">50.1387062072754</t>
@@ -4073,7 +4073,7 @@
     <t xml:space="preserve">50.8688774108887</t>
   </si>
   <si>
-    <t xml:space="preserve">50.0450859069824</t>
+    <t xml:space="preserve">50.0450897216797</t>
   </si>
   <si>
     <t xml:space="preserve">51.3556594848633</t>
@@ -4082,10 +4082,10 @@
     <t xml:space="preserve">51.6552200317383</t>
   </si>
   <si>
-    <t xml:space="preserve">51.973503112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0109519958496</t>
+    <t xml:space="preserve">51.9734992980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.0109481811523</t>
   </si>
   <si>
     <t xml:space="preserve">52.9096260070801</t>
@@ -4094,19 +4094,19 @@
     <t xml:space="preserve">52.198169708252</t>
   </si>
   <si>
-    <t xml:space="preserve">52.3666687011719</t>
+    <t xml:space="preserve">52.3666725158691</t>
   </si>
   <si>
     <t xml:space="preserve">52.7598419189453</t>
   </si>
   <si>
-    <t xml:space="preserve">52.928352355957</t>
+    <t xml:space="preserve">52.9283485412598</t>
   </si>
   <si>
     <t xml:space="preserve">52.8909034729004</t>
   </si>
   <si>
-    <t xml:space="preserve">51.9922256469727</t>
+    <t xml:space="preserve">51.9922294616699</t>
   </si>
   <si>
     <t xml:space="preserve">51.1309928894043</t>
@@ -4115,13 +4115,13 @@
     <t xml:space="preserve">51.1684341430664</t>
   </si>
   <si>
-    <t xml:space="preserve">50.8875961303711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.6254844665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.9999351501465</t>
+    <t xml:space="preserve">50.8875999450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.62548828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.9999389648438</t>
   </si>
   <si>
     <t xml:space="preserve">51.4118232727051</t>
@@ -4136,7 +4136,7 @@
     <t xml:space="preserve">47.9294548034668</t>
   </si>
   <si>
-    <t xml:space="preserve">48.6783447265625</t>
+    <t xml:space="preserve">48.6783485412598</t>
   </si>
   <si>
     <t xml:space="preserve">48.2102928161621</t>
@@ -4157,7 +4157,7 @@
     <t xml:space="preserve">46.3754920959473</t>
   </si>
   <si>
-    <t xml:space="preserve">46.5814399719238</t>
+    <t xml:space="preserve">46.5814361572266</t>
   </si>
   <si>
     <t xml:space="preserve">46.7686614990234</t>
@@ -4181,7 +4181,7 @@
     <t xml:space="preserve">42.8743934631348</t>
   </si>
   <si>
-    <t xml:space="preserve">42.4999504089355</t>
+    <t xml:space="preserve">42.4999465942383</t>
   </si>
   <si>
     <t xml:space="preserve">41.919548034668</t>
@@ -4202,16 +4202,16 @@
     <t xml:space="preserve">43.1645927429199</t>
   </si>
   <si>
-    <t xml:space="preserve">43.3330993652344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1552314758301</t>
+    <t xml:space="preserve">43.3330955505371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1552276611328</t>
   </si>
   <si>
     <t xml:space="preserve">40.5808944702148</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7978515625</t>
+    <t xml:space="preserve">41.7978553771973</t>
   </si>
   <si>
     <t xml:space="preserve">40.9647026062012</t>
@@ -4229,13 +4229,13 @@
     <t xml:space="preserve">39.3639373779297</t>
   </si>
   <si>
-    <t xml:space="preserve">39.1767120361328</t>
+    <t xml:space="preserve">39.1767082214355</t>
   </si>
   <si>
     <t xml:space="preserve">37.7725257873535</t>
   </si>
   <si>
-    <t xml:space="preserve">41.4140472412109</t>
+    <t xml:space="preserve">41.4140434265137</t>
   </si>
   <si>
     <t xml:space="preserve">40.2719802856445</t>
@@ -4268,16 +4268,16 @@
     <t xml:space="preserve">42.9399223327637</t>
   </si>
   <si>
-    <t xml:space="preserve">42.5186614990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1348571777344</t>
+    <t xml:space="preserve">42.5186653137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1348533630371</t>
   </si>
   <si>
     <t xml:space="preserve">43.9696617126465</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8854103088379</t>
+    <t xml:space="preserve">43.8854064941406</t>
   </si>
   <si>
     <t xml:space="preserve">42.7246170043945</t>
@@ -4292,19 +4292,19 @@
     <t xml:space="preserve">44.7279167175293</t>
   </si>
   <si>
-    <t xml:space="preserve">45.9823188781738</t>
+    <t xml:space="preserve">45.9823226928711</t>
   </si>
   <si>
     <t xml:space="preserve">46.0665702819824</t>
   </si>
   <si>
-    <t xml:space="preserve">45.5142631530762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.6343078613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.0368423461914</t>
+    <t xml:space="preserve">45.5142593383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.6343040466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.0368385314941</t>
   </si>
   <si>
     <t xml:space="preserve">45.1117248535156</t>
@@ -4316,7 +4316,7 @@
     <t xml:space="preserve">45.5891494750977</t>
   </si>
   <si>
-    <t xml:space="preserve">44.8215293884277</t>
+    <t xml:space="preserve">44.821533203125</t>
   </si>
   <si>
     <t xml:space="preserve">43.3050079345703</t>
@@ -4325,7 +4325,7 @@
     <t xml:space="preserve">42.7526931762695</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0786933898926</t>
+    <t xml:space="preserve">42.0786895751953</t>
   </si>
   <si>
     <t xml:space="preserve">41.8727416992188</t>
@@ -4334,7 +4334,7 @@
     <t xml:space="preserve">43.0522575378418</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6293525695801</t>
+    <t xml:space="preserve">41.6293563842773</t>
   </si>
   <si>
     <t xml:space="preserve">40.6183395385742</t>
@@ -4349,31 +4349,31 @@
     <t xml:space="preserve">38.7929000854492</t>
   </si>
   <si>
-    <t xml:space="preserve">39.7009429931641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.326488494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.3512725830078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.699291229248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.1579895019531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.195426940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7180099487305</t>
+    <t xml:space="preserve">39.7009391784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.3264923095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.3512763977051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6992874145508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.1579933166504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.1954307556152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7180137634277</t>
   </si>
   <si>
     <t xml:space="preserve">38.8584289550781</t>
   </si>
   <si>
-    <t xml:space="preserve">39.8413581848145</t>
+    <t xml:space="preserve">39.8413619995117</t>
   </si>
   <si>
     <t xml:space="preserve">40.1639633178711</t>
@@ -5805,6 +5805,9 @@
   </si>
   <si>
     <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.25</t>
   </si>
 </sst>
 </file>
@@ -31930,7 +31933,7 @@
         <v>37.4199981689453</v>
       </c>
       <c r="G992" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="H992" t="s">
         <v>9</v>
@@ -31956,7 +31959,7 @@
         <v>37.1800003051758</v>
       </c>
       <c r="G993" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H993" t="s">
         <v>9</v>
@@ -31982,7 +31985,7 @@
         <v>37.4300003051758</v>
       </c>
       <c r="G994" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="H994" t="s">
         <v>9</v>
@@ -32008,7 +32011,7 @@
         <v>37.7900009155273</v>
       </c>
       <c r="G995" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H995" t="s">
         <v>9</v>
@@ -32034,7 +32037,7 @@
         <v>37.3199996948242</v>
       </c>
       <c r="G996" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H996" t="s">
         <v>9</v>
@@ -32060,7 +32063,7 @@
         <v>38.0699996948242</v>
       </c>
       <c r="G997" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H997" t="s">
         <v>9</v>
@@ -32086,7 +32089,7 @@
         <v>36.1599998474121</v>
       </c>
       <c r="G998" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H998" t="s">
         <v>9</v>
@@ -32112,7 +32115,7 @@
         <v>36.7099990844727</v>
       </c>
       <c r="G999" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="H999" t="s">
         <v>9</v>
@@ -32138,7 +32141,7 @@
         <v>36.7799987792969</v>
       </c>
       <c r="G1000" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="H1000" t="s">
         <v>9</v>
@@ -32164,7 +32167,7 @@
         <v>36.5999984741211</v>
       </c>
       <c r="G1001" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H1001" t="s">
         <v>9</v>
@@ -32190,7 +32193,7 @@
         <v>36.5299987792969</v>
       </c>
       <c r="G1002" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H1002" t="s">
         <v>9</v>
@@ -32216,7 +32219,7 @@
         <v>35.4300003051758</v>
       </c>
       <c r="G1003" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H1003" t="s">
         <v>9</v>
@@ -32242,7 +32245,7 @@
         <v>36.0299987792969</v>
       </c>
       <c r="G1004" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H1004" t="s">
         <v>9</v>
@@ -32268,7 +32271,7 @@
         <v>36.25</v>
       </c>
       <c r="G1005" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H1005" t="s">
         <v>9</v>
@@ -32294,7 +32297,7 @@
         <v>36.4500007629395</v>
       </c>
       <c r="G1006" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="H1006" t="s">
         <v>9</v>
@@ -32320,7 +32323,7 @@
         <v>36.3899993896484</v>
       </c>
       <c r="G1007" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H1007" t="s">
         <v>9</v>
@@ -32346,7 +32349,7 @@
         <v>37.060001373291</v>
       </c>
       <c r="G1008" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H1008" t="s">
         <v>9</v>
@@ -32372,7 +32375,7 @@
         <v>37.7400016784668</v>
       </c>
       <c r="G1009" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H1009" t="s">
         <v>9</v>
@@ -32398,7 +32401,7 @@
         <v>37.9500007629395</v>
       </c>
       <c r="G1010" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H1010" t="s">
         <v>9</v>
@@ -32424,7 +32427,7 @@
         <v>37.5800018310547</v>
       </c>
       <c r="G1011" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H1011" t="s">
         <v>9</v>
@@ -32450,7 +32453,7 @@
         <v>38.2000007629395</v>
       </c>
       <c r="G1012" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H1012" t="s">
         <v>9</v>
@@ -32476,7 +32479,7 @@
         <v>37.9599990844727</v>
       </c>
       <c r="G1013" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="H1013" t="s">
         <v>9</v>
@@ -32502,7 +32505,7 @@
         <v>38.2000007629395</v>
       </c>
       <c r="G1014" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H1014" t="s">
         <v>9</v>
@@ -32528,7 +32531,7 @@
         <v>37.5699996948242</v>
       </c>
       <c r="G1015" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H1015" t="s">
         <v>9</v>
@@ -32554,7 +32557,7 @@
         <v>37.9500007629395</v>
       </c>
       <c r="G1016" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H1016" t="s">
         <v>9</v>
@@ -32580,7 +32583,7 @@
         <v>38.3300018310547</v>
       </c>
       <c r="G1017" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H1017" t="s">
         <v>9</v>
@@ -32606,7 +32609,7 @@
         <v>37.7599983215332</v>
       </c>
       <c r="G1018" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="H1018" t="s">
         <v>9</v>
@@ -32632,7 +32635,7 @@
         <v>37.9500007629395</v>
       </c>
       <c r="G1019" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H1019" t="s">
         <v>9</v>
@@ -32658,7 +32661,7 @@
         <v>37.8899993896484</v>
       </c>
       <c r="G1020" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H1020" t="s">
         <v>9</v>
@@ -32684,7 +32687,7 @@
         <v>38.7900009155273</v>
       </c>
       <c r="G1021" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H1021" t="s">
         <v>9</v>
@@ -32710,7 +32713,7 @@
         <v>38.7700004577637</v>
       </c>
       <c r="G1022" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H1022" t="s">
         <v>9</v>
@@ -32736,7 +32739,7 @@
         <v>38.7599983215332</v>
       </c>
       <c r="G1023" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H1023" t="s">
         <v>9</v>
@@ -32762,7 +32765,7 @@
         <v>39.2200012207031</v>
       </c>
       <c r="G1024" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H1024" t="s">
         <v>9</v>
@@ -32788,7 +32791,7 @@
         <v>39.8400001525879</v>
       </c>
       <c r="G1025" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H1025" t="s">
         <v>9</v>
@@ -32814,7 +32817,7 @@
         <v>39.0200004577637</v>
       </c>
       <c r="G1026" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H1026" t="s">
         <v>9</v>
@@ -32840,7 +32843,7 @@
         <v>39.4900016784668</v>
       </c>
       <c r="G1027" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H1027" t="s">
         <v>9</v>
@@ -32866,7 +32869,7 @@
         <v>39.2200012207031</v>
       </c>
       <c r="G1028" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H1028" t="s">
         <v>9</v>
@@ -32892,7 +32895,7 @@
         <v>39.5800018310547</v>
       </c>
       <c r="G1029" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H1029" t="s">
         <v>9</v>
@@ -32918,7 +32921,7 @@
         <v>40</v>
       </c>
       <c r="G1030" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H1030" t="s">
         <v>9</v>
@@ -32944,7 +32947,7 @@
         <v>40.3199996948242</v>
       </c>
       <c r="G1031" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H1031" t="s">
         <v>9</v>
@@ -32970,7 +32973,7 @@
         <v>40.2900009155273</v>
       </c>
       <c r="G1032" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H1032" t="s">
         <v>9</v>
@@ -32996,7 +32999,7 @@
         <v>39.9300003051758</v>
       </c>
       <c r="G1033" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H1033" t="s">
         <v>9</v>
@@ -33022,7 +33025,7 @@
         <v>40.2900009155273</v>
       </c>
       <c r="G1034" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H1034" t="s">
         <v>9</v>
@@ -33048,7 +33051,7 @@
         <v>40.8800010681152</v>
       </c>
       <c r="G1035" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H1035" t="s">
         <v>9</v>
@@ -33074,7 +33077,7 @@
         <v>39.689998626709</v>
       </c>
       <c r="G1036" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H1036" t="s">
         <v>9</v>
@@ -33100,7 +33103,7 @@
         <v>38.6300010681152</v>
       </c>
       <c r="G1037" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H1037" t="s">
         <v>9</v>
@@ -33126,7 +33129,7 @@
         <v>39.3400001525879</v>
       </c>
       <c r="G1038" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H1038" t="s">
         <v>9</v>
@@ -33152,7 +33155,7 @@
         <v>40.0299987792969</v>
       </c>
       <c r="G1039" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H1039" t="s">
         <v>9</v>
@@ -33178,7 +33181,7 @@
         <v>40.0200004577637</v>
       </c>
       <c r="G1040" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H1040" t="s">
         <v>9</v>
@@ -33204,7 +33207,7 @@
         <v>40.5</v>
       </c>
       <c r="G1041" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="H1041" t="s">
         <v>9</v>
@@ -33230,7 +33233,7 @@
         <v>40.189998626709</v>
       </c>
       <c r="G1042" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H1042" t="s">
         <v>9</v>
@@ -33256,7 +33259,7 @@
         <v>40.5900001525879</v>
       </c>
       <c r="G1043" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H1043" t="s">
         <v>9</v>
@@ -33282,7 +33285,7 @@
         <v>40.9199981689453</v>
       </c>
       <c r="G1044" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H1044" t="s">
         <v>9</v>
@@ -33308,7 +33311,7 @@
         <v>41.310001373291</v>
       </c>
       <c r="G1045" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H1045" t="s">
         <v>9</v>
@@ -33334,7 +33337,7 @@
         <v>41</v>
       </c>
       <c r="G1046" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H1046" t="s">
         <v>9</v>
@@ -33360,7 +33363,7 @@
         <v>40.3499984741211</v>
       </c>
       <c r="G1047" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H1047" t="s">
         <v>9</v>
@@ -33386,7 +33389,7 @@
         <v>41.0999984741211</v>
       </c>
       <c r="G1048" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="H1048" t="s">
         <v>9</v>
@@ -33412,7 +33415,7 @@
         <v>41.5299987792969</v>
       </c>
       <c r="G1049" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="H1049" t="s">
         <v>9</v>
@@ -33438,7 +33441,7 @@
         <v>42.1599998474121</v>
       </c>
       <c r="G1050" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H1050" t="s">
         <v>9</v>
@@ -33464,7 +33467,7 @@
         <v>41</v>
       </c>
       <c r="G1051" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H1051" t="s">
         <v>9</v>
@@ -33490,7 +33493,7 @@
         <v>40.6300010681152</v>
       </c>
       <c r="G1052" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="H1052" t="s">
         <v>9</v>
@@ -33516,7 +33519,7 @@
         <v>38.4900016784668</v>
       </c>
       <c r="G1053" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H1053" t="s">
         <v>9</v>
@@ -33542,7 +33545,7 @@
         <v>38.6399993896484</v>
       </c>
       <c r="G1054" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H1054" t="s">
         <v>9</v>
@@ -33568,7 +33571,7 @@
         <v>39.7900009155273</v>
       </c>
       <c r="G1055" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H1055" t="s">
         <v>9</v>
@@ -33594,7 +33597,7 @@
         <v>39.810001373291</v>
       </c>
       <c r="G1056" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H1056" t="s">
         <v>9</v>
@@ -33620,7 +33623,7 @@
         <v>38.6800003051758</v>
       </c>
       <c r="G1057" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H1057" t="s">
         <v>9</v>
@@ -33646,7 +33649,7 @@
         <v>38.4700012207031</v>
       </c>
       <c r="G1058" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H1058" t="s">
         <v>9</v>
@@ -33672,7 +33675,7 @@
         <v>39.2400016784668</v>
       </c>
       <c r="G1059" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H1059" t="s">
         <v>9</v>
@@ -33698,7 +33701,7 @@
         <v>39.2400016784668</v>
       </c>
       <c r="G1060" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="H1060" t="s">
         <v>9</v>
@@ -33724,7 +33727,7 @@
         <v>39.3600006103516</v>
       </c>
       <c r="G1061" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="H1061" t="s">
         <v>9</v>
@@ -33750,7 +33753,7 @@
         <v>38.5900001525879</v>
       </c>
       <c r="G1062" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H1062" t="s">
         <v>9</v>
@@ -33776,7 +33779,7 @@
         <v>36.8199996948242</v>
       </c>
       <c r="G1063" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H1063" t="s">
         <v>9</v>
@@ -33802,7 +33805,7 @@
         <v>34.3499984741211</v>
       </c>
       <c r="G1064" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H1064" t="s">
         <v>9</v>
@@ -33828,7 +33831,7 @@
         <v>33.8300018310547</v>
       </c>
       <c r="G1065" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H1065" t="s">
         <v>9</v>
@@ -33854,7 +33857,7 @@
         <v>28.2600002288818</v>
       </c>
       <c r="G1066" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H1066" t="s">
         <v>9</v>
@@ -33880,7 +33883,7 @@
         <v>33.5499992370605</v>
       </c>
       <c r="G1067" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="H1067" t="s">
         <v>9</v>
@@ -33906,7 +33909,7 @@
         <v>33.0900001525879</v>
       </c>
       <c r="G1068" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="H1068" t="s">
         <v>9</v>
@@ -33932,7 +33935,7 @@
         <v>34.1699981689453</v>
       </c>
       <c r="G1069" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H1069" t="s">
         <v>9</v>
@@ -33958,7 +33961,7 @@
         <v>34.7999992370605</v>
       </c>
       <c r="G1070" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H1070" t="s">
         <v>9</v>
@@ -33984,7 +33987,7 @@
         <v>36.1599998474121</v>
       </c>
       <c r="G1071" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H1071" t="s">
         <v>9</v>
@@ -34010,7 +34013,7 @@
         <v>34.7999992370605</v>
       </c>
       <c r="G1072" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H1072" t="s">
         <v>9</v>
@@ -34036,7 +34039,7 @@
         <v>35.2299995422363</v>
       </c>
       <c r="G1073" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="H1073" t="s">
         <v>9</v>
@@ -34062,7 +34065,7 @@
         <v>35.2400016784668</v>
       </c>
       <c r="G1074" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H1074" t="s">
         <v>9</v>
@@ -34088,7 +34091,7 @@
         <v>34.9300003051758</v>
       </c>
       <c r="G1075" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H1075" t="s">
         <v>9</v>
@@ -34114,7 +34117,7 @@
         <v>36.1300010681152</v>
       </c>
       <c r="G1076" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H1076" t="s">
         <v>9</v>
@@ -34140,7 +34143,7 @@
         <v>36.3499984741211</v>
       </c>
       <c r="G1077" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H1077" t="s">
         <v>9</v>
@@ -34166,7 +34169,7 @@
         <v>39.1300010681152</v>
       </c>
       <c r="G1078" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H1078" t="s">
         <v>9</v>
@@ -34192,7 +34195,7 @@
         <v>38.5400009155273</v>
       </c>
       <c r="G1079" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H1079" t="s">
         <v>9</v>
@@ -34218,7 +34221,7 @@
         <v>37.7000007629395</v>
       </c>
       <c r="G1080" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="H1080" t="s">
         <v>9</v>
@@ -34244,7 +34247,7 @@
         <v>38.189998626709</v>
       </c>
       <c r="G1081" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H1081" t="s">
         <v>9</v>
@@ -34270,7 +34273,7 @@
         <v>37.0699996948242</v>
       </c>
       <c r="G1082" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H1082" t="s">
         <v>9</v>
@@ -34296,7 +34299,7 @@
         <v>37.6500015258789</v>
       </c>
       <c r="G1083" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H1083" t="s">
         <v>9</v>
@@ -34322,7 +34325,7 @@
         <v>37.3699989318848</v>
       </c>
       <c r="G1084" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="H1084" t="s">
         <v>9</v>
@@ -34348,7 +34351,7 @@
         <v>36.7400016784668</v>
       </c>
       <c r="G1085" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="H1085" t="s">
         <v>9</v>
@@ -34374,7 +34377,7 @@
         <v>37.7799987792969</v>
       </c>
       <c r="G1086" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H1086" t="s">
         <v>9</v>
@@ -34400,7 +34403,7 @@
         <v>38.5</v>
       </c>
       <c r="G1087" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H1087" t="s">
         <v>9</v>
@@ -34426,7 +34429,7 @@
         <v>38.2799987792969</v>
       </c>
       <c r="G1088" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H1088" t="s">
         <v>9</v>
@@ -34452,7 +34455,7 @@
         <v>37.75</v>
       </c>
       <c r="G1089" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="H1089" t="s">
         <v>9</v>
@@ -34478,7 +34481,7 @@
         <v>38.3300018310547</v>
       </c>
       <c r="G1090" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H1090" t="s">
         <v>9</v>
@@ -34504,7 +34507,7 @@
         <v>38.810001373291</v>
       </c>
       <c r="G1091" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H1091" t="s">
         <v>9</v>
@@ -34530,7 +34533,7 @@
         <v>38.1599998474121</v>
       </c>
       <c r="G1092" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H1092" t="s">
         <v>9</v>
@@ -34556,7 +34559,7 @@
         <v>38.6100006103516</v>
       </c>
       <c r="G1093" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="H1093" t="s">
         <v>9</v>
@@ -34582,7 +34585,7 @@
         <v>38.2799987792969</v>
       </c>
       <c r="G1094" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="H1094" t="s">
         <v>9</v>
@@ -34608,7 +34611,7 @@
         <v>38.2999992370605</v>
       </c>
       <c r="G1095" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H1095" t="s">
         <v>9</v>
@@ -34634,7 +34637,7 @@
         <v>39.0800018310547</v>
       </c>
       <c r="G1096" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="H1096" t="s">
         <v>9</v>
@@ -34660,7 +34663,7 @@
         <v>38.5900001525879</v>
       </c>
       <c r="G1097" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H1097" t="s">
         <v>9</v>
@@ -34686,7 +34689,7 @@
         <v>40.8499984741211</v>
       </c>
       <c r="G1098" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="H1098" t="s">
         <v>9</v>
@@ -34712,7 +34715,7 @@
         <v>39.6699981689453</v>
       </c>
       <c r="G1099" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="H1099" t="s">
         <v>9</v>
@@ -34738,7 +34741,7 @@
         <v>39.4799995422363</v>
       </c>
       <c r="G1100" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H1100" t="s">
         <v>9</v>
@@ -34764,7 +34767,7 @@
         <v>40.4900016784668</v>
       </c>
       <c r="G1101" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H1101" t="s">
         <v>9</v>
@@ -34790,7 +34793,7 @@
         <v>39.8800010681152</v>
       </c>
       <c r="G1102" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H1102" t="s">
         <v>9</v>
@@ -34816,7 +34819,7 @@
         <v>40.9099998474121</v>
       </c>
       <c r="G1103" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H1103" t="s">
         <v>9</v>
@@ -34842,7 +34845,7 @@
         <v>41.4000015258789</v>
       </c>
       <c r="G1104" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H1104" t="s">
         <v>9</v>
@@ -34868,7 +34871,7 @@
         <v>44</v>
       </c>
       <c r="G1105" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H1105" t="s">
         <v>9</v>
@@ -34894,7 +34897,7 @@
         <v>43.1199989318848</v>
       </c>
       <c r="G1106" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H1106" t="s">
         <v>9</v>
@@ -34920,7 +34923,7 @@
         <v>43.689998626709</v>
       </c>
       <c r="G1107" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H1107" t="s">
         <v>9</v>
@@ -34946,7 +34949,7 @@
         <v>42.2999992370605</v>
       </c>
       <c r="G1108" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H1108" t="s">
         <v>9</v>
@@ -34972,7 +34975,7 @@
         <v>44.8600006103516</v>
       </c>
       <c r="G1109" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="H1109" t="s">
         <v>9</v>
@@ -34998,7 +35001,7 @@
         <v>44.4599990844727</v>
       </c>
       <c r="G1110" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="H1110" t="s">
         <v>9</v>
@@ -35024,7 +35027,7 @@
         <v>40.8699989318848</v>
       </c>
       <c r="G1111" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H1111" t="s">
         <v>9</v>
@@ -35050,7 +35053,7 @@
         <v>41.560001373291</v>
       </c>
       <c r="G1112" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="H1112" t="s">
         <v>9</v>
@@ -35076,7 +35079,7 @@
         <v>41.1800003051758</v>
       </c>
       <c r="G1113" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H1113" t="s">
         <v>9</v>
@@ -35102,7 +35105,7 @@
         <v>42.1599998474121</v>
       </c>
       <c r="G1114" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H1114" t="s">
         <v>9</v>
@@ -35128,7 +35131,7 @@
         <v>42.0999984741211</v>
       </c>
       <c r="G1115" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H1115" t="s">
         <v>9</v>
@@ -35154,7 +35157,7 @@
         <v>42.3400001525879</v>
       </c>
       <c r="G1116" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H1116" t="s">
         <v>9</v>
@@ -35180,7 +35183,7 @@
         <v>41.3300018310547</v>
       </c>
       <c r="G1117" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H1117" t="s">
         <v>9</v>
@@ -35206,7 +35209,7 @@
         <v>41.7799987792969</v>
       </c>
       <c r="G1118" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="H1118" t="s">
         <v>9</v>
@@ -35232,7 +35235,7 @@
         <v>40.9199981689453</v>
       </c>
       <c r="G1119" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H1119" t="s">
         <v>9</v>
@@ -35258,7 +35261,7 @@
         <v>40.6500015258789</v>
       </c>
       <c r="G1120" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H1120" t="s">
         <v>9</v>
@@ -35284,7 +35287,7 @@
         <v>41.1199989318848</v>
       </c>
       <c r="G1121" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H1121" t="s">
         <v>9</v>
@@ -35310,7 +35313,7 @@
         <v>41.0299987792969</v>
       </c>
       <c r="G1122" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H1122" t="s">
         <v>9</v>
@@ -35336,7 +35339,7 @@
         <v>41.6800003051758</v>
       </c>
       <c r="G1123" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="H1123" t="s">
         <v>9</v>
@@ -35362,7 +35365,7 @@
         <v>41.3499984741211</v>
       </c>
       <c r="G1124" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H1124" t="s">
         <v>9</v>
@@ -35388,7 +35391,7 @@
         <v>41.2200012207031</v>
       </c>
       <c r="G1125" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H1125" t="s">
         <v>9</v>
@@ -35414,7 +35417,7 @@
         <v>41.4799995422363</v>
       </c>
       <c r="G1126" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H1126" t="s">
         <v>9</v>
@@ -35440,7 +35443,7 @@
         <v>41.8899993896484</v>
       </c>
       <c r="G1127" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H1127" t="s">
         <v>9</v>
@@ -35466,7 +35469,7 @@
         <v>40.5400009155273</v>
       </c>
       <c r="G1128" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="H1128" t="s">
         <v>9</v>
@@ -35492,7 +35495,7 @@
         <v>40.560001373291</v>
       </c>
       <c r="G1129" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="H1129" t="s">
         <v>9</v>
@@ -35518,7 +35521,7 @@
         <v>41.5499992370605</v>
       </c>
       <c r="G1130" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H1130" t="s">
         <v>9</v>
@@ -35544,7 +35547,7 @@
         <v>42.5800018310547</v>
       </c>
       <c r="G1131" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H1131" t="s">
         <v>9</v>
@@ -35570,7 +35573,7 @@
         <v>45.25</v>
       </c>
       <c r="G1132" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="H1132" t="s">
         <v>9</v>
@@ -35596,7 +35599,7 @@
         <v>44.2299995422363</v>
       </c>
       <c r="G1133" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H1133" t="s">
         <v>9</v>
@@ -35622,7 +35625,7 @@
         <v>45.3899993896484</v>
       </c>
       <c r="G1134" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="H1134" t="s">
         <v>9</v>
@@ -35648,7 +35651,7 @@
         <v>45.4099998474121</v>
       </c>
       <c r="G1135" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H1135" t="s">
         <v>9</v>
@@ -35674,7 +35677,7 @@
         <v>46.1399993896484</v>
       </c>
       <c r="G1136" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H1136" t="s">
         <v>9</v>
@@ -35700,7 +35703,7 @@
         <v>45</v>
       </c>
       <c r="G1137" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H1137" t="s">
         <v>9</v>
@@ -35726,7 +35729,7 @@
         <v>45.189998626709</v>
       </c>
       <c r="G1138" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H1138" t="s">
         <v>9</v>
@@ -35752,7 +35755,7 @@
         <v>44.9099998474121</v>
       </c>
       <c r="G1139" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H1139" t="s">
         <v>9</v>
@@ -35778,7 +35781,7 @@
         <v>45</v>
       </c>
       <c r="G1140" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H1140" t="s">
         <v>9</v>
@@ -35804,7 +35807,7 @@
         <v>44.4500007629395</v>
       </c>
       <c r="G1141" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H1141" t="s">
         <v>9</v>
@@ -35830,7 +35833,7 @@
         <v>45.4199981689453</v>
       </c>
       <c r="G1142" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H1142" t="s">
         <v>9</v>
@@ -35856,7 +35859,7 @@
         <v>45.7299995422363</v>
       </c>
       <c r="G1143" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="H1143" t="s">
         <v>9</v>
@@ -35882,7 +35885,7 @@
         <v>45.8400001525879</v>
       </c>
       <c r="G1144" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H1144" t="s">
         <v>9</v>
@@ -35908,7 +35911,7 @@
         <v>46.6399993896484</v>
       </c>
       <c r="G1145" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="H1145" t="s">
         <v>9</v>
@@ -35934,7 +35937,7 @@
         <v>45.9900016784668</v>
       </c>
       <c r="G1146" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="H1146" t="s">
         <v>9</v>
@@ -35960,7 +35963,7 @@
         <v>46</v>
       </c>
       <c r="G1147" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H1147" t="s">
         <v>9</v>
@@ -35986,7 +35989,7 @@
         <v>46.1500015258789</v>
       </c>
       <c r="G1148" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="H1148" t="s">
         <v>9</v>
@@ -36012,7 +36015,7 @@
         <v>45.5999984741211</v>
       </c>
       <c r="G1149" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H1149" t="s">
         <v>9</v>
@@ -36038,7 +36041,7 @@
         <v>46.6800003051758</v>
       </c>
       <c r="G1150" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H1150" t="s">
         <v>9</v>
@@ -36064,7 +36067,7 @@
         <v>47.0200004577637</v>
       </c>
       <c r="G1151" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H1151" t="s">
         <v>9</v>
@@ -36090,7 +36093,7 @@
         <v>47.4000015258789</v>
       </c>
       <c r="G1152" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H1152" t="s">
         <v>9</v>
@@ -36116,7 +36119,7 @@
         <v>47.6100006103516</v>
       </c>
       <c r="G1153" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H1153" t="s">
         <v>9</v>
@@ -36142,7 +36145,7 @@
         <v>48.3199996948242</v>
       </c>
       <c r="G1154" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H1154" t="s">
         <v>9</v>
@@ -36168,7 +36171,7 @@
         <v>48.7599983215332</v>
       </c>
       <c r="G1155" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H1155" t="s">
         <v>9</v>
@@ -36194,7 +36197,7 @@
         <v>48.3300018310547</v>
       </c>
       <c r="G1156" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H1156" t="s">
         <v>9</v>
@@ -36220,7 +36223,7 @@
         <v>47.6599998474121</v>
       </c>
       <c r="G1157" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H1157" t="s">
         <v>9</v>
@@ -36246,7 +36249,7 @@
         <v>48.1399993896484</v>
       </c>
       <c r="G1158" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="H1158" t="s">
         <v>9</v>
@@ -36272,7 +36275,7 @@
         <v>46.9599990844727</v>
       </c>
       <c r="G1159" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="H1159" t="s">
         <v>9</v>
@@ -36298,7 +36301,7 @@
         <v>47.3199996948242</v>
       </c>
       <c r="G1160" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="H1160" t="s">
         <v>9</v>
@@ -36324,7 +36327,7 @@
         <v>47.3300018310547</v>
       </c>
       <c r="G1161" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="H1161" t="s">
         <v>9</v>
@@ -36350,7 +36353,7 @@
         <v>47.1100006103516</v>
       </c>
       <c r="G1162" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H1162" t="s">
         <v>9</v>
@@ -36376,7 +36379,7 @@
         <v>45.6800003051758</v>
       </c>
       <c r="G1163" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="H1163" t="s">
         <v>9</v>
@@ -36402,7 +36405,7 @@
         <v>45.2400016784668</v>
       </c>
       <c r="G1164" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="H1164" t="s">
         <v>9</v>
@@ -36428,7 +36431,7 @@
         <v>45.810001373291</v>
       </c>
       <c r="G1165" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="H1165" t="s">
         <v>9</v>
@@ -36454,7 +36457,7 @@
         <v>44.7200012207031</v>
       </c>
       <c r="G1166" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="H1166" t="s">
         <v>9</v>
@@ -36480,7 +36483,7 @@
         <v>44.6599998474121</v>
       </c>
       <c r="G1167" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="H1167" t="s">
         <v>9</v>
@@ -36506,7 +36509,7 @@
         <v>44.6199989318848</v>
       </c>
       <c r="G1168" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="H1168" t="s">
         <v>9</v>
@@ -36532,7 +36535,7 @@
         <v>44.8199996948242</v>
       </c>
       <c r="G1169" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H1169" t="s">
         <v>9</v>
@@ -36558,7 +36561,7 @@
         <v>44.5400009155273</v>
       </c>
       <c r="G1170" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="H1170" t="s">
         <v>9</v>
@@ -36584,7 +36587,7 @@
         <v>45.5999984741211</v>
       </c>
       <c r="G1171" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H1171" t="s">
         <v>9</v>
@@ -36610,7 +36613,7 @@
         <v>46.2000007629395</v>
       </c>
       <c r="G1172" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="H1172" t="s">
         <v>9</v>
@@ -36636,7 +36639,7 @@
         <v>45.8400001525879</v>
       </c>
       <c r="G1173" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="H1173" t="s">
         <v>9</v>
@@ -36662,7 +36665,7 @@
         <v>45.0699996948242</v>
       </c>
       <c r="G1174" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="H1174" t="s">
         <v>9</v>
@@ -36688,7 +36691,7 @@
         <v>45.8899993896484</v>
       </c>
       <c r="G1175" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="H1175" t="s">
         <v>9</v>
@@ -36714,7 +36717,7 @@
         <v>45.4099998474121</v>
       </c>
       <c r="G1176" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="H1176" t="s">
         <v>9</v>
@@ -36740,7 +36743,7 @@
         <v>45.6199989318848</v>
       </c>
       <c r="G1177" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="H1177" t="s">
         <v>9</v>
@@ -36766,7 +36769,7 @@
         <v>45.6800003051758</v>
       </c>
       <c r="G1178" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="H1178" t="s">
         <v>9</v>
@@ -36792,7 +36795,7 @@
         <v>45.2999992370605</v>
       </c>
       <c r="G1179" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="H1179" t="s">
         <v>9</v>
@@ -36818,7 +36821,7 @@
         <v>46.0999984741211</v>
       </c>
       <c r="G1180" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="H1180" t="s">
         <v>9</v>
@@ -36844,7 +36847,7 @@
         <v>46.1399993896484</v>
       </c>
       <c r="G1181" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="H1181" t="s">
         <v>9</v>
@@ -36870,7 +36873,7 @@
         <v>46.5</v>
       </c>
       <c r="G1182" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="H1182" t="s">
         <v>9</v>
@@ -36896,7 +36899,7 @@
         <v>45.4000015258789</v>
       </c>
       <c r="G1183" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="H1183" t="s">
         <v>9</v>
@@ -36922,7 +36925,7 @@
         <v>45.4000015258789</v>
       </c>
       <c r="G1184" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="H1184" t="s">
         <v>9</v>
@@ -36948,7 +36951,7 @@
         <v>45.6699981689453</v>
       </c>
       <c r="G1185" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="H1185" t="s">
         <v>9</v>
@@ -36974,7 +36977,7 @@
         <v>45.3400001525879</v>
       </c>
       <c r="G1186" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="H1186" t="s">
         <v>9</v>
@@ -37000,7 +37003,7 @@
         <v>45.7900009155273</v>
       </c>
       <c r="G1187" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="H1187" t="s">
         <v>9</v>
@@ -37026,7 +37029,7 @@
         <v>44.939998626709</v>
       </c>
       <c r="G1188" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="H1188" t="s">
         <v>9</v>
@@ -37052,7 +37055,7 @@
         <v>44.3800010681152</v>
       </c>
       <c r="G1189" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="H1189" t="s">
         <v>9</v>
@@ -37078,7 +37081,7 @@
         <v>45.2000007629395</v>
       </c>
       <c r="G1190" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="H1190" t="s">
         <v>9</v>
@@ -37104,7 +37107,7 @@
         <v>43.939998626709</v>
       </c>
       <c r="G1191" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H1191" t="s">
         <v>9</v>
@@ -37130,7 +37133,7 @@
         <v>45.1800003051758</v>
       </c>
       <c r="G1192" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="H1192" t="s">
         <v>9</v>
@@ -37156,7 +37159,7 @@
         <v>44.6199989318848</v>
       </c>
       <c r="G1193" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="H1193" t="s">
         <v>9</v>
@@ -37182,7 +37185,7 @@
         <v>44.8499984741211</v>
       </c>
       <c r="G1194" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="H1194" t="s">
         <v>9</v>
@@ -37208,7 +37211,7 @@
         <v>45.1399993896484</v>
       </c>
       <c r="G1195" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="H1195" t="s">
         <v>9</v>
@@ -37234,7 +37237,7 @@
         <v>45.2299995422363</v>
       </c>
       <c r="G1196" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="H1196" t="s">
         <v>9</v>
@@ -37260,7 +37263,7 @@
         <v>44.8199996948242</v>
       </c>
       <c r="G1197" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="H1197" t="s">
         <v>9</v>
@@ -37286,7 +37289,7 @@
         <v>44.7299995422363</v>
       </c>
       <c r="G1198" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="H1198" t="s">
         <v>9</v>
@@ -37312,7 +37315,7 @@
         <v>45</v>
       </c>
       <c r="G1199" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H1199" t="s">
         <v>9</v>
@@ -37338,7 +37341,7 @@
         <v>44.3600006103516</v>
       </c>
       <c r="G1200" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="H1200" t="s">
         <v>9</v>
@@ -37364,7 +37367,7 @@
         <v>44.8899993896484</v>
       </c>
       <c r="G1201" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H1201" t="s">
         <v>9</v>
@@ -37390,7 +37393,7 @@
         <v>44.8400001525879</v>
       </c>
       <c r="G1202" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H1202" t="s">
         <v>9</v>
@@ -37416,7 +37419,7 @@
         <v>44.7700004577637</v>
       </c>
       <c r="G1203" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="H1203" t="s">
         <v>9</v>
@@ -37442,7 +37445,7 @@
         <v>44.8499984741211</v>
       </c>
       <c r="G1204" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="H1204" t="s">
         <v>9</v>
@@ -37468,7 +37471,7 @@
         <v>44.9900016784668</v>
       </c>
       <c r="G1205" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H1205" t="s">
         <v>9</v>
@@ -37494,7 +37497,7 @@
         <v>44.6300010681152</v>
       </c>
       <c r="G1206" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="H1206" t="s">
         <v>9</v>
@@ -37520,7 +37523,7 @@
         <v>43.7400016784668</v>
       </c>
       <c r="G1207" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H1207" t="s">
         <v>9</v>
@@ -37546,7 +37549,7 @@
         <v>43.8899993896484</v>
       </c>
       <c r="G1208" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="H1208" t="s">
         <v>9</v>
@@ -37572,7 +37575,7 @@
         <v>44.0999984741211</v>
       </c>
       <c r="G1209" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="H1209" t="s">
         <v>9</v>
@@ -37598,7 +37601,7 @@
         <v>45.6699981689453</v>
       </c>
       <c r="G1210" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="H1210" t="s">
         <v>9</v>
@@ -37624,7 +37627,7 @@
         <v>45.4199981689453</v>
       </c>
       <c r="G1211" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H1211" t="s">
         <v>9</v>
@@ -37650,7 +37653,7 @@
         <v>45.6399993896484</v>
       </c>
       <c r="G1212" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="H1212" t="s">
         <v>9</v>
@@ -37676,7 +37679,7 @@
         <v>45.8199996948242</v>
       </c>
       <c r="G1213" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H1213" t="s">
         <v>9</v>
@@ -37702,7 +37705,7 @@
         <v>46.7099990844727</v>
       </c>
       <c r="G1214" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="H1214" t="s">
         <v>9</v>
@@ -37728,7 +37731,7 @@
         <v>46.3600006103516</v>
       </c>
       <c r="G1215" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H1215" t="s">
         <v>9</v>
@@ -37754,7 +37757,7 @@
         <v>46.5</v>
       </c>
       <c r="G1216" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="H1216" t="s">
         <v>9</v>
@@ -37780,7 +37783,7 @@
         <v>46.4199981689453</v>
       </c>
       <c r="G1217" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="H1217" t="s">
         <v>9</v>
@@ -37806,7 +37809,7 @@
         <v>46.1100006103516</v>
       </c>
       <c r="G1218" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H1218" t="s">
         <v>9</v>
@@ -37832,7 +37835,7 @@
         <v>47.25</v>
       </c>
       <c r="G1219" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="H1219" t="s">
         <v>9</v>
@@ -37858,7 +37861,7 @@
         <v>46.6100006103516</v>
       </c>
       <c r="G1220" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="H1220" t="s">
         <v>9</v>
@@ -37884,7 +37887,7 @@
         <v>47.2999992370605</v>
       </c>
       <c r="G1221" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="H1221" t="s">
         <v>9</v>
@@ -37910,7 +37913,7 @@
         <v>46.9300003051758</v>
       </c>
       <c r="G1222" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="H1222" t="s">
         <v>9</v>
@@ -37936,7 +37939,7 @@
         <v>47.1100006103516</v>
       </c>
       <c r="G1223" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H1223" t="s">
         <v>9</v>
@@ -37962,7 +37965,7 @@
         <v>47.75</v>
       </c>
       <c r="G1224" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="H1224" t="s">
         <v>9</v>
@@ -37988,7 +37991,7 @@
         <v>47.7299995422363</v>
       </c>
       <c r="G1225" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="H1225" t="s">
         <v>9</v>
@@ -38014,7 +38017,7 @@
         <v>47.7200012207031</v>
       </c>
       <c r="G1226" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="H1226" t="s">
         <v>9</v>
@@ -38040,7 +38043,7 @@
         <v>46.9000015258789</v>
       </c>
       <c r="G1227" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="H1227" t="s">
         <v>9</v>
@@ -38066,7 +38069,7 @@
         <v>46.3300018310547</v>
       </c>
       <c r="G1228" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H1228" t="s">
         <v>9</v>
@@ -38092,7 +38095,7 @@
         <v>44.4900016784668</v>
       </c>
       <c r="G1229" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="H1229" t="s">
         <v>9</v>
@@ -38118,7 +38121,7 @@
         <v>42.7799987792969</v>
       </c>
       <c r="G1230" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H1230" t="s">
         <v>9</v>
@@ -38144,7 +38147,7 @@
         <v>44.2299995422363</v>
       </c>
       <c r="G1231" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H1231" t="s">
         <v>9</v>
@@ -38170,7 +38173,7 @@
         <v>45.0499992370605</v>
       </c>
       <c r="G1232" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="H1232" t="s">
         <v>9</v>
@@ -38196,7 +38199,7 @@
         <v>46.2299995422363</v>
       </c>
       <c r="G1233" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="H1233" t="s">
         <v>9</v>
@@ -38222,7 +38225,7 @@
         <v>46.310001373291</v>
       </c>
       <c r="G1234" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="H1234" t="s">
         <v>9</v>
@@ -38248,7 +38251,7 @@
         <v>45.9199981689453</v>
       </c>
       <c r="G1235" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="H1235" t="s">
         <v>9</v>
@@ -38274,7 +38277,7 @@
         <v>44.4799995422363</v>
       </c>
       <c r="G1236" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H1236" t="s">
         <v>9</v>
@@ -38300,7 +38303,7 @@
         <v>45.6100006103516</v>
       </c>
       <c r="G1237" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="H1237" t="s">
         <v>9</v>
@@ -38326,7 +38329,7 @@
         <v>46</v>
       </c>
       <c r="G1238" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H1238" t="s">
         <v>9</v>
@@ -38352,7 +38355,7 @@
         <v>45.9099998474121</v>
       </c>
       <c r="G1239" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H1239" t="s">
         <v>9</v>
@@ -38378,7 +38381,7 @@
         <v>47.2900009155273</v>
       </c>
       <c r="G1240" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="H1240" t="s">
         <v>9</v>
@@ -38404,7 +38407,7 @@
         <v>46.7200012207031</v>
       </c>
       <c r="G1241" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="H1241" t="s">
         <v>9</v>
@@ -38430,7 +38433,7 @@
         <v>46.1800003051758</v>
       </c>
       <c r="G1242" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="H1242" t="s">
         <v>9</v>
@@ -38456,7 +38459,7 @@
         <v>45.7900009155273</v>
       </c>
       <c r="G1243" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="H1243" t="s">
         <v>9</v>
@@ -38482,7 +38485,7 @@
         <v>46.2599983215332</v>
       </c>
       <c r="G1244" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H1244" t="s">
         <v>9</v>
@@ -38508,7 +38511,7 @@
         <v>44.9900016784668</v>
       </c>
       <c r="G1245" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="H1245" t="s">
         <v>9</v>
@@ -38534,7 +38537,7 @@
         <v>43.8300018310547</v>
       </c>
       <c r="G1246" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="H1246" t="s">
         <v>9</v>
@@ -38560,7 +38563,7 @@
         <v>44.4199981689453</v>
       </c>
       <c r="G1247" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="H1247" t="s">
         <v>9</v>
@@ -38586,7 +38589,7 @@
         <v>44.8600006103516</v>
       </c>
       <c r="G1248" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="H1248" t="s">
         <v>9</v>
@@ -38612,7 +38615,7 @@
         <v>45.310001373291</v>
       </c>
       <c r="G1249" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="H1249" t="s">
         <v>9</v>
@@ -38638,7 +38641,7 @@
         <v>44.6300010681152</v>
       </c>
       <c r="G1250" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="H1250" t="s">
         <v>9</v>
@@ -38664,7 +38667,7 @@
         <v>43.7900009155273</v>
       </c>
       <c r="G1251" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="H1251" t="s">
         <v>9</v>
@@ -38690,7 +38693,7 @@
         <v>43.0400009155273</v>
       </c>
       <c r="G1252" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="H1252" t="s">
         <v>9</v>
@@ -38716,7 +38719,7 @@
         <v>42.939998626709</v>
       </c>
       <c r="G1253" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="H1253" t="s">
         <v>9</v>
@@ -38742,7 +38745,7 @@
         <v>43.7900009155273</v>
       </c>
       <c r="G1254" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="H1254" t="s">
         <v>9</v>
@@ -38768,7 +38771,7 @@
         <v>43.189998626709</v>
       </c>
       <c r="G1255" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="H1255" t="s">
         <v>9</v>
@@ -38794,7 +38797,7 @@
         <v>43.6599998474121</v>
       </c>
       <c r="G1256" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H1256" t="s">
         <v>9</v>
@@ -38820,7 +38823,7 @@
         <v>44.1199989318848</v>
       </c>
       <c r="G1257" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H1257" t="s">
         <v>9</v>
@@ -38846,7 +38849,7 @@
         <v>43.9700012207031</v>
       </c>
       <c r="G1258" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H1258" t="s">
         <v>9</v>
@@ -38872,7 +38875,7 @@
         <v>44.0200004577637</v>
       </c>
       <c r="G1259" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="H1259" t="s">
         <v>9</v>
@@ -38898,7 +38901,7 @@
         <v>44.7700004577637</v>
       </c>
       <c r="G1260" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="H1260" t="s">
         <v>9</v>
@@ -38924,7 +38927,7 @@
         <v>43.439998626709</v>
       </c>
       <c r="G1261" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="H1261" t="s">
         <v>9</v>
@@ -38950,7 +38953,7 @@
         <v>44.3899993896484</v>
       </c>
       <c r="G1262" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="H1262" t="s">
         <v>9</v>
@@ -38976,7 +38979,7 @@
         <v>44.4199981689453</v>
       </c>
       <c r="G1263" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="H1263" t="s">
         <v>9</v>
@@ -39002,7 +39005,7 @@
         <v>44.7700004577637</v>
       </c>
       <c r="G1264" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="H1264" t="s">
         <v>9</v>
@@ -39028,7 +39031,7 @@
         <v>44.0099983215332</v>
       </c>
       <c r="G1265" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="H1265" t="s">
         <v>9</v>
@@ -39054,7 +39057,7 @@
         <v>44.4700012207031</v>
       </c>
       <c r="G1266" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="H1266" t="s">
         <v>9</v>
@@ -39080,7 +39083,7 @@
         <v>44.2900009155273</v>
       </c>
       <c r="G1267" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="H1267" t="s">
         <v>9</v>
@@ -39106,7 +39109,7 @@
         <v>44.7200012207031</v>
       </c>
       <c r="G1268" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="H1268" t="s">
         <v>9</v>
@@ -39132,7 +39135,7 @@
         <v>45</v>
       </c>
       <c r="G1269" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="H1269" t="s">
         <v>9</v>
@@ -39158,7 +39161,7 @@
         <v>45.3300018310547</v>
       </c>
       <c r="G1270" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="H1270" t="s">
         <v>9</v>
@@ -39184,7 +39187,7 @@
         <v>44.8600006103516</v>
       </c>
       <c r="G1271" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="H1271" t="s">
         <v>9</v>
@@ -39210,7 +39213,7 @@
         <v>45.1599998474121</v>
       </c>
       <c r="G1272" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="H1272" t="s">
         <v>9</v>
@@ -39236,7 +39239,7 @@
         <v>43.560001373291</v>
       </c>
       <c r="G1273" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="H1273" t="s">
         <v>9</v>
@@ -39262,7 +39265,7 @@
         <v>41.9199981689453</v>
       </c>
       <c r="G1274" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H1274" t="s">
         <v>9</v>
@@ -39288,7 +39291,7 @@
         <v>42.7900009155273</v>
       </c>
       <c r="G1275" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="H1275" t="s">
         <v>9</v>
@@ -39314,7 +39317,7 @@
         <v>42.8400001525879</v>
       </c>
       <c r="G1276" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="H1276" t="s">
         <v>9</v>
@@ -39340,7 +39343,7 @@
         <v>42.8600006103516</v>
       </c>
       <c r="G1277" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="H1277" t="s">
         <v>9</v>
@@ -39366,7 +39369,7 @@
         <v>43.6199989318848</v>
       </c>
       <c r="G1278" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H1278" t="s">
         <v>9</v>
@@ -39392,7 +39395,7 @@
         <v>43.8199996948242</v>
       </c>
       <c r="G1279" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="H1279" t="s">
         <v>9</v>
@@ -39418,7 +39421,7 @@
         <v>43.6699981689453</v>
       </c>
       <c r="G1280" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="H1280" t="s">
         <v>9</v>
@@ -39444,7 +39447,7 @@
         <v>43.7099990844727</v>
       </c>
       <c r="G1281" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="H1281" t="s">
         <v>9</v>
@@ -39470,7 +39473,7 @@
         <v>43.5200004577637</v>
       </c>
       <c r="G1282" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="H1282" t="s">
         <v>9</v>
@@ -39496,7 +39499,7 @@
         <v>42.5499992370605</v>
       </c>
       <c r="G1283" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H1283" t="s">
         <v>9</v>
@@ -39522,7 +39525,7 @@
         <v>42.6500015258789</v>
       </c>
       <c r="G1284" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="H1284" t="s">
         <v>9</v>
@@ -39548,7 +39551,7 @@
         <v>42.9300003051758</v>
       </c>
       <c r="G1285" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="H1285" t="s">
         <v>9</v>
@@ -39574,7 +39577,7 @@
         <v>42.4199981689453</v>
       </c>
       <c r="G1286" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="H1286" t="s">
         <v>9</v>
@@ -39600,7 +39603,7 @@
         <v>42.5099983215332</v>
       </c>
       <c r="G1287" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="H1287" t="s">
         <v>9</v>
@@ -39626,7 +39629,7 @@
         <v>42.5</v>
       </c>
       <c r="G1288" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="H1288" t="s">
         <v>9</v>
@@ -39652,7 +39655,7 @@
         <v>42.1300010681152</v>
       </c>
       <c r="G1289" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="H1289" t="s">
         <v>9</v>
@@ -39678,7 +39681,7 @@
         <v>42.7200012207031</v>
       </c>
       <c r="G1290" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="H1290" t="s">
         <v>9</v>
@@ -39704,7 +39707,7 @@
         <v>43.4799995422363</v>
       </c>
       <c r="G1291" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="H1291" t="s">
         <v>9</v>
@@ -39730,7 +39733,7 @@
         <v>44.0699996948242</v>
       </c>
       <c r="G1292" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="H1292" t="s">
         <v>9</v>
@@ -39756,7 +39759,7 @@
         <v>43.939998626709</v>
       </c>
       <c r="G1293" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="H1293" t="s">
         <v>9</v>
@@ -39782,7 +39785,7 @@
         <v>43.4500007629395</v>
       </c>
       <c r="G1294" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="H1294" t="s">
         <v>9</v>
@@ -39808,7 +39811,7 @@
         <v>44.8800010681152</v>
       </c>
       <c r="G1295" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="H1295" t="s">
         <v>9</v>
@@ -39834,7 +39837,7 @@
         <v>45.4000015258789</v>
       </c>
       <c r="G1296" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="H1296" t="s">
         <v>9</v>
@@ -39860,7 +39863,7 @@
         <v>45.5800018310547</v>
       </c>
       <c r="G1297" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="H1297" t="s">
         <v>9</v>
@@ -39886,7 +39889,7 @@
         <v>45.25</v>
       </c>
       <c r="G1298" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="H1298" t="s">
         <v>9</v>
@@ -39912,7 +39915,7 @@
         <v>45.2900009155273</v>
       </c>
       <c r="G1299" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="H1299" t="s">
         <v>9</v>
@@ -39938,7 +39941,7 @@
         <v>44.6300010681152</v>
       </c>
       <c r="G1300" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="H1300" t="s">
         <v>9</v>
@@ -39964,7 +39967,7 @@
         <v>44.8400001525879</v>
       </c>
       <c r="G1301" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="H1301" t="s">
         <v>9</v>
@@ -39990,7 +39993,7 @@
         <v>44.25</v>
       </c>
       <c r="G1302" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="H1302" t="s">
         <v>9</v>
@@ -40016,7 +40019,7 @@
         <v>44</v>
       </c>
       <c r="G1303" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="H1303" t="s">
         <v>9</v>
@@ -40042,7 +40045,7 @@
         <v>43.7400016784668</v>
       </c>
       <c r="G1304" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="H1304" t="s">
         <v>9</v>
@@ -40068,7 +40071,7 @@
         <v>43.7999992370605</v>
       </c>
       <c r="G1305" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="H1305" t="s">
         <v>9</v>
@@ -40094,7 +40097,7 @@
         <v>42.3199996948242</v>
       </c>
       <c r="G1306" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="H1306" t="s">
         <v>9</v>
@@ -40120,7 +40123,7 @@
         <v>42.4500007629395</v>
       </c>
       <c r="G1307" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H1307" t="s">
         <v>9</v>
@@ -40146,7 +40149,7 @@
         <v>42.8699989318848</v>
       </c>
       <c r="G1308" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H1308" t="s">
         <v>9</v>
@@ -40172,7 +40175,7 @@
         <v>42.7999992370605</v>
       </c>
       <c r="G1309" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="H1309" t="s">
         <v>9</v>
@@ -40198,7 +40201,7 @@
         <v>42.1399993896484</v>
       </c>
       <c r="G1310" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="H1310" t="s">
         <v>9</v>
@@ -40224,7 +40227,7 @@
         <v>42.439998626709</v>
       </c>
       <c r="G1311" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="H1311" t="s">
         <v>9</v>
@@ -40250,7 +40253,7 @@
         <v>42.6699981689453</v>
       </c>
       <c r="G1312" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="H1312" t="s">
         <v>9</v>
@@ -40276,7 +40279,7 @@
         <v>43.0099983215332</v>
       </c>
       <c r="G1313" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="H1313" t="s">
         <v>9</v>
@@ -40302,7 +40305,7 @@
         <v>43.7000007629395</v>
       </c>
       <c r="G1314" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="H1314" t="s">
         <v>9</v>
@@ -40328,7 +40331,7 @@
         <v>43.3499984741211</v>
       </c>
       <c r="G1315" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="H1315" t="s">
         <v>9</v>
@@ -40354,7 +40357,7 @@
         <v>44.7799987792969</v>
       </c>
       <c r="G1316" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H1316" t="s">
         <v>9</v>
@@ -40380,7 +40383,7 @@
         <v>45.1500015258789</v>
       </c>
       <c r="G1317" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="H1317" t="s">
         <v>9</v>
@@ -40406,7 +40409,7 @@
         <v>44.3300018310547</v>
       </c>
       <c r="G1318" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="H1318" t="s">
         <v>9</v>
@@ -40432,7 +40435,7 @@
         <v>45.1300010681152</v>
       </c>
       <c r="G1319" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="H1319" t="s">
         <v>9</v>
@@ -40458,7 +40461,7 @@
         <v>44.5299987792969</v>
       </c>
       <c r="G1320" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="H1320" t="s">
         <v>9</v>
@@ -40484,7 +40487,7 @@
         <v>45.2200012207031</v>
       </c>
       <c r="G1321" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="H1321" t="s">
         <v>9</v>
@@ -40510,7 +40513,7 @@
         <v>44.939998626709</v>
       </c>
       <c r="G1322" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="H1322" t="s">
         <v>9</v>
@@ -40536,7 +40539,7 @@
         <v>44.9300003051758</v>
       </c>
       <c r="G1323" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="H1323" t="s">
         <v>9</v>
@@ -40562,7 +40565,7 @@
         <v>44.7400016784668</v>
       </c>
       <c r="G1324" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="H1324" t="s">
         <v>9</v>
@@ -40588,7 +40591,7 @@
         <v>45.2099990844727</v>
       </c>
       <c r="G1325" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="H1325" t="s">
         <v>9</v>
@@ -40614,7 +40617,7 @@
         <v>45.3300018310547</v>
       </c>
       <c r="G1326" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="H1326" t="s">
         <v>9</v>
@@ -40640,7 +40643,7 @@
         <v>45.4799995422363</v>
       </c>
       <c r="G1327" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="H1327" t="s">
         <v>9</v>
@@ -40666,7 +40669,7 @@
         <v>45.189998626709</v>
       </c>
       <c r="G1328" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="H1328" t="s">
         <v>9</v>
@@ -40692,7 +40695,7 @@
         <v>45.2900009155273</v>
       </c>
       <c r="G1329" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="H1329" t="s">
         <v>9</v>
@@ -40718,7 +40721,7 @@
         <v>45.1699981689453</v>
       </c>
       <c r="G1330" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="H1330" t="s">
         <v>9</v>
@@ -40744,7 +40747,7 @@
         <v>45.6399993896484</v>
       </c>
       <c r="G1331" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="H1331" t="s">
         <v>9</v>
@@ -40770,7 +40773,7 @@
         <v>45.4799995422363</v>
       </c>
       <c r="G1332" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="H1332" t="s">
         <v>9</v>
@@ -40796,7 +40799,7 @@
         <v>45.8699989318848</v>
       </c>
       <c r="G1333" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="H1333" t="s">
         <v>9</v>
@@ -40822,7 +40825,7 @@
         <v>46.8800010681152</v>
       </c>
       <c r="G1334" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="H1334" t="s">
         <v>9</v>
@@ -40848,7 +40851,7 @@
         <v>46.1599998474121</v>
       </c>
       <c r="G1335" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="H1335" t="s">
         <v>9</v>
@@ -40874,7 +40877,7 @@
         <v>45.9199981689453</v>
       </c>
       <c r="G1336" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="H1336" t="s">
         <v>9</v>
@@ -40900,7 +40903,7 @@
         <v>45.4599990844727</v>
       </c>
       <c r="G1337" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H1337" t="s">
         <v>9</v>
@@ -40926,7 +40929,7 @@
         <v>45.4599990844727</v>
       </c>
       <c r="G1338" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H1338" t="s">
         <v>9</v>
@@ -40952,7 +40955,7 @@
         <v>45.3699989318848</v>
       </c>
       <c r="G1339" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="H1339" t="s">
         <v>9</v>
@@ -40978,7 +40981,7 @@
         <v>45.560001373291</v>
       </c>
       <c r="G1340" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="H1340" t="s">
         <v>9</v>
@@ -41004,7 +41007,7 @@
         <v>45.5400009155273</v>
       </c>
       <c r="G1341" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="H1341" t="s">
         <v>9</v>
@@ -41030,7 +41033,7 @@
         <v>45.4599990844727</v>
       </c>
       <c r="G1342" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="H1342" t="s">
         <v>9</v>
@@ -41056,7 +41059,7 @@
         <v>45.7200012207031</v>
       </c>
       <c r="G1343" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="H1343" t="s">
         <v>9</v>
@@ -41082,7 +41085,7 @@
         <v>45.8899993896484</v>
       </c>
       <c r="G1344" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="H1344" t="s">
         <v>9</v>
@@ -41108,7 +41111,7 @@
         <v>45.9500007629395</v>
       </c>
       <c r="G1345" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="H1345" t="s">
         <v>9</v>
@@ -41134,7 +41137,7 @@
         <v>47.1300010681152</v>
       </c>
       <c r="G1346" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="H1346" t="s">
         <v>9</v>
@@ -41160,7 +41163,7 @@
         <v>47.0200004577637</v>
       </c>
       <c r="G1347" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="H1347" t="s">
         <v>9</v>
@@ -41186,7 +41189,7 @@
         <v>46.5400009155273</v>
       </c>
       <c r="G1348" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="H1348" t="s">
         <v>9</v>
@@ -41212,7 +41215,7 @@
         <v>46.4599990844727</v>
       </c>
       <c r="G1349" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="H1349" t="s">
         <v>9</v>
@@ -41238,7 +41241,7 @@
         <v>46.1699981689453</v>
       </c>
       <c r="G1350" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="H1350" t="s">
         <v>9</v>
@@ -41264,7 +41267,7 @@
         <v>46.0499992370605</v>
       </c>
       <c r="G1351" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="H1351" t="s">
         <v>9</v>
@@ -41290,7 +41293,7 @@
         <v>45.7299995422363</v>
       </c>
       <c r="G1352" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="H1352" t="s">
         <v>9</v>
@@ -41316,7 +41319,7 @@
         <v>45.8400001525879</v>
       </c>
       <c r="G1353" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="H1353" t="s">
         <v>9</v>
@@ -41342,7 +41345,7 @@
         <v>46.4599990844727</v>
       </c>
       <c r="G1354" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="H1354" t="s">
         <v>9</v>
@@ -41368,7 +41371,7 @@
         <v>45.7999992370605</v>
       </c>
       <c r="G1355" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="H1355" t="s">
         <v>9</v>
@@ -41394,7 +41397,7 @@
         <v>45.8600006103516</v>
       </c>
       <c r="G1356" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="H1356" t="s">
         <v>9</v>
@@ -41420,7 +41423,7 @@
         <v>44.4700012207031</v>
       </c>
       <c r="G1357" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="H1357" t="s">
         <v>9</v>
@@ -41446,7 +41449,7 @@
         <v>45.0200004577637</v>
       </c>
       <c r="G1358" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="H1358" t="s">
         <v>9</v>
@@ -41472,7 +41475,7 @@
         <v>44.7999992370605</v>
       </c>
       <c r="G1359" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="H1359" t="s">
         <v>9</v>
@@ -41498,7 +41501,7 @@
         <v>43.7799987792969</v>
       </c>
       <c r="G1360" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="H1360" t="s">
         <v>9</v>
@@ -41524,7 +41527,7 @@
         <v>43.689998626709</v>
       </c>
       <c r="G1361" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="H1361" t="s">
         <v>9</v>
@@ -41550,7 +41553,7 @@
         <v>44.060001373291</v>
       </c>
       <c r="G1362" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="H1362" t="s">
         <v>9</v>
@@ -41576,7 +41579,7 @@
         <v>44.2000007629395</v>
       </c>
       <c r="G1363" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="H1363" t="s">
         <v>9</v>
@@ -41602,7 +41605,7 @@
         <v>44.9700012207031</v>
       </c>
       <c r="G1364" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="H1364" t="s">
         <v>9</v>
@@ -41628,7 +41631,7 @@
         <v>45.2099990844727</v>
       </c>
       <c r="G1365" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="H1365" t="s">
         <v>9</v>
@@ -41654,7 +41657,7 @@
         <v>45.3199996948242</v>
       </c>
       <c r="G1366" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="H1366" t="s">
         <v>9</v>
@@ -41680,7 +41683,7 @@
         <v>45.689998626709</v>
       </c>
       <c r="G1367" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="H1367" t="s">
         <v>9</v>
@@ -41706,7 +41709,7 @@
         <v>46.4900016784668</v>
       </c>
       <c r="G1368" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="H1368" t="s">
         <v>9</v>
@@ -41732,7 +41735,7 @@
         <v>46.0400009155273</v>
       </c>
       <c r="G1369" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="H1369" t="s">
         <v>9</v>
@@ -41758,7 +41761,7 @@
         <v>46.3199996948242</v>
       </c>
       <c r="G1370" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -41784,7 +41787,7 @@
         <v>45.939998626709</v>
       </c>
       <c r="G1371" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -62540,7 +62543,7 @@
     </row>
     <row r="2170">
       <c r="A2170" s="1" t="n">
-        <v>45483.6495601852</v>
+        <v>45483.2916666667</v>
       </c>
       <c r="B2170" t="n">
         <v>143764</v>
@@ -62561,6 +62564,32 @@
         <v>1930</v>
       </c>
       <c r="H2170" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" s="1" t="n">
+        <v>45484.6501388889</v>
+      </c>
+      <c r="B2171" t="n">
+        <v>158098</v>
+      </c>
+      <c r="C2171" t="n">
+        <v>50.2999992370605</v>
+      </c>
+      <c r="D2171" t="n">
+        <v>49.7400016784668</v>
+      </c>
+      <c r="E2171" t="n">
+        <v>50.1500015258789</v>
+      </c>
+      <c r="F2171" t="n">
+        <v>50.25</v>
+      </c>
+      <c r="G2171" t="s">
+        <v>1931</v>
+      </c>
+      <c r="H2171" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/REC.MI.xlsx
+++ b/data/REC.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="1935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="1936">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,172 +38,172 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0686416625977</t>
+    <t xml:space="preserve">19.068639755249</t>
   </si>
   <si>
     <t xml:space="preserve">REC.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6574764251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3267593383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9637794494629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8105201721191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.657262802124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6975955963135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1087532043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2297477722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6086463928223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.544116973877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.527982711792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2942810058594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5281982421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4959373474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8266544342041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0280895233154</t>
+    <t xml:space="preserve">19.6574745178223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3267574310303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9637775421143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8105220794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6572608947754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6975936889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1087551116943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2297515869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.608642578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5441188812256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5279808044434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2942790985107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5282039642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4959354400635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8266525268555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0280933380127</t>
   </si>
   <si>
     <t xml:space="preserve">18.3910732269287</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7540531158447</t>
+    <t xml:space="preserve">18.7540588378906</t>
   </si>
   <si>
     <t xml:space="preserve">18.1329517364502</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8990345001221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2779293060303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1325225830078</t>
+    <t xml:space="preserve">17.8990287780762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2779312133789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1325206756592</t>
   </si>
   <si>
     <t xml:space="preserve">15.6727428436279</t>
   </si>
   <si>
-    <t xml:space="preserve">15.793737411499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3825702667236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5197048187256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1327381134033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8183670043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6812400817871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0119590759277</t>
+    <t xml:space="preserve">15.7937355041504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3825740814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5197010040283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.132740020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8183689117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6812419891357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0119571685791</t>
   </si>
   <si>
     <t xml:space="preserve">18.4233379364014</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4475383758545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7217884063721</t>
+    <t xml:space="preserve">18.4475421905518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7217903137207</t>
   </si>
   <si>
     <t xml:space="preserve">17.0601406097412</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0036754608154</t>
+    <t xml:space="preserve">17.0036735534668</t>
   </si>
   <si>
     <t xml:space="preserve">17.5199165344238</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6893081665039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9151649475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0684242248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6731815338135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4392547607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3666591644287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1811332702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5037822723389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1650047302246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.447322845459</t>
+    <t xml:space="preserve">17.6893062591553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.915168762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0684261322021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6731796264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4392566680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3666610717773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1811370849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5037879943848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1650009155273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4473209381104</t>
   </si>
   <si>
     <t xml:space="preserve">17.5521850585938</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6409091949463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.576379776001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3585910797119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4069900512695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5118465423584</t>
+    <t xml:space="preserve">17.6409130096436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5763835906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3585872650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4069919586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.511848449707</t>
   </si>
   <si>
     <t xml:space="preserve">17.3182601928711</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6247787475586</t>
+    <t xml:space="preserve">17.6247806549072</t>
   </si>
   <si>
     <t xml:space="preserve">17.7457733154297</t>
@@ -212,145 +212,145 @@
     <t xml:space="preserve">17.7538394927979</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8748359680176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7861042022705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1490821838379</t>
+    <t xml:space="preserve">17.874828338623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7861022949219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1490859985352</t>
   </si>
   <si>
     <t xml:space="preserve">18.2136173248291</t>
   </si>
   <si>
-    <t xml:space="preserve">18.124885559082</t>
+    <t xml:space="preserve">18.1248893737793</t>
   </si>
   <si>
     <t xml:space="preserve">18.1006870269775</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1168193817139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0442218780518</t>
+    <t xml:space="preserve">18.1168231964111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0442237854004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0764904022217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4443969726562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.370813369751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.199125289917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2808818817139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0437870025635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1091938018799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1745986938477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3544654846191</t>
   </si>
   <si>
     <t xml:space="preserve">18.076488494873</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4443988800049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3708114624023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.199125289917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2808837890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0437889099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1091938018799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.174596786499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3544654846191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0764904022217</t>
-  </si>
-  <si>
     <t xml:space="preserve">18.1418952941895</t>
   </si>
   <si>
     <t xml:space="preserve">18.0928382873535</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2727031707764</t>
+    <t xml:space="preserve">18.2727069854736</t>
   </si>
   <si>
     <t xml:space="preserve">18.5752086639404</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6651420593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3846035003662</t>
+    <t xml:space="preserve">18.6651382446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3846015930176</t>
   </si>
   <si>
     <t xml:space="preserve">19.687105178833</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6217002868652</t>
+    <t xml:space="preserve">19.6216983795166</t>
   </si>
   <si>
     <t xml:space="preserve">19.4418334960938</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7688617706299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7443313598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7933883666992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9487266540527</t>
+    <t xml:space="preserve">19.7688636779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7443332672119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7933864593506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9487247467041</t>
   </si>
   <si>
     <t xml:space="preserve">20.0059566497803</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8562278747559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0033950805664</t>
+    <t xml:space="preserve">20.8562259674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0033931732178</t>
   </si>
   <si>
     <t xml:space="preserve">21.1996097564697</t>
   </si>
   <si>
-    <t xml:space="preserve">21.101505279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2486667633057</t>
+    <t xml:space="preserve">21.1015033721924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2486686706543</t>
   </si>
   <si>
     <t xml:space="preserve">21.5511684417725</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6901531219482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6983299255371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0580596923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2297534942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8700180053711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7964344024658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3115043640137</t>
+    <t xml:space="preserve">21.6901550292969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6983318328857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0580577850342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2297515869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8700199127197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7964363098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3115081787109</t>
   </si>
   <si>
     <t xml:space="preserve">22.2706298828125</t>
   </si>
   <si>
-    <t xml:space="preserve">21.951774597168</t>
+    <t xml:space="preserve">21.9517784118652</t>
   </si>
   <si>
     <t xml:space="preserve">21.2568416595459</t>
@@ -365,91 +365,91 @@
     <t xml:space="preserve">21.1423778533936</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7335968017578</t>
+    <t xml:space="preserve">20.7335987091064</t>
   </si>
   <si>
     <t xml:space="preserve">21.4285278320312</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7065029144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6084003448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9435997009277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8071804046631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6656265258789</t>
+    <t xml:space="preserve">21.7065048217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6083984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9436016082764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8071784973145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6656246185303</t>
   </si>
   <si>
     <t xml:space="preserve">21.9599514007568</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0744132995605</t>
+    <t xml:space="preserve">22.0744094848633</t>
   </si>
   <si>
     <t xml:space="preserve">22.0989418029785</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0907611846924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9926528930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8536682128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.188871383667</t>
+    <t xml:space="preserve">22.090763092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9926509857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8536701202393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1888694763184</t>
   </si>
   <si>
     <t xml:space="preserve">22.9165115356445</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1372528076172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9982662200928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7529983520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5567760467529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7448177337646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6303596496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0636711120605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5133361816406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4806327819824</t>
+    <t xml:space="preserve">23.1372547149658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9982681274414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7529964447021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5567817687988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7448196411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6303615570068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0636749267578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5133380889893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4806308746338</t>
   </si>
   <si>
     <t xml:space="preserve">23.5215110778809</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2271862030029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6850242614746</t>
+    <t xml:space="preserve">23.2271842956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6850280761719</t>
   </si>
   <si>
     <t xml:space="preserve">23.6604976654053</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5296859741211</t>
+    <t xml:space="preserve">23.5296878814697</t>
   </si>
   <si>
     <t xml:space="preserve">23.7177276611328</t>
@@ -458,85 +458,85 @@
     <t xml:space="preserve">24.0038795471191</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5869178771973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9655609130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3498249053955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0881958007812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0227909088135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2598896026611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2190113067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3743495941162</t>
+    <t xml:space="preserve">23.5869159698486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9655647277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3498229980469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0881977081299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0227966308594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2598876953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2190093994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3743534088135</t>
   </si>
   <si>
     <t xml:space="preserve">22.7366428375244</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7284698486328</t>
+    <t xml:space="preserve">22.7284622192383</t>
   </si>
   <si>
     <t xml:space="preserve">22.2951564788818</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4341449737549</t>
+    <t xml:space="preserve">22.4341430664062</t>
   </si>
   <si>
     <t xml:space="preserve">22.1479930877686</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3033313751221</t>
+    <t xml:space="preserve">22.3033332824707</t>
   </si>
   <si>
     <t xml:space="preserve">22.4259662628174</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5240783691406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0171794891357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0417079925537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3605632781982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1725177764893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.92724609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1970443725586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0825843811035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8020496368408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5158996582031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8863677978516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.804615020752</t>
+    <t xml:space="preserve">22.524076461792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0171775817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.041711807251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3605613708496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1725215911865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9272499084473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1970481872559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0825881958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8020515441895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5158977508545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8863697052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8046131134033</t>
   </si>
   <si>
     <t xml:space="preserve">21.7473831176758</t>
@@ -551,31 +551,31 @@
     <t xml:space="preserve">21.9844799041748</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2052249908447</t>
+    <t xml:space="preserve">22.2052192687988</t>
   </si>
   <si>
     <t xml:space="preserve">22.2215747833252</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4423198699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4831981658936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2435359954834</t>
+    <t xml:space="preserve">22.4423179626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4831962585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2435417175293</t>
   </si>
   <si>
     <t xml:space="preserve">23.4561080932617</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3907032012939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2762432098389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2026596069336</t>
+    <t xml:space="preserve">23.3907012939453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2762413024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2026615142822</t>
   </si>
   <si>
     <t xml:space="preserve">23.1536026000977</t>
@@ -587,22 +587,22 @@
     <t xml:space="preserve">22.9246826171875</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1127300262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3360328674316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5077247619629</t>
+    <t xml:space="preserve">23.1127243041992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3360347747803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5077266693115</t>
   </si>
   <si>
     <t xml:space="preserve">22.0335330963135</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1643486022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0662364959717</t>
+    <t xml:space="preserve">22.1643447875977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.066234588623</t>
   </si>
   <si>
     <t xml:space="preserve">21.9108943939209</t>
@@ -614,85 +614,85 @@
     <t xml:space="preserve">21.0769748687744</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6191310882568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9298114776611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0279235839844</t>
+    <t xml:space="preserve">20.6191368103027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9298133850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0279197692871</t>
   </si>
   <si>
     <t xml:space="preserve">20.5700798034668</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0851535797119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0008277893066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2977199554443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3385963439941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9052867889404</t>
+    <t xml:space="preserve">21.085147857666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0008296966553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2977161407471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3385944366455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9052886962891</t>
   </si>
   <si>
     <t xml:space="preserve">20.7826499938965</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0360908508301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9863662719727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4641952514648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7791500091553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.027811050415</t>
+    <t xml:space="preserve">21.0360946655273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9863681793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4641933441162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7791519165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0278072357178</t>
   </si>
   <si>
     <t xml:space="preserve">21.1024036407471</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8537502288818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1355609893799</t>
+    <t xml:space="preserve">20.8537483215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1355590820312</t>
   </si>
   <si>
     <t xml:space="preserve">21.293041229248</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5636558532715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8951950073242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1189842224121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3427677154541</t>
+    <t xml:space="preserve">20.5636539459229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8951873779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1189804077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3427715301514</t>
   </si>
   <si>
     <t xml:space="preserve">21.2847518920898</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1604270935059</t>
+    <t xml:space="preserve">21.1604251861572</t>
   </si>
   <si>
     <t xml:space="preserve">21.5499820709229</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2515926361084</t>
+    <t xml:space="preserve">21.251594543457</t>
   </si>
   <si>
     <t xml:space="preserve">21.5251140594482</t>
@@ -701,37 +701,37 @@
     <t xml:space="preserve">21.2018661499023</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9146709442139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1716175079346</t>
+    <t xml:space="preserve">21.9146728515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1716136932373</t>
   </si>
   <si>
     <t xml:space="preserve">22.337381362915</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1053085327148</t>
+    <t xml:space="preserve">22.1053047180176</t>
   </si>
   <si>
     <t xml:space="preserve">21.9063873291016</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7240371704102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3208084106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4285545349121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1633224487305</t>
+    <t xml:space="preserve">21.7240390777588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3208026885986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4285564422607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1633243560791</t>
   </si>
   <si>
     <t xml:space="preserve">22.3125171661377</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6357669830322</t>
+    <t xml:space="preserve">22.6357650756836</t>
   </si>
   <si>
     <t xml:space="preserve">22.5611705780029</t>
@@ -740,37 +740,37 @@
     <t xml:space="preserve">22.6772117614746</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0419025421143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0253257751465</t>
+    <t xml:space="preserve">23.0419006347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0253238677979</t>
   </si>
   <si>
     <t xml:space="preserve">22.536304473877</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0667686462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6191902160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9507350921631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7932510375977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8264064788818</t>
+    <t xml:space="preserve">23.066764831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6191921234131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9507293701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.793249130249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8264026641846</t>
   </si>
   <si>
     <t xml:space="preserve">22.602611541748</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6109027862549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.577751159668</t>
+    <t xml:space="preserve">22.6109066009521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5777492523193</t>
   </si>
   <si>
     <t xml:space="preserve">22.2793636322021</t>
@@ -779,16 +779,16 @@
     <t xml:space="preserve">22.4617118835449</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4368476867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8069229125977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8898105621338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0638675689697</t>
+    <t xml:space="preserve">22.4368438720703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.806921005249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8898029327393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0638656616211</t>
   </si>
   <si>
     <t xml:space="preserve">22.2544975280762</t>
@@ -806,7 +806,7 @@
     <t xml:space="preserve">23.2822685241699</t>
   </si>
   <si>
-    <t xml:space="preserve">23.398307800293</t>
+    <t xml:space="preserve">23.3983058929443</t>
   </si>
   <si>
     <t xml:space="preserve">23.4563255310059</t>
@@ -815,28 +815,28 @@
     <t xml:space="preserve">23.6883983612061</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4231700897217</t>
+    <t xml:space="preserve">23.4231758117676</t>
   </si>
   <si>
     <t xml:space="preserve">23.9287662506104</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0282287597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4509391784668</t>
+    <t xml:space="preserve">24.028226852417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4509410858154</t>
   </si>
   <si>
     <t xml:space="preserve">24.417781829834</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3431911468506</t>
+    <t xml:space="preserve">24.3431873321533</t>
   </si>
   <si>
     <t xml:space="preserve">24.7824783325195</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8404941558838</t>
+    <t xml:space="preserve">24.8404960632324</t>
   </si>
   <si>
     <t xml:space="preserve">24.7741889953613</t>
@@ -845,55 +845,55 @@
     <t xml:space="preserve">25.0891513824463</t>
   </si>
   <si>
-    <t xml:space="preserve">25.155460357666</t>
+    <t xml:space="preserve">25.1554584503174</t>
   </si>
   <si>
     <t xml:space="preserve">25.0062675476074</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1057262420654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2714996337891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5533046722412</t>
+    <t xml:space="preserve">25.1057281494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2714977264404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5533027648926</t>
   </si>
   <si>
     <t xml:space="preserve">25.5450134277344</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8019580841064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9262866973877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2080955505371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4070148468018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4401664733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9594421386719</t>
+    <t xml:space="preserve">25.8019561767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9262809753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2080917358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4070167541504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4401683807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9594383239746</t>
   </si>
   <si>
     <t xml:space="preserve">25.8765525817871</t>
   </si>
   <si>
-    <t xml:space="preserve">26.125207901001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2992649078369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2412433624268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.605936050415</t>
+    <t xml:space="preserve">26.1252059936523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2992668151855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.241247177124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6059341430664</t>
   </si>
   <si>
     <t xml:space="preserve">26.3655757904053</t>
@@ -902,55 +902,55 @@
     <t xml:space="preserve">26.1666469573975</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2495346069336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3324165344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5644931793213</t>
+    <t xml:space="preserve">26.2495365142822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3324146270752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5644950866699</t>
   </si>
   <si>
     <t xml:space="preserve">26.9374752044678</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9540519714355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2192859649658</t>
+    <t xml:space="preserve">26.9540576934814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2192840576172</t>
   </si>
   <si>
     <t xml:space="preserve">27.0369358062744</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0120716094971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4099178314209</t>
+    <t xml:space="preserve">27.0120754241943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.409912109375</t>
   </si>
   <si>
     <t xml:space="preserve">27.6751461029053</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6254177093506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.385046005249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6585712432861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0647048950195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5093841552734</t>
+    <t xml:space="preserve">27.6254138946533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3850517272949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6585731506348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0647068023682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5093765258789</t>
   </si>
   <si>
     <t xml:space="preserve">28.7407703399658</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5145988464355</t>
+    <t xml:space="preserve">28.5145950317383</t>
   </si>
   <si>
     <t xml:space="preserve">28.4810886383057</t>
@@ -959,181 +959,181 @@
     <t xml:space="preserve">28.7742748260498</t>
   </si>
   <si>
-    <t xml:space="preserve">28.4894638061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8412914276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6067371368408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6737518310547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4276657104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8381233215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8129920959473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5669097900391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.659049987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5752830505371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7543544769287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9386463165283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0307922363281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9302673339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8716373443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0475444793701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8967590332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2485942840576</t>
+    <t xml:space="preserve">28.489465713501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8412857055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6067447662354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6737537384033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.427661895752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8381252288818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8129978179932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5669021606445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6590557098389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5752849578857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.754358291626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.938648223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0307998657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.930269241333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8716316223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0475463867188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8967628479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2485885620117</t>
   </si>
   <si>
     <t xml:space="preserve">29.4695491790771</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5700664520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9972839355469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7480335235596</t>
+    <t xml:space="preserve">29.5700645446777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9972820281982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7480411529541</t>
   </si>
   <si>
     <t xml:space="preserve">30.75119972229</t>
   </si>
   <si>
-    <t xml:space="preserve">30.8768501281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3826236724854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5585327148438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5920429229736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0391750335693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5250186920166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2202930450439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0276374816895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2538089752197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4967308044434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1700420379639</t>
+    <t xml:space="preserve">30.8768558502197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3826198577881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5585250854492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5920333862305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.039176940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5250282287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2202987670898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0276317596436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2538051605225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4967346191406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.170036315918</t>
   </si>
   <si>
     <t xml:space="preserve">31.3291988372803</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3658676147461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5449466705322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1512260437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6538391113281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7292327880859</t>
+    <t xml:space="preserve">30.3658714294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5449371337891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1512298583984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6538410186768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7292308807373</t>
   </si>
   <si>
     <t xml:space="preserve">29.2852611541748</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2266216278076</t>
+    <t xml:space="preserve">29.226619720459</t>
   </si>
   <si>
     <t xml:space="preserve">29.5198097229004</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3355255126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6957244873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.394157409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6789627075195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7459850311279</t>
+    <t xml:space="preserve">29.335521697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6957206726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3941555023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6789722442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7459812164307</t>
   </si>
   <si>
     <t xml:space="preserve">30.2234592437744</t>
   </si>
   <si>
-    <t xml:space="preserve">30.240213394165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1732025146484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9051418304443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7711143493652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9554023742676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7878684997559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7208499908447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8548851013184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3271446228027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0423316955566</t>
+    <t xml:space="preserve">30.2402153015137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1731929779053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9051456451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7711181640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9554004669189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7878704071045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7208461761475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8548831939697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3271427154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0423336029053</t>
   </si>
   <si>
     <t xml:space="preserve">29.4360389709473</t>
@@ -1142,64 +1142,64 @@
     <t xml:space="preserve">29.4946804046631</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2517471313477</t>
+    <t xml:space="preserve">29.2517547607422</t>
   </si>
   <si>
     <t xml:space="preserve">29.2768840789795</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6203308105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.360652923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6873397827148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5868244171143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4611682891846</t>
+    <t xml:space="preserve">29.6203365325928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3606510162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6873435974121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5868225097656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4611701965332</t>
   </si>
   <si>
     <t xml:space="preserve">29.863260269165</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1396903991699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4496307373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3239803314209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.298849105835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5166473388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.977367401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1784133911133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.136531829834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2454261779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3710823059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.985746383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2286701202393</t>
+    <t xml:space="preserve">30.1396865844727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4496326446533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3239841461182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2988471984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5166492462158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9773769378662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.178409576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1365280151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2454204559326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3710784912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9857501983643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2286739349365</t>
   </si>
   <si>
     <t xml:space="preserve">31.5637435913086</t>
@@ -1211,19 +1211,19 @@
     <t xml:space="preserve">32.2171363830566</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7281303405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6359825134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.543830871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0045585632324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6694869995117</t>
+    <t xml:space="preserve">32.7281227111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6359710693359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5438270568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0045547485352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6694831848145</t>
   </si>
   <si>
     <t xml:space="preserve">32.9794235229492</t>
@@ -1232,34 +1232,34 @@
     <t xml:space="preserve">32.7867584228516</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0129356384277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1218338012695</t>
+    <t xml:space="preserve">33.0129280090332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.121826171875</t>
   </si>
   <si>
     <t xml:space="preserve">33.1469573974609</t>
   </si>
   <si>
-    <t xml:space="preserve">33.389892578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3647575378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5741729736328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3312492370605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5909233093262</t>
+    <t xml:space="preserve">33.3898887634277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3647613525391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5741767883301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3312454223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5909309387207</t>
   </si>
   <si>
     <t xml:space="preserve">33.1804695129395</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2307319641113</t>
+    <t xml:space="preserve">33.2307243347168</t>
   </si>
   <si>
     <t xml:space="preserve">33.1134490966797</t>
@@ -1271,25 +1271,25 @@
     <t xml:space="preserve">33.456901550293</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6579399108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1720886230469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2558631896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4150161743164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5993041992188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.431770324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7249526977539</t>
+    <t xml:space="preserve">33.6579437255859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1720924377441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.255859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4150199890137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5993118286133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4317817687988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7249641418457</t>
   </si>
   <si>
     <t xml:space="preserve">33.3480033874512</t>
@@ -1298,19 +1298,19 @@
     <t xml:space="preserve">34.009765625</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8924942016602</t>
+    <t xml:space="preserve">33.8924980163574</t>
   </si>
   <si>
     <t xml:space="preserve">33.3228721618652</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5071640014648</t>
+    <t xml:space="preserve">33.5071601867676</t>
   </si>
   <si>
     <t xml:space="preserve">32.6024627685547</t>
   </si>
   <si>
-    <t xml:space="preserve">32.510326385498</t>
+    <t xml:space="preserve">32.5103187561035</t>
   </si>
   <si>
     <t xml:space="preserve">32.3427886962891</t>
@@ -1322,97 +1322,97 @@
     <t xml:space="preserve">31.9742107391357</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3679237365723</t>
+    <t xml:space="preserve">32.367919921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8653163909912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4243507385254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4667015075684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3481178283691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3989410400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1787147521973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1702346801758</t>
   </si>
   <si>
     <t xml:space="preserve">31.8653125762939</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4243469238281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4667091369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3481140136719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3989372253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1787109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.170238494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8653049468994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0177764892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.873779296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0940055847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8055152893066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4497680664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2295379638672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7631607055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7208137512207</t>
+    <t xml:space="preserve">32.0177803039551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8737831115723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0940093994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8055076599121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.449764251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2295341491699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7631568908691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7208061218262</t>
   </si>
   <si>
     <t xml:space="preserve">32.7885780334473</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0093116760254</t>
+    <t xml:space="preserve">32.0093040466309</t>
   </si>
   <si>
     <t xml:space="preserve">31.3570861816406</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9759273529053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5519008636475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5349731445312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9844017028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8742847442627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3401508331299</t>
+    <t xml:space="preserve">30.975923538208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.551908493042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.534969329834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9843940734863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8742809295654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3401546478271</t>
   </si>
   <si>
     <t xml:space="preserve">31.6196670532227</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6704940795898</t>
+    <t xml:space="preserve">31.6704978942871</t>
   </si>
   <si>
     <t xml:space="preserve">31.3909759521484</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5942535400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4417953491211</t>
+    <t xml:space="preserve">31.5942573547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4417915344238</t>
   </si>
   <si>
     <t xml:space="preserve">31.9330730438232</t>
@@ -1421,67 +1421,67 @@
     <t xml:space="preserve">32.492115020752</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6276397705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.780101776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5429344177246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3565902709961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6953964233398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2888259887695</t>
+    <t xml:space="preserve">32.6276359558105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7801055908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5429306030273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3565940856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6954002380371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.288818359375</t>
   </si>
   <si>
     <t xml:space="preserve">32.1194152832031</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7128448486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9669532775879</t>
+    <t xml:space="preserve">31.7128372192383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9669494628906</t>
   </si>
   <si>
     <t xml:space="preserve">32.6615180969238</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0347175598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5259895324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4672012329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0606250762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6794700622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8832626342773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2225780487061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1891937255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.442798614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0711154937744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1478519439697</t>
+    <t xml:space="preserve">32.0347137451172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.525993347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4672050476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0606288909912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6794662475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8832569122314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2225761413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1891899108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4428024291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0711116790771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1478500366211</t>
   </si>
   <si>
     <t xml:space="preserve">25.571870803833</t>
@@ -1496,133 +1496,133 @@
     <t xml:space="preserve">25.9869155883789</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3680782318115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4278755187988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9874153137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8180122375488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6147232055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.326229095459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1568241119385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9450664520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6231937408447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0218048095703</t>
+    <t xml:space="preserve">26.3680763244629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4278774261475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.987419128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8180103302002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6147212982178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3262310028076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1568222045898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9450645446777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6231918334961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0218029022217</t>
   </si>
   <si>
     <t xml:space="preserve">24.4707279205322</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5469608306885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3516426086426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2415237426758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4871654510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1229438781738</t>
+    <t xml:space="preserve">24.5469627380371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3516407012939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.241527557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4871635437012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1229457855225</t>
   </si>
   <si>
     <t xml:space="preserve">24.699426651001</t>
   </si>
   <si>
-    <t xml:space="preserve">24.978946685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8349494934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6062507629395</t>
+    <t xml:space="preserve">24.9789505004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8349514007568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6062526702881</t>
   </si>
   <si>
     <t xml:space="preserve">24.2250881195068</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1234474182129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.072624206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0387439727783</t>
+    <t xml:space="preserve">24.1234436035156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0726222991943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0387382507324</t>
   </si>
   <si>
     <t xml:space="preserve">23.3102970123291</t>
   </si>
   <si>
-    <t xml:space="preserve">23.7168712615967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4453182220459</t>
+    <t xml:space="preserve">23.716869354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4453201293945</t>
   </si>
   <si>
     <t xml:space="preserve">25.3939914703369</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0043563842773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.309289932251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.283878326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0128326416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0467090606689</t>
+    <t xml:space="preserve">25.004358291626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3092880249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2838802337646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0128288269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0467052459717</t>
   </si>
   <si>
     <t xml:space="preserve">24.8264808654785</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1314105987549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0721225738525</t>
+    <t xml:space="preserve">25.1314125061035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0721187591553</t>
   </si>
   <si>
     <t xml:space="preserve">25.2754096984863</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4902629852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2152500152588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4386978149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3871307373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4816646575928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5129680633545</t>
+    <t xml:space="preserve">25.4902648925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2152519226074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4386940002441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3871326446533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4816665649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5129642486572</t>
   </si>
   <si>
     <t xml:space="preserve">26.2723293304443</t>
@@ -1637,37 +1637,37 @@
     <t xml:space="preserve">26.2981109619141</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3926486968994</t>
+    <t xml:space="preserve">26.392650604248</t>
   </si>
   <si>
     <t xml:space="preserve">26.1090393066406</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2121715545654</t>
+    <t xml:space="preserve">26.2121696472168</t>
   </si>
   <si>
     <t xml:space="preserve">26.504373550415</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3840560913086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8769989013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6387977600098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4325428009033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6989574432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5614547729492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5184841156006</t>
+    <t xml:space="preserve">26.38405418396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8770008087158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6387996673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.432544708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6989593505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.561450958252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.518482208252</t>
   </si>
   <si>
     <t xml:space="preserve">27.5786418914795</t>
@@ -1676,73 +1676,73 @@
     <t xml:space="preserve">27.6130180358887</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2434749603271</t>
+    <t xml:space="preserve">27.2434730529785</t>
   </si>
   <si>
     <t xml:space="preserve">27.1059646606445</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2606563568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3465976715088</t>
+    <t xml:space="preserve">27.2606582641602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3465995788574</t>
   </si>
   <si>
     <t xml:space="preserve">27.2950344085693</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2919521331787</t>
+    <t xml:space="preserve">28.291955947876</t>
   </si>
   <si>
     <t xml:space="preserve">28.3607063293457</t>
   </si>
   <si>
-    <t xml:space="preserve">28.317741394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9739742279053</t>
+    <t xml:space="preserve">28.3177394866943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9739723205566</t>
   </si>
   <si>
     <t xml:space="preserve">28.1630439758301</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2232074737549</t>
+    <t xml:space="preserve">28.2231998443604</t>
   </si>
   <si>
     <t xml:space="preserve">28.6185321807861</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2317905426025</t>
+    <t xml:space="preserve">28.2317981719971</t>
   </si>
   <si>
     <t xml:space="preserve">28.0942897796631</t>
   </si>
   <si>
-    <t xml:space="preserve">28.841983795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6326389312744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.357629776001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4263877868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5497798919678</t>
+    <t xml:space="preserve">28.8419857025146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6326446533203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3576316833496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4263916015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.549783706665</t>
   </si>
   <si>
     <t xml:space="preserve">28.4982166290283</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8591728210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.824800491333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.271692276001</t>
+    <t xml:space="preserve">28.859167098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8247928619385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2716884613037</t>
   </si>
   <si>
     <t xml:space="preserve">25.6277675628662</t>
@@ -1751,13 +1751,13 @@
     <t xml:space="preserve">24.6050643920898</t>
   </si>
   <si>
-    <t xml:space="preserve">24.957426071167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2668132781982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.748083114624</t>
+    <t xml:space="preserve">24.9574279785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2668151855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7480850219727</t>
   </si>
   <si>
     <t xml:space="preserve">25.9973163604736</t>
@@ -1766,7 +1766,7 @@
     <t xml:space="preserve">26.6418800354004</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6504745483398</t>
+    <t xml:space="preserve">26.6504726409912</t>
   </si>
   <si>
     <t xml:space="preserve">26.3238925933838</t>
@@ -1775,37 +1775,37 @@
     <t xml:space="preserve">26.4184303283691</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8254337310791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6965217590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8082447052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8137607574463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.667667388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8911113739014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0544013977051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0372066497803</t>
+    <t xml:space="preserve">25.8254318237305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6965236663818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8082485198975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8137626647949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6676635742188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8911094665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0543975830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0372104644775</t>
   </si>
   <si>
     <t xml:space="preserve">26.7364177703857</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8997001647949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4841041564941</t>
+    <t xml:space="preserve">26.8997039794922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4841060638428</t>
   </si>
   <si>
     <t xml:space="preserve">27.5098876953125</t>
@@ -1814,22 +1814,22 @@
     <t xml:space="preserve">27.2348728179932</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5872364044189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7161502838135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9997577667236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.016939163208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8966236114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5012912750244</t>
+    <t xml:space="preserve">27.5872344970703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7161483764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.999755859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0169429779053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8966274261475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.501293182373</t>
   </si>
   <si>
     <t xml:space="preserve">27.2262783050537</t>
@@ -1841,25 +1841,25 @@
     <t xml:space="preserve">26.2379531860352</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5645275115967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4012451171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1520137786865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9285659790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9543476104736</t>
+    <t xml:space="preserve">26.5645294189453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4012413024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1520118713379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9285640716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9543495178223</t>
   </si>
   <si>
     <t xml:space="preserve">26.0660724639893</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9199676513672</t>
+    <t xml:space="preserve">25.9199695587158</t>
   </si>
   <si>
     <t xml:space="preserve">26.203577041626</t>
@@ -1868,79 +1868,79 @@
     <t xml:space="preserve">26.1176376342773</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2551403045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8340263366699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2207641601562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7566814422607</t>
+    <t xml:space="preserve">26.2551422119141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8340282440186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2207660675049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7566795349121</t>
   </si>
   <si>
     <t xml:space="preserve">25.5676116943359</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6105785369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4988536834717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3183765411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.223840713501</t>
+    <t xml:space="preserve">25.6105823516846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4988555908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.318380355835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2238445281982</t>
   </si>
   <si>
     <t xml:space="preserve">25.0261764526367</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2324352264404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3785419464111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.550422668457</t>
+    <t xml:space="preserve">25.2324371337891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3785381317139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5504207611084</t>
   </si>
   <si>
     <t xml:space="preserve">25.0605545043945</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2840023040771</t>
+    <t xml:space="preserve">25.2840003967285</t>
   </si>
   <si>
     <t xml:space="preserve">25.4215087890625</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3496761322021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0746631622314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6621494293213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7996520996094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9715328216553</t>
+    <t xml:space="preserve">26.3496799468994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0746650695801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6621475219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.799654006958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9715347290039</t>
   </si>
   <si>
     <t xml:space="preserve">25.0089893341064</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8628921508789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7253856658936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9144535064697</t>
+    <t xml:space="preserve">24.8628845214844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7253818511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9144554138184</t>
   </si>
   <si>
     <t xml:space="preserve">25.0691471099854</t>
@@ -1952,7 +1952,7 @@
     <t xml:space="preserve">25.773868560791</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5246391296387</t>
+    <t xml:space="preserve">25.52463722229</t>
   </si>
   <si>
     <t xml:space="preserve">25.6019878387451</t>
@@ -1961,19 +1961,19 @@
     <t xml:space="preserve">25.1722793579102</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0402870178223</t>
+    <t xml:space="preserve">26.0402889251709</t>
   </si>
   <si>
     <t xml:space="preserve">26.5817203521729</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7137126922607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8598117828369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.911376953125</t>
+    <t xml:space="preserve">25.7137088775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8598098754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9113731384277</t>
   </si>
   <si>
     <t xml:space="preserve">25.7394924163818</t>
@@ -1982,13 +1982,13 @@
     <t xml:space="preserve">25.8684043884277</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6363620758057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.980131149292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6535491943359</t>
+    <t xml:space="preserve">25.6363639831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9801292419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6535511016846</t>
   </si>
   <si>
     <t xml:space="preserve">25.4644794464111</t>
@@ -1997,61 +1997,61 @@
     <t xml:space="preserve">24.8542957305908</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9230499267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0433654785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1306571960449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7727680206299</t>
+    <t xml:space="preserve">24.9230461120605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0433673858643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1306552886963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7727661132812</t>
   </si>
   <si>
     <t xml:space="preserve">24.7640380859375</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3799648284912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3712348937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4323406219482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2315711975098</t>
+    <t xml:space="preserve">24.3799667358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3712368011475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4323387145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.231575012207</t>
   </si>
   <si>
     <t xml:space="preserve">24.7989540100098</t>
   </si>
   <si>
-    <t xml:space="preserve">25.13938331604</t>
+    <t xml:space="preserve">25.1393852233887</t>
   </si>
   <si>
     <t xml:space="preserve">25.1131992340088</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9648056030273</t>
+    <t xml:space="preserve">24.9648036956787</t>
   </si>
   <si>
     <t xml:space="preserve">24.4410667419434</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5283584594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.388692855835</t>
+    <t xml:space="preserve">24.5283603668213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3886966705322</t>
   </si>
   <si>
     <t xml:space="preserve">24.3537769317627</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8164138793945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7902240753174</t>
+    <t xml:space="preserve">24.8164119720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.790225982666</t>
   </si>
   <si>
     <t xml:space="preserve">25.052095413208</t>
@@ -2060,64 +2060,64 @@
     <t xml:space="preserve">25.3139629364014</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4885406494141</t>
+    <t xml:space="preserve">25.4885444641113</t>
   </si>
   <si>
     <t xml:space="preserve">25.8813438415527</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4487285614014</t>
+    <t xml:space="preserve">26.4487247467041</t>
   </si>
   <si>
     <t xml:space="preserve">27.0684833526611</t>
   </si>
   <si>
-    <t xml:space="preserve">26.439998626709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2043170928955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0122776031494</t>
+    <t xml:space="preserve">26.4400005340576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2043190002441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0122833251953</t>
   </si>
   <si>
     <t xml:space="preserve">26.2916030883789</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9686374664307</t>
+    <t xml:space="preserve">25.9686336517334</t>
   </si>
   <si>
     <t xml:space="preserve">25.8376998901367</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1170291900635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8638858795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7804317474365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8415279388428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9811935424805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6009502410889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2343311309814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.797887802124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3352489471436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.134485244751</t>
+    <t xml:space="preserve">26.1170272827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.863883972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7804279327393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8415298461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9811916351318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6009464263916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2343330383301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7978820800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3352470397949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1344871520996</t>
   </si>
   <si>
     <t xml:space="preserve">26.1606712341309</t>
@@ -2132,118 +2132,118 @@
     <t xml:space="preserve">27.6184062957764</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3914527893066</t>
+    <t xml:space="preserve">27.3914546966553</t>
   </si>
   <si>
     <t xml:space="preserve">28.0286693572998</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9364814758301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8928337097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1770553588867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6707820892334</t>
+    <t xml:space="preserve">28.9364795684814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8928318023682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.177059173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6707801818848</t>
   </si>
   <si>
     <t xml:space="preserve">27.9675674438477</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3516368865967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1896133422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2594547271729</t>
+    <t xml:space="preserve">28.351634979248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1896190643311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.259449005127</t>
   </si>
   <si>
     <t xml:space="preserve">29.5300483703613</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6435241699219</t>
+    <t xml:space="preserve">29.6435260772705</t>
   </si>
   <si>
     <t xml:space="preserve">29.1110572814941</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2681789398193</t>
+    <t xml:space="preserve">29.2681751251221</t>
   </si>
   <si>
     <t xml:space="preserve">28.8579196929932</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6571578979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6309661865234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8753757476807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7357063293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8666477203369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0761394500732</t>
+    <t xml:space="preserve">28.6571521759033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6309642791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8753795623779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.735710144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8666458129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0761413574219</t>
   </si>
   <si>
     <t xml:space="preserve">29.5475063323975</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6784420013428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6173439025879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4776763916016</t>
+    <t xml:space="preserve">29.6784381866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6173324584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4776744842529</t>
   </si>
   <si>
     <t xml:space="preserve">29.4427585601807</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0014133453369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1323413848877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4989643096924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4504108428955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5726165771484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0090675354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0789031982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9130535125732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1099910736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2060050964355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3282108306885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0401573181152</t>
+    <t xml:space="preserve">30.0014095306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1323471069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4989585876465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.45041847229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5726203918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0090637207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0789070129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9130573272705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1099872589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2059993743896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3282089233398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0401554107666</t>
   </si>
   <si>
     <t xml:space="preserve">29.9664974212646</t>
@@ -2252,7 +2252,7 @@
     <t xml:space="preserve">30.2981929779053</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5076904296875</t>
+    <t xml:space="preserve">30.5076885223389</t>
   </si>
   <si>
     <t xml:space="preserve">31.0663414001465</t>
@@ -2261,79 +2261,79 @@
     <t xml:space="preserve">31.2845706939697</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9703197479248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5027942657471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5464324951172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2671070098877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4766025543213</t>
+    <t xml:space="preserve">30.9703216552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5027904510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5464401245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2671051025391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4766044616699</t>
   </si>
   <si>
     <t xml:space="preserve">31.5638904571533</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6773777008057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5115165710449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9877815246582</t>
+    <t xml:space="preserve">31.6773738861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5115203857422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9877834320068</t>
   </si>
   <si>
     <t xml:space="preserve">31.7841644287109</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4126319885254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4391708374023</t>
+    <t xml:space="preserve">31.4126281738281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4391689300537</t>
   </si>
   <si>
     <t xml:space="preserve">32.0318603515625</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8195495605469</t>
+    <t xml:space="preserve">31.8195533752441</t>
   </si>
   <si>
     <t xml:space="preserve">31.8372440338135</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9964714050293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0141677856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3595581054688</t>
+    <t xml:space="preserve">31.9964828491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0141716003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3595504760742</t>
   </si>
   <si>
     <t xml:space="preserve">31.5453243255615</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2618598937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2887878417969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1118583679199</t>
+    <t xml:space="preserve">32.2618675231934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2887859344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1118621826172</t>
   </si>
   <si>
     <t xml:space="preserve">29.9618625640869</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5280170440674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.253396987915</t>
+    <t xml:space="preserve">30.528018951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2534046173096</t>
   </si>
   <si>
     <t xml:space="preserve">32.3591651916504</t>
@@ -2342,85 +2342,85 @@
     <t xml:space="preserve">32.3237800598145</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3326301574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8014717102051</t>
+    <t xml:space="preserve">32.3326225280762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8014755249023</t>
   </si>
   <si>
     <t xml:space="preserve">32.447624206543</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0053176879883</t>
+    <t xml:space="preserve">32.0053253173828</t>
   </si>
   <si>
     <t xml:space="preserve">32.4564781188965</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1557006835938</t>
+    <t xml:space="preserve">32.1557083129883</t>
   </si>
   <si>
     <t xml:space="preserve">32.3945541381836</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5980186462402</t>
+    <t xml:space="preserve">32.5980110168457</t>
   </si>
   <si>
     <t xml:space="preserve">32.6953163146973</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7307052612305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1907043457031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1818580627441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6153144836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5799369812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7037773132324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6860885620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2880172729492</t>
+    <t xml:space="preserve">32.7307014465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1907081604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1818656921387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6153182983398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5799331665039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7037811279297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.686092376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.288013458252</t>
   </si>
   <si>
     <t xml:space="preserve">33.270320892334</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0845527648926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7749366760254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2353248596191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.713005065918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.99609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0756950378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1203269958496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9345550537109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4299354553223</t>
+    <t xml:space="preserve">33.0845489501953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7749404907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2353210449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7130126953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9960899353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0757064819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1203231811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9345512390137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4299430847168</t>
   </si>
   <si>
     <t xml:space="preserve">32.5449333190918</t>
@@ -2429,31 +2429,31 @@
     <t xml:space="preserve">32.8987808227539</t>
   </si>
   <si>
-    <t xml:space="preserve">33.252628326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3764762878418</t>
+    <t xml:space="preserve">33.2526245117188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3764724731445</t>
   </si>
   <si>
     <t xml:space="preserve">33.8364715576172</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3676261901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0753211975098</t>
+    <t xml:space="preserve">33.3676223754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0753173828125</t>
   </si>
   <si>
     <t xml:space="preserve">34.0576286315918</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7653198242188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7918586730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6856994628906</t>
+    <t xml:space="preserve">34.7653160095215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.791862487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6857032775879</t>
   </si>
   <si>
     <t xml:space="preserve">35.0749359130859</t>
@@ -2465,16 +2465,16 @@
     <t xml:space="preserve">35.1810836791992</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3226203918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.729549407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4730110168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5526237487793</t>
+    <t xml:space="preserve">35.322624206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7295455932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4730072021484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5526275634766</t>
   </si>
   <si>
     <t xml:space="preserve">35.5083885192871</t>
@@ -2483,10 +2483,10 @@
     <t xml:space="preserve">35.1987800598145</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8533935546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8710861206055</t>
+    <t xml:space="preserve">35.8533821105957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8710823059082</t>
   </si>
   <si>
     <t xml:space="preserve">35.03955078125</t>
@@ -2495,88 +2495,88 @@
     <t xml:space="preserve">34.3495483398438</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4380149841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1191673278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2872352600098</t>
+    <t xml:space="preserve">34.4380111694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1191635131836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.287239074707</t>
   </si>
   <si>
     <t xml:space="preserve">34.6591644287109</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3760833740234</t>
+    <t xml:space="preserve">34.3760871887207</t>
   </si>
   <si>
     <t xml:space="preserve">33.7922439575195</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3230094909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5530090332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1814727783203</t>
+    <t xml:space="preserve">34.3230133056641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5530128479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.181468963623</t>
   </si>
   <si>
     <t xml:space="preserve">35.2518539428711</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9510841369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3668594360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.296085357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.242618560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6056976318359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2607002258301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9153137207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7914695739746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8445434570312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3314781188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3491668701172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8099327087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.906852722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7833938598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3672370910645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8980102539062</t>
+    <t xml:space="preserve">34.9510879516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3668556213379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2960891723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.2426223754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6057014465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2607040405273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9153175354004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7914733886719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8445472717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.331470489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3491592407227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.809928894043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9068565368652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7834014892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3672409057617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8980140686035</t>
   </si>
   <si>
     <t xml:space="preserve">35.1280059814453</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2076263427734</t>
+    <t xml:space="preserve">35.2076187133789</t>
   </si>
   <si>
     <t xml:space="preserve">34.5707054138184</t>
@@ -2588,7 +2588,7 @@
     <t xml:space="preserve">34.8095474243164</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8183937072754</t>
+    <t xml:space="preserve">34.8183975219727</t>
   </si>
   <si>
     <t xml:space="preserve">34.1903190612793</t>
@@ -2597,37 +2597,37 @@
     <t xml:space="preserve">32.8633995056152</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0403289794922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5714721679688</t>
+    <t xml:space="preserve">33.0403175354004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5714683532715</t>
   </si>
   <si>
     <t xml:space="preserve">33.022632598877</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4653244018555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7837829589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1464805603027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7657051086426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.137622833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3499336242676</t>
+    <t xml:space="preserve">32.4653205871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7837867736816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1464767456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7657012939453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1376304626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3499412536621</t>
   </si>
   <si>
     <t xml:space="preserve">32.5360908508301</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3149375915527</t>
+    <t xml:space="preserve">32.31494140625</t>
   </si>
   <si>
     <t xml:space="preserve">32.3414764404297</t>
@@ -2636,79 +2636,79 @@
     <t xml:space="preserve">32.606861114502</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8103256225586</t>
+    <t xml:space="preserve">32.8103218078613</t>
   </si>
   <si>
     <t xml:space="preserve">33.6330108642578</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3233947753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3768539428711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9253196716309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6599388122559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1553192138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1110916137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4649391174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5268630981445</t>
+    <t xml:space="preserve">33.3233985900879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3768653869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9253234863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6599349975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1553230285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1110877990723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4649314880371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5268592834473</t>
   </si>
   <si>
     <t xml:space="preserve">33.2939071655273</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1505584716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1271553039551</t>
+    <t xml:space="preserve">33.1505546569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1271514892578</t>
   </si>
   <si>
     <t xml:space="preserve">33.9569206237793</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3118286132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.535816192627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8583602905273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.437255859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1092338562012</t>
+    <t xml:space="preserve">33.311824798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5358123779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8583679199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4372634887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1092376708984</t>
   </si>
   <si>
     <t xml:space="preserve">32.3979454040527</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8907279968262</t>
+    <t xml:space="preserve">32.8907203674316</t>
   </si>
   <si>
     <t xml:space="preserve">32.9534454345703</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7921676635742</t>
+    <t xml:space="preserve">32.7921714782715</t>
   </si>
   <si>
     <t xml:space="preserve">32.7294502258301</t>
   </si>
   <si>
-    <t xml:space="preserve">31.743896484375</t>
+    <t xml:space="preserve">31.7438926696777</t>
   </si>
   <si>
     <t xml:space="preserve">32.2814750671387</t>
@@ -2717,25 +2717,25 @@
     <t xml:space="preserve">32.4785842895508</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6577796936035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6040229797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2043113708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8135643005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0017166137695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6702117919922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2257080078125</t>
+    <t xml:space="preserve">32.6577758789062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6040153503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2043190002441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8135681152344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0017127990723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6702156066895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2257041931152</t>
   </si>
   <si>
     <t xml:space="preserve">34.0106773376465</t>
@@ -2744,31 +2744,31 @@
     <t xml:space="preserve">33.6612510681152</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3421821594238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.831485748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9479522705078</t>
+    <t xml:space="preserve">34.3421859741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8314819335938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9479637145996</t>
   </si>
   <si>
     <t xml:space="preserve">34.7543258666992</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7364044189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7274475097656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.139591217041</t>
+    <t xml:space="preserve">34.7364082336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7274398803711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1395835876465</t>
   </si>
   <si>
     <t xml:space="preserve">35.6950798034668</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9603996276855</t>
+    <t xml:space="preserve">34.9603958129883</t>
   </si>
   <si>
     <t xml:space="preserve">35.3814964294434</t>
@@ -2777,13 +2777,13 @@
     <t xml:space="preserve">35.4621391296387</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8384323120117</t>
+    <t xml:space="preserve">35.8384437561035</t>
   </si>
   <si>
     <t xml:space="preserve">36.1251449584961</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0982704162598</t>
+    <t xml:space="preserve">36.0982627868652</t>
   </si>
   <si>
     <t xml:space="preserve">35.7757225036621</t>
@@ -2795,55 +2795,55 @@
     <t xml:space="preserve">35.5606880187988</t>
   </si>
   <si>
-    <t xml:space="preserve">34.610969543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2471008300781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8653144836426</t>
+    <t xml:space="preserve">34.6109657287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2471046447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8653182983398</t>
   </si>
   <si>
     <t xml:space="preserve">35.8563499450684</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2864112854004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0086669921875</t>
+    <t xml:space="preserve">36.2864189147949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0086708068848</t>
   </si>
   <si>
     <t xml:space="preserve">36.3670539855957</t>
   </si>
   <si>
-    <t xml:space="preserve">36.6627197265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.012149810791</t>
+    <t xml:space="preserve">36.6627235412598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0121459960938</t>
   </si>
   <si>
     <t xml:space="preserve">36.7343978881836</t>
   </si>
   <si>
-    <t xml:space="preserve">36.1520233154297</t>
+    <t xml:space="preserve">36.152027130127</t>
   </si>
   <si>
     <t xml:space="preserve">36.8239936828613</t>
   </si>
   <si>
-    <t xml:space="preserve">37.2092514038086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7737159729004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4028930664062</t>
+    <t xml:space="preserve">37.2092552185059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.7737083435059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4028968811035</t>
   </si>
   <si>
     <t xml:space="preserve">34.485538482666</t>
   </si>
   <si>
-    <t xml:space="preserve">34.619930267334</t>
+    <t xml:space="preserve">34.6199264526367</t>
   </si>
   <si>
     <t xml:space="preserve">35.6502876281738</t>
@@ -2855,10 +2855,10 @@
     <t xml:space="preserve">34.6557693481445</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4676208496094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1575088500977</t>
+    <t xml:space="preserve">34.4676170349121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1575126647949</t>
   </si>
   <si>
     <t xml:space="preserve">35.265022277832</t>
@@ -2870,7 +2870,7 @@
     <t xml:space="preserve">32.9892807006836</t>
   </si>
   <si>
-    <t xml:space="preserve">30.776252746582</t>
+    <t xml:space="preserve">30.7762565612793</t>
   </si>
   <si>
     <t xml:space="preserve">30.3103618621826</t>
@@ -2879,7 +2879,7 @@
     <t xml:space="preserve">25.3198547363281</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0594902038574</t>
+    <t xml:space="preserve">30.0594882965088</t>
   </si>
   <si>
     <t xml:space="preserve">29.6473484039307</t>
@@ -2888,16 +2888,16 @@
     <t xml:space="preserve">30.6149845123291</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1794376373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5646991729736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5736637115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.295919418335</t>
+    <t xml:space="preserve">31.1794414520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5647029876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5736675262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2959175109863</t>
   </si>
   <si>
     <t xml:space="preserve">32.3710708618164</t>
@@ -2906,7 +2906,7 @@
     <t xml:space="preserve">32.5681762695312</t>
   </si>
   <si>
-    <t xml:space="preserve">35.058952331543</t>
+    <t xml:space="preserve">35.0589561462402</t>
   </si>
   <si>
     <t xml:space="preserve">34.5303344726562</t>
@@ -2915,46 +2915,46 @@
     <t xml:space="preserve">33.7777290344238</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2167434692383</t>
+    <t xml:space="preserve">34.2167472839355</t>
   </si>
   <si>
     <t xml:space="preserve">33.2132759094238</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7329254150391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4820594787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9176025390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8494033813477</t>
+    <t xml:space="preserve">33.7329292297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4820556640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9176063537598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8493995666504</t>
   </si>
   <si>
     <t xml:space="preserve">34.494499206543</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2973861694336</t>
+    <t xml:space="preserve">34.2973823547363</t>
   </si>
   <si>
     <t xml:space="preserve">33.8225288391113</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7722396850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1898727416992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5930519104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.315299987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0141563415527</t>
+    <t xml:space="preserve">34.7722473144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.189868927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5930557250977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3153038024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.01416015625</t>
   </si>
   <si>
     <t xml:space="preserve">36.6000022888184</t>
@@ -2963,16 +2963,16 @@
     <t xml:space="preserve">35.5427665710449</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3725395202637</t>
+    <t xml:space="preserve">35.3725433349609</t>
   </si>
   <si>
     <t xml:space="preserve">36.277458190918</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7309188842773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6537628173828</t>
+    <t xml:space="preserve">35.7309226989746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6537666320801</t>
   </si>
   <si>
     <t xml:space="preserve">37.0927848815918</t>
@@ -2984,7 +2984,7 @@
     <t xml:space="preserve">38.6338310241699</t>
   </si>
   <si>
-    <t xml:space="preserve">39.14453125</t>
+    <t xml:space="preserve">39.1445350646973</t>
   </si>
   <si>
     <t xml:space="preserve">37.8991470336914</t>
@@ -3002,13 +3002,13 @@
     <t xml:space="preserve">37.6728286743164</t>
   </si>
   <si>
-    <t xml:space="preserve">37.328369140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2167091369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1623115539551</t>
+    <t xml:space="preserve">37.3283653259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2167053222656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1623153686523</t>
   </si>
   <si>
     <t xml:space="preserve">38.3798713684082</t>
@@ -3017,10 +3017,10 @@
     <t xml:space="preserve">37.4643440246582</t>
   </si>
   <si>
-    <t xml:space="preserve">37.8722496032715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.0926818847656</t>
+    <t xml:space="preserve">37.872241973877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0926895141602</t>
   </si>
   <si>
     <t xml:space="preserve">36.8479423522949</t>
@@ -3029,16 +3029,16 @@
     <t xml:space="preserve">37.2739791870117</t>
   </si>
   <si>
-    <t xml:space="preserve">37.1923942565918</t>
+    <t xml:space="preserve">37.1923904418945</t>
   </si>
   <si>
     <t xml:space="preserve">37.7816047668457</t>
   </si>
   <si>
-    <t xml:space="preserve">37.4824638366699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.364631652832</t>
+    <t xml:space="preserve">37.4824676513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.3646240234375</t>
   </si>
   <si>
     <t xml:space="preserve">37.6003074645996</t>
@@ -3047,49 +3047,49 @@
     <t xml:space="preserve">37.9719619750977</t>
   </si>
   <si>
-    <t xml:space="preserve">36.7482223510742</t>
+    <t xml:space="preserve">36.7482261657715</t>
   </si>
   <si>
     <t xml:space="preserve">36.7663612365723</t>
   </si>
   <si>
-    <t xml:space="preserve">37.6637535095215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5974197387695</t>
+    <t xml:space="preserve">37.6637573242188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5974235534668</t>
   </si>
   <si>
     <t xml:space="preserve">41.017692565918</t>
   </si>
   <si>
-    <t xml:space="preserve">40.093090057373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1445999145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1627349853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8244476318359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7910766601562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9633026123047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7094993591309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2925186157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1717872619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4528007507324</t>
+    <t xml:space="preserve">40.0930938720703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1445960998535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.162727355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8244552612305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.791072845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.963306427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7094955444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2925148010254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1717948913574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4527969360352</t>
   </si>
   <si>
     <t xml:space="preserve">41.5525131225586</t>
@@ -3098,10 +3098,10 @@
     <t xml:space="preserve">42.2776870727539</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6884841918945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6975440979004</t>
+    <t xml:space="preserve">41.6884803771973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6975479125977</t>
   </si>
   <si>
     <t xml:space="preserve">41.8335151672363</t>
@@ -3110,13 +3110,13 @@
     <t xml:space="preserve">41.3349571228027</t>
   </si>
   <si>
-    <t xml:space="preserve">42.3139419555664</t>
+    <t xml:space="preserve">42.3139381408691</t>
   </si>
   <si>
     <t xml:space="preserve">42.622142791748</t>
   </si>
   <si>
-    <t xml:space="preserve">42.9666023254395</t>
+    <t xml:space="preserve">42.9665985107422</t>
   </si>
   <si>
     <t xml:space="preserve">43.1569595336914</t>
@@ -3125,7 +3125,7 @@
     <t xml:space="preserve">43.8005485534668</t>
   </si>
   <si>
-    <t xml:space="preserve">44.1993942260742</t>
+    <t xml:space="preserve">44.1993980407715</t>
   </si>
   <si>
     <t xml:space="preserve">43.8096199035645</t>
@@ -3134,13 +3134,13 @@
     <t xml:space="preserve">43.2022819519043</t>
   </si>
   <si>
-    <t xml:space="preserve">43.6373901367188</t>
+    <t xml:space="preserve">43.6373863220215</t>
   </si>
   <si>
     <t xml:space="preserve">42.567756652832</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8940811157227</t>
+    <t xml:space="preserve">42.8940773010254</t>
   </si>
   <si>
     <t xml:space="preserve">42.903148651123</t>
@@ -3149,34 +3149,34 @@
     <t xml:space="preserve">42.7037239074707</t>
   </si>
   <si>
-    <t xml:space="preserve">41.4074745178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0086288452148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5253143310547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.5372734069824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4828720092773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4466171264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6279144287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3741035461426</t>
+    <t xml:space="preserve">41.4074783325195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0086326599121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.525318145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.5372619628906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4828796386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4466133117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6279067993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3740997314453</t>
   </si>
   <si>
     <t xml:space="preserve">41.8788375854492</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8545265197754</t>
+    <t xml:space="preserve">40.8545303344727</t>
   </si>
   <si>
     <t xml:space="preserve">41.5978355407715</t>
@@ -3200,7 +3200,7 @@
     <t xml:space="preserve">41.3984069824219</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0992813110352</t>
+    <t xml:space="preserve">41.0992774963379</t>
   </si>
   <si>
     <t xml:space="preserve">41.5071907043457</t>
@@ -3209,28 +3209,28 @@
     <t xml:space="preserve">40.736686706543</t>
   </si>
   <si>
-    <t xml:space="preserve">40.2290687561035</t>
+    <t xml:space="preserve">40.229061126709</t>
   </si>
   <si>
     <t xml:space="preserve">40.9723739624023</t>
   </si>
   <si>
-    <t xml:space="preserve">39.8302230834961</t>
+    <t xml:space="preserve">39.8302192687988</t>
   </si>
   <si>
     <t xml:space="preserve">40.9542388916016</t>
   </si>
   <si>
-    <t xml:space="preserve">40.655101776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9179725646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9995613098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.5463256835938</t>
+    <t xml:space="preserve">40.6551055908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9179763793945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9995651245117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.546329498291</t>
   </si>
   <si>
     <t xml:space="preserve">40.2109375</t>
@@ -3239,7 +3239,7 @@
     <t xml:space="preserve">40.6913642883301</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6460456848145</t>
+    <t xml:space="preserve">40.6460418701172</t>
   </si>
   <si>
     <t xml:space="preserve">40.582592010498</t>
@@ -3248,28 +3248,28 @@
     <t xml:space="preserve">40.7820129394531</t>
   </si>
   <si>
-    <t xml:space="preserve">40.4556846618652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.64892578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.7848930358887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9752502441406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3712158203125</t>
+    <t xml:space="preserve">40.455680847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.6489295959473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.7848892211914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9752540588379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3712120056152</t>
   </si>
   <si>
     <t xml:space="preserve">41.5343780517578</t>
   </si>
   <si>
-    <t xml:space="preserve">42.341136932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.023868560791</t>
+    <t xml:space="preserve">42.3411407470703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.0238723754883</t>
   </si>
   <si>
     <t xml:space="preserve">42.0782623291016</t>
@@ -3281,55 +3281,55 @@
     <t xml:space="preserve">42.8306274414062</t>
   </si>
   <si>
-    <t xml:space="preserve">42.25048828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8759536743164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.5405616760254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.283863067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2657318115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2566680908203</t>
+    <t xml:space="preserve">42.2504920959473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8759498596191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5405540466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.2838592529297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.2657356262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.2566719055176</t>
   </si>
   <si>
     <t xml:space="preserve">42.5133666992188</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9966773986816</t>
+    <t xml:space="preserve">41.9966812133789</t>
   </si>
   <si>
     <t xml:space="preserve">40.3287811279297</t>
   </si>
   <si>
-    <t xml:space="preserve">38.7787170410156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8364028930664</t>
+    <t xml:space="preserve">38.7787094116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8363990783691</t>
   </si>
   <si>
     <t xml:space="preserve">41.9060287475586</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9785499572754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6250267028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.319709777832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3440208435059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.615966796875</t>
+    <t xml:space="preserve">41.9785423278809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6250228881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3197135925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3440246582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6159591674805</t>
   </si>
   <si>
     <t xml:space="preserve">42.866886138916</t>
@@ -3338,121 +3338,121 @@
     <t xml:space="preserve">42.3502006530762</t>
   </si>
   <si>
-    <t xml:space="preserve">41.860710144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9332237243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2276229858398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1646270751953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7052841186523</t>
+    <t xml:space="preserve">41.8607177734375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9332275390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2276191711426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1646308898926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7052917480469</t>
   </si>
   <si>
     <t xml:space="preserve">41.1084938049316</t>
   </si>
   <si>
-    <t xml:space="preserve">41.520866394043</t>
+    <t xml:space="preserve">41.5208625793457</t>
   </si>
   <si>
     <t xml:space="preserve">40.8977241516113</t>
   </si>
   <si>
-    <t xml:space="preserve">40.1279754638672</t>
+    <t xml:space="preserve">40.1279716491699</t>
   </si>
   <si>
     <t xml:space="preserve">39.4406967163086</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3490524291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.5781478881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.008846282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4303779602051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2929191589355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3387413024902</t>
+    <t xml:space="preserve">39.3490562438965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.5781440734863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0088424682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4303741455078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2929153442383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.338737487793</t>
   </si>
   <si>
     <t xml:space="preserve">41.0260162353516</t>
   </si>
   <si>
-    <t xml:space="preserve">39.8072357177734</t>
+    <t xml:space="preserve">39.8072395324707</t>
   </si>
   <si>
     <t xml:space="preserve">40.677791595459</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3295707702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7511024475098</t>
+    <t xml:space="preserve">40.3295745849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.751106262207</t>
   </si>
   <si>
     <t xml:space="preserve">40.5861587524414</t>
   </si>
   <si>
-    <t xml:space="preserve">40.9802055358887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2367858886719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5391845703125</t>
+    <t xml:space="preserve">40.9801979064941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2367820739746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5391883850098</t>
   </si>
   <si>
     <t xml:space="preserve">41.3833999633789</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9172019958496</t>
+    <t xml:space="preserve">39.9172096252441</t>
   </si>
   <si>
     <t xml:space="preserve">38.4143524169922</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2116012573242</t>
+    <t xml:space="preserve">39.211597442627</t>
   </si>
   <si>
     <t xml:space="preserve">39.2574195861816</t>
   </si>
   <si>
-    <t xml:space="preserve">39.275749206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9721870422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1554641723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0180015563965</t>
+    <t xml:space="preserve">39.2757530212402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9721832275391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.155460357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.018009185791</t>
   </si>
   <si>
     <t xml:space="preserve">40.0546607971191</t>
   </si>
   <si>
-    <t xml:space="preserve">39.8805503845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9916687011719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.0833053588867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.3398933410645</t>
+    <t xml:space="preserve">39.880542755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9916648864746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.083309173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.3398895263672</t>
   </si>
   <si>
     <t xml:space="preserve">38.8725395202637</t>
@@ -3461,19 +3461,19 @@
     <t xml:space="preserve">38.9550094604492</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9458503723145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6067962646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.1474571228027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8438949584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3845520019531</t>
+    <t xml:space="preserve">38.9458465576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6067886352539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.1474533081055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8438987731934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3845558166504</t>
   </si>
   <si>
     <t xml:space="preserve">40.2654266357422</t>
@@ -3491,19 +3491,19 @@
     <t xml:space="preserve">41.7682800292969</t>
   </si>
   <si>
-    <t xml:space="preserve">41.4658737182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5025329589844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0901679992676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.5494995117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3204116821289</t>
+    <t xml:space="preserve">41.465877532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5025253295898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0901641845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.549503326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3204078674316</t>
   </si>
   <si>
     <t xml:space="preserve">40.0821533203125</t>
@@ -3512,19 +3512,19 @@
     <t xml:space="preserve">40.137134552002</t>
   </si>
   <si>
-    <t xml:space="preserve">38.7809104919434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9000282287598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.284912109375</t>
+    <t xml:space="preserve">38.7809028625488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9000358581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2849044799805</t>
   </si>
   <si>
     <t xml:space="preserve">39.220760345459</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6159591674805</t>
+    <t xml:space="preserve">38.6159553527832</t>
   </si>
   <si>
     <t xml:space="preserve">38.890869140625</t>
@@ -3533,16 +3533,16 @@
     <t xml:space="preserve">39.101634979248</t>
   </si>
   <si>
-    <t xml:space="preserve">39.4131965637207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0454978942871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.7247657775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0351753234863</t>
+    <t xml:space="preserve">39.413200378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0454940795898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.7247619628906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0351791381836</t>
   </si>
   <si>
     <t xml:space="preserve">41.3742408752441</t>
@@ -3551,10 +3551,10 @@
     <t xml:space="preserve">40.6228179931641</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3559150695801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8060874938965</t>
+    <t xml:space="preserve">41.3559112548828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8060836791992</t>
   </si>
   <si>
     <t xml:space="preserve">41.4383888244629</t>
@@ -3572,10 +3572,10 @@
     <t xml:space="preserve">41.4292182922363</t>
   </si>
   <si>
-    <t xml:space="preserve">41.676643371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4108963012695</t>
+    <t xml:space="preserve">41.6766395568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4108924865723</t>
   </si>
   <si>
     <t xml:space="preserve">41.3925628662109</t>
@@ -3584,34 +3584,34 @@
     <t xml:space="preserve">41.8232574462891</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0340232849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.9595680236816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.2997817993164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0798454284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.658317565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5758399963379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7499504089355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7316246032715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8965721130371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0523529052734</t>
+    <t xml:space="preserve">42.0340270996094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.9595642089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.2997741699219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.0798416137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6583137512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5758361816406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7499542236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7316207885742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8965759277344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.0523567199707</t>
   </si>
   <si>
     <t xml:space="preserve">42.1073379516602</t>
@@ -3620,19 +3620,19 @@
     <t xml:space="preserve">43.1886558532715</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0878524780273</t>
+    <t xml:space="preserve">43.0878562927246</t>
   </si>
   <si>
     <t xml:space="preserve">42.6480026245117</t>
   </si>
   <si>
-    <t xml:space="preserve">42.5746879577637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3089370727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1989669799805</t>
+    <t xml:space="preserve">42.5746841430664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3089408874512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.198974609375</t>
   </si>
   <si>
     <t xml:space="preserve">41.9057350158691</t>
@@ -3644,31 +3644,31 @@
     <t xml:space="preserve">41.9698791503906</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0248680114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2551078796387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0535049438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1188087463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0363311767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3753929138184</t>
+    <t xml:space="preserve">42.0248641967773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2551116943359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0535125732422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1188049316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0363349914551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3753967285156</t>
   </si>
   <si>
     <t xml:space="preserve">40.5036888122559</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2092895507812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5300178527832</t>
+    <t xml:space="preserve">41.2092933654785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5300254821777</t>
   </si>
   <si>
     <t xml:space="preserve">41.8690795898438</t>
@@ -3677,7 +3677,7 @@
     <t xml:space="preserve">42.602180480957</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6949119567871</t>
+    <t xml:space="preserve">42.6949157714844</t>
   </si>
   <si>
     <t xml:space="preserve">42.9545669555664</t>
@@ -3689,88 +3689,88 @@
     <t xml:space="preserve">42.0272254943848</t>
   </si>
   <si>
-    <t xml:space="preserve">42.463077545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1848754882812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1477851867676</t>
+    <t xml:space="preserve">42.4630813598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.184871673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1477813720703</t>
   </si>
   <si>
     <t xml:space="preserve">41.9437637329102</t>
   </si>
   <si>
-    <t xml:space="preserve">42.4167098999023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.7690963745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5480728149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.9004554748535</t>
+    <t xml:space="preserve">42.4167137145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.769100189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5480690002441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.9004592895508</t>
   </si>
   <si>
     <t xml:space="preserve">44.3270378112793</t>
   </si>
   <si>
-    <t xml:space="preserve">43.9282760620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1508483886719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.2435760498047</t>
+    <t xml:space="preserve">43.928279876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1508445739746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.243579864502</t>
   </si>
   <si>
     <t xml:space="preserve">44.4846878051758</t>
   </si>
   <si>
-    <t xml:space="preserve">44.8927154541016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.9761810302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.6701507568359</t>
+    <t xml:space="preserve">44.8927192687988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.9761772155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.6701545715332</t>
   </si>
   <si>
     <t xml:space="preserve">44.5866928100586</t>
   </si>
   <si>
-    <t xml:space="preserve">44.1044769287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.7443428039551</t>
+    <t xml:space="preserve">44.1044807434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.7443466186523</t>
   </si>
   <si>
     <t xml:space="preserve">44.7628936767578</t>
   </si>
   <si>
-    <t xml:space="preserve">44.9112663269043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.9019889831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.6979713439941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.1987419128418</t>
+    <t xml:space="preserve">44.911262512207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.9019927978516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.6979789733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.1987457275391</t>
   </si>
   <si>
     <t xml:space="preserve">45.1338272094727</t>
   </si>
   <si>
-    <t xml:space="preserve">45.1152801513672</t>
+    <t xml:space="preserve">45.1152839660645</t>
   </si>
   <si>
     <t xml:space="preserve">46.4599266052246</t>
   </si>
   <si>
-    <t xml:space="preserve">47.9807739257812</t>
+    <t xml:space="preserve">47.980770111084</t>
   </si>
   <si>
     <t xml:space="preserve">46.5526657104492</t>
@@ -3779,13 +3779,13 @@
     <t xml:space="preserve">48.7782897949219</t>
   </si>
   <si>
-    <t xml:space="preserve">48.0178642272949</t>
+    <t xml:space="preserve">48.0178680419922</t>
   </si>
   <si>
     <t xml:space="preserve">47.6283798217773</t>
   </si>
   <si>
-    <t xml:space="preserve">46.8494110107422</t>
+    <t xml:space="preserve">46.8494148254395</t>
   </si>
   <si>
     <t xml:space="preserve">46.8679618835449</t>
@@ -3794,34 +3794,34 @@
     <t xml:space="preserve">46.3300971984863</t>
   </si>
   <si>
-    <t xml:space="preserve">46.1724548339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.9421501159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.0534324645996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.5170974731445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.0163345336914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.2945365905762</t>
+    <t xml:space="preserve">46.1724586486816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.9421424865723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.0534362792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.5171012878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.0163307189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.2945404052734</t>
   </si>
   <si>
     <t xml:space="preserve">48.2218818664551</t>
   </si>
   <si>
-    <t xml:space="preserve">47.7396659851074</t>
+    <t xml:space="preserve">47.7396583557129</t>
   </si>
   <si>
     <t xml:space="preserve">48.3888053894043</t>
   </si>
   <si>
-    <t xml:space="preserve">48.8339309692383</t>
+    <t xml:space="preserve">48.833927154541</t>
   </si>
   <si>
     <t xml:space="preserve">49.4274291992188</t>
@@ -3833,7 +3833,7 @@
     <t xml:space="preserve">49.8910980224609</t>
   </si>
   <si>
-    <t xml:space="preserve">50.9482727050781</t>
+    <t xml:space="preserve">50.9482688903809</t>
   </si>
   <si>
     <t xml:space="preserve">50.9111824035645</t>
@@ -3842,16 +3842,16 @@
     <t xml:space="preserve">52.0981788635254</t>
   </si>
   <si>
-    <t xml:space="preserve">52.3392944335938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.7102279663086</t>
+    <t xml:space="preserve">52.3392906188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.7102317810059</t>
   </si>
   <si>
     <t xml:space="preserve">53.0069732666016</t>
   </si>
   <si>
-    <t xml:space="preserve">52.4320220947266</t>
+    <t xml:space="preserve">52.4320259094238</t>
   </si>
   <si>
     <t xml:space="preserve">52.7287750244141</t>
@@ -3860,82 +3860,82 @@
     <t xml:space="preserve">52.914249420166</t>
   </si>
   <si>
-    <t xml:space="preserve">53.2666320800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.598949432373</t>
+    <t xml:space="preserve">53.2666358947754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.5989456176758</t>
   </si>
   <si>
     <t xml:space="preserve">51.8941612243652</t>
   </si>
   <si>
-    <t xml:space="preserve">51.467586517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0610847473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.8014335632324</t>
+    <t xml:space="preserve">51.4675827026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.0610885620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.8014259338379</t>
   </si>
   <si>
     <t xml:space="preserve">51.5232276916504</t>
   </si>
   <si>
-    <t xml:space="preserve">51.6530532836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.4304885864258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.8570671081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.6886100769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.9467430114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.0564918518066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.7411994934082</t>
+    <t xml:space="preserve">51.6530494689941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.430492401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.8570747375488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.6886138916016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.9467391967773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.0564956665039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.7411956787109</t>
   </si>
   <si>
     <t xml:space="preserve">48.6670074462891</t>
   </si>
   <si>
-    <t xml:space="preserve">47.3872718811035</t>
+    <t xml:space="preserve">47.3872680664062</t>
   </si>
   <si>
     <t xml:space="preserve">48.0920524597168</t>
   </si>
   <si>
-    <t xml:space="preserve">46.9235992431641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.3857383728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.3501815795898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.9050521850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.4614562988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.1647148132324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.3656616210938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4305763244629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.6268463134766</t>
+    <t xml:space="preserve">46.9236030578613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.3857421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.3501853942871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.9050559997559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.4614601135254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.1647109985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.3656578063965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4305801391602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.6268501281738</t>
   </si>
   <si>
     <t xml:space="preserve">45.7829666137695</t>
@@ -3947,40 +3947,40 @@
     <t xml:space="preserve">45.6160469055176</t>
   </si>
   <si>
-    <t xml:space="preserve">45.4120330810547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.3378448486328</t>
+    <t xml:space="preserve">45.4120254516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.3378410339355</t>
   </si>
   <si>
     <t xml:space="preserve">45.8200645446777</t>
   </si>
   <si>
-    <t xml:space="preserve">45.9591636657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.1461639404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.4243659973145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.3687324523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.6654777526855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.9436836242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.258975982666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.8895683288574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.6113662719727</t>
+    <t xml:space="preserve">45.9591674804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.146167755127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.424373626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.368724822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.6654815673828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.9436798095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.2589797973633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.8895721435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.6113700866699</t>
   </si>
   <si>
     <t xml:space="preserve">49.0193977355957</t>
@@ -3989,10 +3989,10 @@
     <t xml:space="preserve">50.1878471374512</t>
   </si>
   <si>
-    <t xml:space="preserve">51.0780982971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.2280120849609</t>
+    <t xml:space="preserve">51.0781059265137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.2280082702637</t>
   </si>
   <si>
     <t xml:space="preserve">52.3949279785156</t>
@@ -4004,19 +4004,19 @@
     <t xml:space="preserve">51.9312591552734</t>
   </si>
   <si>
-    <t xml:space="preserve">52.1352767944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.357837677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.0255279541016</t>
+    <t xml:space="preserve">52.1352729797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.3578414916992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.0255241394043</t>
   </si>
   <si>
     <t xml:space="preserve">52.5803985595703</t>
   </si>
   <si>
-    <t xml:space="preserve">52.0239944458008</t>
+    <t xml:space="preserve">52.0239906311035</t>
   </si>
   <si>
     <t xml:space="preserve">51.0410079956055</t>
@@ -4037,10 +4037,10 @@
     <t xml:space="preserve">52.4228401184082</t>
   </si>
   <si>
-    <t xml:space="preserve">51.2620429992676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.4492683410645</t>
+    <t xml:space="preserve">51.2620468139648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.4492721557617</t>
   </si>
   <si>
     <t xml:space="preserve">51.898609161377</t>
@@ -4049,16 +4049,16 @@
     <t xml:space="preserve">51.505443572998</t>
   </si>
   <si>
-    <t xml:space="preserve">50.2884788513184</t>
+    <t xml:space="preserve">50.2884864807129</t>
   </si>
   <si>
     <t xml:space="preserve">50.0263633728027</t>
   </si>
   <si>
-    <t xml:space="preserve">50.3820953369141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.7301063537598</t>
+    <t xml:space="preserve">50.3820915222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.730110168457</t>
   </si>
   <si>
     <t xml:space="preserve">50.4944229125977</t>
@@ -4079,103 +4079,103 @@
     <t xml:space="preserve">51.3556594848633</t>
   </si>
   <si>
-    <t xml:space="preserve">51.6552238464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.9735069274902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0109443664551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.9096260070801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.198169708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.3666687011719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.7598457336426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.9283485412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.8908996582031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.9922256469727</t>
+    <t xml:space="preserve">51.6552200317383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.973503112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.0109481811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.9096221923828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.1981658935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.3666725158691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.7598419189453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.928352355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.8908958435059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.9922294616699</t>
   </si>
   <si>
     <t xml:space="preserve">51.130989074707</t>
   </si>
   <si>
-    <t xml:space="preserve">51.1684379577637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.8875999450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.62548828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.9999389648438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.4118270874023</t>
+    <t xml:space="preserve">51.1684341430664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.8876037597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.6254844665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.9999351501465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.4118309020996</t>
   </si>
   <si>
     <t xml:space="preserve">50.1574287414551</t>
   </si>
   <si>
-    <t xml:space="preserve">48.8842964172363</t>
+    <t xml:space="preserve">48.8843002319336</t>
   </si>
   <si>
     <t xml:space="preserve">47.9294548034668</t>
   </si>
   <si>
-    <t xml:space="preserve">48.6783561706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.2102966308594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.2928924560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.7593002319336</t>
+    <t xml:space="preserve">48.6783485412598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.2102928161621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.2928886413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.7593040466309</t>
   </si>
   <si>
     <t xml:space="preserve">46.3193244934082</t>
   </si>
   <si>
-    <t xml:space="preserve">46.3474082946777</t>
+    <t xml:space="preserve">46.3474044799805</t>
   </si>
   <si>
     <t xml:space="preserve">46.37548828125</t>
   </si>
   <si>
-    <t xml:space="preserve">46.5814361572266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.7686614990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4393692016602</t>
+    <t xml:space="preserve">46.5814399719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.7686576843262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4393653869629</t>
   </si>
   <si>
     <t xml:space="preserve">44.325382232666</t>
   </si>
   <si>
-    <t xml:space="preserve">43.9134864807129</t>
+    <t xml:space="preserve">43.9134902954102</t>
   </si>
   <si>
     <t xml:space="preserve">43.1458702087402</t>
   </si>
   <si>
-    <t xml:space="preserve">43.5764846801758</t>
+    <t xml:space="preserve">43.576488494873</t>
   </si>
   <si>
     <t xml:space="preserve">42.8743934631348</t>
@@ -4187,19 +4187,19 @@
     <t xml:space="preserve">41.919548034668</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8275909423828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6029167175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8837623596191</t>
+    <t xml:space="preserve">42.8275871276855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.602912902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8837585449219</t>
   </si>
   <si>
     <t xml:space="preserve">43.2488441467285</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1645927429199</t>
+    <t xml:space="preserve">43.1645889282227</t>
   </si>
   <si>
     <t xml:space="preserve">43.3330955505371</t>
@@ -4208,16 +4208,16 @@
     <t xml:space="preserve">43.1552276611328</t>
   </si>
   <si>
-    <t xml:space="preserve">40.5808944702148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7978553771973</t>
+    <t xml:space="preserve">40.5808906555176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7978515625</t>
   </si>
   <si>
     <t xml:space="preserve">40.9647026062012</t>
   </si>
   <si>
-    <t xml:space="preserve">39.7290229797363</t>
+    <t xml:space="preserve">39.7290191650391</t>
   </si>
   <si>
     <t xml:space="preserve">40.4123916625977</t>
@@ -4229,7 +4229,7 @@
     <t xml:space="preserve">39.3639335632324</t>
   </si>
   <si>
-    <t xml:space="preserve">39.1767082214355</t>
+    <t xml:space="preserve">39.1767120361328</t>
   </si>
   <si>
     <t xml:space="preserve">37.7725257873535</t>
@@ -4241,31 +4241,31 @@
     <t xml:space="preserve">40.2719764709473</t>
   </si>
   <si>
-    <t xml:space="preserve">40.749397277832</t>
+    <t xml:space="preserve">40.7493934631348</t>
   </si>
   <si>
     <t xml:space="preserve">41.9382705688477</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3672370910645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.5280265808105</t>
+    <t xml:space="preserve">41.3672332763672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5280303955078</t>
   </si>
   <si>
     <t xml:space="preserve">42.7433395385742</t>
   </si>
   <si>
-    <t xml:space="preserve">42.7339782714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.7995071411133</t>
+    <t xml:space="preserve">42.7339744567871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.7995109558105</t>
   </si>
   <si>
     <t xml:space="preserve">43.2113990783691</t>
   </si>
   <si>
-    <t xml:space="preserve">42.9399185180664</t>
+    <t xml:space="preserve">42.9399223327637</t>
   </si>
   <si>
     <t xml:space="preserve">42.5186653137207</t>
@@ -4277,13 +4277,13 @@
     <t xml:space="preserve">43.9696578979492</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8854064941406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.7246170043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.2130470275879</t>
+    <t xml:space="preserve">43.8854103088379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.7246131896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.2130508422852</t>
   </si>
   <si>
     <t xml:space="preserve">45.7576522827148</t>
@@ -4298,19 +4298,19 @@
     <t xml:space="preserve">46.0665702819824</t>
   </si>
   <si>
-    <t xml:space="preserve">45.5142593383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.6343078613281</t>
+    <t xml:space="preserve">45.5142555236816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.6343040466309</t>
   </si>
   <si>
     <t xml:space="preserve">45.0368385314941</t>
   </si>
   <si>
-    <t xml:space="preserve">45.1117248535156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.0649223327637</t>
+    <t xml:space="preserve">45.1117210388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.0649185180664</t>
   </si>
   <si>
     <t xml:space="preserve">45.5891494750977</t>
@@ -4319,16 +4319,16 @@
     <t xml:space="preserve">44.8215293884277</t>
   </si>
   <si>
-    <t xml:space="preserve">43.3050079345703</t>
+    <t xml:space="preserve">43.3050117492676</t>
   </si>
   <si>
     <t xml:space="preserve">42.7526969909668</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0786933898926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8727416992188</t>
+    <t xml:space="preserve">42.0786895751953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8727378845215</t>
   </si>
   <si>
     <t xml:space="preserve">43.0522613525391</t>
@@ -4337,19 +4337,19 @@
     <t xml:space="preserve">41.6293525695801</t>
   </si>
   <si>
-    <t xml:space="preserve">40.618335723877</t>
+    <t xml:space="preserve">40.6183433532715</t>
   </si>
   <si>
     <t xml:space="preserve">40.1034736633301</t>
   </si>
   <si>
-    <t xml:space="preserve">39.4201011657715</t>
+    <t xml:space="preserve">39.4201049804688</t>
   </si>
   <si>
     <t xml:space="preserve">38.792896270752</t>
   </si>
   <si>
-    <t xml:space="preserve">39.7009429931641</t>
+    <t xml:space="preserve">39.7009353637695</t>
   </si>
   <si>
     <t xml:space="preserve">39.3264923095703</t>
@@ -4364,91 +4364,91 @@
     <t xml:space="preserve">39.1579933166504</t>
   </si>
   <si>
-    <t xml:space="preserve">39.1954345703125</t>
+    <t xml:space="preserve">39.1954307556152</t>
   </si>
   <si>
     <t xml:space="preserve">38.7180137634277</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8584289550781</t>
+    <t xml:space="preserve">38.8584251403809</t>
   </si>
   <si>
     <t xml:space="preserve">39.8413581848145</t>
   </si>
   <si>
-    <t xml:space="preserve">40.1639671325684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.3764343261719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2625732421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.6705741882324</t>
+    <t xml:space="preserve">40.1639595031738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.3764305114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2625694274902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.6705703735352</t>
   </si>
   <si>
     <t xml:space="preserve">39.9362411499023</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6004257202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.5472221374512</t>
+    <t xml:space="preserve">40.6004219055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.5472183227539</t>
   </si>
   <si>
     <t xml:space="preserve">38.6743011474609</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6363487243652</t>
+    <t xml:space="preserve">38.636344909668</t>
   </si>
   <si>
     <t xml:space="preserve">37.5167274475098</t>
   </si>
   <si>
-    <t xml:space="preserve">37.8013763427734</t>
+    <t xml:space="preserve">37.8013801574707</t>
   </si>
   <si>
     <t xml:space="preserve">37.2320823669434</t>
   </si>
   <si>
-    <t xml:space="preserve">37.4408226013184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7576599121094</t>
+    <t xml:space="preserve">37.4408187866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7576637268066</t>
   </si>
   <si>
     <t xml:space="preserve">35.1351623535156</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6475257873535</t>
+    <t xml:space="preserve">35.6475296020508</t>
   </si>
   <si>
     <t xml:space="preserve">35.6570205688477</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8847389221191</t>
+    <t xml:space="preserve">35.8847351074219</t>
   </si>
   <si>
     <t xml:space="preserve">35.7898559570312</t>
   </si>
   <si>
-    <t xml:space="preserve">37.0233345031738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.4218444824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1504135131836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5905990600586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8999862670898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.7180137634277</t>
+    <t xml:space="preserve">37.0233306884766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4218406677246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1504096984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5905952453613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8999824523926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.7180099487305</t>
   </si>
   <si>
     <t xml:space="preserve">39.0063896179199</t>
@@ -4460,13 +4460,13 @@
     <t xml:space="preserve">39.3479690551758</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3859214782715</t>
+    <t xml:space="preserve">39.3859176635742</t>
   </si>
   <si>
     <t xml:space="preserve">40.8376312255859</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8186569213867</t>
+    <t xml:space="preserve">40.8186531066895</t>
   </si>
   <si>
     <t xml:space="preserve">40.7142791748047</t>
@@ -4478,55 +4478,55 @@
     <t xml:space="preserve">41.283576965332</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2930641174316</t>
+    <t xml:space="preserve">41.2930679321289</t>
   </si>
   <si>
     <t xml:space="preserve">41.568229675293</t>
   </si>
   <si>
-    <t xml:space="preserve">40.9799575805664</t>
+    <t xml:space="preserve">40.9799537658691</t>
   </si>
   <si>
     <t xml:space="preserve">40.799674987793</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0026588439941</t>
+    <t xml:space="preserve">40.0026626586914</t>
   </si>
   <si>
     <t xml:space="preserve">40.7807006835938</t>
   </si>
   <si>
-    <t xml:space="preserve">40.9420051574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1886978149414</t>
+    <t xml:space="preserve">40.9420013427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1887016296387</t>
   </si>
   <si>
     <t xml:space="preserve">41.3784637451172</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7047958374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6573486328125</t>
+    <t xml:space="preserve">40.7047920227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6573524475098</t>
   </si>
   <si>
     <t xml:space="preserve">40.2967948913574</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0311241149902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.5661964416504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0179100036621</t>
+    <t xml:space="preserve">40.031120300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.5662002563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0179061889648</t>
   </si>
   <si>
     <t xml:space="preserve">40.4960517883301</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1222801208496</t>
+    <t xml:space="preserve">41.1222763061523</t>
   </si>
   <si>
     <t xml:space="preserve">41.3120460510254</t>
@@ -4535,10 +4535,10 @@
     <t xml:space="preserve">40.2019119262695</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0880584716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.5377349853516</t>
+    <t xml:space="preserve">40.0880546569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.5377311706543</t>
   </si>
   <si>
     <t xml:space="preserve">40.5719566345215</t>
@@ -4550,10 +4550,10 @@
     <t xml:space="preserve">40.1070327758789</t>
   </si>
   <si>
-    <t xml:space="preserve">40.1354904174805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9077796936035</t>
+    <t xml:space="preserve">40.1354942321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9077758789062</t>
   </si>
   <si>
     <t xml:space="preserve">40.2398681640625</t>
@@ -4571,16 +4571,16 @@
     <t xml:space="preserve">41.9857139587402</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3500022888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9647102355957</t>
+    <t xml:space="preserve">41.3499984741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9647064208984</t>
   </si>
   <si>
     <t xml:space="preserve">38.9779243469238</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4465789794922</t>
+    <t xml:space="preserve">38.4465827941895</t>
   </si>
   <si>
     <t xml:space="preserve">38.6553230285645</t>
@@ -4589,7 +4589,7 @@
     <t xml:space="preserve">38.6078758239746</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2720603942871</t>
+    <t xml:space="preserve">39.2720565795898</t>
   </si>
   <si>
     <t xml:space="preserve">38.1619338989258</t>
@@ -4598,25 +4598,25 @@
     <t xml:space="preserve">38.7976455688477</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4181175231934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8925361633301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5509490966797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.0253639221191</t>
+    <t xml:space="preserve">38.4181137084961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8925323486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.550952911377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.0253677368164</t>
   </si>
   <si>
     <t xml:space="preserve">38.4560699462891</t>
   </si>
   <si>
-    <t xml:space="preserve">38.0480690002441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1049995422363</t>
+    <t xml:space="preserve">38.0480728149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1049957275391</t>
   </si>
   <si>
     <t xml:space="preserve">37.7254676818848</t>
@@ -4634,10 +4634,10 @@
     <t xml:space="preserve">35.2015800476074</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5848426818848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3913421630859</t>
+    <t xml:space="preserve">34.5848388671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3913459777832</t>
   </si>
   <si>
     <t xml:space="preserve">34.8600044250488</t>
@@ -4652,13 +4652,13 @@
     <t xml:space="preserve">34.2527503967285</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4936904907227</t>
+    <t xml:space="preserve">33.4936866760254</t>
   </si>
   <si>
     <t xml:space="preserve">33.5506172180176</t>
   </si>
   <si>
-    <t xml:space="preserve">33.9965667724609</t>
+    <t xml:space="preserve">33.9965705871582</t>
   </si>
   <si>
     <t xml:space="preserve">33.7119178771973</t>
@@ -4667,31 +4667,31 @@
     <t xml:space="preserve">33.626522064209</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6987037658691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9169311523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9359092712402</t>
+    <t xml:space="preserve">34.6986999511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.916934967041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.935905456543</t>
   </si>
   <si>
     <t xml:space="preserve">34.1104316711426</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2147979736328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6360130310059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7935791015625</t>
+    <t xml:space="preserve">34.2148017883301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6360092163086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7935829162598</t>
   </si>
   <si>
     <t xml:space="preserve">35.9891090393066</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0555267333984</t>
+    <t xml:space="preserve">36.0555305480957</t>
   </si>
   <si>
     <t xml:space="preserve">35.7708778381348</t>
@@ -4703,7 +4703,7 @@
     <t xml:space="preserve">36.0839920043945</t>
   </si>
   <si>
-    <t xml:space="preserve">36.1314392089844</t>
+    <t xml:space="preserve">36.1314353942871</t>
   </si>
   <si>
     <t xml:space="preserve">36.5014801025391</t>
@@ -4718,7 +4718,7 @@
     <t xml:space="preserve">35.9321823120117</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4825019836426</t>
+    <t xml:space="preserve">36.4825057983398</t>
   </si>
   <si>
     <t xml:space="preserve">38.5035095214844</t>
@@ -4730,16 +4730,16 @@
     <t xml:space="preserve">38.6648101806641</t>
   </si>
   <si>
-    <t xml:space="preserve">38.2188606262207</t>
+    <t xml:space="preserve">38.2188568115234</t>
   </si>
   <si>
     <t xml:space="preserve">37.7918891906738</t>
   </si>
   <si>
-    <t xml:space="preserve">37.3079833984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1941261291504</t>
+    <t xml:space="preserve">37.3079795837402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1941223144531</t>
   </si>
   <si>
     <t xml:space="preserve">37.4692840576172</t>
@@ -4748,7 +4748,7 @@
     <t xml:space="preserve">37.5943756103516</t>
   </si>
   <si>
-    <t xml:space="preserve">37.1613693237305</t>
+    <t xml:space="preserve">37.1613655090332</t>
   </si>
   <si>
     <t xml:space="preserve">37.6713562011719</t>
@@ -4757,13 +4757,13 @@
     <t xml:space="preserve">38.681697845459</t>
   </si>
   <si>
-    <t xml:space="preserve">38.7105598449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6720695495605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4988708496094</t>
+    <t xml:space="preserve">38.710563659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6720733642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.4988670349121</t>
   </si>
   <si>
     <t xml:space="preserve">39.1050796508789</t>
@@ -4772,16 +4772,16 @@
     <t xml:space="preserve">40.0288200378418</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9229736328125</t>
+    <t xml:space="preserve">39.922981262207</t>
   </si>
   <si>
     <t xml:space="preserve">39.8363723754883</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8933868408203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9703636169434</t>
+    <t xml:space="preserve">38.893383026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9703674316406</t>
   </si>
   <si>
     <t xml:space="preserve">39.2975234985352</t>
@@ -4808,7 +4808,7 @@
     <t xml:space="preserve">37.0170364379883</t>
   </si>
   <si>
-    <t xml:space="preserve">37.7002182006836</t>
+    <t xml:space="preserve">37.7002220153809</t>
   </si>
   <si>
     <t xml:space="preserve">37.267219543457</t>
@@ -4817,16 +4817,16 @@
     <t xml:space="preserve">37.6424865722656</t>
   </si>
   <si>
-    <t xml:space="preserve">37.1709938049316</t>
+    <t xml:space="preserve">37.1709899902344</t>
   </si>
   <si>
     <t xml:space="preserve">37.5751304626465</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1717147827148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2864608764648</t>
+    <t xml:space="preserve">38.1717109680176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2864570617676</t>
   </si>
   <si>
     <t xml:space="preserve">37.353816986084</t>
@@ -4841,25 +4841,25 @@
     <t xml:space="preserve">37.2191047668457</t>
   </si>
   <si>
-    <t xml:space="preserve">37.8541793823242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5655059814453</t>
+    <t xml:space="preserve">37.854175567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5655097961426</t>
   </si>
   <si>
     <t xml:space="preserve">37.3345718383789</t>
   </si>
   <si>
-    <t xml:space="preserve">37.902286529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6528244018555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5662269592285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2693786621094</t>
+    <t xml:space="preserve">37.9022903442383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6528282165527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5662307739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2693748474121</t>
   </si>
   <si>
     <t xml:space="preserve">40.6446495056152</t>
@@ -4883,16 +4883,16 @@
     <t xml:space="preserve">39.6920394897461</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6143417358398</t>
+    <t xml:space="preserve">38.6143379211426</t>
   </si>
   <si>
     <t xml:space="preserve">37.6328659057617</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4700050354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.739429473877</t>
+    <t xml:space="preserve">38.4700088500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7394256591797</t>
   </si>
   <si>
     <t xml:space="preserve">39.0858306884766</t>
@@ -4901,10 +4901,10 @@
     <t xml:space="preserve">39.3745002746582</t>
   </si>
   <si>
-    <t xml:space="preserve">39.7016563415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.5380783081055</t>
+    <t xml:space="preserve">39.70166015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.5380821228027</t>
   </si>
   <si>
     <t xml:space="preserve">38.729808807373</t>
@@ -4913,13 +4913,13 @@
     <t xml:space="preserve">39.2109222412109</t>
   </si>
   <si>
-    <t xml:space="preserve">39.4995880126953</t>
+    <t xml:space="preserve">39.4995918273926</t>
   </si>
   <si>
     <t xml:space="preserve">39.4226150512695</t>
   </si>
   <si>
-    <t xml:space="preserve">39.8171310424805</t>
+    <t xml:space="preserve">39.8171272277832</t>
   </si>
   <si>
     <t xml:space="preserve">39.5477027893066</t>
@@ -4928,7 +4928,7 @@
     <t xml:space="preserve">39.0569648742676</t>
   </si>
   <si>
-    <t xml:space="preserve">38.0562477111816</t>
+    <t xml:space="preserve">38.0562438964844</t>
   </si>
   <si>
     <t xml:space="preserve">38.5181159973145</t>
@@ -4940,7 +4940,7 @@
     <t xml:space="preserve">38.6047172546387</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6239624023438</t>
+    <t xml:space="preserve">38.6239585876465</t>
   </si>
   <si>
     <t xml:space="preserve">37.8156852722168</t>
@@ -4952,13 +4952,13 @@
     <t xml:space="preserve">37.796443939209</t>
   </si>
   <si>
-    <t xml:space="preserve">37.2479705810547</t>
+    <t xml:space="preserve">37.247974395752</t>
   </si>
   <si>
     <t xml:space="preserve">37.1806144714355</t>
   </si>
   <si>
-    <t xml:space="preserve">36.5647850036621</t>
+    <t xml:space="preserve">36.5647888183594</t>
   </si>
   <si>
     <t xml:space="preserve">37.3923072814941</t>
@@ -4967,28 +4967,28 @@
     <t xml:space="preserve">36.8342094421387</t>
   </si>
   <si>
-    <t xml:space="preserve">37.0843963623047</t>
+    <t xml:space="preserve">37.0843925476074</t>
   </si>
   <si>
     <t xml:space="preserve">37.2287254333496</t>
   </si>
   <si>
-    <t xml:space="preserve">38.450756072998</t>
+    <t xml:space="preserve">38.4507598876953</t>
   </si>
   <si>
     <t xml:space="preserve">37.7579574584961</t>
   </si>
   <si>
-    <t xml:space="preserve">37.7771949768066</t>
+    <t xml:space="preserve">37.7771987915039</t>
   </si>
   <si>
     <t xml:space="preserve">37.4885292053223</t>
   </si>
   <si>
-    <t xml:space="preserve">37.5847511291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.8734245300293</t>
+    <t xml:space="preserve">37.5847549438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.873420715332</t>
   </si>
   <si>
     <t xml:space="preserve">38.344913482666</t>
@@ -4997,34 +4997,34 @@
     <t xml:space="preserve">38.4026489257812</t>
   </si>
   <si>
-    <t xml:space="preserve">38.787540435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.1916809082031</t>
+    <t xml:space="preserve">38.7875442504883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.1916770935059</t>
   </si>
   <si>
     <t xml:space="preserve">39.2879028320312</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9030075073242</t>
+    <t xml:space="preserve">38.9030113220215</t>
   </si>
   <si>
     <t xml:space="preserve">38.7201881408691</t>
   </si>
   <si>
-    <t xml:space="preserve">38.3545417785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4425773620605</t>
+    <t xml:space="preserve">38.3545379638672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4425811767578</t>
   </si>
   <si>
     <t xml:space="preserve">39.1628112792969</t>
   </si>
   <si>
-    <t xml:space="preserve">38.5084953308105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1539115905762</t>
+    <t xml:space="preserve">38.5084915161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1539077758789</t>
   </si>
   <si>
     <t xml:space="preserve">39.3841247558594</t>
@@ -5033,16 +5033,16 @@
     <t xml:space="preserve">39.5573272705078</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8755836486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4906921386719</t>
+    <t xml:space="preserve">40.8755798339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4906883239746</t>
   </si>
   <si>
     <t xml:space="preserve">40.4137115478516</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6638870239258</t>
+    <t xml:space="preserve">40.663890838623</t>
   </si>
   <si>
     <t xml:space="preserve">41.5106544494629</t>
@@ -5054,79 +5054,79 @@
     <t xml:space="preserve">44.1664161682129</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8969879150391</t>
+    <t xml:space="preserve">43.8969917297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.300407409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.877025604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.9590721130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.2418937683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.0618591308594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6230049133301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1008644104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6132469177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9305877685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.6140174865723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5059776306152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7790412902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9350776672363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0273361206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5149574279785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.7392578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.2906494140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.373161315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.866039276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.8172798156738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.139102935791</t>
   </si>
   <si>
     <t xml:space="preserve">43.3004035949707</t>
   </si>
   <si>
-    <t xml:space="preserve">42.877025604248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.9590759277344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2418899536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0618591308594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6230049133301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1008644104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6132469177246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9305877685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.6140174865723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5059776306152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7790412902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9350738525391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0273399353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5149574279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.7392578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2906532287598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.373161315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.8660430908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.8172798156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1391067504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.300407409668</t>
-  </si>
-  <si>
     <t xml:space="preserve">42.9688262939453</t>
   </si>
   <si>
-    <t xml:space="preserve">42.2081413269043</t>
+    <t xml:space="preserve">42.2081451416016</t>
   </si>
   <si>
     <t xml:space="preserve">41.7205238342285</t>
@@ -5150,13 +5150,13 @@
     <t xml:space="preserve">42.2959136962891</t>
   </si>
   <si>
-    <t xml:space="preserve">42.5007171630859</t>
+    <t xml:space="preserve">42.5007133483887</t>
   </si>
   <si>
     <t xml:space="preserve">42.6079902648926</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1743927001953</t>
+    <t xml:space="preserve">41.1743965148926</t>
   </si>
   <si>
     <t xml:space="preserve">40.9208335876465</t>
@@ -5174,7 +5174,7 @@
     <t xml:space="preserve">41.8278007507324</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0130958557129</t>
+    <t xml:space="preserve">42.0130996704102</t>
   </si>
   <si>
     <t xml:space="preserve">41.9448280334473</t>
@@ -5189,7 +5189,7 @@
     <t xml:space="preserve">42.0911140441895</t>
   </si>
   <si>
-    <t xml:space="preserve">44.2073745727539</t>
+    <t xml:space="preserve">44.2073783874512</t>
   </si>
   <si>
     <t xml:space="preserve">43.9440612792969</t>
@@ -5213,7 +5213,7 @@
     <t xml:space="preserve">44.8412742614746</t>
   </si>
   <si>
-    <t xml:space="preserve">44.4706840515137</t>
+    <t xml:space="preserve">44.4706878662109</t>
   </si>
   <si>
     <t xml:space="preserve">43.4759483337402</t>
@@ -5222,13 +5222,13 @@
     <t xml:space="preserve">42.432445526123</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8367881774902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.334156036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.8855438232422</t>
+    <t xml:space="preserve">43.836784362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.3341522216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.8855476379395</t>
   </si>
   <si>
     <t xml:space="preserve">44.3244018554688</t>
@@ -5267,7 +5267,7 @@
     <t xml:space="preserve">45.2313690185547</t>
   </si>
   <si>
-    <t xml:space="preserve">44.6559829711914</t>
+    <t xml:space="preserve">44.6559791564941</t>
   </si>
   <si>
     <t xml:space="preserve">44.4414291381836</t>
@@ -5282,13 +5282,13 @@
     <t xml:space="preserve">44.4609336853027</t>
   </si>
   <si>
-    <t xml:space="preserve">44.1001014709473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.3439064025879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.5096969604492</t>
+    <t xml:space="preserve">44.10009765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.3439102172852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.509693145752</t>
   </si>
   <si>
     <t xml:space="preserve">45.2021102905273</t>
@@ -5324,10 +5324,10 @@
     <t xml:space="preserve">43.0565986633301</t>
   </si>
   <si>
-    <t xml:space="preserve">43.6027297973633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.9785766601562</t>
+    <t xml:space="preserve">43.602725982666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.9785804748535</t>
   </si>
   <si>
     <t xml:space="preserve">42.6567535400391</t>
@@ -5339,28 +5339,28 @@
     <t xml:space="preserve">43.5832214355469</t>
   </si>
   <si>
-    <t xml:space="preserve">43.5344581604004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.4901885986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.4121704101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.3634147644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.7197608947754</t>
+    <t xml:space="preserve">43.5344619750977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.4901924133301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.4121742248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.363410949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.7197570800781</t>
   </si>
   <si>
     <t xml:space="preserve">42.9200630187988</t>
   </si>
   <si>
-    <t xml:space="preserve">42.900562286377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2711448669434</t>
+    <t xml:space="preserve">42.9005584716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.2711486816406</t>
   </si>
   <si>
     <t xml:space="preserve">42.8810577392578</t>
@@ -5369,40 +5369,40 @@
     <t xml:space="preserve">42.6274909973145</t>
   </si>
   <si>
-    <t xml:space="preserve">42.3446731567383</t>
+    <t xml:space="preserve">42.3446769714355</t>
   </si>
   <si>
     <t xml:space="preserve">42.1593818664551</t>
   </si>
   <si>
-    <t xml:space="preserve">42.5202178955078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0370941162109</t>
+    <t xml:space="preserve">42.5202140808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0370903015137</t>
   </si>
   <si>
     <t xml:space="preserve">43.202880859375</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8615493774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0078315734863</t>
+    <t xml:space="preserve">42.8615531921387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0078353881836</t>
   </si>
   <si>
     <t xml:space="preserve">42.7152633666992</t>
   </si>
   <si>
-    <t xml:space="preserve">43.6514854431152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1638717651367</t>
+    <t xml:space="preserve">43.6514892578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1638679504395</t>
   </si>
   <si>
     <t xml:space="preserve">43.7977752685547</t>
   </si>
   <si>
-    <t xml:space="preserve">44.7144966125488</t>
+    <t xml:space="preserve">44.7144927978516</t>
   </si>
   <si>
     <t xml:space="preserve">43.436939239502</t>
@@ -5817,6 +5817,9 @@
   </si>
   <si>
     <t xml:space="preserve">51.0499992370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.0999984741211</t>
   </si>
 </sst>
 </file>
@@ -62630,7 +62633,7 @@
     </row>
     <row r="2173">
       <c r="A2173" s="1" t="n">
-        <v>45488.6494907407</v>
+        <v>45488.2916666667</v>
       </c>
       <c r="B2173" t="n">
         <v>235971</v>
@@ -62651,6 +62654,32 @@
         <v>1934</v>
       </c>
       <c r="H2173" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="A2174" s="1" t="n">
+        <v>45489.6494907407</v>
+      </c>
+      <c r="B2174" t="n">
+        <v>228515</v>
+      </c>
+      <c r="C2174" t="n">
+        <v>51.1500015258789</v>
+      </c>
+      <c r="D2174" t="n">
+        <v>50.4000015258789</v>
+      </c>
+      <c r="E2174" t="n">
+        <v>50.7999992370605</v>
+      </c>
+      <c r="F2174" t="n">
+        <v>51.0999984741211</v>
+      </c>
+      <c r="G2174" t="s">
+        <v>1935</v>
+      </c>
+      <c r="H2174" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/REC.MI.xlsx
+++ b/data/REC.MI.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">REC.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6574745178223</t>
+    <t xml:space="preserve">19.6574764251709</t>
   </si>
   <si>
     <t xml:space="preserve">19.3267593383789</t>
@@ -53,118 +53,118 @@
     <t xml:space="preserve">18.9637794494629</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8105201721191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6572608947754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6975955963135</t>
+    <t xml:space="preserve">18.8105220794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6572570800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6975898742676</t>
   </si>
   <si>
     <t xml:space="preserve">18.108757019043</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2297534942627</t>
+    <t xml:space="preserve">18.2297515869141</t>
   </si>
   <si>
     <t xml:space="preserve">17.6086463928223</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5441207885742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5279846191406</t>
+    <t xml:space="preserve">17.5441112518311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.527982711792</t>
   </si>
   <si>
     <t xml:space="preserve">18.2942771911621</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5281963348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4959335327148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8266563415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0280895233154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3910751342773</t>
+    <t xml:space="preserve">18.5282039642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4959354400635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8266506195068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0280933380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3910732269287</t>
   </si>
   <si>
     <t xml:space="preserve">18.7540550231934</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1329555511475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8990325927734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2779293060303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1325225830078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6727418899536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7937383651733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3825721740723</t>
+    <t xml:space="preserve">18.1329517364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8990306854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2779273986816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1325206756592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6727437973022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7937393188477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3825759887695</t>
   </si>
   <si>
     <t xml:space="preserve">16.5197010040283</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1327342987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8183689117432</t>
+    <t xml:space="preserve">17.1327419281006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8183708190918</t>
   </si>
   <si>
     <t xml:space="preserve">17.6812400817871</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0119609832764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.42333984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4475421905518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7217903137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0601425170898</t>
+    <t xml:space="preserve">18.0119571685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4233417510986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4475364685059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.721794128418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0601387023926</t>
   </si>
   <si>
     <t xml:space="preserve">17.0036754608154</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5199184417725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6893119812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9151630401611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0684261322021</t>
+    <t xml:space="preserve">17.5199165344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6893081665039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9151668548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0684223175049</t>
   </si>
   <si>
     <t xml:space="preserve">17.6731796264648</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4392528533936</t>
+    <t xml:space="preserve">17.4392566680908</t>
   </si>
   <si>
     <t xml:space="preserve">17.3666591644287</t>
@@ -173,7 +173,7 @@
     <t xml:space="preserve">17.1811332702637</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5037879943848</t>
+    <t xml:space="preserve">17.5037822723389</t>
   </si>
   <si>
     <t xml:space="preserve">17.1649990081787</t>
@@ -182,172 +182,172 @@
     <t xml:space="preserve">17.447322845459</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5521812438965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6409130096436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.576379776001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3585910797119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4069900512695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5118503570557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3182640075684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.62477684021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7457695007324</t>
+    <t xml:space="preserve">17.5521831512451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6409111022949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5763778686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3585929870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4069862365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5118541717529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3182621002197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6247787475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7457752227783</t>
   </si>
   <si>
     <t xml:space="preserve">17.7538394927979</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8748340606689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7861022949219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1490840911865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2136135101318</t>
+    <t xml:space="preserve">17.8748359680176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7861061096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1490859985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2136154174805</t>
   </si>
   <si>
     <t xml:space="preserve">18.1248874664307</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1006889343262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1168174743652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0442237854004</t>
+    <t xml:space="preserve">18.1006927490234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.116813659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.044225692749</t>
   </si>
   <si>
     <t xml:space="preserve">18.0764904022217</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4443950653076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3708171844482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1991291046143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2808856964111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0437850952148</t>
+    <t xml:space="preserve">18.4443988800049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.370813369751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1991233825684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2808837890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0437831878662</t>
   </si>
   <si>
     <t xml:space="preserve">18.1091938018799</t>
   </si>
   <si>
-    <t xml:space="preserve">18.174596786499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3544654846191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1418952941895</t>
+    <t xml:space="preserve">18.1745986938477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3544673919678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1418972015381</t>
   </si>
   <si>
     <t xml:space="preserve">18.0928401947021</t>
   </si>
   <si>
-    <t xml:space="preserve">18.272705078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5752086639404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6651382446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3846035003662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6871013641357</t>
+    <t xml:space="preserve">18.2727088928223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5752067565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6651420593262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3846015930176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.687105178833</t>
   </si>
   <si>
     <t xml:space="preserve">19.6217002868652</t>
   </si>
   <si>
-    <t xml:space="preserve">19.4418315887451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7688655853271</t>
+    <t xml:space="preserve">19.4418392181396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7688636779785</t>
   </si>
   <si>
     <t xml:space="preserve">19.7443332672119</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7933883666992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9487266540527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0059566497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8562316894531</t>
+    <t xml:space="preserve">19.793384552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9487285614014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0059547424316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8562355041504</t>
   </si>
   <si>
     <t xml:space="preserve">21.0033950805664</t>
   </si>
   <si>
-    <t xml:space="preserve">21.199613571167</t>
+    <t xml:space="preserve">21.1996116638184</t>
   </si>
   <si>
     <t xml:space="preserve">21.1014995574951</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2486629486084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5511665344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6901569366455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6983318328857</t>
+    <t xml:space="preserve">21.2486686706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5511646270752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6901550292969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6983280181885</t>
   </si>
   <si>
     <t xml:space="preserve">22.0580596923828</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2297534942627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8700160980225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7964382171631</t>
+    <t xml:space="preserve">22.2297496795654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8700180053711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7964363098145</t>
   </si>
   <si>
     <t xml:space="preserve">22.3115062713623</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2706298828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9517765045166</t>
+    <t xml:space="preserve">22.2706279754639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.951774597168</t>
   </si>
   <si>
     <t xml:space="preserve">21.2568397521973</t>
@@ -359,55 +359,55 @@
     <t xml:space="preserve">21.4121780395508</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1423797607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7335929870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4285278320312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7065048217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6083965301514</t>
+    <t xml:space="preserve">21.1423816680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7335968017578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4285259246826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7065086364746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6083946228027</t>
   </si>
   <si>
     <t xml:space="preserve">21.9435997009277</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8071784973145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6656303405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9599533081055</t>
+    <t xml:space="preserve">20.8071765899658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6656284332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9599514007568</t>
   </si>
   <si>
     <t xml:space="preserve">22.0744113922119</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0989379882812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0907611846924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9926567077637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8536701202393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.188871383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9165115356445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1372509002686</t>
+    <t xml:space="preserve">22.0989398956299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.090763092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.992654800415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8536682128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1888694763184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9165096282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1372566223145</t>
   </si>
   <si>
     <t xml:space="preserve">22.9982643127441</t>
@@ -416,79 +416,79 @@
     <t xml:space="preserve">22.7529945373535</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5567779541016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7448215484619</t>
+    <t xml:space="preserve">22.5567798614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7448177337646</t>
   </si>
   <si>
     <t xml:space="preserve">22.6303577423096</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0636692047119</t>
+    <t xml:space="preserve">23.0636672973633</t>
   </si>
   <si>
     <t xml:space="preserve">23.513334274292</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4806327819824</t>
+    <t xml:space="preserve">23.4806270599365</t>
   </si>
   <si>
     <t xml:space="preserve">23.5215129852295</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2271862030029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6850242614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.660493850708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5296878814697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7177295684814</t>
+    <t xml:space="preserve">23.2271900177002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6850261688232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6604995727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5296897888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7177352905273</t>
   </si>
   <si>
     <t xml:space="preserve">24.0038757324219</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5869178771973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9655647277832</t>
+    <t xml:space="preserve">23.5869159698486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9655609130859</t>
   </si>
   <si>
     <t xml:space="preserve">23.3498229980469</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0881977081299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0227947235107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2598915100098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2190113067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3743495941162</t>
+    <t xml:space="preserve">23.0881958007812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0227928161621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2598934173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2190132141113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3743476867676</t>
   </si>
   <si>
     <t xml:space="preserve">22.7366428375244</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7284698486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2951545715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4341430664062</t>
+    <t xml:space="preserve">22.7284660339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2951564788818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4341411590576</t>
   </si>
   <si>
     <t xml:space="preserve">22.1479930877686</t>
@@ -503,40 +503,40 @@
     <t xml:space="preserve">22.524076461792</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0171813964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0417060852051</t>
+    <t xml:space="preserve">22.017183303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0417079925537</t>
   </si>
   <si>
     <t xml:space="preserve">22.3605613708496</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1725254058838</t>
+    <t xml:space="preserve">22.1725196838379</t>
   </si>
   <si>
     <t xml:space="preserve">21.9272480010986</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1970443725586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0825862884521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8020496368408</t>
+    <t xml:space="preserve">22.1970500946045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0825843811035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8020477294922</t>
   </si>
   <si>
     <t xml:space="preserve">22.5159015655518</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8863716125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8046131134033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7473850250244</t>
+    <t xml:space="preserve">21.8863697052002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.804615020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7473812103271</t>
   </si>
   <si>
     <t xml:space="preserve">22.213399887085</t>
@@ -548,10 +548,10 @@
     <t xml:space="preserve">21.9844779968262</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2052268981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2215766906738</t>
+    <t xml:space="preserve">22.2052211761475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2215747833252</t>
   </si>
   <si>
     <t xml:space="preserve">22.4423198699951</t>
@@ -563,37 +563,37 @@
     <t xml:space="preserve">23.2435359954834</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4561061859131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3907032012939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2762393951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2026634216309</t>
+    <t xml:space="preserve">23.4561042785645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3906993865967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.276237487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.202657699585</t>
   </si>
   <si>
     <t xml:space="preserve">23.1536045074463</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0309677124023</t>
+    <t xml:space="preserve">23.0309734344482</t>
   </si>
   <si>
     <t xml:space="preserve">22.9246845245361</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1127243041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3360328674316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5077228546143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0335311889648</t>
+    <t xml:space="preserve">23.1127281188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3360366821289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5077247619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0335330963135</t>
   </si>
   <si>
     <t xml:space="preserve">22.1643447875977</t>
@@ -602,19 +602,19 @@
     <t xml:space="preserve">22.066234588623</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9108982086182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8945484161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0769748687744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6191329956055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9298095703125</t>
+    <t xml:space="preserve">21.9108963012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8945446014404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.076976776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6191368103027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9298114776611</t>
   </si>
   <si>
     <t xml:space="preserve">21.0279216766357</t>
@@ -623,115 +623,115 @@
     <t xml:space="preserve">20.5700798034668</t>
   </si>
   <si>
-    <t xml:space="preserve">21.085147857666</t>
+    <t xml:space="preserve">21.0851516723633</t>
   </si>
   <si>
     <t xml:space="preserve">22.0008316040039</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2977180480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3385982513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9052848815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7826519012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0360946655273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9863662719727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4641895294189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7791538238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0278091430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1024017333984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8537502288818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.135555267334</t>
+    <t xml:space="preserve">21.2977161407471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3386001586914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9052829742432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7826461791992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0361022949219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9863719940186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4641933441162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7791557312012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0278129577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1024036407471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8537521362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1355609893799</t>
   </si>
   <si>
     <t xml:space="preserve">21.2930374145508</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5636577606201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.895191192627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1189823150635</t>
+    <t xml:space="preserve">20.5636539459229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8951892852783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1189785003662</t>
   </si>
   <si>
     <t xml:space="preserve">21.3427696228027</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2847480773926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1604270935059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5499782562256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.251594543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5251197814941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2018642425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9146766662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1716136932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3373851776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1053066253662</t>
+    <t xml:space="preserve">21.2847499847412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.16042137146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.549976348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2516002655029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5251140594482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2018661499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9146728515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1716117858887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3373870849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1053047180176</t>
   </si>
   <si>
     <t xml:space="preserve">21.9063854217529</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7240371704102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3208103179932</t>
+    <t xml:space="preserve">21.7240352630615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3208045959473</t>
   </si>
   <si>
     <t xml:space="preserve">22.4285583496094</t>
   </si>
   <si>
-    <t xml:space="preserve">22.1633262634277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3125171661377</t>
+    <t xml:space="preserve">22.1633224487305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3125190734863</t>
   </si>
   <si>
     <t xml:space="preserve">22.6357650756836</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5611743927002</t>
+    <t xml:space="preserve">22.5611705780029</t>
   </si>
   <si>
     <t xml:space="preserve">22.677209854126</t>
@@ -740,25 +740,25 @@
     <t xml:space="preserve">23.0419006347656</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0253295898438</t>
+    <t xml:space="preserve">23.0253276824951</t>
   </si>
   <si>
     <t xml:space="preserve">22.5363063812256</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0667705535889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6191940307617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9507312774658</t>
+    <t xml:space="preserve">23.066764831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6191921234131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9507293701172</t>
   </si>
   <si>
     <t xml:space="preserve">22.793249130249</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8264045715332</t>
+    <t xml:space="preserve">22.8264026641846</t>
   </si>
   <si>
     <t xml:space="preserve">22.6026153564453</t>
@@ -767,7 +767,7 @@
     <t xml:space="preserve">22.6109027862549</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5777492523193</t>
+    <t xml:space="preserve">22.5777473449707</t>
   </si>
   <si>
     <t xml:space="preserve">22.2793636322021</t>
@@ -779,10 +779,10 @@
     <t xml:space="preserve">22.4368457794189</t>
   </si>
   <si>
-    <t xml:space="preserve">21.806921005249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8898048400879</t>
+    <t xml:space="preserve">21.8069248199463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8898086547852</t>
   </si>
   <si>
     <t xml:space="preserve">22.0638656616211</t>
@@ -791,142 +791,142 @@
     <t xml:space="preserve">22.2544975280762</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8732299804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2710762023926</t>
+    <t xml:space="preserve">21.873233795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2710742950439</t>
   </si>
   <si>
     <t xml:space="preserve">22.3788280487061</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2822666168213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.398307800293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4563236236572</t>
+    <t xml:space="preserve">23.2822685241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3983058929443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4563274383545</t>
   </si>
   <si>
     <t xml:space="preserve">23.6884021759033</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4231700897217</t>
+    <t xml:space="preserve">23.4231758117676</t>
   </si>
   <si>
     <t xml:space="preserve">23.9287643432617</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0282249450684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4509372711182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4177837371826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.343189239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7824783325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8404998779297</t>
+    <t xml:space="preserve">24.0282287597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4509429931641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4177894592285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3431911468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7824764251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8404979705811</t>
   </si>
   <si>
     <t xml:space="preserve">24.7741889953613</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0891532897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.155460357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0062675476074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1057243347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2714958190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5533046722412</t>
+    <t xml:space="preserve">25.0891494750977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1554565429688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0062656402588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1057281494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2714977264404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5533027648926</t>
   </si>
   <si>
     <t xml:space="preserve">25.5450172424316</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8019599914551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9262809753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2080936431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4070167541504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4401683807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9594402313232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8765563964844</t>
+    <t xml:space="preserve">25.8019542694092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9262866973877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2080879211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4070129394531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4401664733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.959436416626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8765525817871</t>
   </si>
   <si>
     <t xml:space="preserve">26.125207901001</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2992630004883</t>
+    <t xml:space="preserve">26.2992649078369</t>
   </si>
   <si>
     <t xml:space="preserve">26.2412452697754</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6059341430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3655700683594</t>
+    <t xml:space="preserve">26.605936050415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3655738830566</t>
   </si>
   <si>
     <t xml:space="preserve">26.1666507720947</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2495365142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3324165344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5644931793213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9374732971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9540557861328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2192821502686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0369338989258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0120716094971</t>
+    <t xml:space="preserve">26.2495346069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3324184417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5644969940186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9374694824219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9540519714355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2192859649658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.036937713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0120697021484</t>
   </si>
   <si>
     <t xml:space="preserve">27.4099178314209</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6751499176025</t>
+    <t xml:space="preserve">27.6751518249512</t>
   </si>
   <si>
     <t xml:space="preserve">27.6254196166992</t>
@@ -938,145 +938,145 @@
     <t xml:space="preserve">27.6585731506348</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0647029876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5093803405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7407703399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5145988464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4810848236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7742691040039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4894676208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8412895202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6067428588867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6737480163574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4276695251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8381252288818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8129997253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5669116973877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.659049987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5752811431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7543621063232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.938648223877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0307884216309</t>
+    <t xml:space="preserve">28.0647125244141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5093784332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7407665252686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5145931243896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.481086730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7742767333984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4894599914551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8412952423096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6067390441895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6737537384033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4276714324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8381271362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8129959106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5669136047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6590538024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5752830505371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7543563842773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9386539459229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.030797958374</t>
   </si>
   <si>
     <t xml:space="preserve">29.9302749633789</t>
   </si>
   <si>
-    <t xml:space="preserve">29.871639251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0475482940674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8967628479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2485942840576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4695472717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5700759887695</t>
+    <t xml:space="preserve">29.8716430664062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0475444793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8967666625977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2485885620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4695510864258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5700664520264</t>
   </si>
   <si>
     <t xml:space="preserve">29.9972877502441</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7480373382568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7511920928955</t>
+    <t xml:space="preserve">31.7480411529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7511959075928</t>
   </si>
   <si>
     <t xml:space="preserve">30.8768539428711</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3826198577881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5585327148438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5920429229736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0391693115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5250263214111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2203025817871</t>
+    <t xml:space="preserve">30.3826160430908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5585269927979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5920372009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0391654968262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5250282287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2202987670898</t>
   </si>
   <si>
     <t xml:space="preserve">31.0276317596436</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2538032531738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4967384338379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1700382232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3292064666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3658618927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5449371337891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1512260437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6538410186768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7292251586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2852611541748</t>
+    <t xml:space="preserve">31.2538089752197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4967308044434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1700305938721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3292026519775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3658695220947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5449409484863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1512279510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6538429260254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.72922706604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2852592468262</t>
   </si>
   <si>
     <t xml:space="preserve">29.2266216278076</t>
@@ -1085,34 +1085,34 @@
     <t xml:space="preserve">29.5198097229004</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3355255126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6957206726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.394157409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6789684295654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7459831237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2234592437744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2402172088623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1731986999512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9051418304443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7711143493652</t>
+    <t xml:space="preserve">29.3355178833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6957225799561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3941555023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6789703369141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7459812164307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2234649658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2402114868164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1732006072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9051456451416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7711124420166</t>
   </si>
   <si>
     <t xml:space="preserve">29.9554004669189</t>
@@ -1121,124 +1121,124 @@
     <t xml:space="preserve">29.7878684997559</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7208518981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8548774719238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3271389007568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0423316955566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4360446929932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4946784973145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2517509460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2768859863281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6203289031982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3606510162354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6873435974121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5868225097656</t>
+    <t xml:space="preserve">29.720853805542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8548851013184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3271446228027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.042329788208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4360427856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4946804046631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2517566680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2768878936768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6203308105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3606452941895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6873455047607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.586820602417</t>
   </si>
   <si>
     <t xml:space="preserve">29.4611740112305</t>
   </si>
   <si>
-    <t xml:space="preserve">29.863260269165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1396980285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4496326446533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3239784240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.298849105835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5166454315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9773731231689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1784248352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1365299224854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2454299926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3710842132568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.985746383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2286777496338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5637474060059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7647857666016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2171401977539</t>
+    <t xml:space="preserve">29.8632583618164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1396884918213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4496288299561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3239841461182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2988510131836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5166473388672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9773712158203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1784152984619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1365280151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2454261779785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3710823059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9857444763184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2286682128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5637435913086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7647876739502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2171440124512</t>
   </si>
   <si>
     <t xml:space="preserve">32.7281188964844</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6359710693359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.543830871582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0045547485352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6694755554199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9794311523438</t>
+    <t xml:space="preserve">32.6359825134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5438270568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0045623779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.669490814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9794158935547</t>
   </si>
   <si>
     <t xml:space="preserve">32.7867584228516</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0129318237305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1218299865723</t>
+    <t xml:space="preserve">33.012939453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1218338012695</t>
   </si>
   <si>
     <t xml:space="preserve">33.1469612121582</t>
   </si>
   <si>
-    <t xml:space="preserve">33.389892578125</t>
+    <t xml:space="preserve">33.3898887634277</t>
   </si>
   <si>
     <t xml:space="preserve">33.3647575378418</t>
@@ -1250,10 +1250,10 @@
     <t xml:space="preserve">33.3312492370605</t>
   </si>
   <si>
-    <t xml:space="preserve">33.590934753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1804695129395</t>
+    <t xml:space="preserve">33.5909309387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1804618835449</t>
   </si>
   <si>
     <t xml:space="preserve">33.2307281494141</t>
@@ -1271,121 +1271,121 @@
     <t xml:space="preserve">33.6579475402832</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1720924377441</t>
+    <t xml:space="preserve">33.1720886230469</t>
   </si>
   <si>
     <t xml:space="preserve">33.2558555603027</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4150199890137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5993041992188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4317665100098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7249488830566</t>
+    <t xml:space="preserve">33.4150123596191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5993003845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4317741394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7249565124512</t>
   </si>
   <si>
     <t xml:space="preserve">33.3480033874512</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0097618103027</t>
+    <t xml:space="preserve">34.0097694396973</t>
   </si>
   <si>
     <t xml:space="preserve">33.8924942016602</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3228721618652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5071601867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.602466583252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5103225708008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3427886962891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.61083984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9742126464844</t>
+    <t xml:space="preserve">33.322868347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5071640014648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6024742126465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.510326385498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3427848815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6108474731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9742107391357</t>
   </si>
   <si>
     <t xml:space="preserve">32.3679161071777</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8653144836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4243507385254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4667091369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3481216430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3989448547363</t>
+    <t xml:space="preserve">31.8653106689453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4243431091309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4667015075684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3481140136719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3989372253418</t>
   </si>
   <si>
     <t xml:space="preserve">32.1787185668945</t>
   </si>
   <si>
-    <t xml:space="preserve">32.170238494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8653106689453</t>
+    <t xml:space="preserve">32.1702423095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8653030395508</t>
   </si>
   <si>
     <t xml:space="preserve">32.0177726745605</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8737850189209</t>
+    <t xml:space="preserve">31.8737831115723</t>
   </si>
   <si>
     <t xml:space="preserve">32.0940055847168</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8055191040039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.449764251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2295417785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7631645202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7208137512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7885780334473</t>
+    <t xml:space="preserve">32.8055114746094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4497604370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2295303344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7631607055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7208099365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7885704040527</t>
   </si>
   <si>
     <t xml:space="preserve">32.0093078613281</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3570899963379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9759273529053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5519123077393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5349655151367</t>
+    <t xml:space="preserve">31.357084274292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9759216308594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5519065856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5349617004395</t>
   </si>
   <si>
     <t xml:space="preserve">30.9843978881836</t>
@@ -1394,7 +1394,7 @@
     <t xml:space="preserve">30.8742847442627</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3401584625244</t>
+    <t xml:space="preserve">31.3401527404785</t>
   </si>
   <si>
     <t xml:space="preserve">31.6196746826172</t>
@@ -1406,13 +1406,13 @@
     <t xml:space="preserve">31.3909721374512</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5942611694336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4417972564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9330730438232</t>
+    <t xml:space="preserve">31.594259262085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4417934417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9330749511719</t>
   </si>
   <si>
     <t xml:space="preserve">32.4921112060547</t>
@@ -1424,25 +1424,25 @@
     <t xml:space="preserve">32.7801055908203</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5429344177246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3565902709961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6954002380371</t>
+    <t xml:space="preserve">32.5429382324219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3565940856934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6953964233398</t>
   </si>
   <si>
     <t xml:space="preserve">32.2888259887695</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1194229125977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7128410339355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9669589996338</t>
+    <t xml:space="preserve">32.1194152832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7128448486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9669494628906</t>
   </si>
   <si>
     <t xml:space="preserve">32.6615180969238</t>
@@ -1451,106 +1451,106 @@
     <t xml:space="preserve">32.0347137451172</t>
   </si>
   <si>
-    <t xml:space="preserve">32.525993347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.467212677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0606288909912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6794700622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8832588195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2225704193115</t>
+    <t xml:space="preserve">32.5259971618652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4672088623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0606327056885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.67946434021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8832569122314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2225742340088</t>
   </si>
   <si>
     <t xml:space="preserve">28.1891918182373</t>
   </si>
   <si>
-    <t xml:space="preserve">29.442798614502</t>
+    <t xml:space="preserve">29.4428043365479</t>
   </si>
   <si>
     <t xml:space="preserve">27.0711116790771</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1478519439697</t>
+    <t xml:space="preserve">26.1478500366211</t>
   </si>
   <si>
     <t xml:space="preserve">25.5718688964844</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0890636444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.317253112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9869117736816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3680763244629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4278755187988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9874153137207</t>
+    <t xml:space="preserve">25.0890617370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3172588348389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9869136810303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3680782318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4278774261475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.987419128418</t>
   </si>
   <si>
     <t xml:space="preserve">24.8180122375488</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6147212982178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3262329101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1568241119385</t>
+    <t xml:space="preserve">24.614725112915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3262310028076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1568222045898</t>
   </si>
   <si>
     <t xml:space="preserve">24.945068359375</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6231956481934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.021800994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4707298278809</t>
+    <t xml:space="preserve">24.6231937408447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0217990875244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4707260131836</t>
   </si>
   <si>
     <t xml:space="preserve">24.5469608306885</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3516387939453</t>
+    <t xml:space="preserve">25.3516407012939</t>
   </si>
   <si>
     <t xml:space="preserve">25.241527557373</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4871673583984</t>
+    <t xml:space="preserve">25.4871635437012</t>
   </si>
   <si>
     <t xml:space="preserve">25.1229400634766</t>
   </si>
   <si>
-    <t xml:space="preserve">24.699426651001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9789447784424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8349514007568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6062545776367</t>
+    <t xml:space="preserve">24.6994285583496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9789485931396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8349494934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6062564849854</t>
   </si>
   <si>
     <t xml:space="preserve">24.2250900268555</t>
@@ -1568,70 +1568,70 @@
     <t xml:space="preserve">23.3102970123291</t>
   </si>
   <si>
-    <t xml:space="preserve">23.716869354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4453182220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3939876556396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0043621063232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3092918395996</t>
+    <t xml:space="preserve">23.7168712615967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4453201293945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3939933776855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.004358291626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3092880249023</t>
   </si>
   <si>
     <t xml:space="preserve">25.283878326416</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0128269195557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0467109680176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8264827728271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1314144134521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0721225738525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2754077911377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4902610778809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2152481079102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.43869972229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.387134552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.48166847229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5129680633545</t>
+    <t xml:space="preserve">25.0128307342529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0467090606689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8264808654785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1314125061035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0721187591553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2754058837891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4902591705322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2152519226074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4386959075928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3871326446533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4816646575928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5129642486572</t>
   </si>
   <si>
     <t xml:space="preserve">26.272331237793</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3410835266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.573127746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2981109619141</t>
+    <t xml:space="preserve">26.34108543396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5731258392334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2981128692627</t>
   </si>
   <si>
     <t xml:space="preserve">26.3926467895508</t>
@@ -1643,13 +1643,13 @@
     <t xml:space="preserve">26.2121715545654</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5043716430664</t>
+    <t xml:space="preserve">26.504373550415</t>
   </si>
   <si>
     <t xml:space="preserve">26.3840560913086</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8769989013672</t>
+    <t xml:space="preserve">25.8769969940186</t>
   </si>
   <si>
     <t xml:space="preserve">27.638801574707</t>
@@ -1658,67 +1658,67 @@
     <t xml:space="preserve">27.4325428009033</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6989612579346</t>
+    <t xml:space="preserve">27.6989593505859</t>
   </si>
   <si>
     <t xml:space="preserve">27.5614528656006</t>
   </si>
   <si>
-    <t xml:space="preserve">27.518482208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5786418914795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6130199432373</t>
+    <t xml:space="preserve">27.5184860229492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5786437988281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6130180358887</t>
   </si>
   <si>
     <t xml:space="preserve">27.2434673309326</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1059627532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2606601715088</t>
+    <t xml:space="preserve">27.1059684753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2606582641602</t>
   </si>
   <si>
     <t xml:space="preserve">27.3465976715088</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2950325012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2919521331787</t>
+    <t xml:space="preserve">27.2950344085693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.291955947876</t>
   </si>
   <si>
     <t xml:space="preserve">28.360710144043</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3177433013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9739723205566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1630458831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2232036590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.618537902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2317962646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0942878723145</t>
+    <t xml:space="preserve">28.3177375793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9739780426025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1630401611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2232074737549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6185340881348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2318000793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0942935943604</t>
   </si>
   <si>
     <t xml:space="preserve">28.8419857025146</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6326427459717</t>
+    <t xml:space="preserve">29.6326389312744</t>
   </si>
   <si>
     <t xml:space="preserve">29.3576354980469</t>
@@ -1727,52 +1727,52 @@
     <t xml:space="preserve">29.4263877868652</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5497798919678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4982204437256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8591690063477</t>
+    <t xml:space="preserve">28.549783706665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4982147216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8591728210449</t>
   </si>
   <si>
     <t xml:space="preserve">28.8247947692871</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2716979980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6277656555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6050624847412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9574241638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2668151855469</t>
+    <t xml:space="preserve">29.2716903686523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6277694702148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6050605773926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.957426071167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2668132781982</t>
   </si>
   <si>
     <t xml:space="preserve">25.7480869293213</t>
   </si>
   <si>
-    <t xml:space="preserve">25.997314453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6418781280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6504707336426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3238945007324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4184322357178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8254299163818</t>
+    <t xml:space="preserve">25.9973163604736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6418762207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6504745483398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3238906860352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4184303283691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8254337310791</t>
   </si>
   <si>
     <t xml:space="preserve">25.6965217590332</t>
@@ -1781,88 +1781,88 @@
     <t xml:space="preserve">25.8082447052002</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8137664794922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6676616668701</t>
+    <t xml:space="preserve">26.8137626647949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6676635742188</t>
   </si>
   <si>
     <t xml:space="preserve">26.8911094665527</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0543994903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0372085571289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7364158630371</t>
+    <t xml:space="preserve">27.0543975830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0372104644775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7364139556885</t>
   </si>
   <si>
     <t xml:space="preserve">26.8997020721436</t>
   </si>
   <si>
-    <t xml:space="preserve">27.4841060638428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5098876953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2348747253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5872364044189</t>
+    <t xml:space="preserve">27.4841041564941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5098838806152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2348766326904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5872344970703</t>
   </si>
   <si>
     <t xml:space="preserve">27.7161464691162</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9997577667236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0169410705566</t>
+    <t xml:space="preserve">27.999755859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0169429779053</t>
   </si>
   <si>
     <t xml:space="preserve">27.8966236114502</t>
   </si>
   <si>
-    <t xml:space="preserve">27.501293182373</t>
+    <t xml:space="preserve">27.5012912750244</t>
   </si>
   <si>
     <t xml:space="preserve">27.226282119751</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6160926818848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2379550933838</t>
+    <t xml:space="preserve">26.616096496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2379570007324</t>
   </si>
   <si>
     <t xml:space="preserve">26.5645313262939</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4012432098389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1520137786865</t>
+    <t xml:space="preserve">26.4012393951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1520118713379</t>
   </si>
   <si>
     <t xml:space="preserve">25.9285640716553</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9543495178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0660705566406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9199676513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2035751342773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1176338195801</t>
+    <t xml:space="preserve">25.9543476104736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.066068649292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9199695587158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.203577041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1176357269287</t>
   </si>
   <si>
     <t xml:space="preserve">26.2551383972168</t>
@@ -1871,64 +1871,64 @@
     <t xml:space="preserve">25.8340282440186</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2207679748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7566795349121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5676078796387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6105804443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4988574981689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3183784484863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2238426208496</t>
+    <t xml:space="preserve">26.2207641601562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7566814422607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5676097869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6105785369873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4988555908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3183822631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.223840713501</t>
   </si>
   <si>
     <t xml:space="preserve">25.0261783599854</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2324371337891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3785343170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.550422668457</t>
+    <t xml:space="preserve">25.2324352264404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3785400390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5504207611084</t>
   </si>
   <si>
     <t xml:space="preserve">25.0605545043945</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2839984893799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4215087890625</t>
+    <t xml:space="preserve">25.2840023040771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4215106964111</t>
   </si>
   <si>
     <t xml:space="preserve">26.3496780395508</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0746650695801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6621475219727</t>
+    <t xml:space="preserve">26.0746669769287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.662145614624</t>
   </si>
   <si>
     <t xml:space="preserve">25.7996559143066</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9715328216553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0089931488037</t>
+    <t xml:space="preserve">25.9715347290039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0089893341064</t>
   </si>
   <si>
     <t xml:space="preserve">24.8628902435303</t>
@@ -1940,40 +1940,40 @@
     <t xml:space="preserve">24.9144535064697</t>
   </si>
   <si>
-    <t xml:space="preserve">25.069149017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4558887481689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.773868560791</t>
+    <t xml:space="preserve">25.0691471099854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4558868408203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7738666534424</t>
   </si>
   <si>
     <t xml:space="preserve">25.5246391296387</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6019897460938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1722755432129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0402908325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5817203521729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7137069702148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8598136901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.911376953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7394962310791</t>
+    <t xml:space="preserve">25.6019859313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1722793579102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0402870178223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5817184448242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7137088775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8598098754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9113750457764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7394886016846</t>
   </si>
   <si>
     <t xml:space="preserve">25.8684043884277</t>
@@ -1982,43 +1982,43 @@
     <t xml:space="preserve">25.6363620758057</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9801292419434</t>
+    <t xml:space="preserve">25.9801273345947</t>
   </si>
   <si>
     <t xml:space="preserve">25.6535511016846</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4644775390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8542976379395</t>
+    <t xml:space="preserve">25.4644794464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8542938232422</t>
   </si>
   <si>
     <t xml:space="preserve">24.9230480194092</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0433654785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1306533813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7727680206299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7640399932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3799667358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3712368011475</t>
+    <t xml:space="preserve">25.0433673858643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1306571960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7727699279785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7640380859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3799686431885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3712348937988</t>
   </si>
   <si>
     <t xml:space="preserve">24.4323387145996</t>
   </si>
   <si>
-    <t xml:space="preserve">24.231575012207</t>
+    <t xml:space="preserve">24.2315731048584</t>
   </si>
   <si>
     <t xml:space="preserve">24.7989559173584</t>
@@ -2027,43 +2027,43 @@
     <t xml:space="preserve">25.1393852233887</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1131973266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9648036956787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4410648345947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5283584594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3886947631836</t>
+    <t xml:space="preserve">25.1131992340088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9648094177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4410724639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.528356552124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.388692855835</t>
   </si>
   <si>
     <t xml:space="preserve">24.3537750244141</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8164119720459</t>
+    <t xml:space="preserve">24.8164138793945</t>
   </si>
   <si>
     <t xml:space="preserve">24.7902240753174</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0520973205566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.31396484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4885425567627</t>
+    <t xml:space="preserve">25.052095413208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3139610290527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4885444641113</t>
   </si>
   <si>
     <t xml:space="preserve">25.8813457489014</t>
   </si>
   <si>
-    <t xml:space="preserve">26.44873046875</t>
+    <t xml:space="preserve">26.4487247467041</t>
   </si>
   <si>
     <t xml:space="preserve">27.0684833526611</t>
@@ -2072,43 +2072,43 @@
     <t xml:space="preserve">26.439998626709</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2043209075928</t>
+    <t xml:space="preserve">26.2043190002441</t>
   </si>
   <si>
     <t xml:space="preserve">26.012279510498</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2916069030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9686336517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8376998901367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1170253753662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.863883972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7804260253906</t>
+    <t xml:space="preserve">26.2916049957275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9686317443848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8376979827881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1170272827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8638858795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7804298400879</t>
   </si>
   <si>
     <t xml:space="preserve">26.8415298461914</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9811935424805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6009502410889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2343349456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.797887802124</t>
+    <t xml:space="preserve">26.9811916351318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6009464263916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2343330383301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7978858947754</t>
   </si>
   <si>
     <t xml:space="preserve">26.3352508544922</t>
@@ -2126,256 +2126,256 @@
     <t xml:space="preserve">26.5622043609619</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6184101104736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3914566040039</t>
+    <t xml:space="preserve">27.6184043884277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3914489746094</t>
   </si>
   <si>
     <t xml:space="preserve">28.0286674499512</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9364795684814</t>
+    <t xml:space="preserve">28.9364833831787</t>
   </si>
   <si>
     <t xml:space="preserve">28.8928337097168</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1770610809326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6707782745361</t>
+    <t xml:space="preserve">28.1770572662354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6707801818848</t>
   </si>
   <si>
     <t xml:space="preserve">27.9675636291504</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3516387939453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1896171569824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.259449005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5300445556641</t>
+    <t xml:space="preserve">28.3516407012939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1896133422852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2594528198242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.53005027771</t>
   </si>
   <si>
     <t xml:space="preserve">29.6435222625732</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1110553741455</t>
+    <t xml:space="preserve">29.1110572814941</t>
   </si>
   <si>
     <t xml:space="preserve">29.2681789398193</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8579196929932</t>
+    <t xml:space="preserve">28.8579216003418</t>
   </si>
   <si>
     <t xml:space="preserve">28.6571502685547</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6309661865234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8753814697266</t>
+    <t xml:space="preserve">28.6309604644775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8753776550293</t>
   </si>
   <si>
     <t xml:space="preserve">28.735710144043</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8666477203369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0761413574219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5475063323975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6784362792969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6173305511475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4776725769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4427585601807</t>
+    <t xml:space="preserve">28.8666458129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0761451721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5475044250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6784381866455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.617338180542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4776706695557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4427547454834</t>
   </si>
   <si>
     <t xml:space="preserve">30.0014095306396</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1323413848877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4989547729492</t>
+    <t xml:space="preserve">30.1323471069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4989604949951</t>
   </si>
   <si>
     <t xml:space="preserve">31.4504165649414</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5726203918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0090751647949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0788993835449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9130535125732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1099872589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2060031890869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3282127380371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0401630401611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9664993286133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2981929779053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5076923370361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0663433074951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2845726013184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9703235626221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5027866363525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5464420318604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2671089172363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4766044616699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.563892364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6773681640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5115242004395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9877872467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7841682434082</t>
+    <t xml:space="preserve">31.5726184844971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0090675354004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0789031982422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9130611419678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.109992980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2060070037842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3282108306885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.040153503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9664974212646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2981986999512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5076885223389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.066349029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2845687866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9703254699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5027847290039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5464305877686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2671070098877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4766006469727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5638980865479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6773719787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5115146636963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9877891540527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7841701507568</t>
   </si>
   <si>
     <t xml:space="preserve">31.4126319885254</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4391708374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0318603515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8195533752441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8372440338135</t>
+    <t xml:space="preserve">31.4391670227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0318565368652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8195571899414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.837251663208</t>
   </si>
   <si>
     <t xml:space="preserve">31.9964714050293</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0141677856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3595561981201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5453262329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2618637084961</t>
+    <t xml:space="preserve">32.0141716003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3595600128174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5453224182129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2618598937988</t>
   </si>
   <si>
     <t xml:space="preserve">31.2887840270996</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1118545532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9618606567383</t>
+    <t xml:space="preserve">31.1118621826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9618625640869</t>
   </si>
   <si>
     <t xml:space="preserve">30.5280170440674</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2534046173096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3591651916504</t>
+    <t xml:space="preserve">31.2534065246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3591690063477</t>
   </si>
   <si>
     <t xml:space="preserve">32.3237838745117</t>
   </si>
   <si>
-    <t xml:space="preserve">32.332633972168</t>
+    <t xml:space="preserve">32.3326301574707</t>
   </si>
   <si>
     <t xml:space="preserve">32.8014755249023</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4476280212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0053176879883</t>
+    <t xml:space="preserve">32.4476318359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0053253173828</t>
   </si>
   <si>
     <t xml:space="preserve">32.456470489502</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1557083129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3945465087891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5980072021484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6953201293945</t>
+    <t xml:space="preserve">32.155704498291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3945503234863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.598014831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6953239440918</t>
   </si>
   <si>
     <t xml:space="preserve">32.7307052612305</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1907043457031</t>
+    <t xml:space="preserve">33.1907119750977</t>
   </si>
   <si>
     <t xml:space="preserve">33.1818580627441</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6153221130371</t>
+    <t xml:space="preserve">33.6153144836426</t>
   </si>
   <si>
     <t xml:space="preserve">33.5799331665039</t>
@@ -2384,10 +2384,10 @@
     <t xml:space="preserve">33.7037773132324</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6860961914062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2880172729492</t>
+    <t xml:space="preserve">33.6860847473145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.288013458252</t>
   </si>
   <si>
     <t xml:space="preserve">33.270320892334</t>
@@ -2396,139 +2396,139 @@
     <t xml:space="preserve">33.0845527648926</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7749366760254</t>
+    <t xml:space="preserve">32.7749290466309</t>
   </si>
   <si>
     <t xml:space="preserve">32.2353248596191</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7130126953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.99609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0756988525391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1203269958496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9345569610596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4299354553223</t>
+    <t xml:space="preserve">32.7130165100098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9960899353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0757026672363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1203193664551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.934549331665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.429931640625</t>
   </si>
   <si>
     <t xml:space="preserve">32.5449409484863</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8987808227539</t>
+    <t xml:space="preserve">32.8987846374512</t>
   </si>
   <si>
     <t xml:space="preserve">33.2526245117188</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3764762878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8364715576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3676261901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0753173828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0576248168945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7653160095215</t>
+    <t xml:space="preserve">33.3764801025391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8364677429199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3676300048828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0753135681152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0576210021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7653121948242</t>
   </si>
   <si>
     <t xml:space="preserve">34.7918586730957</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6856918334961</t>
+    <t xml:space="preserve">34.6857032775879</t>
   </si>
   <si>
     <t xml:space="preserve">35.0749359130859</t>
   </si>
   <si>
-    <t xml:space="preserve">35.0483932495117</t>
+    <t xml:space="preserve">35.0483894348145</t>
   </si>
   <si>
     <t xml:space="preserve">35.1810874938965</t>
   </si>
   <si>
-    <t xml:space="preserve">35.322624206543</t>
+    <t xml:space="preserve">35.3226203918457</t>
   </si>
   <si>
     <t xml:space="preserve">35.7295455932617</t>
   </si>
   <si>
-    <t xml:space="preserve">35.473014831543</t>
+    <t xml:space="preserve">35.4729995727539</t>
   </si>
   <si>
     <t xml:space="preserve">35.552619934082</t>
   </si>
   <si>
-    <t xml:space="preserve">35.5083885192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1987762451172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.853385925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8710784912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0395469665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3495483398438</t>
+    <t xml:space="preserve">35.5083923339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1987800598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8533935546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8710861206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.03955078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.349552154541</t>
   </si>
   <si>
     <t xml:space="preserve">34.4380111694336</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1191673278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.287239074707</t>
+    <t xml:space="preserve">35.1191558837891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2872352600098</t>
   </si>
   <si>
     <t xml:space="preserve">34.6591567993164</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3760833740234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7922439575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3230056762695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5530052185059</t>
+    <t xml:space="preserve">34.376091003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7922477722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3230094909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5530090332031</t>
   </si>
   <si>
     <t xml:space="preserve">34.1814727783203</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2518463134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9510841369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3668594360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2960815429688</t>
+    <t xml:space="preserve">35.2518539428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9510803222656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3668518066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2960891723633</t>
   </si>
   <si>
     <t xml:space="preserve">36.2426261901855</t>
@@ -2537,7 +2537,7 @@
     <t xml:space="preserve">35.6057014465332</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2607002258301</t>
+    <t xml:space="preserve">35.2607040405273</t>
   </si>
   <si>
     <t xml:space="preserve">35.9153137207031</t>
@@ -2546,97 +2546,97 @@
     <t xml:space="preserve">35.7914695739746</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8445434570312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3314781188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3491630554199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8099327087402</t>
+    <t xml:space="preserve">35.8445472717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.331470489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3491592407227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.809928894043</t>
   </si>
   <si>
     <t xml:space="preserve">34.9068565368652</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7833938598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3672409057617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8980026245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1280097961426</t>
+    <t xml:space="preserve">33.783390045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3672370910645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.898006439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1280136108398</t>
   </si>
   <si>
     <t xml:space="preserve">35.2076263427734</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5707015991211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9245491027832</t>
+    <t xml:space="preserve">34.5707054138184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9245452880859</t>
   </si>
   <si>
     <t xml:space="preserve">34.8095512390137</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8183975219727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1903228759766</t>
+    <t xml:space="preserve">34.8183937072754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.190315246582</t>
   </si>
   <si>
     <t xml:space="preserve">32.8633995056152</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0403251647949</t>
+    <t xml:space="preserve">33.0403175354004</t>
   </si>
   <si>
     <t xml:space="preserve">32.571475982666</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0226287841797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4653244018555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7837905883789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1464729309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7657051086426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1376304626465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3499374389648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5360908508301</t>
+    <t xml:space="preserve">33.022632598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4653282165527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7837867736816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1464767456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7657012939453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1376266479492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3499336242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5360870361328</t>
   </si>
   <si>
     <t xml:space="preserve">32.3149375915527</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3414726257324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.606861114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8103218078613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6330146789551</t>
+    <t xml:space="preserve">32.341480255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6068572998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8103179931641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6330108642578</t>
   </si>
   <si>
     <t xml:space="preserve">33.3233947753906</t>
@@ -2645,28 +2645,28 @@
     <t xml:space="preserve">32.3768577575684</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9253273010254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6599388122559</t>
+    <t xml:space="preserve">32.9253196716309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6599349975586</t>
   </si>
   <si>
     <t xml:space="preserve">33.1553153991699</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1110877990723</t>
+    <t xml:space="preserve">33.111083984375</t>
   </si>
   <si>
     <t xml:space="preserve">33.4649314880371</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5268592834473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2939109802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1505546569824</t>
+    <t xml:space="preserve">33.5268630981445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2939071655273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1505584716797</t>
   </si>
   <si>
     <t xml:space="preserve">34.1271553039551</t>
@@ -2675,10 +2675,10 @@
     <t xml:space="preserve">33.9569206237793</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5268516540527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3118324279785</t>
+    <t xml:space="preserve">33.52685546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3118209838867</t>
   </si>
   <si>
     <t xml:space="preserve">33.535816192627</t>
@@ -2693,10 +2693,10 @@
     <t xml:space="preserve">34.1092300415039</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3979454040527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8907318115234</t>
+    <t xml:space="preserve">32.3979530334473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8907241821289</t>
   </si>
   <si>
     <t xml:space="preserve">32.953441619873</t>
@@ -2705,13 +2705,13 @@
     <t xml:space="preserve">32.7921676635742</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7294540405273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7439002990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2814674377441</t>
+    <t xml:space="preserve">32.7294502258301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7438983917236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2814750671387</t>
   </si>
   <si>
     <t xml:space="preserve">32.4785842895508</t>
@@ -2720,34 +2720,34 @@
     <t xml:space="preserve">32.6577758789062</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6040191650391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2043190002441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8135681152344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0017166137695</t>
+    <t xml:space="preserve">32.6040153503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2043151855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8135643005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0017127990723</t>
   </si>
   <si>
     <t xml:space="preserve">33.6702156066895</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2257080078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0106735229492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6612548828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3421897888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.831485748291</t>
+    <t xml:space="preserve">34.225715637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0106811523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.661247253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3421821594238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8314819335938</t>
   </si>
   <si>
     <t xml:space="preserve">33.9479560852051</t>
@@ -2756,151 +2756,151 @@
     <t xml:space="preserve">34.7543258666992</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7364044189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7274398803711</t>
+    <t xml:space="preserve">34.7364082336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7274436950684</t>
   </si>
   <si>
     <t xml:space="preserve">35.1395874023438</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6950836181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.960391998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3815002441406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4621353149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8384437561035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1251411437988</t>
+    <t xml:space="preserve">35.6950798034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9603958129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3814964294434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4621315002441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.838436126709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1251449584961</t>
   </si>
   <si>
     <t xml:space="preserve">36.0982666015625</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7757225036621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.626880645752</t>
+    <t xml:space="preserve">35.7757148742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6268882751465</t>
   </si>
   <si>
     <t xml:space="preserve">35.5606842041016</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6109733581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2471008300781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8653144836426</t>
+    <t xml:space="preserve">34.6109771728516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2471046447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8653106689453</t>
   </si>
   <si>
     <t xml:space="preserve">35.8563575744629</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2864151000977</t>
+    <t xml:space="preserve">36.2864112854004</t>
   </si>
   <si>
     <t xml:space="preserve">36.0086669921875</t>
   </si>
   <si>
-    <t xml:space="preserve">36.3670539855957</t>
+    <t xml:space="preserve">36.3670501708984</t>
   </si>
   <si>
     <t xml:space="preserve">36.6627197265625</t>
   </si>
   <si>
-    <t xml:space="preserve">37.012149810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7343978881836</t>
+    <t xml:space="preserve">37.0121421813965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7344017028809</t>
   </si>
   <si>
     <t xml:space="preserve">36.1520233154297</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8239898681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2092590332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7737121582031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4028968811035</t>
+    <t xml:space="preserve">36.8239974975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2092552185059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.7737159729004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4028930664062</t>
   </si>
   <si>
     <t xml:space="preserve">34.4855346679688</t>
   </si>
   <si>
-    <t xml:space="preserve">34.619930267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6502838134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6682090759277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6557731628418</t>
+    <t xml:space="preserve">34.6199264526367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6502876281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6682052612305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6557655334473</t>
   </si>
   <si>
     <t xml:space="preserve">34.4676170349121</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1575012207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2650260925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.575138092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9892807006836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7762565612793</t>
+    <t xml:space="preserve">35.1575126647949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.265022277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5751304626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9892845153809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7762603759766</t>
   </si>
   <si>
     <t xml:space="preserve">30.310359954834</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3198547363281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0594902038574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6473484039307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6149864196777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1794376373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5647029876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5736675262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2959136962891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3710708618164</t>
+    <t xml:space="preserve">25.3198585510254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0594863891602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6473503112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6149845123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1794395446777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5647068023682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5736656188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.295919418335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3710670471191</t>
   </si>
   <si>
     <t xml:space="preserve">32.5681800842285</t>
@@ -2915,115 +2915,115 @@
     <t xml:space="preserve">33.7777290344238</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2167472839355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2132759094238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7329216003418</t>
+    <t xml:space="preserve">34.216739654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2132720947266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7329292297363</t>
   </si>
   <si>
     <t xml:space="preserve">33.4820594787598</t>
   </si>
   <si>
-    <t xml:space="preserve">32.917610168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8494033813477</t>
+    <t xml:space="preserve">32.9176063537598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8494071960449</t>
   </si>
   <si>
     <t xml:space="preserve">34.4944953918457</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2973823547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8225288391113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7722434997559</t>
+    <t xml:space="preserve">34.2973785400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8225212097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7722511291504</t>
   </si>
   <si>
     <t xml:space="preserve">34.1898727416992</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5930480957031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3153076171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0141525268555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6000022888184</t>
+    <t xml:space="preserve">34.5930519104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3153038024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.01416015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6000061035156</t>
   </si>
   <si>
     <t xml:space="preserve">35.5427703857422</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3725395202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.277458190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7309226989746</t>
+    <t xml:space="preserve">35.3725357055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.2774543762207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7309188842773</t>
   </si>
   <si>
     <t xml:space="preserve">36.6537666320801</t>
   </si>
   <si>
-    <t xml:space="preserve">37.0927848815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.4222869873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6338272094727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.1445274353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.8991470336914</t>
+    <t xml:space="preserve">37.0927886962891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.4222831726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6338386535645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.14453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.8991432189941</t>
   </si>
   <si>
     <t xml:space="preserve">40.1928100585938</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3015785217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.0473556518555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6728248596191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.328369140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2167053222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1623191833496</t>
+    <t xml:space="preserve">40.301586151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0473594665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6728286743164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.3283729553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2167091369629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1623115539551</t>
   </si>
   <si>
     <t xml:space="preserve">38.3798713684082</t>
   </si>
   <si>
-    <t xml:space="preserve">37.4643402099609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.872241973877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.0926856994629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8479423522949</t>
+    <t xml:space="preserve">37.4643440246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.8722534179688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0926818847656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8479347229004</t>
   </si>
   <si>
     <t xml:space="preserve">37.2739753723145</t>
@@ -3032,64 +3032,64 @@
     <t xml:space="preserve">37.1923942565918</t>
   </si>
   <si>
-    <t xml:space="preserve">37.7816009521484</t>
+    <t xml:space="preserve">37.7816047668457</t>
   </si>
   <si>
     <t xml:space="preserve">37.4824676513672</t>
   </si>
   <si>
-    <t xml:space="preserve">37.3646278381348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6003074645996</t>
+    <t xml:space="preserve">37.3646240234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6003112792969</t>
   </si>
   <si>
     <t xml:space="preserve">37.9719619750977</t>
   </si>
   <si>
-    <t xml:space="preserve">36.7482261657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7663536071777</t>
+    <t xml:space="preserve">36.7482223510742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.766357421875</t>
   </si>
   <si>
     <t xml:space="preserve">37.663761138916</t>
   </si>
   <si>
-    <t xml:space="preserve">38.5974273681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0176963806152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0930976867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1445960998535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1627311706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8244476318359</t>
+    <t xml:space="preserve">38.5974235534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.017692565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0930938720703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1445999145508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.162727355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8244514465332</t>
   </si>
   <si>
     <t xml:space="preserve">40.791072845459</t>
   </si>
   <si>
-    <t xml:space="preserve">40.963306427002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7094917297363</t>
+    <t xml:space="preserve">40.9633026123047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7094955444336</t>
   </si>
   <si>
     <t xml:space="preserve">40.2925186157227</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1717910766602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4527969360352</t>
+    <t xml:space="preserve">41.1717948913574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4528007507324</t>
   </si>
   <si>
     <t xml:space="preserve">41.5525093078613</t>
@@ -3098,49 +3098,49 @@
     <t xml:space="preserve">42.2776832580566</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6884803771973</t>
+    <t xml:space="preserve">41.6884841918945</t>
   </si>
   <si>
     <t xml:space="preserve">41.6975440979004</t>
   </si>
   <si>
-    <t xml:space="preserve">41.8335151672363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3349571228027</t>
+    <t xml:space="preserve">41.8335189819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3349533081055</t>
   </si>
   <si>
     <t xml:space="preserve">42.3139419555664</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6221389770508</t>
+    <t xml:space="preserve">42.6221466064453</t>
   </si>
   <si>
     <t xml:space="preserve">42.9666023254395</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1569557189941</t>
+    <t xml:space="preserve">43.1569595336914</t>
   </si>
   <si>
     <t xml:space="preserve">43.8005485534668</t>
   </si>
   <si>
-    <t xml:space="preserve">44.1993980407715</t>
+    <t xml:space="preserve">44.1994018554688</t>
   </si>
   <si>
     <t xml:space="preserve">43.8096199035645</t>
   </si>
   <si>
-    <t xml:space="preserve">43.202278137207</t>
+    <t xml:space="preserve">43.2022819519043</t>
   </si>
   <si>
     <t xml:space="preserve">43.6373863220215</t>
   </si>
   <si>
-    <t xml:space="preserve">42.5677490234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8940811157227</t>
+    <t xml:space="preserve">42.567756652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8940773010254</t>
   </si>
   <si>
     <t xml:space="preserve">42.903148651123</t>
@@ -3149,7 +3149,7 @@
     <t xml:space="preserve">42.7037315368652</t>
   </si>
   <si>
-    <t xml:space="preserve">41.4074783325195</t>
+    <t xml:space="preserve">41.4074745178223</t>
   </si>
   <si>
     <t xml:space="preserve">41.0086288452148</t>
@@ -3158,10 +3158,10 @@
     <t xml:space="preserve">41.5253143310547</t>
   </si>
   <si>
-    <t xml:space="preserve">40.5372657775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4828758239746</t>
+    <t xml:space="preserve">40.5372619628906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4828720092773</t>
   </si>
   <si>
     <t xml:space="preserve">40.4466171264648</t>
@@ -3179,40 +3179,40 @@
     <t xml:space="preserve">40.8545303344727</t>
   </si>
   <si>
-    <t xml:space="preserve">41.5978355407715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3530883789062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0630226135254</t>
+    <t xml:space="preserve">41.5978317260742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3530807495117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0630149841309</t>
   </si>
   <si>
     <t xml:space="preserve">41.7881927490234</t>
   </si>
   <si>
-    <t xml:space="preserve">42.1507835388184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1536598205566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3984069824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0992774963379</t>
+    <t xml:space="preserve">42.1507797241211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1536712646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3984107971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0992736816406</t>
   </si>
   <si>
     <t xml:space="preserve">41.5071868896484</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7366790771484</t>
+    <t xml:space="preserve">40.736686706543</t>
   </si>
   <si>
     <t xml:space="preserve">40.2290649414062</t>
   </si>
   <si>
-    <t xml:space="preserve">40.9723777770996</t>
+    <t xml:space="preserve">40.9723701477051</t>
   </si>
   <si>
     <t xml:space="preserve">39.8302230834961</t>
@@ -3221,16 +3221,16 @@
     <t xml:space="preserve">40.9542427062988</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6551055908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9179840087891</t>
+    <t xml:space="preserve">40.6550979614258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9179763793945</t>
   </si>
   <si>
     <t xml:space="preserve">40.9995651245117</t>
   </si>
   <si>
-    <t xml:space="preserve">40.5463256835938</t>
+    <t xml:space="preserve">40.546329498291</t>
   </si>
   <si>
     <t xml:space="preserve">40.2109375</t>
@@ -3245,52 +3245,52 @@
     <t xml:space="preserve">40.5825881958008</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7820129394531</t>
+    <t xml:space="preserve">40.7820091247559</t>
   </si>
   <si>
     <t xml:space="preserve">40.4556846618652</t>
   </si>
   <si>
-    <t xml:space="preserve">39.64892578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.7848968505859</t>
+    <t xml:space="preserve">39.6489219665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.7848930358887</t>
   </si>
   <si>
     <t xml:space="preserve">39.9752540588379</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3712158203125</t>
+    <t xml:space="preserve">41.3712196350098</t>
   </si>
   <si>
     <t xml:space="preserve">41.5343818664551</t>
   </si>
   <si>
-    <t xml:space="preserve">42.3411407470703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.023868560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0782623291016</t>
+    <t xml:space="preserve">42.341136932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.0238723754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.0782585144043</t>
   </si>
   <si>
     <t xml:space="preserve">41.7972564697266</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8306274414062</t>
+    <t xml:space="preserve">42.8306350708008</t>
   </si>
   <si>
     <t xml:space="preserve">42.25048828125</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8759498596191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.5405578613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.283863067627</t>
+    <t xml:space="preserve">42.8759536743164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5405616760254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.2838668823242</t>
   </si>
   <si>
     <t xml:space="preserve">43.2657356262207</t>
@@ -3311,13 +3311,13 @@
     <t xml:space="preserve">38.7787132263184</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8363952636719</t>
+    <t xml:space="preserve">40.8363914489746</t>
   </si>
   <si>
     <t xml:space="preserve">41.9060287475586</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9785537719727</t>
+    <t xml:space="preserve">41.9785461425781</t>
   </si>
   <si>
     <t xml:space="preserve">41.6250228881836</t>
@@ -3335,70 +3335,70 @@
     <t xml:space="preserve">42.8668899536133</t>
   </si>
   <si>
-    <t xml:space="preserve">42.3502044677734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8607063293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9332237243652</t>
+    <t xml:space="preserve">42.3502082824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.860710144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.933219909668</t>
   </si>
   <si>
     <t xml:space="preserve">41.2276191711426</t>
   </si>
   <si>
-    <t xml:space="preserve">40.1646308898926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7052803039551</t>
+    <t xml:space="preserve">40.1646270751953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7052879333496</t>
   </si>
   <si>
     <t xml:space="preserve">41.1084938049316</t>
   </si>
   <si>
-    <t xml:space="preserve">41.5208625793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8977279663086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1279754638672</t>
+    <t xml:space="preserve">41.5208549499512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8977241516113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1279716491699</t>
   </si>
   <si>
     <t xml:space="preserve">39.4406890869141</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3490524291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.5781478881836</t>
+    <t xml:space="preserve">39.349048614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.5781517028809</t>
   </si>
   <si>
     <t xml:space="preserve">40.0088424682617</t>
   </si>
   <si>
-    <t xml:space="preserve">40.4303741455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2929191589355</t>
+    <t xml:space="preserve">40.4303703308105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2929229736328</t>
   </si>
   <si>
     <t xml:space="preserve">40.338737487793</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0260200500488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8072357177734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.677791595459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3295745849609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.751106262207</t>
+    <t xml:space="preserve">41.0260162353516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.807243347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6777954101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3295783996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7511024475098</t>
   </si>
   <si>
     <t xml:space="preserve">40.5861587524414</t>
@@ -3407,25 +3407,25 @@
     <t xml:space="preserve">40.9801979064941</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2367820739746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5391883850098</t>
+    <t xml:space="preserve">41.2367858886719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5391845703125</t>
   </si>
   <si>
     <t xml:space="preserve">41.3833999633789</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9172134399414</t>
+    <t xml:space="preserve">39.9172096252441</t>
   </si>
   <si>
     <t xml:space="preserve">38.4143524169922</t>
   </si>
   <si>
-    <t xml:space="preserve">39.211597442627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2574195861816</t>
+    <t xml:space="preserve">39.2116012573242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2574157714844</t>
   </si>
   <si>
     <t xml:space="preserve">39.2757453918457</t>
@@ -3434,58 +3434,58 @@
     <t xml:space="preserve">39.9721870422363</t>
   </si>
   <si>
-    <t xml:space="preserve">40.155460357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0180053710938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0546646118164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8805503845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9916725158691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.083309173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.3398895263672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8725433349609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9550094604492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9458465576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6067962646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.1474571228027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8438949584961</t>
+    <t xml:space="preserve">40.1554641723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0180015563965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0546607971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8805541992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9916687011719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.0833129882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.3398933410645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8725395202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9550132751465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9458503723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6067924499512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.1474533081055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8438987731934</t>
   </si>
   <si>
     <t xml:space="preserve">40.3845558166504</t>
   </si>
   <si>
-    <t xml:space="preserve">40.2654266357422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.81640625</t>
+    <t xml:space="preserve">40.2654304504395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8164024353027</t>
   </si>
   <si>
     <t xml:space="preserve">41.1268196105957</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6033325195312</t>
+    <t xml:space="preserve">41.6033363342285</t>
   </si>
   <si>
     <t xml:space="preserve">41.7682800292969</t>
@@ -3494,7 +3494,7 @@
     <t xml:space="preserve">41.465877532959</t>
   </si>
   <si>
-    <t xml:space="preserve">41.5025329589844</t>
+    <t xml:space="preserve">41.5025291442871</t>
   </si>
   <si>
     <t xml:space="preserve">41.0901641845703</t>
@@ -3503,34 +3503,34 @@
     <t xml:space="preserve">40.5494995117188</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3204154968262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0821495056152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1371307373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7809066772461</t>
+    <t xml:space="preserve">40.3204116821289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0821571350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.137134552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7809028625488</t>
   </si>
   <si>
     <t xml:space="preserve">38.900032043457</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2849082946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.220760345459</t>
+    <t xml:space="preserve">39.284912109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2207641601562</t>
   </si>
   <si>
     <t xml:space="preserve">38.6159591674805</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8908615112305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.1016311645508</t>
+    <t xml:space="preserve">38.8908653259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.101634979248</t>
   </si>
   <si>
     <t xml:space="preserve">39.4131965637207</t>
@@ -3563,37 +3563,37 @@
     <t xml:space="preserve">41.1817932128906</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1726379394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9985275268555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4292182922363</t>
+    <t xml:space="preserve">41.1726303100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9985313415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4292221069336</t>
   </si>
   <si>
     <t xml:space="preserve">41.6766395568848</t>
   </si>
   <si>
-    <t xml:space="preserve">41.4108963012695</t>
+    <t xml:space="preserve">41.4108924865723</t>
   </si>
   <si>
     <t xml:space="preserve">41.3925666809082</t>
   </si>
   <si>
-    <t xml:space="preserve">41.8232612609863</t>
+    <t xml:space="preserve">41.8232650756836</t>
   </si>
   <si>
     <t xml:space="preserve">42.0340270996094</t>
   </si>
   <si>
-    <t xml:space="preserve">42.9595603942871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.2997741699219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0798416137695</t>
+    <t xml:space="preserve">42.9595680236816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.2997703552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.0798454284668</t>
   </si>
   <si>
     <t xml:space="preserve">41.6583137512207</t>
@@ -3602,10 +3602,10 @@
     <t xml:space="preserve">41.5758399963379</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7499580383301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7316284179688</t>
+    <t xml:space="preserve">41.7499504089355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7316246032715</t>
   </si>
   <si>
     <t xml:space="preserve">41.8965721130371</t>
@@ -3614,25 +3614,25 @@
     <t xml:space="preserve">42.0523529052734</t>
   </si>
   <si>
-    <t xml:space="preserve">42.1073341369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.188663482666</t>
+    <t xml:space="preserve">42.1073379516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1886558532715</t>
   </si>
   <si>
     <t xml:space="preserve">43.0878524780273</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6480026245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.5746841430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3089370727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1989707946777</t>
+    <t xml:space="preserve">42.6479988098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5746879577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3089332580566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1989784240723</t>
   </si>
   <si>
     <t xml:space="preserve">41.9057312011719</t>
@@ -3644,28 +3644,28 @@
     <t xml:space="preserve">41.9698829650879</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0248680114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2551078796387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0535087585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1188049316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0363311767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3753967285156</t>
+    <t xml:space="preserve">42.0248641967773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2551155090332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0535049438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1188087463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0363349914551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3753929138184</t>
   </si>
   <si>
     <t xml:space="preserve">40.5036849975586</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2092895507812</t>
+    <t xml:space="preserve">41.2092933654785</t>
   </si>
   <si>
     <t xml:space="preserve">41.5300178527832</t>
@@ -3677,31 +3677,31 @@
     <t xml:space="preserve">42.602180480957</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6949119567871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.9545631408691</t>
+    <t xml:space="preserve">42.6949157714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.9545669555664</t>
   </si>
   <si>
     <t xml:space="preserve">42.6021766662598</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0272254943848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.463077545166</t>
+    <t xml:space="preserve">42.0272216796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.4630737304688</t>
   </si>
   <si>
     <t xml:space="preserve">42.1848754882812</t>
   </si>
   <si>
-    <t xml:space="preserve">42.1477851867676</t>
+    <t xml:space="preserve">42.1477813720703</t>
   </si>
   <si>
     <t xml:space="preserve">41.9437637329102</t>
   </si>
   <si>
-    <t xml:space="preserve">42.4167137145996</t>
+    <t xml:space="preserve">42.4167060852051</t>
   </si>
   <si>
     <t xml:space="preserve">42.769100189209</t>
@@ -3710,19 +3710,19 @@
     <t xml:space="preserve">43.5480728149414</t>
   </si>
   <si>
-    <t xml:space="preserve">43.900463104248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.3270378112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.9282836914062</t>
+    <t xml:space="preserve">43.9004592895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.3270416259766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.928279876709</t>
   </si>
   <si>
     <t xml:space="preserve">44.1508407592773</t>
   </si>
   <si>
-    <t xml:space="preserve">44.243579864502</t>
+    <t xml:space="preserve">44.2435760498047</t>
   </si>
   <si>
     <t xml:space="preserve">44.4846878051758</t>
@@ -3731,25 +3731,25 @@
     <t xml:space="preserve">44.8927154541016</t>
   </si>
   <si>
-    <t xml:space="preserve">44.9761810302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.6701507568359</t>
+    <t xml:space="preserve">44.9761772155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.6701545715332</t>
   </si>
   <si>
     <t xml:space="preserve">44.5866928100586</t>
   </si>
   <si>
-    <t xml:space="preserve">44.1044807434082</t>
+    <t xml:space="preserve">44.1044769287109</t>
   </si>
   <si>
     <t xml:space="preserve">44.7443466186523</t>
   </si>
   <si>
-    <t xml:space="preserve">44.7628936767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.9112663269043</t>
+    <t xml:space="preserve">44.7628898620605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.9112701416016</t>
   </si>
   <si>
     <t xml:space="preserve">44.9019889831543</t>
@@ -3770,7 +3770,7 @@
     <t xml:space="preserve">46.4599266052246</t>
   </si>
   <si>
-    <t xml:space="preserve">47.9807739257812</t>
+    <t xml:space="preserve">47.980770111084</t>
   </si>
   <si>
     <t xml:space="preserve">46.552661895752</t>
@@ -3788,13 +3788,13 @@
     <t xml:space="preserve">46.8494148254395</t>
   </si>
   <si>
-    <t xml:space="preserve">46.8679656982422</t>
+    <t xml:space="preserve">46.8679618835449</t>
   </si>
   <si>
     <t xml:space="preserve">46.3301010131836</t>
   </si>
   <si>
-    <t xml:space="preserve">46.1724548339844</t>
+    <t xml:space="preserve">46.1724510192871</t>
   </si>
   <si>
     <t xml:space="preserve">46.9421424865723</t>
@@ -3806,52 +3806,52 @@
     <t xml:space="preserve">47.5171051025391</t>
   </si>
   <si>
-    <t xml:space="preserve">47.0163345336914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.2945327758789</t>
+    <t xml:space="preserve">47.0163383483887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.2945365905762</t>
   </si>
   <si>
     <t xml:space="preserve">48.2218818664551</t>
   </si>
   <si>
-    <t xml:space="preserve">47.7396621704102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.3888053894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.8339309692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.427433013916</t>
+    <t xml:space="preserve">47.7396659851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.388801574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.833927154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.4274291992188</t>
   </si>
   <si>
     <t xml:space="preserve">49.9838371276855</t>
   </si>
   <si>
-    <t xml:space="preserve">49.8910980224609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.9482727050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.9111824035645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0981788635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.3392906188965</t>
+    <t xml:space="preserve">49.8911056518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.9482765197754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.9111785888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.0981826782227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.3392868041992</t>
   </si>
   <si>
     <t xml:space="preserve">52.7102241516113</t>
   </si>
   <si>
-    <t xml:space="preserve">53.0069732666016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.4320220947266</t>
+    <t xml:space="preserve">53.0069808959961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.4320297241211</t>
   </si>
   <si>
     <t xml:space="preserve">52.7287712097168</t>
@@ -3863,25 +3863,25 @@
     <t xml:space="preserve">53.2666320800781</t>
   </si>
   <si>
-    <t xml:space="preserve">52.5989456176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.8941612243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.4675903320312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0610847473145</t>
+    <t xml:space="preserve">52.598949432373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.8941650390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.467586517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.0610885620117</t>
   </si>
   <si>
     <t xml:space="preserve">51.8014297485352</t>
   </si>
   <si>
-    <t xml:space="preserve">51.5232238769531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.6530532836914</t>
+    <t xml:space="preserve">51.5232315063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.6530570983887</t>
   </si>
   <si>
     <t xml:space="preserve">51.430492401123</t>
@@ -3890,7 +3890,7 @@
     <t xml:space="preserve">51.8570709228516</t>
   </si>
   <si>
-    <t xml:space="preserve">50.6886177062988</t>
+    <t xml:space="preserve">50.6886138916016</t>
   </si>
   <si>
     <t xml:space="preserve">49.9467430114746</t>
@@ -3899,37 +3899,37 @@
     <t xml:space="preserve">49.0564918518066</t>
   </si>
   <si>
-    <t xml:space="preserve">48.7411956787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.6670112609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.3872718811035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.0920524597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.9235992431641</t>
+    <t xml:space="preserve">48.7411918640137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.6670074462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.3872756958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.0920562744141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.9235954284668</t>
   </si>
   <si>
     <t xml:space="preserve">46.3857421875</t>
   </si>
   <si>
-    <t xml:space="preserve">47.3501777648926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.9050521850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.4614562988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.1647109985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.365665435791</t>
+    <t xml:space="preserve">47.3501853942871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.9050559997559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.4614601135254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.1647148132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.3656616210938</t>
   </si>
   <si>
     <t xml:space="preserve">45.4305801391602</t>
@@ -3938,13 +3938,13 @@
     <t xml:space="preserve">46.6268501281738</t>
   </si>
   <si>
-    <t xml:space="preserve">45.7829627990723</t>
+    <t xml:space="preserve">45.7829704284668</t>
   </si>
   <si>
     <t xml:space="preserve">45.356388092041</t>
   </si>
   <si>
-    <t xml:space="preserve">45.6160469055176</t>
+    <t xml:space="preserve">45.6160430908203</t>
   </si>
   <si>
     <t xml:space="preserve">45.4120292663574</t>
@@ -3953,16 +3953,16 @@
     <t xml:space="preserve">45.3378410339355</t>
   </si>
   <si>
-    <t xml:space="preserve">45.8200607299805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.9591674804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.1461639404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.4243659973145</t>
+    <t xml:space="preserve">45.8200645446777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.9591636657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.1461601257324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.4243698120117</t>
   </si>
   <si>
     <t xml:space="preserve">47.3687324523926</t>
@@ -3971,16 +3971,16 @@
     <t xml:space="preserve">47.6654777526855</t>
   </si>
   <si>
-    <t xml:space="preserve">47.9436798095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.258975982666</t>
+    <t xml:space="preserve">47.9436836242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.2589797973633</t>
   </si>
   <si>
     <t xml:space="preserve">48.8895721435547</t>
   </si>
   <si>
-    <t xml:space="preserve">48.6113662719727</t>
+    <t xml:space="preserve">48.6113700866699</t>
   </si>
   <si>
     <t xml:space="preserve">49.019401550293</t>
@@ -3989,16 +3989,16 @@
     <t xml:space="preserve">50.1878509521484</t>
   </si>
   <si>
-    <t xml:space="preserve">51.0781021118164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.2280158996582</t>
+    <t xml:space="preserve">51.0781059265137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.2280120849609</t>
   </si>
   <si>
     <t xml:space="preserve">52.3949317932129</t>
   </si>
   <si>
-    <t xml:space="preserve">52.2465553283691</t>
+    <t xml:space="preserve">52.2465591430664</t>
   </si>
   <si>
     <t xml:space="preserve">51.9312553405762</t>
@@ -4007,31 +4007,31 @@
     <t xml:space="preserve">52.1352767944336</t>
   </si>
   <si>
-    <t xml:space="preserve">52.357837677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.0255279541016</t>
+    <t xml:space="preserve">52.3578338623047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.0255241394043</t>
   </si>
   <si>
     <t xml:space="preserve">52.5804023742676</t>
   </si>
   <si>
-    <t xml:space="preserve">52.0239944458008</t>
+    <t xml:space="preserve">52.0239906311035</t>
   </si>
   <si>
     <t xml:space="preserve">51.0410079956055</t>
   </si>
   <si>
-    <t xml:space="preserve">52.4134788513184</t>
+    <t xml:space="preserve">52.4134750366211</t>
   </si>
   <si>
     <t xml:space="preserve">52.6849555969238</t>
   </si>
   <si>
-    <t xml:space="preserve">51.8611679077148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0296669006348</t>
+    <t xml:space="preserve">51.8611717224121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.029670715332</t>
   </si>
   <si>
     <t xml:space="preserve">52.4228401184082</t>
@@ -4043,10 +4043,10 @@
     <t xml:space="preserve">51.449275970459</t>
   </si>
   <si>
-    <t xml:space="preserve">51.8986053466797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.5054397583008</t>
+    <t xml:space="preserve">51.8986129760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.505443572998</t>
   </si>
   <si>
     <t xml:space="preserve">50.2884826660156</t>
@@ -4055,7 +4055,7 @@
     <t xml:space="preserve">50.0263671875</t>
   </si>
   <si>
-    <t xml:space="preserve">50.3820915222168</t>
+    <t xml:space="preserve">50.3820953369141</t>
   </si>
   <si>
     <t xml:space="preserve">51.7301063537598</t>
@@ -4073,10 +4073,10 @@
     <t xml:space="preserve">50.8688774108887</t>
   </si>
   <si>
-    <t xml:space="preserve">50.0450897216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.3556594848633</t>
+    <t xml:space="preserve">50.0450859069824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.3556632995605</t>
   </si>
   <si>
     <t xml:space="preserve">51.6552200317383</t>
@@ -4085,40 +4085,40 @@
     <t xml:space="preserve">51.973503112793</t>
   </si>
   <si>
-    <t xml:space="preserve">52.0109443664551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.9096260070801</t>
+    <t xml:space="preserve">52.0109481811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.9096221923828</t>
   </si>
   <si>
     <t xml:space="preserve">52.198169708252</t>
   </si>
   <si>
-    <t xml:space="preserve">52.3666725158691</t>
+    <t xml:space="preserve">52.3666687011719</t>
   </si>
   <si>
     <t xml:space="preserve">52.7598419189453</t>
   </si>
   <si>
-    <t xml:space="preserve">52.9283485412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.8908958435059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.9922256469727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.130989074707</t>
+    <t xml:space="preserve">52.928352355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.8908996582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.9922218322754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.1309928894043</t>
   </si>
   <si>
     <t xml:space="preserve">51.1684341430664</t>
   </si>
   <si>
-    <t xml:space="preserve">50.8876037597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.62548828125</t>
+    <t xml:space="preserve">50.8875961303711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.6254844665527</t>
   </si>
   <si>
     <t xml:space="preserve">50.9999351501465</t>
@@ -4133,16 +4133,16 @@
     <t xml:space="preserve">48.8843002319336</t>
   </si>
   <si>
-    <t xml:space="preserve">47.9294509887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.678352355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.2102966308594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.2928886413574</t>
+    <t xml:space="preserve">47.9294548034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.6783485412598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.2102928161621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.2928924560547</t>
   </si>
   <si>
     <t xml:space="preserve">46.7593002319336</t>
@@ -4151,7 +4151,7 @@
     <t xml:space="preserve">46.3193206787109</t>
   </si>
   <si>
-    <t xml:space="preserve">46.3474044799805</t>
+    <t xml:space="preserve">46.3474082946777</t>
   </si>
   <si>
     <t xml:space="preserve">46.3754920959473</t>
@@ -4160,22 +4160,22 @@
     <t xml:space="preserve">46.5814361572266</t>
   </si>
   <si>
-    <t xml:space="preserve">46.7686576843262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4393653869629</t>
+    <t xml:space="preserve">46.7686653137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4393730163574</t>
   </si>
   <si>
     <t xml:space="preserve">44.325382232666</t>
   </si>
   <si>
-    <t xml:space="preserve">43.9134864807129</t>
+    <t xml:space="preserve">43.9134902954102</t>
   </si>
   <si>
     <t xml:space="preserve">43.1458702087402</t>
   </si>
   <si>
-    <t xml:space="preserve">43.576488494873</t>
+    <t xml:space="preserve">43.5764846801758</t>
   </si>
   <si>
     <t xml:space="preserve">42.8743934631348</t>
@@ -4184,34 +4184,34 @@
     <t xml:space="preserve">42.4999504089355</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9195518493652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8275947570801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.602912902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8837585449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2488441467285</t>
+    <t xml:space="preserve">41.919548034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8275871276855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6029167175293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8837547302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.2488403320312</t>
   </si>
   <si>
     <t xml:space="preserve">43.1645927429199</t>
   </si>
   <si>
-    <t xml:space="preserve">43.3330955505371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1552238464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.5808906555176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7978553771973</t>
+    <t xml:space="preserve">43.3330993652344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1552352905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.5808944702148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7978515625</t>
   </si>
   <si>
     <t xml:space="preserve">40.9647026062012</t>
@@ -4223,25 +4223,25 @@
     <t xml:space="preserve">40.4123916625977</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0941162109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.3639335632324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.1767082214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7725219726562</t>
+    <t xml:space="preserve">40.0941123962402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.3639373779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.1767158508301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.7725257873535</t>
   </si>
   <si>
     <t xml:space="preserve">41.4140472412109</t>
   </si>
   <si>
-    <t xml:space="preserve">40.27197265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7493934631348</t>
+    <t xml:space="preserve">40.2719764709473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7494010925293</t>
   </si>
   <si>
     <t xml:space="preserve">41.9382743835449</t>
@@ -4256,34 +4256,34 @@
     <t xml:space="preserve">42.7433395385742</t>
   </si>
   <si>
-    <t xml:space="preserve">42.7339744567871</t>
+    <t xml:space="preserve">42.7339782714844</t>
   </si>
   <si>
     <t xml:space="preserve">42.7995071411133</t>
   </si>
   <si>
-    <t xml:space="preserve">43.2113990783691</t>
+    <t xml:space="preserve">43.2113952636719</t>
   </si>
   <si>
     <t xml:space="preserve">42.9399223327637</t>
   </si>
   <si>
-    <t xml:space="preserve">42.5186653137207</t>
+    <t xml:space="preserve">42.5186614990234</t>
   </si>
   <si>
     <t xml:space="preserve">42.1348571777344</t>
   </si>
   <si>
-    <t xml:space="preserve">43.9696578979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.8854064941406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.724609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.2130508422852</t>
+    <t xml:space="preserve">43.9696617126465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.8854103088379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.7246170043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.2130470275879</t>
   </si>
   <si>
     <t xml:space="preserve">45.7576522827148</t>
@@ -4295,37 +4295,37 @@
     <t xml:space="preserve">45.9823188781738</t>
   </si>
   <si>
-    <t xml:space="preserve">46.0665664672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.5142593383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.6343078613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.0368385314941</t>
+    <t xml:space="preserve">46.0665702819824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.5142631530762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.6343040466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.0368423461914</t>
   </si>
   <si>
     <t xml:space="preserve">45.1117248535156</t>
   </si>
   <si>
-    <t xml:space="preserve">45.0649223327637</t>
+    <t xml:space="preserve">45.0649185180664</t>
   </si>
   <si>
     <t xml:space="preserve">45.5891494750977</t>
   </si>
   <si>
-    <t xml:space="preserve">44.8215293884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3050117492676</t>
+    <t xml:space="preserve">44.8215255737305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3050079345703</t>
   </si>
   <si>
     <t xml:space="preserve">42.7526969909668</t>
   </si>
   <si>
-    <t xml:space="preserve">42.078685760498</t>
+    <t xml:space="preserve">42.0786933898926</t>
   </si>
   <si>
     <t xml:space="preserve">41.8727416992188</t>
@@ -4334,13 +4334,13 @@
     <t xml:space="preserve">43.0522575378418</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6293563842773</t>
+    <t xml:space="preserve">41.6293487548828</t>
   </si>
   <si>
     <t xml:space="preserve">40.6183395385742</t>
   </si>
   <si>
-    <t xml:space="preserve">40.1034736633301</t>
+    <t xml:space="preserve">40.1034698486328</t>
   </si>
   <si>
     <t xml:space="preserve">39.4201049804688</t>
@@ -4367,10 +4367,10 @@
     <t xml:space="preserve">39.1954307556152</t>
   </si>
   <si>
-    <t xml:space="preserve">38.7180137634277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8584289550781</t>
+    <t xml:space="preserve">38.7180099487305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8584251403809</t>
   </si>
   <si>
     <t xml:space="preserve">39.8413581848145</t>
@@ -4382,10 +4382,10 @@
     <t xml:space="preserve">39.3764305114746</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2625694274902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.6705703735352</t>
+    <t xml:space="preserve">39.2625770568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.6705741882324</t>
   </si>
   <si>
     <t xml:space="preserve">39.9362411499023</t>
@@ -4394,22 +4394,22 @@
     <t xml:space="preserve">40.6004219055176</t>
   </si>
   <si>
-    <t xml:space="preserve">39.5472183227539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6743011474609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.636344909668</t>
+    <t xml:space="preserve">39.5472221374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6742973327637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6363410949707</t>
   </si>
   <si>
     <t xml:space="preserve">37.5167274475098</t>
   </si>
   <si>
-    <t xml:space="preserve">37.8013801574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2320823669434</t>
+    <t xml:space="preserve">37.8013725280762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2320785522461</t>
   </si>
   <si>
     <t xml:space="preserve">37.4408187866211</t>
@@ -4427,13 +4427,13 @@
     <t xml:space="preserve">35.6570205688477</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8847351074219</t>
+    <t xml:space="preserve">35.8847389221191</t>
   </si>
   <si>
     <t xml:space="preserve">35.7898559570312</t>
   </si>
   <si>
-    <t xml:space="preserve">37.0233306884766</t>
+    <t xml:space="preserve">37.0233345031738</t>
   </si>
   <si>
     <t xml:space="preserve">37.4218406677246</t>
@@ -4442,13 +4442,13 @@
     <t xml:space="preserve">36.1504096984863</t>
   </si>
   <si>
-    <t xml:space="preserve">35.5905952453613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8999824523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.7180099487305</t>
+    <t xml:space="preserve">35.5905990600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8999900817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.7180137634277</t>
   </si>
   <si>
     <t xml:space="preserve">39.0063896179199</t>
@@ -4460,25 +4460,25 @@
     <t xml:space="preserve">39.3479690551758</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3859176635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8376312255859</t>
+    <t xml:space="preserve">39.385913848877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8376274108887</t>
   </si>
   <si>
     <t xml:space="preserve">40.8186531066895</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7142791748047</t>
+    <t xml:space="preserve">40.714282989502</t>
   </si>
   <si>
     <t xml:space="preserve">41.0273971557617</t>
   </si>
   <si>
-    <t xml:space="preserve">41.283576965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2930679321289</t>
+    <t xml:space="preserve">41.2835807800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2930717468262</t>
   </si>
   <si>
     <t xml:space="preserve">41.568229675293</t>
@@ -4490,28 +4490,28 @@
     <t xml:space="preserve">40.799674987793</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0026626586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7807006835938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9420013427734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1887016296387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3784637451172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7047920227051</t>
+    <t xml:space="preserve">40.0026588439941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7806968688965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9420051574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1886978149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3784599304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7047958374023</t>
   </si>
   <si>
     <t xml:space="preserve">40.6573524475098</t>
   </si>
   <si>
-    <t xml:space="preserve">40.2967948913574</t>
+    <t xml:space="preserve">40.2967987060547</t>
   </si>
   <si>
     <t xml:space="preserve">40.031120300293</t>
@@ -4523,28 +4523,28 @@
     <t xml:space="preserve">41.0179061889648</t>
   </si>
   <si>
-    <t xml:space="preserve">40.4960517883301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1222763061523</t>
+    <t xml:space="preserve">40.4960556030273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1222801208496</t>
   </si>
   <si>
     <t xml:space="preserve">41.3120460510254</t>
   </si>
   <si>
-    <t xml:space="preserve">40.2019119262695</t>
+    <t xml:space="preserve">40.2019081115723</t>
   </si>
   <si>
     <t xml:space="preserve">40.0880546569824</t>
   </si>
   <si>
-    <t xml:space="preserve">39.5377311706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.5719566345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6478652954102</t>
+    <t xml:space="preserve">39.5377349853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.5719528198242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6478614807129</t>
   </si>
   <si>
     <t xml:space="preserve">40.1070327758789</t>
@@ -4553,25 +4553,25 @@
     <t xml:space="preserve">40.1354942321777</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9077758789062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2398681640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.074836730957</t>
+    <t xml:space="preserve">39.9077796936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2398643493652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0748405456543</t>
   </si>
   <si>
     <t xml:space="preserve">41.7579956054688</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3974418640137</t>
+    <t xml:space="preserve">41.3974380493164</t>
   </si>
   <si>
     <t xml:space="preserve">41.9857139587402</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3499984741211</t>
+    <t xml:space="preserve">41.3500022888184</t>
   </si>
   <si>
     <t xml:space="preserve">39.9647064208984</t>
@@ -4580,7 +4580,7 @@
     <t xml:space="preserve">38.9779243469238</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4465827941895</t>
+    <t xml:space="preserve">38.4465789794922</t>
   </si>
   <si>
     <t xml:space="preserve">38.6553230285645</t>
@@ -4589,10 +4589,10 @@
     <t xml:space="preserve">38.6078758239746</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2720565795898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1619338989258</t>
+    <t xml:space="preserve">39.2720642089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1619300842285</t>
   </si>
   <si>
     <t xml:space="preserve">38.7976455688477</t>
@@ -4601,31 +4601,31 @@
     <t xml:space="preserve">38.4181137084961</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8925323486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.550952911377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.0253677368164</t>
+    <t xml:space="preserve">38.8925361633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5509490966797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.0253639221191</t>
   </si>
   <si>
     <t xml:space="preserve">38.4560699462891</t>
   </si>
   <si>
-    <t xml:space="preserve">38.0480728149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1049957275391</t>
+    <t xml:space="preserve">38.0480651855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1050033569336</t>
   </si>
   <si>
     <t xml:space="preserve">37.7254676818848</t>
   </si>
   <si>
-    <t xml:space="preserve">37.5546798706055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.0043601989746</t>
+    <t xml:space="preserve">37.5546836853027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0043563842773</t>
   </si>
   <si>
     <t xml:space="preserve">36.956916809082</t>
@@ -4634,22 +4634,22 @@
     <t xml:space="preserve">35.2015800476074</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5848388671875</t>
+    <t xml:space="preserve">34.5848426818848</t>
   </si>
   <si>
     <t xml:space="preserve">35.3913459777832</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8600044250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7613906860352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4919929504395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2527503967285</t>
+    <t xml:space="preserve">34.8600082397461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7613868713379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4919891357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2527465820312</t>
   </si>
   <si>
     <t xml:space="preserve">33.4936866760254</t>
@@ -4661,34 +4661,34 @@
     <t xml:space="preserve">33.9965705871582</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7119178771973</t>
+    <t xml:space="preserve">33.7119140625</t>
   </si>
   <si>
     <t xml:space="preserve">33.626522064209</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6986999511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.916934967041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.935905456543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1104316711426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2148017883301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6360092163086</t>
+    <t xml:space="preserve">34.6987037658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9169311523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9359092712402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1104278564453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2147979736328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6360130310059</t>
   </si>
   <si>
     <t xml:space="preserve">34.7935829162598</t>
   </si>
   <si>
-    <t xml:space="preserve">35.9891090393066</t>
+    <t xml:space="preserve">35.9891128540039</t>
   </si>
   <si>
     <t xml:space="preserve">36.0555305480957</t>
@@ -4700,7 +4700,7 @@
     <t xml:space="preserve">36.4065933227539</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0839920043945</t>
+    <t xml:space="preserve">36.0839958190918</t>
   </si>
   <si>
     <t xml:space="preserve">36.1314353942871</t>
@@ -4709,19 +4709,19 @@
     <t xml:space="preserve">36.5014801025391</t>
   </si>
   <si>
-    <t xml:space="preserve">35.9226951599121</t>
+    <t xml:space="preserve">35.9226913452148</t>
   </si>
   <si>
     <t xml:space="preserve">36.5109672546387</t>
   </si>
   <si>
-    <t xml:space="preserve">35.9321823120117</t>
+    <t xml:space="preserve">35.9321784973145</t>
   </si>
   <si>
     <t xml:space="preserve">36.4825057983398</t>
   </si>
   <si>
-    <t xml:space="preserve">38.5035095214844</t>
+    <t xml:space="preserve">38.5035133361816</t>
   </si>
   <si>
     <t xml:space="preserve">39.4048919677734</t>
@@ -4733,16 +4733,16 @@
     <t xml:space="preserve">38.2188568115234</t>
   </si>
   <si>
-    <t xml:space="preserve">37.7918891906738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.3079795837402</t>
+    <t xml:space="preserve">37.7918853759766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.3079833984375</t>
   </si>
   <si>
     <t xml:space="preserve">37.1941223144531</t>
   </si>
   <si>
-    <t xml:space="preserve">37.4692840576172</t>
+    <t xml:space="preserve">37.4692878723145</t>
   </si>
   <si>
     <t xml:space="preserve">37.5943756103516</t>
@@ -4763,88 +4763,88 @@
     <t xml:space="preserve">38.6720733642578</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4988670349121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.1050796508789</t>
+    <t xml:space="preserve">38.4988708496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.1050758361816</t>
   </si>
   <si>
     <t xml:space="preserve">40.0288200378418</t>
   </si>
   <si>
-    <t xml:space="preserve">39.922981262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8363723754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.893383026123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9703674316406</t>
+    <t xml:space="preserve">39.9229736328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8363761901855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8933868408203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9703636169434</t>
   </si>
   <si>
     <t xml:space="preserve">39.2975234985352</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3078689575195</t>
+    <t xml:space="preserve">40.3078651428223</t>
   </si>
   <si>
     <t xml:space="preserve">40.2982444763184</t>
   </si>
   <si>
-    <t xml:space="preserve">40.057689666748</t>
+    <t xml:space="preserve">40.0576858520508</t>
   </si>
   <si>
     <t xml:space="preserve">38.9222564697266</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1043548583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7387084960938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.0170364379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7002220153809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.267219543457</t>
+    <t xml:space="preserve">38.1043586730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.738712310791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0170402526855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.7002182006836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2672157287598</t>
   </si>
   <si>
     <t xml:space="preserve">37.6424865722656</t>
   </si>
   <si>
-    <t xml:space="preserve">37.1709899902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5751304626465</t>
+    <t xml:space="preserve">37.1709938049316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5751266479492</t>
   </si>
   <si>
     <t xml:space="preserve">38.1717109680176</t>
   </si>
   <si>
-    <t xml:space="preserve">37.2864570617676</t>
+    <t xml:space="preserve">37.2864608764648</t>
   </si>
   <si>
     <t xml:space="preserve">37.353816986084</t>
   </si>
   <si>
-    <t xml:space="preserve">37.4500389099121</t>
+    <t xml:space="preserve">37.4500350952148</t>
   </si>
   <si>
     <t xml:space="preserve">36.9496803283691</t>
   </si>
   <si>
-    <t xml:space="preserve">37.2191047668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.854175567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5655097961426</t>
+    <t xml:space="preserve">37.219108581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.8541793823242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5655059814453</t>
   </si>
   <si>
     <t xml:space="preserve">37.3345718383789</t>
@@ -4856,43 +4856,43 @@
     <t xml:space="preserve">38.6528282165527</t>
   </si>
   <si>
-    <t xml:space="preserve">38.5662307739258</t>
+    <t xml:space="preserve">38.5662269592285</t>
   </si>
   <si>
     <t xml:space="preserve">40.2693748474121</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6446495056152</t>
+    <t xml:space="preserve">40.6446533203125</t>
   </si>
   <si>
     <t xml:space="preserve">39.8652420043945</t>
   </si>
   <si>
-    <t xml:space="preserve">39.7497749328613</t>
+    <t xml:space="preserve">39.7497711181641</t>
   </si>
   <si>
     <t xml:space="preserve">39.4707260131836</t>
   </si>
   <si>
-    <t xml:space="preserve">39.0377235412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2205467224121</t>
+    <t xml:space="preserve">39.0377197265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2205429077148</t>
   </si>
   <si>
     <t xml:space="preserve">39.6920394897461</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6143379211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6328659057617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4700088500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7394256591797</t>
+    <t xml:space="preserve">38.6143417358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6328620910645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.4700050354004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.739429473877</t>
   </si>
   <si>
     <t xml:space="preserve">39.0858306884766</t>
@@ -4904,13 +4904,13 @@
     <t xml:space="preserve">39.70166015625</t>
   </si>
   <si>
-    <t xml:space="preserve">39.5380821228027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.729808807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2109222412109</t>
+    <t xml:space="preserve">39.5380783081055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7298049926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2109260559082</t>
   </si>
   <si>
     <t xml:space="preserve">39.4995918273926</t>
@@ -4919,28 +4919,28 @@
     <t xml:space="preserve">39.4226150512695</t>
   </si>
   <si>
-    <t xml:space="preserve">39.8171272277832</t>
+    <t xml:space="preserve">39.8171310424805</t>
   </si>
   <si>
     <t xml:space="preserve">39.5477027893066</t>
   </si>
   <si>
-    <t xml:space="preserve">39.0569648742676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.0562438964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5181159973145</t>
+    <t xml:space="preserve">39.0569686889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.0562477111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5181121826172</t>
   </si>
   <si>
     <t xml:space="preserve">37.9600219726562</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6047172546387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6239585876465</t>
+    <t xml:space="preserve">38.6047210693359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6239624023438</t>
   </si>
   <si>
     <t xml:space="preserve">37.8156852722168</t>
@@ -4952,7 +4952,7 @@
     <t xml:space="preserve">37.796443939209</t>
   </si>
   <si>
-    <t xml:space="preserve">37.247974395752</t>
+    <t xml:space="preserve">37.2479705810547</t>
   </si>
   <si>
     <t xml:space="preserve">37.1806144714355</t>
@@ -4964,7 +4964,7 @@
     <t xml:space="preserve">37.3923072814941</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8342094421387</t>
+    <t xml:space="preserve">36.8342132568359</t>
   </si>
   <si>
     <t xml:space="preserve">37.0843925476074</t>
@@ -4976,19 +4976,19 @@
     <t xml:space="preserve">38.4507598876953</t>
   </si>
   <si>
-    <t xml:space="preserve">37.7579574584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7771987915039</t>
+    <t xml:space="preserve">37.7579536437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.7771949768066</t>
   </si>
   <si>
     <t xml:space="preserve">37.4885292053223</t>
   </si>
   <si>
-    <t xml:space="preserve">37.5847549438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.873420715332</t>
+    <t xml:space="preserve">37.5847587585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.8734245300293</t>
   </si>
   <si>
     <t xml:space="preserve">38.344913482666</t>
@@ -4997,7 +4997,7 @@
     <t xml:space="preserve">38.4026489257812</t>
   </si>
   <si>
-    <t xml:space="preserve">38.7875442504883</t>
+    <t xml:space="preserve">38.787540435791</t>
   </si>
   <si>
     <t xml:space="preserve">39.1916770935059</t>
@@ -5006,10 +5006,10 @@
     <t xml:space="preserve">39.2879028320312</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9030113220215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7201881408691</t>
+    <t xml:space="preserve">38.9030075073242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7201843261719</t>
   </si>
   <si>
     <t xml:space="preserve">38.3545379638672</t>
@@ -5021,7 +5021,7 @@
     <t xml:space="preserve">39.1628112792969</t>
   </si>
   <si>
-    <t xml:space="preserve">38.5084915161133</t>
+    <t xml:space="preserve">38.5084953308105</t>
   </si>
   <si>
     <t xml:space="preserve">40.1539077758789</t>
@@ -5033,13 +5033,13 @@
     <t xml:space="preserve">39.5573272705078</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8755798339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4906883239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4137115478516</t>
+    <t xml:space="preserve">40.8755836486816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4906921386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4137153625488</t>
   </si>
   <si>
     <t xml:space="preserve">40.663890838623</t>
@@ -5048,16 +5048,16 @@
     <t xml:space="preserve">41.5106544494629</t>
   </si>
   <si>
-    <t xml:space="preserve">42.4247779846191</t>
+    <t xml:space="preserve">42.4247741699219</t>
   </si>
   <si>
     <t xml:space="preserve">44.1664161682129</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8969917297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.300407409668</t>
+    <t xml:space="preserve">43.8969879150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3004035949707</t>
   </si>
   <si>
     <t xml:space="preserve">42.877025604248</t>
@@ -5120,9 +5120,6 @@
     <t xml:space="preserve">44.139102935791</t>
   </si>
   <si>
-    <t xml:space="preserve">43.3004035949707</t>
-  </si>
-  <si>
     <t xml:space="preserve">42.9688262939453</t>
   </si>
   <si>
@@ -5823,6 +5820,9 @@
   </si>
   <si>
     <t xml:space="preserve">51.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.25</t>
   </si>
 </sst>
 </file>
@@ -55556,7 +55556,7 @@
         <v>44.4000015258789</v>
       </c>
       <c r="G1900" t="s">
-        <v>1702</v>
+        <v>1681</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -55582,7 +55582,7 @@
         <v>44.060001373291</v>
       </c>
       <c r="G1901" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -55608,7 +55608,7 @@
         <v>43.2799987792969</v>
       </c>
       <c r="G1902" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -55634,7 +55634,7 @@
         <v>42.7799987792969</v>
       </c>
       <c r="G1903" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -55686,7 +55686,7 @@
         <v>42.9300003051758</v>
       </c>
       <c r="G1905" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -55712,7 +55712,7 @@
         <v>42.7099990844727</v>
       </c>
       <c r="G1906" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -55738,7 +55738,7 @@
         <v>43.0999984741211</v>
       </c>
       <c r="G1907" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -55764,7 +55764,7 @@
         <v>43.3199996948242</v>
       </c>
       <c r="G1908" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -55790,7 +55790,7 @@
         <v>43.75</v>
       </c>
       <c r="G1909" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -55816,7 +55816,7 @@
         <v>43.3699989318848</v>
       </c>
       <c r="G1910" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -55842,7 +55842,7 @@
         <v>43.5800018310547</v>
       </c>
       <c r="G1911" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -55868,7 +55868,7 @@
         <v>43.689998626709</v>
       </c>
       <c r="G1912" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -55894,7 +55894,7 @@
         <v>42.2200012207031</v>
       </c>
       <c r="G1913" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -55920,7 +55920,7 @@
         <v>41.9599990844727</v>
       </c>
       <c r="G1914" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -55946,7 +55946,7 @@
         <v>42.3199996948242</v>
       </c>
       <c r="G1915" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -55972,7 +55972,7 @@
         <v>42.25</v>
       </c>
       <c r="G1916" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -55998,7 +55998,7 @@
         <v>42.9099998474121</v>
       </c>
       <c r="G1917" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -56024,7 +56024,7 @@
         <v>42.8899993896484</v>
       </c>
       <c r="G1918" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -56050,7 +56050,7 @@
         <v>43.0800018310547</v>
       </c>
       <c r="G1919" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -56076,7 +56076,7 @@
         <v>43.0099983215332</v>
       </c>
       <c r="G1920" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -56102,7 +56102,7 @@
         <v>43.2900009155273</v>
       </c>
       <c r="G1921" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -56128,7 +56128,7 @@
         <v>43.4799995422363</v>
       </c>
       <c r="G1922" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -56154,7 +56154,7 @@
         <v>43.1599998474121</v>
       </c>
       <c r="G1923" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -56180,7 +56180,7 @@
         <v>45.3300018310547</v>
       </c>
       <c r="G1924" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -56206,7 +56206,7 @@
         <v>45.060001373291</v>
       </c>
       <c r="G1925" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -56232,7 +56232,7 @@
         <v>44.4500007629395</v>
       </c>
       <c r="G1926" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -56258,7 +56258,7 @@
         <v>45.2799987792969</v>
       </c>
       <c r="G1927" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -56284,7 +56284,7 @@
         <v>46.4900016784668</v>
       </c>
       <c r="G1928" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -56310,7 +56310,7 @@
         <v>46.810001373291</v>
       </c>
       <c r="G1929" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -56336,7 +56336,7 @@
         <v>46.9500007629395</v>
       </c>
       <c r="G1930" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -56362,7 +56362,7 @@
         <v>45.9799995422363</v>
       </c>
       <c r="G1931" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -56388,7 +56388,7 @@
         <v>45.5999984741211</v>
       </c>
       <c r="G1932" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -56414,7 +56414,7 @@
         <v>44.5800018310547</v>
       </c>
       <c r="G1933" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -56440,7 +56440,7 @@
         <v>43.5099983215332</v>
       </c>
       <c r="G1934" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -56466,7 +56466,7 @@
         <v>43.3199996948242</v>
       </c>
       <c r="G1935" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -56492,7 +56492,7 @@
         <v>44.4000015258789</v>
       </c>
       <c r="G1936" t="s">
-        <v>1702</v>
+        <v>1681</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -56518,7 +56518,7 @@
         <v>44.9500007629395</v>
       </c>
       <c r="G1937" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -56544,7 +56544,7 @@
         <v>45.4599990844727</v>
       </c>
       <c r="G1938" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -56570,7 +56570,7 @@
         <v>45</v>
       </c>
       <c r="G1939" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -56596,7 +56596,7 @@
         <v>45.4500007629395</v>
       </c>
       <c r="G1940" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -56622,7 +56622,7 @@
         <v>45.3600006103516</v>
       </c>
       <c r="G1941" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -56648,7 +56648,7 @@
         <v>44.810001373291</v>
       </c>
       <c r="G1942" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -56674,7 +56674,7 @@
         <v>44.6500015258789</v>
       </c>
       <c r="G1943" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -56700,7 +56700,7 @@
         <v>44.6800003051758</v>
       </c>
       <c r="G1944" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -56726,7 +56726,7 @@
         <v>45.2799987792969</v>
       </c>
       <c r="G1945" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -56752,7 +56752,7 @@
         <v>45.7599983215332</v>
       </c>
       <c r="G1946" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -56778,7 +56778,7 @@
         <v>45.560001373291</v>
       </c>
       <c r="G1947" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -56804,7 +56804,7 @@
         <v>45.8400001525879</v>
       </c>
       <c r="G1948" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -56830,7 +56830,7 @@
         <v>46.189998626709</v>
       </c>
       <c r="G1949" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -56856,7 +56856,7 @@
         <v>46.8899993896484</v>
       </c>
       <c r="G1950" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -56882,7 +56882,7 @@
         <v>46.4700012207031</v>
       </c>
       <c r="G1951" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -56908,7 +56908,7 @@
         <v>46.3800010681152</v>
       </c>
       <c r="G1952" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -56934,7 +56934,7 @@
         <v>45.7900009155273</v>
       </c>
       <c r="G1953" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -56960,7 +56960,7 @@
         <v>45.5699996948242</v>
       </c>
       <c r="G1954" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -57012,7 +57012,7 @@
         <v>44.3600006103516</v>
       </c>
       <c r="G1956" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -57038,7 +57038,7 @@
         <v>45.0099983215332</v>
       </c>
       <c r="G1957" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -57064,7 +57064,7 @@
         <v>45.5900001525879</v>
       </c>
       <c r="G1958" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -57090,7 +57090,7 @@
         <v>45.2200012207031</v>
       </c>
       <c r="G1959" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -57116,7 +57116,7 @@
         <v>45.4700012207031</v>
       </c>
       <c r="G1960" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -57142,7 +57142,7 @@
         <v>45.6399993896484</v>
       </c>
       <c r="G1961" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -57168,7 +57168,7 @@
         <v>46.3499984741211</v>
       </c>
       <c r="G1962" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -57194,7 +57194,7 @@
         <v>46.8199996948242</v>
       </c>
       <c r="G1963" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -57220,7 +57220,7 @@
         <v>46.9300003051758</v>
       </c>
       <c r="G1964" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -57246,7 +57246,7 @@
         <v>46.9799995422363</v>
       </c>
       <c r="G1965" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -57272,7 +57272,7 @@
         <v>47.4000015258789</v>
       </c>
       <c r="G1966" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -57298,7 +57298,7 @@
         <v>44.9000015258789</v>
       </c>
       <c r="G1967" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -57324,7 +57324,7 @@
         <v>45.2999992370605</v>
       </c>
       <c r="G1968" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -57350,7 +57350,7 @@
         <v>44.7900009155273</v>
       </c>
       <c r="G1969" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -57376,7 +57376,7 @@
         <v>44.7799987792969</v>
       </c>
       <c r="G1970" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -57402,7 +57402,7 @@
         <v>44.0299987792969</v>
       </c>
       <c r="G1971" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -57428,7 +57428,7 @@
         <v>44.1500015258789</v>
       </c>
       <c r="G1972" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -57454,7 +57454,7 @@
         <v>44.7099990844727</v>
       </c>
       <c r="G1973" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -57480,7 +57480,7 @@
         <v>44.0699996948242</v>
       </c>
       <c r="G1974" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -57506,7 +57506,7 @@
         <v>43.7400016784668</v>
       </c>
       <c r="G1975" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -57532,7 +57532,7 @@
         <v>44.0200004577637</v>
       </c>
       <c r="G1976" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -57558,7 +57558,7 @@
         <v>44.689998626709</v>
       </c>
       <c r="G1977" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -57584,7 +57584,7 @@
         <v>45.2799987792969</v>
       </c>
       <c r="G1978" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -57610,7 +57610,7 @@
         <v>44.6399993896484</v>
       </c>
       <c r="G1979" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -57636,7 +57636,7 @@
         <v>45.6199989318848</v>
       </c>
       <c r="G1980" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -57688,7 +57688,7 @@
         <v>45.5400009155273</v>
       </c>
       <c r="G1982" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -57740,7 +57740,7 @@
         <v>45.4900016784668</v>
       </c>
       <c r="G1984" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -57766,7 +57766,7 @@
         <v>44.8300018310547</v>
       </c>
       <c r="G1985" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -57792,7 +57792,7 @@
         <v>44.0099983215332</v>
       </c>
       <c r="G1986" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -57844,7 +57844,7 @@
         <v>43.9900016784668</v>
       </c>
       <c r="G1988" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -57870,7 +57870,7 @@
         <v>44.0299987792969</v>
       </c>
       <c r="G1989" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -57896,7 +57896,7 @@
         <v>44.3699989318848</v>
       </c>
       <c r="G1990" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -57922,7 +57922,7 @@
         <v>43.9700012207031</v>
       </c>
       <c r="G1991" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -57948,7 +57948,7 @@
         <v>43.7099990844727</v>
       </c>
       <c r="G1992" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -57974,7 +57974,7 @@
         <v>43.4199981689453</v>
       </c>
       <c r="G1993" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -58000,7 +58000,7 @@
         <v>43.2299995422363</v>
       </c>
       <c r="G1994" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -58026,7 +58026,7 @@
         <v>43.5999984741211</v>
       </c>
       <c r="G1995" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -58052,7 +58052,7 @@
         <v>44.1300010681152</v>
       </c>
       <c r="G1996" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -58078,7 +58078,7 @@
         <v>44.2999992370605</v>
       </c>
       <c r="G1997" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -58104,7 +58104,7 @@
         <v>43.9500007629395</v>
       </c>
       <c r="G1998" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -58130,7 +58130,7 @@
         <v>44.0999984741211</v>
       </c>
       <c r="G1999" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -58156,7 +58156,7 @@
         <v>45.0099983215332</v>
       </c>
       <c r="G2000" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -58182,7 +58182,7 @@
         <v>43.7999992370605</v>
       </c>
       <c r="G2001" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -58208,7 +58208,7 @@
         <v>44.7599983215332</v>
       </c>
       <c r="G2002" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -58234,7 +58234,7 @@
         <v>44.2599983215332</v>
       </c>
       <c r="G2003" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -58260,7 +58260,7 @@
         <v>44.9099998474121</v>
       </c>
       <c r="G2004" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -58286,7 +58286,7 @@
         <v>45.8499984741211</v>
       </c>
       <c r="G2005" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -58338,7 +58338,7 @@
         <v>44.5400009155273</v>
       </c>
       <c r="G2007" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -58364,7 +58364,7 @@
         <v>45.1800003051758</v>
       </c>
       <c r="G2008" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -58390,7 +58390,7 @@
         <v>44.6199989318848</v>
       </c>
       <c r="G2009" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -58416,7 +58416,7 @@
         <v>44.8800010681152</v>
       </c>
       <c r="G2010" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -58442,7 +58442,7 @@
         <v>44.3899993896484</v>
       </c>
       <c r="G2011" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -58468,7 +58468,7 @@
         <v>44.5499992370605</v>
       </c>
       <c r="G2012" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -58494,7 +58494,7 @@
         <v>44.6100006103516</v>
       </c>
       <c r="G2013" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -58520,7 +58520,7 @@
         <v>44.4199981689453</v>
       </c>
       <c r="G2014" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -58546,7 +58546,7 @@
         <v>44.3699989318848</v>
       </c>
       <c r="G2015" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -58572,7 +58572,7 @@
         <v>44.3199996948242</v>
       </c>
       <c r="G2016" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -58598,7 +58598,7 @@
         <v>44.1699981689453</v>
       </c>
       <c r="G2017" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -58624,7 +58624,7 @@
         <v>44.189998626709</v>
       </c>
       <c r="G2018" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -58650,7 +58650,7 @@
         <v>45.2200012207031</v>
       </c>
       <c r="G2019" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -58676,7 +58676,7 @@
         <v>45.9000015258789</v>
       </c>
       <c r="G2020" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -58702,7 +58702,7 @@
         <v>46.2400016784668</v>
       </c>
       <c r="G2021" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -58728,7 +58728,7 @@
         <v>45.6599998474121</v>
       </c>
       <c r="G2022" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -58754,7 +58754,7 @@
         <v>46.7000007629395</v>
       </c>
       <c r="G2023" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -58780,7 +58780,7 @@
         <v>46.6500015258789</v>
       </c>
       <c r="G2024" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -58806,7 +58806,7 @@
         <v>47.2200012207031</v>
       </c>
       <c r="G2025" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -58832,7 +58832,7 @@
         <v>47.0099983215332</v>
       </c>
       <c r="G2026" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -58858,7 +58858,7 @@
         <v>47.3300018310547</v>
       </c>
       <c r="G2027" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -58884,7 +58884,7 @@
         <v>47.8800010681152</v>
       </c>
       <c r="G2028" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -58910,7 +58910,7 @@
         <v>47.8699989318848</v>
       </c>
       <c r="G2029" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -58936,7 +58936,7 @@
         <v>47.9900016784668</v>
       </c>
       <c r="G2030" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -58962,7 +58962,7 @@
         <v>47.5900001525879</v>
       </c>
       <c r="G2031" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -58988,7 +58988,7 @@
         <v>48.1300010681152</v>
       </c>
       <c r="G2032" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -59014,7 +59014,7 @@
         <v>48.2200012207031</v>
       </c>
       <c r="G2033" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -59040,7 +59040,7 @@
         <v>48.3300018310547</v>
       </c>
       <c r="G2034" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -59066,7 +59066,7 @@
         <v>48.439998626709</v>
       </c>
       <c r="G2035" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -59092,7 +59092,7 @@
         <v>48.8300018310547</v>
       </c>
       <c r="G2036" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -59118,7 +59118,7 @@
         <v>49</v>
       </c>
       <c r="G2037" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -59144,7 +59144,7 @@
         <v>48.0200004577637</v>
       </c>
       <c r="G2038" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -59170,7 +59170,7 @@
         <v>48.5200004577637</v>
       </c>
       <c r="G2039" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -59196,7 +59196,7 @@
         <v>47.8199996948242</v>
       </c>
       <c r="G2040" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -59222,7 +59222,7 @@
         <v>48.2000007629395</v>
       </c>
       <c r="G2041" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -59248,7 +59248,7 @@
         <v>48.9199981689453</v>
       </c>
       <c r="G2042" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -59274,7 +59274,7 @@
         <v>49.0999984741211</v>
       </c>
       <c r="G2043" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -59300,7 +59300,7 @@
         <v>49.2200012207031</v>
       </c>
       <c r="G2044" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -59326,7 +59326,7 @@
         <v>50.9599990844727</v>
       </c>
       <c r="G2045" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -59352,7 +59352,7 @@
         <v>49.9900016784668</v>
       </c>
       <c r="G2046" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -59378,7 +59378,7 @@
         <v>50.2599983215332</v>
       </c>
       <c r="G2047" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -59404,7 +59404,7 @@
         <v>50.5</v>
       </c>
       <c r="G2048" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -59430,7 +59430,7 @@
         <v>49.7900009155273</v>
       </c>
       <c r="G2049" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -59456,7 +59456,7 @@
         <v>49.7599983215332</v>
       </c>
       <c r="G2050" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -59482,7 +59482,7 @@
         <v>49.5699996948242</v>
       </c>
       <c r="G2051" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -59508,7 +59508,7 @@
         <v>49.7200012207031</v>
       </c>
       <c r="G2052" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -59534,7 +59534,7 @@
         <v>49.939998626709</v>
       </c>
       <c r="G2053" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -59560,7 +59560,7 @@
         <v>49.9799995422363</v>
       </c>
       <c r="G2054" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -59586,7 +59586,7 @@
         <v>50.9000015258789</v>
       </c>
       <c r="G2055" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -59612,7 +59612,7 @@
         <v>50.6399993896484</v>
       </c>
       <c r="G2056" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -59638,7 +59638,7 @@
         <v>50.7999992370605</v>
       </c>
       <c r="G2057" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -59664,7 +59664,7 @@
         <v>51.2999992370605</v>
       </c>
       <c r="G2058" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -59690,7 +59690,7 @@
         <v>50.9599990844727</v>
       </c>
       <c r="G2059" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -59716,7 +59716,7 @@
         <v>50.7000007629395</v>
       </c>
       <c r="G2060" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -59742,7 +59742,7 @@
         <v>50.8199996948242</v>
       </c>
       <c r="G2061" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -59768,7 +59768,7 @@
         <v>51.0999984741211</v>
       </c>
       <c r="G2062" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -59794,7 +59794,7 @@
         <v>50.439998626709</v>
       </c>
       <c r="G2063" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -59820,7 +59820,7 @@
         <v>50.4599990844727</v>
       </c>
       <c r="G2064" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -59846,7 +59846,7 @@
         <v>50.560001373291</v>
       </c>
       <c r="G2065" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -59872,7 +59872,7 @@
         <v>50.7000007629395</v>
       </c>
       <c r="G2066" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -59898,7 +59898,7 @@
         <v>50.3800010681152</v>
       </c>
       <c r="G2067" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -59924,7 +59924,7 @@
         <v>50.4799995422363</v>
       </c>
       <c r="G2068" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -59950,7 +59950,7 @@
         <v>50.7000007629395</v>
       </c>
       <c r="G2069" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -59976,7 +59976,7 @@
         <v>51.0200004577637</v>
       </c>
       <c r="G2070" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -60002,7 +60002,7 @@
         <v>51.2400016784668</v>
       </c>
       <c r="G2071" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -60028,7 +60028,7 @@
         <v>52.1199989318848</v>
       </c>
       <c r="G2072" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -60054,7 +60054,7 @@
         <v>52.0800018310547</v>
       </c>
       <c r="G2073" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -60080,7 +60080,7 @@
         <v>51.6800003051758</v>
       </c>
       <c r="G2074" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -60106,7 +60106,7 @@
         <v>52.8800010681152</v>
       </c>
       <c r="G2075" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -60132,7 +60132,7 @@
         <v>51.6599998474121</v>
       </c>
       <c r="G2076" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -60158,7 +60158,7 @@
         <v>50.9799995422363</v>
       </c>
       <c r="G2077" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -60184,7 +60184,7 @@
         <v>50.7200012207031</v>
       </c>
       <c r="G2078" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -60210,7 +60210,7 @@
         <v>51.7599983215332</v>
       </c>
       <c r="G2079" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -60236,7 +60236,7 @@
         <v>51.9599990844727</v>
       </c>
       <c r="G2080" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -60262,7 +60262,7 @@
         <v>51.7200012207031</v>
       </c>
       <c r="G2081" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -60288,7 +60288,7 @@
         <v>51.7200012207031</v>
       </c>
       <c r="G2082" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -60314,7 +60314,7 @@
         <v>51.9599990844727</v>
       </c>
       <c r="G2083" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -60340,7 +60340,7 @@
         <v>52.5800018310547</v>
       </c>
       <c r="G2084" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -60366,7 +60366,7 @@
         <v>52.8600006103516</v>
       </c>
       <c r="G2085" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -60392,7 +60392,7 @@
         <v>52.7400016784668</v>
       </c>
       <c r="G2086" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -60418,7 +60418,7 @@
         <v>53.0800018310547</v>
       </c>
       <c r="G2087" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -60444,7 +60444,7 @@
         <v>52.8600006103516</v>
       </c>
       <c r="G2088" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -60470,7 +60470,7 @@
         <v>52.7799987792969</v>
       </c>
       <c r="G2089" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -60496,7 +60496,7 @@
         <v>52.8400001525879</v>
       </c>
       <c r="G2090" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -60522,7 +60522,7 @@
         <v>51.8600006103516</v>
       </c>
       <c r="G2091" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -60548,7 +60548,7 @@
         <v>51.2200012207031</v>
       </c>
       <c r="G2092" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -60574,7 +60574,7 @@
         <v>50.8600006103516</v>
       </c>
       <c r="G2093" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -60600,7 +60600,7 @@
         <v>51.3800010681152</v>
       </c>
       <c r="G2094" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -60626,7 +60626,7 @@
         <v>52.3600006103516</v>
       </c>
       <c r="G2095" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -60652,7 +60652,7 @@
         <v>52</v>
       </c>
       <c r="G2096" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -60678,7 +60678,7 @@
         <v>51.4000015258789</v>
       </c>
       <c r="G2097" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -60704,7 +60704,7 @@
         <v>51.7400016784668</v>
       </c>
       <c r="G2098" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -60730,7 +60730,7 @@
         <v>51.2400016784668</v>
       </c>
       <c r="G2099" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -60756,7 +60756,7 @@
         <v>50.75</v>
       </c>
       <c r="G2100" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -60782,7 +60782,7 @@
         <v>50.5499992370605</v>
       </c>
       <c r="G2101" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -60808,7 +60808,7 @@
         <v>49.8199996948242</v>
       </c>
       <c r="G2102" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -60834,7 +60834,7 @@
         <v>48.7000007629395</v>
       </c>
       <c r="G2103" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -60860,7 +60860,7 @@
         <v>49.9199981689453</v>
       </c>
       <c r="G2104" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -60886,7 +60886,7 @@
         <v>49.560001373291</v>
       </c>
       <c r="G2105" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -60912,7 +60912,7 @@
         <v>50</v>
       </c>
       <c r="G2106" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -60938,7 +60938,7 @@
         <v>49.0999984741211</v>
       </c>
       <c r="G2107" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -60964,7 +60964,7 @@
         <v>49.4199981689453</v>
       </c>
       <c r="G2108" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -60990,7 +60990,7 @@
         <v>49.9799995422363</v>
       </c>
       <c r="G2109" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -61016,7 +61016,7 @@
         <v>49.3400001525879</v>
       </c>
       <c r="G2110" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -61042,7 +61042,7 @@
         <v>48.939998626709</v>
       </c>
       <c r="G2111" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -61068,7 +61068,7 @@
         <v>49.7400016784668</v>
       </c>
       <c r="G2112" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -61094,7 +61094,7 @@
         <v>49.8600006103516</v>
       </c>
       <c r="G2113" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -61120,7 +61120,7 @@
         <v>51.0999984741211</v>
       </c>
       <c r="G2114" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -61146,7 +61146,7 @@
         <v>52.5999984741211</v>
       </c>
       <c r="G2115" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -61172,7 +61172,7 @@
         <v>49.9799995422363</v>
       </c>
       <c r="G2116" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -61198,7 +61198,7 @@
         <v>48.7999992370605</v>
       </c>
       <c r="G2117" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -61224,7 +61224,7 @@
         <v>49.0999984741211</v>
       </c>
       <c r="G2118" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -61250,7 +61250,7 @@
         <v>49.4199981689453</v>
       </c>
       <c r="G2119" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -61276,7 +61276,7 @@
         <v>50.0499992370605</v>
       </c>
       <c r="G2120" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -61302,7 +61302,7 @@
         <v>50.2000007629395</v>
       </c>
       <c r="G2121" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -61328,7 +61328,7 @@
         <v>50.75</v>
       </c>
       <c r="G2122" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -61354,7 +61354,7 @@
         <v>50.3499984741211</v>
       </c>
       <c r="G2123" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -61380,7 +61380,7 @@
         <v>50.5</v>
       </c>
       <c r="G2124" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -61406,7 +61406,7 @@
         <v>51.2000007629395</v>
       </c>
       <c r="G2125" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -61432,7 +61432,7 @@
         <v>50.3499984741211</v>
       </c>
       <c r="G2126" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -61458,7 +61458,7 @@
         <v>50.7999992370605</v>
       </c>
       <c r="G2127" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -61484,7 +61484,7 @@
         <v>50.5</v>
       </c>
       <c r="G2128" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -61510,7 +61510,7 @@
         <v>50.75</v>
       </c>
       <c r="G2129" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -61536,7 +61536,7 @@
         <v>51.7999992370605</v>
       </c>
       <c r="G2130" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -61562,7 +61562,7 @@
         <v>50.7999992370605</v>
       </c>
       <c r="G2131" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -61588,7 +61588,7 @@
         <v>51.2000007629395</v>
       </c>
       <c r="G2132" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -61614,7 +61614,7 @@
         <v>50.3499984741211</v>
       </c>
       <c r="G2133" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -61640,7 +61640,7 @@
         <v>48.8199996948242</v>
       </c>
       <c r="G2134" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -61666,7 +61666,7 @@
         <v>49.1599998474121</v>
       </c>
       <c r="G2135" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -61692,7 +61692,7 @@
         <v>48.5200004577637</v>
       </c>
       <c r="G2136" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -61718,7 +61718,7 @@
         <v>48.3400001525879</v>
       </c>
       <c r="G2137" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -61744,7 +61744,7 @@
         <v>48.6800003051758</v>
       </c>
       <c r="G2138" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -61770,7 +61770,7 @@
         <v>48.0999984741211</v>
       </c>
       <c r="G2139" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -61796,7 +61796,7 @@
         <v>47.7000007629395</v>
       </c>
       <c r="G2140" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -61822,7 +61822,7 @@
         <v>47.4599990844727</v>
       </c>
       <c r="G2141" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -61848,7 +61848,7 @@
         <v>48.4000015258789</v>
       </c>
       <c r="G2142" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -61874,7 +61874,7 @@
         <v>48.3600006103516</v>
       </c>
       <c r="G2143" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -61900,7 +61900,7 @@
         <v>48.2000007629395</v>
       </c>
       <c r="G2144" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -61926,7 +61926,7 @@
         <v>48.5999984741211</v>
       </c>
       <c r="G2145" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -61952,7 +61952,7 @@
         <v>49.2400016784668</v>
       </c>
       <c r="G2146" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -61978,7 +61978,7 @@
         <v>49.7000007629395</v>
       </c>
       <c r="G2147" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -62004,7 +62004,7 @@
         <v>49.5400009155273</v>
       </c>
       <c r="G2148" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -62030,7 +62030,7 @@
         <v>48.4199981689453</v>
       </c>
       <c r="G2149" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -62056,7 +62056,7 @@
         <v>49.2599983215332</v>
       </c>
       <c r="G2150" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -62082,7 +62082,7 @@
         <v>48.7799987792969</v>
       </c>
       <c r="G2151" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -62108,7 +62108,7 @@
         <v>48.0999984741211</v>
       </c>
       <c r="G2152" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -62134,7 +62134,7 @@
         <v>47.4199981689453</v>
       </c>
       <c r="G2153" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -62160,7 +62160,7 @@
         <v>48.4000015258789</v>
       </c>
       <c r="G2154" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -62186,7 +62186,7 @@
         <v>47.8400001525879</v>
       </c>
       <c r="G2155" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -62212,7 +62212,7 @@
         <v>49.2400016784668</v>
       </c>
       <c r="G2156" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -62238,7 +62238,7 @@
         <v>49.2000007629395</v>
       </c>
       <c r="G2157" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -62264,7 +62264,7 @@
         <v>50.0999984741211</v>
       </c>
       <c r="G2158" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -62290,7 +62290,7 @@
         <v>49.4000015258789</v>
       </c>
       <c r="G2159" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -62316,7 +62316,7 @@
         <v>49.6199989318848</v>
       </c>
       <c r="G2160" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -62342,7 +62342,7 @@
         <v>48.3600006103516</v>
       </c>
       <c r="G2161" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -62368,7 +62368,7 @@
         <v>48.7000007629395</v>
       </c>
       <c r="G2162" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -62394,7 +62394,7 @@
         <v>48.7999992370605</v>
       </c>
       <c r="G2163" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -62420,7 +62420,7 @@
         <v>48.9599990844727</v>
       </c>
       <c r="G2164" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -62446,7 +62446,7 @@
         <v>48.7000007629395</v>
       </c>
       <c r="G2165" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -62472,7 +62472,7 @@
         <v>49.0800018310547</v>
       </c>
       <c r="G2166" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -62498,7 +62498,7 @@
         <v>49.1399993896484</v>
       </c>
       <c r="G2167" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -62524,7 +62524,7 @@
         <v>49.0800018310547</v>
       </c>
       <c r="G2168" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -62550,7 +62550,7 @@
         <v>48.7999992370605</v>
       </c>
       <c r="G2169" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -62576,7 +62576,7 @@
         <v>50</v>
       </c>
       <c r="G2170" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="H2170" t="s">
         <v>9</v>
@@ -62602,7 +62602,7 @@
         <v>50.25</v>
       </c>
       <c r="G2171" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="H2171" t="s">
         <v>9</v>
@@ -62628,7 +62628,7 @@
         <v>50.9500007629395</v>
       </c>
       <c r="G2172" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="H2172" t="s">
         <v>9</v>
@@ -62654,7 +62654,7 @@
         <v>51.0499992370605</v>
       </c>
       <c r="G2173" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="H2173" t="s">
         <v>9</v>
@@ -62680,7 +62680,7 @@
         <v>51.0999984741211</v>
       </c>
       <c r="G2174" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="H2174" t="s">
         <v>9</v>
@@ -62688,7 +62688,7 @@
     </row>
     <row r="2175">
       <c r="A2175" s="1" t="n">
-        <v>45490.6493865741</v>
+        <v>45490.2916666667</v>
       </c>
       <c r="B2175" t="n">
         <v>241451</v>
@@ -62706,9 +62706,35 @@
         <v>51.75</v>
       </c>
       <c r="G2175" t="s">
+        <v>1935</v>
+      </c>
+      <c r="H2175" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176" s="1" t="n">
+        <v>45491.6493518519</v>
+      </c>
+      <c r="B2176" t="n">
+        <v>287873</v>
+      </c>
+      <c r="C2176" t="n">
+        <v>52</v>
+      </c>
+      <c r="D2176" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="E2176" t="n">
+        <v>51.7000007629395</v>
+      </c>
+      <c r="F2176" t="n">
+        <v>51.25</v>
+      </c>
+      <c r="G2176" t="s">
         <v>1936</v>
       </c>
-      <c r="H2175" t="s">
+      <c r="H2176" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/REC.MI.xlsx
+++ b/data/REC.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="1938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1939" uniqueCount="1939">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,19 +38,19 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">19.068639755249</t>
+    <t xml:space="preserve">19.0686416625977</t>
   </si>
   <si>
     <t xml:space="preserve">REC.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6574783325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3267574310303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9637813568115</t>
+    <t xml:space="preserve">19.6574764251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3267593383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9637794494629</t>
   </si>
   <si>
     <t xml:space="preserve">18.8105182647705</t>
@@ -59,13 +59,13 @@
     <t xml:space="preserve">18.6572608947754</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6975917816162</t>
+    <t xml:space="preserve">18.6975898742676</t>
   </si>
   <si>
     <t xml:space="preserve">18.108757019043</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2297496795654</t>
+    <t xml:space="preserve">18.2297515869141</t>
   </si>
   <si>
     <t xml:space="preserve">17.6086463928223</t>
@@ -74,10 +74,10 @@
     <t xml:space="preserve">17.544116973877</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5279808044434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2942771911621</t>
+    <t xml:space="preserve">17.5279865264893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2942790985107</t>
   </si>
   <si>
     <t xml:space="preserve">18.5282001495361</t>
@@ -89,46 +89,46 @@
     <t xml:space="preserve">18.8266525268555</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0280914306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3910751342773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7540512084961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1329555511475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8990325927734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2779273986816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1325206756592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6727418899536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.7937335968018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3825759887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5197010040283</t>
+    <t xml:space="preserve">18.0280933380127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3910713195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7540550231934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1329517364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8990345001221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2779293060303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1325225830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6727437973022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7937383651733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3825740814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.519702911377</t>
   </si>
   <si>
     <t xml:space="preserve">17.1327362060547</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8183708190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6812419891357</t>
+    <t xml:space="preserve">17.8183746337891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6812438964844</t>
   </si>
   <si>
     <t xml:space="preserve">18.0119590759277</t>
@@ -140,61 +140,61 @@
     <t xml:space="preserve">18.4475364685059</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7217864990234</t>
+    <t xml:space="preserve">18.7217922210693</t>
   </si>
   <si>
     <t xml:space="preserve">17.0601406097412</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0036792755127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5199165344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6893100738525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9151630401611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0684223175049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6731739044189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4392547607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3666610717773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.181131362915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5037822723389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1649990081787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4473190307617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5521812438965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6409130096436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5763816833496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3585929870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4069881439209</t>
+    <t xml:space="preserve">17.0036811828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5199127197266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6893081665039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9151611328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0684261322021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6731777191162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4392566680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.366662979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1811389923096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5037899017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1650066375732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4473209381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5521793365479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6409149169922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5763854980469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3585910797119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4069900512695</t>
   </si>
   <si>
     <t xml:space="preserve">17.5118503570557</t>
@@ -212,91 +212,91 @@
     <t xml:space="preserve">17.7538394927979</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8748359680176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7861022949219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1490859985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2136192321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1248817443848</t>
+    <t xml:space="preserve">17.8748340606689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7861061096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1490879058838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2136154174805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1248874664307</t>
   </si>
   <si>
     <t xml:space="preserve">18.1006889343262</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1168174743652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0442295074463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0764923095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4443912506104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.370813369751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1991233825684</t>
+    <t xml:space="preserve">18.1168212890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0442237854004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.076488494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.444393157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3708152770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1991271972656</t>
   </si>
   <si>
     <t xml:space="preserve">18.2808818817139</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0437870025635</t>
+    <t xml:space="preserve">18.0437889099121</t>
   </si>
   <si>
     <t xml:space="preserve">18.1091938018799</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1746006011963</t>
+    <t xml:space="preserve">18.1745986938477</t>
   </si>
   <si>
     <t xml:space="preserve">18.3544654846191</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1418933868408</t>
+    <t xml:space="preserve">18.1418991088867</t>
   </si>
   <si>
     <t xml:space="preserve">18.0928421020508</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2727108001709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5752086639404</t>
+    <t xml:space="preserve">18.2727088928223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5752048492432</t>
   </si>
   <si>
     <t xml:space="preserve">18.6651420593262</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3846015930176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6871070861816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6216983795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4418334960938</t>
+    <t xml:space="preserve">19.3846073150635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6871013641357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6216945648193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4418315887451</t>
   </si>
   <si>
     <t xml:space="preserve">19.7688617706299</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7443313598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7933902740479</t>
+    <t xml:space="preserve">19.7443351745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7933883666992</t>
   </si>
   <si>
     <t xml:space="preserve">19.9487266540527</t>
@@ -305,13 +305,13 @@
     <t xml:space="preserve">20.0059566497803</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8562316894531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0033931732178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1996078491211</t>
+    <t xml:space="preserve">20.8562335968018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0033950805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1996097564697</t>
   </si>
   <si>
     <t xml:space="preserve">21.1015014648438</t>
@@ -320,7 +320,7 @@
     <t xml:space="preserve">21.2486629486084</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5511684417725</t>
+    <t xml:space="preserve">21.5511646270752</t>
   </si>
   <si>
     <t xml:space="preserve">21.6901550292969</t>
@@ -332,49 +332,49 @@
     <t xml:space="preserve">22.0580596923828</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2297477722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8700141906738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7964363098145</t>
+    <t xml:space="preserve">22.2297515869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8700199127197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7964420318604</t>
   </si>
   <si>
     <t xml:space="preserve">22.3115062713623</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2706317901611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9517726898193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2568435668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2077884674072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4121799468994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1423835754395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7335948944092</t>
+    <t xml:space="preserve">22.2706279754639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.951774597168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2568378448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2077865600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4121780395508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1423797607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7335968017578</t>
   </si>
   <si>
     <t xml:space="preserve">21.4285316467285</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7065048217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6083965301514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9435977935791</t>
+    <t xml:space="preserve">21.7065029144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6083946228027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.943603515625</t>
   </si>
   <si>
     <t xml:space="preserve">20.8071784973145</t>
@@ -383,40 +383,40 @@
     <t xml:space="preserve">21.6656265258789</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9599533081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0744113922119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0989418029785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0907649993896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9926586151123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8536682128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1888694763184</t>
+    <t xml:space="preserve">21.9599494934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0744094848633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0989360809326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0907611846924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9926528930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8536643981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1888732910156</t>
   </si>
   <si>
     <t xml:space="preserve">22.9165077209473</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1372566223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9982643127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7529945373535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5567798614502</t>
+    <t xml:space="preserve">23.1372509002686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9982681274414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7529926300049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5567779541016</t>
   </si>
   <si>
     <t xml:space="preserve">22.744815826416</t>
@@ -425,97 +425,97 @@
     <t xml:space="preserve">22.6303596496582</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0636730194092</t>
+    <t xml:space="preserve">23.0636692047119</t>
   </si>
   <si>
     <t xml:space="preserve">23.513334274292</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4806308746338</t>
+    <t xml:space="preserve">23.4806327819824</t>
   </si>
   <si>
     <t xml:space="preserve">23.5215110778809</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2271881103516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6850280761719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6604976654053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5296859741211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7177295684814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0038814544678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5869159698486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9655666351318</t>
+    <t xml:space="preserve">23.2271862030029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6850261688232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6605014801025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5296878814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7177276611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0038795471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5869178771973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9655628204346</t>
   </si>
   <si>
     <t xml:space="preserve">23.3498210906982</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0881996154785</t>
+    <t xml:space="preserve">23.0881977081299</t>
   </si>
   <si>
     <t xml:space="preserve">23.0227928161621</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2598896026611</t>
+    <t xml:space="preserve">23.2598876953125</t>
   </si>
   <si>
     <t xml:space="preserve">23.2190113067627</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3743515014648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7366466522217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7284679412842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2951526641846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4341411590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1479873657227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3033294677734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4259700775146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.524076461792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.017183303833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0417060852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3605613708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1725215911865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9272499084473</t>
+    <t xml:space="preserve">23.3743495941162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7366428375244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7284641265869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2951564788818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4341430664062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1479892730713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3033313751221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4259662628174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5240783691406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0171813964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0417079925537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3605632781982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1725177764893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9272441864014</t>
   </si>
   <si>
     <t xml:space="preserve">22.1970462799072</t>
@@ -524,76 +524,76 @@
     <t xml:space="preserve">22.0825881958008</t>
   </si>
   <si>
-    <t xml:space="preserve">22.8020458221436</t>
+    <t xml:space="preserve">22.8020477294922</t>
   </si>
   <si>
     <t xml:space="preserve">22.5159015655518</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8863697052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.804615020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7473831176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2133960723877</t>
+    <t xml:space="preserve">21.8863716125488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8046112060547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7473850250244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2133941650391</t>
   </si>
   <si>
     <t xml:space="preserve">22.3687381744385</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9844779968262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2052268981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2215747833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4423217773438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4831943511963</t>
+    <t xml:space="preserve">21.9844799041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2052230834961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2215709686279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4423236846924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4831962585449</t>
   </si>
   <si>
     <t xml:space="preserve">23.243537902832</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4561042785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3907051086426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.276237487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2026557922363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1536026000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.030969619751</t>
+    <t xml:space="preserve">23.4561061859131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3907070159912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2762393951416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.202657699585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1536064147949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0309715270996</t>
   </si>
   <si>
     <t xml:space="preserve">22.9246845245361</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1127262115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3360366821289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5077285766602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0335330963135</t>
+    <t xml:space="preserve">23.1127281188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3360347747803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5077247619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0335311889648</t>
   </si>
   <si>
     <t xml:space="preserve">22.1643466949463</t>
@@ -602,7 +602,7 @@
     <t xml:space="preserve">22.0662364959717</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9108982086182</t>
+    <t xml:space="preserve">21.9109001159668</t>
   </si>
   <si>
     <t xml:space="preserve">21.8945465087891</t>
@@ -611,82 +611,82 @@
     <t xml:space="preserve">21.0769748687744</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6191368103027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9298152923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0279197692871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5700817108154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0851497650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0008316040039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2977123260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3385982513428</t>
+    <t xml:space="preserve">20.6191349029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9298095703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0279178619385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5700778961182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0851554870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0008296966553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2977161407471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.33860206604</t>
   </si>
   <si>
     <t xml:space="preserve">20.9052848815918</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7826499938965</t>
+    <t xml:space="preserve">20.7826519012451</t>
   </si>
   <si>
     <t xml:space="preserve">21.0360984802246</t>
   </si>
   <si>
-    <t xml:space="preserve">20.9863681793213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4641933441162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7791538238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0278091430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1024017333984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8537502288818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1355571746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2930374145508</t>
+    <t xml:space="preserve">20.9863624572754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4641952514648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7791500091553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0278072357178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1023998260498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8537483215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.135555267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2930393218994</t>
   </si>
   <si>
     <t xml:space="preserve">20.5636539459229</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8951930999756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1189842224121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3427715301514</t>
+    <t xml:space="preserve">20.895191192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1189804077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3427696228027</t>
   </si>
   <si>
     <t xml:space="preserve">21.2847499847412</t>
   </si>
   <si>
-    <t xml:space="preserve">21.16042137146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5499820709229</t>
+    <t xml:space="preserve">21.1604232788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5499801635742</t>
   </si>
   <si>
     <t xml:space="preserve">21.2515964508057</t>
@@ -695,100 +695,100 @@
     <t xml:space="preserve">21.5251121520996</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2018642425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9146709442139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.17160987854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3373832702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1053085327148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9063835144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7240390777588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3208084106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4285564422607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1633243560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3125171661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6357650756836</t>
+    <t xml:space="preserve">21.2018661499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9146747589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1716136932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3373851776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1053066253662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.906379699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7240409851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3208045959473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4285545349121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1633262634277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3125133514404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6357688903809</t>
   </si>
   <si>
     <t xml:space="preserve">22.5611743927002</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6772117614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0419006347656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0253276824951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.536304473877</t>
+    <t xml:space="preserve">22.677209854126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.041898727417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0253257751465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5363063812256</t>
   </si>
   <si>
     <t xml:space="preserve">23.0667667388916</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6191883087158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9507312774658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7932453155518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8264026641846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.602611541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6109008789062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.577751159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2793655395508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4617099761963</t>
+    <t xml:space="preserve">22.6191921234131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9507293701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.793249130249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8264045715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6026134490967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6109027862549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5777492523193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2793598175049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4617080688477</t>
   </si>
   <si>
     <t xml:space="preserve">22.4368457794189</t>
   </si>
   <si>
-    <t xml:space="preserve">21.806921005249</t>
+    <t xml:space="preserve">21.8069190979004</t>
   </si>
   <si>
     <t xml:space="preserve">21.8898086547852</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0638618469238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2544956207275</t>
+    <t xml:space="preserve">22.0638637542725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2544975280762</t>
   </si>
   <si>
     <t xml:space="preserve">21.8732280731201</t>
@@ -800,94 +800,94 @@
     <t xml:space="preserve">22.3788261413574</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2822704315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3983039855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4563274383545</t>
+    <t xml:space="preserve">23.2822666168213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3983058929443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4563217163086</t>
   </si>
   <si>
     <t xml:space="preserve">23.6884021759033</t>
   </si>
   <si>
-    <t xml:space="preserve">23.423168182373</t>
+    <t xml:space="preserve">23.4231739044189</t>
   </si>
   <si>
     <t xml:space="preserve">23.9287662506104</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0282306671143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4509391784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4177875518799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3431911468506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7824783325195</t>
+    <t xml:space="preserve">24.0282287597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4509429931641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4177837371826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3431930541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7824802398682</t>
   </si>
   <si>
     <t xml:space="preserve">24.8404960632324</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7741928100586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0891513824463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1554565429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0062675476074</t>
+    <t xml:space="preserve">24.77419090271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0891494750977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1554584503174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0062656402588</t>
   </si>
   <si>
     <t xml:space="preserve">25.1057281494141</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2714977264404</t>
+    <t xml:space="preserve">25.2714958190918</t>
   </si>
   <si>
     <t xml:space="preserve">25.5533027648926</t>
   </si>
   <si>
-    <t xml:space="preserve">25.545015335083</t>
+    <t xml:space="preserve">25.5450172424316</t>
   </si>
   <si>
     <t xml:space="preserve">25.8019561767578</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9262828826904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2080879211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.407018661499</t>
+    <t xml:space="preserve">25.9262866973877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2080955505371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4070148468018</t>
   </si>
   <si>
     <t xml:space="preserve">26.4401683807373</t>
   </si>
   <si>
-    <t xml:space="preserve">25.959436416626</t>
+    <t xml:space="preserve">25.9594383239746</t>
   </si>
   <si>
     <t xml:space="preserve">25.8765506744385</t>
   </si>
   <si>
-    <t xml:space="preserve">26.125207901001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2992649078369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2412452697754</t>
+    <t xml:space="preserve">26.1252098083496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2992630004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.241247177124</t>
   </si>
   <si>
     <t xml:space="preserve">26.6059398651123</t>
@@ -896,139 +896,139 @@
     <t xml:space="preserve">26.365571975708</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1666507720947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2495346069336</t>
+    <t xml:space="preserve">26.1666488647461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.249532699585</t>
   </si>
   <si>
     <t xml:space="preserve">26.3324203491211</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5644931793213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9374752044678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9540500640869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2192821502686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0369396209717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0120716094971</t>
+    <t xml:space="preserve">26.5644950866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9374771118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9540538787842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2192840576172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0369338989258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0120735168457</t>
   </si>
   <si>
     <t xml:space="preserve">27.4099178314209</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6751499176025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.625415802002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3850555419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6585731506348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0647068023682</t>
+    <t xml:space="preserve">27.6751461029053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6254177093506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3850517272949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6585674285889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0647087097168</t>
   </si>
   <si>
     <t xml:space="preserve">27.5093765258789</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7407722473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5145988464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4810943603516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7742748260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4894676208496</t>
+    <t xml:space="preserve">28.7407684326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5145950317383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4810886383057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7742710113525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4894618988037</t>
   </si>
   <si>
     <t xml:space="preserve">28.8412933349609</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6067371368408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6737575531006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.427661895752</t>
+    <t xml:space="preserve">28.606746673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6737537384033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4276714324951</t>
   </si>
   <si>
     <t xml:space="preserve">29.8381271362305</t>
   </si>
   <si>
-    <t xml:space="preserve">29.8129978179932</t>
+    <t xml:space="preserve">29.8129940032959</t>
   </si>
   <si>
     <t xml:space="preserve">30.5669116973877</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6590518951416</t>
+    <t xml:space="preserve">30.6590480804443</t>
   </si>
   <si>
     <t xml:space="preserve">30.5752849578857</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7543621063232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9386501312256</t>
+    <t xml:space="preserve">29.754358291626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9386520385742</t>
   </si>
   <si>
     <t xml:space="preserve">30.0307884216309</t>
   </si>
   <si>
-    <t xml:space="preserve">29.9302749633789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8716297149658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0475387573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8967704772949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2485961914062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4695491790771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5700740814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9972858428955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7480373382568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7511920928955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8768482208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3826179504395</t>
+    <t xml:space="preserve">29.930269241333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8716373443604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0475482940674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8967590332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2485904693604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4695510864258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5700702667236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9972839355469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7480392456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7511940002441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8768539428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3826198577881</t>
   </si>
   <si>
     <t xml:space="preserve">30.5585308074951</t>
@@ -1037,22 +1037,22 @@
     <t xml:space="preserve">30.5920391082764</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0391712188721</t>
+    <t xml:space="preserve">30.0391693115234</t>
   </si>
   <si>
     <t xml:space="preserve">30.5250244140625</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2202949523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0276336669922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2538089752197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.496732711792</t>
+    <t xml:space="preserve">31.2203006744385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0276298522949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2538032531738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4967308044434</t>
   </si>
   <si>
     <t xml:space="preserve">31.1700344085693</t>
@@ -1061,187 +1061,187 @@
     <t xml:space="preserve">31.3291988372803</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3658657073975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.544942855835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1512298583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6538372039795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7292346954346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2852630615234</t>
+    <t xml:space="preserve">30.3658638000488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5449390411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1512317657471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6538410186768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.72922706604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2852573394775</t>
   </si>
   <si>
     <t xml:space="preserve">29.226619720459</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5198097229004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3355197906494</t>
+    <t xml:space="preserve">29.5198059082031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.335521697998</t>
   </si>
   <si>
     <t xml:space="preserve">29.6957244873047</t>
   </si>
   <si>
-    <t xml:space="preserve">29.394157409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6789627075195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.745979309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2234630584717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.240213394165</t>
+    <t xml:space="preserve">29.3941555023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6789665222168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7459888458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.223461151123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2402095794678</t>
   </si>
   <si>
     <t xml:space="preserve">30.1732006072998</t>
   </si>
   <si>
-    <t xml:space="preserve">29.9051418304443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7711143493652</t>
+    <t xml:space="preserve">29.9051399230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7711124420166</t>
   </si>
   <si>
     <t xml:space="preserve">29.9554042816162</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7878665924072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.720853805542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8548812866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3271389007568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0423316955566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4360427856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4946746826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2517509460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2768783569336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6203308105469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3606491088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6873416900635</t>
+    <t xml:space="preserve">29.7878704071045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7208518981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8548831939697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3271427154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0423259735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4360389709473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4946765899658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.251745223999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2768840789795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.620325088501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3606510162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6873455047607</t>
   </si>
   <si>
     <t xml:space="preserve">29.5868225097656</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4611682891846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8632564544678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1396923065186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4496326446533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3239841461182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2988510131836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5166511535645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9773712158203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1784114837646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.136531829834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2454280853271</t>
+    <t xml:space="preserve">29.4611721038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8632621765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1396903991699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4496288299561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3239860534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.298849105835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5166492462158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9773693084717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.178409576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1365299224854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2454261779785</t>
   </si>
   <si>
     <t xml:space="preserve">31.3710803985596</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9857540130615</t>
+    <t xml:space="preserve">30.985746383667</t>
   </si>
   <si>
     <t xml:space="preserve">31.2286701202393</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5637454986572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7647914886475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2171401977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7281265258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6359710693359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5438385009766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0045547485352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.669490814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9794235229492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.786750793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0129318237305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.121826171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1469688415527</t>
+    <t xml:space="preserve">31.5637435913086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7647857666016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2171363830566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7281188964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6359748840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5438270568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0045471191406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6694869995117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9794273376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7867546081543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0129241943359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1218338012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1469535827637</t>
   </si>
   <si>
     <t xml:space="preserve">33.3898887634277</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3647575378418</t>
+    <t xml:space="preserve">33.3647613525391</t>
   </si>
   <si>
     <t xml:space="preserve">33.5741729736328</t>
@@ -1250,118 +1250,118 @@
     <t xml:space="preserve">33.3312454223633</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5909194946289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1804618835449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2307205200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1134490966797</t>
+    <t xml:space="preserve">33.5909309387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1804695129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2307319641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1134567260742</t>
   </si>
   <si>
     <t xml:space="preserve">33.264232635498</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4569053649902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6579551696777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1720848083496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2558631896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4150199890137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5993118286133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4317741394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7249565124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3480072021484</t>
+    <t xml:space="preserve">33.4568977355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6579437255859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1720886230469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2558517456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4150161743164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.599308013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4317665100098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7249488830566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3480033874512</t>
   </si>
   <si>
     <t xml:space="preserve">34.0097732543945</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8924865722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3228645324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5071678161621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.602466583252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5103302001953</t>
+    <t xml:space="preserve">33.8925018310547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3228721618652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5071563720703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6024627685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.510326385498</t>
   </si>
   <si>
     <t xml:space="preserve">32.3427848815918</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6108436584473</t>
+    <t xml:space="preserve">32.6108474731445</t>
   </si>
   <si>
     <t xml:space="preserve">31.9742069244385</t>
   </si>
   <si>
-    <t xml:space="preserve">32.367919921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8653163909912</t>
+    <t xml:space="preserve">32.3679237365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8653087615967</t>
   </si>
   <si>
     <t xml:space="preserve">32.4243507385254</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4667015075684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3481178283691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3989334106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1787109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.170238494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0177803039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8737812042236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0940093994141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8055229187012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4497604370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2295341491699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7631683349609</t>
+    <t xml:space="preserve">32.4667053222656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3481140136719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3989448547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1787147521973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1702461242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0177764892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8737869262695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0940055847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8055114746094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4497680664062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2295227050781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7631645202637</t>
   </si>
   <si>
     <t xml:space="preserve">32.7208099365234</t>
@@ -1370,49 +1370,49 @@
     <t xml:space="preserve">32.7885704040527</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0093040466309</t>
+    <t xml:space="preserve">32.0093116760254</t>
   </si>
   <si>
     <t xml:space="preserve">31.3570919036865</t>
   </si>
   <si>
-    <t xml:space="preserve">30.975923538208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5519065856934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5349712371826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9844017028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8742828369141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3401527404785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6196689605713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6704883575439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3909797668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5942573547363</t>
+    <t xml:space="preserve">30.9759273529053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5519123077393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.534969329834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9843940734863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8742866516113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3401489257812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6196708679199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6704902648926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3909740447998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5942611694336</t>
   </si>
   <si>
     <t xml:space="preserve">31.4417915344238</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9330749511719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4921073913574</t>
+    <t xml:space="preserve">31.933069229126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4921188354492</t>
   </si>
   <si>
     <t xml:space="preserve">32.6276359558105</t>
@@ -1421,85 +1421,85 @@
     <t xml:space="preserve">32.7800979614258</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5429382324219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3565864562988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6953926086426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2888221740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1194190979004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7128505706787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9669513702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6615180969238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.034725189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.525993347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4671993255615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0606346130371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6794662475586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8832550048828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2225723266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1891937255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4427967071533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0711097717285</t>
+    <t xml:space="preserve">32.5429344177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3565902709961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6954002380371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2888336181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1194152832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7128448486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9669532775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6615142822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0347175598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5259857177734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4672050476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0606250762939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.67946434021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8832588195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2225818634033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1891975402832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.442798614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0711135864258</t>
   </si>
   <si>
     <t xml:space="preserve">26.1478500366211</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5718669891357</t>
+    <t xml:space="preserve">25.571870803833</t>
   </si>
   <si>
     <t xml:space="preserve">25.0890617370605</t>
   </si>
   <si>
-    <t xml:space="preserve">26.317253112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9869117736816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3680801391602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4278736114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.987419128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8180103302002</t>
+    <t xml:space="preserve">26.3172569274902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9869136810303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3680763244629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4278717041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9874172210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8180122375488</t>
   </si>
   <si>
     <t xml:space="preserve">24.614725112915</t>
@@ -1508,58 +1508,58 @@
     <t xml:space="preserve">25.326229095459</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1568222045898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9450664520264</t>
+    <t xml:space="preserve">25.1568241119385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9450645446777</t>
   </si>
   <si>
     <t xml:space="preserve">24.6231918334961</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0217990875244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4707260131836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5469608306885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3516387939453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2415256500244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4871654510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1229400634766</t>
+    <t xml:space="preserve">24.0218067169189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.470724105835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5469627380371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3516407012939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2415237426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4871673583984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1229438781738</t>
   </si>
   <si>
     <t xml:space="preserve">24.699426651001</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9789485931396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8349494934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6062526702881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2250862121582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1234436035156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.072624206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0387420654297</t>
+    <t xml:space="preserve">24.9789505004883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8349514007568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6062488555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2250919342041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1234455108643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0726222991943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0387401580811</t>
   </si>
   <si>
     <t xml:space="preserve">23.3102951049805</t>
@@ -1568,7 +1568,7 @@
     <t xml:space="preserve">23.7168731689453</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4453163146973</t>
+    <t xml:space="preserve">24.4453182220459</t>
   </si>
   <si>
     <t xml:space="preserve">25.3939914703369</t>
@@ -1577,43 +1577,43 @@
     <t xml:space="preserve">25.0043601989746</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3092861175537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2838802337646</t>
+    <t xml:space="preserve">25.3092880249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2838821411133</t>
   </si>
   <si>
     <t xml:space="preserve">25.0128307342529</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0467090606689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8264846801758</t>
+    <t xml:space="preserve">25.0467071533203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8264827728271</t>
   </si>
   <si>
     <t xml:space="preserve">25.1314105987549</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0721187591553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2754096984863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4902610778809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2152481079102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4386940002441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.387134552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.48166847229</t>
+    <t xml:space="preserve">25.0721225738525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2754077911377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4902629852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2152519226074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4386978149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3871326446533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4816665649414</t>
   </si>
   <si>
     <t xml:space="preserve">26.5129661560059</t>
@@ -1622,154 +1622,154 @@
     <t xml:space="preserve">26.2723274230957</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3410835266113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.573127746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.29811668396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.392650604248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1090412139893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2121734619141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.504373550415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.38405418396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8770008087158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.638801574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4325370788574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6989555358887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5614528656006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5184841156006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5786437988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6130142211914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2434692382812</t>
+    <t xml:space="preserve">26.3410816192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5731239318848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2981109619141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3926467895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1090393066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2121715545654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5043754577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3840560913086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8769989013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6387996673584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4325408935547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6989593505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5614547729492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.518482208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5786399841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6130199432373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2434730529785</t>
   </si>
   <si>
     <t xml:space="preserve">27.1059646606445</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2606544494629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3465976715088</t>
+    <t xml:space="preserve">27.2606601715088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3465995788574</t>
   </si>
   <si>
     <t xml:space="preserve">27.2950344085693</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2919521331787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3607082366943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3177433013916</t>
+    <t xml:space="preserve">28.2919540405273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3607120513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.317741394043</t>
   </si>
   <si>
     <t xml:space="preserve">27.9739742279053</t>
   </si>
   <si>
-    <t xml:space="preserve">28.1630439758301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2232036590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6185340881348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2318000793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0942878723145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8419857025146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.632640838623</t>
+    <t xml:space="preserve">28.1630477905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.223201751709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6185321807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2317981719971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0942897796631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.841983795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6326389312744</t>
   </si>
   <si>
     <t xml:space="preserve">29.3576316833496</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4263858795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5497856140137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.498218536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8591709136963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8247947692871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2716884613037</t>
+    <t xml:space="preserve">29.4263877868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5497817993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4982147216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8591728210449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8247909545898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2716903686523</t>
   </si>
   <si>
     <t xml:space="preserve">25.6277694702148</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6050624847412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.957426071167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2668132781982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7480907440186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9973182678223</t>
+    <t xml:space="preserve">24.6050643920898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9574241638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2668151855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7480850219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9973163604736</t>
   </si>
   <si>
     <t xml:space="preserve">26.6418800354004</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6504745483398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3238925933838</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4184322357178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8254356384277</t>
+    <t xml:space="preserve">26.6504726409912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3238945007324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4184303283691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8254337310791</t>
   </si>
   <si>
     <t xml:space="preserve">25.6965217590332</t>
@@ -1784,55 +1784,55 @@
     <t xml:space="preserve">26.6676616668701</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8911113739014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0543994903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0372104644775</t>
+    <t xml:space="preserve">26.89111328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0543975830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0372066497803</t>
   </si>
   <si>
     <t xml:space="preserve">26.7364177703857</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8997020721436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4841041564941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5098857879639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2348747253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5872364044189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7161464691162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9997577667236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0169467926025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8966217041016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.501293182373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.226282119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6160926818848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2379531860352</t>
+    <t xml:space="preserve">26.8997039794922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4841060638428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5098876953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2348766326904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5872325897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7161483764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9997539520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.016939163208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8966236114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5012950897217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2262802124023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.616096496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2379570007324</t>
   </si>
   <si>
     <t xml:space="preserve">26.5645332336426</t>
@@ -1844,7 +1844,7 @@
     <t xml:space="preserve">26.1520118713379</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9285659790039</t>
+    <t xml:space="preserve">25.9285640716553</t>
   </si>
   <si>
     <t xml:space="preserve">25.954345703125</t>
@@ -1853,22 +1853,22 @@
     <t xml:space="preserve">26.066068649292</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9199714660645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2035789489746</t>
+    <t xml:space="preserve">25.9199676513672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.203577041626</t>
   </si>
   <si>
     <t xml:space="preserve">26.1176357269287</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2551441192627</t>
+    <t xml:space="preserve">26.2551460266113</t>
   </si>
   <si>
     <t xml:space="preserve">25.8340282440186</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2207660675049</t>
+    <t xml:space="preserve">26.2207641601562</t>
   </si>
   <si>
     <t xml:space="preserve">25.7566795349121</t>
@@ -1880,19 +1880,19 @@
     <t xml:space="preserve">25.6105785369873</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4988574981689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3183765411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2238464355469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0261821746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2324409484863</t>
+    <t xml:space="preserve">25.4988555908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3183784484863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.223840713501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0261764526367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2324390411377</t>
   </si>
   <si>
     <t xml:space="preserve">25.3785381317139</t>
@@ -1901,19 +1901,19 @@
     <t xml:space="preserve">25.5504207611084</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0605525970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2840023040771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4215068817139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3496761322021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0746650695801</t>
+    <t xml:space="preserve">25.0605545043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2840003967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4215087890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3496799468994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0746631622314</t>
   </si>
   <si>
     <t xml:space="preserve">25.662145614624</t>
@@ -1925,16 +1925,16 @@
     <t xml:space="preserve">25.9715328216553</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0089874267578</t>
+    <t xml:space="preserve">25.0089912414551</t>
   </si>
   <si>
     <t xml:space="preserve">24.8628902435303</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7253837585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9144554138184</t>
+    <t xml:space="preserve">24.7253818511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9144515991211</t>
   </si>
   <si>
     <t xml:space="preserve">25.069149017334</t>
@@ -1943,7 +1943,7 @@
     <t xml:space="preserve">25.4558849334717</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7738704681396</t>
+    <t xml:space="preserve">25.7738723754883</t>
   </si>
   <si>
     <t xml:space="preserve">25.5246391296387</t>
@@ -1952,22 +1952,22 @@
     <t xml:space="preserve">25.6019859313965</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1722774505615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0402889251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5817222595215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7137069702148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8598117828369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9113731384277</t>
+    <t xml:space="preserve">25.1722850799561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0402870178223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5817241668701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7137107849121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8598098754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9113712310791</t>
   </si>
   <si>
     <t xml:space="preserve">25.7394943237305</t>
@@ -1976,61 +1976,61 @@
     <t xml:space="preserve">25.8684062957764</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6363582611084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9801273345947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6535530090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4644775390625</t>
+    <t xml:space="preserve">25.6363658905029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.980131149292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6535549163818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4644794464111</t>
   </si>
   <si>
     <t xml:space="preserve">24.8542957305908</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9230461120605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0433673858643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1306552886963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7727661132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7640399932861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3799629211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3712368011475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.432336807251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2315711975098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7989521026611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1393852233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1131992340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9648056030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.441068649292</t>
+    <t xml:space="preserve">24.9230480194092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0433654785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1306591033936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7727680206299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7640419006348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3799667358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3712348937988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4323406219482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.231575012207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.798957824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1393814086914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1131973266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.964807510376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4410705566406</t>
   </si>
   <si>
     <t xml:space="preserve">24.528356552124</t>
@@ -2048,19 +2048,19 @@
     <t xml:space="preserve">24.7902240753174</t>
   </si>
   <si>
-    <t xml:space="preserve">25.052095413208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3139610290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.48854637146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8813457489014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4487285614014</t>
+    <t xml:space="preserve">25.0520973205566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3139629364014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4885425567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8813438415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4487266540527</t>
   </si>
   <si>
     <t xml:space="preserve">27.0684833526611</t>
@@ -2078,79 +2078,79 @@
     <t xml:space="preserve">26.2916049957275</t>
   </si>
   <si>
-    <t xml:space="preserve">25.968635559082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8376960754395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1170234680176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8638858795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7804260253906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8415298461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9811954498291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6009483337402</t>
+    <t xml:space="preserve">25.9686374664307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8376998901367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1170272827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8638896942139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7804279327393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8415279388428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9811935424805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6009502410889</t>
   </si>
   <si>
     <t xml:space="preserve">27.2343330383301</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7978858947754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3352527618408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1344871520996</t>
+    <t xml:space="preserve">26.7978897094727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3352546691895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1344890594482</t>
   </si>
   <si>
     <t xml:space="preserve">26.1606693267822</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2392311096191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5622024536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.618408203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.391450881958</t>
+    <t xml:space="preserve">26.2392292022705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5622043609619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6184043884277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3914527893066</t>
   </si>
   <si>
     <t xml:space="preserve">28.0286674499512</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9364795684814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8928337097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1770610809326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6707801818848</t>
+    <t xml:space="preserve">28.9364757537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8928318023682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.177059173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6707820892334</t>
   </si>
   <si>
     <t xml:space="preserve">27.9675636291504</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3516387939453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1896190643311</t>
+    <t xml:space="preserve">28.3516368865967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1896152496338</t>
   </si>
   <si>
     <t xml:space="preserve">29.2594509124756</t>
@@ -2159,34 +2159,34 @@
     <t xml:space="preserve">29.5300521850586</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6435203552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1110534667969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2681751251221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8579177856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6571559906006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6309661865234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8753757476807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7357082366943</t>
+    <t xml:space="preserve">29.6435279846191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1110553741455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.268180847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8579196929932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6571521759033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6309623718262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.875373840332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7357120513916</t>
   </si>
   <si>
     <t xml:space="preserve">28.8666496276855</t>
   </si>
   <si>
-    <t xml:space="preserve">29.0761394500732</t>
+    <t xml:space="preserve">29.0761432647705</t>
   </si>
   <si>
     <t xml:space="preserve">29.5475044250488</t>
@@ -2195,34 +2195,34 @@
     <t xml:space="preserve">29.6784439086914</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6173324584961</t>
+    <t xml:space="preserve">29.6173400878906</t>
   </si>
   <si>
     <t xml:space="preserve">29.4776744842529</t>
   </si>
   <si>
-    <t xml:space="preserve">29.442756652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.001407623291</t>
+    <t xml:space="preserve">29.4427547454834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0014095306396</t>
   </si>
   <si>
     <t xml:space="preserve">30.1323471069336</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4989624023438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4504165649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5726184844971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0090675354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0789031982422</t>
+    <t xml:space="preserve">30.4989604949951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4504222869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5726165771484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0090637207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0788955688477</t>
   </si>
   <si>
     <t xml:space="preserve">31.9130573272705</t>
@@ -2234,85 +2234,85 @@
     <t xml:space="preserve">31.2060089111328</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3282070159912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0401592254639</t>
+    <t xml:space="preserve">31.3282146453857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0401611328125</t>
   </si>
   <si>
     <t xml:space="preserve">29.966495513916</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2981967926025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5076904296875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0663414001465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2845687866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9703273773193</t>
+    <t xml:space="preserve">30.2981929779053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5076923370361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0663433074951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2845649719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.970329284668</t>
   </si>
   <si>
     <t xml:space="preserve">31.5027866363525</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5464382171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2671070098877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4766044616699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.563892364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6773719787598</t>
+    <t xml:space="preserve">31.5464324951172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2671051025391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4766063690186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5638961791992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6773681640625</t>
   </si>
   <si>
     <t xml:space="preserve">31.5115184783936</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9877853393555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7841701507568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.412633895874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.439172744751</t>
+    <t xml:space="preserve">30.9877796173096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7841644287109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4126377105713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4391689300537</t>
   </si>
   <si>
     <t xml:space="preserve">32.0318641662598</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8195533752441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8372440338135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9964752197266</t>
+    <t xml:space="preserve">31.8195552825928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.837251663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.996467590332</t>
   </si>
   <si>
     <t xml:space="preserve">32.0141677856445</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3595600128174</t>
+    <t xml:space="preserve">31.3595561981201</t>
   </si>
   <si>
     <t xml:space="preserve">31.5453224182129</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2618637084961</t>
+    <t xml:space="preserve">32.2618598937988</t>
   </si>
   <si>
     <t xml:space="preserve">31.2887840270996</t>
@@ -2321,22 +2321,22 @@
     <t xml:space="preserve">31.1118621826172</t>
   </si>
   <si>
-    <t xml:space="preserve">29.9618625640869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5280170440674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2534065246582</t>
+    <t xml:space="preserve">29.9618606567383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5280151367188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2534008026123</t>
   </si>
   <si>
     <t xml:space="preserve">32.3591690063477</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3237838745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.332633972168</t>
+    <t xml:space="preserve">32.3237915039062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3326263427734</t>
   </si>
   <si>
     <t xml:space="preserve">32.8014755249023</t>
@@ -2348,19 +2348,19 @@
     <t xml:space="preserve">32.0053253173828</t>
   </si>
   <si>
-    <t xml:space="preserve">32.456470489502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.155704498291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3945503234863</t>
+    <t xml:space="preserve">32.4564743041992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1557083129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3945541381836</t>
   </si>
   <si>
     <t xml:space="preserve">32.5980110168457</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6953239440918</t>
+    <t xml:space="preserve">32.6953163146973</t>
   </si>
   <si>
     <t xml:space="preserve">32.7307090759277</t>
@@ -2369,10 +2369,10 @@
     <t xml:space="preserve">33.1907043457031</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1818618774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6153182983398</t>
+    <t xml:space="preserve">33.1818580627441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6153221130371</t>
   </si>
   <si>
     <t xml:space="preserve">33.5799331665039</t>
@@ -2384,7 +2384,7 @@
     <t xml:space="preserve">33.6860885620117</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2880096435547</t>
+    <t xml:space="preserve">33.2880172729492</t>
   </si>
   <si>
     <t xml:space="preserve">33.270320892334</t>
@@ -2393,106 +2393,106 @@
     <t xml:space="preserve">33.0845527648926</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7749328613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2353248596191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7130126953125</t>
+    <t xml:space="preserve">32.7749366760254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2353172302246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7130088806152</t>
   </si>
   <si>
     <t xml:space="preserve">32.9960899353027</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0757064819336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1203231811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.934549331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4299354553223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5449371337891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8987846374512</t>
+    <t xml:space="preserve">33.0757026672363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1203193664551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9345531463623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4299392700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5449333190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8987808227539</t>
   </si>
   <si>
     <t xml:space="preserve">33.252628326416</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3764686584473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8364715576172</t>
+    <t xml:space="preserve">33.3764762878418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8364791870117</t>
   </si>
   <si>
     <t xml:space="preserve">33.3676261901855</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0753173828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0576210021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7653198242188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7918510437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6857032775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0749320983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0483894348145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1810874938965</t>
+    <t xml:space="preserve">34.0753211975098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0576324462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7653121948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7918548583984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6856994628906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0749359130859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.048397064209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1810913085938</t>
   </si>
   <si>
     <t xml:space="preserve">35.322624206543</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7295417785645</t>
+    <t xml:space="preserve">35.729549407959</t>
   </si>
   <si>
     <t xml:space="preserve">35.4730072021484</t>
   </si>
   <si>
-    <t xml:space="preserve">35.552619934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5083961486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1987724304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8533973693848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8710861206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.03955078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.349552154541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4380035400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1191711425781</t>
+    <t xml:space="preserve">35.5526237487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5083847045898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1987838745117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8533897399902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8710784912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0395431518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3495559692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4380149841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1191635131836</t>
   </si>
   <si>
     <t xml:space="preserve">35.287239074707</t>
@@ -2501,7 +2501,7 @@
     <t xml:space="preserve">34.6591644287109</t>
   </si>
   <si>
-    <t xml:space="preserve">34.376091003418</t>
+    <t xml:space="preserve">34.3760833740234</t>
   </si>
   <si>
     <t xml:space="preserve">33.7922439575195</t>
@@ -2510,31 +2510,31 @@
     <t xml:space="preserve">34.3230094909668</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5530128479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1814765930176</t>
+    <t xml:space="preserve">34.5530090332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.181468963623</t>
   </si>
   <si>
     <t xml:space="preserve">35.2518501281738</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9510917663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3668556213379</t>
+    <t xml:space="preserve">34.9510879516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3668594360352</t>
   </si>
   <si>
     <t xml:space="preserve">35.2960891723633</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2426300048828</t>
+    <t xml:space="preserve">36.2426223754883</t>
   </si>
   <si>
     <t xml:space="preserve">35.6056976318359</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2607002258301</t>
+    <t xml:space="preserve">35.2606964111328</t>
   </si>
   <si>
     <t xml:space="preserve">35.9153099060059</t>
@@ -2546,7 +2546,7 @@
     <t xml:space="preserve">35.8445510864258</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3314743041992</t>
+    <t xml:space="preserve">35.331470489502</t>
   </si>
   <si>
     <t xml:space="preserve">35.3491630554199</t>
@@ -2555,25 +2555,25 @@
     <t xml:space="preserve">33.8099403381348</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9068489074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.783390045166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.367244720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.898006439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1280097961426</t>
+    <t xml:space="preserve">34.9068565368652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7833976745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3672409057617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8980102539062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.128002166748</t>
   </si>
   <si>
     <t xml:space="preserve">35.2076225280762</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5707054138184</t>
+    <t xml:space="preserve">34.5707015991211</t>
   </si>
   <si>
     <t xml:space="preserve">34.9245452880859</t>
@@ -2582,31 +2582,31 @@
     <t xml:space="preserve">34.8095436096191</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8183898925781</t>
+    <t xml:space="preserve">34.8183975219727</t>
   </si>
   <si>
     <t xml:space="preserve">34.1903190612793</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8633995056152</t>
+    <t xml:space="preserve">32.863395690918</t>
   </si>
   <si>
     <t xml:space="preserve">33.0403213500977</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5714721679688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0226287841797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4653205871582</t>
+    <t xml:space="preserve">32.571475982666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.022632598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4653244018555</t>
   </si>
   <si>
     <t xml:space="preserve">32.7837867736816</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1464805603027</t>
+    <t xml:space="preserve">33.1464691162109</t>
   </si>
   <si>
     <t xml:space="preserve">33.7657051086426</t>
@@ -2621,91 +2621,91 @@
     <t xml:space="preserve">32.5360908508301</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3149452209473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3414764404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6068534851074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8103179931641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6330184936523</t>
+    <t xml:space="preserve">32.3149337768555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.341480255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.606861114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8103218078613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6330108642578</t>
   </si>
   <si>
     <t xml:space="preserve">33.3233947753906</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3768615722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9253158569336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6599311828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1553230285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1110877990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4649314880371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5268592834473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2939071655273</t>
+    <t xml:space="preserve">32.3768577575684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9253234863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6599349975586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1553192138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1110954284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4649353027344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.52685546875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2939033508301</t>
   </si>
   <si>
     <t xml:space="preserve">33.1505546569824</t>
   </si>
   <si>
-    <t xml:space="preserve">34.1271553039551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9569206237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3118324279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5358238220215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8583602905273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4372634887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1092338562012</t>
+    <t xml:space="preserve">34.1271476745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.956916809082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3118286132812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5358200073242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8583679199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4372596740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1092300415039</t>
   </si>
   <si>
     <t xml:space="preserve">32.39794921875</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8907241821289</t>
+    <t xml:space="preserve">32.8907279968262</t>
   </si>
   <si>
     <t xml:space="preserve">32.953441619873</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7921714782715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7294578552246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7438945770264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2814712524414</t>
+    <t xml:space="preserve">32.7921676635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7294502258301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7438926696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2814750671387</t>
   </si>
   <si>
     <t xml:space="preserve">32.4785842895508</t>
@@ -2714,19 +2714,19 @@
     <t xml:space="preserve">32.6577758789062</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6040153503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2043151855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8135643005371</t>
+    <t xml:space="preserve">32.6040115356445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2043113708496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8135681152344</t>
   </si>
   <si>
     <t xml:space="preserve">34.0017166137695</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6702117919922</t>
+    <t xml:space="preserve">33.6702156066895</t>
   </si>
   <si>
     <t xml:space="preserve">34.2257080078125</t>
@@ -2738,10 +2738,10 @@
     <t xml:space="preserve">33.6612548828125</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3421897888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8314819335938</t>
+    <t xml:space="preserve">34.3421859741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8314895629883</t>
   </si>
   <si>
     <t xml:space="preserve">33.9479598999023</t>
@@ -2750,16 +2750,16 @@
     <t xml:space="preserve">34.7543258666992</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7364044189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7274398803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1395874023438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6950798034668</t>
+    <t xml:space="preserve">34.7364082336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7274513244629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1395950317383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6950836181641</t>
   </si>
   <si>
     <t xml:space="preserve">34.9603958129883</t>
@@ -2768,103 +2768,103 @@
     <t xml:space="preserve">35.3814964294434</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4621315002441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8384399414062</t>
+    <t xml:space="preserve">35.4621353149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8384323120117</t>
   </si>
   <si>
     <t xml:space="preserve">36.1251449584961</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0982666015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7757225036621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6268920898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5606880187988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.610969543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2471008300781</t>
+    <t xml:space="preserve">36.0982704162598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7757186889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6268844604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5606918334961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6109733581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2471084594727</t>
   </si>
   <si>
     <t xml:space="preserve">35.8653144836426</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8563613891602</t>
+    <t xml:space="preserve">35.8563537597656</t>
   </si>
   <si>
     <t xml:space="preserve">36.2864151000977</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0086708068848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3670539855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6627197265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.0121421813965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7344017028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.152027130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8239898681641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2092514038086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7737121582031</t>
+    <t xml:space="preserve">36.0086669921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.367057800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6627159118652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0121459960938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7343978881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1520195007324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8239936828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2092590332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.7737083435059</t>
   </si>
   <si>
     <t xml:space="preserve">36.4028930664062</t>
   </si>
   <si>
-    <t xml:space="preserve">34.485538482666</t>
+    <t xml:space="preserve">34.4855346679688</t>
   </si>
   <si>
     <t xml:space="preserve">34.619930267334</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6502838134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6682014465332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6557655334473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4676170349121</t>
+    <t xml:space="preserve">35.6502914428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6682052612305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6557731628418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4676246643066</t>
   </si>
   <si>
     <t xml:space="preserve">35.1575126647949</t>
   </si>
   <si>
-    <t xml:space="preserve">35.265022277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5751266479492</t>
+    <t xml:space="preserve">35.2650260925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5751304626465</t>
   </si>
   <si>
     <t xml:space="preserve">32.9892845153809</t>
   </si>
   <si>
-    <t xml:space="preserve">30.7762565612793</t>
+    <t xml:space="preserve">30.776252746582</t>
   </si>
   <si>
     <t xml:space="preserve">30.3103618621826</t>
@@ -2873,73 +2873,73 @@
     <t xml:space="preserve">25.3198566436768</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0594863891602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.647346496582</t>
+    <t xml:space="preserve">30.0594902038574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6473484039307</t>
   </si>
   <si>
     <t xml:space="preserve">30.6149806976318</t>
   </si>
   <si>
-    <t xml:space="preserve">31.179443359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5647010803223</t>
+    <t xml:space="preserve">31.1794395446777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5647048950195</t>
   </si>
   <si>
     <t xml:space="preserve">31.5736618041992</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2959117889404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3710708618164</t>
+    <t xml:space="preserve">31.2959251403809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3710746765137</t>
   </si>
   <si>
     <t xml:space="preserve">32.5681800842285</t>
   </si>
   <si>
-    <t xml:space="preserve">35.0589561462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.530330657959</t>
+    <t xml:space="preserve">35.0589485168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5303344726562</t>
   </si>
   <si>
     <t xml:space="preserve">33.7777290344238</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2167434692383</t>
+    <t xml:space="preserve">34.2167472839355</t>
   </si>
   <si>
     <t xml:space="preserve">33.2132720947266</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7329292297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.482063293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9176063537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8494033813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4944915771484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2973861694336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8225250244141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7722434997559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.189868927002</t>
+    <t xml:space="preserve">33.7329330444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4820594787598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.917610168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8494071960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.494499206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2973899841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8225288391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7722473144531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1898727416992</t>
   </si>
   <si>
     <t xml:space="preserve">34.5930480957031</t>
@@ -2948,58 +2948,58 @@
     <t xml:space="preserve">34.3153038024902</t>
   </si>
   <si>
-    <t xml:space="preserve">35.01416015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6000022888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5427703857422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3725395202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.277458190918</t>
+    <t xml:space="preserve">35.0141487121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6000061035156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5427665710449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3725357055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.2774620056152</t>
   </si>
   <si>
     <t xml:space="preserve">35.7309226989746</t>
   </si>
   <si>
-    <t xml:space="preserve">36.6537666320801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.0927886962891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.4222869873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6338348388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.1445350646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.8991470336914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1928100585938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.301586151123</t>
+    <t xml:space="preserve">36.6537628173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0927848815918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.4222793579102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6338386535645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.14453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.8991508483887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1928062438965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3015785217285</t>
   </si>
   <si>
     <t xml:space="preserve">37.04736328125</t>
   </si>
   <si>
-    <t xml:space="preserve">37.6728248596191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.3283653259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2167053222656</t>
+    <t xml:space="preserve">37.6728286743164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.328369140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2167015075684</t>
   </si>
   <si>
     <t xml:space="preserve">38.1623153686523</t>
@@ -3008,52 +3008,52 @@
     <t xml:space="preserve">38.3798675537109</t>
   </si>
   <si>
-    <t xml:space="preserve">37.4643363952637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.8722496032715</t>
+    <t xml:space="preserve">37.4643325805664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.8722457885742</t>
   </si>
   <si>
     <t xml:space="preserve">37.0926818847656</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8479423522949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2739715576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1923980712891</t>
+    <t xml:space="preserve">36.8479347229004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2739791870117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1923942565918</t>
   </si>
   <si>
     <t xml:space="preserve">37.7816047668457</t>
   </si>
   <si>
-    <t xml:space="preserve">37.4824638366699</t>
+    <t xml:space="preserve">37.4824714660645</t>
   </si>
   <si>
     <t xml:space="preserve">37.3646240234375</t>
   </si>
   <si>
-    <t xml:space="preserve">37.6003036499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.9719657897949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7482299804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7663612365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6637573242188</t>
+    <t xml:space="preserve">37.6003112792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9719619750977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7482261657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.766357421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6637535095215</t>
   </si>
   <si>
     <t xml:space="preserve">38.5974235534668</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0176963806152</t>
+    <t xml:space="preserve">41.0176887512207</t>
   </si>
   <si>
     <t xml:space="preserve">40.0930976867676</t>
@@ -3062,10 +3062,10 @@
     <t xml:space="preserve">41.1445960998535</t>
   </si>
   <si>
-    <t xml:space="preserve">41.162727355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8244476318359</t>
+    <t xml:space="preserve">41.1627311706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8244438171387</t>
   </si>
   <si>
     <t xml:space="preserve">40.7910766601562</t>
@@ -3080,10 +3080,10 @@
     <t xml:space="preserve">40.2925186157227</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1717910766602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4527969360352</t>
+    <t xml:space="preserve">41.1717872619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4528007507324</t>
   </si>
   <si>
     <t xml:space="preserve">41.5525131225586</t>
@@ -3107,7 +3107,7 @@
     <t xml:space="preserve">42.3139419555664</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6221389770508</t>
+    <t xml:space="preserve">42.622142791748</t>
   </si>
   <si>
     <t xml:space="preserve">42.9666023254395</t>
@@ -3122,22 +3122,22 @@
     <t xml:space="preserve">44.1993980407715</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8096199035645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2022819519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.6373863220215</t>
+    <t xml:space="preserve">43.8096160888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.2022857666016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.6373901367188</t>
   </si>
   <si>
     <t xml:space="preserve">42.5677528381348</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8940811157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.9031524658203</t>
+    <t xml:space="preserve">42.8940849304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.9031562805176</t>
   </si>
   <si>
     <t xml:space="preserve">42.703727722168</t>
@@ -3146,76 +3146,76 @@
     <t xml:space="preserve">41.4074745178223</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0086326599121</t>
+    <t xml:space="preserve">41.0086402893066</t>
   </si>
   <si>
     <t xml:space="preserve">41.525318145752</t>
   </si>
   <si>
-    <t xml:space="preserve">40.5372619628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4828758239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4466133117676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6279144287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3741035461426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.878833770752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8545303344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5978317260742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.353084564209</t>
+    <t xml:space="preserve">40.5372695922852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4828796386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4466171264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6279106140137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3740997314453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8788414001465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8545265197754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5978355407715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3530883789062</t>
   </si>
   <si>
     <t xml:space="preserve">41.0630149841309</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7881927490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1507797241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1536674499512</t>
+    <t xml:space="preserve">41.7881889343262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1507759094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1536636352539</t>
   </si>
   <si>
     <t xml:space="preserve">41.3984107971191</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0992736816406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5071868896484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7366828918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2290725708008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9723739624023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8302230834961</t>
+    <t xml:space="preserve">41.0992774963379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5071907043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.736686706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2290649414062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9723701477051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8302154541016</t>
   </si>
   <si>
     <t xml:space="preserve">40.9542427062988</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6551094055176</t>
+    <t xml:space="preserve">40.6551055908203</t>
   </si>
   <si>
     <t xml:space="preserve">40.9179801940918</t>
@@ -3233,7 +3233,7 @@
     <t xml:space="preserve">40.6913604736328</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6460418701172</t>
+    <t xml:space="preserve">40.6460380554199</t>
   </si>
   <si>
     <t xml:space="preserve">40.582592010498</t>
@@ -3251,58 +3251,58 @@
     <t xml:space="preserve">39.7848930358887</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9752502441406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3712158203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5343818664551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.341136932373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0238761901855</t>
+    <t xml:space="preserve">39.9752540588379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3712120056152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5343856811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3411331176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.0238723754883</t>
   </si>
   <si>
     <t xml:space="preserve">42.0782623291016</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7972564697266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8306274414062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.2504844665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8759536743164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.5405578613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2838706970215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2657356262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2566757202148</t>
+    <t xml:space="preserve">41.7972526550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8306350708008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.2504920959473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8759574890137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5405540466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.283863067627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.2657318115234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.2566680908203</t>
   </si>
   <si>
     <t xml:space="preserve">42.5133628845215</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9966850280762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3287811279297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7787132263184</t>
+    <t xml:space="preserve">41.9966773986816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3287773132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7787208557129</t>
   </si>
   <si>
     <t xml:space="preserve">40.8363990783691</t>
@@ -3311,73 +3311,73 @@
     <t xml:space="preserve">41.9060325622559</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9785575866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6250228881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3197059631348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3440284729004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6159591674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8668899536133</t>
+    <t xml:space="preserve">41.9785537719727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6250267028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3197135925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3440170288086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6159629821777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.866886138916</t>
   </si>
   <si>
     <t xml:space="preserve">42.3502006530762</t>
   </si>
   <si>
-    <t xml:space="preserve">41.860710144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9332237243652</t>
+    <t xml:space="preserve">41.8607139587402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9332275390625</t>
   </si>
   <si>
     <t xml:space="preserve">41.2276191711426</t>
   </si>
   <si>
-    <t xml:space="preserve">40.1646270751953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7052879333496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1084938049316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5208587646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8977241516113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1279678344727</t>
+    <t xml:space="preserve">40.1646308898926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7052841186523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1084899902344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5208625793457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8977279663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1279716491699</t>
   </si>
   <si>
     <t xml:space="preserve">39.4406890869141</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3490524291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.5781440734863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0088386535645</t>
+    <t xml:space="preserve">39.349048614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.5781478881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0088424682617</t>
   </si>
   <si>
     <t xml:space="preserve">40.4303741455078</t>
   </si>
   <si>
-    <t xml:space="preserve">40.2929229736328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.338737487793</t>
+    <t xml:space="preserve">40.2929191589355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3387336730957</t>
   </si>
   <si>
     <t xml:space="preserve">41.0260162353516</t>
@@ -3386,19 +3386,19 @@
     <t xml:space="preserve">39.8072395324707</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6777992248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3295707702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.751106262207</t>
+    <t xml:space="preserve">40.6777954101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3295745849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7511024475098</t>
   </si>
   <si>
     <t xml:space="preserve">40.5861625671387</t>
   </si>
   <si>
-    <t xml:space="preserve">40.9801979064941</t>
+    <t xml:space="preserve">40.9802055358887</t>
   </si>
   <si>
     <t xml:space="preserve">41.2367782592773</t>
@@ -3407,97 +3407,97 @@
     <t xml:space="preserve">41.5391845703125</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3834037780762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9172096252441</t>
+    <t xml:space="preserve">41.3833999633789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9172019958496</t>
   </si>
   <si>
     <t xml:space="preserve">38.4143524169922</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2116012573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2574119567871</t>
+    <t xml:space="preserve">39.211597442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2574157714844</t>
   </si>
   <si>
     <t xml:space="preserve">39.2757453918457</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9721870422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.155460357666</t>
+    <t xml:space="preserve">39.9721908569336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1554641723633</t>
   </si>
   <si>
     <t xml:space="preserve">40.0180053710938</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0546646118164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8805541992188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9916687011719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.0833129882812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.3398895263672</t>
+    <t xml:space="preserve">40.0546607971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8805503845215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9916648864746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.083309173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.3398933410645</t>
   </si>
   <si>
     <t xml:space="preserve">38.8725395202637</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9550132751465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9458541870117</t>
+    <t xml:space="preserve">38.9550094604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9458465576172</t>
   </si>
   <si>
     <t xml:space="preserve">38.6067962646484</t>
   </si>
   <si>
-    <t xml:space="preserve">39.1474609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8438987731934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3845520019531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2654304504395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.81640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1268157958984</t>
+    <t xml:space="preserve">39.1474571228027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8438949584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3845558166504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2654228210449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8164024353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.126823425293</t>
   </si>
   <si>
     <t xml:space="preserve">41.6033363342285</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7682800292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4658813476562</t>
+    <t xml:space="preserve">41.7682762145996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4658737182617</t>
   </si>
   <si>
     <t xml:space="preserve">41.5025291442871</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0901679992676</t>
+    <t xml:space="preserve">41.0901641845703</t>
   </si>
   <si>
     <t xml:space="preserve">40.5494995117188</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3204154968262</t>
+    <t xml:space="preserve">40.3204116821289</t>
   </si>
   <si>
     <t xml:space="preserve">40.0821533203125</t>
@@ -3509,34 +3509,34 @@
     <t xml:space="preserve">38.7809028625488</t>
   </si>
   <si>
-    <t xml:space="preserve">38.900032043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2849044799805</t>
+    <t xml:space="preserve">38.9000282287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2849082946777</t>
   </si>
   <si>
     <t xml:space="preserve">39.220760345459</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6159553527832</t>
+    <t xml:space="preserve">38.6159591674805</t>
   </si>
   <si>
     <t xml:space="preserve">38.890869140625</t>
   </si>
   <si>
-    <t xml:space="preserve">39.101634979248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.413200378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0455017089844</t>
+    <t xml:space="preserve">39.1016311645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.4132041931152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0454940795898</t>
   </si>
   <si>
     <t xml:space="preserve">39.7247657775879</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0351829528809</t>
+    <t xml:space="preserve">41.0351791381836</t>
   </si>
   <si>
     <t xml:space="preserve">41.3742408752441</t>
@@ -3548,55 +3548,55 @@
     <t xml:space="preserve">41.3559112548828</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8060874938965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4383888244629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1817932128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1726303100586</t>
+    <t xml:space="preserve">40.8060913085938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4383811950684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1818046569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1726341247559</t>
   </si>
   <si>
     <t xml:space="preserve">40.9985275268555</t>
   </si>
   <si>
-    <t xml:space="preserve">41.4292259216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6766395568848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4108963012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3925704956055</t>
+    <t xml:space="preserve">41.4292221069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.676643371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4108924865723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3925666809082</t>
   </si>
   <si>
     <t xml:space="preserve">41.8232612609863</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0340270996094</t>
+    <t xml:space="preserve">42.0340232849121</t>
   </si>
   <si>
     <t xml:space="preserve">42.9595680236816</t>
   </si>
   <si>
-    <t xml:space="preserve">42.2997741699219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0798454284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6583137512207</t>
+    <t xml:space="preserve">42.2997779846191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.0798492431641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6583099365234</t>
   </si>
   <si>
     <t xml:space="preserve">41.5758438110352</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7499542236328</t>
+    <t xml:space="preserve">41.7499580383301</t>
   </si>
   <si>
     <t xml:space="preserve">41.7316246032715</t>
@@ -3605,37 +3605,37 @@
     <t xml:space="preserve">41.8965721130371</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0523567199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1073379516602</t>
+    <t xml:space="preserve">42.052360534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1073341369629</t>
   </si>
   <si>
     <t xml:space="preserve">43.1886596679688</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0878524780273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6480026245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.5746841430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3089332580566</t>
+    <t xml:space="preserve">43.0878562927246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6479988098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5746917724609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3089370727539</t>
   </si>
   <si>
     <t xml:space="preserve">42.198974609375</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9057312011719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0065383911133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9698791503906</t>
+    <t xml:space="preserve">41.9057426452637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.006534576416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9698829650879</t>
   </si>
   <si>
     <t xml:space="preserve">42.0248641967773</t>
@@ -3644,49 +3644,49 @@
     <t xml:space="preserve">41.2551116943359</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0535087585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1188011169434</t>
+    <t xml:space="preserve">41.0535049438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1188049316406</t>
   </si>
   <si>
     <t xml:space="preserve">40.0363349914551</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3753967285156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.5036849975586</t>
+    <t xml:space="preserve">40.3753929138184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.5036888122559</t>
   </si>
   <si>
     <t xml:space="preserve">41.2092895507812</t>
   </si>
   <si>
-    <t xml:space="preserve">41.5300178527832</t>
+    <t xml:space="preserve">41.5300216674805</t>
   </si>
   <si>
     <t xml:space="preserve">41.8690795898438</t>
   </si>
   <si>
+    <t xml:space="preserve">42.602180480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6949119567871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.9545707702637</t>
+  </si>
+  <si>
     <t xml:space="preserve">42.6021766662598</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6949119567871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.9545707702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6021728515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0272216796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.463077545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1848754882812</t>
+    <t xml:space="preserve">42.0272254943848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.4630813598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1848793029785</t>
   </si>
   <si>
     <t xml:space="preserve">42.1477813720703</t>
@@ -3704,7 +3704,7 @@
     <t xml:space="preserve">43.5480690002441</t>
   </si>
   <si>
-    <t xml:space="preserve">43.9004592895508</t>
+    <t xml:space="preserve">43.9004554748535</t>
   </si>
   <si>
     <t xml:space="preserve">44.3270416259766</t>
@@ -3725,31 +3725,31 @@
     <t xml:space="preserve">44.8927192687988</t>
   </si>
   <si>
-    <t xml:space="preserve">44.9761734008789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.6701545715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.5866928100586</t>
+    <t xml:space="preserve">44.9761772155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.6701507568359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.5866966247559</t>
   </si>
   <si>
     <t xml:space="preserve">44.1044769287109</t>
   </si>
   <si>
-    <t xml:space="preserve">44.7443466186523</t>
+    <t xml:space="preserve">44.7443428039551</t>
   </si>
   <si>
     <t xml:space="preserve">44.7628898620605</t>
   </si>
   <si>
-    <t xml:space="preserve">44.911262512207</t>
+    <t xml:space="preserve">44.9112701416016</t>
   </si>
   <si>
     <t xml:space="preserve">44.9019889831543</t>
   </si>
   <si>
-    <t xml:space="preserve">44.6979789733887</t>
+    <t xml:space="preserve">44.6979751586914</t>
   </si>
   <si>
     <t xml:space="preserve">45.1987419128418</t>
@@ -3758,7 +3758,7 @@
     <t xml:space="preserve">45.1338272094727</t>
   </si>
   <si>
-    <t xml:space="preserve">45.1152839660645</t>
+    <t xml:space="preserve">45.1152801513672</t>
   </si>
   <si>
     <t xml:space="preserve">46.4599266052246</t>
@@ -3767,7 +3767,7 @@
     <t xml:space="preserve">47.9807739257812</t>
   </si>
   <si>
-    <t xml:space="preserve">46.552661895752</t>
+    <t xml:space="preserve">46.5526695251465</t>
   </si>
   <si>
     <t xml:space="preserve">48.7782897949219</t>
@@ -3779,10 +3779,10 @@
     <t xml:space="preserve">47.6283836364746</t>
   </si>
   <si>
-    <t xml:space="preserve">46.8494110107422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8679580688477</t>
+    <t xml:space="preserve">46.8494148254395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8679618835449</t>
   </si>
   <si>
     <t xml:space="preserve">46.3301010131836</t>
@@ -3791,31 +3791,31 @@
     <t xml:space="preserve">46.1724510192871</t>
   </si>
   <si>
-    <t xml:space="preserve">46.9421424865723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.0534324645996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.5171051025391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.0163383483887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.2945404052734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.2218818664551</t>
+    <t xml:space="preserve">46.9421501159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.0534286499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.5170974731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.0163421630859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.2945365905762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.2218856811523</t>
   </si>
   <si>
     <t xml:space="preserve">47.7396659851074</t>
   </si>
   <si>
-    <t xml:space="preserve">48.3888053894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.833927154541</t>
+    <t xml:space="preserve">48.3888092041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.8339309692383</t>
   </si>
   <si>
     <t xml:space="preserve">49.427433013916</t>
@@ -3827,31 +3827,31 @@
     <t xml:space="preserve">49.8911056518555</t>
   </si>
   <si>
-    <t xml:space="preserve">50.9482765197754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.9111862182617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0981826782227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.3392868041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.7102241516113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.0069808959961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.4320297241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.7287750244141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.9142456054688</t>
+    <t xml:space="preserve">50.9482727050781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.9111824035645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.0981788635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.339282989502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.7102317810059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.0069770812988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.4320259094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.7287712097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.9142417907715</t>
   </si>
   <si>
     <t xml:space="preserve">53.2666320800781</t>
@@ -3860,10 +3860,10 @@
     <t xml:space="preserve">52.598949432373</t>
   </si>
   <si>
-    <t xml:space="preserve">51.8941612243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.4675903320312</t>
+    <t xml:space="preserve">51.8941650390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.467586517334</t>
   </si>
   <si>
     <t xml:space="preserve">52.0610885620117</t>
@@ -3872,19 +3872,19 @@
     <t xml:space="preserve">51.8014297485352</t>
   </si>
   <si>
-    <t xml:space="preserve">51.5232276916504</t>
+    <t xml:space="preserve">51.5232315063477</t>
   </si>
   <si>
     <t xml:space="preserve">51.6530570983887</t>
   </si>
   <si>
-    <t xml:space="preserve">51.4304885864258</t>
+    <t xml:space="preserve">51.430492401123</t>
   </si>
   <si>
     <t xml:space="preserve">51.8570709228516</t>
   </si>
   <si>
-    <t xml:space="preserve">50.6886177062988</t>
+    <t xml:space="preserve">50.6886138916016</t>
   </si>
   <si>
     <t xml:space="preserve">49.9467430114746</t>
@@ -3893,22 +3893,22 @@
     <t xml:space="preserve">49.0564918518066</t>
   </si>
   <si>
-    <t xml:space="preserve">48.7411956787109</t>
+    <t xml:space="preserve">48.7411994934082</t>
   </si>
   <si>
     <t xml:space="preserve">48.6670112609863</t>
   </si>
   <si>
-    <t xml:space="preserve">47.3872718811035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.0920562744141</t>
+    <t xml:space="preserve">47.3872680664062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.0920524597168</t>
   </si>
   <si>
     <t xml:space="preserve">46.9235992431641</t>
   </si>
   <si>
-    <t xml:space="preserve">46.3857421875</t>
+    <t xml:space="preserve">46.3857460021973</t>
   </si>
   <si>
     <t xml:space="preserve">47.3501815795898</t>
@@ -3926,34 +3926,34 @@
     <t xml:space="preserve">45.3656616210938</t>
   </si>
   <si>
-    <t xml:space="preserve">45.4305839538574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.6268463134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.7829704284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.3563919067383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.6160430908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4120330810547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.3378410339355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.820068359375</t>
+    <t xml:space="preserve">45.4305763244629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.6268424987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.7829666137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.356388092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.6160469055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4120292663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.3378448486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.8200607299805</t>
   </si>
   <si>
     <t xml:space="preserve">45.9591636657715</t>
   </si>
   <si>
-    <t xml:space="preserve">47.1461639404297</t>
+    <t xml:space="preserve">47.146167755127</t>
   </si>
   <si>
     <t xml:space="preserve">47.4243659973145</t>
@@ -3965,25 +3965,25 @@
     <t xml:space="preserve">47.6654739379883</t>
   </si>
   <si>
-    <t xml:space="preserve">47.9436798095703</t>
+    <t xml:space="preserve">47.9436836242676</t>
   </si>
   <si>
     <t xml:space="preserve">48.258975982666</t>
   </si>
   <si>
-    <t xml:space="preserve">48.8895721435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.6113624572754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.019401550293</t>
+    <t xml:space="preserve">48.8895683288574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.6113700866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.0193977355957</t>
   </si>
   <si>
     <t xml:space="preserve">50.1878547668457</t>
   </si>
   <si>
-    <t xml:space="preserve">51.0781097412109</t>
+    <t xml:space="preserve">51.0781059265137</t>
   </si>
   <si>
     <t xml:space="preserve">52.2280120849609</t>
@@ -3995,13 +3995,13 @@
     <t xml:space="preserve">52.2465553283691</t>
   </si>
   <si>
-    <t xml:space="preserve">51.9312553405762</t>
+    <t xml:space="preserve">51.9312591552734</t>
   </si>
   <si>
     <t xml:space="preserve">52.1352767944336</t>
   </si>
   <si>
-    <t xml:space="preserve">52.3578338623047</t>
+    <t xml:space="preserve">52.357837677002</t>
   </si>
   <si>
     <t xml:space="preserve">53.0255279541016</t>
@@ -4010,7 +4010,7 @@
     <t xml:space="preserve">52.5804023742676</t>
   </si>
   <si>
-    <t xml:space="preserve">52.0239868164062</t>
+    <t xml:space="preserve">52.0239906311035</t>
   </si>
   <si>
     <t xml:space="preserve">51.0410079956055</t>
@@ -4022,10 +4022,10 @@
     <t xml:space="preserve">52.6849517822266</t>
   </si>
   <si>
-    <t xml:space="preserve">51.8611679077148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0296669006348</t>
+    <t xml:space="preserve">51.8611717224121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.029670715332</t>
   </si>
   <si>
     <t xml:space="preserve">52.4228363037109</t>
@@ -4034,7 +4034,7 @@
     <t xml:space="preserve">51.2620468139648</t>
   </si>
   <si>
-    <t xml:space="preserve">51.4492721557617</t>
+    <t xml:space="preserve">51.4492683410645</t>
   </si>
   <si>
     <t xml:space="preserve">51.898609161377</t>
@@ -4064,7 +4064,7 @@
     <t xml:space="preserve">50.1387023925781</t>
   </si>
   <si>
-    <t xml:space="preserve">50.8688735961914</t>
+    <t xml:space="preserve">50.8688774108887</t>
   </si>
   <si>
     <t xml:space="preserve">50.0450897216797</t>
@@ -4079,13 +4079,13 @@
     <t xml:space="preserve">51.973503112793</t>
   </si>
   <si>
-    <t xml:space="preserve">52.0109443664551</t>
+    <t xml:space="preserve">52.0109481811523</t>
   </si>
   <si>
     <t xml:space="preserve">52.9096221923828</t>
   </si>
   <si>
-    <t xml:space="preserve">52.198169708252</t>
+    <t xml:space="preserve">52.1981658935547</t>
   </si>
   <si>
     <t xml:space="preserve">52.3666725158691</t>
@@ -4094,7 +4094,7 @@
     <t xml:space="preserve">52.7598457336426</t>
   </si>
   <si>
-    <t xml:space="preserve">52.9283485412598</t>
+    <t xml:space="preserve">52.9283447265625</t>
   </si>
   <si>
     <t xml:space="preserve">52.8908996582031</t>
@@ -4106,25 +4106,25 @@
     <t xml:space="preserve">51.1309928894043</t>
   </si>
   <si>
-    <t xml:space="preserve">51.1684379577637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.8875999450684</t>
+    <t xml:space="preserve">51.1684341430664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.8876037597656</t>
   </si>
   <si>
     <t xml:space="preserve">50.62548828125</t>
   </si>
   <si>
-    <t xml:space="preserve">50.9999351501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.4118270874023</t>
+    <t xml:space="preserve">50.9999313354492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.4118309020996</t>
   </si>
   <si>
     <t xml:space="preserve">50.1574249267578</t>
   </si>
   <si>
-    <t xml:space="preserve">48.8843002319336</t>
+    <t xml:space="preserve">48.8843040466309</t>
   </si>
   <si>
     <t xml:space="preserve">47.9294548034668</t>
@@ -4133,28 +4133,28 @@
     <t xml:space="preserve">48.678352355957</t>
   </si>
   <si>
-    <t xml:space="preserve">48.2102928161621</t>
+    <t xml:space="preserve">48.2102890014648</t>
   </si>
   <si>
     <t xml:space="preserve">47.2928886413574</t>
   </si>
   <si>
-    <t xml:space="preserve">46.7593040466309</t>
+    <t xml:space="preserve">46.7593002319336</t>
   </si>
   <si>
     <t xml:space="preserve">46.3193244934082</t>
   </si>
   <si>
-    <t xml:space="preserve">46.3474082946777</t>
+    <t xml:space="preserve">46.3474044799805</t>
   </si>
   <si>
     <t xml:space="preserve">46.3754920959473</t>
   </si>
   <si>
-    <t xml:space="preserve">46.5814323425293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.7686614990234</t>
+    <t xml:space="preserve">46.5814399719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.7686576843262</t>
   </si>
   <si>
     <t xml:space="preserve">45.4393730163574</t>
@@ -4163,16 +4163,16 @@
     <t xml:space="preserve">44.325382232666</t>
   </si>
   <si>
-    <t xml:space="preserve">43.9134902954102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1458740234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.576488494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8743934631348</t>
+    <t xml:space="preserve">43.9134941101074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.145866394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5764846801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.874397277832</t>
   </si>
   <si>
     <t xml:space="preserve">42.4999465942383</t>
@@ -4193,7 +4193,7 @@
     <t xml:space="preserve">43.2488403320312</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1645927429199</t>
+    <t xml:space="preserve">43.1645889282227</t>
   </si>
   <si>
     <t xml:space="preserve">43.3330955505371</t>
@@ -4205,10 +4205,10 @@
     <t xml:space="preserve">40.5808906555176</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7978553771973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9647064208984</t>
+    <t xml:space="preserve">41.7978515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9647026062012</t>
   </si>
   <si>
     <t xml:space="preserve">39.7290229797363</t>
@@ -4217,7 +4217,7 @@
     <t xml:space="preserve">40.4123916625977</t>
   </si>
   <si>
-    <t xml:space="preserve">40.094108581543</t>
+    <t xml:space="preserve">40.0941123962402</t>
   </si>
   <si>
     <t xml:space="preserve">39.3639373779297</t>
@@ -4226,43 +4226,43 @@
     <t xml:space="preserve">39.1767158508301</t>
   </si>
   <si>
-    <t xml:space="preserve">37.7725257873535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4140434265137</t>
+    <t xml:space="preserve">37.7725296020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4140472412109</t>
   </si>
   <si>
     <t xml:space="preserve">40.27197265625</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7494010925293</t>
+    <t xml:space="preserve">40.7493934631348</t>
   </si>
   <si>
     <t xml:space="preserve">41.9382743835449</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3672332763672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.5280303955078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.7433395385742</t>
+    <t xml:space="preserve">41.3672370910645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5280265808105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.743335723877</t>
   </si>
   <si>
     <t xml:space="preserve">42.7339782714844</t>
   </si>
   <si>
-    <t xml:space="preserve">42.7995071411133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2113952636719</t>
+    <t xml:space="preserve">42.799503326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.2113990783691</t>
   </si>
   <si>
     <t xml:space="preserve">42.9399223327637</t>
   </si>
   <si>
-    <t xml:space="preserve">42.5186653137207</t>
+    <t xml:space="preserve">42.518669128418</t>
   </si>
   <si>
     <t xml:space="preserve">42.1348571777344</t>
@@ -4274,13 +4274,13 @@
     <t xml:space="preserve">43.8854103088379</t>
   </si>
   <si>
-    <t xml:space="preserve">42.7246170043945</t>
+    <t xml:space="preserve">42.7246131896973</t>
   </si>
   <si>
     <t xml:space="preserve">44.2130470275879</t>
   </si>
   <si>
-    <t xml:space="preserve">45.7576522827148</t>
+    <t xml:space="preserve">45.7576484680176</t>
   </si>
   <si>
     <t xml:space="preserve">44.7279167175293</t>
@@ -4292,31 +4292,31 @@
     <t xml:space="preserve">46.0665702819824</t>
   </si>
   <si>
-    <t xml:space="preserve">45.5142593383789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.6343040466309</t>
+    <t xml:space="preserve">45.5142555236816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.6343002319336</t>
   </si>
   <si>
     <t xml:space="preserve">45.0368385314941</t>
   </si>
   <si>
-    <t xml:space="preserve">45.1117248535156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.0649223327637</t>
+    <t xml:space="preserve">45.1117286682129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.0649185180664</t>
   </si>
   <si>
     <t xml:space="preserve">45.5891494750977</t>
   </si>
   <si>
-    <t xml:space="preserve">44.8215255737305</t>
+    <t xml:space="preserve">44.8215293884277</t>
   </si>
   <si>
     <t xml:space="preserve">43.3050079345703</t>
   </si>
   <si>
-    <t xml:space="preserve">42.7527008056641</t>
+    <t xml:space="preserve">42.7526969909668</t>
   </si>
   <si>
     <t xml:space="preserve">42.0786895751953</t>
@@ -4325,34 +4325,34 @@
     <t xml:space="preserve">41.8727416992188</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0522537231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6293487548828</t>
+    <t xml:space="preserve">43.0522575378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6293525695801</t>
   </si>
   <si>
     <t xml:space="preserve">40.6183395385742</t>
   </si>
   <si>
-    <t xml:space="preserve">40.1034698486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.4201011657715</t>
+    <t xml:space="preserve">40.1034736633301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.4201049804688</t>
   </si>
   <si>
     <t xml:space="preserve">38.7929000854492</t>
   </si>
   <si>
-    <t xml:space="preserve">39.7009353637695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.3264923095703</t>
+    <t xml:space="preserve">39.7009391784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.326488494873</t>
   </si>
   <si>
     <t xml:space="preserve">37.3512725830078</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6992874145508</t>
+    <t xml:space="preserve">38.699291229248</t>
   </si>
   <si>
     <t xml:space="preserve">39.1579933166504</t>
@@ -4367,7 +4367,7 @@
     <t xml:space="preserve">38.8584289550781</t>
   </si>
   <si>
-    <t xml:space="preserve">39.8413581848145</t>
+    <t xml:space="preserve">39.8413543701172</t>
   </si>
   <si>
     <t xml:space="preserve">40.1639595031738</t>
@@ -5826,6 +5826,9 @@
   </si>
   <si>
     <t xml:space="preserve">52.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.9500007629395</t>
   </si>
 </sst>
 </file>
@@ -62847,7 +62850,7 @@
     </row>
     <row r="2181">
       <c r="A2181" s="1" t="n">
-        <v>45498.6495833333</v>
+        <v>45498.2916666667</v>
       </c>
       <c r="B2181" t="n">
         <v>299145</v>
@@ -62868,6 +62871,32 @@
         <v>1937</v>
       </c>
       <c r="H2181" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2182">
+      <c r="A2182" s="1" t="n">
+        <v>45499.6495601852</v>
+      </c>
+      <c r="B2182" t="n">
+        <v>237717</v>
+      </c>
+      <c r="C2182" t="n">
+        <v>52.3499984741211</v>
+      </c>
+      <c r="D2182" t="n">
+        <v>51.5499992370605</v>
+      </c>
+      <c r="E2182" t="n">
+        <v>52.25</v>
+      </c>
+      <c r="F2182" t="n">
+        <v>51.9500007629395</v>
+      </c>
+      <c r="G2182" t="s">
+        <v>1938</v>
+      </c>
+      <c r="H2182" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/REC.MI.xlsx
+++ b/data/REC.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1956" uniqueCount="1956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="1957">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,175 +38,175 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">19.0686359405518</t>
+    <t xml:space="preserve">19.068639755249</t>
   </si>
   <si>
     <t xml:space="preserve">REC.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6574783325195</t>
+    <t xml:space="preserve">19.6574764251709</t>
   </si>
   <si>
     <t xml:space="preserve">19.3267574310303</t>
   </si>
   <si>
-    <t xml:space="preserve">18.9637794494629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8105182647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6572589874268</t>
+    <t xml:space="preserve">18.9637775421143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8105201721191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6572570800781</t>
   </si>
   <si>
     <t xml:space="preserve">18.6975917816162</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1087551116943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2297515869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6086463928223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5441188812256</t>
+    <t xml:space="preserve">18.1087532043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2297477722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6086502075195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.544116973877</t>
   </si>
   <si>
     <t xml:space="preserve">17.527982711792</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2942790985107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5282020568848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4959373474121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8266506195068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0280895233154</t>
+    <t xml:space="preserve">18.2942810058594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5281963348389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4959392547607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8266525268555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0280914306641</t>
   </si>
   <si>
     <t xml:space="preserve">18.3910732269287</t>
   </si>
   <si>
-    <t xml:space="preserve">18.7540550231934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1329498291016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8990325927734</t>
+    <t xml:space="preserve">18.7540531158447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1329536437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8990287780762</t>
   </si>
   <si>
     <t xml:space="preserve">17.2779273986816</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1325225830078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6727409362793</t>
+    <t xml:space="preserve">16.1325187683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6727457046509</t>
   </si>
   <si>
     <t xml:space="preserve">15.7937393188477</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3825778961182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5197010040283</t>
+    <t xml:space="preserve">16.3825702667236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.519702911377</t>
   </si>
   <si>
     <t xml:space="preserve">17.132740020752</t>
   </si>
   <si>
-    <t xml:space="preserve">17.8183727264404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.681245803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0119609832764</t>
+    <t xml:space="preserve">17.8183689117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6812400817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.011962890625</t>
   </si>
   <si>
     <t xml:space="preserve">18.42333984375</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4475402832031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7217922210693</t>
+    <t xml:space="preserve">18.4475345611572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7217864990234</t>
   </si>
   <si>
     <t xml:space="preserve">17.0601406097412</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0036773681641</t>
+    <t xml:space="preserve">17.0036754608154</t>
   </si>
   <si>
     <t xml:space="preserve">17.5199146270752</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6893119812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9151630401611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0684242248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6731777191162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4392509460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3666610717773</t>
+    <t xml:space="preserve">17.6893138885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9151649475098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0684223175049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6731815338135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4392566680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3666591644287</t>
   </si>
   <si>
     <t xml:space="preserve">17.1811351776123</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5037841796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1650009155273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4473190307617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5521812438965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6409149169922</t>
+    <t xml:space="preserve">17.5037822723389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.165002822876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.447322845459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5521869659424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6409111022949</t>
   </si>
   <si>
     <t xml:space="preserve">17.5763835906982</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3585948944092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4069900512695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.511848449707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3182640075684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6247806549072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7457752227783</t>
+    <t xml:space="preserve">17.3585929870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4069938659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5118503570557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3182601928711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6247787475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7457714080811</t>
   </si>
   <si>
     <t xml:space="preserve">17.7538414001465</t>
@@ -215,112 +215,112 @@
     <t xml:space="preserve">17.8748321533203</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7861042022705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1490898132324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2136173248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1248893737793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1006889343262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1168212890625</t>
+    <t xml:space="preserve">17.7861003875732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1490859985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2136192321777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1248874664307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1006870269775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1168193817139</t>
   </si>
   <si>
     <t xml:space="preserve">18.044225692749</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0764923095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4443950653076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3708152770996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.199125289917</t>
+    <t xml:space="preserve">18.076488494873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4443969726562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3708171844482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1991291046143</t>
   </si>
   <si>
     <t xml:space="preserve">18.2808818817139</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0437870025635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1091957092285</t>
+    <t xml:space="preserve">18.0437889099121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1091938018799</t>
   </si>
   <si>
     <t xml:space="preserve">18.174596786499</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3544635772705</t>
+    <t xml:space="preserve">18.3544616699219</t>
   </si>
   <si>
     <t xml:space="preserve">18.0764942169189</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1418972015381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0928421020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2727069854736</t>
+    <t xml:space="preserve">18.1418933868408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0928382873535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2727088928223</t>
   </si>
   <si>
     <t xml:space="preserve">18.5752086639404</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6651420593262</t>
+    <t xml:space="preserve">18.6651382446289</t>
   </si>
   <si>
     <t xml:space="preserve">19.3846054077148</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6871032714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6216983795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4418315887451</t>
+    <t xml:space="preserve">19.6871070861816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6217002868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4418334960938</t>
   </si>
   <si>
     <t xml:space="preserve">19.7688617706299</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7443332672119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7933864593506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.94873046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0059566497803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8562335968018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0033950805664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1996097564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1015033721924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2486610412598</t>
+    <t xml:space="preserve">19.7443351745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7933902740479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9487266540527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0059585571289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8562297821045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.003396987915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1996154785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1015014648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.248664855957</t>
   </si>
   <si>
     <t xml:space="preserve">21.5511684417725</t>
@@ -329,97 +329,97 @@
     <t xml:space="preserve">21.6901531219482</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6983299255371</t>
+    <t xml:space="preserve">21.6983280181885</t>
   </si>
   <si>
     <t xml:space="preserve">22.0580577850342</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2297477722168</t>
+    <t xml:space="preserve">22.2297496795654</t>
   </si>
   <si>
     <t xml:space="preserve">21.8700160980225</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7964363098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3115100860596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2706279754639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.951774597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2568397521973</t>
+    <t xml:space="preserve">21.7964324951172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3115062713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2706298828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9517726898193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2568416595459</t>
   </si>
   <si>
     <t xml:space="preserve">21.20778465271</t>
   </si>
   <si>
-    <t xml:space="preserve">21.412181854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1423835754395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7335948944092</t>
+    <t xml:space="preserve">21.4121799468994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1423797607422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7335968017578</t>
   </si>
   <si>
     <t xml:space="preserve">21.4285316467285</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7065029144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6083946228027</t>
+    <t xml:space="preserve">21.7065048217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6083984375</t>
   </si>
   <si>
     <t xml:space="preserve">21.9435977935791</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8071765899658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6656227111816</t>
+    <t xml:space="preserve">20.8071746826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6656246185303</t>
   </si>
   <si>
     <t xml:space="preserve">21.9599533081055</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0744075775146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0989398956299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0907649993896</t>
+    <t xml:space="preserve">22.0744132995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0989418029785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0907688140869</t>
   </si>
   <si>
     <t xml:space="preserve">21.992654800415</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8536682128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1888732910156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9165096282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1372547149658</t>
+    <t xml:space="preserve">21.8536643981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1888656616211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9165115356445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1372528076172</t>
   </si>
   <si>
     <t xml:space="preserve">22.9982662200928</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7529983520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5567798614502</t>
+    <t xml:space="preserve">22.7529964447021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5567779541016</t>
   </si>
   <si>
     <t xml:space="preserve">22.7448215484619</t>
@@ -428,40 +428,40 @@
     <t xml:space="preserve">22.6303596496582</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0636711120605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5133361816406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4806289672852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5215110778809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.227180480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6850261688232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6604976654053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5296878814697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7177333831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0038795471191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5869159698486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9655666351318</t>
+    <t xml:space="preserve">23.0636692047119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5133323669434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4806327819824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5215148925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2271823883057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.685022354126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6604957580566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5296897888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7177314758301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0038814544678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5869178771973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9655628204346</t>
   </si>
   <si>
     <t xml:space="preserve">23.3498229980469</t>
@@ -470,73 +470,73 @@
     <t xml:space="preserve">23.0881977081299</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0227928161621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2598876953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2190093994141</t>
+    <t xml:space="preserve">23.0227947235107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2598896026611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2190113067627</t>
   </si>
   <si>
     <t xml:space="preserve">23.3743495941162</t>
   </si>
   <si>
-    <t xml:space="preserve">22.736644744873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7284698486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2951583862305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4341411590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1479930877686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3033351898193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4259662628174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5240726470947</t>
+    <t xml:space="preserve">22.7366428375244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7284660339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2951545715332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4341430664062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1479969024658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3033332824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4259700775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.524076461792</t>
   </si>
   <si>
     <t xml:space="preserve">22.0171813964844</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0417022705078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3605613708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1725196838379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9272499084473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1970443725586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0825843811035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8020477294922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5159034729004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8863697052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8046131134033</t>
+    <t xml:space="preserve">22.0417079925537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3605632781982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1725234985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9272480010986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1970462799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0825824737549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8020458221436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5159015655518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8863735198975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8046169281006</t>
   </si>
   <si>
     <t xml:space="preserve">21.7473850250244</t>
@@ -545,7 +545,7 @@
     <t xml:space="preserve">22.2133979797363</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3687381744385</t>
+    <t xml:space="preserve">22.3687324523926</t>
   </si>
   <si>
     <t xml:space="preserve">21.9844799041748</t>
@@ -554,13 +554,13 @@
     <t xml:space="preserve">22.2052230834961</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2215728759766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4423179626465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4831943511963</t>
+    <t xml:space="preserve">22.2215766906738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4423160552979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4831981658936</t>
   </si>
   <si>
     <t xml:space="preserve">23.243537902832</t>
@@ -569,13 +569,13 @@
     <t xml:space="preserve">23.4561061859131</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3907032012939</t>
+    <t xml:space="preserve">23.3906993865967</t>
   </si>
   <si>
     <t xml:space="preserve">23.2762393951416</t>
   </si>
   <si>
-    <t xml:space="preserve">23.202657699585</t>
+    <t xml:space="preserve">23.2026615142822</t>
   </si>
   <si>
     <t xml:space="preserve">23.1536026000977</t>
@@ -584,61 +584,61 @@
     <t xml:space="preserve">23.0309715270996</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9246883392334</t>
+    <t xml:space="preserve">22.9246864318848</t>
   </si>
   <si>
     <t xml:space="preserve">23.1127243041992</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3360347747803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5077247619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0335350036621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1643486022949</t>
+    <t xml:space="preserve">22.3360328674316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5077266693115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0335311889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.164342880249</t>
   </si>
   <si>
     <t xml:space="preserve">22.066234588623</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9108982086182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8945503234863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0769748687744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6191349029541</t>
+    <t xml:space="preserve">21.9108963012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8945465087891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.076976776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6191329956055</t>
   </si>
   <si>
     <t xml:space="preserve">20.9298152923584</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0279178619385</t>
+    <t xml:space="preserve">21.0279197692871</t>
   </si>
   <si>
     <t xml:space="preserve">20.5700817108154</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0851516723633</t>
+    <t xml:space="preserve">21.0851497650146</t>
   </si>
   <si>
     <t xml:space="preserve">22.0008296966553</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2977180480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3386001586914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9052848815918</t>
+    <t xml:space="preserve">21.2977161407471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3385982513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9052829742432</t>
   </si>
   <si>
     <t xml:space="preserve">20.7826480865479</t>
@@ -647,37 +647,37 @@
     <t xml:space="preserve">21.036096572876</t>
   </si>
   <si>
-    <t xml:space="preserve">20.986364364624</t>
+    <t xml:space="preserve">20.9863681793213</t>
   </si>
   <si>
     <t xml:space="preserve">20.4641952514648</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7791538238525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.027811050415</t>
+    <t xml:space="preserve">20.7791557312012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0278129577637</t>
   </si>
   <si>
     <t xml:space="preserve">21.1024036407471</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8537502288818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1355609893799</t>
+    <t xml:space="preserve">20.8537483215332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1355571746826</t>
   </si>
   <si>
     <t xml:space="preserve">21.2930393218994</t>
   </si>
   <si>
-    <t xml:space="preserve">20.5636558532715</t>
+    <t xml:space="preserve">20.5636539459229</t>
   </si>
   <si>
     <t xml:space="preserve">20.8951892852783</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1189765930176</t>
+    <t xml:space="preserve">21.1189823150635</t>
   </si>
   <si>
     <t xml:space="preserve">21.3427696228027</t>
@@ -686,13 +686,13 @@
     <t xml:space="preserve">21.2847518920898</t>
   </si>
   <si>
-    <t xml:space="preserve">21.16042137146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5499820709229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2515964508057</t>
+    <t xml:space="preserve">21.1604232788086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5499839782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.251594543457</t>
   </si>
   <si>
     <t xml:space="preserve">21.5251140594482</t>
@@ -701,88 +701,88 @@
     <t xml:space="preserve">21.2018642425537</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9146728515625</t>
+    <t xml:space="preserve">21.9146766662598</t>
   </si>
   <si>
     <t xml:space="preserve">22.1716156005859</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3373889923096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1053066253662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9063835144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7240352630615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3208045959473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4285564422607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.163330078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3125171661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6357707977295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5611705780029</t>
+    <t xml:space="preserve">22.3373832702637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1053028106689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9063873291016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7240409851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3208026885986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4285583496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1633243560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.312520980835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.635763168335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5611686706543</t>
   </si>
   <si>
     <t xml:space="preserve">22.6772117614746</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0418968200684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0253276824951</t>
+    <t xml:space="preserve">23.0419044494629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0253295898438</t>
   </si>
   <si>
     <t xml:space="preserve">22.5363063812256</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0667667388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6191921234131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9507312774658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7932453155518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8264026641846</t>
+    <t xml:space="preserve">23.0667686462402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6191902160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9507293701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7932472229004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8264064788818</t>
   </si>
   <si>
     <t xml:space="preserve">22.6026153564453</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6109066009521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5777473449707</t>
+    <t xml:space="preserve">22.6109027862549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.577751159668</t>
   </si>
   <si>
     <t xml:space="preserve">22.2793674468994</t>
   </si>
   <si>
-    <t xml:space="preserve">22.4617156982422</t>
+    <t xml:space="preserve">22.4617118835449</t>
   </si>
   <si>
     <t xml:space="preserve">22.4368457794189</t>
   </si>
   <si>
-    <t xml:space="preserve">21.806921005249</t>
+    <t xml:space="preserve">21.8069229125977</t>
   </si>
   <si>
     <t xml:space="preserve">21.8898067474365</t>
@@ -794,40 +794,40 @@
     <t xml:space="preserve">22.2545013427734</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8732318878174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2710762023926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3788223266602</t>
+    <t xml:space="preserve">21.8732280731201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2710742950439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3788261413574</t>
   </si>
   <si>
     <t xml:space="preserve">23.2822704315186</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3983039855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4563255310059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6884002685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4231758117676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.928768157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0282287597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4509372711182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.417781829834</t>
+    <t xml:space="preserve">23.3983020782471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4563236236572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6884021759033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4231719970703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9287700653076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0282306671143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4509391784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4177875518799</t>
   </si>
   <si>
     <t xml:space="preserve">24.3431911468506</t>
@@ -836,7 +836,7 @@
     <t xml:space="preserve">24.7824764251709</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8404960632324</t>
+    <t xml:space="preserve">24.8404998779297</t>
   </si>
   <si>
     <t xml:space="preserve">24.7741889953613</t>
@@ -845,43 +845,43 @@
     <t xml:space="preserve">25.0891513824463</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1554565429688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0062637329102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1057300567627</t>
+    <t xml:space="preserve">25.155460357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0062675476074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1057262420654</t>
   </si>
   <si>
     <t xml:space="preserve">25.2714958190918</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5533046722412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5450172424316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8019599914551</t>
+    <t xml:space="preserve">25.5533027648926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.545015335083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8019561767578</t>
   </si>
   <si>
     <t xml:space="preserve">25.9262828826904</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2080936431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4070129394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4401664733887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9594383239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8765525817871</t>
+    <t xml:space="preserve">26.2080917358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4070148468018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4401683807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9594421386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8765544891357</t>
   </si>
   <si>
     <t xml:space="preserve">26.1252059936523</t>
@@ -893,28 +893,28 @@
     <t xml:space="preserve">26.2412452697754</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6059341430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.365571975708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1666507720947</t>
+    <t xml:space="preserve">26.605936050415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3655700683594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1666450500488</t>
   </si>
   <si>
     <t xml:space="preserve">26.2495346069336</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3324184417725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5644931793213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9374713897705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9540519714355</t>
+    <t xml:space="preserve">26.3324203491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5644989013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9374732971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9540538787842</t>
   </si>
   <si>
     <t xml:space="preserve">27.2192802429199</t>
@@ -923,55 +923,55 @@
     <t xml:space="preserve">27.0369358062744</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0120697021484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4099159240723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6751480102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6254215240479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3850536346436</t>
+    <t xml:space="preserve">27.0120677947998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4099140167236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6751461029053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6254177093506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3850517272949</t>
   </si>
   <si>
     <t xml:space="preserve">27.6585712432861</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0647010803223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5093765258789</t>
+    <t xml:space="preserve">28.0647125244141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5093784332275</t>
   </si>
   <si>
     <t xml:space="preserve">28.7407665252686</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5145969390869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4810886383057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7742729187012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4894638061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8412895202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6067371368408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6737518310547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.427661895752</t>
+    <t xml:space="preserve">28.5145950317383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.481086730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7742691040039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4894599914551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8412952423096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6067409515381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6737499237061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4276657104492</t>
   </si>
   <si>
     <t xml:space="preserve">29.8381271362305</t>
@@ -980,64 +980,64 @@
     <t xml:space="preserve">29.8129997253418</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5669059753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6590538024902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5752811431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7543544769287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9386539459229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0307922363281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.930269241333</t>
+    <t xml:space="preserve">30.5669116973877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.659049987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5752792358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7543640136719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9386501312256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0307960510254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9302749633789</t>
   </si>
   <si>
     <t xml:space="preserve">29.8716335296631</t>
   </si>
   <si>
-    <t xml:space="preserve">30.0475463867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8967685699463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2485866546631</t>
+    <t xml:space="preserve">30.047550201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8967666625977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2485942840576</t>
   </si>
   <si>
     <t xml:space="preserve">29.4695453643799</t>
   </si>
   <si>
-    <t xml:space="preserve">29.570068359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9972896575928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7480354309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7511978149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8768520355225</t>
+    <t xml:space="preserve">29.5700664520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9972820281982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7480392456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7512016296387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8768501281738</t>
   </si>
   <si>
     <t xml:space="preserve">30.3826217651367</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5585327148438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5920372009277</t>
+    <t xml:space="preserve">30.5585346221924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5920391082764</t>
   </si>
   <si>
     <t xml:space="preserve">30.0391693115234</t>
@@ -1046,118 +1046,118 @@
     <t xml:space="preserve">30.5250244140625</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2203006744385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0276355743408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2538070678711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4967231750488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1700401306152</t>
+    <t xml:space="preserve">31.2202911376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0276336669922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2538051605225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4967308044434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.170036315918</t>
   </si>
   <si>
     <t xml:space="preserve">31.3291969299316</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3658599853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5449390411377</t>
+    <t xml:space="preserve">30.3658676147461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5449371337891</t>
   </si>
   <si>
     <t xml:space="preserve">29.1512298583984</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6538352966309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7292308807373</t>
+    <t xml:space="preserve">29.6538391113281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.72922706604</t>
   </si>
   <si>
     <t xml:space="preserve">29.2852630615234</t>
   </si>
   <si>
-    <t xml:space="preserve">29.226619720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5198135375977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3355178833008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6957225799561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3941593170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6789703369141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7459850311279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2234649658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2402114868164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1731967926025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9051456451416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7711086273193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9554004669189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7878589630127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7208480834961</t>
+    <t xml:space="preserve">29.2266178131104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5198078155518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3355236053467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6957206726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3941612243652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6789684295654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7459812164307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2234630584717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.240213394165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1731986999512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9051399230957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7711200714111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9554042816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7878742218018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7208461761475</t>
   </si>
   <si>
     <t xml:space="preserve">29.8548793792725</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3271484375</t>
+    <t xml:space="preserve">29.3271427154541</t>
   </si>
   <si>
     <t xml:space="preserve">29.0423336029053</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4360389709473</t>
+    <t xml:space="preserve">29.4360408782959</t>
   </si>
   <si>
     <t xml:space="preserve">29.4946784973145</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2517547607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2768783569336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6203365325928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3606567382812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6873455047607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5868263244629</t>
+    <t xml:space="preserve">29.2517509460449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2768802642822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6203327178955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3606510162354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6873416900635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5868244171143</t>
   </si>
   <si>
     <t xml:space="preserve">29.4611701965332</t>
@@ -1166,7 +1166,7 @@
     <t xml:space="preserve">29.8632621765137</t>
   </si>
   <si>
-    <t xml:space="preserve">30.1396923065186</t>
+    <t xml:space="preserve">30.1396884918213</t>
   </si>
   <si>
     <t xml:space="preserve">30.4496326446533</t>
@@ -1178,46 +1178,46 @@
     <t xml:space="preserve">30.2988471984863</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5166511535645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9773712158203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1784076690674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1365299224854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2454261779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3710823059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9857387542725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2286777496338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5637493133545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7647876739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2171325683594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7281265258789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6359748840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5438232421875</t>
+    <t xml:space="preserve">30.5166530609131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9773654937744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1784172058105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1365337371826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2454223632812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3710746765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9857521057129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2286758422852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5637512207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7647895812988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2171363830566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7281188964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6359825134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5438385009766</t>
   </si>
   <si>
     <t xml:space="preserve">33.0045585632324</t>
@@ -1226,49 +1226,49 @@
     <t xml:space="preserve">32.6694793701172</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9794273376465</t>
+    <t xml:space="preserve">32.9794235229492</t>
   </si>
   <si>
     <t xml:space="preserve">32.7867622375488</t>
   </si>
   <si>
-    <t xml:space="preserve">33.012939453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1218338012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1469612121582</t>
+    <t xml:space="preserve">33.0129356384277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1218223571777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1469650268555</t>
   </si>
   <si>
     <t xml:space="preserve">33.3898887634277</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3647499084473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5741767883301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3312492370605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5909309387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1804695129395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2307243347168</t>
+    <t xml:space="preserve">33.3647575378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5741729736328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3312568664551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5909233093262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1804733276367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2307205200195</t>
   </si>
   <si>
     <t xml:space="preserve">33.1134452819824</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2642402648926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4569053649902</t>
+    <t xml:space="preserve">33.2642288208008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.456901550293</t>
   </si>
   <si>
     <t xml:space="preserve">33.6579475402832</t>
@@ -1277,79 +1277,79 @@
     <t xml:space="preserve">33.1720848083496</t>
   </si>
   <si>
-    <t xml:space="preserve">33.255859375</t>
+    <t xml:space="preserve">33.2558555603027</t>
   </si>
   <si>
     <t xml:space="preserve">33.4150161743164</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5993118286133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4317665100098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7249565124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3479995727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0097694396973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8924903869629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3228797912598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5071640014648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.602466583252</t>
+    <t xml:space="preserve">33.599308013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4317741394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7249526977539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3480072021484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.009765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8924942016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3228721618652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5071563720703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6024742126465</t>
   </si>
   <si>
     <t xml:space="preserve">32.510326385498</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3427886962891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6108360290527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9742107391357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.367919921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8653144836426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4243469238281</t>
+    <t xml:space="preserve">32.3427772521973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6108474731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9742012023926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3679161071777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8653163909912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4243507385254</t>
   </si>
   <si>
     <t xml:space="preserve">32.4667053222656</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3481178283691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3989372253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1787147521973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1702423095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.865306854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0177803039551</t>
+    <t xml:space="preserve">32.3481216430664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3989410400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1787109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1702346801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8653125762939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0177764892578</t>
   </si>
   <si>
     <t xml:space="preserve">31.8737812042236</t>
@@ -1361,40 +1361,40 @@
     <t xml:space="preserve">32.8055114746094</t>
   </si>
   <si>
-    <t xml:space="preserve">32.449764251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2295265197754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7631645202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7208137512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7885704040527</t>
+    <t xml:space="preserve">32.4497604370117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2295303344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7631683349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7208099365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.78857421875</t>
   </si>
   <si>
     <t xml:space="preserve">32.0093078613281</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3570919036865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.975923538208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5519027709961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5349636077881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9844017028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8742828369141</t>
+    <t xml:space="preserve">31.3570938110352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9759273529053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5519104003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5349655151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9843997955322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8742904663086</t>
   </si>
   <si>
     <t xml:space="preserve">31.3401527404785</t>
@@ -1403,145 +1403,145 @@
     <t xml:space="preserve">31.6196708679199</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6704921722412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3909740447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5942649841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4417953491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9330768585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.492115020752</t>
+    <t xml:space="preserve">31.6704978942871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3909778594971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5942573547363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4417896270752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.933069229126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4921112060547</t>
   </si>
   <si>
     <t xml:space="preserve">32.6276435852051</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7801055908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5429344177246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3565826416016</t>
+    <t xml:space="preserve">32.780101776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5429306030273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3565864562988</t>
   </si>
   <si>
     <t xml:space="preserve">32.6954002380371</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2888259887695</t>
+    <t xml:space="preserve">32.2888221740723</t>
   </si>
   <si>
     <t xml:space="preserve">32.1194190979004</t>
   </si>
   <si>
-    <t xml:space="preserve">31.7128391265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9669532775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6615142822266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0347099304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5259971618652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4672107696533</t>
+    <t xml:space="preserve">31.7128410339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9669513702393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6615219116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0347213745117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.525993347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4672069549561</t>
   </si>
   <si>
     <t xml:space="preserve">31.0606288909912</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6794700622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8832588195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2225666046143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1891937255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4428024291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0711135864258</t>
+    <t xml:space="preserve">30.6794662475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8832530975342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2225723266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1891956329346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4428062438965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.071117401123</t>
   </si>
   <si>
     <t xml:space="preserve">26.1478519439697</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5718688964844</t>
+    <t xml:space="preserve">25.571870803833</t>
   </si>
   <si>
     <t xml:space="preserve">25.0890636444092</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3172588348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9869174957275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3680763244629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4278774261475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9874172210693</t>
+    <t xml:space="preserve">26.3172550201416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9869155883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3680782318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4278736114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.987419128418</t>
   </si>
   <si>
     <t xml:space="preserve">24.8180103302002</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6147212982178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3262271881104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1568279266357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.945068359375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6231918334961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0218048095703</t>
+    <t xml:space="preserve">24.614725112915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3262310028076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1568222045898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9450645446777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6231937408447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0218029022217</t>
   </si>
   <si>
     <t xml:space="preserve">24.4707279205322</t>
   </si>
   <si>
-    <t xml:space="preserve">24.5469589233398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3516407012939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2415294647217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4871654510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1229419708252</t>
+    <t xml:space="preserve">24.5469627380371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3516426086426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2415237426758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4871635437012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1229438781738</t>
   </si>
   <si>
     <t xml:space="preserve">24.6994228363037</t>
@@ -1553,25 +1553,25 @@
     <t xml:space="preserve">24.8349533081055</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6062507629395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2250900268555</t>
+    <t xml:space="preserve">24.6062526702881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2250881195068</t>
   </si>
   <si>
     <t xml:space="preserve">24.1234455108643</t>
   </si>
   <si>
-    <t xml:space="preserve">24.072624206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0387420654297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3102970123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7168712615967</t>
+    <t xml:space="preserve">24.0726261138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0387439727783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3102931976318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7168731689453</t>
   </si>
   <si>
     <t xml:space="preserve">24.4453182220459</t>
@@ -1580,193 +1580,193 @@
     <t xml:space="preserve">25.3939895629883</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0043563842773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3092861175537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2838821411133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0128307342529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0467090606689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8264827728271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1314125061035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0721187591553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2754058837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4902610778809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2152500152588</t>
+    <t xml:space="preserve">25.004358291626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.309289932251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.283878326416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0128288269043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0467109680176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8264808654785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1314163208008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0721206665039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2754096984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4902629852295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2152481079102</t>
   </si>
   <si>
     <t xml:space="preserve">25.4386959075928</t>
   </si>
   <si>
-    <t xml:space="preserve">25.387134552002</t>
+    <t xml:space="preserve">25.3871326446533</t>
   </si>
   <si>
     <t xml:space="preserve">25.4816665649414</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5129661560059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2723274230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.34108543396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5731239318848</t>
+    <t xml:space="preserve">26.5129699707031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2723293304443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3410816192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5731258392334</t>
   </si>
   <si>
     <t xml:space="preserve">26.2981147766113</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3926467895508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1090393066406</t>
+    <t xml:space="preserve">26.3926448822021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1090431213379</t>
   </si>
   <si>
     <t xml:space="preserve">26.2121715545654</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5043754577637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3840579986572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8770008087158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6387996673584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4325408935547</t>
+    <t xml:space="preserve">26.5043716430664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.38405418396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8769989013672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.638801574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4325389862061</t>
   </si>
   <si>
     <t xml:space="preserve">27.6989593505859</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5614547729492</t>
+    <t xml:space="preserve">27.5614528656006</t>
   </si>
   <si>
     <t xml:space="preserve">27.5184841156006</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5786418914795</t>
+    <t xml:space="preserve">27.5786399841309</t>
   </si>
   <si>
     <t xml:space="preserve">27.6130199432373</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2434711456299</t>
+    <t xml:space="preserve">27.2434730529785</t>
   </si>
   <si>
     <t xml:space="preserve">27.1059627532959</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2606601715088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3465995788574</t>
+    <t xml:space="preserve">27.2606563568115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3465976715088</t>
   </si>
   <si>
     <t xml:space="preserve">27.295036315918</t>
   </si>
   <si>
-    <t xml:space="preserve">28.291955947876</t>
+    <t xml:space="preserve">28.2919521331787</t>
   </si>
   <si>
     <t xml:space="preserve">28.3607082366943</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3177471160889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9739742279053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1630477905273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2231998443604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.618537902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2317981719971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0942916870117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.841983795166</t>
+    <t xml:space="preserve">28.317741394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9739723205566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1630439758301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2232036590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6185359954834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2317962646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0942897796631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8419857025146</t>
   </si>
   <si>
     <t xml:space="preserve">29.6326446533203</t>
   </si>
   <si>
-    <t xml:space="preserve">29.357629776001</t>
+    <t xml:space="preserve">29.3576278686523</t>
   </si>
   <si>
     <t xml:space="preserve">29.4263877868652</t>
   </si>
   <si>
-    <t xml:space="preserve">28.5497856140137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4982147216797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8591709136963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8247928619385</t>
+    <t xml:space="preserve">28.5497817993164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4982166290283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.859167098999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8247947692871</t>
   </si>
   <si>
     <t xml:space="preserve">29.271692276001</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6277656555176</t>
+    <t xml:space="preserve">25.6277694702148</t>
   </si>
   <si>
     <t xml:space="preserve">24.6050624847412</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9574222564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2668151855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7480850219727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9973182678223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6418800354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6504726409912</t>
+    <t xml:space="preserve">24.9574241638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2668113708496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7480869293213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.997314453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6418762207031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6504745483398</t>
   </si>
   <si>
     <t xml:space="preserve">26.3238964080811</t>
@@ -1775,157 +1775,157 @@
     <t xml:space="preserve">26.4184284210205</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8254337310791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6965198516846</t>
+    <t xml:space="preserve">25.8254356384277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6965217590332</t>
   </si>
   <si>
     <t xml:space="preserve">25.8082466125488</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8137607574463</t>
+    <t xml:space="preserve">26.8137588500977</t>
   </si>
   <si>
     <t xml:space="preserve">26.6676635742188</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8911075592041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0543956756592</t>
+    <t xml:space="preserve">26.8911113739014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0543994903564</t>
   </si>
   <si>
     <t xml:space="preserve">27.0372085571289</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7364120483398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8997020721436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4841041564941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5098876953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2348747253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5872325897217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7161445617676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9997577667236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0169429779053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8966255187988</t>
+    <t xml:space="preserve">26.7364139556885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8997039794922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4841079711914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5098857879639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2348785400391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.587230682373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7161483764648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9997596740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0169448852539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8966236114502</t>
   </si>
   <si>
     <t xml:space="preserve">27.501293182373</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2262840270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6160926818848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2379550933838</t>
+    <t xml:space="preserve">27.226282119751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6160945892334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2379512786865</t>
   </si>
   <si>
     <t xml:space="preserve">26.5645313262939</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4012432098389</t>
+    <t xml:space="preserve">26.4012413024902</t>
   </si>
   <si>
     <t xml:space="preserve">26.1520118713379</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9285621643066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9543476104736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0660705566406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9199695587158</t>
+    <t xml:space="preserve">25.9285659790039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.954345703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0660724639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9199676513672</t>
   </si>
   <si>
     <t xml:space="preserve">26.2035751342773</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1176319122314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2551403045654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8340282440186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2207698822021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7566795349121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5676097869873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6105823516846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4988555908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3183746337891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.223840713501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0261745452881</t>
+    <t xml:space="preserve">26.1176357269287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2551422119141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8340263366699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2207641601562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7566833496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5676078796387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6105804443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4988536834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.318380355835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2238426208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0261783599854</t>
   </si>
   <si>
     <t xml:space="preserve">25.2324390411377</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3785419464111</t>
+    <t xml:space="preserve">25.3785400390625</t>
   </si>
   <si>
     <t xml:space="preserve">25.5504188537598</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0605525970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2839984893799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4215106964111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3496742248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0746631622314</t>
+    <t xml:space="preserve">25.0605545043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2840023040771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4215068817139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3496780395508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0746650695801</t>
   </si>
   <si>
     <t xml:space="preserve">25.662145614624</t>
   </si>
   <si>
-    <t xml:space="preserve">25.799654006958</t>
+    <t xml:space="preserve">25.7996501922607</t>
   </si>
   <si>
     <t xml:space="preserve">25.9715347290039</t>
@@ -1934,40 +1934,40 @@
     <t xml:space="preserve">25.0089893341064</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8628845214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7253818511963</t>
+    <t xml:space="preserve">24.8628883361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7253837585449</t>
   </si>
   <si>
     <t xml:space="preserve">24.9144554138184</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0691509246826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4558868408203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7738666534424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5246448516846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6019878387451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1722793579102</t>
+    <t xml:space="preserve">25.0691471099854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4558887481689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7738723754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5246410369873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6019859313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1722774505615</t>
   </si>
   <si>
     <t xml:space="preserve">26.0402870178223</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5817184448242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7137088775635</t>
+    <t xml:space="preserve">26.5817203521729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7137107849121</t>
   </si>
   <si>
     <t xml:space="preserve">25.8598098754883</t>
@@ -1976,46 +1976,46 @@
     <t xml:space="preserve">25.9113750457764</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7394943237305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8684062957764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6363582611084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.980131149292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6535530090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4644813537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8542957305908</t>
+    <t xml:space="preserve">25.7394962310791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8684043884277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6363620758057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9801273345947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6535491943359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4644794464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8542919158936</t>
   </si>
   <si>
     <t xml:space="preserve">24.9230480194092</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0433654785156</t>
+    <t xml:space="preserve">25.043363571167</t>
   </si>
   <si>
     <t xml:space="preserve">25.1306591033936</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7727680206299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7640361785889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3799667358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3712348937988</t>
+    <t xml:space="preserve">24.7727699279785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7640419006348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3799648284912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3712368011475</t>
   </si>
   <si>
     <t xml:space="preserve">24.4323387145996</t>
@@ -2027,13 +2027,13 @@
     <t xml:space="preserve">24.7989540100098</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1393852233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1131973266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.964807510376</t>
+    <t xml:space="preserve">25.13938331604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1131954193115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9648036956787</t>
   </si>
   <si>
     <t xml:space="preserve">24.441068649292</t>
@@ -2042,13 +2042,13 @@
     <t xml:space="preserve">24.528356552124</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3886966705322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3537788391113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8164100646973</t>
+    <t xml:space="preserve">24.3886947631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3537769317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8164157867432</t>
   </si>
   <si>
     <t xml:space="preserve">24.7902240753174</t>
@@ -2057,7 +2057,7 @@
     <t xml:space="preserve">25.052095413208</t>
   </si>
   <si>
-    <t xml:space="preserve">25.31396484375</t>
+    <t xml:space="preserve">25.3139629364014</t>
   </si>
   <si>
     <t xml:space="preserve">25.4885444641113</t>
@@ -2072,25 +2072,25 @@
     <t xml:space="preserve">27.0684814453125</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4400005340576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2043170928955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.012279510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2916049957275</t>
+    <t xml:space="preserve">26.439998626709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2043132781982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0122756958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2916069030762</t>
   </si>
   <si>
     <t xml:space="preserve">25.9686336517334</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8377017974854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1170253753662</t>
+    <t xml:space="preserve">25.8376998901367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1170234680176</t>
   </si>
   <si>
     <t xml:space="preserve">25.8638858795166</t>
@@ -2099,91 +2099,91 @@
     <t xml:space="preserve">26.7804279327393</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8415298461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9811935424805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6009483337402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2343311309814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7978897094727</t>
+    <t xml:space="preserve">26.8415279388428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9811916351318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6009502410889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2343330383301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7978839874268</t>
   </si>
   <si>
     <t xml:space="preserve">26.3352508544922</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1344833374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1606712341309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2392311096191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5622005462646</t>
+    <t xml:space="preserve">26.1344871520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1606693267822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2392330169678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5622062683105</t>
   </si>
   <si>
     <t xml:space="preserve">27.6184043884277</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3914527893066</t>
+    <t xml:space="preserve">27.391450881958</t>
   </si>
   <si>
     <t xml:space="preserve">28.0286674499512</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9364776611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8928337097168</t>
+    <t xml:space="preserve">28.9364814758301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8928318023682</t>
   </si>
   <si>
     <t xml:space="preserve">28.177059173584</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6707859039307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.967565536499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3516407012939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1896133422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2594509124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.53005027771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6435203552246</t>
+    <t xml:space="preserve">27.6707801818848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9675674438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3516387939453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1896190643311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2594547271729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5300464630127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6435260772705</t>
   </si>
   <si>
     <t xml:space="preserve">29.1110572814941</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2681789398193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8579177856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6571521759033</t>
+    <t xml:space="preserve">29.2681770324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8579216003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6571559906006</t>
   </si>
   <si>
     <t xml:space="preserve">28.6309661865234</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8753795623779</t>
+    <t xml:space="preserve">28.8753776550293</t>
   </si>
   <si>
     <t xml:space="preserve">28.735710144043</t>
@@ -2195,82 +2195,82 @@
     <t xml:space="preserve">29.0761451721191</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5474987030029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6784420013428</t>
+    <t xml:space="preserve">29.5475082397461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6784381866455</t>
   </si>
   <si>
     <t xml:space="preserve">29.6173400878906</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4776706695557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.442756652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0014114379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1323490142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4989585876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4504089355469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5726184844971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0090713500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0789031982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.913049697876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1099891662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2060089111328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3282089233398</t>
+    <t xml:space="preserve">29.4776763916016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4427528381348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0014133453369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.132345199585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4989604949951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.45041847229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5726127624512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0090675354004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0789070129395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9130573272705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1099872589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2060070037842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3282127380371</t>
   </si>
   <si>
     <t xml:space="preserve">31.0401592254639</t>
   </si>
   <si>
-    <t xml:space="preserve">29.9665012359619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2981948852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5076923370361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0663414001465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2845630645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9703254699707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5027904510498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5464344024658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.267110824585</t>
+    <t xml:space="preserve">29.9664916992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2981872558594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5076885223389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0663375854492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2845649719238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9703197479248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5027866363525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5464382171631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2671146392822</t>
   </si>
   <si>
     <t xml:space="preserve">31.4766044616699</t>
@@ -2279,34 +2279,34 @@
     <t xml:space="preserve">31.563892364502</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6773719787598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5115165710449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9877796173096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7841701507568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4126281738281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4391708374023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0318565368652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8195552825928</t>
+    <t xml:space="preserve">31.6773738861084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5115146636963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9877834320068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7841682434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.412633895874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4391689300537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0318603515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8195533752441</t>
   </si>
   <si>
     <t xml:space="preserve">31.8372459411621</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9964733123779</t>
+    <t xml:space="preserve">31.9964828491211</t>
   </si>
   <si>
     <t xml:space="preserve">32.0141639709473</t>
@@ -2318,37 +2318,37 @@
     <t xml:space="preserve">31.5453224182129</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2618637084961</t>
+    <t xml:space="preserve">32.2618598937988</t>
   </si>
   <si>
     <t xml:space="preserve">31.2887840270996</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1118583679199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9618644714355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5280132293701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2534027099609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3591690063477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3237800598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3326263427734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8014793395996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4476280212402</t>
+    <t xml:space="preserve">31.1118602752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9618663787842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5280208587646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2534046173096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3591728210449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.323787689209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3326301574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8014678955078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.447624206543</t>
   </si>
   <si>
     <t xml:space="preserve">32.0053176879883</t>
@@ -2357,31 +2357,31 @@
     <t xml:space="preserve">32.456470489502</t>
   </si>
   <si>
-    <t xml:space="preserve">32.155704498291</t>
+    <t xml:space="preserve">32.1557083129883</t>
   </si>
   <si>
     <t xml:space="preserve">32.3945503234863</t>
   </si>
   <si>
-    <t xml:space="preserve">32.598014831543</t>
+    <t xml:space="preserve">32.5980110168457</t>
   </si>
   <si>
     <t xml:space="preserve">32.6953201293945</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7307052612305</t>
+    <t xml:space="preserve">32.7307090759277</t>
   </si>
   <si>
     <t xml:space="preserve">33.1907043457031</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1818580627441</t>
+    <t xml:space="preserve">33.1818542480469</t>
   </si>
   <si>
     <t xml:space="preserve">33.6153182983398</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5799293518066</t>
+    <t xml:space="preserve">33.5799369812012</t>
   </si>
   <si>
     <t xml:space="preserve">33.7037773132324</t>
@@ -2390,10 +2390,10 @@
     <t xml:space="preserve">33.686092376709</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2880096435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2703285217285</t>
+    <t xml:space="preserve">33.2880172729492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2703170776367</t>
   </si>
   <si>
     <t xml:space="preserve">33.0845565795898</t>
@@ -2408,43 +2408,43 @@
     <t xml:space="preserve">32.7130126953125</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9960899353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0757064819336</t>
+    <t xml:space="preserve">32.99609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0757026672363</t>
   </si>
   <si>
     <t xml:space="preserve">32.1203231811523</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9345512390137</t>
+    <t xml:space="preserve">31.9345531463623</t>
   </si>
   <si>
     <t xml:space="preserve">32.4299392700195</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5449409484863</t>
+    <t xml:space="preserve">32.5449371337891</t>
   </si>
   <si>
     <t xml:space="preserve">32.8987846374512</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2526245117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3764762878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8364677429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3676338195801</t>
+    <t xml:space="preserve">33.2526321411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3764686584473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8364753723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3676261901855</t>
   </si>
   <si>
     <t xml:space="preserve">34.0753173828125</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0576286315918</t>
+    <t xml:space="preserve">34.0576248168945</t>
   </si>
   <si>
     <t xml:space="preserve">34.7653160095215</t>
@@ -2453,28 +2453,28 @@
     <t xml:space="preserve">34.7918548583984</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6857032775879</t>
+    <t xml:space="preserve">34.6856994628906</t>
   </si>
   <si>
     <t xml:space="preserve">35.0749359130859</t>
   </si>
   <si>
-    <t xml:space="preserve">35.0483894348145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1810836791992</t>
+    <t xml:space="preserve">35.0483932495117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.181079864502</t>
   </si>
   <si>
     <t xml:space="preserve">35.3226203918457</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7295417785645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4730110168457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5526237487793</t>
+    <t xml:space="preserve">35.7295455932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4730033874512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5526161193848</t>
   </si>
   <si>
     <t xml:space="preserve">35.5083923339844</t>
@@ -2483,19 +2483,19 @@
     <t xml:space="preserve">35.1987724304199</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8533935546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8710823059082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.03955078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3495483398438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4380073547363</t>
+    <t xml:space="preserve">35.8533897399902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8710861206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0395469665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3495445251465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4380035400391</t>
   </si>
   <si>
     <t xml:space="preserve">35.1191635131836</t>
@@ -2504,16 +2504,16 @@
     <t xml:space="preserve">35.287239074707</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6591682434082</t>
+    <t xml:space="preserve">34.6591644287109</t>
   </si>
   <si>
     <t xml:space="preserve">34.3760871887207</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7922439575195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3230133056641</t>
+    <t xml:space="preserve">33.7922477722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3230094909668</t>
   </si>
   <si>
     <t xml:space="preserve">34.5530128479004</t>
@@ -2522,37 +2522,37 @@
     <t xml:space="preserve">34.181468963623</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2518501281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9510955810547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3668556213379</t>
+    <t xml:space="preserve">35.2518577575684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9510917663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3668518066406</t>
   </si>
   <si>
     <t xml:space="preserve">35.2960929870605</t>
   </si>
   <si>
-    <t xml:space="preserve">36.242618560791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6057052612305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2607002258301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9153060913086</t>
+    <t xml:space="preserve">36.2426223754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6056938171387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2607040405273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9153137207031</t>
   </si>
   <si>
     <t xml:space="preserve">35.7914657592773</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8445472717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3314666748047</t>
+    <t xml:space="preserve">35.8445434570312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3314628601074</t>
   </si>
   <si>
     <t xml:space="preserve">35.3491592407227</t>
@@ -2561,43 +2561,43 @@
     <t xml:space="preserve">33.8099327087402</t>
   </si>
   <si>
-    <t xml:space="preserve">34.906852722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7833976745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3672409057617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8980102539062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.128002166748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2076187133789</t>
+    <t xml:space="preserve">34.9068489074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7834014892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.367244720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8980140686035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1280097961426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2076263427734</t>
   </si>
   <si>
     <t xml:space="preserve">34.5707054138184</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9245529174805</t>
+    <t xml:space="preserve">34.9245452880859</t>
   </si>
   <si>
     <t xml:space="preserve">34.8095512390137</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8183975219727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.190315246582</t>
+    <t xml:space="preserve">34.8183898925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1903228759766</t>
   </si>
   <si>
     <t xml:space="preserve">32.8634033203125</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0403213500977</t>
+    <t xml:space="preserve">33.0403175354004</t>
   </si>
   <si>
     <t xml:space="preserve">32.571475982666</t>
@@ -2609,28 +2609,28 @@
     <t xml:space="preserve">32.4653244018555</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7837867736816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1464767456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7657012939453</t>
+    <t xml:space="preserve">32.7837905883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1464691162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7657051086426</t>
   </si>
   <si>
     <t xml:space="preserve">33.1376304626465</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3499374389648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5360908508301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3149299621582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3414726257324</t>
+    <t xml:space="preserve">33.3499336242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5360832214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3149337768555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3414840698242</t>
   </si>
   <si>
     <t xml:space="preserve">32.6068572998047</t>
@@ -2639,169 +2639,169 @@
     <t xml:space="preserve">32.8103179931641</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6330070495605</t>
+    <t xml:space="preserve">33.6330146789551</t>
   </si>
   <si>
     <t xml:space="preserve">33.3233947753906</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3768539428711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9253158569336</t>
+    <t xml:space="preserve">32.3768615722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9253234863281</t>
   </si>
   <si>
     <t xml:space="preserve">32.6599349975586</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1553192138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1110877990723</t>
+    <t xml:space="preserve">33.1553230285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1110916137695</t>
   </si>
   <si>
     <t xml:space="preserve">33.4649391174316</t>
   </si>
   <si>
+    <t xml:space="preserve">33.5268592834473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2939109802246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.150562286377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1271438598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9569206237793</t>
+  </si>
+  <si>
     <t xml:space="preserve">33.52685546875</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2939071655273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1505546569824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1271476745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9569244384766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5268516540527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3118286132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.535816192627</t>
+    <t xml:space="preserve">33.311824798584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5358200073242</t>
   </si>
   <si>
     <t xml:space="preserve">33.8583641052246</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4372634887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1092262268066</t>
+    <t xml:space="preserve">33.4372673034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1092338562012</t>
   </si>
   <si>
     <t xml:space="preserve">32.39794921875</t>
   </si>
   <si>
-    <t xml:space="preserve">32.8907203674316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.953441619873</t>
+    <t xml:space="preserve">32.8907241821289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9534378051758</t>
   </si>
   <si>
     <t xml:space="preserve">32.7921714782715</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7294502258301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.743896484375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2814712524414</t>
+    <t xml:space="preserve">32.7294464111328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7439002990723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2814674377441</t>
   </si>
   <si>
     <t xml:space="preserve">32.4785804748535</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6577796936035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6040229797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2043151855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8135719299316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0017204284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6702117919922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2257041931152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0106773376465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.661247253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3421859741211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8314819335938</t>
+    <t xml:space="preserve">32.6577758789062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6040191650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2043113708496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8135681152344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0017127990723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6702156066895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.225715637207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0106811523438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6612510681152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3421821594238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.831485748291</t>
   </si>
   <si>
     <t xml:space="preserve">33.9479560852051</t>
   </si>
   <si>
-    <t xml:space="preserve">34.754322052002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7364044189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7274436950684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1395950317383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6950874328613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9603958129883</t>
+    <t xml:space="preserve">34.7543182373047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7364082336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7274398803711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.139591217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6950836181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.960391998291</t>
   </si>
   <si>
     <t xml:space="preserve">35.3815002441406</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4621391296387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.838436126709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1251449584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0982704162598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7757186889648</t>
+    <t xml:space="preserve">35.4621353149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8384399414062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1251411437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0982666015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7757225036621</t>
   </si>
   <si>
     <t xml:space="preserve">36.6268844604492</t>
   </si>
   <si>
-    <t xml:space="preserve">35.5606842041016</t>
+    <t xml:space="preserve">35.5606918334961</t>
   </si>
   <si>
     <t xml:space="preserve">34.6109733581543</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2471008300781</t>
+    <t xml:space="preserve">35.2471046447754</t>
   </si>
   <si>
     <t xml:space="preserve">35.8653144836426</t>
@@ -2810,136 +2810,136 @@
     <t xml:space="preserve">35.8563575744629</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2864151000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0086669921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.367057800293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6627159118652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.0121421813965</t>
+    <t xml:space="preserve">36.2864189147949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0086708068848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.3670539855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6627235412598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0121459960938</t>
   </si>
   <si>
     <t xml:space="preserve">36.7343978881836</t>
   </si>
   <si>
-    <t xml:space="preserve">36.1520195007324</t>
+    <t xml:space="preserve">36.1520233154297</t>
   </si>
   <si>
     <t xml:space="preserve">36.8239974975586</t>
   </si>
   <si>
-    <t xml:space="preserve">37.2092590332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7737197875977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4028968811035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4855422973633</t>
+    <t xml:space="preserve">37.2092628479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.7737121582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4028930664062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4855346679688</t>
   </si>
   <si>
     <t xml:space="preserve">34.6199264526367</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6502838134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6682052612305</t>
+    <t xml:space="preserve">35.6502876281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6682014465332</t>
   </si>
   <si>
     <t xml:space="preserve">34.6557693481445</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4676170349121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1575126647949</t>
+    <t xml:space="preserve">34.4676132202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1575088500977</t>
   </si>
   <si>
     <t xml:space="preserve">35.2650184631348</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5751342773438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9892845153809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7762546539307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3103580474854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3198547363281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0594902038574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6473445892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6149826049805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1794376373291</t>
+    <t xml:space="preserve">34.5751304626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9892807006836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7762584686279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3103618621826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3198566436768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0594882965088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6473484039307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6149845123291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1794414520264</t>
   </si>
   <si>
     <t xml:space="preserve">31.5647010803223</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5736637115479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2959136962891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3710670471191</t>
+    <t xml:space="preserve">31.573673248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2959156036377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3710708618164</t>
   </si>
   <si>
     <t xml:space="preserve">32.5681762695312</t>
   </si>
   <si>
-    <t xml:space="preserve">35.0589561462402</t>
+    <t xml:space="preserve">35.058952331543</t>
   </si>
   <si>
     <t xml:space="preserve">34.5303344726562</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7777252197266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2167472839355</t>
+    <t xml:space="preserve">33.7777290344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2167434692383</t>
   </si>
   <si>
     <t xml:space="preserve">33.2132720947266</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7329368591309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4820556640625</t>
+    <t xml:space="preserve">33.7329330444336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4820518493652</t>
   </si>
   <si>
     <t xml:space="preserve">32.9176063537598</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8494033813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.494499206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2973823547363</t>
+    <t xml:space="preserve">33.8494071960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4944953918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2973861694336</t>
   </si>
   <si>
     <t xml:space="preserve">33.8225250244141</t>
@@ -2948,52 +2948,52 @@
     <t xml:space="preserve">34.7722473144531</t>
   </si>
   <si>
-    <t xml:space="preserve">34.1898765563965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5930480957031</t>
+    <t xml:space="preserve">34.1898651123047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5930519104004</t>
   </si>
   <si>
     <t xml:space="preserve">34.3153038024902</t>
   </si>
   <si>
-    <t xml:space="preserve">35.01416015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6000061035156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5427780151367</t>
+    <t xml:space="preserve">35.0141563415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6000022888184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5427665710449</t>
   </si>
   <si>
     <t xml:space="preserve">35.3725318908691</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2774620056152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7309265136719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6537628173828</t>
+    <t xml:space="preserve">36.2774658203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7309226989746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6537590026855</t>
   </si>
   <si>
     <t xml:space="preserve">37.0927810668945</t>
   </si>
   <si>
-    <t xml:space="preserve">39.4222793579102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6338386535645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.1445350646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.8991470336914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1928100585938</t>
+    <t xml:space="preserve">39.4222869873047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6338310241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.14453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.8991432189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1928062438965</t>
   </si>
   <si>
     <t xml:space="preserve">40.3015785217285</t>
@@ -3002,7 +3002,7 @@
     <t xml:space="preserve">37.0473594665527</t>
   </si>
   <si>
-    <t xml:space="preserve">37.6728324890137</t>
+    <t xml:space="preserve">37.6728248596191</t>
   </si>
   <si>
     <t xml:space="preserve">37.328369140625</t>
@@ -3011,7 +3011,7 @@
     <t xml:space="preserve">38.2167091369629</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1623153686523</t>
+    <t xml:space="preserve">38.1623191833496</t>
   </si>
   <si>
     <t xml:space="preserve">38.3798675537109</t>
@@ -3020,49 +3020,49 @@
     <t xml:space="preserve">37.4643402099609</t>
   </si>
   <si>
-    <t xml:space="preserve">37.8722496032715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.0926780700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8479423522949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2739753723145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1923942565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7815971374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.4824676513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.3646240234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6003074645996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.9719543457031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7482299804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.766357421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.663761138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5974197387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0177001953125</t>
+    <t xml:space="preserve">37.872241973877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0926895141602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8479385375977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2739791870117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1923980712891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.7816009521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4824638366699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.3646202087402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6003036499023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.9719581604004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7482261657715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7663612365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6637573242188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5974235534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0176887512207</t>
   </si>
   <si>
     <t xml:space="preserve">40.0930938720703</t>
@@ -3074,13 +3074,13 @@
     <t xml:space="preserve">41.162727355957</t>
   </si>
   <si>
-    <t xml:space="preserve">41.8244438171387</t>
+    <t xml:space="preserve">41.8244514465332</t>
   </si>
   <si>
     <t xml:space="preserve">40.7910804748535</t>
   </si>
   <si>
-    <t xml:space="preserve">40.963306427002</t>
+    <t xml:space="preserve">40.9633026123047</t>
   </si>
   <si>
     <t xml:space="preserve">40.7094917297363</t>
@@ -3089,16 +3089,16 @@
     <t xml:space="preserve">40.2925186157227</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1717872619629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4527893066406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5525131225586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.2776832580566</t>
+    <t xml:space="preserve">41.1717910766602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4527931213379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5525093078613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.2776870727539</t>
   </si>
   <si>
     <t xml:space="preserve">41.6884803771973</t>
@@ -3107,28 +3107,28 @@
     <t xml:space="preserve">41.6975479125977</t>
   </si>
   <si>
-    <t xml:space="preserve">41.8335189819336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3349533081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3139419555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.622142791748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.9666023254395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1569633483887</t>
+    <t xml:space="preserve">41.8335151672363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3349609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3139457702637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6221504211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.9666061401367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1569595336914</t>
   </si>
   <si>
     <t xml:space="preserve">43.8005485534668</t>
   </si>
   <si>
-    <t xml:space="preserve">44.1993865966797</t>
+    <t xml:space="preserve">44.1993980407715</t>
   </si>
   <si>
     <t xml:space="preserve">43.8096199035645</t>
@@ -3143,10 +3143,10 @@
     <t xml:space="preserve">42.567756652832</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8940773010254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.9031524658203</t>
+    <t xml:space="preserve">42.8940811157227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.903148651123</t>
   </si>
   <si>
     <t xml:space="preserve">42.703727722168</t>
@@ -3158,52 +3158,52 @@
     <t xml:space="preserve">41.0086288452148</t>
   </si>
   <si>
-    <t xml:space="preserve">41.525318145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.5372619628906</t>
+    <t xml:space="preserve">41.5253143310547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.5372657775879</t>
   </si>
   <si>
     <t xml:space="preserve">40.4828720092773</t>
   </si>
   <si>
-    <t xml:space="preserve">40.4466171264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6279144287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3741035461426</t>
+    <t xml:space="preserve">40.4466209411621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6279106140137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.374095916748</t>
   </si>
   <si>
     <t xml:space="preserve">41.8788375854492</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8545265197754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5978317260742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3530807495117</t>
+    <t xml:space="preserve">40.8545303344727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.597827911377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3530883789062</t>
   </si>
   <si>
     <t xml:space="preserve">41.0630149841309</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7881927490234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1507797241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1536674499512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3984031677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0992774963379</t>
+    <t xml:space="preserve">41.7881889343262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1507835388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1536636352539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3984069824219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0992736816406</t>
   </si>
   <si>
     <t xml:space="preserve">41.5071868896484</t>
@@ -3212,16 +3212,16 @@
     <t xml:space="preserve">40.736686706543</t>
   </si>
   <si>
-    <t xml:space="preserve">40.2290687561035</t>
+    <t xml:space="preserve">40.2290649414062</t>
   </si>
   <si>
     <t xml:space="preserve">40.9723701477051</t>
   </si>
   <si>
-    <t xml:space="preserve">39.8302268981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9542388916016</t>
+    <t xml:space="preserve">39.8302154541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9542350769043</t>
   </si>
   <si>
     <t xml:space="preserve">40.655101776123</t>
@@ -3236,10 +3236,10 @@
     <t xml:space="preserve">40.5463256835938</t>
   </si>
   <si>
-    <t xml:space="preserve">40.2109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6913604736328</t>
+    <t xml:space="preserve">40.2109336853027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6913642883301</t>
   </si>
   <si>
     <t xml:space="preserve">40.6460418701172</t>
@@ -3248,16 +3248,16 @@
     <t xml:space="preserve">40.582592010498</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7820129394531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4556846618652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.6489334106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.7848968505859</t>
+    <t xml:space="preserve">40.7820091247559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.455680847168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.64892578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.7849006652832</t>
   </si>
   <si>
     <t xml:space="preserve">39.9752540588379</t>
@@ -3266,34 +3266,34 @@
     <t xml:space="preserve">41.3712158203125</t>
   </si>
   <si>
-    <t xml:space="preserve">41.5343780517578</t>
+    <t xml:space="preserve">41.5343818664551</t>
   </si>
   <si>
     <t xml:space="preserve">42.341136932373</t>
   </si>
   <si>
-    <t xml:space="preserve">42.023868560791</t>
+    <t xml:space="preserve">42.0238723754883</t>
   </si>
   <si>
     <t xml:space="preserve">42.0782585144043</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7972564697266</t>
+    <t xml:space="preserve">41.7972602844238</t>
   </si>
   <si>
     <t xml:space="preserve">42.8306274414062</t>
   </si>
   <si>
-    <t xml:space="preserve">42.2504844665527</t>
+    <t xml:space="preserve">42.25048828125</t>
   </si>
   <si>
     <t xml:space="preserve">42.8759498596191</t>
   </si>
   <si>
-    <t xml:space="preserve">42.5405616760254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2838592529297</t>
+    <t xml:space="preserve">42.5405654907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.283863067627</t>
   </si>
   <si>
     <t xml:space="preserve">43.2657356262207</t>
@@ -3308,22 +3308,22 @@
     <t xml:space="preserve">41.9966812133789</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3287773132324</t>
+    <t xml:space="preserve">40.3287811279297</t>
   </si>
   <si>
     <t xml:space="preserve">38.7787132263184</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8364028930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9060287475586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9785499572754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6250228881836</t>
+    <t xml:space="preserve">40.8363990783691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9060325622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9785575866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6250305175781</t>
   </si>
   <si>
     <t xml:space="preserve">40.3197135925293</t>
@@ -3338,13 +3338,13 @@
     <t xml:space="preserve">42.8668899536133</t>
   </si>
   <si>
-    <t xml:space="preserve">42.3502082824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8607025146484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9332275390625</t>
+    <t xml:space="preserve">42.3502044677734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8607063293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9332237243652</t>
   </si>
   <si>
     <t xml:space="preserve">41.2276229858398</t>
@@ -3359,10 +3359,10 @@
     <t xml:space="preserve">41.1084938049316</t>
   </si>
   <si>
-    <t xml:space="preserve">41.5208625793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8977279663086</t>
+    <t xml:space="preserve">41.5208587646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8977241516113</t>
   </si>
   <si>
     <t xml:space="preserve">40.1279716491699</t>
@@ -3374,13 +3374,13 @@
     <t xml:space="preserve">39.3490524291992</t>
   </si>
   <si>
-    <t xml:space="preserve">39.5781517028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.008846282959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4303741455078</t>
+    <t xml:space="preserve">39.5781478881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0088386535645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4303703308105</t>
   </si>
   <si>
     <t xml:space="preserve">40.2929191589355</t>
@@ -3389,7 +3389,7 @@
     <t xml:space="preserve">40.338737487793</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0260162353516</t>
+    <t xml:space="preserve">41.0260200500488</t>
   </si>
   <si>
     <t xml:space="preserve">39.8072395324707</t>
@@ -3398,22 +3398,22 @@
     <t xml:space="preserve">40.6777992248535</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3295745849609</t>
+    <t xml:space="preserve">40.3295707702637</t>
   </si>
   <si>
     <t xml:space="preserve">40.751106262207</t>
   </si>
   <si>
-    <t xml:space="preserve">40.5861587524414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9802017211914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2367858886719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5391883850098</t>
+    <t xml:space="preserve">40.5861549377441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9801979064941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2367820739746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5391845703125</t>
   </si>
   <si>
     <t xml:space="preserve">41.3833999633789</t>
@@ -3425,49 +3425,49 @@
     <t xml:space="preserve">38.4143524169922</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2116012573242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2574157714844</t>
+    <t xml:space="preserve">39.211597442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2574119567871</t>
   </si>
   <si>
     <t xml:space="preserve">39.275749206543</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9721908569336</t>
+    <t xml:space="preserve">39.9721870422363</t>
   </si>
   <si>
     <t xml:space="preserve">40.1554641723633</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0179977416992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0546531677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8805503845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9916725158691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.083309173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.3398933410645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8725395202637</t>
+    <t xml:space="preserve">40.0180053710938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0546607971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8805541992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9916687011719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.0833129882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.3398895263672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8725318908691</t>
   </si>
   <si>
     <t xml:space="preserve">38.9550132751465</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9458465576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6067886352539</t>
+    <t xml:space="preserve">38.9458541870117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6067924499512</t>
   </si>
   <si>
     <t xml:space="preserve">39.1474571228027</t>
@@ -3476,43 +3476,43 @@
     <t xml:space="preserve">39.8438949584961</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3845558166504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2654304504395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.81640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.126823425293</t>
+    <t xml:space="preserve">40.3845520019531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2654266357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8164024353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1268196105957</t>
   </si>
   <si>
     <t xml:space="preserve">41.6033363342285</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7682800292969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4658737182617</t>
+    <t xml:space="preserve">41.7682838439941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4658813476562</t>
   </si>
   <si>
     <t xml:space="preserve">41.5025291442871</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0901641845703</t>
+    <t xml:space="preserve">41.0901679992676</t>
   </si>
   <si>
     <t xml:space="preserve">40.549503326416</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3204078674316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0821533203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.137134552002</t>
+    <t xml:space="preserve">40.3204116821289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.082160949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1371383666992</t>
   </si>
   <si>
     <t xml:space="preserve">38.7809028625488</t>
@@ -3524,13 +3524,13 @@
     <t xml:space="preserve">39.2849082946777</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2207641601562</t>
+    <t xml:space="preserve">39.220760345459</t>
   </si>
   <si>
     <t xml:space="preserve">38.6159591674805</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8908653259277</t>
+    <t xml:space="preserve">38.890869140625</t>
   </si>
   <si>
     <t xml:space="preserve">39.101634979248</t>
@@ -3545,28 +3545,28 @@
     <t xml:space="preserve">39.7247695922852</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0351791381836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3742408752441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6228179931641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3559150695801</t>
+    <t xml:space="preserve">41.0351829528809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3742370605469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6228103637695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3559112548828</t>
   </si>
   <si>
     <t xml:space="preserve">40.8060874938965</t>
   </si>
   <si>
-    <t xml:space="preserve">41.4383811950684</t>
+    <t xml:space="preserve">41.4383888244629</t>
   </si>
   <si>
     <t xml:space="preserve">41.1817970275879</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1726417541504</t>
+    <t xml:space="preserve">41.1726341247559</t>
   </si>
   <si>
     <t xml:space="preserve">40.9985237121582</t>
@@ -3584,7 +3584,7 @@
     <t xml:space="preserve">41.3925628662109</t>
   </si>
   <si>
-    <t xml:space="preserve">41.8232612609863</t>
+    <t xml:space="preserve">41.8232650756836</t>
   </si>
   <si>
     <t xml:space="preserve">42.0340270996094</t>
@@ -3593,13 +3593,13 @@
     <t xml:space="preserve">42.9595680236816</t>
   </si>
   <si>
-    <t xml:space="preserve">42.2997703552246</t>
+    <t xml:space="preserve">42.2997779846191</t>
   </si>
   <si>
     <t xml:space="preserve">42.0798454284668</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6583099365234</t>
+    <t xml:space="preserve">41.6583137512207</t>
   </si>
   <si>
     <t xml:space="preserve">41.5758399963379</t>
@@ -3611,7 +3611,7 @@
     <t xml:space="preserve">41.7316207885742</t>
   </si>
   <si>
-    <t xml:space="preserve">41.8965759277344</t>
+    <t xml:space="preserve">41.8965721130371</t>
   </si>
   <si>
     <t xml:space="preserve">42.0523529052734</t>
@@ -3626,76 +3626,76 @@
     <t xml:space="preserve">43.0878562927246</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6480026245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.5746841430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3089408874512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1989707946777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9057312011719</t>
+    <t xml:space="preserve">42.6479988098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5746917724609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3089332580566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.198974609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9057350158691</t>
   </si>
   <si>
     <t xml:space="preserve">42.0065422058105</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9698829650879</t>
+    <t xml:space="preserve">41.9698753356934</t>
   </si>
   <si>
     <t xml:space="preserve">42.0248641967773</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2551116943359</t>
+    <t xml:space="preserve">41.2551078796387</t>
   </si>
   <si>
     <t xml:space="preserve">41.0535125732422</t>
   </si>
   <si>
-    <t xml:space="preserve">40.1188049316406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0363349914551</t>
+    <t xml:space="preserve">40.1188087463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0363273620605</t>
   </si>
   <si>
     <t xml:space="preserve">40.3753967285156</t>
   </si>
   <si>
-    <t xml:space="preserve">40.5036849975586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2092895507812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5300178527832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8690757751465</t>
+    <t xml:space="preserve">40.5036811828613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2092971801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5300216674805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8690795898438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6021842956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6949157714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.9545707702637</t>
   </si>
   <si>
     <t xml:space="preserve">42.602180480957</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6949157714844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.9545669555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6021842956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0272216796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.463077545166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1848793029785</t>
+    <t xml:space="preserve">42.0272254943848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.4630737304688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1848754882812</t>
   </si>
   <si>
     <t xml:space="preserve">42.1477813720703</t>
@@ -3704,7 +3704,7 @@
     <t xml:space="preserve">41.9437675476074</t>
   </si>
   <si>
-    <t xml:space="preserve">42.4167098999023</t>
+    <t xml:space="preserve">42.4167137145996</t>
   </si>
   <si>
     <t xml:space="preserve">42.7690963745117</t>
@@ -3713,13 +3713,13 @@
     <t xml:space="preserve">43.5480728149414</t>
   </si>
   <si>
-    <t xml:space="preserve">43.9004592895508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.3270416259766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.928279876709</t>
+    <t xml:space="preserve">43.9004554748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.327033996582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.9282760620117</t>
   </si>
   <si>
     <t xml:space="preserve">44.1508445739746</t>
@@ -3728,10 +3728,10 @@
     <t xml:space="preserve">44.2435760498047</t>
   </si>
   <si>
-    <t xml:space="preserve">44.4846878051758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.8927192687988</t>
+    <t xml:space="preserve">44.484691619873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.8927230834961</t>
   </si>
   <si>
     <t xml:space="preserve">44.9761810302734</t>
@@ -3740,28 +3740,28 @@
     <t xml:space="preserve">44.6701545715332</t>
   </si>
   <si>
-    <t xml:space="preserve">44.5866966247559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1044769287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.7443466186523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.7628898620605</t>
+    <t xml:space="preserve">44.5866928100586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1044807434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.7443389892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.7628936767578</t>
   </si>
   <si>
     <t xml:space="preserve">44.9112701416016</t>
   </si>
   <si>
-    <t xml:space="preserve">44.9019927978516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.6979713439941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.1987457275391</t>
+    <t xml:space="preserve">44.901985168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.6979789733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.1987419128418</t>
   </si>
   <si>
     <t xml:space="preserve">45.1338233947754</t>
@@ -3770,16 +3770,16 @@
     <t xml:space="preserve">45.1152801513672</t>
   </si>
   <si>
-    <t xml:space="preserve">46.4599227905273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.9807739257812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.552661895752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.7782897949219</t>
+    <t xml:space="preserve">46.4599266052246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.9807777404785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.5526657104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.7782859802246</t>
   </si>
   <si>
     <t xml:space="preserve">48.0178680419922</t>
@@ -3788,40 +3788,40 @@
     <t xml:space="preserve">47.6283798217773</t>
   </si>
   <si>
-    <t xml:space="preserve">46.8494148254395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8679580688477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.3301010131836</t>
+    <t xml:space="preserve">46.8494186401367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8679618835449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.3300971984863</t>
   </si>
   <si>
     <t xml:space="preserve">46.1724510192871</t>
   </si>
   <si>
-    <t xml:space="preserve">46.9421463012695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.0534286499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.5171012878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.0163383483887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.2945404052734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.2218780517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.7396621704102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.388801574707</t>
+    <t xml:space="preserve">46.9421501159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.0534324645996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.5171051025391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.0163345336914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.2945365905762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.2218856811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.7396659851074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.3887977600098</t>
   </si>
   <si>
     <t xml:space="preserve">48.8339309692383</t>
@@ -3830,73 +3830,73 @@
     <t xml:space="preserve">49.4274291992188</t>
   </si>
   <si>
-    <t xml:space="preserve">49.9838371276855</t>
+    <t xml:space="preserve">49.9838333129883</t>
   </si>
   <si>
     <t xml:space="preserve">49.8911056518555</t>
   </si>
   <si>
-    <t xml:space="preserve">50.9482688903809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.9111747741699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0981788635254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.3392868041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.7102241516113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.0069770812988</t>
+    <t xml:space="preserve">50.9482727050781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.9111824035645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.0981826782227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.3392906188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.7102279663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.0069808959961</t>
   </si>
   <si>
     <t xml:space="preserve">52.4320297241211</t>
   </si>
   <si>
-    <t xml:space="preserve">52.7287750244141</t>
+    <t xml:space="preserve">52.7287712097168</t>
   </si>
   <si>
     <t xml:space="preserve">52.9142456054688</t>
   </si>
   <si>
-    <t xml:space="preserve">53.2666282653809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.598949432373</t>
+    <t xml:space="preserve">53.2666320800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.5989456176758</t>
   </si>
   <si>
     <t xml:space="preserve">51.8941650390625</t>
   </si>
   <si>
-    <t xml:space="preserve">51.4675827026367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0610847473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.8014297485352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.5232353210449</t>
+    <t xml:space="preserve">51.467586517334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.0610809326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.8014259338379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.5232315063477</t>
   </si>
   <si>
     <t xml:space="preserve">51.6530570983887</t>
   </si>
   <si>
-    <t xml:space="preserve">51.430492401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.8570671081543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.6886138916016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.9467430114746</t>
+    <t xml:space="preserve">51.4304962158203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.8570709228516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.6886177062988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.9467468261719</t>
   </si>
   <si>
     <t xml:space="preserve">49.0564880371094</t>
@@ -3905,28 +3905,28 @@
     <t xml:space="preserve">48.7411956787109</t>
   </si>
   <si>
-    <t xml:space="preserve">48.6670074462891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.3872756958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.0920562744141</t>
+    <t xml:space="preserve">48.6670112609863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.3872680664062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.0920600891113</t>
   </si>
   <si>
     <t xml:space="preserve">46.9236030578613</t>
   </si>
   <si>
-    <t xml:space="preserve">46.3857421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.3501815795898</t>
+    <t xml:space="preserve">46.3857383728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.3501777648926</t>
   </si>
   <si>
     <t xml:space="preserve">46.9050559997559</t>
   </si>
   <si>
-    <t xml:space="preserve">47.4614601135254</t>
+    <t xml:space="preserve">47.4614639282227</t>
   </si>
   <si>
     <t xml:space="preserve">47.1647148132324</t>
@@ -3953,13 +3953,13 @@
     <t xml:space="preserve">45.4120292663574</t>
   </si>
   <si>
-    <t xml:space="preserve">45.3378448486328</t>
+    <t xml:space="preserve">45.3378410339355</t>
   </si>
   <si>
     <t xml:space="preserve">45.8200645446777</t>
   </si>
   <si>
-    <t xml:space="preserve">45.959171295166</t>
+    <t xml:space="preserve">45.9591598510742</t>
   </si>
   <si>
     <t xml:space="preserve">47.1461639404297</t>
@@ -3968,16 +3968,16 @@
     <t xml:space="preserve">47.4243659973145</t>
   </si>
   <si>
-    <t xml:space="preserve">47.368724822998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.6654777526855</t>
+    <t xml:space="preserve">47.3687286376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.6654815673828</t>
   </si>
   <si>
     <t xml:space="preserve">47.9436836242676</t>
   </si>
   <si>
-    <t xml:space="preserve">48.2589797973633</t>
+    <t xml:space="preserve">48.258975982666</t>
   </si>
   <si>
     <t xml:space="preserve">48.889575958252</t>
@@ -3989,52 +3989,52 @@
     <t xml:space="preserve">49.0193977355957</t>
   </si>
   <si>
-    <t xml:space="preserve">50.1878547668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.0781059265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.2280082702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.3949356079102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.2465553283691</t>
+    <t xml:space="preserve">50.1878509521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.0781021118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.2280044555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.3949317932129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.2465591430664</t>
   </si>
   <si>
     <t xml:space="preserve">51.9312553405762</t>
   </si>
   <si>
-    <t xml:space="preserve">52.1352806091309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.3578414916992</t>
+    <t xml:space="preserve">52.1352729797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.3578338623047</t>
   </si>
   <si>
     <t xml:space="preserve">53.025520324707</t>
   </si>
   <si>
-    <t xml:space="preserve">52.5804023742676</t>
+    <t xml:space="preserve">52.5804061889648</t>
   </si>
   <si>
     <t xml:space="preserve">52.0239868164062</t>
   </si>
   <si>
-    <t xml:space="preserve">51.0410079956055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.4134788513184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.6849555969238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.8611717224121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0296745300293</t>
+    <t xml:space="preserve">51.0410118103027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.4134750366211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.6849517822266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.8611679077148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.029670715332</t>
   </si>
   <si>
     <t xml:space="preserve">52.4228401184082</t>
@@ -4043,22 +4043,22 @@
     <t xml:space="preserve">51.2620506286621</t>
   </si>
   <si>
-    <t xml:space="preserve">51.449275970459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.8986129760742</t>
+    <t xml:space="preserve">51.4492721557617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.898609161377</t>
   </si>
   <si>
     <t xml:space="preserve">51.505443572998</t>
   </si>
   <si>
-    <t xml:space="preserve">50.2884826660156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.0263671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.3820953369141</t>
+    <t xml:space="preserve">50.2884864807129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.0263633728027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.3820915222168</t>
   </si>
   <si>
     <t xml:space="preserve">51.730110168457</t>
@@ -4070,7 +4070,7 @@
     <t xml:space="preserve">50.4757041931152</t>
   </si>
   <si>
-    <t xml:space="preserve">50.1387062072754</t>
+    <t xml:space="preserve">50.1387023925781</t>
   </si>
   <si>
     <t xml:space="preserve">50.8688774108887</t>
@@ -4079,7 +4079,7 @@
     <t xml:space="preserve">50.0450859069824</t>
   </si>
   <si>
-    <t xml:space="preserve">51.3556594848633</t>
+    <t xml:space="preserve">51.355655670166</t>
   </si>
   <si>
     <t xml:space="preserve">51.6552200317383</t>
@@ -4088,10 +4088,10 @@
     <t xml:space="preserve">51.973503112793</t>
   </si>
   <si>
-    <t xml:space="preserve">52.0109519958496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.9096260070801</t>
+    <t xml:space="preserve">52.0109481811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.9096298217773</t>
   </si>
   <si>
     <t xml:space="preserve">52.198169708252</t>
@@ -4100,58 +4100,58 @@
     <t xml:space="preserve">52.3666687011719</t>
   </si>
   <si>
-    <t xml:space="preserve">52.7598419189453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.928352355957</t>
+    <t xml:space="preserve">52.7598457336426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.9283485412598</t>
   </si>
   <si>
     <t xml:space="preserve">52.8909034729004</t>
   </si>
   <si>
-    <t xml:space="preserve">51.9922256469727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.1309928894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.1684341430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.8875961303711</t>
+    <t xml:space="preserve">51.9922218322754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.130989074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.1684417724609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.8876037597656</t>
   </si>
   <si>
     <t xml:space="preserve">50.6254844665527</t>
   </si>
   <si>
-    <t xml:space="preserve">50.9999351501465</t>
+    <t xml:space="preserve">50.9999389648438</t>
   </si>
   <si>
     <t xml:space="preserve">51.4118232727051</t>
   </si>
   <si>
-    <t xml:space="preserve">50.1574287414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.8843002319336</t>
+    <t xml:space="preserve">50.1574249267578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.8842964172363</t>
   </si>
   <si>
     <t xml:space="preserve">47.9294548034668</t>
   </si>
   <si>
-    <t xml:space="preserve">48.6783447265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.2102928161621</t>
+    <t xml:space="preserve">48.6783485412598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.2102890014648</t>
   </si>
   <si>
     <t xml:space="preserve">47.2928924560547</t>
   </si>
   <si>
-    <t xml:space="preserve">46.7593002319336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.3193206787109</t>
+    <t xml:space="preserve">46.7593040466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.3193244934082</t>
   </si>
   <si>
     <t xml:space="preserve">46.3474044799805</t>
@@ -4166,7 +4166,7 @@
     <t xml:space="preserve">46.7686614990234</t>
   </si>
   <si>
-    <t xml:space="preserve">45.4393730163574</t>
+    <t xml:space="preserve">45.4393692016602</t>
   </si>
   <si>
     <t xml:space="preserve">44.325382232666</t>
@@ -4175,16 +4175,16 @@
     <t xml:space="preserve">43.9134864807129</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1458702087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5764808654785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8743934631348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.4999504089355</t>
+    <t xml:space="preserve">43.145866394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5764846801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.874397277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.4999465942383</t>
   </si>
   <si>
     <t xml:space="preserve">41.919548034668</t>
@@ -4205,64 +4205,64 @@
     <t xml:space="preserve">43.1645927429199</t>
   </si>
   <si>
-    <t xml:space="preserve">43.3330993652344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1552314758301</t>
+    <t xml:space="preserve">43.3330955505371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1552276611328</t>
   </si>
   <si>
     <t xml:space="preserve">40.5808944702148</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7978515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9647026062012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.7290229797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4123916625977</t>
+    <t xml:space="preserve">41.7978553771973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9647064208984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.7290267944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4123954772949</t>
   </si>
   <si>
     <t xml:space="preserve">40.0941123962402</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3639373779297</t>
+    <t xml:space="preserve">39.3639335632324</t>
   </si>
   <si>
     <t xml:space="preserve">39.1767120361328</t>
   </si>
   <si>
-    <t xml:space="preserve">37.7725257873535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4140472412109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2719802856445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7494010925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9382743835449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3672370910645</t>
+    <t xml:space="preserve">37.7725219726562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4140396118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.27197265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.749397277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9382705688477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3672332763672</t>
   </si>
   <si>
     <t xml:space="preserve">42.5280303955078</t>
   </si>
   <si>
-    <t xml:space="preserve">42.7433395385742</t>
+    <t xml:space="preserve">42.7433319091797</t>
   </si>
   <si>
     <t xml:space="preserve">42.7339744567871</t>
   </si>
   <si>
-    <t xml:space="preserve">42.7995071411133</t>
+    <t xml:space="preserve">42.799503326416</t>
   </si>
   <si>
     <t xml:space="preserve">43.2113952636719</t>
@@ -4271,25 +4271,25 @@
     <t xml:space="preserve">42.9399223327637</t>
   </si>
   <si>
-    <t xml:space="preserve">42.5186614990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1348571777344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.9696617126465</t>
+    <t xml:space="preserve">42.5186653137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1348533630371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.969654083252</t>
   </si>
   <si>
     <t xml:space="preserve">43.8854103088379</t>
   </si>
   <si>
-    <t xml:space="preserve">42.7246170043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.2130508422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.7576560974121</t>
+    <t xml:space="preserve">42.7246131896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.2130470275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.7576484680176</t>
   </si>
   <si>
     <t xml:space="preserve">44.7279167175293</t>
@@ -4301,13 +4301,13 @@
     <t xml:space="preserve">46.0665702819824</t>
   </si>
   <si>
-    <t xml:space="preserve">45.5142631530762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.6343078613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.0368423461914</t>
+    <t xml:space="preserve">45.5142593383789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.6343040466309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.0368347167969</t>
   </si>
   <si>
     <t xml:space="preserve">45.1117248535156</t>
@@ -4319,7 +4319,7 @@
     <t xml:space="preserve">45.5891494750977</t>
   </si>
   <si>
-    <t xml:space="preserve">44.8215293884277</t>
+    <t xml:space="preserve">44.821533203125</t>
   </si>
   <si>
     <t xml:space="preserve">43.3050079345703</t>
@@ -4328,7 +4328,7 @@
     <t xml:space="preserve">42.7526931762695</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0786933898926</t>
+    <t xml:space="preserve">42.0786895751953</t>
   </si>
   <si>
     <t xml:space="preserve">41.8727416992188</t>
@@ -4337,7 +4337,7 @@
     <t xml:space="preserve">43.0522575378418</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6293525695801</t>
+    <t xml:space="preserve">41.6293563842773</t>
   </si>
   <si>
     <t xml:space="preserve">40.6183395385742</t>
@@ -4352,46 +4352,46 @@
     <t xml:space="preserve">38.7929000854492</t>
   </si>
   <si>
-    <t xml:space="preserve">39.7009429931641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.326488494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.3512725830078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.699291229248</t>
+    <t xml:space="preserve">39.7009391784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.3264923095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.3512763977051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6992874145508</t>
   </si>
   <si>
     <t xml:space="preserve">39.1579895019531</t>
   </si>
   <si>
-    <t xml:space="preserve">39.195426940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7180099487305</t>
+    <t xml:space="preserve">39.1954307556152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7180137634277</t>
   </si>
   <si>
     <t xml:space="preserve">38.8584289550781</t>
   </si>
   <si>
-    <t xml:space="preserve">39.8413581848145</t>
+    <t xml:space="preserve">39.8413619995117</t>
   </si>
   <si>
     <t xml:space="preserve">40.1639633178711</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3764305114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2625732421875</t>
+    <t xml:space="preserve">39.3764343261719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2625694274902</t>
   </si>
   <si>
     <t xml:space="preserve">39.6705703735352</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9362411499023</t>
+    <t xml:space="preserve">39.9362449645996</t>
   </si>
   <si>
     <t xml:space="preserve">40.6004219055176</t>
@@ -4412,7 +4412,7 @@
     <t xml:space="preserve">37.8013763427734</t>
   </si>
   <si>
-    <t xml:space="preserve">37.2320823669434</t>
+    <t xml:space="preserve">37.2320785522461</t>
   </si>
   <si>
     <t xml:space="preserve">37.4408187866211</t>
@@ -4424,7 +4424,7 @@
     <t xml:space="preserve">35.1351623535156</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6475296020508</t>
+    <t xml:space="preserve">35.647533416748</t>
   </si>
   <si>
     <t xml:space="preserve">35.6570205688477</t>
@@ -4436,19 +4436,19 @@
     <t xml:space="preserve">35.7898559570312</t>
   </si>
   <si>
-    <t xml:space="preserve">37.0233383178711</t>
+    <t xml:space="preserve">37.0233345031738</t>
   </si>
   <si>
     <t xml:space="preserve">37.4218406677246</t>
   </si>
   <si>
-    <t xml:space="preserve">36.1504135131836</t>
+    <t xml:space="preserve">36.1504096984863</t>
   </si>
   <si>
     <t xml:space="preserve">35.5905990600586</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8999862670898</t>
+    <t xml:space="preserve">36.8999824523926</t>
   </si>
   <si>
     <t xml:space="preserve">39.7180137634277</t>
@@ -4457,7 +4457,7 @@
     <t xml:space="preserve">39.0063896179199</t>
   </si>
   <si>
-    <t xml:space="preserve">39.0728073120117</t>
+    <t xml:space="preserve">39.072811126709</t>
   </si>
   <si>
     <t xml:space="preserve">39.3479690551758</t>
@@ -4472,7 +4472,7 @@
     <t xml:space="preserve">40.8186569213867</t>
   </si>
   <si>
-    <t xml:space="preserve">40.714282989502</t>
+    <t xml:space="preserve">40.7142791748047</t>
   </si>
   <si>
     <t xml:space="preserve">41.0273971557617</t>
@@ -4487,7 +4487,7 @@
     <t xml:space="preserve">41.568229675293</t>
   </si>
   <si>
-    <t xml:space="preserve">40.9799575805664</t>
+    <t xml:space="preserve">40.9799537658691</t>
   </si>
   <si>
     <t xml:space="preserve">40.7996788024902</t>
@@ -4496,7 +4496,7 @@
     <t xml:space="preserve">40.0026626586914</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7806968688965</t>
+    <t xml:space="preserve">40.7807006835938</t>
   </si>
   <si>
     <t xml:space="preserve">40.9420051574707</t>
@@ -4511,34 +4511,34 @@
     <t xml:space="preserve">40.7047958374023</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6573524475098</t>
+    <t xml:space="preserve">40.6573486328125</t>
   </si>
   <si>
     <t xml:space="preserve">40.2967987060547</t>
   </si>
   <si>
-    <t xml:space="preserve">40.031120300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.5662002563477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0179100036621</t>
+    <t xml:space="preserve">40.0311241149902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.5661964416504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0179061889648</t>
   </si>
   <si>
     <t xml:space="preserve">40.4960517883301</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1222801208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3120422363281</t>
+    <t xml:space="preserve">41.1222763061523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3120460510254</t>
   </si>
   <si>
     <t xml:space="preserve">40.2019119262695</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0880508422852</t>
+    <t xml:space="preserve">40.0880546569824</t>
   </si>
   <si>
     <t xml:space="preserve">39.5377349853516</t>
@@ -4550,10 +4550,10 @@
     <t xml:space="preserve">40.6478652954102</t>
   </si>
   <si>
-    <t xml:space="preserve">40.1070289611816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1354904174805</t>
+    <t xml:space="preserve">40.1070327758789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1354942321777</t>
   </si>
   <si>
     <t xml:space="preserve">39.9077796936035</t>
@@ -4562,7 +4562,7 @@
     <t xml:space="preserve">40.2398681640625</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0748405456543</t>
+    <t xml:space="preserve">41.074836730957</t>
   </si>
   <si>
     <t xml:space="preserve">41.7579917907715</t>
@@ -4595,16 +4595,16 @@
     <t xml:space="preserve">39.2720603942871</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1619338989258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7976455688477</t>
+    <t xml:space="preserve">38.1619300842285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7976417541504</t>
   </si>
   <si>
     <t xml:space="preserve">38.4181137084961</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8925323486328</t>
+    <t xml:space="preserve">38.8925285339355</t>
   </si>
   <si>
     <t xml:space="preserve">38.550952911377</t>
@@ -4613,7 +4613,7 @@
     <t xml:space="preserve">39.0253677368164</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4560699462891</t>
+    <t xml:space="preserve">38.4560661315918</t>
   </si>
   <si>
     <t xml:space="preserve">38.0480690002441</t>
@@ -4622,10 +4622,10 @@
     <t xml:space="preserve">38.1050033569336</t>
   </si>
   <si>
-    <t xml:space="preserve">37.7254638671875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5546836853027</t>
+    <t xml:space="preserve">37.7254676818848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5546798706055</t>
   </si>
   <si>
     <t xml:space="preserve">37.0043601989746</t>
@@ -4637,7 +4637,7 @@
     <t xml:space="preserve">35.2015800476074</t>
   </si>
   <si>
-    <t xml:space="preserve">34.584846496582</t>
+    <t xml:space="preserve">34.5848426818848</t>
   </si>
   <si>
     <t xml:space="preserve">35.3913497924805</t>
@@ -4649,34 +4649,34 @@
     <t xml:space="preserve">35.7613906860352</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4919853210449</t>
+    <t xml:space="preserve">36.4919891357422</t>
   </si>
   <si>
     <t xml:space="preserve">34.2527503967285</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4936866760254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5506172180176</t>
+    <t xml:space="preserve">33.4936904907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5506210327148</t>
   </si>
   <si>
     <t xml:space="preserve">33.9965705871582</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7119140625</t>
+    <t xml:space="preserve">33.7119178771973</t>
   </si>
   <si>
     <t xml:space="preserve">33.626522064209</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6987037658691</t>
+    <t xml:space="preserve">34.6986999511719</t>
   </si>
   <si>
     <t xml:space="preserve">34.9169311523438</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9359092712402</t>
+    <t xml:space="preserve">34.935905456543</t>
   </si>
   <si>
     <t xml:space="preserve">34.1104278564453</t>
@@ -4691,22 +4691,22 @@
     <t xml:space="preserve">34.7935829162598</t>
   </si>
   <si>
-    <t xml:space="preserve">35.9891128540039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0555305480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7708778381348</t>
+    <t xml:space="preserve">35.9891090393066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0555267333984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.770881652832</t>
   </si>
   <si>
     <t xml:space="preserve">36.4065933227539</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0839920043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1314392089844</t>
+    <t xml:space="preserve">36.0839881896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1314353942871</t>
   </si>
   <si>
     <t xml:space="preserve">36.5014762878418</t>
@@ -4715,10 +4715,10 @@
     <t xml:space="preserve">35.9226913452148</t>
   </si>
   <si>
-    <t xml:space="preserve">36.5109634399414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9321746826172</t>
+    <t xml:space="preserve">36.5109672546387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9321784973145</t>
   </si>
   <si>
     <t xml:space="preserve">36.4825019836426</t>
@@ -4730,7 +4730,7 @@
     <t xml:space="preserve">39.4048957824707</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6648063659668</t>
+    <t xml:space="preserve">38.6648101806641</t>
   </si>
   <si>
     <t xml:space="preserve">38.2188568115234</t>
@@ -4742,7 +4742,7 @@
     <t xml:space="preserve">37.3079795837402</t>
   </si>
   <si>
-    <t xml:space="preserve">37.1941223144531</t>
+    <t xml:space="preserve">37.1941261291504</t>
   </si>
   <si>
     <t xml:space="preserve">37.4692878723145</t>
@@ -4766,88 +4766,88 @@
     <t xml:space="preserve">38.6720733642578</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4988708496094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.1050758361816</t>
+    <t xml:space="preserve">38.4988670349121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.1050796508789</t>
   </si>
   <si>
     <t xml:space="preserve">40.0288200378418</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9229736328125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8363761901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8933868408203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9703636169434</t>
+    <t xml:space="preserve">39.922981262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8363723754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.893383026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9703674316406</t>
   </si>
   <si>
     <t xml:space="preserve">39.2975234985352</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3078651428223</t>
+    <t xml:space="preserve">40.3078689575195</t>
   </si>
   <si>
     <t xml:space="preserve">40.2982444763184</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0576858520508</t>
+    <t xml:space="preserve">40.057689666748</t>
   </si>
   <si>
     <t xml:space="preserve">38.9222564697266</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1043586730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.738712310791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.0170402526855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7002182006836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2672157287598</t>
+    <t xml:space="preserve">38.1043548583984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.7387084960938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0170364379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.7002220153809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.267219543457</t>
   </si>
   <si>
     <t xml:space="preserve">37.6424865722656</t>
   </si>
   <si>
-    <t xml:space="preserve">37.1709938049316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5751266479492</t>
+    <t xml:space="preserve">37.1709899902344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5751304626465</t>
   </si>
   <si>
     <t xml:space="preserve">38.1717109680176</t>
   </si>
   <si>
-    <t xml:space="preserve">37.2864608764648</t>
+    <t xml:space="preserve">37.2864570617676</t>
   </si>
   <si>
     <t xml:space="preserve">37.353816986084</t>
   </si>
   <si>
-    <t xml:space="preserve">37.4500350952148</t>
+    <t xml:space="preserve">37.4500389099121</t>
   </si>
   <si>
     <t xml:space="preserve">36.9496803283691</t>
   </si>
   <si>
-    <t xml:space="preserve">37.219108581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.8541793823242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5655059814453</t>
+    <t xml:space="preserve">37.2191047668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.854175567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5655097961426</t>
   </si>
   <si>
     <t xml:space="preserve">37.3345718383789</t>
@@ -4859,43 +4859,43 @@
     <t xml:space="preserve">38.6528282165527</t>
   </si>
   <si>
-    <t xml:space="preserve">38.5662269592285</t>
+    <t xml:space="preserve">38.5662307739258</t>
   </si>
   <si>
     <t xml:space="preserve">40.2693748474121</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6446533203125</t>
+    <t xml:space="preserve">40.6446495056152</t>
   </si>
   <si>
     <t xml:space="preserve">39.8652420043945</t>
   </si>
   <si>
-    <t xml:space="preserve">39.7497711181641</t>
+    <t xml:space="preserve">39.7497749328613</t>
   </si>
   <si>
     <t xml:space="preserve">39.4707260131836</t>
   </si>
   <si>
-    <t xml:space="preserve">39.0377197265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2205429077148</t>
+    <t xml:space="preserve">39.0377235412598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2205467224121</t>
   </si>
   <si>
     <t xml:space="preserve">39.6920394897461</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6143417358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6328620910645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4700050354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.739429473877</t>
+    <t xml:space="preserve">38.6143379211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6328659057617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.4700088500977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7394256591797</t>
   </si>
   <si>
     <t xml:space="preserve">39.0858306884766</t>
@@ -4907,13 +4907,13 @@
     <t xml:space="preserve">39.70166015625</t>
   </si>
   <si>
-    <t xml:space="preserve">39.5380783081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7298049926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2109260559082</t>
+    <t xml:space="preserve">39.5380821228027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.729808807373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2109222412109</t>
   </si>
   <si>
     <t xml:space="preserve">39.4995918273926</t>
@@ -4922,28 +4922,28 @@
     <t xml:space="preserve">39.4226150512695</t>
   </si>
   <si>
-    <t xml:space="preserve">39.8171310424805</t>
+    <t xml:space="preserve">39.8171272277832</t>
   </si>
   <si>
     <t xml:space="preserve">39.5477027893066</t>
   </si>
   <si>
-    <t xml:space="preserve">39.0569686889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.0562477111816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5181121826172</t>
+    <t xml:space="preserve">39.0569648742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.0562438964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5181159973145</t>
   </si>
   <si>
     <t xml:space="preserve">37.9600219726562</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6047210693359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6239624023438</t>
+    <t xml:space="preserve">38.6047172546387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6239585876465</t>
   </si>
   <si>
     <t xml:space="preserve">37.8156852722168</t>
@@ -4955,7 +4955,7 @@
     <t xml:space="preserve">37.796443939209</t>
   </si>
   <si>
-    <t xml:space="preserve">37.2479705810547</t>
+    <t xml:space="preserve">37.247974395752</t>
   </si>
   <si>
     <t xml:space="preserve">37.1806144714355</t>
@@ -4967,7 +4967,7 @@
     <t xml:space="preserve">37.3923072814941</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8342132568359</t>
+    <t xml:space="preserve">36.8342094421387</t>
   </si>
   <si>
     <t xml:space="preserve">37.0843925476074</t>
@@ -4979,19 +4979,19 @@
     <t xml:space="preserve">38.4507598876953</t>
   </si>
   <si>
-    <t xml:space="preserve">37.7579536437988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7771949768066</t>
+    <t xml:space="preserve">37.7579574584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.7771987915039</t>
   </si>
   <si>
     <t xml:space="preserve">37.4885292053223</t>
   </si>
   <si>
-    <t xml:space="preserve">37.5847587585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.8734245300293</t>
+    <t xml:space="preserve">37.5847549438477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.873420715332</t>
   </si>
   <si>
     <t xml:space="preserve">38.344913482666</t>
@@ -5000,7 +5000,7 @@
     <t xml:space="preserve">38.4026489257812</t>
   </si>
   <si>
-    <t xml:space="preserve">38.787540435791</t>
+    <t xml:space="preserve">38.7875442504883</t>
   </si>
   <si>
     <t xml:space="preserve">39.1916770935059</t>
@@ -5009,10 +5009,10 @@
     <t xml:space="preserve">39.2879028320312</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9030075073242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7201843261719</t>
+    <t xml:space="preserve">38.9030113220215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7201881408691</t>
   </si>
   <si>
     <t xml:space="preserve">38.3545379638672</t>
@@ -5024,7 +5024,7 @@
     <t xml:space="preserve">39.1628112792969</t>
   </si>
   <si>
-    <t xml:space="preserve">38.5084953308105</t>
+    <t xml:space="preserve">38.5084915161133</t>
   </si>
   <si>
     <t xml:space="preserve">40.1539077758789</t>
@@ -5036,13 +5036,13 @@
     <t xml:space="preserve">39.5573272705078</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8755836486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4906921386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4137153625488</t>
+    <t xml:space="preserve">40.8755798339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4906883239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4137115478516</t>
   </si>
   <si>
     <t xml:space="preserve">40.663890838623</t>
@@ -5051,76 +5051,79 @@
     <t xml:space="preserve">41.5106544494629</t>
   </si>
   <si>
-    <t xml:space="preserve">42.4247741699219</t>
+    <t xml:space="preserve">42.4247779846191</t>
   </si>
   <si>
     <t xml:space="preserve">44.1664161682129</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8969879150391</t>
+    <t xml:space="preserve">43.8969917297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.300407409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.877025604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.9590721130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.2418937683105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.0618591308594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6230049133301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1008644104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6132469177246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9305877685547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.6140174865723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5059776306152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7790412902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9350776672363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0273361206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5149574279785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.7392578125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.2906494140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.373161315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.866039276123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.8172798156738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.139102935791</t>
   </si>
   <si>
     <t xml:space="preserve">43.3004035949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.877025604248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.9590721130371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2418937683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0618591308594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6230049133301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1008644104004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6132469177246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9305877685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.6140174865723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5059776306152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7790412902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9350776672363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0273361206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5149574279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.7392578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2906494140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.373161315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.866039276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.8172798156738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.139102935791</t>
   </si>
   <si>
     <t xml:space="preserve">42.9688262939453</t>
@@ -55613,7 +55616,7 @@
         <v>44.4000015258789</v>
       </c>
       <c r="G1900" t="s">
-        <v>1682</v>
+        <v>1703</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -55639,7 +55642,7 @@
         <v>44.060001373291</v>
       </c>
       <c r="G1901" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -55665,7 +55668,7 @@
         <v>43.2799987792969</v>
       </c>
       <c r="G1902" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -55691,7 +55694,7 @@
         <v>42.7799987792969</v>
       </c>
       <c r="G1903" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -55743,7 +55746,7 @@
         <v>42.9300003051758</v>
       </c>
       <c r="G1905" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -55769,7 +55772,7 @@
         <v>42.7099990844727</v>
       </c>
       <c r="G1906" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -55795,7 +55798,7 @@
         <v>43.0999984741211</v>
       </c>
       <c r="G1907" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -55821,7 +55824,7 @@
         <v>43.3199996948242</v>
       </c>
       <c r="G1908" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -55847,7 +55850,7 @@
         <v>43.75</v>
       </c>
       <c r="G1909" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -55873,7 +55876,7 @@
         <v>43.3699989318848</v>
       </c>
       <c r="G1910" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -55899,7 +55902,7 @@
         <v>43.5800018310547</v>
       </c>
       <c r="G1911" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -55925,7 +55928,7 @@
         <v>43.689998626709</v>
       </c>
       <c r="G1912" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -55951,7 +55954,7 @@
         <v>42.2200012207031</v>
       </c>
       <c r="G1913" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -55977,7 +55980,7 @@
         <v>41.9599990844727</v>
       </c>
       <c r="G1914" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -56003,7 +56006,7 @@
         <v>42.3199996948242</v>
       </c>
       <c r="G1915" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -56029,7 +56032,7 @@
         <v>42.25</v>
       </c>
       <c r="G1916" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -56055,7 +56058,7 @@
         <v>42.9099998474121</v>
       </c>
       <c r="G1917" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -56081,7 +56084,7 @@
         <v>42.8899993896484</v>
       </c>
       <c r="G1918" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -56107,7 +56110,7 @@
         <v>43.0800018310547</v>
       </c>
       <c r="G1919" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -56133,7 +56136,7 @@
         <v>43.0099983215332</v>
       </c>
       <c r="G1920" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -56159,7 +56162,7 @@
         <v>43.2900009155273</v>
       </c>
       <c r="G1921" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -56185,7 +56188,7 @@
         <v>43.4799995422363</v>
       </c>
       <c r="G1922" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -56211,7 +56214,7 @@
         <v>43.1599998474121</v>
       </c>
       <c r="G1923" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -56237,7 +56240,7 @@
         <v>45.3300018310547</v>
       </c>
       <c r="G1924" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -56263,7 +56266,7 @@
         <v>45.060001373291</v>
       </c>
       <c r="G1925" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -56289,7 +56292,7 @@
         <v>44.4500007629395</v>
       </c>
       <c r="G1926" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -56315,7 +56318,7 @@
         <v>45.2799987792969</v>
       </c>
       <c r="G1927" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -56341,7 +56344,7 @@
         <v>46.4900016784668</v>
       </c>
       <c r="G1928" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -56367,7 +56370,7 @@
         <v>46.810001373291</v>
       </c>
       <c r="G1929" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -56393,7 +56396,7 @@
         <v>46.9500007629395</v>
       </c>
       <c r="G1930" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -56419,7 +56422,7 @@
         <v>45.9799995422363</v>
       </c>
       <c r="G1931" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -56445,7 +56448,7 @@
         <v>45.5999984741211</v>
       </c>
       <c r="G1932" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -56471,7 +56474,7 @@
         <v>44.5800018310547</v>
       </c>
       <c r="G1933" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -56497,7 +56500,7 @@
         <v>43.5099983215332</v>
       </c>
       <c r="G1934" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -56523,7 +56526,7 @@
         <v>43.3199996948242</v>
       </c>
       <c r="G1935" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -56549,7 +56552,7 @@
         <v>44.4000015258789</v>
       </c>
       <c r="G1936" t="s">
-        <v>1682</v>
+        <v>1703</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -56575,7 +56578,7 @@
         <v>44.9500007629395</v>
       </c>
       <c r="G1937" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -56601,7 +56604,7 @@
         <v>45.4599990844727</v>
       </c>
       <c r="G1938" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -56627,7 +56630,7 @@
         <v>45</v>
       </c>
       <c r="G1939" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -56653,7 +56656,7 @@
         <v>45.4500007629395</v>
       </c>
       <c r="G1940" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -56679,7 +56682,7 @@
         <v>45.3600006103516</v>
       </c>
       <c r="G1941" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -56705,7 +56708,7 @@
         <v>44.810001373291</v>
       </c>
       <c r="G1942" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -56731,7 +56734,7 @@
         <v>44.6500015258789</v>
       </c>
       <c r="G1943" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -56757,7 +56760,7 @@
         <v>44.6800003051758</v>
       </c>
       <c r="G1944" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -56783,7 +56786,7 @@
         <v>45.2799987792969</v>
       </c>
       <c r="G1945" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -56809,7 +56812,7 @@
         <v>45.7599983215332</v>
       </c>
       <c r="G1946" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -56835,7 +56838,7 @@
         <v>45.560001373291</v>
       </c>
       <c r="G1947" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -56861,7 +56864,7 @@
         <v>45.8400001525879</v>
       </c>
       <c r="G1948" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -56887,7 +56890,7 @@
         <v>46.189998626709</v>
       </c>
       <c r="G1949" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -56913,7 +56916,7 @@
         <v>46.8899993896484</v>
       </c>
       <c r="G1950" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -56939,7 +56942,7 @@
         <v>46.4700012207031</v>
       </c>
       <c r="G1951" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -56965,7 +56968,7 @@
         <v>46.3800010681152</v>
       </c>
       <c r="G1952" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -56991,7 +56994,7 @@
         <v>45.7900009155273</v>
       </c>
       <c r="G1953" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -57017,7 +57020,7 @@
         <v>45.5699996948242</v>
       </c>
       <c r="G1954" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -57069,7 +57072,7 @@
         <v>44.3600006103516</v>
       </c>
       <c r="G1956" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -57095,7 +57098,7 @@
         <v>45.0099983215332</v>
       </c>
       <c r="G1957" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -57121,7 +57124,7 @@
         <v>45.5900001525879</v>
       </c>
       <c r="G1958" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -57147,7 +57150,7 @@
         <v>45.2200012207031</v>
       </c>
       <c r="G1959" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -57173,7 +57176,7 @@
         <v>45.4700012207031</v>
       </c>
       <c r="G1960" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -57199,7 +57202,7 @@
         <v>45.6399993896484</v>
       </c>
       <c r="G1961" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -57225,7 +57228,7 @@
         <v>46.3499984741211</v>
       </c>
       <c r="G1962" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -57251,7 +57254,7 @@
         <v>46.8199996948242</v>
       </c>
       <c r="G1963" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -57277,7 +57280,7 @@
         <v>46.9300003051758</v>
       </c>
       <c r="G1964" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -57303,7 +57306,7 @@
         <v>46.9799995422363</v>
       </c>
       <c r="G1965" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -57329,7 +57332,7 @@
         <v>47.4000015258789</v>
       </c>
       <c r="G1966" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -57355,7 +57358,7 @@
         <v>44.9000015258789</v>
       </c>
       <c r="G1967" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -57381,7 +57384,7 @@
         <v>45.2999992370605</v>
       </c>
       <c r="G1968" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -57407,7 +57410,7 @@
         <v>44.7900009155273</v>
       </c>
       <c r="G1969" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -57433,7 +57436,7 @@
         <v>44.7799987792969</v>
       </c>
       <c r="G1970" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -57459,7 +57462,7 @@
         <v>44.0299987792969</v>
       </c>
       <c r="G1971" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -57485,7 +57488,7 @@
         <v>44.1500015258789</v>
       </c>
       <c r="G1972" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -57511,7 +57514,7 @@
         <v>44.7099990844727</v>
       </c>
       <c r="G1973" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -57537,7 +57540,7 @@
         <v>44.0699996948242</v>
       </c>
       <c r="G1974" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -57563,7 +57566,7 @@
         <v>43.7400016784668</v>
       </c>
       <c r="G1975" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -57589,7 +57592,7 @@
         <v>44.0200004577637</v>
       </c>
       <c r="G1976" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -57615,7 +57618,7 @@
         <v>44.689998626709</v>
       </c>
       <c r="G1977" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -57641,7 +57644,7 @@
         <v>45.2799987792969</v>
       </c>
       <c r="G1978" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -57667,7 +57670,7 @@
         <v>44.6399993896484</v>
       </c>
       <c r="G1979" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -57693,7 +57696,7 @@
         <v>45.6199989318848</v>
       </c>
       <c r="G1980" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -57745,7 +57748,7 @@
         <v>45.5400009155273</v>
       </c>
       <c r="G1982" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -57797,7 +57800,7 @@
         <v>45.4900016784668</v>
       </c>
       <c r="G1984" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -57823,7 +57826,7 @@
         <v>44.8300018310547</v>
       </c>
       <c r="G1985" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -57849,7 +57852,7 @@
         <v>44.0099983215332</v>
       </c>
       <c r="G1986" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -57901,7 +57904,7 @@
         <v>43.9900016784668</v>
       </c>
       <c r="G1988" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -57927,7 +57930,7 @@
         <v>44.0299987792969</v>
       </c>
       <c r="G1989" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -57953,7 +57956,7 @@
         <v>44.3699989318848</v>
       </c>
       <c r="G1990" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -57979,7 +57982,7 @@
         <v>43.9700012207031</v>
       </c>
       <c r="G1991" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -58005,7 +58008,7 @@
         <v>43.7099990844727</v>
       </c>
       <c r="G1992" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -58031,7 +58034,7 @@
         <v>43.4199981689453</v>
       </c>
       <c r="G1993" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -58057,7 +58060,7 @@
         <v>43.2299995422363</v>
       </c>
       <c r="G1994" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -58083,7 +58086,7 @@
         <v>43.5999984741211</v>
       </c>
       <c r="G1995" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -58109,7 +58112,7 @@
         <v>44.1300010681152</v>
       </c>
       <c r="G1996" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -58135,7 +58138,7 @@
         <v>44.2999992370605</v>
       </c>
       <c r="G1997" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -58161,7 +58164,7 @@
         <v>43.9500007629395</v>
       </c>
       <c r="G1998" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -58187,7 +58190,7 @@
         <v>44.0999984741211</v>
       </c>
       <c r="G1999" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -58213,7 +58216,7 @@
         <v>45.0099983215332</v>
       </c>
       <c r="G2000" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -58239,7 +58242,7 @@
         <v>43.7999992370605</v>
       </c>
       <c r="G2001" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -58265,7 +58268,7 @@
         <v>44.7599983215332</v>
       </c>
       <c r="G2002" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -58291,7 +58294,7 @@
         <v>44.2599983215332</v>
       </c>
       <c r="G2003" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -58317,7 +58320,7 @@
         <v>44.9099998474121</v>
       </c>
       <c r="G2004" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -58343,7 +58346,7 @@
         <v>45.8499984741211</v>
       </c>
       <c r="G2005" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -58395,7 +58398,7 @@
         <v>44.5400009155273</v>
       </c>
       <c r="G2007" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -58421,7 +58424,7 @@
         <v>45.1800003051758</v>
       </c>
       <c r="G2008" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -58447,7 +58450,7 @@
         <v>44.6199989318848</v>
       </c>
       <c r="G2009" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -58473,7 +58476,7 @@
         <v>44.8800010681152</v>
       </c>
       <c r="G2010" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -58499,7 +58502,7 @@
         <v>44.3899993896484</v>
       </c>
       <c r="G2011" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -58525,7 +58528,7 @@
         <v>44.5499992370605</v>
       </c>
       <c r="G2012" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -58551,7 +58554,7 @@
         <v>44.6100006103516</v>
       </c>
       <c r="G2013" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -58577,7 +58580,7 @@
         <v>44.4199981689453</v>
       </c>
       <c r="G2014" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -58603,7 +58606,7 @@
         <v>44.3699989318848</v>
       </c>
       <c r="G2015" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -58629,7 +58632,7 @@
         <v>44.3199996948242</v>
       </c>
       <c r="G2016" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -58655,7 +58658,7 @@
         <v>44.1699981689453</v>
       </c>
       <c r="G2017" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -58681,7 +58684,7 @@
         <v>44.189998626709</v>
       </c>
       <c r="G2018" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -58707,7 +58710,7 @@
         <v>45.2200012207031</v>
       </c>
       <c r="G2019" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -58733,7 +58736,7 @@
         <v>45.9000015258789</v>
       </c>
       <c r="G2020" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -58759,7 +58762,7 @@
         <v>46.2400016784668</v>
       </c>
       <c r="G2021" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -58785,7 +58788,7 @@
         <v>45.6599998474121</v>
       </c>
       <c r="G2022" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -58811,7 +58814,7 @@
         <v>46.7000007629395</v>
       </c>
       <c r="G2023" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -58837,7 +58840,7 @@
         <v>46.6500015258789</v>
       </c>
       <c r="G2024" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -58863,7 +58866,7 @@
         <v>47.2200012207031</v>
       </c>
       <c r="G2025" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -58889,7 +58892,7 @@
         <v>47.0099983215332</v>
       </c>
       <c r="G2026" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -58915,7 +58918,7 @@
         <v>47.3300018310547</v>
       </c>
       <c r="G2027" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -58941,7 +58944,7 @@
         <v>47.8800010681152</v>
       </c>
       <c r="G2028" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -58967,7 +58970,7 @@
         <v>47.8699989318848</v>
       </c>
       <c r="G2029" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -58993,7 +58996,7 @@
         <v>47.9900016784668</v>
       </c>
       <c r="G2030" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -59019,7 +59022,7 @@
         <v>47.5900001525879</v>
       </c>
       <c r="G2031" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -59045,7 +59048,7 @@
         <v>48.1300010681152</v>
       </c>
       <c r="G2032" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -59071,7 +59074,7 @@
         <v>48.2200012207031</v>
       </c>
       <c r="G2033" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -59097,7 +59100,7 @@
         <v>48.3300018310547</v>
       </c>
       <c r="G2034" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -59123,7 +59126,7 @@
         <v>48.439998626709</v>
       </c>
       <c r="G2035" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -59149,7 +59152,7 @@
         <v>48.8300018310547</v>
       </c>
       <c r="G2036" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -59175,7 +59178,7 @@
         <v>49</v>
       </c>
       <c r="G2037" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -59201,7 +59204,7 @@
         <v>48.0200004577637</v>
       </c>
       <c r="G2038" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -59227,7 +59230,7 @@
         <v>48.5200004577637</v>
       </c>
       <c r="G2039" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -59253,7 +59256,7 @@
         <v>47.8199996948242</v>
       </c>
       <c r="G2040" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -59279,7 +59282,7 @@
         <v>48.2000007629395</v>
       </c>
       <c r="G2041" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -59305,7 +59308,7 @@
         <v>48.9199981689453</v>
       </c>
       <c r="G2042" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -59331,7 +59334,7 @@
         <v>49.0999984741211</v>
       </c>
       <c r="G2043" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -59357,7 +59360,7 @@
         <v>49.2200012207031</v>
       </c>
       <c r="G2044" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -59383,7 +59386,7 @@
         <v>50.9599990844727</v>
       </c>
       <c r="G2045" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -59409,7 +59412,7 @@
         <v>49.9900016784668</v>
       </c>
       <c r="G2046" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -59435,7 +59438,7 @@
         <v>50.2599983215332</v>
       </c>
       <c r="G2047" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -59461,7 +59464,7 @@
         <v>50.5</v>
       </c>
       <c r="G2048" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -59487,7 +59490,7 @@
         <v>49.7900009155273</v>
       </c>
       <c r="G2049" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -59513,7 +59516,7 @@
         <v>49.7599983215332</v>
       </c>
       <c r="G2050" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -59539,7 +59542,7 @@
         <v>49.5699996948242</v>
       </c>
       <c r="G2051" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -59565,7 +59568,7 @@
         <v>49.7200012207031</v>
       </c>
       <c r="G2052" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -59591,7 +59594,7 @@
         <v>49.939998626709</v>
       </c>
       <c r="G2053" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -59617,7 +59620,7 @@
         <v>49.9799995422363</v>
       </c>
       <c r="G2054" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -59643,7 +59646,7 @@
         <v>50.9000015258789</v>
       </c>
       <c r="G2055" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -59669,7 +59672,7 @@
         <v>50.6399993896484</v>
       </c>
       <c r="G2056" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -59695,7 +59698,7 @@
         <v>50.7999992370605</v>
       </c>
       <c r="G2057" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -59721,7 +59724,7 @@
         <v>51.2999992370605</v>
       </c>
       <c r="G2058" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -59747,7 +59750,7 @@
         <v>50.9599990844727</v>
       </c>
       <c r="G2059" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -59773,7 +59776,7 @@
         <v>50.7000007629395</v>
       </c>
       <c r="G2060" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -59799,7 +59802,7 @@
         <v>50.8199996948242</v>
       </c>
       <c r="G2061" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -59825,7 +59828,7 @@
         <v>51.0999984741211</v>
       </c>
       <c r="G2062" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -59851,7 +59854,7 @@
         <v>50.439998626709</v>
       </c>
       <c r="G2063" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -59877,7 +59880,7 @@
         <v>50.4599990844727</v>
       </c>
       <c r="G2064" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -59903,7 +59906,7 @@
         <v>50.560001373291</v>
       </c>
       <c r="G2065" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -59929,7 +59932,7 @@
         <v>50.7000007629395</v>
       </c>
       <c r="G2066" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -59955,7 +59958,7 @@
         <v>50.3800010681152</v>
       </c>
       <c r="G2067" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -59981,7 +59984,7 @@
         <v>50.4799995422363</v>
       </c>
       <c r="G2068" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -60007,7 +60010,7 @@
         <v>50.7000007629395</v>
       </c>
       <c r="G2069" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -60033,7 +60036,7 @@
         <v>51.0200004577637</v>
       </c>
       <c r="G2070" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -60059,7 +60062,7 @@
         <v>51.2400016784668</v>
       </c>
       <c r="G2071" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -60085,7 +60088,7 @@
         <v>52.1199989318848</v>
       </c>
       <c r="G2072" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -60111,7 +60114,7 @@
         <v>52.0800018310547</v>
       </c>
       <c r="G2073" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -60137,7 +60140,7 @@
         <v>51.6800003051758</v>
       </c>
       <c r="G2074" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -60163,7 +60166,7 @@
         <v>52.8800010681152</v>
       </c>
       <c r="G2075" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -60189,7 +60192,7 @@
         <v>51.6599998474121</v>
       </c>
       <c r="G2076" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -60215,7 +60218,7 @@
         <v>50.9799995422363</v>
       </c>
       <c r="G2077" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -60241,7 +60244,7 @@
         <v>50.7200012207031</v>
       </c>
       <c r="G2078" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -60267,7 +60270,7 @@
         <v>51.7599983215332</v>
       </c>
       <c r="G2079" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -60293,7 +60296,7 @@
         <v>51.9599990844727</v>
       </c>
       <c r="G2080" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -60319,7 +60322,7 @@
         <v>51.7200012207031</v>
       </c>
       <c r="G2081" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -60345,7 +60348,7 @@
         <v>51.7200012207031</v>
       </c>
       <c r="G2082" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -60371,7 +60374,7 @@
         <v>51.9599990844727</v>
       </c>
       <c r="G2083" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -60397,7 +60400,7 @@
         <v>52.5800018310547</v>
       </c>
       <c r="G2084" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -60423,7 +60426,7 @@
         <v>52.8600006103516</v>
       </c>
       <c r="G2085" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -60449,7 +60452,7 @@
         <v>52.7400016784668</v>
       </c>
       <c r="G2086" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -60475,7 +60478,7 @@
         <v>53.0800018310547</v>
       </c>
       <c r="G2087" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -60501,7 +60504,7 @@
         <v>52.8600006103516</v>
       </c>
       <c r="G2088" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -60527,7 +60530,7 @@
         <v>52.7799987792969</v>
       </c>
       <c r="G2089" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -60553,7 +60556,7 @@
         <v>52.8400001525879</v>
       </c>
       <c r="G2090" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -60579,7 +60582,7 @@
         <v>51.8600006103516</v>
       </c>
       <c r="G2091" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -60605,7 +60608,7 @@
         <v>51.2200012207031</v>
       </c>
       <c r="G2092" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -60631,7 +60634,7 @@
         <v>50.8600006103516</v>
       </c>
       <c r="G2093" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -60657,7 +60660,7 @@
         <v>51.3800010681152</v>
       </c>
       <c r="G2094" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -60683,7 +60686,7 @@
         <v>52.3600006103516</v>
       </c>
       <c r="G2095" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -60709,7 +60712,7 @@
         <v>52</v>
       </c>
       <c r="G2096" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -60735,7 +60738,7 @@
         <v>51.4000015258789</v>
       </c>
       <c r="G2097" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -60761,7 +60764,7 @@
         <v>51.7400016784668</v>
       </c>
       <c r="G2098" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -60787,7 +60790,7 @@
         <v>51.2400016784668</v>
       </c>
       <c r="G2099" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -60813,7 +60816,7 @@
         <v>50.75</v>
       </c>
       <c r="G2100" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -60839,7 +60842,7 @@
         <v>50.5499992370605</v>
       </c>
       <c r="G2101" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -60865,7 +60868,7 @@
         <v>49.8199996948242</v>
       </c>
       <c r="G2102" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -60891,7 +60894,7 @@
         <v>48.7000007629395</v>
       </c>
       <c r="G2103" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -60917,7 +60920,7 @@
         <v>49.9199981689453</v>
       </c>
       <c r="G2104" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -60943,7 +60946,7 @@
         <v>49.560001373291</v>
       </c>
       <c r="G2105" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -60969,7 +60972,7 @@
         <v>50</v>
       </c>
       <c r="G2106" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -60995,7 +60998,7 @@
         <v>49.0999984741211</v>
       </c>
       <c r="G2107" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -61021,7 +61024,7 @@
         <v>49.4199981689453</v>
       </c>
       <c r="G2108" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -61047,7 +61050,7 @@
         <v>49.9799995422363</v>
       </c>
       <c r="G2109" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -61073,7 +61076,7 @@
         <v>49.3400001525879</v>
       </c>
       <c r="G2110" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -61099,7 +61102,7 @@
         <v>48.939998626709</v>
       </c>
       <c r="G2111" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -61125,7 +61128,7 @@
         <v>49.7400016784668</v>
       </c>
       <c r="G2112" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -61151,7 +61154,7 @@
         <v>49.8600006103516</v>
       </c>
       <c r="G2113" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -61177,7 +61180,7 @@
         <v>51.0999984741211</v>
       </c>
       <c r="G2114" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -61203,7 +61206,7 @@
         <v>52.5999984741211</v>
       </c>
       <c r="G2115" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -61229,7 +61232,7 @@
         <v>49.9799995422363</v>
       </c>
       <c r="G2116" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -61255,7 +61258,7 @@
         <v>48.7999992370605</v>
       </c>
       <c r="G2117" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -61281,7 +61284,7 @@
         <v>49.0999984741211</v>
       </c>
       <c r="G2118" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -61307,7 +61310,7 @@
         <v>49.4199981689453</v>
       </c>
       <c r="G2119" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -61333,7 +61336,7 @@
         <v>50.0499992370605</v>
       </c>
       <c r="G2120" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -61359,7 +61362,7 @@
         <v>50.2000007629395</v>
       </c>
       <c r="G2121" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -61385,7 +61388,7 @@
         <v>50.75</v>
       </c>
       <c r="G2122" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -61411,7 +61414,7 @@
         <v>50.3499984741211</v>
       </c>
       <c r="G2123" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -61437,7 +61440,7 @@
         <v>50.5</v>
       </c>
       <c r="G2124" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -61463,7 +61466,7 @@
         <v>51.2000007629395</v>
       </c>
       <c r="G2125" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -61489,7 +61492,7 @@
         <v>50.3499984741211</v>
       </c>
       <c r="G2126" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -61515,7 +61518,7 @@
         <v>50.7999992370605</v>
       </c>
       <c r="G2127" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -61541,7 +61544,7 @@
         <v>50.5</v>
       </c>
       <c r="G2128" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -61567,7 +61570,7 @@
         <v>50.75</v>
       </c>
       <c r="G2129" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -61593,7 +61596,7 @@
         <v>51.7999992370605</v>
       </c>
       <c r="G2130" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -61619,7 +61622,7 @@
         <v>50.7999992370605</v>
       </c>
       <c r="G2131" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -61645,7 +61648,7 @@
         <v>51.2000007629395</v>
       </c>
       <c r="G2132" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -61671,7 +61674,7 @@
         <v>50.3499984741211</v>
       </c>
       <c r="G2133" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -61697,7 +61700,7 @@
         <v>48.8199996948242</v>
       </c>
       <c r="G2134" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -61723,7 +61726,7 @@
         <v>49.1599998474121</v>
       </c>
       <c r="G2135" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -61749,7 +61752,7 @@
         <v>48.5200004577637</v>
       </c>
       <c r="G2136" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -61775,7 +61778,7 @@
         <v>48.3400001525879</v>
       </c>
       <c r="G2137" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -61801,7 +61804,7 @@
         <v>48.6800003051758</v>
       </c>
       <c r="G2138" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -61827,7 +61830,7 @@
         <v>48.0999984741211</v>
       </c>
       <c r="G2139" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -61853,7 +61856,7 @@
         <v>47.7000007629395</v>
       </c>
       <c r="G2140" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -61879,7 +61882,7 @@
         <v>47.4599990844727</v>
       </c>
       <c r="G2141" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -61905,7 +61908,7 @@
         <v>48.4000015258789</v>
       </c>
       <c r="G2142" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -61931,7 +61934,7 @@
         <v>48.3600006103516</v>
       </c>
       <c r="G2143" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -61957,7 +61960,7 @@
         <v>48.2000007629395</v>
       </c>
       <c r="G2144" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -61983,7 +61986,7 @@
         <v>48.5999984741211</v>
       </c>
       <c r="G2145" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -62009,7 +62012,7 @@
         <v>49.2400016784668</v>
       </c>
       <c r="G2146" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -62035,7 +62038,7 @@
         <v>49.7000007629395</v>
       </c>
       <c r="G2147" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -62061,7 +62064,7 @@
         <v>49.5400009155273</v>
       </c>
       <c r="G2148" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -62087,7 +62090,7 @@
         <v>48.4199981689453</v>
       </c>
       <c r="G2149" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -62113,7 +62116,7 @@
         <v>49.2599983215332</v>
       </c>
       <c r="G2150" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -62139,7 +62142,7 @@
         <v>48.7799987792969</v>
       </c>
       <c r="G2151" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -62165,7 +62168,7 @@
         <v>48.0999984741211</v>
       </c>
       <c r="G2152" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -62191,7 +62194,7 @@
         <v>47.4199981689453</v>
       </c>
       <c r="G2153" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -62217,7 +62220,7 @@
         <v>48.4000015258789</v>
       </c>
       <c r="G2154" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -62243,7 +62246,7 @@
         <v>47.8400001525879</v>
       </c>
       <c r="G2155" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -62269,7 +62272,7 @@
         <v>49.2400016784668</v>
       </c>
       <c r="G2156" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -62295,7 +62298,7 @@
         <v>49.2000007629395</v>
       </c>
       <c r="G2157" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -62321,7 +62324,7 @@
         <v>50.0999984741211</v>
       </c>
       <c r="G2158" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -62347,7 +62350,7 @@
         <v>49.4000015258789</v>
       </c>
       <c r="G2159" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -62373,7 +62376,7 @@
         <v>49.6199989318848</v>
       </c>
       <c r="G2160" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -62399,7 +62402,7 @@
         <v>48.3600006103516</v>
       </c>
       <c r="G2161" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -62425,7 +62428,7 @@
         <v>48.7000007629395</v>
       </c>
       <c r="G2162" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -62451,7 +62454,7 @@
         <v>48.7999992370605</v>
       </c>
       <c r="G2163" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -62477,7 +62480,7 @@
         <v>48.9599990844727</v>
       </c>
       <c r="G2164" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -62503,7 +62506,7 @@
         <v>48.7000007629395</v>
       </c>
       <c r="G2165" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -62529,7 +62532,7 @@
         <v>49.0800018310547</v>
       </c>
       <c r="G2166" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -62555,7 +62558,7 @@
         <v>49.1399993896484</v>
       </c>
       <c r="G2167" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -62581,7 +62584,7 @@
         <v>49.0800018310547</v>
       </c>
       <c r="G2168" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -62607,7 +62610,7 @@
         <v>48.7999992370605</v>
       </c>
       <c r="G2169" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -62633,7 +62636,7 @@
         <v>50</v>
       </c>
       <c r="G2170" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="H2170" t="s">
         <v>9</v>
@@ -62659,7 +62662,7 @@
         <v>50.25</v>
       </c>
       <c r="G2171" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="H2171" t="s">
         <v>9</v>
@@ -62685,7 +62688,7 @@
         <v>50.9500007629395</v>
       </c>
       <c r="G2172" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="H2172" t="s">
         <v>9</v>
@@ -62711,7 +62714,7 @@
         <v>51.0499992370605</v>
       </c>
       <c r="G2173" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="H2173" t="s">
         <v>9</v>
@@ -62737,7 +62740,7 @@
         <v>51.0999984741211</v>
       </c>
       <c r="G2174" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="H2174" t="s">
         <v>9</v>
@@ -62763,7 +62766,7 @@
         <v>51.75</v>
       </c>
       <c r="G2175" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="H2175" t="s">
         <v>9</v>
@@ -62789,7 +62792,7 @@
         <v>51.25</v>
       </c>
       <c r="G2176" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="H2176" t="s">
         <v>9</v>
@@ -62815,7 +62818,7 @@
         <v>50.9500007629395</v>
       </c>
       <c r="G2177" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="H2177" t="s">
         <v>9</v>
@@ -62841,7 +62844,7 @@
         <v>51.4000015258789</v>
       </c>
       <c r="G2178" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="H2178" t="s">
         <v>9</v>
@@ -62867,7 +62870,7 @@
         <v>51.4000015258789</v>
       </c>
       <c r="G2179" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="H2179" t="s">
         <v>9</v>
@@ -62893,7 +62896,7 @@
         <v>51.8499984741211</v>
       </c>
       <c r="G2180" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="H2180" t="s">
         <v>9</v>
@@ -62919,7 +62922,7 @@
         <v>52.25</v>
       </c>
       <c r="G2181" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="H2181" t="s">
         <v>9</v>
@@ -62945,7 +62948,7 @@
         <v>51.9500007629395</v>
       </c>
       <c r="G2182" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="H2182" t="s">
         <v>9</v>
@@ -62971,7 +62974,7 @@
         <v>52.4000015258789</v>
       </c>
       <c r="G2183" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="H2183" t="s">
         <v>9</v>
@@ -62997,7 +63000,7 @@
         <v>48.8199996948242</v>
       </c>
       <c r="G2184" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="H2184" t="s">
         <v>9</v>
@@ -63023,7 +63026,7 @@
         <v>50.3499984741211</v>
       </c>
       <c r="G2185" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="H2185" t="s">
         <v>9</v>
@@ -63049,7 +63052,7 @@
         <v>50.75</v>
       </c>
       <c r="G2186" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="H2186" t="s">
         <v>9</v>
@@ -63075,7 +63078,7 @@
         <v>50.1500015258789</v>
       </c>
       <c r="G2187" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="H2187" t="s">
         <v>9</v>
@@ -63101,7 +63104,7 @@
         <v>48.5</v>
       </c>
       <c r="G2188" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="H2188" t="s">
         <v>9</v>
@@ -63127,7 +63130,7 @@
         <v>49</v>
       </c>
       <c r="G2189" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="H2189" t="s">
         <v>9</v>
@@ -63153,7 +63156,7 @@
         <v>49.439998626709</v>
       </c>
       <c r="G2190" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="H2190" t="s">
         <v>9</v>
@@ -63179,7 +63182,7 @@
         <v>48.9799995422363</v>
       </c>
       <c r="G2191" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="H2191" t="s">
         <v>9</v>
@@ -63205,7 +63208,7 @@
         <v>49.3400001525879</v>
       </c>
       <c r="G2192" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="H2192" t="s">
         <v>9</v>
@@ -63231,7 +63234,7 @@
         <v>49.4599990844727</v>
       </c>
       <c r="G2193" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="H2193" t="s">
         <v>9</v>
@@ -63257,7 +63260,7 @@
         <v>49.8199996948242</v>
       </c>
       <c r="G2194" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="H2194" t="s">
         <v>9</v>
@@ -63283,7 +63286,7 @@
         <v>49.9599990844727</v>
       </c>
       <c r="G2195" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="H2195" t="s">
         <v>9</v>
@@ -63309,7 +63312,7 @@
         <v>50.5999984741211</v>
       </c>
       <c r="G2196" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="H2196" t="s">
         <v>9</v>
@@ -63335,7 +63338,7 @@
         <v>50.4000015258789</v>
       </c>
       <c r="G2197" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="H2197" t="s">
         <v>9</v>
@@ -63343,7 +63346,7 @@
     </row>
     <row r="2198">
       <c r="A2198" s="1" t="n">
-        <v>45524.6494212963</v>
+        <v>45524.2916666667</v>
       </c>
       <c r="B2198" t="n">
         <v>239068</v>
@@ -63361,9 +63364,35 @@
         <v>50.6500015258789</v>
       </c>
       <c r="G2198" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="H2198" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2199">
+      <c r="A2199" s="1" t="n">
+        <v>45525.6494791667</v>
+      </c>
+      <c r="B2199" t="n">
+        <v>199920</v>
+      </c>
+      <c r="C2199" t="n">
+        <v>51.8499984741211</v>
+      </c>
+      <c r="D2199" t="n">
+        <v>50.75</v>
+      </c>
+      <c r="E2199" t="n">
+        <v>51</v>
+      </c>
+      <c r="F2199" t="n">
+        <v>51.8499984741211</v>
+      </c>
+      <c r="G2199" t="s">
+        <v>1940</v>
+      </c>
+      <c r="H2199" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/REC.MI.xlsx
+++ b/data/REC.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="1957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1956" uniqueCount="1956">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">19.068639755249</t>
+    <t xml:space="preserve">19.0686378479004</t>
   </si>
   <si>
     <t xml:space="preserve">REC.MI</t>
@@ -47,64 +47,64 @@
     <t xml:space="preserve">19.6574764251709</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3267574310303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9637775421143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8105201721191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6572570800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6975917816162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1087532043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2297477722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6086502075195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.544116973877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.527982711792</t>
+    <t xml:space="preserve">19.3267612457275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9637832641602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8105163574219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6572589874268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6975955963135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1087551116943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2297458648682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6086444854736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5441150665283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5279884338379</t>
   </si>
   <si>
     <t xml:space="preserve">18.2942810058594</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5281963348389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4959392547607</t>
+    <t xml:space="preserve">18.5282001495361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4959411621094</t>
   </si>
   <si>
     <t xml:space="preserve">18.8266525268555</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0280914306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3910732269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7540531158447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1329536437988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8990287780762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2779273986816</t>
+    <t xml:space="preserve">18.0280895233154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3910713195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.754056930542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1329555511475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8990306854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2779293060303</t>
   </si>
   <si>
     <t xml:space="preserve">16.1325187683105</t>
@@ -113,22 +113,22 @@
     <t xml:space="preserve">15.6727457046509</t>
   </si>
   <si>
-    <t xml:space="preserve">15.7937393188477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3825702667236</t>
+    <t xml:space="preserve">15.793740272522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3825759887695</t>
   </si>
   <si>
     <t xml:space="preserve">16.519702911377</t>
   </si>
   <si>
-    <t xml:space="preserve">17.132740020752</t>
+    <t xml:space="preserve">17.1327381134033</t>
   </si>
   <si>
     <t xml:space="preserve">17.8183689117432</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6812400817871</t>
+    <t xml:space="preserve">17.681245803833</t>
   </si>
   <si>
     <t xml:space="preserve">18.011962890625</t>
@@ -137,157 +137,157 @@
     <t xml:space="preserve">18.42333984375</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4475345611572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7217864990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0601406097412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0036754608154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5199146270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6893138885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9151649475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0684223175049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6731815338135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4392566680908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3666591644287</t>
+    <t xml:space="preserve">18.4475402832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7217903137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0601387023926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0036735534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5199165344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6893119812012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9151611328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0684242248535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6731758117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4392528533936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.366662979126</t>
   </si>
   <si>
     <t xml:space="preserve">17.1811351776123</t>
   </si>
   <si>
-    <t xml:space="preserve">17.5037822723389</t>
+    <t xml:space="preserve">17.5037879943848</t>
   </si>
   <si>
     <t xml:space="preserve">17.165002822876</t>
   </si>
   <si>
-    <t xml:space="preserve">17.447322845459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5521869659424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6409111022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5763835906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3585929870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4069938659668</t>
+    <t xml:space="preserve">17.4473209381104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5521831512451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6409130096436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.576379776001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3585948944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4069881439209</t>
   </si>
   <si>
     <t xml:space="preserve">17.5118503570557</t>
   </si>
   <si>
-    <t xml:space="preserve">17.3182601928711</t>
+    <t xml:space="preserve">17.3182621002197</t>
   </si>
   <si>
     <t xml:space="preserve">17.6247787475586</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7457714080811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7538414001465</t>
+    <t xml:space="preserve">17.7457733154297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7538375854492</t>
   </si>
   <si>
     <t xml:space="preserve">17.8748321533203</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7861003875732</t>
+    <t xml:space="preserve">17.7861042022705</t>
   </si>
   <si>
     <t xml:space="preserve">18.1490859985352</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2136192321777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1248874664307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1006870269775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1168193817139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.044225692749</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.076488494873</t>
+    <t xml:space="preserve">18.2136154174805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1248893737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1006889343262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1168212890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0442276000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0764923095703</t>
   </si>
   <si>
     <t xml:space="preserve">18.4443969726562</t>
   </si>
   <si>
-    <t xml:space="preserve">18.3708171844482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1991291046143</t>
+    <t xml:space="preserve">18.3708152770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1991271972656</t>
   </si>
   <si>
     <t xml:space="preserve">18.2808818817139</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0437889099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1091938018799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.174596786499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3544616699219</t>
+    <t xml:space="preserve">18.0437870025635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.109188079834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1746006011963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3544635772705</t>
   </si>
   <si>
     <t xml:space="preserve">18.0764942169189</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1418933868408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0928382873535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2727088928223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5752086639404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6651382446289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3846054077148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6871070861816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6217002868652</t>
+    <t xml:space="preserve">18.1418952941895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0928440093994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.272705078125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5752067565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6651439666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3846035003662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.687105178833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.621696472168</t>
   </si>
   <si>
     <t xml:space="preserve">19.4418334960938</t>
@@ -299,25 +299,25 @@
     <t xml:space="preserve">19.7443351745605</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7933902740479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.9487266540527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.0059585571289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8562297821045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.003396987915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1996154785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1015014648438</t>
+    <t xml:space="preserve">19.7933883666992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9487285614014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.0059566497803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8562278747559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0033931732178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.199613571167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1015033721924</t>
   </si>
   <si>
     <t xml:space="preserve">21.248664855957</t>
@@ -332,79 +332,79 @@
     <t xml:space="preserve">21.6983280181885</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0580577850342</t>
+    <t xml:space="preserve">22.0580596923828</t>
   </si>
   <si>
     <t xml:space="preserve">22.2297496795654</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8700160980225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7964324951172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3115062713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2706298828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9517726898193</t>
+    <t xml:space="preserve">21.8700180053711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7964382171631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3115081787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2706279754639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9517765045166</t>
   </si>
   <si>
     <t xml:space="preserve">21.2568416595459</t>
   </si>
   <si>
-    <t xml:space="preserve">21.20778465271</t>
+    <t xml:space="preserve">21.2077884674072</t>
   </si>
   <si>
     <t xml:space="preserve">21.4121799468994</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1423797607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7335968017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4285316467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7065048217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6083984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9435977935791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8071746826172</t>
+    <t xml:space="preserve">21.1423816680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7335929870605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4285297393799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7065029144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6083946228027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9435997009277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8071784973145</t>
   </si>
   <si>
     <t xml:space="preserve">21.6656246185303</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9599533081055</t>
+    <t xml:space="preserve">21.9599494934082</t>
   </si>
   <si>
     <t xml:space="preserve">22.0744132995605</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0989418029785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0907688140869</t>
+    <t xml:space="preserve">22.0989379882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0907611846924</t>
   </si>
   <si>
     <t xml:space="preserve">21.992654800415</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8536643981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1888656616211</t>
+    <t xml:space="preserve">21.8536682128906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1888694763184</t>
   </si>
   <si>
     <t xml:space="preserve">22.9165115356445</t>
@@ -416,52 +416,52 @@
     <t xml:space="preserve">22.9982662200928</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7529964447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5567779541016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7448215484619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6303596496582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0636692047119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5133323669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4806327819824</t>
+    <t xml:space="preserve">22.7529945373535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5567798614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7448196411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6303558349609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0636672973633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5133361816406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4806308746338</t>
   </si>
   <si>
     <t xml:space="preserve">23.5215148925781</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2271823883057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.685022354126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6604957580566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5296897888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7177314758301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0038814544678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5869178771973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9655628204346</t>
+    <t xml:space="preserve">23.2271842956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6850242614746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6604995727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5296859741211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7177295684814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0038795471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5869159698486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9655647277832</t>
   </si>
   <si>
     <t xml:space="preserve">23.3498229980469</t>
@@ -470,67 +470,67 @@
     <t xml:space="preserve">23.0881977081299</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0227947235107</t>
+    <t xml:space="preserve">23.0227928161621</t>
   </si>
   <si>
     <t xml:space="preserve">23.2598896026611</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2190113067627</t>
+    <t xml:space="preserve">23.2190093994141</t>
   </si>
   <si>
     <t xml:space="preserve">23.3743495941162</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7366428375244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7284660339355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2951545715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4341430664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1479969024658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3033332824707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4259700775146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.524076461792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0171813964844</t>
+    <t xml:space="preserve">22.7366409301758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7284679412842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2951564788818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4341411590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1479949951172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3033256530762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.425968170166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5240745544434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.017183303833</t>
   </si>
   <si>
     <t xml:space="preserve">22.0417079925537</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3605632781982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1725234985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9272480010986</t>
+    <t xml:space="preserve">22.3605613708496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1725196838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9272499084473</t>
   </si>
   <si>
     <t xml:space="preserve">22.1970462799072</t>
   </si>
   <si>
-    <t xml:space="preserve">22.0825824737549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8020458221436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5159015655518</t>
+    <t xml:space="preserve">22.0825862884521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8020496368408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5158996582031</t>
   </si>
   <si>
     <t xml:space="preserve">21.8863735198975</t>
@@ -539,13 +539,13 @@
     <t xml:space="preserve">21.8046169281006</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7473850250244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2133979797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3687324523926</t>
+    <t xml:space="preserve">21.7473831176758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2133941650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3687400817871</t>
   </si>
   <si>
     <t xml:space="preserve">21.9844799041748</t>
@@ -554,187 +554,187 @@
     <t xml:space="preserve">22.2052230834961</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2215766906738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4423160552979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4831981658936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.243537902832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4561061859131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3906993865967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2762393951416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2026615142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1536026000977</t>
+    <t xml:space="preserve">22.2215728759766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4423179626465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4831962585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2435398101807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4561080932617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3907032012939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2762355804443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.202657699585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1536045074463</t>
   </si>
   <si>
     <t xml:space="preserve">23.0309715270996</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9246864318848</t>
+    <t xml:space="preserve">22.9246845245361</t>
   </si>
   <si>
     <t xml:space="preserve">23.1127243041992</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3360328674316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5077266693115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0335311889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.164342880249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.066234588623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9108963012695</t>
+    <t xml:space="preserve">22.3360347747803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5077247619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0335350036621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1643447875977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0662364959717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9108982086182</t>
   </si>
   <si>
     <t xml:space="preserve">21.8945465087891</t>
   </si>
   <si>
-    <t xml:space="preserve">21.076976776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6191329956055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9298152923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0279197692871</t>
+    <t xml:space="preserve">21.0769748687744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6191368103027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9298133850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0279216766357</t>
   </si>
   <si>
     <t xml:space="preserve">20.5700817108154</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0851497650146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0008296966553</t>
+    <t xml:space="preserve">21.0851535797119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.000825881958</t>
   </si>
   <si>
     <t xml:space="preserve">21.2977161407471</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3385982513428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9052829742432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7826480865479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.036096572876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9863681793213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4641952514648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7791557312012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0278129577637</t>
+    <t xml:space="preserve">21.3385925292969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9052810668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7826557159424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0360946655273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.986364364624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4641933441162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7791519165039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0278072357178</t>
   </si>
   <si>
     <t xml:space="preserve">21.1024036407471</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8537483215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1355571746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2930393218994</t>
+    <t xml:space="preserve">20.8537502288818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.135555267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2930374145508</t>
   </si>
   <si>
     <t xml:space="preserve">20.5636539459229</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8951892852783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1189823150635</t>
+    <t xml:space="preserve">20.895191192627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1189785003662</t>
   </si>
   <si>
     <t xml:space="preserve">21.3427696228027</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2847518920898</t>
+    <t xml:space="preserve">21.2847499847412</t>
   </si>
   <si>
     <t xml:space="preserve">21.1604232788086</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5499839782715</t>
+    <t xml:space="preserve">21.5499801635742</t>
   </si>
   <si>
     <t xml:space="preserve">21.251594543457</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5251140594482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2018642425537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9146766662598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1716156005859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3373832702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1053028106689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9063873291016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7240409851074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3208026885986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4285583496094</t>
+    <t xml:space="preserve">21.5251159667969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2018623352051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9146728515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1716175079346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3373851776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1053085327148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9063835144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7240371704102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3208045959473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.428560256958</t>
   </si>
   <si>
     <t xml:space="preserve">22.1633243560791</t>
   </si>
   <si>
-    <t xml:space="preserve">22.312520980835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.635763168335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5611686706543</t>
+    <t xml:space="preserve">22.3125171661377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6357650756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5611705780029</t>
   </si>
   <si>
     <t xml:space="preserve">22.6772117614746</t>
@@ -743,25 +743,25 @@
     <t xml:space="preserve">23.0419044494629</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0253295898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5363063812256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0667686462402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6191902160645</t>
+    <t xml:space="preserve">23.0253257751465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5363082885742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0667667388916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6191921234131</t>
   </si>
   <si>
     <t xml:space="preserve">22.9507293701172</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7932472229004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8264064788818</t>
+    <t xml:space="preserve">22.7932510375977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8264045715332</t>
   </si>
   <si>
     <t xml:space="preserve">22.6026153564453</t>
@@ -770,34 +770,34 @@
     <t xml:space="preserve">22.6109027862549</t>
   </si>
   <si>
-    <t xml:space="preserve">22.577751159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2793674468994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4617118835449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4368457794189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8069229125977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8898067474365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0638656616211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2545013427734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8732280731201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2710742950439</t>
+    <t xml:space="preserve">22.5777473449707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2793636322021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4617099761963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4368419647217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.806921005249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8898048400879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0638637542725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2545032501221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8732299804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2710762023926</t>
   </si>
   <si>
     <t xml:space="preserve">22.3788261413574</t>
@@ -809,97 +809,97 @@
     <t xml:space="preserve">23.3983020782471</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4563236236572</t>
+    <t xml:space="preserve">23.4563255310059</t>
   </si>
   <si>
     <t xml:space="preserve">23.6884021759033</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4231719970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9287700653076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0282306671143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4509391784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4177875518799</t>
+    <t xml:space="preserve">23.4231739044189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.9287643432617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.028226852417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4509372711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4177856445312</t>
   </si>
   <si>
     <t xml:space="preserve">24.3431911468506</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7824764251709</t>
+    <t xml:space="preserve">24.7824745178223</t>
   </si>
   <si>
     <t xml:space="preserve">24.8404998779297</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7741889953613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0891513824463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.155460357666</t>
+    <t xml:space="preserve">24.7741870880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0891494750977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1554565429688</t>
   </si>
   <si>
     <t xml:space="preserve">25.0062675476074</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1057262420654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2714958190918</t>
+    <t xml:space="preserve">25.1057281494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2714977264404</t>
   </si>
   <si>
     <t xml:space="preserve">25.5533027648926</t>
   </si>
   <si>
-    <t xml:space="preserve">25.545015335083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8019561767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9262828826904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2080917358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4070148468018</t>
+    <t xml:space="preserve">25.5450172424316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8019580841064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9262847900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2080936431885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4070129394531</t>
   </si>
   <si>
     <t xml:space="preserve">26.4401683807373</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9594421386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8765544891357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1252059936523</t>
+    <t xml:space="preserve">25.959436416626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8765563964844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1252098083496</t>
   </si>
   <si>
     <t xml:space="preserve">26.2992649078369</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2412452697754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.605936050415</t>
+    <t xml:space="preserve">26.2412433624268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6059398651123</t>
   </si>
   <si>
     <t xml:space="preserve">26.3655700683594</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1666450500488</t>
+    <t xml:space="preserve">26.1666488647461</t>
   </si>
   <si>
     <t xml:space="preserve">26.2495346069336</t>
@@ -908,166 +908,166 @@
     <t xml:space="preserve">26.3324203491211</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5644989013672</t>
+    <t xml:space="preserve">26.5644950866699</t>
   </si>
   <si>
     <t xml:space="preserve">26.9374732971191</t>
   </si>
   <si>
-    <t xml:space="preserve">26.9540538787842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2192802429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0369358062744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0120677947998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4099140167236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6751461029053</t>
+    <t xml:space="preserve">26.9540519714355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2192821502686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0369319915771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0120716094971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4099178314209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6751518249512</t>
   </si>
   <si>
     <t xml:space="preserve">27.6254177093506</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3850517272949</t>
+    <t xml:space="preserve">27.3850498199463</t>
   </si>
   <si>
     <t xml:space="preserve">27.6585712432861</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0647125244141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5093784332275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7407665252686</t>
+    <t xml:space="preserve">28.0647048950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5093803405762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7407703399658</t>
   </si>
   <si>
     <t xml:space="preserve">28.5145950317383</t>
   </si>
   <si>
-    <t xml:space="preserve">28.481086730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7742691040039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4894599914551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8412952423096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6067409515381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6737499237061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4276657104492</t>
+    <t xml:space="preserve">28.4810886383057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.7742748260498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4894580841064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8412895202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6067447662354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.673755645752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4276638031006</t>
   </si>
   <si>
     <t xml:space="preserve">29.8381271362305</t>
   </si>
   <si>
-    <t xml:space="preserve">29.8129997253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5669116973877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.659049987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5752792358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7543640136719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9386501312256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0307960510254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9302749633789</t>
+    <t xml:space="preserve">29.8129978179932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5669040679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6590480804443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5752849578857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7543601989746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9386463165283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0307941436768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.930269241333</t>
   </si>
   <si>
     <t xml:space="preserve">29.8716335296631</t>
   </si>
   <si>
-    <t xml:space="preserve">30.047550201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8967666625977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2485942840576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4695453643799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5700664520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9972820281982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7480392456055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7512016296387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8768501281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3826217651367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5585346221924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5920391082764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0391693115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5250244140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2202911376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0276336669922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2538051605225</t>
+    <t xml:space="preserve">30.0475463867188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8967590332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.248592376709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4695510864258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5700740814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9972801208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7480354309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7511959075928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8768463134766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3826236724854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5585327148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.592041015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0391654968262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5250225067139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2203006744385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0276317596436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2538108825684</t>
   </si>
   <si>
     <t xml:space="preserve">31.4967308044434</t>
   </si>
   <si>
-    <t xml:space="preserve">31.170036315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3291969299316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3658676147461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5449371337891</t>
+    <t xml:space="preserve">31.1700382232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3291988372803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3658657073975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5449409484863</t>
   </si>
   <si>
     <t xml:space="preserve">29.1512298583984</t>
@@ -1076,37 +1076,37 @@
     <t xml:space="preserve">29.6538391113281</t>
   </si>
   <si>
-    <t xml:space="preserve">29.72922706604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2852630615234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2266178131104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5198078155518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3355236053467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6957206726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3941612243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6789684295654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7459812164307</t>
+    <t xml:space="preserve">29.7292366027832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2852573394775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.226619720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.519811630249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.335521697998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6957225799561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3941516876221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6789722442627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7459850311279</t>
   </si>
   <si>
     <t xml:space="preserve">30.2234630584717</t>
   </si>
   <si>
-    <t xml:space="preserve">30.240213394165</t>
+    <t xml:space="preserve">30.2402172088623</t>
   </si>
   <si>
     <t xml:space="preserve">30.1731986999512</t>
@@ -1115,115 +1115,115 @@
     <t xml:space="preserve">29.9051399230957</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7711200714111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9554042816162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7878742218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7208461761475</t>
+    <t xml:space="preserve">29.7711181640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9553966522217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7878684997559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7208499908447</t>
   </si>
   <si>
     <t xml:space="preserve">29.8548793792725</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3271427154541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0423336029053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4360408782959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4946784973145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2517509460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2768802642822</t>
+    <t xml:space="preserve">29.3271389007568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0423316955566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4360427856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4946765899658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2517490386963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2768821716309</t>
   </si>
   <si>
     <t xml:space="preserve">29.6203327178955</t>
   </si>
   <si>
-    <t xml:space="preserve">29.3606510162354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6873416900635</t>
+    <t xml:space="preserve">29.3606491088867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6873435974121</t>
   </si>
   <si>
     <t xml:space="preserve">29.5868244171143</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4611701965332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8632621765137</t>
+    <t xml:space="preserve">29.4611740112305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.863260269165</t>
   </si>
   <si>
     <t xml:space="preserve">30.1396884918213</t>
   </si>
   <si>
-    <t xml:space="preserve">30.4496326446533</t>
+    <t xml:space="preserve">30.4496307373047</t>
   </si>
   <si>
     <t xml:space="preserve">30.3239841461182</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2988471984863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5166530609131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9773654937744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1784172058105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1365337371826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2454223632812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3710746765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9857521057129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2286758422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5637512207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7647895812988</t>
+    <t xml:space="preserve">30.2988548278809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5166511535645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9773693084717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1784191131592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1365280151367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2454280853271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3710861206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9857482910156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2286777496338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5637493133545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7647876739502</t>
   </si>
   <si>
     <t xml:space="preserve">32.2171363830566</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7281188964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6359825134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5438385009766</t>
+    <t xml:space="preserve">32.7281150817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6359710693359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.543830871582</t>
   </si>
   <si>
     <t xml:space="preserve">33.0045585632324</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6694793701172</t>
+    <t xml:space="preserve">32.6694755554199</t>
   </si>
   <si>
     <t xml:space="preserve">32.9794235229492</t>
@@ -1235,67 +1235,67 @@
     <t xml:space="preserve">33.0129356384277</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1218223571777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1469650268555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3898887634277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3647575378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5741729736328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3312568664551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5909233093262</t>
+    <t xml:space="preserve">33.1218299865723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1469612121582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3898849487305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3647537231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5741806030273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3312492370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5909194946289</t>
   </si>
   <si>
     <t xml:space="preserve">33.1804733276367</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2307205200195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1134452819824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2642288208008</t>
+    <t xml:space="preserve">33.2307319641113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.113452911377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2642402648926</t>
   </si>
   <si>
     <t xml:space="preserve">33.456901550293</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6579475402832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1720848083496</t>
+    <t xml:space="preserve">33.6579437255859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1720924377441</t>
   </si>
   <si>
     <t xml:space="preserve">33.2558555603027</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4150161743164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.599308013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4317741394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7249526977539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3480072021484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.009765625</t>
+    <t xml:space="preserve">33.4150199890137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5993041992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4317665100098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7249565124512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3479957580566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0097694396973</t>
   </si>
   <si>
     <t xml:space="preserve">33.8924942016602</t>
@@ -1304,28 +1304,28 @@
     <t xml:space="preserve">33.3228721618652</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5071563720703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6024742126465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.510326385498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3427772521973</t>
+    <t xml:space="preserve">33.5071601867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6024703979492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5103187561035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3427886962891</t>
   </si>
   <si>
     <t xml:space="preserve">32.6108474731445</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9742012023926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3679161071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8653163909912</t>
+    <t xml:space="preserve">31.9742088317871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.367919921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8653125762939</t>
   </si>
   <si>
     <t xml:space="preserve">32.4243507385254</t>
@@ -1334,97 +1334,97 @@
     <t xml:space="preserve">32.4667053222656</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3481216430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3989410400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1787109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1702346801758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8653125762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0177764892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8737812042236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0940055847168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8055114746094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4497604370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2295303344727</t>
+    <t xml:space="preserve">32.3481140136719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3989372253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1787185668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1702423095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8653087615967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0177726745605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8737850189209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0940093994141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8055191040039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4497680664062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2295341491699</t>
   </si>
   <si>
     <t xml:space="preserve">32.7631683349609</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7208099365234</t>
+    <t xml:space="preserve">32.7208137512207</t>
   </si>
   <si>
     <t xml:space="preserve">32.78857421875</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0093078613281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3570938110352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9759273529053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5519104003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5349655151367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9843997955322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8742904663086</t>
+    <t xml:space="preserve">32.0093002319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3570919036865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9759311676025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5519046783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5349731445312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9843978881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8742866516113</t>
   </si>
   <si>
     <t xml:space="preserve">31.3401527404785</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6196708679199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6704978942871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3909778594971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5942573547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4417896270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.933069229126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4921112060547</t>
+    <t xml:space="preserve">31.6196746826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6704864501953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3909721374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5942611694336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4417991638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9330768585205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.492115020752</t>
   </si>
   <si>
     <t xml:space="preserve">32.6276435852051</t>
   </si>
   <si>
-    <t xml:space="preserve">32.780101776123</t>
+    <t xml:space="preserve">32.7800979614258</t>
   </si>
   <si>
     <t xml:space="preserve">32.5429306030273</t>
@@ -1436,142 +1436,142 @@
     <t xml:space="preserve">32.6954002380371</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2888221740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1194190979004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7128410339355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9669513702393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6615219116211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0347213745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.525993347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4672069549561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0606288909912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6794662475586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8832530975342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2225723266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1891956329346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4428062438965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.071117401123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1478519439697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.571870803833</t>
+    <t xml:space="preserve">32.2888259887695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1194114685059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7128429412842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9669570922852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6615180969238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0347175598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5259895324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4672031402588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0606346130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6794681549072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8832607269287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2225742340088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1891937255859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4428005218506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0711116790771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1478500366211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5718688964844</t>
   </si>
   <si>
     <t xml:space="preserve">25.0890636444092</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3172550201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9869155883789</t>
+    <t xml:space="preserve">26.317253112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9869136810303</t>
   </si>
   <si>
     <t xml:space="preserve">26.3680782318115</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4278736114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.987419128418</t>
+    <t xml:space="preserve">25.4278755187988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9874172210693</t>
   </si>
   <si>
     <t xml:space="preserve">24.8180103302002</t>
   </si>
   <si>
-    <t xml:space="preserve">24.614725112915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3262310028076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1568222045898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9450645446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6231937408447</t>
+    <t xml:space="preserve">24.6147212982178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.326229095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1568279266357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9450664520264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6231956481934</t>
   </si>
   <si>
     <t xml:space="preserve">24.0218029022217</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4707279205322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5469627380371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3516426086426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2415237426758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4871635437012</t>
+    <t xml:space="preserve">24.4707298278809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5469589233398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3516368865967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.241527557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4871654510498</t>
   </si>
   <si>
     <t xml:space="preserve">25.1229438781738</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6994228363037</t>
+    <t xml:space="preserve">24.699426651001</t>
   </si>
   <si>
     <t xml:space="preserve">24.978946685791</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8349533081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6062526702881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2250881195068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.1234455108643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0726261138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0387439727783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3102931976318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7168731689453</t>
+    <t xml:space="preserve">24.8349494934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6062507629395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2250919342041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.1234474182129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0726222991943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0387401580811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3102951049805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7168712615967</t>
   </si>
   <si>
     <t xml:space="preserve">24.4453182220459</t>
@@ -1583,10 +1583,10 @@
     <t xml:space="preserve">25.004358291626</t>
   </si>
   <si>
-    <t xml:space="preserve">25.309289932251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.283878326416</t>
+    <t xml:space="preserve">25.3092842102051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2838764190674</t>
   </si>
   <si>
     <t xml:space="preserve">25.0128288269043</t>
@@ -1595,70 +1595,70 @@
     <t xml:space="preserve">25.0467109680176</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8264808654785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1314163208008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0721206665039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2754096984863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4902629852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2152481079102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4386959075928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3871326446533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4816665649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5129699707031</t>
+    <t xml:space="preserve">24.8264827728271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1314144134521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0721225738525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2754077911377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4902667999268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2152462005615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.43869972229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.387134552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.48166847229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5129680633545</t>
   </si>
   <si>
     <t xml:space="preserve">26.2723293304443</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3410816192627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5731258392334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2981147766113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3926448822021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1090431213379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2121715545654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5043716430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.38405418396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8769989013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.638801574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4325389862061</t>
+    <t xml:space="preserve">26.3410835266113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.573127746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2981109619141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.392650604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1090393066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2121734619141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.504373550415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3840560913086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8770008087158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6388034820557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4325428009033</t>
   </si>
   <si>
     <t xml:space="preserve">27.6989593505859</t>
@@ -1673,322 +1673,322 @@
     <t xml:space="preserve">27.5786399841309</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6130199432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2434730529785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1059627532959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2606563568115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3465976715088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.295036315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2919521331787</t>
+    <t xml:space="preserve">27.6130218505859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2434711456299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1059646606445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2606601715088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3465995788574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2950344085693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2919540405273</t>
   </si>
   <si>
     <t xml:space="preserve">28.3607082366943</t>
   </si>
   <si>
-    <t xml:space="preserve">28.317741394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9739723205566</t>
+    <t xml:space="preserve">28.3177433013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9739742279053</t>
   </si>
   <si>
     <t xml:space="preserve">28.1630439758301</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2232036590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6185359954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2317962646484</t>
+    <t xml:space="preserve">28.2231998443604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6185321807861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2317943572998</t>
   </si>
   <si>
     <t xml:space="preserve">28.0942897796631</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8419857025146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6326446533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3576278686523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4263877868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5497817993164</t>
+    <t xml:space="preserve">28.8419818878174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6326465606689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3576335906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4263820648193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5497798919678</t>
   </si>
   <si>
     <t xml:space="preserve">28.4982166290283</t>
   </si>
   <si>
-    <t xml:space="preserve">28.859167098999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8247947692871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.271692276001</t>
+    <t xml:space="preserve">28.8591709136963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8247928619385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2716941833496</t>
   </si>
   <si>
     <t xml:space="preserve">25.6277694702148</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6050624847412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9574241638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2668113708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7480869293213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.997314453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6418762207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6504745483398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3238964080811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4184284210205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8254356384277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6965217590332</t>
+    <t xml:space="preserve">24.6050643920898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.957426071167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.266809463501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7480850219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9973163604736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6418781280518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6504726409912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3238945007324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4184303283691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8254337310791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6965179443359</t>
   </si>
   <si>
     <t xml:space="preserve">25.8082466125488</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8137588500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6676635742188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8911113739014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0543994903564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0372085571289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7364139556885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8997039794922</t>
+    <t xml:space="preserve">26.8137626647949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6676616668701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8911094665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0543975830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0372104644775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7364158630371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8997001647949</t>
   </si>
   <si>
     <t xml:space="preserve">27.4841079711914</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5098857879639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2348785400391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.587230682373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.7161483764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9997596740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0169448852539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8966236114502</t>
+    <t xml:space="preserve">27.5098876953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2348747253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5872344970703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.7161464691162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.999755859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0169410705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8966293334961</t>
   </si>
   <si>
     <t xml:space="preserve">27.501293182373</t>
   </si>
   <si>
-    <t xml:space="preserve">27.226282119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6160945892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2379512786865</t>
+    <t xml:space="preserve">27.2262840270996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.616096496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2379550933838</t>
   </si>
   <si>
     <t xml:space="preserve">26.5645313262939</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4012413024902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1520118713379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9285659790039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.954345703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0660724639893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9199676513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2035751342773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1176357269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2551422119141</t>
+    <t xml:space="preserve">26.4012432098389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1520099639893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9285640716553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9543476104736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.066068649292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9199695587158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2035789489746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1176338195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2551383972168</t>
   </si>
   <si>
     <t xml:space="preserve">25.8340263366699</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2207641601562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7566833496094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5676078796387</t>
+    <t xml:space="preserve">26.2207679748535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7566814422607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5676097869873</t>
   </si>
   <si>
     <t xml:space="preserve">25.6105804443359</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4988536834717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.318380355835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2238426208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0261783599854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2324390411377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3785400390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5504188537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0605545043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2840023040771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4215068817139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3496780395508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0746650695801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.662145614624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7996501922607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9715347290039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0089893341064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8628883361816</t>
+    <t xml:space="preserve">25.4988574981689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3183765411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2238445281982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.026180267334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2324352264404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3785381317139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.550422668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0605564117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2840003967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4215087890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3496761322021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0746631622314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6621437072754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7996520996094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9715366363525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0089912414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8628845214844</t>
   </si>
   <si>
     <t xml:space="preserve">24.7253837585449</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9144554138184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0691471099854</t>
+    <t xml:space="preserve">24.9144515991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0691528320312</t>
   </si>
   <si>
     <t xml:space="preserve">25.4558887481689</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7738723754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5246410369873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6019859313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1722774505615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0402870178223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5817203521729</t>
+    <t xml:space="preserve">25.7738666534424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5246429443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6019878387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1722812652588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0402889251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5817184448242</t>
   </si>
   <si>
     <t xml:space="preserve">25.7137107849121</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8598098754883</t>
+    <t xml:space="preserve">25.8598117828369</t>
   </si>
   <si>
     <t xml:space="preserve">25.9113750457764</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7394962310791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8684043884277</t>
+    <t xml:space="preserve">25.7394924163818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8684062957764</t>
   </si>
   <si>
     <t xml:space="preserve">25.6363620758057</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9801273345947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6535491943359</t>
+    <t xml:space="preserve">25.9801292419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6535472869873</t>
   </si>
   <si>
     <t xml:space="preserve">25.4644794464111</t>
@@ -2003,25 +2003,25 @@
     <t xml:space="preserve">25.043363571167</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1306591033936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7727699279785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7640419006348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3799648284912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3712368011475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4323387145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2315731048584</t>
+    <t xml:space="preserve">25.1306571960449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7727661132812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7640380859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3799629211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3712329864502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4323406219482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2315769195557</t>
   </si>
   <si>
     <t xml:space="preserve">24.7989540100098</t>
@@ -2030,43 +2030,43 @@
     <t xml:space="preserve">25.13938331604</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1131954193115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9648036956787</t>
+    <t xml:space="preserve">25.1131973266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9648056030273</t>
   </si>
   <si>
     <t xml:space="preserve">24.441068649292</t>
   </si>
   <si>
-    <t xml:space="preserve">24.528356552124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3886947631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3537769317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8164157867432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7902240753174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.052095413208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3139629364014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4885444641113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8813438415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4487266540527</t>
+    <t xml:space="preserve">24.5283584594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.388692855835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3537788391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8164119720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.790225982666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0520973205566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.31396484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4885425567627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8813457489014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4487285614014</t>
   </si>
   <si>
     <t xml:space="preserve">27.0684814453125</t>
@@ -2075,22 +2075,22 @@
     <t xml:space="preserve">26.439998626709</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2043132781982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0122756958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2916069030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9686336517334</t>
+    <t xml:space="preserve">26.2043170928955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0122814178467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2916049957275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.968635559082</t>
   </si>
   <si>
     <t xml:space="preserve">25.8376998901367</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1170234680176</t>
+    <t xml:space="preserve">26.1170253753662</t>
   </si>
   <si>
     <t xml:space="preserve">25.8638858795166</t>
@@ -2099,76 +2099,76 @@
     <t xml:space="preserve">26.7804279327393</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8415279388428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9811916351318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6009502410889</t>
+    <t xml:space="preserve">26.84153175354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9811935424805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6009521484375</t>
   </si>
   <si>
     <t xml:space="preserve">27.2343330383301</t>
   </si>
   <si>
-    <t xml:space="preserve">26.7978839874268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3352508544922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1344871520996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1606693267822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2392330169678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5622062683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6184043884277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.391450881958</t>
+    <t xml:space="preserve">26.7978858947754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3352527618408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1344833374023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1606731414795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2392311096191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5622005462646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.618408203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3914546966553</t>
   </si>
   <si>
     <t xml:space="preserve">28.0286674499512</t>
   </si>
   <si>
-    <t xml:space="preserve">28.9364814758301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8928318023682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.177059173584</t>
+    <t xml:space="preserve">28.9364776611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8928337097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1770610809326</t>
   </si>
   <si>
     <t xml:space="preserve">27.6707801818848</t>
   </si>
   <si>
-    <t xml:space="preserve">27.9675674438477</t>
+    <t xml:space="preserve">27.9675636291504</t>
   </si>
   <si>
     <t xml:space="preserve">28.3516387939453</t>
   </si>
   <si>
-    <t xml:space="preserve">29.1896190643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2594547271729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5300464630127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6435260772705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1110572814941</t>
+    <t xml:space="preserve">29.1896171569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2594451904297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5300521850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6435203552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1110553741455</t>
   </si>
   <si>
     <t xml:space="preserve">29.2681770324707</t>
@@ -2177,10 +2177,10 @@
     <t xml:space="preserve">28.8579216003418</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6571559906006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6309661865234</t>
+    <t xml:space="preserve">28.657154083252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6309642791748</t>
   </si>
   <si>
     <t xml:space="preserve">28.8753776550293</t>
@@ -2195,7 +2195,7 @@
     <t xml:space="preserve">29.0761451721191</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5475082397461</t>
+    <t xml:space="preserve">29.5475063323975</t>
   </si>
   <si>
     <t xml:space="preserve">29.6784381866455</t>
@@ -2204,58 +2204,58 @@
     <t xml:space="preserve">29.6173400878906</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4776763916016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4427528381348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0014133453369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.132345199585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4989604949951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.45041847229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5726127624512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0090675354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0789070129395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9130573272705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1099872589111</t>
+    <t xml:space="preserve">29.4776706695557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4427585601807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0014114379883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1323432922363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4989566802979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4504146575928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.572624206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0090751647949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0789031982422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9130554199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1099796295166</t>
   </si>
   <si>
     <t xml:space="preserve">31.2060070037842</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3282127380371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0401592254639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9664916992188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2981872558594</t>
+    <t xml:space="preserve">31.3282051086426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.040153503418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.966495513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2981929779053</t>
   </si>
   <si>
     <t xml:space="preserve">30.5076885223389</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0663375854492</t>
+    <t xml:space="preserve">31.0663414001465</t>
   </si>
   <si>
     <t xml:space="preserve">31.2845649719238</t>
@@ -2267,49 +2267,49 @@
     <t xml:space="preserve">31.5027866363525</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5464382171631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2671146392822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4766044616699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.563892364502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6773738861084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5115146636963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9877834320068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7841682434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.412633895874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4391689300537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0318603515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8195533752441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8372459411621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9964828491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0141639709473</t>
+    <t xml:space="preserve">31.5464305877686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2671127319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4766082763672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5638904571533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6773700714111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5115242004395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9877872467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7841701507568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4126281738281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4391670227051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0318565368652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8195552825928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8372440338135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9964790344238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0141716003418</t>
   </si>
   <si>
     <t xml:space="preserve">31.3595542907715</t>
@@ -2318,55 +2318,55 @@
     <t xml:space="preserve">31.5453224182129</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2618598937988</t>
+    <t xml:space="preserve">32.2618637084961</t>
   </si>
   <si>
     <t xml:space="preserve">31.2887840270996</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1118602752686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9618663787842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5280208587646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2534046173096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3591728210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.323787689209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3326301574707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8014678955078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.447624206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0053176879883</t>
+    <t xml:space="preserve">31.1118583679199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9618644714355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5280170440674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2534027099609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3591651916504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3237800598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3326263427734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8014793395996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4476280212402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0053253173828</t>
   </si>
   <si>
     <t xml:space="preserve">32.456470489502</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1557083129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3945503234863</t>
+    <t xml:space="preserve">32.1557006835938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3945465087891</t>
   </si>
   <si>
     <t xml:space="preserve">32.5980110168457</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6953201293945</t>
+    <t xml:space="preserve">32.6953277587891</t>
   </si>
   <si>
     <t xml:space="preserve">32.7307090759277</t>
@@ -2375,16 +2375,16 @@
     <t xml:space="preserve">33.1907043457031</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1818542480469</t>
+    <t xml:space="preserve">33.1818580627441</t>
   </si>
   <si>
     <t xml:space="preserve">33.6153182983398</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5799369812012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7037773132324</t>
+    <t xml:space="preserve">33.5799331665039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.703784942627</t>
   </si>
   <si>
     <t xml:space="preserve">33.686092376709</t>
@@ -2393,13 +2393,13 @@
     <t xml:space="preserve">33.2880172729492</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2703170776367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0845565795898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7749328613281</t>
+    <t xml:space="preserve">33.2703285217285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0845527648926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7749366760254</t>
   </si>
   <si>
     <t xml:space="preserve">32.2353210449219</t>
@@ -2411,37 +2411,37 @@
     <t xml:space="preserve">32.99609375</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0757026672363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1203231811523</t>
+    <t xml:space="preserve">33.0757064819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1203193664551</t>
   </si>
   <si>
     <t xml:space="preserve">31.9345531463623</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4299392700195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5449371337891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8987846374512</t>
+    <t xml:space="preserve">32.429931640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5449409484863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8987808227539</t>
   </si>
   <si>
     <t xml:space="preserve">33.2526321411133</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3764686584473</t>
+    <t xml:space="preserve">33.3764724731445</t>
   </si>
   <si>
     <t xml:space="preserve">33.8364753723145</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3676261901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0753173828125</t>
+    <t xml:space="preserve">33.3676300048828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0753135681152</t>
   </si>
   <si>
     <t xml:space="preserve">34.0576248168945</t>
@@ -2459,31 +2459,31 @@
     <t xml:space="preserve">35.0749359130859</t>
   </si>
   <si>
-    <t xml:space="preserve">35.0483932495117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.181079864502</t>
+    <t xml:space="preserve">35.048397064209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1810874938965</t>
   </si>
   <si>
     <t xml:space="preserve">35.3226203918457</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7295455932617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4730033874512</t>
+    <t xml:space="preserve">35.7295417785645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4730110168457</t>
   </si>
   <si>
     <t xml:space="preserve">35.5526161193848</t>
   </si>
   <si>
-    <t xml:space="preserve">35.5083923339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1987724304199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8533897399902</t>
+    <t xml:space="preserve">35.5083961486816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1987762451172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8533935546875</t>
   </si>
   <si>
     <t xml:space="preserve">35.8710861206055</t>
@@ -2492,10 +2492,10 @@
     <t xml:space="preserve">35.0395469665527</t>
   </si>
   <si>
-    <t xml:space="preserve">34.3495445251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4380035400391</t>
+    <t xml:space="preserve">34.349552154541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4380111694336</t>
   </si>
   <si>
     <t xml:space="preserve">35.1191635131836</t>
@@ -2510,37 +2510,37 @@
     <t xml:space="preserve">34.3760871887207</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7922477722168</t>
+    <t xml:space="preserve">33.7922439575195</t>
   </si>
   <si>
     <t xml:space="preserve">34.3230094909668</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5530128479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.181468963623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2518577575684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9510917663574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3668518066406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2960929870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2426223754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6056938171387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2607040405273</t>
+    <t xml:space="preserve">34.5530090332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1814727783203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2518501281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9510841369629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3668594360352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2960891723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.2426261901855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6056976318359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2607002258301</t>
   </si>
   <si>
     <t xml:space="preserve">35.9153137207031</t>
@@ -2549,22 +2549,22 @@
     <t xml:space="preserve">35.7914657592773</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8445434570312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3314628601074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3491592407227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8099327087402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9068489074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7834014892578</t>
+    <t xml:space="preserve">35.8445472717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3314666748047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3491554260254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8099365234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.906852722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7833938598633</t>
   </si>
   <si>
     <t xml:space="preserve">34.367244720459</t>
@@ -2573,25 +2573,25 @@
     <t xml:space="preserve">34.8980140686035</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1280097961426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2076263427734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5707054138184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9245452880859</t>
+    <t xml:space="preserve">35.1280059814453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2076225280762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5707092285156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9245414733887</t>
   </si>
   <si>
     <t xml:space="preserve">34.8095512390137</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8183898925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1903228759766</t>
+    <t xml:space="preserve">34.8183937072754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.190315246582</t>
   </si>
   <si>
     <t xml:space="preserve">32.8634033203125</t>
@@ -2600,43 +2600,43 @@
     <t xml:space="preserve">33.0403175354004</t>
   </si>
   <si>
-    <t xml:space="preserve">32.571475982666</t>
+    <t xml:space="preserve">32.5714721679688</t>
   </si>
   <si>
     <t xml:space="preserve">33.0226287841797</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4653244018555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7837905883789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1464691162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7657051086426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1376304626465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3499336242676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5360832214355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3149337768555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3414840698242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6068572998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8103179931641</t>
+    <t xml:space="preserve">32.4653205871582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7837829589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1464805603027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7657012939453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.137622833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3499374389648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5360870361328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3149375915527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3414726257324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.606861114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8103218078613</t>
   </si>
   <si>
     <t xml:space="preserve">33.6330146789551</t>
@@ -2645,7 +2645,7 @@
     <t xml:space="preserve">33.3233947753906</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3768615722656</t>
+    <t xml:space="preserve">32.3768539428711</t>
   </si>
   <si>
     <t xml:space="preserve">32.9253234863281</t>
@@ -2660,37 +2660,37 @@
     <t xml:space="preserve">33.1110916137695</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4649391174316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5268592834473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2939109802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.150562286377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1271438598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9569206237793</t>
+    <t xml:space="preserve">33.4649353027344</t>
   </si>
   <si>
     <t xml:space="preserve">33.52685546875</t>
   </si>
   <si>
-    <t xml:space="preserve">33.311824798584</t>
+    <t xml:space="preserve">33.2939071655273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1505546569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1271514892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9569244384766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5268478393555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3118286132812</t>
   </si>
   <si>
     <t xml:space="preserve">33.5358200073242</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8583641052246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4372673034668</t>
+    <t xml:space="preserve">33.8583679199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4372596740723</t>
   </si>
   <si>
     <t xml:space="preserve">34.1092338562012</t>
@@ -2702,25 +2702,25 @@
     <t xml:space="preserve">32.8907241821289</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9534378051758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7921714782715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7294464111328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7439002990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2814674377441</t>
+    <t xml:space="preserve">32.953441619873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.792163848877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7294502258301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7438926696777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2814712524414</t>
   </si>
   <si>
     <t xml:space="preserve">32.4785804748535</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6577758789062</t>
+    <t xml:space="preserve">32.6577796936035</t>
   </si>
   <si>
     <t xml:space="preserve">32.6040191650391</t>
@@ -2729,55 +2729,55 @@
     <t xml:space="preserve">33.2043113708496</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8135681152344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0017127990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6702156066895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.225715637207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0106811523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6612510681152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3421821594238</t>
+    <t xml:space="preserve">33.8135643005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0017204284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6702117919922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2257118225098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0106773376465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.661247253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3421859741211</t>
   </si>
   <si>
     <t xml:space="preserve">33.831485748291</t>
   </si>
   <si>
-    <t xml:space="preserve">33.9479560852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7543182373047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7364082336426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7274398803711</t>
+    <t xml:space="preserve">33.9479598999023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7543258666992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7364044189453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7274436950684</t>
   </si>
   <si>
     <t xml:space="preserve">35.139591217041</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6950836181641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.960391998291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3815002441406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4621353149414</t>
+    <t xml:space="preserve">35.6950798034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9603996276855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3814926147461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4621315002441</t>
   </si>
   <si>
     <t xml:space="preserve">35.8384399414062</t>
@@ -2786,13 +2786,13 @@
     <t xml:space="preserve">36.1251411437988</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0982666015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7757225036621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6268844604492</t>
+    <t xml:space="preserve">36.0982704162598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7757148742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.626880645752</t>
   </si>
   <si>
     <t xml:space="preserve">35.5606918334961</t>
@@ -2801,31 +2801,31 @@
     <t xml:space="preserve">34.6109733581543</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2471046447754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8653144836426</t>
+    <t xml:space="preserve">35.2471008300781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8653182983398</t>
   </si>
   <si>
     <t xml:space="preserve">35.8563575744629</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2864189147949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0086708068848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3670539855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6627235412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.0121459960938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7343978881836</t>
+    <t xml:space="preserve">36.2864151000977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0086669921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.367057800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.662712097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0121536254883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7344017028809</t>
   </si>
   <si>
     <t xml:space="preserve">36.1520233154297</t>
@@ -2834,91 +2834,91 @@
     <t xml:space="preserve">36.8239974975586</t>
   </si>
   <si>
-    <t xml:space="preserve">37.2092628479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7737121582031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4028930664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4855346679688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6199264526367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6502876281738</t>
+    <t xml:space="preserve">37.2092552185059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.7737197875977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4028968811035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.485538482666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6199226379395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6502838134766</t>
   </si>
   <si>
     <t xml:space="preserve">35.6682014465332</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6557693481445</t>
+    <t xml:space="preserve">34.6557731628418</t>
   </si>
   <si>
     <t xml:space="preserve">34.4676132202148</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1575088500977</t>
+    <t xml:space="preserve">35.1575126647949</t>
   </si>
   <si>
     <t xml:space="preserve">35.2650184631348</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5751304626465</t>
+    <t xml:space="preserve">34.5751342773438</t>
   </si>
   <si>
     <t xml:space="preserve">32.9892807006836</t>
   </si>
   <si>
-    <t xml:space="preserve">30.7762584686279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3103618621826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3198566436768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0594882965088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6473484039307</t>
+    <t xml:space="preserve">30.776252746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3103656768799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3198585510254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0594921112061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.647346496582</t>
   </si>
   <si>
     <t xml:space="preserve">30.6149845123291</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1794414520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5647010803223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.573673248291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2959156036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3710708618164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5681762695312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.058952331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5303344726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7777290344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2167434692383</t>
+    <t xml:space="preserve">31.1794357299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5647048950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5736637115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2959136962891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3710670471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5681800842285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0589485168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5303382873535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7777214050293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2167472839355</t>
   </si>
   <si>
     <t xml:space="preserve">33.2132720947266</t>
@@ -2927,13 +2927,13 @@
     <t xml:space="preserve">33.7329330444336</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4820518493652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9176063537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8494071960449</t>
+    <t xml:space="preserve">33.482063293457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9176025390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8494033813477</t>
   </si>
   <si>
     <t xml:space="preserve">34.4944953918457</t>
@@ -2942,13 +2942,13 @@
     <t xml:space="preserve">34.2973861694336</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8225250244141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7722473144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1898651123047</t>
+    <t xml:space="preserve">33.8225326538086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7722396850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1898727416992</t>
   </si>
   <si>
     <t xml:space="preserve">34.5930519104004</t>
@@ -2957,37 +2957,37 @@
     <t xml:space="preserve">34.3153038024902</t>
   </si>
   <si>
-    <t xml:space="preserve">35.0141563415527</t>
+    <t xml:space="preserve">35.0141525268555</t>
   </si>
   <si>
     <t xml:space="preserve">36.6000022888184</t>
   </si>
   <si>
-    <t xml:space="preserve">35.5427665710449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3725318908691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2774658203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7309226989746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6537590026855</t>
+    <t xml:space="preserve">35.5427742004395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3725357055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.277458190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7309265136719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6537628173828</t>
   </si>
   <si>
     <t xml:space="preserve">37.0927810668945</t>
   </si>
   <si>
-    <t xml:space="preserve">39.4222869873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6338310241699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.14453125</t>
+    <t xml:space="preserve">39.4222793579102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6338386535645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.1445236206055</t>
   </si>
   <si>
     <t xml:space="preserve">37.8991432189941</t>
@@ -3002,7 +3002,7 @@
     <t xml:space="preserve">37.0473594665527</t>
   </si>
   <si>
-    <t xml:space="preserve">37.6728248596191</t>
+    <t xml:space="preserve">37.6728286743164</t>
   </si>
   <si>
     <t xml:space="preserve">37.328369140625</t>
@@ -3020,70 +3020,70 @@
     <t xml:space="preserve">37.4643402099609</t>
   </si>
   <si>
-    <t xml:space="preserve">37.872241973877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.0926895141602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8479385375977</t>
+    <t xml:space="preserve">37.8722496032715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0926780700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8479423522949</t>
   </si>
   <si>
     <t xml:space="preserve">37.2739791870117</t>
   </si>
   <si>
-    <t xml:space="preserve">37.1923980712891</t>
+    <t xml:space="preserve">37.1923942565918</t>
   </si>
   <si>
     <t xml:space="preserve">37.7816009521484</t>
   </si>
   <si>
-    <t xml:space="preserve">37.4824638366699</t>
+    <t xml:space="preserve">37.4824676513672</t>
   </si>
   <si>
     <t xml:space="preserve">37.3646202087402</t>
   </si>
   <si>
-    <t xml:space="preserve">37.6003036499023</t>
+    <t xml:space="preserve">37.6003074645996</t>
   </si>
   <si>
     <t xml:space="preserve">37.9719581604004</t>
   </si>
   <si>
-    <t xml:space="preserve">36.7482261657715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.7663612365723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6637573242188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5974235534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0176887512207</t>
+    <t xml:space="preserve">36.7482299804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.7663497924805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6637649536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5974197387695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0176963806152</t>
   </si>
   <si>
     <t xml:space="preserve">40.0930938720703</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1445999145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.162727355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8244514465332</t>
+    <t xml:space="preserve">41.1445960998535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1627311706543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8244438171387</t>
   </si>
   <si>
     <t xml:space="preserve">40.7910804748535</t>
   </si>
   <si>
-    <t xml:space="preserve">40.9633026123047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7094917297363</t>
+    <t xml:space="preserve">40.963306427002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7094993591309</t>
   </si>
   <si>
     <t xml:space="preserve">40.2925186157227</t>
@@ -3092,100 +3092,100 @@
     <t xml:space="preserve">41.1717910766602</t>
   </si>
   <si>
-    <t xml:space="preserve">41.4527931213379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5525093078613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.2776870727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6884803771973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6975479125977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8335151672363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3349609375</t>
+    <t xml:space="preserve">41.4527969360352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5525169372559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.2776832580566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6884841918945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6975517272949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8335189819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3349571228027</t>
   </si>
   <si>
     <t xml:space="preserve">42.3139457702637</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6221504211426</t>
+    <t xml:space="preserve">42.6221389770508</t>
   </si>
   <si>
     <t xml:space="preserve">42.9666061401367</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1569595336914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.8005485534668</t>
+    <t xml:space="preserve">43.1569557189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.8005447387695</t>
   </si>
   <si>
     <t xml:space="preserve">44.1993980407715</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8096199035645</t>
+    <t xml:space="preserve">43.8096160888672</t>
   </si>
   <si>
     <t xml:space="preserve">43.2022819519043</t>
   </si>
   <si>
-    <t xml:space="preserve">43.6373825073242</t>
+    <t xml:space="preserve">43.6373863220215</t>
   </si>
   <si>
     <t xml:space="preserve">42.567756652832</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8940811157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.903148651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.703727722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4074745178223</t>
+    <t xml:space="preserve">42.8940849304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.9031524658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.7037239074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4074821472168</t>
   </si>
   <si>
     <t xml:space="preserve">41.0086288452148</t>
   </si>
   <si>
-    <t xml:space="preserve">41.5253143310547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.5372657775879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4828720092773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4466209411621</t>
+    <t xml:space="preserve">41.525318145752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.5372619628906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4828758239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4466133117676</t>
   </si>
   <si>
     <t xml:space="preserve">40.6279106140137</t>
   </si>
   <si>
-    <t xml:space="preserve">40.374095916748</t>
+    <t xml:space="preserve">40.3741035461426</t>
   </si>
   <si>
     <t xml:space="preserve">41.8788375854492</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8545303344727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.597827911377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3530883789062</t>
+    <t xml:space="preserve">40.8545265197754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5978317260742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.353084564209</t>
   </si>
   <si>
     <t xml:space="preserve">41.0630149841309</t>
@@ -3194,7 +3194,7 @@
     <t xml:space="preserve">41.7881889343262</t>
   </si>
   <si>
-    <t xml:space="preserve">42.1507835388184</t>
+    <t xml:space="preserve">42.1507797241211</t>
   </si>
   <si>
     <t xml:space="preserve">41.1536636352539</t>
@@ -3206,7 +3206,7 @@
     <t xml:space="preserve">41.0992736816406</t>
   </si>
   <si>
-    <t xml:space="preserve">41.5071868896484</t>
+    <t xml:space="preserve">41.5071907043457</t>
   </si>
   <si>
     <t xml:space="preserve">40.736686706543</t>
@@ -3215,13 +3215,13 @@
     <t xml:space="preserve">40.2290649414062</t>
   </si>
   <si>
-    <t xml:space="preserve">40.9723701477051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8302154541016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9542350769043</t>
+    <t xml:space="preserve">40.9723663330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8302192687988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9542388916016</t>
   </si>
   <si>
     <t xml:space="preserve">40.655101776123</t>
@@ -3230,7 +3230,7 @@
     <t xml:space="preserve">40.9179801940918</t>
   </si>
   <si>
-    <t xml:space="preserve">40.9995651245117</t>
+    <t xml:space="preserve">40.9995613098145</t>
   </si>
   <si>
     <t xml:space="preserve">40.5463256835938</t>
@@ -3242,10 +3242,10 @@
     <t xml:space="preserve">40.6913642883301</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6460418701172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.582592010498</t>
+    <t xml:space="preserve">40.6460380554199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.5825881958008</t>
   </si>
   <si>
     <t xml:space="preserve">40.7820091247559</t>
@@ -3254,19 +3254,19 @@
     <t xml:space="preserve">40.455680847168</t>
   </si>
   <si>
-    <t xml:space="preserve">39.64892578125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.7849006652832</t>
+    <t xml:space="preserve">39.6489295959473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.7848968505859</t>
   </si>
   <si>
     <t xml:space="preserve">39.9752540588379</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3712158203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5343818664551</t>
+    <t xml:space="preserve">41.3712196350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5343780517578</t>
   </si>
   <si>
     <t xml:space="preserve">42.341136932373</t>
@@ -3275,10 +3275,10 @@
     <t xml:space="preserve">42.0238723754883</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0782585144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7972602844238</t>
+    <t xml:space="preserve">42.078254699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7972564697266</t>
   </si>
   <si>
     <t xml:space="preserve">42.8306274414062</t>
@@ -3287,31 +3287,31 @@
     <t xml:space="preserve">42.25048828125</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8759498596191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.5405654907227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.283863067627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2657356262207</t>
+    <t xml:space="preserve">42.8759536743164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5405578613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.2838668823242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.2657318115234</t>
   </si>
   <si>
     <t xml:space="preserve">43.2566719055176</t>
   </si>
   <si>
-    <t xml:space="preserve">42.513370513916</t>
+    <t xml:space="preserve">42.5133666992188</t>
   </si>
   <si>
     <t xml:space="preserve">41.9966812133789</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3287811279297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7787132263184</t>
+    <t xml:space="preserve">40.3287773132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7787170410156</t>
   </si>
   <si>
     <t xml:space="preserve">40.8363990783691</t>
@@ -3320,7 +3320,7 @@
     <t xml:space="preserve">41.9060325622559</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9785575866699</t>
+    <t xml:space="preserve">41.9785499572754</t>
   </si>
   <si>
     <t xml:space="preserve">41.6250305175781</t>
@@ -3329,31 +3329,31 @@
     <t xml:space="preserve">40.3197135925293</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3440208435059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6159629821777</t>
+    <t xml:space="preserve">41.3440246582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6159591674805</t>
   </si>
   <si>
     <t xml:space="preserve">42.8668899536133</t>
   </si>
   <si>
-    <t xml:space="preserve">42.3502044677734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8607063293457</t>
+    <t xml:space="preserve">42.3502006530762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8607025146484</t>
   </si>
   <si>
     <t xml:space="preserve">41.9332237243652</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2276229858398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.164623260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7052803039551</t>
+    <t xml:space="preserve">41.2276191711426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1646270751953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7052841186523</t>
   </si>
   <si>
     <t xml:space="preserve">41.1084938049316</t>
@@ -3368,19 +3368,19 @@
     <t xml:space="preserve">40.1279716491699</t>
   </si>
   <si>
-    <t xml:space="preserve">39.4406929016113</t>
+    <t xml:space="preserve">39.4406967163086</t>
   </si>
   <si>
     <t xml:space="preserve">39.3490524291992</t>
   </si>
   <si>
-    <t xml:space="preserve">39.5781478881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0088386535645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4303703308105</t>
+    <t xml:space="preserve">39.5781440734863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0088424682617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4303741455078</t>
   </si>
   <si>
     <t xml:space="preserve">40.2929191589355</t>
@@ -3389,22 +3389,22 @@
     <t xml:space="preserve">40.338737487793</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0260200500488</t>
+    <t xml:space="preserve">41.0260162353516</t>
   </si>
   <si>
     <t xml:space="preserve">39.8072395324707</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6777992248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3295707702637</t>
+    <t xml:space="preserve">40.6777954101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3295669555664</t>
   </si>
   <si>
     <t xml:space="preserve">40.751106262207</t>
   </si>
   <si>
-    <t xml:space="preserve">40.5861549377441</t>
+    <t xml:space="preserve">40.5861587524414</t>
   </si>
   <si>
     <t xml:space="preserve">40.9801979064941</t>
@@ -3416,10 +3416,10 @@
     <t xml:space="preserve">41.5391845703125</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3833999633789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9172096252441</t>
+    <t xml:space="preserve">41.3833961486816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9172058105469</t>
   </si>
   <si>
     <t xml:space="preserve">38.4143524169922</t>
@@ -3428,7 +3428,7 @@
     <t xml:space="preserve">39.211597442627</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2574119567871</t>
+    <t xml:space="preserve">39.2574195861816</t>
   </si>
   <si>
     <t xml:space="preserve">39.275749206543</t>
@@ -3440,67 +3440,67 @@
     <t xml:space="preserve">40.1554641723633</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0180053710938</t>
+    <t xml:space="preserve">40.0180015563965</t>
   </si>
   <si>
     <t xml:space="preserve">40.0546607971191</t>
   </si>
   <si>
-    <t xml:space="preserve">39.8805541992188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9916687011719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.0833129882812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.3398895263672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8725318908691</t>
+    <t xml:space="preserve">39.8805465698242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9916648864746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.083309173584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.3398933410645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8725395202637</t>
   </si>
   <si>
     <t xml:space="preserve">38.9550132751465</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9458541870117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6067924499512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.1474571228027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8438949584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3845520019531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2654266357422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8164024353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1268196105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6033363342285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7682838439941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4658813476562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5025291442871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0901679992676</t>
+    <t xml:space="preserve">38.9458503723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6067962646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.1474533081055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8438911437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3845596313477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2654304504395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8164100646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.126823425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6033325195312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7682800292969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.465877532959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5025329589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0901641845703</t>
   </si>
   <si>
     <t xml:space="preserve">40.549503326416</t>
@@ -3509,19 +3509,19 @@
     <t xml:space="preserve">40.3204116821289</t>
   </si>
   <si>
-    <t xml:space="preserve">40.082160949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1371383666992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7809028625488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.900032043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2849082946777</t>
+    <t xml:space="preserve">40.0821571350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.137134552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7808990478516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9000358581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.284912109375</t>
   </si>
   <si>
     <t xml:space="preserve">39.220760345459</t>
@@ -3530,13 +3530,13 @@
     <t xml:space="preserve">38.6159591674805</t>
   </si>
   <si>
-    <t xml:space="preserve">38.890869140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.101634979248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.4131965637207</t>
+    <t xml:space="preserve">38.8908653259277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.1016311645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.413200378418</t>
   </si>
   <si>
     <t xml:space="preserve">40.0454978942871</t>
@@ -3545,25 +3545,25 @@
     <t xml:space="preserve">39.7247695922852</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0351829528809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3742370605469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6228103637695</t>
+    <t xml:space="preserve">41.0351867675781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3742408752441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6228179931641</t>
   </si>
   <si>
     <t xml:space="preserve">41.3559112548828</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8060874938965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4383888244629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1817970275879</t>
+    <t xml:space="preserve">40.8060913085938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4383811950684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1818008422852</t>
   </si>
   <si>
     <t xml:space="preserve">41.1726341247559</t>
@@ -3575,7 +3575,7 @@
     <t xml:space="preserve">41.4292221069336</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6766395568848</t>
+    <t xml:space="preserve">41.676643371582</t>
   </si>
   <si>
     <t xml:space="preserve">41.4108963012695</t>
@@ -3584,7 +3584,7 @@
     <t xml:space="preserve">41.3925628662109</t>
   </si>
   <si>
-    <t xml:space="preserve">41.8232650756836</t>
+    <t xml:space="preserve">41.8232612609863</t>
   </si>
   <si>
     <t xml:space="preserve">42.0340270996094</t>
@@ -3593,22 +3593,22 @@
     <t xml:space="preserve">42.9595680236816</t>
   </si>
   <si>
-    <t xml:space="preserve">42.2997779846191</t>
+    <t xml:space="preserve">42.2997703552246</t>
   </si>
   <si>
     <t xml:space="preserve">42.0798454284668</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6583137512207</t>
+    <t xml:space="preserve">41.6583099365234</t>
   </si>
   <si>
     <t xml:space="preserve">41.5758399963379</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7499542236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7316207885742</t>
+    <t xml:space="preserve">41.7499504089355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7316246032715</t>
   </si>
   <si>
     <t xml:space="preserve">41.8965721130371</t>
@@ -3617,31 +3617,31 @@
     <t xml:space="preserve">42.0523529052734</t>
   </si>
   <si>
-    <t xml:space="preserve">42.1073341369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1886596679688</t>
+    <t xml:space="preserve">42.1073379516602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1886558532715</t>
   </si>
   <si>
     <t xml:space="preserve">43.0878562927246</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6479988098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.5746917724609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3089332580566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.198974609375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9057350158691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0065422058105</t>
+    <t xml:space="preserve">42.6479949951172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5746841430664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3089370727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1989707946777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9057312011719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.0065383911133</t>
   </si>
   <si>
     <t xml:space="preserve">41.9698753356934</t>
@@ -3650,16 +3650,16 @@
     <t xml:space="preserve">42.0248641967773</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2551078796387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0535125732422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1188087463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0363273620605</t>
+    <t xml:space="preserve">41.2551116943359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0535087585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1188049316406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0363311767578</t>
   </si>
   <si>
     <t xml:space="preserve">40.3753967285156</t>
@@ -3668,40 +3668,40 @@
     <t xml:space="preserve">40.5036811828613</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2092971801758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5300216674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8690795898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6021842956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6949157714844</t>
+    <t xml:space="preserve">41.2092933654785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5300178527832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8690757751465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.602180480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6949119567871</t>
   </si>
   <si>
     <t xml:space="preserve">42.9545707702637</t>
   </si>
   <si>
-    <t xml:space="preserve">42.602180480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0272254943848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.4630737304688</t>
+    <t xml:space="preserve">42.6021766662598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.0272178649902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.463077545166</t>
   </si>
   <si>
     <t xml:space="preserve">42.1848754882812</t>
   </si>
   <si>
-    <t xml:space="preserve">42.1477813720703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9437675476074</t>
+    <t xml:space="preserve">42.147777557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9437637329102</t>
   </si>
   <si>
     <t xml:space="preserve">42.4167137145996</t>
@@ -3710,31 +3710,31 @@
     <t xml:space="preserve">42.7690963745117</t>
   </si>
   <si>
-    <t xml:space="preserve">43.5480728149414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.9004554748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.327033996582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.9282760620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1508445739746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.2435760498047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.484691619873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.8927230834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.9761810302734</t>
+    <t xml:space="preserve">43.5480690002441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.9004592895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.3270378112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.928279876709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1508407592773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.2435722351074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.4846839904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.8927192687988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.9761772155762</t>
   </si>
   <si>
     <t xml:space="preserve">44.6701545715332</t>
@@ -3743,52 +3743,52 @@
     <t xml:space="preserve">44.5866928100586</t>
   </si>
   <si>
-    <t xml:space="preserve">44.1044807434082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.7443389892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.7628936767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.9112701416016</t>
+    <t xml:space="preserve">44.1044731140137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.7443428039551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.7628898620605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.9112663269043</t>
   </si>
   <si>
     <t xml:space="preserve">44.901985168457</t>
   </si>
   <si>
-    <t xml:space="preserve">44.6979789733887</t>
+    <t xml:space="preserve">44.6979713439941</t>
   </si>
   <si>
     <t xml:space="preserve">45.1987419128418</t>
   </si>
   <si>
-    <t xml:space="preserve">45.1338233947754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.1152801513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.4599266052246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.9807777404785</t>
+    <t xml:space="preserve">45.1338195800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.1152763366699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.4599304199219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.9807739257812</t>
   </si>
   <si>
     <t xml:space="preserve">46.5526657104492</t>
   </si>
   <si>
-    <t xml:space="preserve">48.7782859802246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.0178680419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.6283798217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.8494186401367</t>
+    <t xml:space="preserve">48.7782897949219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.0178718566895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.6283874511719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.8494148254395</t>
   </si>
   <si>
     <t xml:space="preserve">46.8679618835449</t>
@@ -3803,34 +3803,34 @@
     <t xml:space="preserve">46.9421501159668</t>
   </si>
   <si>
-    <t xml:space="preserve">47.0534324645996</t>
+    <t xml:space="preserve">47.0534362792969</t>
   </si>
   <si>
     <t xml:space="preserve">47.5171051025391</t>
   </si>
   <si>
-    <t xml:space="preserve">47.0163345336914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.2945365905762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.2218856811523</t>
+    <t xml:space="preserve">47.0163383483887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.2945404052734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.2218818664551</t>
   </si>
   <si>
     <t xml:space="preserve">47.7396659851074</t>
   </si>
   <si>
-    <t xml:space="preserve">48.3887977600098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.8339309692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.4274291992188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.9838333129883</t>
+    <t xml:space="preserve">48.3888092041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.8339347839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.427433013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.9838371276855</t>
   </si>
   <si>
     <t xml:space="preserve">49.8911056518555</t>
@@ -3839,7 +3839,7 @@
     <t xml:space="preserve">50.9482727050781</t>
   </si>
   <si>
-    <t xml:space="preserve">50.9111824035645</t>
+    <t xml:space="preserve">50.9111785888672</t>
   </si>
   <si>
     <t xml:space="preserve">52.0981826782227</t>
@@ -3851,22 +3851,22 @@
     <t xml:space="preserve">52.7102279663086</t>
   </si>
   <si>
-    <t xml:space="preserve">53.0069808959961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.4320297241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.7287712097168</t>
+    <t xml:space="preserve">53.0069770812988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.4320259094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.7287750244141</t>
   </si>
   <si>
     <t xml:space="preserve">52.9142456054688</t>
   </si>
   <si>
-    <t xml:space="preserve">53.2666320800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.5989456176758</t>
+    <t xml:space="preserve">53.2666358947754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.5989532470703</t>
   </si>
   <si>
     <t xml:space="preserve">51.8941650390625</t>
@@ -3875,22 +3875,22 @@
     <t xml:space="preserve">51.467586517334</t>
   </si>
   <si>
-    <t xml:space="preserve">52.0610809326172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.8014259338379</t>
+    <t xml:space="preserve">52.0610885620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.8014335632324</t>
   </si>
   <si>
     <t xml:space="preserve">51.5232315063477</t>
   </si>
   <si>
-    <t xml:space="preserve">51.6530570983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.4304962158203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.8570709228516</t>
+    <t xml:space="preserve">51.6530609130859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.430492401123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.8570671081543</t>
   </si>
   <si>
     <t xml:space="preserve">50.6886177062988</t>
@@ -3899,16 +3899,16 @@
     <t xml:space="preserve">49.9467468261719</t>
   </si>
   <si>
-    <t xml:space="preserve">49.0564880371094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.7411956787109</t>
+    <t xml:space="preserve">49.0564956665039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.7411994934082</t>
   </si>
   <si>
     <t xml:space="preserve">48.6670112609863</t>
   </si>
   <si>
-    <t xml:space="preserve">47.3872680664062</t>
+    <t xml:space="preserve">47.3872718811035</t>
   </si>
   <si>
     <t xml:space="preserve">48.0920600891113</t>
@@ -3917,34 +3917,34 @@
     <t xml:space="preserve">46.9236030578613</t>
   </si>
   <si>
-    <t xml:space="preserve">46.3857383728027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.3501777648926</t>
+    <t xml:space="preserve">46.3857421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.3501815795898</t>
   </si>
   <si>
     <t xml:space="preserve">46.9050559997559</t>
   </si>
   <si>
-    <t xml:space="preserve">47.4614639282227</t>
+    <t xml:space="preserve">47.4614601135254</t>
   </si>
   <si>
     <t xml:space="preserve">47.1647148132324</t>
   </si>
   <si>
-    <t xml:space="preserve">45.365665435791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4305839538574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.6268463134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.7829704284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.356388092041</t>
+    <t xml:space="preserve">45.3656616210938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4305801391602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.6268501281738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.7829666137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.3563842773438</t>
   </si>
   <si>
     <t xml:space="preserve">45.6160469055176</t>
@@ -3956,10 +3956,10 @@
     <t xml:space="preserve">45.3378410339355</t>
   </si>
   <si>
-    <t xml:space="preserve">45.8200645446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.9591598510742</t>
+    <t xml:space="preserve">45.8200607299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.9591636657715</t>
   </si>
   <si>
     <t xml:space="preserve">47.1461639404297</t>
@@ -3968,10 +3968,10 @@
     <t xml:space="preserve">47.4243659973145</t>
   </si>
   <si>
-    <t xml:space="preserve">47.3687286376953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.6654815673828</t>
+    <t xml:space="preserve">47.368724822998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.6654777526855</t>
   </si>
   <si>
     <t xml:space="preserve">47.9436836242676</t>
@@ -3980,55 +3980,55 @@
     <t xml:space="preserve">48.258975982666</t>
   </si>
   <si>
-    <t xml:space="preserve">48.889575958252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.6113662719727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.0193977355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.1878509521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.0781021118164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.2280044555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.3949317932129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.2465591430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.9312553405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.1352729797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.3578338623047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.025520324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.5804061889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0239868164062</t>
+    <t xml:space="preserve">48.8895721435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.6113700866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.0193939208984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.1878547668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.0781059265137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.2280082702637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.3949356079102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.2465553283691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.9312591552734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.1352767944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.357837677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.0255279541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.5803985595703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.0239906311035</t>
   </si>
   <si>
     <t xml:space="preserve">51.0410118103027</t>
   </si>
   <si>
-    <t xml:space="preserve">52.4134750366211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.6849517822266</t>
+    <t xml:space="preserve">52.4134826660156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.6849555969238</t>
   </si>
   <si>
     <t xml:space="preserve">51.8611679077148</t>
@@ -4046,10 +4046,10 @@
     <t xml:space="preserve">51.4492721557617</t>
   </si>
   <si>
-    <t xml:space="preserve">51.898609161377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.505443572998</t>
+    <t xml:space="preserve">51.8986129760742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.5054397583008</t>
   </si>
   <si>
     <t xml:space="preserve">50.2884864807129</t>
@@ -4070,37 +4070,37 @@
     <t xml:space="preserve">50.4757041931152</t>
   </si>
   <si>
-    <t xml:space="preserve">50.1387023925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.8688774108887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.0450859069824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.355655670166</t>
+    <t xml:space="preserve">50.1387062072754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.8688735961914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.0450897216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.3556594848633</t>
   </si>
   <si>
     <t xml:space="preserve">51.6552200317383</t>
   </si>
   <si>
-    <t xml:space="preserve">51.973503112793</t>
+    <t xml:space="preserve">51.9734992980957</t>
   </si>
   <si>
     <t xml:space="preserve">52.0109481811523</t>
   </si>
   <si>
-    <t xml:space="preserve">52.9096298217773</t>
+    <t xml:space="preserve">52.9096221923828</t>
   </si>
   <si>
     <t xml:space="preserve">52.198169708252</t>
   </si>
   <si>
-    <t xml:space="preserve">52.3666687011719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.7598457336426</t>
+    <t xml:space="preserve">52.3666725158691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.7598419189453</t>
   </si>
   <si>
     <t xml:space="preserve">52.9283485412598</t>
@@ -4109,19 +4109,19 @@
     <t xml:space="preserve">52.8909034729004</t>
   </si>
   <si>
-    <t xml:space="preserve">51.9922218322754</t>
+    <t xml:space="preserve">51.9922294616699</t>
   </si>
   <si>
     <t xml:space="preserve">51.130989074707</t>
   </si>
   <si>
-    <t xml:space="preserve">51.1684417724609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.8876037597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.6254844665527</t>
+    <t xml:space="preserve">51.1684341430664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.8875999450684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.62548828125</t>
   </si>
   <si>
     <t xml:space="preserve">50.9999389648438</t>
@@ -4130,10 +4130,10 @@
     <t xml:space="preserve">51.4118232727051</t>
   </si>
   <si>
-    <t xml:space="preserve">50.1574249267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.8842964172363</t>
+    <t xml:space="preserve">50.1574287414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.8843002319336</t>
   </si>
   <si>
     <t xml:space="preserve">47.9294548034668</t>
@@ -4142,10 +4142,10 @@
     <t xml:space="preserve">48.6783485412598</t>
   </si>
   <si>
-    <t xml:space="preserve">48.2102890014648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.2928924560547</t>
+    <t xml:space="preserve">48.2102928161621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.2928886413574</t>
   </si>
   <si>
     <t xml:space="preserve">46.7593040466309</t>
@@ -4160,40 +4160,40 @@
     <t xml:space="preserve">46.3754920959473</t>
   </si>
   <si>
-    <t xml:space="preserve">46.5814399719238</t>
+    <t xml:space="preserve">46.5814361572266</t>
   </si>
   <si>
     <t xml:space="preserve">46.7686614990234</t>
   </si>
   <si>
-    <t xml:space="preserve">45.4393692016602</t>
+    <t xml:space="preserve">45.4393730163574</t>
   </si>
   <si>
     <t xml:space="preserve">44.325382232666</t>
   </si>
   <si>
-    <t xml:space="preserve">43.9134864807129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.145866394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5764846801758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.874397277832</t>
+    <t xml:space="preserve">43.9134902954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1458702087402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5764808654785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8743934631348</t>
   </si>
   <si>
     <t xml:space="preserve">42.4999465942383</t>
   </si>
   <si>
-    <t xml:space="preserve">41.919548034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8275871276855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6029205322266</t>
+    <t xml:space="preserve">41.9195518493652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8275833129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6029243469238</t>
   </si>
   <si>
     <t xml:space="preserve">42.8837547302246</t>
@@ -4208,16 +4208,16 @@
     <t xml:space="preserve">43.3330955505371</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1552276611328</t>
+    <t xml:space="preserve">43.1552238464355</t>
   </si>
   <si>
     <t xml:space="preserve">40.5808944702148</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7978553771973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9647064208984</t>
+    <t xml:space="preserve">41.7978591918945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9647026062012</t>
   </si>
   <si>
     <t xml:space="preserve">39.7290267944336</t>
@@ -4226,43 +4226,43 @@
     <t xml:space="preserve">40.4123954772949</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0941123962402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.3639335632324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.1767120361328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7725219726562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4140396118164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.27197265625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.749397277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9382705688477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3672332763672</t>
+    <t xml:space="preserve">40.094108581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.3639373779297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.1767082214355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.7725296020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4140434265137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2719764709473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7494010925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9382743835449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3672370910645</t>
   </si>
   <si>
     <t xml:space="preserve">42.5280303955078</t>
   </si>
   <si>
-    <t xml:space="preserve">42.7433319091797</t>
+    <t xml:space="preserve">42.7433395385742</t>
   </si>
   <si>
     <t xml:space="preserve">42.7339744567871</t>
   </si>
   <si>
-    <t xml:space="preserve">42.799503326416</t>
+    <t xml:space="preserve">42.7995071411133</t>
   </si>
   <si>
     <t xml:space="preserve">43.2113952636719</t>
@@ -4271,25 +4271,25 @@
     <t xml:space="preserve">42.9399223327637</t>
   </si>
   <si>
-    <t xml:space="preserve">42.5186653137207</t>
+    <t xml:space="preserve">42.518669128418</t>
   </si>
   <si>
     <t xml:space="preserve">42.1348533630371</t>
   </si>
   <si>
-    <t xml:space="preserve">43.969654083252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.8854103088379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.7246131896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.2130470275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.7576484680176</t>
+    <t xml:space="preserve">43.9696617126465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.8854064941406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.7246170043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.2130508422852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.7576560974121</t>
   </si>
   <si>
     <t xml:space="preserve">44.7279167175293</t>
@@ -4304,10 +4304,10 @@
     <t xml:space="preserve">45.5142593383789</t>
   </si>
   <si>
-    <t xml:space="preserve">44.6343040466309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.0368347167969</t>
+    <t xml:space="preserve">44.6343078613281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.0368385314941</t>
   </si>
   <si>
     <t xml:space="preserve">45.1117248535156</t>
@@ -4325,7 +4325,7 @@
     <t xml:space="preserve">43.3050079345703</t>
   </si>
   <si>
-    <t xml:space="preserve">42.7526931762695</t>
+    <t xml:space="preserve">42.7526969909668</t>
   </si>
   <si>
     <t xml:space="preserve">42.0786895751953</t>
@@ -4337,7 +4337,7 @@
     <t xml:space="preserve">43.0522575378418</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6293563842773</t>
+    <t xml:space="preserve">41.6293525695801</t>
   </si>
   <si>
     <t xml:space="preserve">40.6183395385742</t>
@@ -4364,13 +4364,13 @@
     <t xml:space="preserve">38.6992874145508</t>
   </si>
   <si>
-    <t xml:space="preserve">39.1579895019531</t>
+    <t xml:space="preserve">39.1579933166504</t>
   </si>
   <si>
     <t xml:space="preserve">39.1954307556152</t>
   </si>
   <si>
-    <t xml:space="preserve">38.7180137634277</t>
+    <t xml:space="preserve">38.7180099487305</t>
   </si>
   <si>
     <t xml:space="preserve">38.8584289550781</t>
@@ -4382,16 +4382,16 @@
     <t xml:space="preserve">40.1639633178711</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3764343261719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2625694274902</t>
+    <t xml:space="preserve">39.3764305114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2625732421875</t>
   </si>
   <si>
     <t xml:space="preserve">39.6705703735352</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9362449645996</t>
+    <t xml:space="preserve">39.9362411499023</t>
   </si>
   <si>
     <t xml:space="preserve">40.6004219055176</t>
@@ -4412,7 +4412,7 @@
     <t xml:space="preserve">37.8013763427734</t>
   </si>
   <si>
-    <t xml:space="preserve">37.2320785522461</t>
+    <t xml:space="preserve">37.2320823669434</t>
   </si>
   <si>
     <t xml:space="preserve">37.4408187866211</t>
@@ -4424,7 +4424,7 @@
     <t xml:space="preserve">35.1351623535156</t>
   </si>
   <si>
-    <t xml:space="preserve">35.647533416748</t>
+    <t xml:space="preserve">35.6475296020508</t>
   </si>
   <si>
     <t xml:space="preserve">35.6570205688477</t>
@@ -4436,19 +4436,19 @@
     <t xml:space="preserve">35.7898559570312</t>
   </si>
   <si>
-    <t xml:space="preserve">37.0233345031738</t>
+    <t xml:space="preserve">37.0233383178711</t>
   </si>
   <si>
     <t xml:space="preserve">37.4218406677246</t>
   </si>
   <si>
-    <t xml:space="preserve">36.1504096984863</t>
+    <t xml:space="preserve">36.1504135131836</t>
   </si>
   <si>
     <t xml:space="preserve">35.5905990600586</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8999824523926</t>
+    <t xml:space="preserve">36.8999862670898</t>
   </si>
   <si>
     <t xml:space="preserve">39.7180137634277</t>
@@ -4457,7 +4457,7 @@
     <t xml:space="preserve">39.0063896179199</t>
   </si>
   <si>
-    <t xml:space="preserve">39.072811126709</t>
+    <t xml:space="preserve">39.0728073120117</t>
   </si>
   <si>
     <t xml:space="preserve">39.3479690551758</t>
@@ -4472,7 +4472,7 @@
     <t xml:space="preserve">40.8186569213867</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7142791748047</t>
+    <t xml:space="preserve">40.714282989502</t>
   </si>
   <si>
     <t xml:space="preserve">41.0273971557617</t>
@@ -4487,7 +4487,7 @@
     <t xml:space="preserve">41.568229675293</t>
   </si>
   <si>
-    <t xml:space="preserve">40.9799537658691</t>
+    <t xml:space="preserve">40.9799575805664</t>
   </si>
   <si>
     <t xml:space="preserve">40.7996788024902</t>
@@ -4496,7 +4496,7 @@
     <t xml:space="preserve">40.0026626586914</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7807006835938</t>
+    <t xml:space="preserve">40.7806968688965</t>
   </si>
   <si>
     <t xml:space="preserve">40.9420051574707</t>
@@ -4511,34 +4511,34 @@
     <t xml:space="preserve">40.7047958374023</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6573486328125</t>
+    <t xml:space="preserve">40.6573524475098</t>
   </si>
   <si>
     <t xml:space="preserve">40.2967987060547</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0311241149902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.5661964416504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0179061889648</t>
+    <t xml:space="preserve">40.031120300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.5662002563477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0179100036621</t>
   </si>
   <si>
     <t xml:space="preserve">40.4960517883301</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1222763061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3120460510254</t>
+    <t xml:space="preserve">41.1222801208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3120422363281</t>
   </si>
   <si>
     <t xml:space="preserve">40.2019119262695</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0880546569824</t>
+    <t xml:space="preserve">40.0880508422852</t>
   </si>
   <si>
     <t xml:space="preserve">39.5377349853516</t>
@@ -4550,10 +4550,10 @@
     <t xml:space="preserve">40.6478652954102</t>
   </si>
   <si>
-    <t xml:space="preserve">40.1070327758789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1354942321777</t>
+    <t xml:space="preserve">40.1070289611816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1354904174805</t>
   </si>
   <si>
     <t xml:space="preserve">39.9077796936035</t>
@@ -4562,7 +4562,7 @@
     <t xml:space="preserve">40.2398681640625</t>
   </si>
   <si>
-    <t xml:space="preserve">41.074836730957</t>
+    <t xml:space="preserve">41.0748405456543</t>
   </si>
   <si>
     <t xml:space="preserve">41.7579917907715</t>
@@ -4595,16 +4595,16 @@
     <t xml:space="preserve">39.2720603942871</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1619300842285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7976417541504</t>
+    <t xml:space="preserve">38.1619338989258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7976455688477</t>
   </si>
   <si>
     <t xml:space="preserve">38.4181137084961</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8925285339355</t>
+    <t xml:space="preserve">38.8925323486328</t>
   </si>
   <si>
     <t xml:space="preserve">38.550952911377</t>
@@ -4613,7 +4613,7 @@
     <t xml:space="preserve">39.0253677368164</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4560661315918</t>
+    <t xml:space="preserve">38.4560699462891</t>
   </si>
   <si>
     <t xml:space="preserve">38.0480690002441</t>
@@ -4622,10 +4622,10 @@
     <t xml:space="preserve">38.1050033569336</t>
   </si>
   <si>
-    <t xml:space="preserve">37.7254676818848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5546798706055</t>
+    <t xml:space="preserve">37.7254638671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5546836853027</t>
   </si>
   <si>
     <t xml:space="preserve">37.0043601989746</t>
@@ -4637,7 +4637,7 @@
     <t xml:space="preserve">35.2015800476074</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5848426818848</t>
+    <t xml:space="preserve">34.584846496582</t>
   </si>
   <si>
     <t xml:space="preserve">35.3913497924805</t>
@@ -4649,34 +4649,34 @@
     <t xml:space="preserve">35.7613906860352</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4919891357422</t>
+    <t xml:space="preserve">36.4919853210449</t>
   </si>
   <si>
     <t xml:space="preserve">34.2527503967285</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4936904907227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5506210327148</t>
+    <t xml:space="preserve">33.4936866760254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5506172180176</t>
   </si>
   <si>
     <t xml:space="preserve">33.9965705871582</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7119178771973</t>
+    <t xml:space="preserve">33.7119140625</t>
   </si>
   <si>
     <t xml:space="preserve">33.626522064209</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6986999511719</t>
+    <t xml:space="preserve">34.6987037658691</t>
   </si>
   <si>
     <t xml:space="preserve">34.9169311523438</t>
   </si>
   <si>
-    <t xml:space="preserve">34.935905456543</t>
+    <t xml:space="preserve">34.9359092712402</t>
   </si>
   <si>
     <t xml:space="preserve">34.1104278564453</t>
@@ -4691,22 +4691,22 @@
     <t xml:space="preserve">34.7935829162598</t>
   </si>
   <si>
-    <t xml:space="preserve">35.9891090393066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0555267333984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.770881652832</t>
+    <t xml:space="preserve">35.9891128540039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0555305480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7708778381348</t>
   </si>
   <si>
     <t xml:space="preserve">36.4065933227539</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0839881896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1314353942871</t>
+    <t xml:space="preserve">36.0839920043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1314392089844</t>
   </si>
   <si>
     <t xml:space="preserve">36.5014762878418</t>
@@ -4715,10 +4715,10 @@
     <t xml:space="preserve">35.9226913452148</t>
   </si>
   <si>
-    <t xml:space="preserve">36.5109672546387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9321784973145</t>
+    <t xml:space="preserve">36.5109634399414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9321746826172</t>
   </si>
   <si>
     <t xml:space="preserve">36.4825019836426</t>
@@ -4730,7 +4730,7 @@
     <t xml:space="preserve">39.4048957824707</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6648101806641</t>
+    <t xml:space="preserve">38.6648063659668</t>
   </si>
   <si>
     <t xml:space="preserve">38.2188568115234</t>
@@ -4742,7 +4742,7 @@
     <t xml:space="preserve">37.3079795837402</t>
   </si>
   <si>
-    <t xml:space="preserve">37.1941261291504</t>
+    <t xml:space="preserve">37.1941223144531</t>
   </si>
   <si>
     <t xml:space="preserve">37.4692878723145</t>
@@ -4766,88 +4766,88 @@
     <t xml:space="preserve">38.6720733642578</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4988670349121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.1050796508789</t>
+    <t xml:space="preserve">38.4988708496094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.1050758361816</t>
   </si>
   <si>
     <t xml:space="preserve">40.0288200378418</t>
   </si>
   <si>
-    <t xml:space="preserve">39.922981262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8363723754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.893383026123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9703674316406</t>
+    <t xml:space="preserve">39.9229736328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8363761901855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8933868408203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9703636169434</t>
   </si>
   <si>
     <t xml:space="preserve">39.2975234985352</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3078689575195</t>
+    <t xml:space="preserve">40.3078651428223</t>
   </si>
   <si>
     <t xml:space="preserve">40.2982444763184</t>
   </si>
   <si>
-    <t xml:space="preserve">40.057689666748</t>
+    <t xml:space="preserve">40.0576858520508</t>
   </si>
   <si>
     <t xml:space="preserve">38.9222564697266</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1043548583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7387084960938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.0170364379883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7002220153809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.267219543457</t>
+    <t xml:space="preserve">38.1043586730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.738712310791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0170402526855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.7002182006836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2672157287598</t>
   </si>
   <si>
     <t xml:space="preserve">37.6424865722656</t>
   </si>
   <si>
-    <t xml:space="preserve">37.1709899902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5751304626465</t>
+    <t xml:space="preserve">37.1709938049316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5751266479492</t>
   </si>
   <si>
     <t xml:space="preserve">38.1717109680176</t>
   </si>
   <si>
-    <t xml:space="preserve">37.2864570617676</t>
+    <t xml:space="preserve">37.2864608764648</t>
   </si>
   <si>
     <t xml:space="preserve">37.353816986084</t>
   </si>
   <si>
-    <t xml:space="preserve">37.4500389099121</t>
+    <t xml:space="preserve">37.4500350952148</t>
   </si>
   <si>
     <t xml:space="preserve">36.9496803283691</t>
   </si>
   <si>
-    <t xml:space="preserve">37.2191047668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.854175567627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5655097961426</t>
+    <t xml:space="preserve">37.219108581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.8541793823242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5655059814453</t>
   </si>
   <si>
     <t xml:space="preserve">37.3345718383789</t>
@@ -4859,43 +4859,43 @@
     <t xml:space="preserve">38.6528282165527</t>
   </si>
   <si>
-    <t xml:space="preserve">38.5662307739258</t>
+    <t xml:space="preserve">38.5662269592285</t>
   </si>
   <si>
     <t xml:space="preserve">40.2693748474121</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6446495056152</t>
+    <t xml:space="preserve">40.6446533203125</t>
   </si>
   <si>
     <t xml:space="preserve">39.8652420043945</t>
   </si>
   <si>
-    <t xml:space="preserve">39.7497749328613</t>
+    <t xml:space="preserve">39.7497711181641</t>
   </si>
   <si>
     <t xml:space="preserve">39.4707260131836</t>
   </si>
   <si>
-    <t xml:space="preserve">39.0377235412598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2205467224121</t>
+    <t xml:space="preserve">39.0377197265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2205429077148</t>
   </si>
   <si>
     <t xml:space="preserve">39.6920394897461</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6143379211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6328659057617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4700088500977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7394256591797</t>
+    <t xml:space="preserve">38.6143417358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6328620910645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.4700050354004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.739429473877</t>
   </si>
   <si>
     <t xml:space="preserve">39.0858306884766</t>
@@ -4907,13 +4907,13 @@
     <t xml:space="preserve">39.70166015625</t>
   </si>
   <si>
-    <t xml:space="preserve">39.5380821228027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.729808807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2109222412109</t>
+    <t xml:space="preserve">39.5380783081055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7298049926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.2109260559082</t>
   </si>
   <si>
     <t xml:space="preserve">39.4995918273926</t>
@@ -4922,28 +4922,28 @@
     <t xml:space="preserve">39.4226150512695</t>
   </si>
   <si>
-    <t xml:space="preserve">39.8171272277832</t>
+    <t xml:space="preserve">39.8171310424805</t>
   </si>
   <si>
     <t xml:space="preserve">39.5477027893066</t>
   </si>
   <si>
-    <t xml:space="preserve">39.0569648742676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.0562438964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5181159973145</t>
+    <t xml:space="preserve">39.0569686889648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.0562477111816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5181121826172</t>
   </si>
   <si>
     <t xml:space="preserve">37.9600219726562</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6047172546387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6239585876465</t>
+    <t xml:space="preserve">38.6047210693359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6239624023438</t>
   </si>
   <si>
     <t xml:space="preserve">37.8156852722168</t>
@@ -4955,7 +4955,7 @@
     <t xml:space="preserve">37.796443939209</t>
   </si>
   <si>
-    <t xml:space="preserve">37.247974395752</t>
+    <t xml:space="preserve">37.2479705810547</t>
   </si>
   <si>
     <t xml:space="preserve">37.1806144714355</t>
@@ -4967,7 +4967,7 @@
     <t xml:space="preserve">37.3923072814941</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8342094421387</t>
+    <t xml:space="preserve">36.8342132568359</t>
   </si>
   <si>
     <t xml:space="preserve">37.0843925476074</t>
@@ -4979,19 +4979,19 @@
     <t xml:space="preserve">38.4507598876953</t>
   </si>
   <si>
-    <t xml:space="preserve">37.7579574584961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7771987915039</t>
+    <t xml:space="preserve">37.7579536437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.7771949768066</t>
   </si>
   <si>
     <t xml:space="preserve">37.4885292053223</t>
   </si>
   <si>
-    <t xml:space="preserve">37.5847549438477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.873420715332</t>
+    <t xml:space="preserve">37.5847587585449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.8734245300293</t>
   </si>
   <si>
     <t xml:space="preserve">38.344913482666</t>
@@ -5000,7 +5000,7 @@
     <t xml:space="preserve">38.4026489257812</t>
   </si>
   <si>
-    <t xml:space="preserve">38.7875442504883</t>
+    <t xml:space="preserve">38.787540435791</t>
   </si>
   <si>
     <t xml:space="preserve">39.1916770935059</t>
@@ -5009,10 +5009,10 @@
     <t xml:space="preserve">39.2879028320312</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9030113220215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7201881408691</t>
+    <t xml:space="preserve">38.9030075073242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7201843261719</t>
   </si>
   <si>
     <t xml:space="preserve">38.3545379638672</t>
@@ -5024,7 +5024,7 @@
     <t xml:space="preserve">39.1628112792969</t>
   </si>
   <si>
-    <t xml:space="preserve">38.5084915161133</t>
+    <t xml:space="preserve">38.5084953308105</t>
   </si>
   <si>
     <t xml:space="preserve">40.1539077758789</t>
@@ -5036,13 +5036,13 @@
     <t xml:space="preserve">39.5573272705078</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8755798339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4906883239746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4137115478516</t>
+    <t xml:space="preserve">40.8755836486816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4906921386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4137153625488</t>
   </si>
   <si>
     <t xml:space="preserve">40.663890838623</t>
@@ -5051,16 +5051,16 @@
     <t xml:space="preserve">41.5106544494629</t>
   </si>
   <si>
-    <t xml:space="preserve">42.4247779846191</t>
+    <t xml:space="preserve">42.4247741699219</t>
   </si>
   <si>
     <t xml:space="preserve">44.1664161682129</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8969917297363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.300407409668</t>
+    <t xml:space="preserve">43.8969879150391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3004035949707</t>
   </si>
   <si>
     <t xml:space="preserve">42.877025604248</t>
@@ -5121,9 +5121,6 @@
   </si>
   <si>
     <t xml:space="preserve">44.139102935791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3004035949707</t>
   </si>
   <si>
     <t xml:space="preserve">42.9688262939453</t>
@@ -55616,7 +55613,7 @@
         <v>44.4000015258789</v>
       </c>
       <c r="G1900" t="s">
-        <v>1703</v>
+        <v>1682</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -55642,7 +55639,7 @@
         <v>44.060001373291</v>
       </c>
       <c r="G1901" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -55668,7 +55665,7 @@
         <v>43.2799987792969</v>
       </c>
       <c r="G1902" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -55694,7 +55691,7 @@
         <v>42.7799987792969</v>
       </c>
       <c r="G1903" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -55746,7 +55743,7 @@
         <v>42.9300003051758</v>
       </c>
       <c r="G1905" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -55772,7 +55769,7 @@
         <v>42.7099990844727</v>
       </c>
       <c r="G1906" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -55798,7 +55795,7 @@
         <v>43.0999984741211</v>
       </c>
       <c r="G1907" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -55824,7 +55821,7 @@
         <v>43.3199996948242</v>
       </c>
       <c r="G1908" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -55850,7 +55847,7 @@
         <v>43.75</v>
       </c>
       <c r="G1909" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -55876,7 +55873,7 @@
         <v>43.3699989318848</v>
       </c>
       <c r="G1910" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -55902,7 +55899,7 @@
         <v>43.5800018310547</v>
       </c>
       <c r="G1911" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -55928,7 +55925,7 @@
         <v>43.689998626709</v>
       </c>
       <c r="G1912" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -55954,7 +55951,7 @@
         <v>42.2200012207031</v>
       </c>
       <c r="G1913" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -55980,7 +55977,7 @@
         <v>41.9599990844727</v>
       </c>
       <c r="G1914" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -56006,7 +56003,7 @@
         <v>42.3199996948242</v>
       </c>
       <c r="G1915" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -56032,7 +56029,7 @@
         <v>42.25</v>
       </c>
       <c r="G1916" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -56058,7 +56055,7 @@
         <v>42.9099998474121</v>
       </c>
       <c r="G1917" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -56084,7 +56081,7 @@
         <v>42.8899993896484</v>
       </c>
       <c r="G1918" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -56110,7 +56107,7 @@
         <v>43.0800018310547</v>
       </c>
       <c r="G1919" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -56136,7 +56133,7 @@
         <v>43.0099983215332</v>
       </c>
       <c r="G1920" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -56162,7 +56159,7 @@
         <v>43.2900009155273</v>
       </c>
       <c r="G1921" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -56188,7 +56185,7 @@
         <v>43.4799995422363</v>
       </c>
       <c r="G1922" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -56214,7 +56211,7 @@
         <v>43.1599998474121</v>
       </c>
       <c r="G1923" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -56240,7 +56237,7 @@
         <v>45.3300018310547</v>
       </c>
       <c r="G1924" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -56266,7 +56263,7 @@
         <v>45.060001373291</v>
       </c>
       <c r="G1925" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -56292,7 +56289,7 @@
         <v>44.4500007629395</v>
       </c>
       <c r="G1926" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -56318,7 +56315,7 @@
         <v>45.2799987792969</v>
       </c>
       <c r="G1927" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -56344,7 +56341,7 @@
         <v>46.4900016784668</v>
       </c>
       <c r="G1928" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -56370,7 +56367,7 @@
         <v>46.810001373291</v>
       </c>
       <c r="G1929" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -56396,7 +56393,7 @@
         <v>46.9500007629395</v>
       </c>
       <c r="G1930" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -56422,7 +56419,7 @@
         <v>45.9799995422363</v>
       </c>
       <c r="G1931" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -56448,7 +56445,7 @@
         <v>45.5999984741211</v>
       </c>
       <c r="G1932" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -56474,7 +56471,7 @@
         <v>44.5800018310547</v>
       </c>
       <c r="G1933" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -56500,7 +56497,7 @@
         <v>43.5099983215332</v>
       </c>
       <c r="G1934" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -56526,7 +56523,7 @@
         <v>43.3199996948242</v>
       </c>
       <c r="G1935" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -56552,7 +56549,7 @@
         <v>44.4000015258789</v>
       </c>
       <c r="G1936" t="s">
-        <v>1703</v>
+        <v>1682</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -56578,7 +56575,7 @@
         <v>44.9500007629395</v>
       </c>
       <c r="G1937" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -56604,7 +56601,7 @@
         <v>45.4599990844727</v>
       </c>
       <c r="G1938" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -56630,7 +56627,7 @@
         <v>45</v>
       </c>
       <c r="G1939" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -56656,7 +56653,7 @@
         <v>45.4500007629395</v>
       </c>
       <c r="G1940" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -56682,7 +56679,7 @@
         <v>45.3600006103516</v>
       </c>
       <c r="G1941" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -56708,7 +56705,7 @@
         <v>44.810001373291</v>
       </c>
       <c r="G1942" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -56734,7 +56731,7 @@
         <v>44.6500015258789</v>
       </c>
       <c r="G1943" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -56760,7 +56757,7 @@
         <v>44.6800003051758</v>
       </c>
       <c r="G1944" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -56786,7 +56783,7 @@
         <v>45.2799987792969</v>
       </c>
       <c r="G1945" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -56812,7 +56809,7 @@
         <v>45.7599983215332</v>
       </c>
       <c r="G1946" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -56838,7 +56835,7 @@
         <v>45.560001373291</v>
       </c>
       <c r="G1947" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -56864,7 +56861,7 @@
         <v>45.8400001525879</v>
       </c>
       <c r="G1948" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -56890,7 +56887,7 @@
         <v>46.189998626709</v>
       </c>
       <c r="G1949" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -56916,7 +56913,7 @@
         <v>46.8899993896484</v>
       </c>
       <c r="G1950" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -56942,7 +56939,7 @@
         <v>46.4700012207031</v>
       </c>
       <c r="G1951" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -56968,7 +56965,7 @@
         <v>46.3800010681152</v>
       </c>
       <c r="G1952" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -56994,7 +56991,7 @@
         <v>45.7900009155273</v>
       </c>
       <c r="G1953" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -57020,7 +57017,7 @@
         <v>45.5699996948242</v>
       </c>
       <c r="G1954" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -57072,7 +57069,7 @@
         <v>44.3600006103516</v>
       </c>
       <c r="G1956" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -57098,7 +57095,7 @@
         <v>45.0099983215332</v>
       </c>
       <c r="G1957" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -57124,7 +57121,7 @@
         <v>45.5900001525879</v>
       </c>
       <c r="G1958" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -57150,7 +57147,7 @@
         <v>45.2200012207031</v>
       </c>
       <c r="G1959" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -57176,7 +57173,7 @@
         <v>45.4700012207031</v>
       </c>
       <c r="G1960" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -57202,7 +57199,7 @@
         <v>45.6399993896484</v>
       </c>
       <c r="G1961" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -57228,7 +57225,7 @@
         <v>46.3499984741211</v>
       </c>
       <c r="G1962" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -57254,7 +57251,7 @@
         <v>46.8199996948242</v>
       </c>
       <c r="G1963" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -57280,7 +57277,7 @@
         <v>46.9300003051758</v>
       </c>
       <c r="G1964" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -57306,7 +57303,7 @@
         <v>46.9799995422363</v>
       </c>
       <c r="G1965" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -57332,7 +57329,7 @@
         <v>47.4000015258789</v>
       </c>
       <c r="G1966" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -57358,7 +57355,7 @@
         <v>44.9000015258789</v>
       </c>
       <c r="G1967" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -57384,7 +57381,7 @@
         <v>45.2999992370605</v>
       </c>
       <c r="G1968" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -57410,7 +57407,7 @@
         <v>44.7900009155273</v>
       </c>
       <c r="G1969" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -57436,7 +57433,7 @@
         <v>44.7799987792969</v>
       </c>
       <c r="G1970" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -57462,7 +57459,7 @@
         <v>44.0299987792969</v>
       </c>
       <c r="G1971" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -57488,7 +57485,7 @@
         <v>44.1500015258789</v>
       </c>
       <c r="G1972" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -57514,7 +57511,7 @@
         <v>44.7099990844727</v>
       </c>
       <c r="G1973" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -57540,7 +57537,7 @@
         <v>44.0699996948242</v>
       </c>
       <c r="G1974" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -57566,7 +57563,7 @@
         <v>43.7400016784668</v>
       </c>
       <c r="G1975" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -57592,7 +57589,7 @@
         <v>44.0200004577637</v>
       </c>
       <c r="G1976" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -57618,7 +57615,7 @@
         <v>44.689998626709</v>
       </c>
       <c r="G1977" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -57644,7 +57641,7 @@
         <v>45.2799987792969</v>
       </c>
       <c r="G1978" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -57670,7 +57667,7 @@
         <v>44.6399993896484</v>
       </c>
       <c r="G1979" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -57696,7 +57693,7 @@
         <v>45.6199989318848</v>
       </c>
       <c r="G1980" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -57748,7 +57745,7 @@
         <v>45.5400009155273</v>
       </c>
       <c r="G1982" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -57800,7 +57797,7 @@
         <v>45.4900016784668</v>
       </c>
       <c r="G1984" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -57826,7 +57823,7 @@
         <v>44.8300018310547</v>
       </c>
       <c r="G1985" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -57852,7 +57849,7 @@
         <v>44.0099983215332</v>
       </c>
       <c r="G1986" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -57904,7 +57901,7 @@
         <v>43.9900016784668</v>
       </c>
       <c r="G1988" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -57930,7 +57927,7 @@
         <v>44.0299987792969</v>
       </c>
       <c r="G1989" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -57956,7 +57953,7 @@
         <v>44.3699989318848</v>
       </c>
       <c r="G1990" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -57982,7 +57979,7 @@
         <v>43.9700012207031</v>
       </c>
       <c r="G1991" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -58008,7 +58005,7 @@
         <v>43.7099990844727</v>
       </c>
       <c r="G1992" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -58034,7 +58031,7 @@
         <v>43.4199981689453</v>
       </c>
       <c r="G1993" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -58060,7 +58057,7 @@
         <v>43.2299995422363</v>
       </c>
       <c r="G1994" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -58086,7 +58083,7 @@
         <v>43.5999984741211</v>
       </c>
       <c r="G1995" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -58112,7 +58109,7 @@
         <v>44.1300010681152</v>
       </c>
       <c r="G1996" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -58138,7 +58135,7 @@
         <v>44.2999992370605</v>
       </c>
       <c r="G1997" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -58164,7 +58161,7 @@
         <v>43.9500007629395</v>
       </c>
       <c r="G1998" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -58190,7 +58187,7 @@
         <v>44.0999984741211</v>
       </c>
       <c r="G1999" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -58216,7 +58213,7 @@
         <v>45.0099983215332</v>
       </c>
       <c r="G2000" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -58242,7 +58239,7 @@
         <v>43.7999992370605</v>
       </c>
       <c r="G2001" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -58268,7 +58265,7 @@
         <v>44.7599983215332</v>
       </c>
       <c r="G2002" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -58294,7 +58291,7 @@
         <v>44.2599983215332</v>
       </c>
       <c r="G2003" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -58320,7 +58317,7 @@
         <v>44.9099998474121</v>
       </c>
       <c r="G2004" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -58346,7 +58343,7 @@
         <v>45.8499984741211</v>
       </c>
       <c r="G2005" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -58398,7 +58395,7 @@
         <v>44.5400009155273</v>
       </c>
       <c r="G2007" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -58424,7 +58421,7 @@
         <v>45.1800003051758</v>
       </c>
       <c r="G2008" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -58450,7 +58447,7 @@
         <v>44.6199989318848</v>
       </c>
       <c r="G2009" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -58476,7 +58473,7 @@
         <v>44.8800010681152</v>
       </c>
       <c r="G2010" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -58502,7 +58499,7 @@
         <v>44.3899993896484</v>
       </c>
       <c r="G2011" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -58528,7 +58525,7 @@
         <v>44.5499992370605</v>
       </c>
       <c r="G2012" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -58554,7 +58551,7 @@
         <v>44.6100006103516</v>
       </c>
       <c r="G2013" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -58580,7 +58577,7 @@
         <v>44.4199981689453</v>
       </c>
       <c r="G2014" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -58606,7 +58603,7 @@
         <v>44.3699989318848</v>
       </c>
       <c r="G2015" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -58632,7 +58629,7 @@
         <v>44.3199996948242</v>
       </c>
       <c r="G2016" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -58658,7 +58655,7 @@
         <v>44.1699981689453</v>
       </c>
       <c r="G2017" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -58684,7 +58681,7 @@
         <v>44.189998626709</v>
       </c>
       <c r="G2018" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -58710,7 +58707,7 @@
         <v>45.2200012207031</v>
       </c>
       <c r="G2019" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -58736,7 +58733,7 @@
         <v>45.9000015258789</v>
       </c>
       <c r="G2020" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -58762,7 +58759,7 @@
         <v>46.2400016784668</v>
       </c>
       <c r="G2021" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -58788,7 +58785,7 @@
         <v>45.6599998474121</v>
       </c>
       <c r="G2022" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -58814,7 +58811,7 @@
         <v>46.7000007629395</v>
       </c>
       <c r="G2023" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -58840,7 +58837,7 @@
         <v>46.6500015258789</v>
       </c>
       <c r="G2024" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -58866,7 +58863,7 @@
         <v>47.2200012207031</v>
       </c>
       <c r="G2025" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -58892,7 +58889,7 @@
         <v>47.0099983215332</v>
       </c>
       <c r="G2026" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -58918,7 +58915,7 @@
         <v>47.3300018310547</v>
       </c>
       <c r="G2027" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -58944,7 +58941,7 @@
         <v>47.8800010681152</v>
       </c>
       <c r="G2028" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -58970,7 +58967,7 @@
         <v>47.8699989318848</v>
       </c>
       <c r="G2029" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -58996,7 +58993,7 @@
         <v>47.9900016784668</v>
       </c>
       <c r="G2030" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -59022,7 +59019,7 @@
         <v>47.5900001525879</v>
       </c>
       <c r="G2031" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -59048,7 +59045,7 @@
         <v>48.1300010681152</v>
       </c>
       <c r="G2032" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -59074,7 +59071,7 @@
         <v>48.2200012207031</v>
       </c>
       <c r="G2033" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -59100,7 +59097,7 @@
         <v>48.3300018310547</v>
       </c>
       <c r="G2034" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -59126,7 +59123,7 @@
         <v>48.439998626709</v>
       </c>
       <c r="G2035" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -59152,7 +59149,7 @@
         <v>48.8300018310547</v>
       </c>
       <c r="G2036" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -59178,7 +59175,7 @@
         <v>49</v>
       </c>
       <c r="G2037" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -59204,7 +59201,7 @@
         <v>48.0200004577637</v>
       </c>
       <c r="G2038" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -59230,7 +59227,7 @@
         <v>48.5200004577637</v>
       </c>
       <c r="G2039" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -59256,7 +59253,7 @@
         <v>47.8199996948242</v>
       </c>
       <c r="G2040" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -59282,7 +59279,7 @@
         <v>48.2000007629395</v>
       </c>
       <c r="G2041" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -59308,7 +59305,7 @@
         <v>48.9199981689453</v>
       </c>
       <c r="G2042" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -59334,7 +59331,7 @@
         <v>49.0999984741211</v>
       </c>
       <c r="G2043" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -59360,7 +59357,7 @@
         <v>49.2200012207031</v>
       </c>
       <c r="G2044" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -59386,7 +59383,7 @@
         <v>50.9599990844727</v>
       </c>
       <c r="G2045" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -59412,7 +59409,7 @@
         <v>49.9900016784668</v>
       </c>
       <c r="G2046" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -59438,7 +59435,7 @@
         <v>50.2599983215332</v>
       </c>
       <c r="G2047" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -59464,7 +59461,7 @@
         <v>50.5</v>
       </c>
       <c r="G2048" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -59490,7 +59487,7 @@
         <v>49.7900009155273</v>
       </c>
       <c r="G2049" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -59516,7 +59513,7 @@
         <v>49.7599983215332</v>
       </c>
       <c r="G2050" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -59542,7 +59539,7 @@
         <v>49.5699996948242</v>
       </c>
       <c r="G2051" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -59568,7 +59565,7 @@
         <v>49.7200012207031</v>
       </c>
       <c r="G2052" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -59594,7 +59591,7 @@
         <v>49.939998626709</v>
       </c>
       <c r="G2053" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -59620,7 +59617,7 @@
         <v>49.9799995422363</v>
       </c>
       <c r="G2054" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -59646,7 +59643,7 @@
         <v>50.9000015258789</v>
       </c>
       <c r="G2055" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -59672,7 +59669,7 @@
         <v>50.6399993896484</v>
       </c>
       <c r="G2056" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -59698,7 +59695,7 @@
         <v>50.7999992370605</v>
       </c>
       <c r="G2057" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -59724,7 +59721,7 @@
         <v>51.2999992370605</v>
       </c>
       <c r="G2058" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -59750,7 +59747,7 @@
         <v>50.9599990844727</v>
       </c>
       <c r="G2059" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -59776,7 +59773,7 @@
         <v>50.7000007629395</v>
       </c>
       <c r="G2060" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -59802,7 +59799,7 @@
         <v>50.8199996948242</v>
       </c>
       <c r="G2061" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -59828,7 +59825,7 @@
         <v>51.0999984741211</v>
       </c>
       <c r="G2062" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -59854,7 +59851,7 @@
         <v>50.439998626709</v>
       </c>
       <c r="G2063" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -59880,7 +59877,7 @@
         <v>50.4599990844727</v>
       </c>
       <c r="G2064" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -59906,7 +59903,7 @@
         <v>50.560001373291</v>
       </c>
       <c r="G2065" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -59932,7 +59929,7 @@
         <v>50.7000007629395</v>
       </c>
       <c r="G2066" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -59958,7 +59955,7 @@
         <v>50.3800010681152</v>
       </c>
       <c r="G2067" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -59984,7 +59981,7 @@
         <v>50.4799995422363</v>
       </c>
       <c r="G2068" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -60010,7 +60007,7 @@
         <v>50.7000007629395</v>
       </c>
       <c r="G2069" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -60036,7 +60033,7 @@
         <v>51.0200004577637</v>
       </c>
       <c r="G2070" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -60062,7 +60059,7 @@
         <v>51.2400016784668</v>
       </c>
       <c r="G2071" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -60088,7 +60085,7 @@
         <v>52.1199989318848</v>
       </c>
       <c r="G2072" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -60114,7 +60111,7 @@
         <v>52.0800018310547</v>
       </c>
       <c r="G2073" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -60140,7 +60137,7 @@
         <v>51.6800003051758</v>
       </c>
       <c r="G2074" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -60166,7 +60163,7 @@
         <v>52.8800010681152</v>
       </c>
       <c r="G2075" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -60192,7 +60189,7 @@
         <v>51.6599998474121</v>
       </c>
       <c r="G2076" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -60218,7 +60215,7 @@
         <v>50.9799995422363</v>
       </c>
       <c r="G2077" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -60244,7 +60241,7 @@
         <v>50.7200012207031</v>
       </c>
       <c r="G2078" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -60270,7 +60267,7 @@
         <v>51.7599983215332</v>
       </c>
       <c r="G2079" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -60296,7 +60293,7 @@
         <v>51.9599990844727</v>
       </c>
       <c r="G2080" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -60322,7 +60319,7 @@
         <v>51.7200012207031</v>
       </c>
       <c r="G2081" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -60348,7 +60345,7 @@
         <v>51.7200012207031</v>
       </c>
       <c r="G2082" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -60374,7 +60371,7 @@
         <v>51.9599990844727</v>
       </c>
       <c r="G2083" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -60400,7 +60397,7 @@
         <v>52.5800018310547</v>
       </c>
       <c r="G2084" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -60426,7 +60423,7 @@
         <v>52.8600006103516</v>
       </c>
       <c r="G2085" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -60452,7 +60449,7 @@
         <v>52.7400016784668</v>
       </c>
       <c r="G2086" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -60478,7 +60475,7 @@
         <v>53.0800018310547</v>
       </c>
       <c r="G2087" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -60504,7 +60501,7 @@
         <v>52.8600006103516</v>
       </c>
       <c r="G2088" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -60530,7 +60527,7 @@
         <v>52.7799987792969</v>
       </c>
       <c r="G2089" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -60556,7 +60553,7 @@
         <v>52.8400001525879</v>
       </c>
       <c r="G2090" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -60582,7 +60579,7 @@
         <v>51.8600006103516</v>
       </c>
       <c r="G2091" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -60608,7 +60605,7 @@
         <v>51.2200012207031</v>
       </c>
       <c r="G2092" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -60634,7 +60631,7 @@
         <v>50.8600006103516</v>
       </c>
       <c r="G2093" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -60660,7 +60657,7 @@
         <v>51.3800010681152</v>
       </c>
       <c r="G2094" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -60686,7 +60683,7 @@
         <v>52.3600006103516</v>
       </c>
       <c r="G2095" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -60712,7 +60709,7 @@
         <v>52</v>
       </c>
       <c r="G2096" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -60738,7 +60735,7 @@
         <v>51.4000015258789</v>
       </c>
       <c r="G2097" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -60764,7 +60761,7 @@
         <v>51.7400016784668</v>
       </c>
       <c r="G2098" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -60790,7 +60787,7 @@
         <v>51.2400016784668</v>
       </c>
       <c r="G2099" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -60816,7 +60813,7 @@
         <v>50.75</v>
       </c>
       <c r="G2100" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -60842,7 +60839,7 @@
         <v>50.5499992370605</v>
       </c>
       <c r="G2101" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -60868,7 +60865,7 @@
         <v>49.8199996948242</v>
       </c>
       <c r="G2102" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -60894,7 +60891,7 @@
         <v>48.7000007629395</v>
       </c>
       <c r="G2103" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -60920,7 +60917,7 @@
         <v>49.9199981689453</v>
       </c>
       <c r="G2104" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -60946,7 +60943,7 @@
         <v>49.560001373291</v>
       </c>
       <c r="G2105" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -60972,7 +60969,7 @@
         <v>50</v>
       </c>
       <c r="G2106" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -60998,7 +60995,7 @@
         <v>49.0999984741211</v>
       </c>
       <c r="G2107" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -61024,7 +61021,7 @@
         <v>49.4199981689453</v>
       </c>
       <c r="G2108" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -61050,7 +61047,7 @@
         <v>49.9799995422363</v>
       </c>
       <c r="G2109" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -61076,7 +61073,7 @@
         <v>49.3400001525879</v>
       </c>
       <c r="G2110" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -61102,7 +61099,7 @@
         <v>48.939998626709</v>
       </c>
       <c r="G2111" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -61128,7 +61125,7 @@
         <v>49.7400016784668</v>
       </c>
       <c r="G2112" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -61154,7 +61151,7 @@
         <v>49.8600006103516</v>
       </c>
       <c r="G2113" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -61180,7 +61177,7 @@
         <v>51.0999984741211</v>
       </c>
       <c r="G2114" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -61206,7 +61203,7 @@
         <v>52.5999984741211</v>
       </c>
       <c r="G2115" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -61232,7 +61229,7 @@
         <v>49.9799995422363</v>
       </c>
       <c r="G2116" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -61258,7 +61255,7 @@
         <v>48.7999992370605</v>
       </c>
       <c r="G2117" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -61284,7 +61281,7 @@
         <v>49.0999984741211</v>
       </c>
       <c r="G2118" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -61310,7 +61307,7 @@
         <v>49.4199981689453</v>
       </c>
       <c r="G2119" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -61336,7 +61333,7 @@
         <v>50.0499992370605</v>
       </c>
       <c r="G2120" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -61362,7 +61359,7 @@
         <v>50.2000007629395</v>
       </c>
       <c r="G2121" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -61388,7 +61385,7 @@
         <v>50.75</v>
       </c>
       <c r="G2122" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -61414,7 +61411,7 @@
         <v>50.3499984741211</v>
       </c>
       <c r="G2123" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -61440,7 +61437,7 @@
         <v>50.5</v>
       </c>
       <c r="G2124" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -61466,7 +61463,7 @@
         <v>51.2000007629395</v>
       </c>
       <c r="G2125" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -61492,7 +61489,7 @@
         <v>50.3499984741211</v>
       </c>
       <c r="G2126" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -61518,7 +61515,7 @@
         <v>50.7999992370605</v>
       </c>
       <c r="G2127" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -61544,7 +61541,7 @@
         <v>50.5</v>
       </c>
       <c r="G2128" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -61570,7 +61567,7 @@
         <v>50.75</v>
       </c>
       <c r="G2129" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -61596,7 +61593,7 @@
         <v>51.7999992370605</v>
       </c>
       <c r="G2130" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -61622,7 +61619,7 @@
         <v>50.7999992370605</v>
       </c>
       <c r="G2131" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -61648,7 +61645,7 @@
         <v>51.2000007629395</v>
       </c>
       <c r="G2132" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -61674,7 +61671,7 @@
         <v>50.3499984741211</v>
       </c>
       <c r="G2133" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -61700,7 +61697,7 @@
         <v>48.8199996948242</v>
       </c>
       <c r="G2134" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -61726,7 +61723,7 @@
         <v>49.1599998474121</v>
       </c>
       <c r="G2135" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -61752,7 +61749,7 @@
         <v>48.5200004577637</v>
       </c>
       <c r="G2136" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -61778,7 +61775,7 @@
         <v>48.3400001525879</v>
       </c>
       <c r="G2137" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -61804,7 +61801,7 @@
         <v>48.6800003051758</v>
       </c>
       <c r="G2138" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -61830,7 +61827,7 @@
         <v>48.0999984741211</v>
       </c>
       <c r="G2139" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -61856,7 +61853,7 @@
         <v>47.7000007629395</v>
       </c>
       <c r="G2140" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -61882,7 +61879,7 @@
         <v>47.4599990844727</v>
       </c>
       <c r="G2141" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -61908,7 +61905,7 @@
         <v>48.4000015258789</v>
       </c>
       <c r="G2142" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -61934,7 +61931,7 @@
         <v>48.3600006103516</v>
       </c>
       <c r="G2143" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -61960,7 +61957,7 @@
         <v>48.2000007629395</v>
       </c>
       <c r="G2144" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -61986,7 +61983,7 @@
         <v>48.5999984741211</v>
       </c>
       <c r="G2145" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -62012,7 +62009,7 @@
         <v>49.2400016784668</v>
       </c>
       <c r="G2146" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -62038,7 +62035,7 @@
         <v>49.7000007629395</v>
       </c>
       <c r="G2147" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -62064,7 +62061,7 @@
         <v>49.5400009155273</v>
       </c>
       <c r="G2148" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -62090,7 +62087,7 @@
         <v>48.4199981689453</v>
       </c>
       <c r="G2149" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -62116,7 +62113,7 @@
         <v>49.2599983215332</v>
       </c>
       <c r="G2150" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -62142,7 +62139,7 @@
         <v>48.7799987792969</v>
       </c>
       <c r="G2151" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -62168,7 +62165,7 @@
         <v>48.0999984741211</v>
       </c>
       <c r="G2152" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -62194,7 +62191,7 @@
         <v>47.4199981689453</v>
       </c>
       <c r="G2153" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -62220,7 +62217,7 @@
         <v>48.4000015258789</v>
       </c>
       <c r="G2154" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -62246,7 +62243,7 @@
         <v>47.8400001525879</v>
       </c>
       <c r="G2155" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -62272,7 +62269,7 @@
         <v>49.2400016784668</v>
       </c>
       <c r="G2156" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -62298,7 +62295,7 @@
         <v>49.2000007629395</v>
       </c>
       <c r="G2157" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -62324,7 +62321,7 @@
         <v>50.0999984741211</v>
       </c>
       <c r="G2158" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -62350,7 +62347,7 @@
         <v>49.4000015258789</v>
       </c>
       <c r="G2159" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -62376,7 +62373,7 @@
         <v>49.6199989318848</v>
       </c>
       <c r="G2160" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -62402,7 +62399,7 @@
         <v>48.3600006103516</v>
       </c>
       <c r="G2161" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -62428,7 +62425,7 @@
         <v>48.7000007629395</v>
       </c>
       <c r="G2162" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -62454,7 +62451,7 @@
         <v>48.7999992370605</v>
       </c>
       <c r="G2163" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -62480,7 +62477,7 @@
         <v>48.9599990844727</v>
       </c>
       <c r="G2164" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -62506,7 +62503,7 @@
         <v>48.7000007629395</v>
       </c>
       <c r="G2165" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -62532,7 +62529,7 @@
         <v>49.0800018310547</v>
       </c>
       <c r="G2166" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -62558,7 +62555,7 @@
         <v>49.1399993896484</v>
       </c>
       <c r="G2167" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -62584,7 +62581,7 @@
         <v>49.0800018310547</v>
       </c>
       <c r="G2168" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -62610,7 +62607,7 @@
         <v>48.7999992370605</v>
       </c>
       <c r="G2169" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -62636,7 +62633,7 @@
         <v>50</v>
       </c>
       <c r="G2170" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="H2170" t="s">
         <v>9</v>
@@ -62662,7 +62659,7 @@
         <v>50.25</v>
       </c>
       <c r="G2171" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="H2171" t="s">
         <v>9</v>
@@ -62688,7 +62685,7 @@
         <v>50.9500007629395</v>
       </c>
       <c r="G2172" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="H2172" t="s">
         <v>9</v>
@@ -62714,7 +62711,7 @@
         <v>51.0499992370605</v>
       </c>
       <c r="G2173" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="H2173" t="s">
         <v>9</v>
@@ -62740,7 +62737,7 @@
         <v>51.0999984741211</v>
       </c>
       <c r="G2174" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="H2174" t="s">
         <v>9</v>
@@ -62766,7 +62763,7 @@
         <v>51.75</v>
       </c>
       <c r="G2175" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="H2175" t="s">
         <v>9</v>
@@ -62792,7 +62789,7 @@
         <v>51.25</v>
       </c>
       <c r="G2176" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="H2176" t="s">
         <v>9</v>
@@ -62818,7 +62815,7 @@
         <v>50.9500007629395</v>
       </c>
       <c r="G2177" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="H2177" t="s">
         <v>9</v>
@@ -62844,7 +62841,7 @@
         <v>51.4000015258789</v>
       </c>
       <c r="G2178" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="H2178" t="s">
         <v>9</v>
@@ -62870,7 +62867,7 @@
         <v>51.4000015258789</v>
       </c>
       <c r="G2179" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="H2179" t="s">
         <v>9</v>
@@ -62896,7 +62893,7 @@
         <v>51.8499984741211</v>
       </c>
       <c r="G2180" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="H2180" t="s">
         <v>9</v>
@@ -62922,7 +62919,7 @@
         <v>52.25</v>
       </c>
       <c r="G2181" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="H2181" t="s">
         <v>9</v>
@@ -62948,7 +62945,7 @@
         <v>51.9500007629395</v>
       </c>
       <c r="G2182" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="H2182" t="s">
         <v>9</v>
@@ -62974,7 +62971,7 @@
         <v>52.4000015258789</v>
       </c>
       <c r="G2183" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="H2183" t="s">
         <v>9</v>
@@ -63000,7 +62997,7 @@
         <v>48.8199996948242</v>
       </c>
       <c r="G2184" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="H2184" t="s">
         <v>9</v>
@@ -63026,7 +63023,7 @@
         <v>50.3499984741211</v>
       </c>
       <c r="G2185" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="H2185" t="s">
         <v>9</v>
@@ -63052,7 +63049,7 @@
         <v>50.75</v>
       </c>
       <c r="G2186" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="H2186" t="s">
         <v>9</v>
@@ -63078,7 +63075,7 @@
         <v>50.1500015258789</v>
       </c>
       <c r="G2187" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="H2187" t="s">
         <v>9</v>
@@ -63104,7 +63101,7 @@
         <v>48.5</v>
       </c>
       <c r="G2188" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="H2188" t="s">
         <v>9</v>
@@ -63130,7 +63127,7 @@
         <v>49</v>
       </c>
       <c r="G2189" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="H2189" t="s">
         <v>9</v>
@@ -63156,7 +63153,7 @@
         <v>49.439998626709</v>
       </c>
       <c r="G2190" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="H2190" t="s">
         <v>9</v>
@@ -63182,7 +63179,7 @@
         <v>48.9799995422363</v>
       </c>
       <c r="G2191" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="H2191" t="s">
         <v>9</v>
@@ -63208,7 +63205,7 @@
         <v>49.3400001525879</v>
       </c>
       <c r="G2192" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="H2192" t="s">
         <v>9</v>
@@ -63234,7 +63231,7 @@
         <v>49.4599990844727</v>
       </c>
       <c r="G2193" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="H2193" t="s">
         <v>9</v>
@@ -63260,7 +63257,7 @@
         <v>49.8199996948242</v>
       </c>
       <c r="G2194" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="H2194" t="s">
         <v>9</v>
@@ -63286,7 +63283,7 @@
         <v>49.9599990844727</v>
       </c>
       <c r="G2195" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="H2195" t="s">
         <v>9</v>
@@ -63312,7 +63309,7 @@
         <v>50.5999984741211</v>
       </c>
       <c r="G2196" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="H2196" t="s">
         <v>9</v>
@@ -63338,7 +63335,7 @@
         <v>50.4000015258789</v>
       </c>
       <c r="G2197" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="H2197" t="s">
         <v>9</v>
@@ -63364,7 +63361,7 @@
         <v>50.6500015258789</v>
       </c>
       <c r="G2198" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="H2198" t="s">
         <v>9</v>
@@ -63372,13 +63369,13 @@
     </row>
     <row r="2199">
       <c r="A2199" s="1" t="n">
-        <v>45525.6494791667</v>
+        <v>45525.2916666667</v>
       </c>
       <c r="B2199" t="n">
         <v>199920</v>
       </c>
       <c r="C2199" t="n">
-        <v>51.8499984741211</v>
+        <v>51.9000015258789</v>
       </c>
       <c r="D2199" t="n">
         <v>50.75</v>
@@ -63390,9 +63387,35 @@
         <v>51.8499984741211</v>
       </c>
       <c r="G2199" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="H2199" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2200">
+      <c r="A2200" s="1" t="n">
+        <v>45526.6496296296</v>
+      </c>
+      <c r="B2200" t="n">
+        <v>230796</v>
+      </c>
+      <c r="C2200" t="n">
+        <v>52.0999984741211</v>
+      </c>
+      <c r="D2200" t="n">
+        <v>51.4000015258789</v>
+      </c>
+      <c r="E2200" t="n">
+        <v>51.7999992370605</v>
+      </c>
+      <c r="F2200" t="n">
+        <v>51.4000015258789</v>
+      </c>
+      <c r="G2200" t="s">
+        <v>1938</v>
+      </c>
+      <c r="H2200" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/REC.MI.xlsx
+++ b/data/REC.MI.xlsx
@@ -47,103 +47,103 @@
     <t xml:space="preserve">19.6574802398682</t>
   </si>
   <si>
-    <t xml:space="preserve">19.3267612457275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9637775421143</t>
+    <t xml:space="preserve">19.3267650604248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9637813568115</t>
   </si>
   <si>
     <t xml:space="preserve">18.8105201721191</t>
   </si>
   <si>
-    <t xml:space="preserve">18.6572570800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6975898742676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.108757019043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2297496795654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6086502075195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5441112518311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5279788970947</t>
+    <t xml:space="preserve">18.6572608947754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6975917816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1087551116943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2297477722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6086444854736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5441131591797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5279865264893</t>
   </si>
   <si>
     <t xml:space="preserve">18.2942771911621</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5282001495361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4959373474121</t>
+    <t xml:space="preserve">18.5281982421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4959335327148</t>
   </si>
   <si>
     <t xml:space="preserve">18.8266506195068</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0280933380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3910751342773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.754056930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1329555511475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8990306854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.2779312133789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.1325206756592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6727409362793</t>
+    <t xml:space="preserve">18.0280952453613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.391077041626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7540550231934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1329517364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8990268707275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2779293060303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1325225830078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6727437973022</t>
   </si>
   <si>
     <t xml:space="preserve">15.7937393188477</t>
   </si>
   <si>
-    <t xml:space="preserve">16.3825759887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5196990966797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1327342987061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8183670043945</t>
+    <t xml:space="preserve">16.3825721740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5197048187256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1327381134033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8183708190918</t>
   </si>
   <si>
     <t xml:space="preserve">17.6812438964844</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0119590759277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4233417510986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4475383758545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7217903137207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0601425170898</t>
+    <t xml:space="preserve">18.0119609832764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4233379364014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4475326538086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7217864990234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0601367950439</t>
   </si>
   <si>
     <t xml:space="preserve">17.0036773681641</t>
@@ -152,40 +152,40 @@
     <t xml:space="preserve">17.5199165344238</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6893100738525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.9151630401611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0684223175049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6731758117676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4392547607422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3666610717773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1811370849609</t>
+    <t xml:space="preserve">17.6893043518066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9151649475098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0684204101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6731777191162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4392528533936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.366662979126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1811294555664</t>
   </si>
   <si>
     <t xml:space="preserve">17.5037841796875</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1650009155273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.447322845459</t>
+    <t xml:space="preserve">17.165002822876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4473247528076</t>
   </si>
   <si>
     <t xml:space="preserve">17.5521812438965</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6409130096436</t>
+    <t xml:space="preserve">17.6409149169922</t>
   </si>
   <si>
     <t xml:space="preserve">17.5763854980469</t>
@@ -194,19 +194,19 @@
     <t xml:space="preserve">17.3585929870605</t>
   </si>
   <si>
-    <t xml:space="preserve">17.4069900512695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5118503570557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3182621002197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6247806549072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.745777130127</t>
+    <t xml:space="preserve">17.4069919586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5118541717529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3182640075684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6247787475586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7457752227783</t>
   </si>
   <si>
     <t xml:space="preserve">17.7538375854492</t>
@@ -215,88 +215,88 @@
     <t xml:space="preserve">17.8748340606689</t>
   </si>
   <si>
-    <t xml:space="preserve">17.7861042022705</t>
+    <t xml:space="preserve">17.7861022949219</t>
   </si>
   <si>
     <t xml:space="preserve">18.1490859985352</t>
   </si>
   <si>
-    <t xml:space="preserve">18.2136173248291</t>
+    <t xml:space="preserve">18.2136192321777</t>
   </si>
   <si>
     <t xml:space="preserve">18.1248874664307</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1006889343262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1168212890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0442237854004</t>
+    <t xml:space="preserve">18.1006870269775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1168193817139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.044225692749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0764923095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4443950653076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3708152770996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1991271972656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2808837890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0437831878662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1091918945312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1746006011963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3544654846191</t>
   </si>
   <si>
     <t xml:space="preserve">18.0764904022217</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4443988800049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3708171844482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.199125289917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2808837890625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0437889099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1091899871826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1746006011963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3544635772705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0764923095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1418952941895</t>
+    <t xml:space="preserve">18.1418914794922</t>
   </si>
   <si>
     <t xml:space="preserve">18.0928401947021</t>
   </si>
   <si>
-    <t xml:space="preserve">18.272705078125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5752067565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6651420593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3846035003662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.687105178833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6216983795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4418315887451</t>
+    <t xml:space="preserve">18.2727108001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5752105712891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6651401519775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3846015930176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6871032714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6217002868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4418334960938</t>
   </si>
   <si>
     <t xml:space="preserve">19.7688636779785</t>
   </si>
   <si>
-    <t xml:space="preserve">19.7443313598633</t>
+    <t xml:space="preserve">19.7443332672119</t>
   </si>
   <si>
     <t xml:space="preserve">19.7933902740479</t>
@@ -308,235 +308,235 @@
     <t xml:space="preserve">20.0059585571289</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8562297821045</t>
+    <t xml:space="preserve">20.8562316894531</t>
   </si>
   <si>
     <t xml:space="preserve">21.0033950805664</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1996097564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1014976501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2486629486084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5511646270752</t>
+    <t xml:space="preserve">21.199613571167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1015014648438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.248664855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5511665344238</t>
   </si>
   <si>
     <t xml:space="preserve">21.6901550292969</t>
   </si>
   <si>
-    <t xml:space="preserve">21.6983242034912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0580596923828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2297515869141</t>
+    <t xml:space="preserve">21.6983318328857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0580577850342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2297496795654</t>
   </si>
   <si>
     <t xml:space="preserve">21.8700180053711</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7964401245117</t>
+    <t xml:space="preserve">21.7964382171631</t>
   </si>
   <si>
     <t xml:space="preserve">22.3115100860596</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2706298828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9517784118652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2568397521973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2077903747559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4121799468994</t>
+    <t xml:space="preserve">22.2706279754639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9517765045166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2568416595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2077865600586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.412181854248</t>
   </si>
   <si>
     <t xml:space="preserve">21.1423816680908</t>
   </si>
   <si>
-    <t xml:space="preserve">20.7335968017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4285297393799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7065048217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6083965301514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9436016082764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8071746826172</t>
+    <t xml:space="preserve">20.7335948944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4285278320312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7065029144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6083946228027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9435977935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8071765899658</t>
   </si>
   <si>
     <t xml:space="preserve">21.6656246185303</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9599514007568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0744113922119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0989418029785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0907592773438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9926509857178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8536682128906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.188871383667</t>
+    <t xml:space="preserve">21.9599494934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0744132995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0989379882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0907688140869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.992654800415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8536643981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1888694763184</t>
   </si>
   <si>
     <t xml:space="preserve">22.9165077209473</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1372528076172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9982624053955</t>
+    <t xml:space="preserve">23.1372509002686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9982643127441</t>
   </si>
   <si>
     <t xml:space="preserve">22.7529964447021</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5567798614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7448177337646</t>
+    <t xml:space="preserve">22.5567760467529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7448196411133</t>
   </si>
   <si>
     <t xml:space="preserve">22.6303596496582</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0636692047119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.513334274292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4806327819824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5215129852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2271881103516</t>
+    <t xml:space="preserve">23.0636730194092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5133380889893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4806346893311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5215110778809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2271862030029</t>
   </si>
   <si>
     <t xml:space="preserve">23.6850242614746</t>
   </si>
   <si>
-    <t xml:space="preserve">23.6604976654053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.529691696167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7177333831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0038814544678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5869140625</t>
+    <t xml:space="preserve">23.6605033874512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5296878814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7177314758301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0038795471191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5869178771973</t>
   </si>
   <si>
     <t xml:space="preserve">22.9655647277832</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3498229980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0882015228271</t>
+    <t xml:space="preserve">23.3498210906982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0881996154785</t>
   </si>
   <si>
     <t xml:space="preserve">23.0227947235107</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2598876953125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2190074920654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3743495941162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7366409301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7284660339355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2951545715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4341449737549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1479911804199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3033313751221</t>
+    <t xml:space="preserve">23.2598896026611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2190113067627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3743515014648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7366390228271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7284698486328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2951564788818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4341411590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1479930877686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3033294677734</t>
   </si>
   <si>
     <t xml:space="preserve">22.4259700775146</t>
   </si>
   <si>
-    <t xml:space="preserve">22.524076461792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0171794891357</t>
+    <t xml:space="preserve">22.5240745544434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0171813964844</t>
   </si>
   <si>
     <t xml:space="preserve">22.0417060852051</t>
   </si>
   <si>
-    <t xml:space="preserve">22.360559463501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1725234985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9272480010986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1970443725586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0825901031494</t>
+    <t xml:space="preserve">22.3605613708496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1725158691406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.92724609375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1970462799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0825881958008</t>
   </si>
   <si>
     <t xml:space="preserve">22.8020496368408</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5159015655518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8863735198975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8046131134033</t>
+    <t xml:space="preserve">22.5158977508545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8863677978516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.804615020752</t>
   </si>
   <si>
     <t xml:space="preserve">21.7473831176758</t>
@@ -548,100 +548,100 @@
     <t xml:space="preserve">22.3687362670898</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9844799041748</t>
+    <t xml:space="preserve">21.9844779968262</t>
   </si>
   <si>
     <t xml:space="preserve">22.2052211761475</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2215728759766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4423198699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4831981658936</t>
+    <t xml:space="preserve">22.2215747833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4423217773438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4831924438477</t>
   </si>
   <si>
     <t xml:space="preserve">23.2435398101807</t>
   </si>
   <si>
-    <t xml:space="preserve">23.4561080932617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3907012939453</t>
+    <t xml:space="preserve">23.4561042785645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3906993865967</t>
   </si>
   <si>
     <t xml:space="preserve">23.276237487793</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2026596069336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1536064147949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0309677124023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9246864318848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1127243041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3360366821289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5077266693115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0335350036621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.164342880249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.066234588623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9108943939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8945426940918</t>
+    <t xml:space="preserve">23.2026538848877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1536045074463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.030969619751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9246826171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1127281188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3360328674316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5077228546143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0335330963135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1643447875977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0662326812744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9108982086182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8945465087891</t>
   </si>
   <si>
     <t xml:space="preserve">21.0769748687744</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6191368103027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9298095703125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0279216766357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5700817108154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0851516723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.000825881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2977161407471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3385963439941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9052867889404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7826519012451</t>
+    <t xml:space="preserve">20.6191349029541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9298114776611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0279197692871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5700798034668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0851535797119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0008277893066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2977142333984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3385982513428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9052886962891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7826480865479</t>
   </si>
   <si>
     <t xml:space="preserve">21.0360946655273</t>
@@ -650,22 +650,22 @@
     <t xml:space="preserve">20.986364364624</t>
   </si>
   <si>
-    <t xml:space="preserve">20.4641952514648</t>
+    <t xml:space="preserve">20.4641933441162</t>
   </si>
   <si>
     <t xml:space="preserve">20.7791538238525</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0278091430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1024074554443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8537502288818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1355590820312</t>
+    <t xml:space="preserve">21.0278053283691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1024055480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8537464141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1355609893799</t>
   </si>
   <si>
     <t xml:space="preserve">21.293041229248</t>
@@ -677,52 +677,52 @@
     <t xml:space="preserve">20.895191192627</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1189804077148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3427696228027</t>
+    <t xml:space="preserve">21.1189823150635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3427715301514</t>
   </si>
   <si>
     <t xml:space="preserve">21.2847499847412</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1604232788086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5499839782715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.251594543457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5251159667969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2018661499023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9146747589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1716156005859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3373832702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1053066253662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9063835144043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7240390777588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3208045959473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4285545349121</t>
+    <t xml:space="preserve">21.1604270935059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5499820709229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2515964508057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5251140594482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2018623352051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9146728515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1716136932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3373870849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1053085327148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9063854217529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7240352630615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3208103179932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4285583496094</t>
   </si>
   <si>
     <t xml:space="preserve">22.1633243560791</t>
@@ -731,127 +731,127 @@
     <t xml:space="preserve">22.3125171661377</t>
   </si>
   <si>
-    <t xml:space="preserve">22.635763168335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5611743927002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6772136688232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0419025421143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0253276824951</t>
+    <t xml:space="preserve">22.6357688903809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5611763000488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6772155761719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0419006347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0253257751465</t>
   </si>
   <si>
     <t xml:space="preserve">22.5363063812256</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0667667388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6191883087158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9507293701172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7932510375977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8264007568359</t>
+    <t xml:space="preserve">23.066764831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6191902160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9507331848145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7932472229004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8264045715332</t>
   </si>
   <si>
     <t xml:space="preserve">22.6026172637939</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6109046936035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5777492523193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2793655395508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4617080688477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4368457794189</t>
+    <t xml:space="preserve">22.6109066009521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5777530670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2793636322021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4617118835449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4368476867676</t>
   </si>
   <si>
     <t xml:space="preserve">21.8069229125977</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8898048400879</t>
+    <t xml:space="preserve">21.8898067474365</t>
   </si>
   <si>
     <t xml:space="preserve">22.0638656616211</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2544994354248</t>
+    <t xml:space="preserve">22.2545013427734</t>
   </si>
   <si>
     <t xml:space="preserve">21.8732280731201</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2710762023926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3788280487061</t>
+    <t xml:space="preserve">22.2710742950439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3788261413574</t>
   </si>
   <si>
     <t xml:space="preserve">23.2822647094727</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3983058929443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.45631980896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6884002685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4231758117676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.9287700653076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0282306671143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4509391784668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4177875518799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.343189239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7824764251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8404979705811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7741889953613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0891494750977</t>
+    <t xml:space="preserve">23.3983039855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4563255310059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6884021759033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4231739044189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.928768157959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0282287597656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4509372711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.417781829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3431930541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7824745178223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8404960632324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7741870880127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.089147567749</t>
   </si>
   <si>
     <t xml:space="preserve">25.1554565429688</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0062675476074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1057262420654</t>
+    <t xml:space="preserve">25.0062656402588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1057319641113</t>
   </si>
   <si>
     <t xml:space="preserve">25.2714977264404</t>
@@ -860,100 +860,100 @@
     <t xml:space="preserve">25.5533046722412</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5450134277344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8019542694092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9262828826904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2080879211426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4070167541504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.4401683807373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9594345092773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8765563964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1252098083496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2992630004883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.241247177124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.605936050415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3655700683594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1666450500488</t>
+    <t xml:space="preserve">25.545015335083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8019580841064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9262847900391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2080917358398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4070129394531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4401702880859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9594383239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8765544891357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.125207901001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2992649078369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2412452697754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6059379577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.365571975708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1666469573975</t>
   </si>
   <si>
     <t xml:space="preserve">26.249532699585</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3324165344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5644950866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9374752044678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9540519714355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2192840576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.036937713623</t>
+    <t xml:space="preserve">26.3324222564697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5644969940186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9374732971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9540576934814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2192859649658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0369358062744</t>
   </si>
   <si>
     <t xml:space="preserve">27.0120697021484</t>
   </si>
   <si>
-    <t xml:space="preserve">27.409912109375</t>
+    <t xml:space="preserve">27.4099197387695</t>
   </si>
   <si>
     <t xml:space="preserve">27.6751461029053</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6254215240479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3850536346436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6585731506348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0647087097168</t>
+    <t xml:space="preserve">27.6254177093506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3850498199463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6585712432861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0647068023682</t>
   </si>
   <si>
     <t xml:space="preserve">27.5093784332275</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7407703399658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5145988464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4810886383057</t>
+    <t xml:space="preserve">28.7407646179199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5145931243896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.481086730957</t>
   </si>
   <si>
     <t xml:space="preserve">28.7742729187012</t>
@@ -962,25 +962,25 @@
     <t xml:space="preserve">28.489465713501</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8412914276123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6067409515381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.673755645752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4276657104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8381271362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8129940032959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5669078826904</t>
+    <t xml:space="preserve">28.8412895202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6067371368408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6737518310547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4276676177979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8381252288818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8129978179932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5669059753418</t>
   </si>
   <si>
     <t xml:space="preserve">30.6590518951416</t>
@@ -989,124 +989,124 @@
     <t xml:space="preserve">30.5752868652344</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7543640136719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9386501312256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0307941436768</t>
+    <t xml:space="preserve">29.754358291626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.938648223877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0307865142822</t>
   </si>
   <si>
     <t xml:space="preserve">29.9302711486816</t>
   </si>
   <si>
-    <t xml:space="preserve">29.871639251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0475463867188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.896764755249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2485961914062</t>
+    <t xml:space="preserve">29.8716335296631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0475482940674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8967666625977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2485942840576</t>
   </si>
   <si>
     <t xml:space="preserve">29.4695510864258</t>
   </si>
   <si>
-    <t xml:space="preserve">29.5700721740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9972896575928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7480335235596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7512016296387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8768482208252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3826198577881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.558536529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5920372009277</t>
+    <t xml:space="preserve">29.5700702667236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9972915649414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7480316162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7511959075928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8768558502197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3826141357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5585289001465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5920352935791</t>
   </si>
   <si>
     <t xml:space="preserve">30.0391674041748</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5250244140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2203025817871</t>
+    <t xml:space="preserve">30.5250205993652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2203006744385</t>
   </si>
   <si>
     <t xml:space="preserve">31.0276336669922</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2538051605225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4967346191406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1700382232666</t>
+    <t xml:space="preserve">31.2538013458252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.496732711792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.170036315918</t>
   </si>
   <si>
     <t xml:space="preserve">31.3291969299316</t>
   </si>
   <si>
-    <t xml:space="preserve">30.3658599853516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5449409484863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1512298583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6538410186768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7292366027832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2852611541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2266273498535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5198135375977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3355197906494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6957225799561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3941593170166</t>
+    <t xml:space="preserve">30.3658618927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5449390411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1512241363525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6538391113281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7292289733887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2852592468262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.226619720459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5198097229004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3355178833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6957206726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3941535949707</t>
   </si>
   <si>
     <t xml:space="preserve">29.6789722442627</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7459831237793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2234592437744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.240213394165</t>
+    <t xml:space="preserve">29.7459774017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2234668731689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2402172088623</t>
   </si>
   <si>
     <t xml:space="preserve">30.1731986999512</t>
@@ -1115,16 +1115,16 @@
     <t xml:space="preserve">29.9051399230957</t>
   </si>
   <si>
-    <t xml:space="preserve">29.7711124420166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9553985595703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7878684997559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.720853805542</t>
+    <t xml:space="preserve">29.7711067199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9554042816162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7878704071045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7208557128906</t>
   </si>
   <si>
     <t xml:space="preserve">29.8548831939697</t>
@@ -1133,100 +1133,100 @@
     <t xml:space="preserve">29.3271427154541</t>
   </si>
   <si>
-    <t xml:space="preserve">29.0423259735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4360389709473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4946823120117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2517547607422</t>
+    <t xml:space="preserve">29.0423374176025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4360446929932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4946746826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2517509460449</t>
   </si>
   <si>
     <t xml:space="preserve">29.2768859863281</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6203346252441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3606491088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6873378753662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5868225097656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4611663818359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8632640838623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1396903991699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4496364593506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3239841461182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2988452911377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5166454315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9773731231689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1784133911133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1365261077881</t>
+    <t xml:space="preserve">29.6203308105469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3606472015381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6873474121094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5868282318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4611701965332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.863260269165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1396923065186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.449634552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3239879608154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2988510131836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5166511535645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9773750305176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1784191131592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1365280151367</t>
   </si>
   <si>
     <t xml:space="preserve">31.2454261779785</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3710784912109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9857482910156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2286720275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5637493133545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7647819519043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2171325683594</t>
+    <t xml:space="preserve">31.3710746765137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9857540130615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2286777496338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5637454986572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7647876739502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2171478271484</t>
   </si>
   <si>
     <t xml:space="preserve">32.7281188964844</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6359748840332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.543830871582</t>
+    <t xml:space="preserve">32.6359710693359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5438270568848</t>
   </si>
   <si>
     <t xml:space="preserve">33.0045547485352</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6694793701172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9794235229492</t>
+    <t xml:space="preserve">32.6694831848145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9794273376465</t>
   </si>
   <si>
     <t xml:space="preserve">32.7867546081543</t>
@@ -1235,55 +1235,55 @@
     <t xml:space="preserve">33.0129280090332</t>
   </si>
   <si>
-    <t xml:space="preserve">33.121826171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1469612121582</t>
+    <t xml:space="preserve">33.1218338012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1469573974609</t>
   </si>
   <si>
     <t xml:space="preserve">33.3898887634277</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3647575378418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5741767883301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3312492370605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5909309387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1804733276367</t>
+    <t xml:space="preserve">33.3647613525391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5741729736328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3312454223633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5909271240234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1804656982422</t>
   </si>
   <si>
     <t xml:space="preserve">33.2307243347168</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1134490966797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.264232635498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4568977355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6579513549805</t>
+    <t xml:space="preserve">33.113452911377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2642364501953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4569091796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6579475402832</t>
   </si>
   <si>
     <t xml:space="preserve">33.1720848083496</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2558555603027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4150199890137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.599308013916</t>
+    <t xml:space="preserve">33.255859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4150123596191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5993041992188</t>
   </si>
   <si>
     <t xml:space="preserve">33.4317741394043</t>
@@ -1295,10 +1295,10 @@
     <t xml:space="preserve">33.3479995727539</t>
   </si>
   <si>
-    <t xml:space="preserve">34.009765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8924903869629</t>
+    <t xml:space="preserve">34.0097694396973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8924942016602</t>
   </si>
   <si>
     <t xml:space="preserve">33.3228721618652</t>
@@ -1307,40 +1307,40 @@
     <t xml:space="preserve">33.5071601867676</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6024627685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5103187561035</t>
+    <t xml:space="preserve">32.602466583252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5103225708008</t>
   </si>
   <si>
     <t xml:space="preserve">32.3427848815918</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6108436584473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9742031097412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.367919921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8653087615967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4243469238281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4667053222656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3481216430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3989448547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1787185668945</t>
+    <t xml:space="preserve">32.61083984375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.974214553833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3679161071777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.865306854248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4243545532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4667015075684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3481140136719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3989372253418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1787109375</t>
   </si>
   <si>
     <t xml:space="preserve">32.170238494873</t>
@@ -1349,25 +1349,25 @@
     <t xml:space="preserve">32.0177803039551</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8737773895264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0940132141113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8055152893066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4497604370117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2295341491699</t>
+    <t xml:space="preserve">31.8737812042236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0940017700195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8055114746094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4497566223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2295303344727</t>
   </si>
   <si>
     <t xml:space="preserve">32.7631607055664</t>
   </si>
   <si>
-    <t xml:space="preserve">32.720817565918</t>
+    <t xml:space="preserve">32.7208061218262</t>
   </si>
   <si>
     <t xml:space="preserve">32.7885704040527</t>
@@ -1379,79 +1379,79 @@
     <t xml:space="preserve">31.3570919036865</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9759197235107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5519027709961</t>
+    <t xml:space="preserve">30.9759311676025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5519065856934</t>
   </si>
   <si>
     <t xml:space="preserve">31.5349674224854</t>
   </si>
   <si>
-    <t xml:space="preserve">30.984395980835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8742828369141</t>
+    <t xml:space="preserve">30.9843978881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8742790222168</t>
   </si>
   <si>
     <t xml:space="preserve">31.3401508331299</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6196765899658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6704921722412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3909759521484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5942573547363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4417953491211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9330787658691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4921112060547</t>
+    <t xml:space="preserve">31.6196708679199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6704883575439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3909683227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.594259262085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4417934417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9330730438232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.492115020752</t>
   </si>
   <si>
     <t xml:space="preserve">32.6276359558105</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7800979614258</t>
+    <t xml:space="preserve">32.780101776123</t>
   </si>
   <si>
     <t xml:space="preserve">32.5429344177246</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3565826416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6954040527344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2888259887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1194229125977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7128429412842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9669551849365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6615257263184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0347213745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5259971618652</t>
+    <t xml:space="preserve">32.3565902709961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6954002380371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.288818359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1194152832031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7128467559814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9669609069824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6615219116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0347099304199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.525993347168</t>
   </si>
   <si>
     <t xml:space="preserve">31.4672050476074</t>
@@ -1463,127 +1463,127 @@
     <t xml:space="preserve">30.6794700622559</t>
   </si>
   <si>
-    <t xml:space="preserve">29.8832588195801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2225780487061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1891918182373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4428043365479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0711135864258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1478481292725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5718688964844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0890636444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3172550201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9869117736816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3680725097656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4278736114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.987419128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8180084228516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6147193908691</t>
+    <t xml:space="preserve">29.8832569122314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2225742340088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1891899108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.442798614502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0711154937744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1478519439697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.571870803833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0890598297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.317253112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9869136810303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3680782318115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4278717041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9874153137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8180122375488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6147212982178</t>
   </si>
   <si>
     <t xml:space="preserve">25.3262271881104</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1568222045898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.945068359375</t>
+    <t xml:space="preserve">25.1568241119385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9450645446777</t>
   </si>
   <si>
     <t xml:space="preserve">24.6231956481934</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0218048095703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4707260131836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5469627380371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3516368865967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.241527557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4871635437012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1229400634766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6994285583496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9789447784424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8349533081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6062545776367</t>
+    <t xml:space="preserve">24.0218029022217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4707279205322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5469646453857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3516407012939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2415256500244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4871654510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1229419708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6994228363037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.978946685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8349514007568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6062526702881</t>
   </si>
   <si>
     <t xml:space="preserve">24.2250900268555</t>
   </si>
   <si>
-    <t xml:space="preserve">24.1234436035156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0726261138916</t>
+    <t xml:space="preserve">24.1234474182129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.072624206543</t>
   </si>
   <si>
     <t xml:space="preserve">24.0387401580811</t>
   </si>
   <si>
-    <t xml:space="preserve">23.3102951049805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.716869354248</t>
+    <t xml:space="preserve">23.3102931976318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7168712615967</t>
   </si>
   <si>
     <t xml:space="preserve">24.4453201293945</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3939933776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0043601989746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.309289932251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.283878326416</t>
+    <t xml:space="preserve">25.3939895629883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0043563842773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3092880249023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2838764190674</t>
   </si>
   <si>
     <t xml:space="preserve">25.0128288269043</t>
@@ -1595,49 +1595,49 @@
     <t xml:space="preserve">24.8264827728271</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1314144134521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0721168518066</t>
+    <t xml:space="preserve">25.1314125061035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0721206665039</t>
   </si>
   <si>
     <t xml:space="preserve">25.2754077911377</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4902591705322</t>
+    <t xml:space="preserve">25.4902610778809</t>
   </si>
   <si>
     <t xml:space="preserve">25.2152519226074</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4386959075928</t>
+    <t xml:space="preserve">25.4386978149414</t>
   </si>
   <si>
     <t xml:space="preserve">25.3871326446533</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4816665649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5129661560059</t>
+    <t xml:space="preserve">25.4816646575928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5129642486572</t>
   </si>
   <si>
     <t xml:space="preserve">26.2723274230957</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3410816192627</t>
+    <t xml:space="preserve">26.3410797119141</t>
   </si>
   <si>
     <t xml:space="preserve">26.5731239318848</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2981109619141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3926486968994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1090393066406</t>
+    <t xml:space="preserve">26.2981147766113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3926467895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.109037399292</t>
   </si>
   <si>
     <t xml:space="preserve">26.2121715545654</t>
@@ -1646,19 +1646,19 @@
     <t xml:space="preserve">26.504373550415</t>
   </si>
   <si>
-    <t xml:space="preserve">26.38405418396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8769989013672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6387977600098</t>
+    <t xml:space="preserve">26.3840560913086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8770008087158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6388034820557</t>
   </si>
   <si>
     <t xml:space="preserve">27.4325408935547</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6989593505859</t>
+    <t xml:space="preserve">27.6989612579346</t>
   </si>
   <si>
     <t xml:space="preserve">27.5614528656006</t>
@@ -1667,43 +1667,43 @@
     <t xml:space="preserve">27.5184841156006</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5786457061768</t>
+    <t xml:space="preserve">27.5786418914795</t>
   </si>
   <si>
     <t xml:space="preserve">27.6130180358887</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2434673309326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.1059684753418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2606563568115</t>
+    <t xml:space="preserve">27.2434730529785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.1059665679932</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2606582641602</t>
   </si>
   <si>
     <t xml:space="preserve">27.3465976715088</t>
   </si>
   <si>
-    <t xml:space="preserve">27.2950344085693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.2919521331787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3607139587402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3177375793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9739761352539</t>
+    <t xml:space="preserve">27.295036315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.2919540405273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3607082366943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.317741394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9739723205566</t>
   </si>
   <si>
     <t xml:space="preserve">28.1630439758301</t>
   </si>
   <si>
-    <t xml:space="preserve">28.2232055664062</t>
+    <t xml:space="preserve">28.2232036590576</t>
   </si>
   <si>
     <t xml:space="preserve">28.6185340881348</t>
@@ -1712,55 +1712,55 @@
     <t xml:space="preserve">28.2317962646484</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0942878723145</t>
+    <t xml:space="preserve">28.0942859649658</t>
   </si>
   <si>
     <t xml:space="preserve">28.8419857025146</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6326446533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3576354980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4263820648193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5497856140137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.498218536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8591709136963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8247985839844</t>
+    <t xml:space="preserve">29.6326465606689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3576316833496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4263877868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5497779846191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4982128143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8591747283936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8247966766357</t>
   </si>
   <si>
     <t xml:space="preserve">29.271692276001</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6277694702148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6050624847412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.957426071167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2668151855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7480850219727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9973182678223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6418800354004</t>
+    <t xml:space="preserve">25.6277675628662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6050662994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9574279785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2668132781982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.748083114624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9973163604736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6418781280518</t>
   </si>
   <si>
     <t xml:space="preserve">26.6504726409912</t>
@@ -1769,76 +1769,76 @@
     <t xml:space="preserve">26.3238945007324</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4184303283691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8254318237305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6965236663818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8082485198975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8137626647949</t>
+    <t xml:space="preserve">26.4184284210205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8254337310791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6965198516846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8082466125488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8137645721436</t>
   </si>
   <si>
     <t xml:space="preserve">26.6676616668701</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8911113739014</t>
+    <t xml:space="preserve">26.8911094665527</t>
   </si>
   <si>
     <t xml:space="preserve">27.0543975830078</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0372123718262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7364177703857</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8997001647949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4841079711914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.5098857879639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2348766326904</t>
+    <t xml:space="preserve">27.0372104644775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7364139556885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8997058868408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4841003417969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.5098876953125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2348747253418</t>
   </si>
   <si>
     <t xml:space="preserve">27.5872344970703</t>
   </si>
   <si>
-    <t xml:space="preserve">27.7161483764648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9997596740723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0169429779053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.8966236114502</t>
+    <t xml:space="preserve">27.7161464691162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.999755859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0169410705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.8966255187988</t>
   </si>
   <si>
     <t xml:space="preserve">27.501293182373</t>
   </si>
   <si>
-    <t xml:space="preserve">27.226282119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6160984039307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2379512786865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5645313262939</t>
+    <t xml:space="preserve">27.2262802124023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.616096496582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2379531860352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5645294189453</t>
   </si>
   <si>
     <t xml:space="preserve">26.4012432098389</t>
@@ -1850,22 +1850,22 @@
     <t xml:space="preserve">25.9285659790039</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9543495178223</t>
+    <t xml:space="preserve">25.954345703125</t>
   </si>
   <si>
     <t xml:space="preserve">26.066068649292</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9199676513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2035789489746</t>
+    <t xml:space="preserve">25.9199695587158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2035751342773</t>
   </si>
   <si>
     <t xml:space="preserve">26.1176319122314</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2551422119141</t>
+    <t xml:space="preserve">26.2551383972168</t>
   </si>
   <si>
     <t xml:space="preserve">25.8340282440186</t>
@@ -1883,34 +1883,34 @@
     <t xml:space="preserve">25.6105785369873</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4988574981689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3183822631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2238464355469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0261821746826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2324352264404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3785362243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5504245758057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0605564117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2840042114258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4215087890625</t>
+    <t xml:space="preserve">25.4988555908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3183765411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2238445281982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0261764526367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2324390411377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3785400390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.550422668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0605525970459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2840003967285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4215106964111</t>
   </si>
   <si>
     <t xml:space="preserve">26.3496780395508</t>
@@ -1919,52 +1919,52 @@
     <t xml:space="preserve">26.0746669769287</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6621494293213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7996520996094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9715347290039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0089912414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8628902435303</t>
+    <t xml:space="preserve">25.6621475219727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7996482849121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9715366363525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0089893341064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8628921508789</t>
   </si>
   <si>
     <t xml:space="preserve">24.7253818511963</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9144554138184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0691471099854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4558868408203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7738666534424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5246391296387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6019878387451</t>
+    <t xml:space="preserve">24.914457321167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0691509246826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.455883026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.773868560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5246410369873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6019897460938</t>
   </si>
   <si>
     <t xml:space="preserve">25.1722812652588</t>
   </si>
   <si>
-    <t xml:space="preserve">26.0402851104736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5817184448242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7137088775635</t>
+    <t xml:space="preserve">26.0402870178223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5817203521729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7137069702148</t>
   </si>
   <si>
     <t xml:space="preserve">25.8598098754883</t>
@@ -1973,34 +1973,34 @@
     <t xml:space="preserve">25.9113750457764</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7394962310791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8684043884277</t>
+    <t xml:space="preserve">25.7394905090332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8684062957764</t>
   </si>
   <si>
     <t xml:space="preserve">25.6363639831543</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9801273345947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6535530090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4644794464111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8542919158936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9230499267578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.043363571167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1306552886963</t>
+    <t xml:space="preserve">25.980131149292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6535472869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4644813537598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8542957305908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9230480194092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0433654785156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1306571960449</t>
   </si>
   <si>
     <t xml:space="preserve">24.7727661132812</t>
@@ -2009,52 +2009,52 @@
     <t xml:space="preserve">24.7640419006348</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3799667358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3712329864502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4323406219482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.231575012207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7989559173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.13938331604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1131973266602</t>
+    <t xml:space="preserve">24.3799648284912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3712310791016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.432336807251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2315711975098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.798957824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1393852233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1131992340088</t>
   </si>
   <si>
     <t xml:space="preserve">24.9648056030273</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4410648345947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5283584594727</t>
+    <t xml:space="preserve">24.441068649292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5283622741699</t>
   </si>
   <si>
     <t xml:space="preserve">24.388692855835</t>
   </si>
   <si>
-    <t xml:space="preserve">24.3537788391113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8164119720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7902240753174</t>
+    <t xml:space="preserve">24.3537769317627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8164138793945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.790225982666</t>
   </si>
   <si>
     <t xml:space="preserve">25.0520973205566</t>
   </si>
   <si>
-    <t xml:space="preserve">25.31396484375</t>
+    <t xml:space="preserve">25.3139629364014</t>
   </si>
   <si>
     <t xml:space="preserve">25.4885425567627</t>
@@ -2063,49 +2063,49 @@
     <t xml:space="preserve">25.8813438415527</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4487247467041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0684814453125</t>
+    <t xml:space="preserve">26.4487228393555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0684833526611</t>
   </si>
   <si>
     <t xml:space="preserve">26.4400005340576</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2043170928955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0122776031494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2916069030762</t>
+    <t xml:space="preserve">26.2043132781982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.012279510498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2916030883789</t>
   </si>
   <si>
     <t xml:space="preserve">25.968635559082</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8376998901367</t>
+    <t xml:space="preserve">25.837703704834</t>
   </si>
   <si>
     <t xml:space="preserve">26.1170253753662</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8638877868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.7804260253906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8415279388428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9811935424805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6009502410889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2343330383301</t>
+    <t xml:space="preserve">25.8638858795166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.7804279327393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.84153175354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9811954498291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6009483337402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2343368530273</t>
   </si>
   <si>
     <t xml:space="preserve">26.7978858947754</t>
@@ -2114,7 +2114,7 @@
     <t xml:space="preserve">26.3352527618408</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1344833374023</t>
+    <t xml:space="preserve">26.134485244751</t>
   </si>
   <si>
     <t xml:space="preserve">26.1606693267822</t>
@@ -2123,7 +2123,7 @@
     <t xml:space="preserve">26.2392311096191</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5622043609619</t>
+    <t xml:space="preserve">26.5622005462646</t>
   </si>
   <si>
     <t xml:space="preserve">27.6184043884277</t>
@@ -2132,166 +2132,166 @@
     <t xml:space="preserve">27.3914527893066</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0286674499512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.9364776611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8928318023682</t>
+    <t xml:space="preserve">28.0286693572998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.9364795684814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8928337097168</t>
   </si>
   <si>
     <t xml:space="preserve">28.177059173584</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6707782745361</t>
+    <t xml:space="preserve">27.6707820892334</t>
   </si>
   <si>
     <t xml:space="preserve">27.967565536499</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3516407012939</t>
+    <t xml:space="preserve">28.3516387939453</t>
   </si>
   <si>
     <t xml:space="preserve">29.1896171569824</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2594509124756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5300464630127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6435260772705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1110591888428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2681789398193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8579177856445</t>
+    <t xml:space="preserve">29.259449005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.53005027771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6435203552246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1110534667969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2681770324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8579235076904</t>
   </si>
   <si>
     <t xml:space="preserve">28.657154083252</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6309623718262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8753757476807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7357082366943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8666458129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0761432647705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5475063323975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6784400939941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.617338180542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4776706695557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.442756652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0014057159424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1323509216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4989585876465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4504165649414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5726184844971</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0090713500977</t>
+    <t xml:space="preserve">28.6309661865234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8753814697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.735710144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8666515350342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0761375427246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5475044250488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6784362792969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6173343658447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4776782989502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4427604675293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0014095306396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1323471069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.4989624023438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4504127502441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5726165771484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0090675354004</t>
   </si>
   <si>
     <t xml:space="preserve">32.0789031982422</t>
   </si>
   <si>
-    <t xml:space="preserve">31.9130535125732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1099948883057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2060089111328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3282089233398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0401573181152</t>
+    <t xml:space="preserve">31.9130516052246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1099872589111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2060031890869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3282070159912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0401554107666</t>
   </si>
   <si>
     <t xml:space="preserve">29.9664974212646</t>
   </si>
   <si>
-    <t xml:space="preserve">30.2981948852539</t>
+    <t xml:space="preserve">30.2981929779053</t>
   </si>
   <si>
     <t xml:space="preserve">30.5076904296875</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0663414001465</t>
+    <t xml:space="preserve">31.0663433074951</t>
   </si>
   <si>
     <t xml:space="preserve">31.2845668792725</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9703273773193</t>
+    <t xml:space="preserve">30.9703235626221</t>
   </si>
   <si>
     <t xml:space="preserve">31.5027904510498</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5464363098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2671070098877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4766025543213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5638942718506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.677375793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5115165710449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9877834320068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7841644287109</t>
+    <t xml:space="preserve">31.5464344024658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2671031951904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4766044616699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.563892364502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6773681640625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5115184783936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9877796173096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7841701507568</t>
   </si>
   <si>
     <t xml:space="preserve">31.4126281738281</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4391689300537</t>
+    <t xml:space="preserve">31.4391651153564</t>
   </si>
   <si>
     <t xml:space="preserve">32.0318603515625</t>
@@ -2300,46 +2300,46 @@
     <t xml:space="preserve">31.8195514678955</t>
   </si>
   <si>
-    <t xml:space="preserve">31.8372440338135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9964714050293</t>
+    <t xml:space="preserve">31.8372535705566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9964733123779</t>
   </si>
   <si>
     <t xml:space="preserve">32.0141716003418</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3595561981201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5453243255615</t>
+    <t xml:space="preserve">31.3595600128174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5453205108643</t>
   </si>
   <si>
     <t xml:space="preserve">32.2618598937988</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2887878417969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1118602752686</t>
+    <t xml:space="preserve">31.2887859344482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1118564605713</t>
   </si>
   <si>
     <t xml:space="preserve">29.9618663787842</t>
   </si>
   <si>
-    <t xml:space="preserve">30.5280113220215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2534046173096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3591651916504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3237800598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3326263427734</t>
+    <t xml:space="preserve">30.5280151367188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2534027099609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3591690063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3237838745117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3326301574707</t>
   </si>
   <si>
     <t xml:space="preserve">32.8014755249023</t>
@@ -2348,13 +2348,13 @@
     <t xml:space="preserve">32.4476318359375</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0053215026855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4564743041992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1557083129883</t>
+    <t xml:space="preserve">32.0053253173828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4564781188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.155704498291</t>
   </si>
   <si>
     <t xml:space="preserve">32.3945541381836</t>
@@ -2363,7 +2363,7 @@
     <t xml:space="preserve">32.598014831543</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6953125</t>
+    <t xml:space="preserve">32.6953201293945</t>
   </si>
   <si>
     <t xml:space="preserve">32.7307090759277</t>
@@ -2372,37 +2372,37 @@
     <t xml:space="preserve">33.1907043457031</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1818618774414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6153259277344</t>
+    <t xml:space="preserve">33.1818542480469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6153182983398</t>
   </si>
   <si>
     <t xml:space="preserve">33.5799331665039</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7037696838379</t>
+    <t xml:space="preserve">33.7037811279297</t>
   </si>
   <si>
     <t xml:space="preserve">33.686092376709</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2880096435547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.270320892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0845527648926</t>
+    <t xml:space="preserve">33.2880172729492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2703170776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0845565795898</t>
   </si>
   <si>
     <t xml:space="preserve">32.7749328613281</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2353210449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7130126953125</t>
+    <t xml:space="preserve">32.2353134155273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.713020324707</t>
   </si>
   <si>
     <t xml:space="preserve">32.9960899353027</t>
@@ -2411,82 +2411,82 @@
     <t xml:space="preserve">33.0757026672363</t>
   </si>
   <si>
-    <t xml:space="preserve">32.1203193664551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9345531463623</t>
+    <t xml:space="preserve">32.1203231811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9345512390137</t>
   </si>
   <si>
     <t xml:space="preserve">32.4299392700195</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5449333190918</t>
+    <t xml:space="preserve">32.5449409484863</t>
   </si>
   <si>
     <t xml:space="preserve">32.8987808227539</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2526245117188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3764762878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8364715576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3676261901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0753135681152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0576286315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7653121948242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.7918548583984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6856956481934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0749359130859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0483932495117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1810836791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3226203918457</t>
+    <t xml:space="preserve">33.2526321411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3764724731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8364753723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3676338195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0753211975098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0576248168945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7653198242188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.7918586730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6856994628906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0749320983887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0483894348145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1810913085938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3226280212402</t>
   </si>
   <si>
     <t xml:space="preserve">35.7295455932617</t>
   </si>
   <si>
-    <t xml:space="preserve">35.4730072021484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5526237487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5083961486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1987800598145</t>
+    <t xml:space="preserve">35.4730110168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.552619934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5083999633789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1987762451172</t>
   </si>
   <si>
     <t xml:space="preserve">35.8533935546875</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8710861206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.03955078125</t>
+    <t xml:space="preserve">35.8710784912109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0395431518555</t>
   </si>
   <si>
     <t xml:space="preserve">34.3495483398438</t>
@@ -2498,22 +2498,22 @@
     <t xml:space="preserve">35.1191635131836</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2872428894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6591644287109</t>
+    <t xml:space="preserve">35.287239074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6591606140137</t>
   </si>
   <si>
     <t xml:space="preserve">34.3760833740234</t>
   </si>
   <si>
-    <t xml:space="preserve">33.792236328125</t>
+    <t xml:space="preserve">33.7922401428223</t>
   </si>
   <si>
     <t xml:space="preserve">34.3230094909668</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5530128479004</t>
+    <t xml:space="preserve">34.5530052185059</t>
   </si>
   <si>
     <t xml:space="preserve">34.181468963623</t>
@@ -2525,55 +2525,55 @@
     <t xml:space="preserve">34.9510879516602</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3668594360352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.296085357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.2426261901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6056976318359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2607040405273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9153175354004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7914695739746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8445434570312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3314628601074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3491592407227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8099403381348</t>
+    <t xml:space="preserve">35.3668556213379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2960891723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.242618560791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6057014465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2607002258301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9153099060059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7914619445801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8445472717285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3314743041992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3491630554199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8099365234375</t>
   </si>
   <si>
     <t xml:space="preserve">34.906852722168</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7834014892578</t>
+    <t xml:space="preserve">33.783390045166</t>
   </si>
   <si>
     <t xml:space="preserve">34.3672370910645</t>
   </si>
   <si>
-    <t xml:space="preserve">34.898006439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1280097961426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2076263427734</t>
+    <t xml:space="preserve">34.8980140686035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.128002166748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2076148986816</t>
   </si>
   <si>
     <t xml:space="preserve">34.5707054138184</t>
@@ -2585,22 +2585,22 @@
     <t xml:space="preserve">34.8095512390137</t>
   </si>
   <si>
-    <t xml:space="preserve">34.8183898925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1903190612793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8633918762207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0403137207031</t>
+    <t xml:space="preserve">34.8184013366699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1903228759766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.863395690918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0403175354004</t>
   </si>
   <si>
     <t xml:space="preserve">32.5714797973633</t>
   </si>
   <si>
-    <t xml:space="preserve">33.022632598877</t>
+    <t xml:space="preserve">33.0226287841797</t>
   </si>
   <si>
     <t xml:space="preserve">32.4653282165527</t>
@@ -2609,70 +2609,70 @@
     <t xml:space="preserve">32.7837829589844</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1464691162109</t>
+    <t xml:space="preserve">33.1464729309082</t>
   </si>
   <si>
     <t xml:space="preserve">33.7657012939453</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1376342773438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3499412536621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5360908508301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.31494140625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3414764404297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.606861114502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8103218078613</t>
+    <t xml:space="preserve">33.1376266479492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3499374389648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5360946655273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3149337768555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.341480255127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6068649291992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8103141784668</t>
   </si>
   <si>
     <t xml:space="preserve">33.6330108642578</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3233947753906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3768539428711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9253158569336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6599349975586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1553192138672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1110954284668</t>
+    <t xml:space="preserve">33.3233985900879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3768653869629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9253234863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6599388122559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1553230285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1110877990723</t>
   </si>
   <si>
     <t xml:space="preserve">33.4649314880371</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5268592834473</t>
+    <t xml:space="preserve">33.5268630981445</t>
   </si>
   <si>
     <t xml:space="preserve">33.2939071655273</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1505508422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1271476745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9569206237793</t>
+    <t xml:space="preserve">33.1505546569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1271514892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9569244384766</t>
   </si>
   <si>
     <t xml:space="preserve">33.52685546875</t>
@@ -2681,7 +2681,7 @@
     <t xml:space="preserve">33.311824798584</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5358238220215</t>
+    <t xml:space="preserve">33.535816192627</t>
   </si>
   <si>
     <t xml:space="preserve">33.8583679199219</t>
@@ -2693,82 +2693,82 @@
     <t xml:space="preserve">34.1092338562012</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3979415893555</t>
+    <t xml:space="preserve">32.3979454040527</t>
   </si>
   <si>
     <t xml:space="preserve">32.8907241821289</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9534378051758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.792163848877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7294540405273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7439002990723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2814750671387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4785804748535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6577758789062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6040153503418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2043075561523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8135643005371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.001708984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6702194213867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2257080078125</t>
+    <t xml:space="preserve">32.953441619873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7921676635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7294502258301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.743896484375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2814674377441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4785842895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.657772064209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6040229797363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2043113708496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8135757446289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0017166137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6702156066895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2257041931152</t>
   </si>
   <si>
     <t xml:space="preserve">34.0106735229492</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6612548828125</t>
+    <t xml:space="preserve">33.661247253418</t>
   </si>
   <si>
     <t xml:space="preserve">34.3421859741211</t>
   </si>
   <si>
-    <t xml:space="preserve">33.8314819335938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9479598999023</t>
+    <t xml:space="preserve">33.831485748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9479522705078</t>
   </si>
   <si>
     <t xml:space="preserve">34.7543258666992</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7364120483398</t>
+    <t xml:space="preserve">34.7364082336426</t>
   </si>
   <si>
     <t xml:space="preserve">34.7274436950684</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1395874023438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6950759887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9603958129883</t>
+    <t xml:space="preserve">35.139591217041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6950836181641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.960391998291</t>
   </si>
   <si>
     <t xml:space="preserve">35.3814964294434</t>
@@ -2777,16 +2777,16 @@
     <t xml:space="preserve">35.4621391296387</t>
   </si>
   <si>
-    <t xml:space="preserve">35.838436126709</t>
+    <t xml:space="preserve">35.8384399414062</t>
   </si>
   <si>
     <t xml:space="preserve">36.1251449584961</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0982666015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7757110595703</t>
+    <t xml:space="preserve">36.0982627868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7757225036621</t>
   </si>
   <si>
     <t xml:space="preserve">36.6268844604492</t>
@@ -2795,40 +2795,40 @@
     <t xml:space="preserve">35.5606880187988</t>
   </si>
   <si>
-    <t xml:space="preserve">34.6109771728516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2470970153809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8653144836426</t>
+    <t xml:space="preserve">34.610969543457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2471084594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8653106689453</t>
   </si>
   <si>
     <t xml:space="preserve">35.8563537597656</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2864151000977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.0086669921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.3670539855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.662712097168</t>
+    <t xml:space="preserve">36.2864189147949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.0086631774902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.3670501708984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6627197265625</t>
   </si>
   <si>
     <t xml:space="preserve">37.012149810791</t>
   </si>
   <si>
-    <t xml:space="preserve">36.7344017028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1520233154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8239860534668</t>
+    <t xml:space="preserve">36.7343978881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1520195007324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8239898681641</t>
   </si>
   <si>
     <t xml:space="preserve">37.2092590332031</t>
@@ -2837,16 +2837,16 @@
     <t xml:space="preserve">37.7737121582031</t>
   </si>
   <si>
-    <t xml:space="preserve">36.4028968811035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.485538482666</t>
+    <t xml:space="preserve">36.4028930664062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4855422973633</t>
   </si>
   <si>
     <t xml:space="preserve">34.6199264526367</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6502876281738</t>
+    <t xml:space="preserve">35.6502838134766</t>
   </si>
   <si>
     <t xml:space="preserve">35.6682052612305</t>
@@ -2855,85 +2855,85 @@
     <t xml:space="preserve">34.6557655334473</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4676208496094</t>
+    <t xml:space="preserve">34.4676170349121</t>
   </si>
   <si>
     <t xml:space="preserve">35.1575088500977</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2650299072266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5751304626465</t>
+    <t xml:space="preserve">35.2650260925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5751342773438</t>
   </si>
   <si>
     <t xml:space="preserve">32.9892845153809</t>
   </si>
   <si>
-    <t xml:space="preserve">30.7762584686279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3103542327881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3198566436768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0594844818115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6473503112793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6149845123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1794376373291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5647068023682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5736675262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.295919418335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3710746765137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.568187713623</t>
+    <t xml:space="preserve">30.7762565612793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.310359954834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3198547363281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0594882965088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6473484039307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.6149826049805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1794357299805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.564697265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5736637115479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2959156036377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3710708618164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5681762695312</t>
   </si>
   <si>
     <t xml:space="preserve">35.058952331543</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5303344726562</t>
+    <t xml:space="preserve">34.5303382873535</t>
   </si>
   <si>
     <t xml:space="preserve">33.7777290344238</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2167510986328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2132720947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7329292297363</t>
+    <t xml:space="preserve">34.2167434692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2132682800293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7329330444336</t>
   </si>
   <si>
     <t xml:space="preserve">33.4820594787598</t>
   </si>
   <si>
-    <t xml:space="preserve">32.9176063537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8494033813477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.4944915771484</t>
+    <t xml:space="preserve">32.9176139831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8493995666504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.494499206543</t>
   </si>
   <si>
     <t xml:space="preserve">34.2973861694336</t>
@@ -2942,25 +2942,25 @@
     <t xml:space="preserve">33.8225250244141</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7722511291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1898651123047</t>
+    <t xml:space="preserve">34.7722396850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.189868927002</t>
   </si>
   <si>
     <t xml:space="preserve">34.5930519104004</t>
   </si>
   <si>
-    <t xml:space="preserve">34.315299987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0141525268555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6000022888184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5427742004395</t>
+    <t xml:space="preserve">34.3153038024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.01416015625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6000061035156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5427703857422</t>
   </si>
   <si>
     <t xml:space="preserve">35.3725357055664</t>
@@ -2969,40 +2969,40 @@
     <t xml:space="preserve">36.2774620056152</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7309188842773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6537628173828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.0927848815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.4222869873047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6338386535645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.14453125</t>
+    <t xml:space="preserve">35.7309226989746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6537590026855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0927810668945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.4222831726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6338310241699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.1445388793945</t>
   </si>
   <si>
     <t xml:space="preserve">37.8991432189941</t>
   </si>
   <si>
-    <t xml:space="preserve">40.1928062438965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3015785217285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.0473594665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6728286743164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.328369140625</t>
+    <t xml:space="preserve">40.1928100585938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3015823364258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.04736328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6728324890137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.3283729553223</t>
   </si>
   <si>
     <t xml:space="preserve">38.2167053222656</t>
@@ -3014,70 +3014,70 @@
     <t xml:space="preserve">38.3798675537109</t>
   </si>
   <si>
-    <t xml:space="preserve">37.4643363952637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.8722496032715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.0926818847656</t>
+    <t xml:space="preserve">37.4643440246582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.8722457885742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0926856994629</t>
   </si>
   <si>
     <t xml:space="preserve">36.8479385375977</t>
   </si>
   <si>
-    <t xml:space="preserve">37.2739791870117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1923980712891</t>
+    <t xml:space="preserve">37.2739753723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1923942565918</t>
   </si>
   <si>
     <t xml:space="preserve">37.7816009521484</t>
   </si>
   <si>
-    <t xml:space="preserve">37.4824676513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.3646278381348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6003112792969</t>
+    <t xml:space="preserve">37.4824638366699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.3646240234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6002998352051</t>
   </si>
   <si>
     <t xml:space="preserve">37.9719581604004</t>
   </si>
   <si>
-    <t xml:space="preserve">36.7482261657715</t>
+    <t xml:space="preserve">36.7482223510742</t>
   </si>
   <si>
     <t xml:space="preserve">36.7663612365723</t>
   </si>
   <si>
-    <t xml:space="preserve">37.6637573242188</t>
+    <t xml:space="preserve">37.6637649536133</t>
   </si>
   <si>
     <t xml:space="preserve">38.5974235534668</t>
   </si>
   <si>
-    <t xml:space="preserve">41.017692565918</t>
+    <t xml:space="preserve">41.0176887512207</t>
   </si>
   <si>
     <t xml:space="preserve">40.0930938720703</t>
   </si>
   <si>
-    <t xml:space="preserve">41.144603729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.162727355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8244476318359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.791072845459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.963306427002</t>
+    <t xml:space="preserve">41.1445960998535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1627349853516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8244514465332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7910766601562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9633026123047</t>
   </si>
   <si>
     <t xml:space="preserve">40.7094955444336</t>
@@ -3086,10 +3086,10 @@
     <t xml:space="preserve">40.2925186157227</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1717910766602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4528045654297</t>
+    <t xml:space="preserve">41.1717948913574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4528007507324</t>
   </si>
   <si>
     <t xml:space="preserve">41.5525131225586</t>
@@ -3098,7 +3098,7 @@
     <t xml:space="preserve">42.2776832580566</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6884803771973</t>
+    <t xml:space="preserve">41.6884841918945</t>
   </si>
   <si>
     <t xml:space="preserve">41.6975517272949</t>
@@ -3110,19 +3110,19 @@
     <t xml:space="preserve">41.3349571228027</t>
   </si>
   <si>
-    <t xml:space="preserve">42.3139419555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.622142791748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.9665985107422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1569633483887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.8005485534668</t>
+    <t xml:space="preserve">42.3139457702637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6221466064453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.9666023254395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1569557189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.8005523681641</t>
   </si>
   <si>
     <t xml:space="preserve">44.1993942260742</t>
@@ -3131,7 +3131,7 @@
     <t xml:space="preserve">43.8096199035645</t>
   </si>
   <si>
-    <t xml:space="preserve">43.202278137207</t>
+    <t xml:space="preserve">43.2022819519043</t>
   </si>
   <si>
     <t xml:space="preserve">43.6373863220215</t>
@@ -3143,31 +3143,31 @@
     <t xml:space="preserve">42.8940811157227</t>
   </si>
   <si>
-    <t xml:space="preserve">42.903148651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.7037239074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4074783325195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0086326599121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.525318145752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.5372619628906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4828796386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4466171264648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6279106140137</t>
+    <t xml:space="preserve">42.9031524658203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.703727722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4074745178223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0086288452148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5253219604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.5372657775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4828758239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4466133117676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6279144287109</t>
   </si>
   <si>
     <t xml:space="preserve">40.3741035461426</t>
@@ -3191,61 +3191,61 @@
     <t xml:space="preserve">41.7881889343262</t>
   </si>
   <si>
-    <t xml:space="preserve">42.1507797241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1536674499512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3984031677246</t>
+    <t xml:space="preserve">42.1507835388184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1536636352539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3984069824219</t>
   </si>
   <si>
     <t xml:space="preserve">41.0992736816406</t>
   </si>
   <si>
-    <t xml:space="preserve">41.5071907043457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.736686706543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2290687561035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9723739624023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8302268981934</t>
+    <t xml:space="preserve">41.5071868896484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7366828918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2290649414062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9723663330078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8302192687988</t>
   </si>
   <si>
     <t xml:space="preserve">40.9542388916016</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6551094055176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9179840087891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9995613098145</t>
+    <t xml:space="preserve">40.655101776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9179801940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.999568939209</t>
   </si>
   <si>
     <t xml:space="preserve">40.5463256835938</t>
   </si>
   <si>
-    <t xml:space="preserve">40.2109336853027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6913681030273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6460418701172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.5825843811035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7820091247559</t>
+    <t xml:space="preserve">40.2109375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6913642883301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6460380554199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.5825881958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7820129394531</t>
   </si>
   <si>
     <t xml:space="preserve">40.455680847168</t>
@@ -3254,7 +3254,7 @@
     <t xml:space="preserve">39.6489295959473</t>
   </si>
   <si>
-    <t xml:space="preserve">39.7849006652832</t>
+    <t xml:space="preserve">39.7848930358887</t>
   </si>
   <si>
     <t xml:space="preserve">39.9752540588379</t>
@@ -3275,43 +3275,43 @@
     <t xml:space="preserve">42.0782585144043</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7972564697266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8306350708008</t>
+    <t xml:space="preserve">41.7972526550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8306274414062</t>
   </si>
   <si>
     <t xml:space="preserve">42.25048828125</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8759498596191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.5405616760254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.283863067627</t>
+    <t xml:space="preserve">42.8759536743164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5405654907227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.2838668823242</t>
   </si>
   <si>
     <t xml:space="preserve">43.2657318115234</t>
   </si>
   <si>
-    <t xml:space="preserve">43.2566719055176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.513370513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9966850280762</t>
+    <t xml:space="preserve">43.2566680908203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5133743286133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9966773986816</t>
   </si>
   <si>
     <t xml:space="preserve">40.3287811279297</t>
   </si>
   <si>
-    <t xml:space="preserve">38.7787132263184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8363952636719</t>
+    <t xml:space="preserve">38.7787170410156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8364028930664</t>
   </si>
   <si>
     <t xml:space="preserve">41.9060325622559</t>
@@ -3323,7 +3323,7 @@
     <t xml:space="preserve">41.6250228881836</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3197135925293</t>
+    <t xml:space="preserve">40.3197174072266</t>
   </si>
   <si>
     <t xml:space="preserve">41.3440208435059</t>
@@ -3335,40 +3335,40 @@
     <t xml:space="preserve">42.8668899536133</t>
   </si>
   <si>
-    <t xml:space="preserve">42.3502044677734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8607139587402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.933219909668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2276191711426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1646270751953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7052841186523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1084899902344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5208625793457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8977241516113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1279716491699</t>
+    <t xml:space="preserve">42.3502082824707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.860710144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9332275390625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2276229858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.164623260498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7052803039551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1084976196289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5208587646484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8977279663086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1279640197754</t>
   </si>
   <si>
     <t xml:space="preserve">39.4406890869141</t>
   </si>
   <si>
-    <t xml:space="preserve">39.349048614502</t>
+    <t xml:space="preserve">39.3490524291992</t>
   </si>
   <si>
     <t xml:space="preserve">39.5781478881836</t>
@@ -3377,31 +3377,31 @@
     <t xml:space="preserve">40.0088424682617</t>
   </si>
   <si>
-    <t xml:space="preserve">40.4303741455078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2929153442383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3387413024902</t>
+    <t xml:space="preserve">40.4303703308105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2929229736328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.338737487793</t>
   </si>
   <si>
     <t xml:space="preserve">41.0260200500488</t>
   </si>
   <si>
-    <t xml:space="preserve">39.807243347168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6777954101562</t>
+    <t xml:space="preserve">39.8072395324707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6777992248535</t>
   </si>
   <si>
     <t xml:space="preserve">40.3295745849609</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7511024475098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.5861587524414</t>
+    <t xml:space="preserve">40.751106262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.5861549377441</t>
   </si>
   <si>
     <t xml:space="preserve">40.9801979064941</t>
@@ -3410,16 +3410,16 @@
     <t xml:space="preserve">41.2367820739746</t>
   </si>
   <si>
-    <t xml:space="preserve">41.5391883850098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3833999633789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9172019958496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.4143486022949</t>
+    <t xml:space="preserve">41.5391845703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3834037780762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9172134399414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.4143562316895</t>
   </si>
   <si>
     <t xml:space="preserve">39.211597442627</t>
@@ -3428,97 +3428,97 @@
     <t xml:space="preserve">39.2574157714844</t>
   </si>
   <si>
-    <t xml:space="preserve">39.275749206543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9721832275391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.155460357666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0180130004883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0546646118164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8805541992188</t>
+    <t xml:space="preserve">39.2757453918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9721870422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1554641723633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0179977416992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0546607971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8805503845215</t>
   </si>
   <si>
     <t xml:space="preserve">38.9916687011719</t>
   </si>
   <si>
-    <t xml:space="preserve">39.083309173584</t>
+    <t xml:space="preserve">39.0833015441895</t>
   </si>
   <si>
     <t xml:space="preserve">39.3398933410645</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8725395202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.955005645752</t>
+    <t xml:space="preserve">38.8725357055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9550132751465</t>
   </si>
   <si>
     <t xml:space="preserve">38.9458465576172</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6067924499512</t>
+    <t xml:space="preserve">38.6067886352539</t>
   </si>
   <si>
     <t xml:space="preserve">39.1474571228027</t>
   </si>
   <si>
-    <t xml:space="preserve">39.8438987731934</t>
+    <t xml:space="preserve">39.8438911437988</t>
   </si>
   <si>
     <t xml:space="preserve">40.3845558166504</t>
   </si>
   <si>
-    <t xml:space="preserve">40.2654266357422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.81640625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1268196105957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6033363342285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7682800292969</t>
+    <t xml:space="preserve">40.2654228210449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8164024353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1268157958984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.603328704834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7682762145996</t>
   </si>
   <si>
     <t xml:space="preserve">41.4658737182617</t>
   </si>
   <si>
-    <t xml:space="preserve">41.5025291442871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0901679992676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.549503326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3204116821289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0821533203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.137134552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7809028625488</t>
+    <t xml:space="preserve">41.5025329589844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0901641845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.5494956970215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3204078674316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0821571350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1371383666992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7808990478516</t>
   </si>
   <si>
     <t xml:space="preserve">38.900032043457</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2849044799805</t>
+    <t xml:space="preserve">39.2849082946777</t>
   </si>
   <si>
     <t xml:space="preserve">39.2207641601562</t>
@@ -3527,16 +3527,16 @@
     <t xml:space="preserve">38.6159553527832</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8908653259277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.1016273498535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.4131965637207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0454978942871</t>
+    <t xml:space="preserve">38.8908729553223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.1016311645508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.413200378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0455017089844</t>
   </si>
   <si>
     <t xml:space="preserve">39.7247695922852</t>
@@ -3548,10 +3548,10 @@
     <t xml:space="preserve">41.3742408752441</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6228179931641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3559112548828</t>
+    <t xml:space="preserve">40.6228141784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3559188842773</t>
   </si>
   <si>
     <t xml:space="preserve">40.8060874938965</t>
@@ -3560,16 +3560,16 @@
     <t xml:space="preserve">41.4383850097656</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1818008422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1726341247559</t>
+    <t xml:space="preserve">41.1817970275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1726379394531</t>
   </si>
   <si>
     <t xml:space="preserve">40.9985275268555</t>
   </si>
   <si>
-    <t xml:space="preserve">41.4292221069336</t>
+    <t xml:space="preserve">41.4292144775391</t>
   </si>
   <si>
     <t xml:space="preserve">41.676643371582</t>
@@ -3578,40 +3578,40 @@
     <t xml:space="preserve">41.4108924865723</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3925666809082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8232612609863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0340309143066</t>
+    <t xml:space="preserve">41.3925628662109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8232650756836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.0340194702148</t>
   </si>
   <si>
     <t xml:space="preserve">42.9595642089844</t>
   </si>
   <si>
-    <t xml:space="preserve">42.2997779846191</t>
+    <t xml:space="preserve">42.2997741699219</t>
   </si>
   <si>
     <t xml:space="preserve">42.0798454284668</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6583137512207</t>
+    <t xml:space="preserve">41.6583099365234</t>
   </si>
   <si>
     <t xml:space="preserve">41.5758361816406</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7499542236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7316246032715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8965759277344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0523567199707</t>
+    <t xml:space="preserve">41.7499504089355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7316207885742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8965721130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.0523529052734</t>
   </si>
   <si>
     <t xml:space="preserve">42.1073379516602</t>
@@ -3620,46 +3620,46 @@
     <t xml:space="preserve">43.1886596679688</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0878524780273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6479988098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.5746917724609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3089370727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.198974609375</t>
+    <t xml:space="preserve">43.0878601074219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6479911804199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5746879577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3089408874512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1989707946777</t>
   </si>
   <si>
     <t xml:space="preserve">41.9057350158691</t>
   </si>
   <si>
-    <t xml:space="preserve">42.006534576416</t>
+    <t xml:space="preserve">42.0065383911133</t>
   </si>
   <si>
     <t xml:space="preserve">41.9698829650879</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0248641967773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2551078796387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.0535049438477</t>
+    <t xml:space="preserve">42.0248603820801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2551116943359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.0535087585449</t>
   </si>
   <si>
     <t xml:space="preserve">40.1188087463379</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0363311767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3753890991211</t>
+    <t xml:space="preserve">40.0363349914551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3753929138184</t>
   </si>
   <si>
     <t xml:space="preserve">40.5036849975586</t>
@@ -3668,46 +3668,46 @@
     <t xml:space="preserve">41.2092895507812</t>
   </si>
   <si>
-    <t xml:space="preserve">41.5300216674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8690757751465</t>
+    <t xml:space="preserve">41.5300254821777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.869083404541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.602180480957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6949119567871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.9545669555664</t>
   </si>
   <si>
     <t xml:space="preserve">42.6021766662598</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6949119567871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.9545707702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6021728515625</t>
-  </si>
-  <si>
     <t xml:space="preserve">42.027229309082</t>
   </si>
   <si>
-    <t xml:space="preserve">42.4630813598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1848754882812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.147777557373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9437561035156</t>
+    <t xml:space="preserve">42.463077545166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1848793029785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1477851867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9437599182129</t>
   </si>
   <si>
     <t xml:space="preserve">42.4167098999023</t>
   </si>
   <si>
-    <t xml:space="preserve">42.7690963745117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5480690002441</t>
+    <t xml:space="preserve">42.7691040039062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5480728149414</t>
   </si>
   <si>
     <t xml:space="preserve">43.9004554748535</t>
@@ -3716,13 +3716,13 @@
     <t xml:space="preserve">44.3270416259766</t>
   </si>
   <si>
-    <t xml:space="preserve">43.928279876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.1508445739746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.2435760498047</t>
+    <t xml:space="preserve">43.9282836914062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1508483886719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.243579864502</t>
   </si>
   <si>
     <t xml:space="preserve">44.4846839904785</t>
@@ -3731,64 +3731,64 @@
     <t xml:space="preserve">44.8927192687988</t>
   </si>
   <si>
-    <t xml:space="preserve">44.9761772155762</t>
+    <t xml:space="preserve">44.9761810302734</t>
   </si>
   <si>
     <t xml:space="preserve">44.6701545715332</t>
   </si>
   <si>
-    <t xml:space="preserve">44.5866966247559</t>
+    <t xml:space="preserve">44.5866928100586</t>
   </si>
   <si>
     <t xml:space="preserve">44.1044769287109</t>
   </si>
   <si>
-    <t xml:space="preserve">44.7443466186523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.7628898620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.9112701416016</t>
+    <t xml:space="preserve">44.7443428039551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.7628936767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.9112663269043</t>
   </si>
   <si>
     <t xml:space="preserve">44.9019927978516</t>
   </si>
   <si>
-    <t xml:space="preserve">44.6979751586914</t>
+    <t xml:space="preserve">44.6979789733887</t>
   </si>
   <si>
     <t xml:space="preserve">45.1987419128418</t>
   </si>
   <si>
-    <t xml:space="preserve">45.1338233947754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.1152801513672</t>
+    <t xml:space="preserve">45.1338195800781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.1152839660645</t>
   </si>
   <si>
     <t xml:space="preserve">46.4599304199219</t>
   </si>
   <si>
-    <t xml:space="preserve">47.980770111084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.5526695251465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.7782897949219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.0178642272949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.6283798217773</t>
+    <t xml:space="preserve">47.9807739257812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.5526657104492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.7782859802246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.0178680419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.6283874511719</t>
   </si>
   <si>
     <t xml:space="preserve">46.8494148254395</t>
   </si>
   <si>
-    <t xml:space="preserve">46.8679618835449</t>
+    <t xml:space="preserve">46.8679580688477</t>
   </si>
   <si>
     <t xml:space="preserve">46.3301010131836</t>
@@ -3803,76 +3803,76 @@
     <t xml:space="preserve">47.0534286499023</t>
   </si>
   <si>
-    <t xml:space="preserve">47.5171012878418</t>
+    <t xml:space="preserve">47.5171051025391</t>
   </si>
   <si>
     <t xml:space="preserve">47.0163383483887</t>
   </si>
   <si>
-    <t xml:space="preserve">47.2945365905762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.2218818664551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.7396659851074</t>
+    <t xml:space="preserve">47.2945404052734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.2218856811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.7396621704102</t>
   </si>
   <si>
     <t xml:space="preserve">48.3888092041016</t>
   </si>
   <si>
-    <t xml:space="preserve">48.8339347839355</t>
+    <t xml:space="preserve">48.8339309692383</t>
   </si>
   <si>
     <t xml:space="preserve">49.427433013916</t>
   </si>
   <si>
-    <t xml:space="preserve">49.9838447570801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.8911018371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.9482727050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.9111862182617</t>
+    <t xml:space="preserve">49.9838333129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.8911056518555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.9482765197754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.9111824035645</t>
   </si>
   <si>
     <t xml:space="preserve">52.0981826782227</t>
   </si>
   <si>
-    <t xml:space="preserve">52.3392868041992</t>
+    <t xml:space="preserve">52.339282989502</t>
   </si>
   <si>
     <t xml:space="preserve">52.7102279663086</t>
   </si>
   <si>
-    <t xml:space="preserve">53.0069770812988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.4320220947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.7287750244141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.9142456054688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.2666358947754</t>
+    <t xml:space="preserve">53.0069808959961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.4320259094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.7287788391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.9142417907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.2666320800781</t>
   </si>
   <si>
     <t xml:space="preserve">52.5989456176758</t>
   </si>
   <si>
-    <t xml:space="preserve">51.8941650390625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.467586517334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0610847473145</t>
+    <t xml:space="preserve">51.8941612243652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.4675903320312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.0610885620117</t>
   </si>
   <si>
     <t xml:space="preserve">51.8014335632324</t>
@@ -3881,16 +3881,16 @@
     <t xml:space="preserve">51.5232315063477</t>
   </si>
   <si>
-    <t xml:space="preserve">51.6530570983887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.4304885864258</t>
+    <t xml:space="preserve">51.6530532836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.4304962158203</t>
   </si>
   <si>
     <t xml:space="preserve">51.8570709228516</t>
   </si>
   <si>
-    <t xml:space="preserve">50.6886138916016</t>
+    <t xml:space="preserve">50.6886177062988</t>
   </si>
   <si>
     <t xml:space="preserve">49.9467430114746</t>
@@ -3899,10 +3899,10 @@
     <t xml:space="preserve">49.0564956665039</t>
   </si>
   <si>
-    <t xml:space="preserve">48.7411994934082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.6670112609863</t>
+    <t xml:space="preserve">48.7411956787109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.6670074462891</t>
   </si>
   <si>
     <t xml:space="preserve">47.3872718811035</t>
@@ -3911,13 +3911,13 @@
     <t xml:space="preserve">48.0920562744141</t>
   </si>
   <si>
-    <t xml:space="preserve">46.9235992431641</t>
+    <t xml:space="preserve">46.9235954284668</t>
   </si>
   <si>
     <t xml:space="preserve">46.3857421875</t>
   </si>
   <si>
-    <t xml:space="preserve">47.3501815795898</t>
+    <t xml:space="preserve">47.3501739501953</t>
   </si>
   <si>
     <t xml:space="preserve">46.9050559997559</t>
@@ -3926,43 +3926,43 @@
     <t xml:space="preserve">47.4614601135254</t>
   </si>
   <si>
-    <t xml:space="preserve">47.1647148132324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.3656616210938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4305763244629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.6268539428711</t>
+    <t xml:space="preserve">47.1647109985352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.365665435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4305801391602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.6268463134766</t>
   </si>
   <si>
     <t xml:space="preserve">45.7829666137695</t>
   </si>
   <si>
-    <t xml:space="preserve">45.3563919067383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.6160469055176</t>
+    <t xml:space="preserve">45.356388092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.6160430908203</t>
   </si>
   <si>
     <t xml:space="preserve">45.4120330810547</t>
   </si>
   <si>
-    <t xml:space="preserve">45.3378410339355</t>
+    <t xml:space="preserve">45.3378486633301</t>
   </si>
   <si>
     <t xml:space="preserve">45.8200645446777</t>
   </si>
   <si>
-    <t xml:space="preserve">45.9591636657715</t>
+    <t xml:space="preserve">45.9591674804688</t>
   </si>
   <si>
     <t xml:space="preserve">47.1461639404297</t>
   </si>
   <si>
-    <t xml:space="preserve">47.4243659973145</t>
+    <t xml:space="preserve">47.4243698120117</t>
   </si>
   <si>
     <t xml:space="preserve">47.3687286376953</t>
@@ -3977,49 +3977,49 @@
     <t xml:space="preserve">48.258975982666</t>
   </si>
   <si>
-    <t xml:space="preserve">48.889575958252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.6113700866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.0193939208984</t>
+    <t xml:space="preserve">48.8895721435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.6113662719727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.0193977355957</t>
   </si>
   <si>
     <t xml:space="preserve">50.1878509521484</t>
   </si>
   <si>
-    <t xml:space="preserve">51.0781097412109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.2280082702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.3949279785156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.2465591430664</t>
+    <t xml:space="preserve">51.0781021118164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.2280044555664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.3949317932129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.2465553283691</t>
   </si>
   <si>
     <t xml:space="preserve">51.9312591552734</t>
   </si>
   <si>
-    <t xml:space="preserve">52.1352806091309</t>
+    <t xml:space="preserve">52.1352767944336</t>
   </si>
   <si>
     <t xml:space="preserve">52.3578338623047</t>
   </si>
   <si>
-    <t xml:space="preserve">53.0255279541016</t>
+    <t xml:space="preserve">53.0255241394043</t>
   </si>
   <si>
     <t xml:space="preserve">52.5804023742676</t>
   </si>
   <si>
-    <t xml:space="preserve">52.0239944458008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.0410118103027</t>
+    <t xml:space="preserve">52.0239868164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.0410079956055</t>
   </si>
   <si>
     <t xml:space="preserve">52.4134788513184</t>
@@ -4031,13 +4031,13 @@
     <t xml:space="preserve">51.8611679077148</t>
   </si>
   <si>
-    <t xml:space="preserve">52.029670715332</t>
+    <t xml:space="preserve">52.0296669006348</t>
   </si>
   <si>
     <t xml:space="preserve">52.4228401184082</t>
   </si>
   <si>
-    <t xml:space="preserve">51.2620544433594</t>
+    <t xml:space="preserve">51.2620468139648</t>
   </si>
   <si>
     <t xml:space="preserve">51.4492683410645</t>
@@ -4046,25 +4046,25 @@
     <t xml:space="preserve">51.898609161377</t>
   </si>
   <si>
-    <t xml:space="preserve">51.505443572998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.2884864807129</t>
+    <t xml:space="preserve">51.5054397583008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.2884826660156</t>
   </si>
   <si>
     <t xml:space="preserve">50.0263633728027</t>
   </si>
   <si>
-    <t xml:space="preserve">50.3820915222168</t>
+    <t xml:space="preserve">50.3820991516113</t>
   </si>
   <si>
     <t xml:space="preserve">51.7301063537598</t>
   </si>
   <si>
-    <t xml:space="preserve">50.4944305419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.475700378418</t>
+    <t xml:space="preserve">50.4944267272949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.4757041931152</t>
   </si>
   <si>
     <t xml:space="preserve">50.1387023925781</t>
@@ -4076,7 +4076,7 @@
     <t xml:space="preserve">50.0450897216797</t>
   </si>
   <si>
-    <t xml:space="preserve">51.3556594848633</t>
+    <t xml:space="preserve">51.3556632995605</t>
   </si>
   <si>
     <t xml:space="preserve">51.6552238464355</t>
@@ -4088,16 +4088,16 @@
     <t xml:space="preserve">52.0109481811523</t>
   </si>
   <si>
-    <t xml:space="preserve">52.9096298217773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.198169708252</t>
+    <t xml:space="preserve">52.9096260070801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.1981658935547</t>
   </si>
   <si>
     <t xml:space="preserve">52.3666725158691</t>
   </si>
   <si>
-    <t xml:space="preserve">52.7598457336426</t>
+    <t xml:space="preserve">52.7598495483398</t>
   </si>
   <si>
     <t xml:space="preserve">52.9283447265625</t>
@@ -4106,28 +4106,28 @@
     <t xml:space="preserve">52.8909034729004</t>
   </si>
   <si>
-    <t xml:space="preserve">51.9922294616699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.1309928894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.1684417724609</t>
+    <t xml:space="preserve">51.9922256469727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.130989074707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.1684379577637</t>
   </si>
   <si>
     <t xml:space="preserve">50.8875999450684</t>
   </si>
   <si>
-    <t xml:space="preserve">50.62548828125</t>
+    <t xml:space="preserve">50.6254920959473</t>
   </si>
   <si>
     <t xml:space="preserve">50.9999351501465</t>
   </si>
   <si>
-    <t xml:space="preserve">51.4118270874023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.1574249267578</t>
+    <t xml:space="preserve">51.4118232727051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.1574287414551</t>
   </si>
   <si>
     <t xml:space="preserve">48.8843002319336</t>
@@ -4136,40 +4136,40 @@
     <t xml:space="preserve">47.9294548034668</t>
   </si>
   <si>
-    <t xml:space="preserve">48.6783485412598</t>
+    <t xml:space="preserve">48.678352355957</t>
   </si>
   <si>
     <t xml:space="preserve">48.2102928161621</t>
   </si>
   <si>
-    <t xml:space="preserve">47.2928924560547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.7593040466309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.3193206787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.3474006652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.3754920959473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.5814361572266</t>
+    <t xml:space="preserve">47.2928886413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.7593002319336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.3193244934082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.3474044799805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.37548828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.5814323425293</t>
   </si>
   <si>
     <t xml:space="preserve">46.7686614990234</t>
   </si>
   <si>
-    <t xml:space="preserve">45.4393692016602</t>
+    <t xml:space="preserve">45.4393730163574</t>
   </si>
   <si>
     <t xml:space="preserve">44.325382232666</t>
   </si>
   <si>
-    <t xml:space="preserve">43.9134941101074</t>
+    <t xml:space="preserve">43.9134902954102</t>
   </si>
   <si>
     <t xml:space="preserve">43.1458740234375</t>
@@ -4181,46 +4181,46 @@
     <t xml:space="preserve">42.8743934631348</t>
   </si>
   <si>
-    <t xml:space="preserve">42.4999465942383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.919548034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8275833129883</t>
+    <t xml:space="preserve">42.499942779541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9195442199707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8275871276855</t>
   </si>
   <si>
     <t xml:space="preserve">42.6029205322266</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8837585449219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2488403320312</t>
+    <t xml:space="preserve">42.8837623596191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.2488441467285</t>
   </si>
   <si>
     <t xml:space="preserve">43.1645889282227</t>
   </si>
   <si>
-    <t xml:space="preserve">43.3330993652344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1552276611328</t>
+    <t xml:space="preserve">43.3330955505371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1552314758301</t>
   </si>
   <si>
     <t xml:space="preserve">40.5808944702148</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7978515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9647064208984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.7290191650391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4123954772949</t>
+    <t xml:space="preserve">41.7978553771973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9647026062012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.7290267944336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4123916625977</t>
   </si>
   <si>
     <t xml:space="preserve">40.0941123962402</t>
@@ -4232,19 +4232,19 @@
     <t xml:space="preserve">39.1767120361328</t>
   </si>
   <si>
-    <t xml:space="preserve">37.7725296020508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4140434265137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2719764709473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7493934631348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9382743835449</t>
+    <t xml:space="preserve">37.7725257873535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4140472412109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.27197265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.749397277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9382705688477</t>
   </si>
   <si>
     <t xml:space="preserve">41.3672332763672</t>
@@ -4253,25 +4253,25 @@
     <t xml:space="preserve">42.5280265808105</t>
   </si>
   <si>
-    <t xml:space="preserve">42.7433395385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.7339744567871</t>
+    <t xml:space="preserve">42.743335723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.7339782714844</t>
   </si>
   <si>
     <t xml:space="preserve">42.7995071411133</t>
   </si>
   <si>
-    <t xml:space="preserve">43.2113914489746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.9399223327637</t>
+    <t xml:space="preserve">43.2113952636719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.9399185180664</t>
   </si>
   <si>
     <t xml:space="preserve">42.518669128418</t>
   </si>
   <si>
-    <t xml:space="preserve">42.1348533630371</t>
+    <t xml:space="preserve">42.1348571777344</t>
   </si>
   <si>
     <t xml:space="preserve">43.9696617126465</t>
@@ -4280,16 +4280,16 @@
     <t xml:space="preserve">43.8854064941406</t>
   </si>
   <si>
-    <t xml:space="preserve">42.7246131896973</t>
+    <t xml:space="preserve">42.7246170043945</t>
   </si>
   <si>
     <t xml:space="preserve">44.2130470275879</t>
   </si>
   <si>
-    <t xml:space="preserve">45.7576560974121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.7279205322266</t>
+    <t xml:space="preserve">45.7576522827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.7279167175293</t>
   </si>
   <si>
     <t xml:space="preserve">45.9823188781738</t>
@@ -4298,28 +4298,28 @@
     <t xml:space="preserve">46.0665702819824</t>
   </si>
   <si>
-    <t xml:space="preserve">45.5142593383789</t>
+    <t xml:space="preserve">45.5142555236816</t>
   </si>
   <si>
     <t xml:space="preserve">44.6343040466309</t>
   </si>
   <si>
-    <t xml:space="preserve">45.0368347167969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.1117286682129</t>
+    <t xml:space="preserve">45.0368385314941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.1117248535156</t>
   </si>
   <si>
     <t xml:space="preserve">45.0649185180664</t>
   </si>
   <si>
-    <t xml:space="preserve">45.5891494750977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.821533203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3050079345703</t>
+    <t xml:space="preserve">45.5891532897949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.8215293884277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3050117492676</t>
   </si>
   <si>
     <t xml:space="preserve">42.7526969909668</t>
@@ -4334,10 +4334,10 @@
     <t xml:space="preserve">43.0522537231445</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6293525695801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6183433532715</t>
+    <t xml:space="preserve">41.6293487548828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6183395385742</t>
   </si>
   <si>
     <t xml:space="preserve">40.1034698486328</t>
@@ -4346,7 +4346,7 @@
     <t xml:space="preserve">39.4201049804688</t>
   </si>
   <si>
-    <t xml:space="preserve">38.7929000854492</t>
+    <t xml:space="preserve">38.792896270752</t>
   </si>
   <si>
     <t xml:space="preserve">39.7009429931641</t>
@@ -4379,22 +4379,22 @@
     <t xml:space="preserve">40.1639633178711</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3764305114746</t>
+    <t xml:space="preserve">39.3764343261719</t>
   </si>
   <si>
     <t xml:space="preserve">39.2625732421875</t>
   </si>
   <si>
-    <t xml:space="preserve">39.6705665588379</t>
+    <t xml:space="preserve">39.6705703735352</t>
   </si>
   <si>
     <t xml:space="preserve">39.9362449645996</t>
   </si>
   <si>
-    <t xml:space="preserve">40.6004219055176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.5472259521484</t>
+    <t xml:space="preserve">40.6004257202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.5472221374512</t>
   </si>
   <si>
     <t xml:space="preserve">38.6742973327637</t>
@@ -4403,19 +4403,19 @@
     <t xml:space="preserve">38.6363487243652</t>
   </si>
   <si>
-    <t xml:space="preserve">37.5167236328125</t>
+    <t xml:space="preserve">37.5167274475098</t>
   </si>
   <si>
     <t xml:space="preserve">37.8013725280762</t>
   </si>
   <si>
-    <t xml:space="preserve">37.2320823669434</t>
+    <t xml:space="preserve">37.2320785522461</t>
   </si>
   <si>
     <t xml:space="preserve">37.4408187866211</t>
   </si>
   <si>
-    <t xml:space="preserve">36.7576637268066</t>
+    <t xml:space="preserve">36.7576599121094</t>
   </si>
   <si>
     <t xml:space="preserve">35.1351623535156</t>
@@ -4424,28 +4424,28 @@
     <t xml:space="preserve">35.647533416748</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6570205688477</t>
+    <t xml:space="preserve">35.6570243835449</t>
   </si>
   <si>
     <t xml:space="preserve">35.8847389221191</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7898559570312</t>
+    <t xml:space="preserve">35.7898597717285</t>
   </si>
   <si>
     <t xml:space="preserve">37.0233345031738</t>
   </si>
   <si>
-    <t xml:space="preserve">37.4218406677246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1504096984863</t>
+    <t xml:space="preserve">37.4218444824219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1504058837891</t>
   </si>
   <si>
     <t xml:space="preserve">35.5905990600586</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8999862670898</t>
+    <t xml:space="preserve">36.8999900817871</t>
   </si>
   <si>
     <t xml:space="preserve">39.7180137634277</t>
@@ -4460,22 +4460,22 @@
     <t xml:space="preserve">39.3479690551758</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3859176635742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8376312255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8186569213867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7142791748047</t>
+    <t xml:space="preserve">39.3859214782715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8376274108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8186531066895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.714282989502</t>
   </si>
   <si>
     <t xml:space="preserve">41.0273971557617</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2835807800293</t>
+    <t xml:space="preserve">41.283576965332</t>
   </si>
   <si>
     <t xml:space="preserve">41.2930679321289</t>
@@ -4487,7 +4487,7 @@
     <t xml:space="preserve">40.9799537658691</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7996788024902</t>
+    <t xml:space="preserve">40.799674987793</t>
   </si>
   <si>
     <t xml:space="preserve">40.0026626586914</t>
@@ -4514,7 +4514,7 @@
     <t xml:space="preserve">40.2967987060547</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0311241149902</t>
+    <t xml:space="preserve">40.031120300293</t>
   </si>
   <si>
     <t xml:space="preserve">39.5661964416504</t>
@@ -4571,7 +4571,7 @@
     <t xml:space="preserve">41.9857139587402</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3499984741211</t>
+    <t xml:space="preserve">41.3500022888184</t>
   </si>
   <si>
     <t xml:space="preserve">39.9647064208984</t>
@@ -4580,10 +4580,10 @@
     <t xml:space="preserve">38.9779281616211</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4465751647949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6553230285645</t>
+    <t xml:space="preserve">38.4465789794922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6553192138672</t>
   </si>
   <si>
     <t xml:space="preserve">38.6078834533691</t>
@@ -4601,7 +4601,7 @@
     <t xml:space="preserve">38.4181213378906</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8925285339355</t>
+    <t xml:space="preserve">38.8925323486328</t>
   </si>
   <si>
     <t xml:space="preserve">38.550952911377</t>
@@ -4610,7 +4610,7 @@
     <t xml:space="preserve">39.0253677368164</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4560623168945</t>
+    <t xml:space="preserve">38.4560661315918</t>
   </si>
   <si>
     <t xml:space="preserve">38.0480690002441</t>
@@ -4619,7 +4619,7 @@
     <t xml:space="preserve">38.1049995422363</t>
   </si>
   <si>
-    <t xml:space="preserve">37.725471496582</t>
+    <t xml:space="preserve">37.7254676818848</t>
   </si>
   <si>
     <t xml:space="preserve">37.5546798706055</t>
@@ -4631,22 +4631,22 @@
     <t xml:space="preserve">36.956916809082</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2015800476074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5848426818848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3913497924805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8600044250488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7613906860352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4919853210449</t>
+    <t xml:space="preserve">35.2015762329102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5848388671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3913459777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.8600082397461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7613868713379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.4919891357422</t>
   </si>
   <si>
     <t xml:space="preserve">34.2527542114258</t>
@@ -4655,16 +4655,16 @@
     <t xml:space="preserve">33.4936866760254</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5506210327148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9965744018555</t>
+    <t xml:space="preserve">33.5506172180176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9965705871582</t>
   </si>
   <si>
     <t xml:space="preserve">33.7119178771973</t>
   </si>
   <si>
-    <t xml:space="preserve">33.626522064209</t>
+    <t xml:space="preserve">33.6265258789062</t>
   </si>
   <si>
     <t xml:space="preserve">34.6987037658691</t>
@@ -4685,13 +4685,13 @@
     <t xml:space="preserve">33.6360130310059</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7935829162598</t>
+    <t xml:space="preserve">34.7935791015625</t>
   </si>
   <si>
     <t xml:space="preserve">35.9891090393066</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0555305480957</t>
+    <t xml:space="preserve">36.0555267333984</t>
   </si>
   <si>
     <t xml:space="preserve">35.770881652832</t>
@@ -4700,13 +4700,13 @@
     <t xml:space="preserve">36.4065933227539</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0839920043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1314392089844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5014801025391</t>
+    <t xml:space="preserve">36.0839958190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1314353942871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5014762878418</t>
   </si>
   <si>
     <t xml:space="preserve">35.9226913452148</t>
@@ -4715,7 +4715,7 @@
     <t xml:space="preserve">36.5109672546387</t>
   </si>
   <si>
-    <t xml:space="preserve">35.9321746826172</t>
+    <t xml:space="preserve">35.9321784973145</t>
   </si>
   <si>
     <t xml:space="preserve">36.4825019836426</t>
@@ -4724,7 +4724,7 @@
     <t xml:space="preserve">38.5035095214844</t>
   </si>
   <si>
-    <t xml:space="preserve">39.4048957824707</t>
+    <t xml:space="preserve">39.4048919677734</t>
   </si>
   <si>
     <t xml:space="preserve">38.6648063659668</t>
@@ -4733,10 +4733,10 @@
     <t xml:space="preserve">38.2188568115234</t>
   </si>
   <si>
-    <t xml:space="preserve">37.7918853759766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.3079795837402</t>
+    <t xml:space="preserve">37.7918891906738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.3079833984375</t>
   </si>
   <si>
     <t xml:space="preserve">37.1941261291504</t>
@@ -64171,7 +64171,7 @@
     </row>
     <row r="2228">
       <c r="A2228" s="1" t="n">
-        <v>45566.6495833333</v>
+        <v>45566.2916666667</v>
       </c>
       <c r="B2228" t="n">
         <v>242682</v>
@@ -64192,6 +64192,32 @@
         <v>1935</v>
       </c>
       <c r="H2228" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2229">
+      <c r="A2229" s="1" t="n">
+        <v>45567.6493171296</v>
+      </c>
+      <c r="B2229" t="n">
+        <v>267441</v>
+      </c>
+      <c r="C2229" t="n">
+        <v>51.0999984741211</v>
+      </c>
+      <c r="D2229" t="n">
+        <v>49.6199989318848</v>
+      </c>
+      <c r="E2229" t="n">
+        <v>50.9500007629395</v>
+      </c>
+      <c r="F2229" t="n">
+        <v>49.939998626709</v>
+      </c>
+      <c r="G2229" t="s">
+        <v>1968</v>
+      </c>
+      <c r="H2229" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/REC.MI.xlsx
+++ b/data/REC.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="1976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="1977">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,34 +44,34 @@
     <t xml:space="preserve">REC.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">19.6574802398682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3267593383789</t>
+    <t xml:space="preserve">19.6574745178223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3267631530762</t>
   </si>
   <si>
     <t xml:space="preserve">18.9637775421143</t>
   </si>
   <si>
-    <t xml:space="preserve">18.8105163574219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6572570800781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6975936889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1087551116943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2297515869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6086502075195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.544116973877</t>
+    <t xml:space="preserve">18.8105182647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6572589874268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6975975036621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1087532043457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2297477722168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6086463928223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5441150665283</t>
   </si>
   <si>
     <t xml:space="preserve">17.5279846191406</t>
@@ -80,76 +80,76 @@
     <t xml:space="preserve">18.2942810058594</t>
   </si>
   <si>
-    <t xml:space="preserve">18.5282039642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4959335327148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.8266506195068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0280933380127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3910732269287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.754056930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1329536437988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8990325927734</t>
+    <t xml:space="preserve">18.5281982421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4959373474121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8266525268555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0280914306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3910713195801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7540550231934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1329479217529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8990287780762</t>
   </si>
   <si>
     <t xml:space="preserve">17.2779293060303</t>
   </si>
   <si>
-    <t xml:space="preserve">16.1325187683105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.6727447509766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.793740272522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.3825740814209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5196990966797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1327362060547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8183746337891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.681245803833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0119609832764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4233417510986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.4475383758545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.7217864990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0601425170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.0036735534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5199184417725</t>
+    <t xml:space="preserve">16.1325149536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6727437973022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7937383651733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3825778961182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5197067260742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.132740020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8183689117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6812400817871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0119590759277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4233379364014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4475345611572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7217884063721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0601367950439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0036754608154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5199165344238</t>
   </si>
   <si>
     <t xml:space="preserve">17.6893100738525</t>
@@ -158,25 +158,25 @@
     <t xml:space="preserve">17.9151630401611</t>
   </si>
   <si>
-    <t xml:space="preserve">18.0684242248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6731758117676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4392528533936</t>
+    <t xml:space="preserve">18.0684204101562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6731739044189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4392547607422</t>
   </si>
   <si>
     <t xml:space="preserve">17.3666610717773</t>
   </si>
   <si>
-    <t xml:space="preserve">17.1811351776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5037879943848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.1650009155273</t>
+    <t xml:space="preserve">17.181131362915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5037860870361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1650047302246</t>
   </si>
   <si>
     <t xml:space="preserve">17.4473209381104</t>
@@ -185,121 +185,121 @@
     <t xml:space="preserve">17.5521812438965</t>
   </si>
   <si>
-    <t xml:space="preserve">17.6409111022949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5763854980469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3585929870605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4069900512695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.5118522644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.3182601928711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.6247806549072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7457752227783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7538414001465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.8748321533203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.7861080169678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1490917205811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2136173248291</t>
+    <t xml:space="preserve">17.6409091949463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5763816833496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3585910797119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4069919586182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5118503570557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.3182582855225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.62477684021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7457714080811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7538394927979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8748359680176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7861042022705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1490821838379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2136192321777</t>
   </si>
   <si>
     <t xml:space="preserve">18.1248874664307</t>
   </si>
   <si>
-    <t xml:space="preserve">18.1006908416748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1168193817139</t>
+    <t xml:space="preserve">18.1006927490234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1168270111084</t>
   </si>
   <si>
     <t xml:space="preserve">18.0442276000977</t>
   </si>
   <si>
+    <t xml:space="preserve">18.0764904022217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4444007873535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.370813369751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.199125289917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2808837890625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0437870025635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1091918945312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1745986938477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3544635772705</t>
+  </si>
+  <si>
     <t xml:space="preserve">18.0764923095703</t>
   </si>
   <si>
-    <t xml:space="preserve">18.4443988800049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3708171844482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1991233825684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2808818817139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0437889099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1091918945312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1746006011963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.3544673919678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.076488494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.1418952941895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.0928401947021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.2727088928223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.5752086639404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.6651420593262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3846035003662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.687105178833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.6216983795166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.4418315887451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7688636779785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7443332672119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.7933864593506</t>
+    <t xml:space="preserve">18.1418933868408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0928421020508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2727069854736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5752067565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6651439666748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3846015930176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6871032714844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.621696472168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.441837310791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7688598632812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7443313598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7933902740479</t>
   </si>
   <si>
     <t xml:space="preserve">19.9487266540527</t>
@@ -308,163 +308,163 @@
     <t xml:space="preserve">20.0059585571289</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8562297821045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0033912658691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1996097564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1014995574951</t>
+    <t xml:space="preserve">20.8562316894531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0033988952637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1996078491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1015033721924</t>
   </si>
   <si>
     <t xml:space="preserve">21.248664855957</t>
   </si>
   <si>
-    <t xml:space="preserve">21.5511646270752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6901531219482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6983261108398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0580558776855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2297496795654</t>
+    <t xml:space="preserve">21.5511684417725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.690149307251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6983299255371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0580615997314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2297439575195</t>
   </si>
   <si>
     <t xml:space="preserve">21.8700180053711</t>
   </si>
   <si>
-    <t xml:space="preserve">21.7964363098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3115081787109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2706298828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.951774597168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2568378448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.20778465271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.412181854248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.1423854827881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7335968017578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.4285278320312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7065010070801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6083927154541</t>
+    <t xml:space="preserve">21.7964382171631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3115100860596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2706279754639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9517726898193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2568416595459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2077884674072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4121799468994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1423816680908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7335948944092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.4285259246826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7065048217773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6083984375</t>
   </si>
   <si>
     <t xml:space="preserve">21.9436016082764</t>
   </si>
   <si>
-    <t xml:space="preserve">20.8071842193604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.6656303405762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9599514007568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0744094848633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0989379882812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0907592773438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9926528930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.853666305542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1888694763184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9165058135986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.1372547149658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9982643127441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7529945373535</t>
+    <t xml:space="preserve">20.8071765899658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.6656284332275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9599475860596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0744132995605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0989398956299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0907649993896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9926509857178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8536720275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.188871383667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9165096282959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.1372528076172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9982662200928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7529926300049</t>
   </si>
   <si>
     <t xml:space="preserve">22.5567798614502</t>
   </si>
   <si>
-    <t xml:space="preserve">22.7448234558105</t>
+    <t xml:space="preserve">22.7448139190674</t>
   </si>
   <si>
     <t xml:space="preserve">22.6303596496582</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0636730194092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.5133399963379</t>
+    <t xml:space="preserve">23.0636711120605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.5133380889893</t>
   </si>
   <si>
     <t xml:space="preserve">23.4806327819824</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5215129852295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2271862030029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6850261688232</t>
+    <t xml:space="preserve">23.5215110778809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2271842956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6850299835205</t>
   </si>
   <si>
     <t xml:space="preserve">23.6605014801025</t>
   </si>
   <si>
-    <t xml:space="preserve">23.5296878814697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.7177276611328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0038776397705</t>
+    <t xml:space="preserve">23.5296840667725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.7177295684814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0038795471191</t>
   </si>
   <si>
     <t xml:space="preserve">23.5869159698486</t>
   </si>
   <si>
-    <t xml:space="preserve">22.9655647277832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3498210906982</t>
+    <t xml:space="preserve">22.9655609130859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3498229980469</t>
   </si>
   <si>
     <t xml:space="preserve">23.0881996154785</t>
@@ -473,25 +473,25 @@
     <t xml:space="preserve">23.0227947235107</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2598934173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2190074920654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3743495941162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7366409301758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.7284698486328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2951564788818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4341430664062</t>
+    <t xml:space="preserve">23.2598896026611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2190113067627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3743438720703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7366428375244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.7284660339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2951602935791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4341411590576</t>
   </si>
   <si>
     <t xml:space="preserve">22.1479930877686</t>
@@ -500,157 +500,157 @@
     <t xml:space="preserve">22.3033313751221</t>
   </si>
   <si>
-    <t xml:space="preserve">22.425968170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.524076461792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.017183303833</t>
+    <t xml:space="preserve">22.4259700775146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5240726470947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0171794891357</t>
   </si>
   <si>
     <t xml:space="preserve">22.0417041778564</t>
   </si>
   <si>
-    <t xml:space="preserve">22.3605632781982</t>
+    <t xml:space="preserve">22.3605613708496</t>
   </si>
   <si>
     <t xml:space="preserve">22.1725196838379</t>
   </si>
   <si>
-    <t xml:space="preserve">21.9272518157959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1970443725586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0825862884521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.8020496368408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5158977508545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8863735198975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.804615020752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7473831176758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2133979797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3687381744385</t>
+    <t xml:space="preserve">21.9272499084473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1970462799072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0825843811035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.8020458221436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5159034729004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8863677978516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8046169281006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7473812103271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2133960723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3687400817871</t>
   </si>
   <si>
     <t xml:space="preserve">21.9844779968262</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2052268981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2215766906738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4423179626465</t>
+    <t xml:space="preserve">22.2052249908447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2215728759766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4423198699951</t>
   </si>
   <si>
     <t xml:space="preserve">22.4831962585449</t>
   </si>
   <si>
-    <t xml:space="preserve">23.2435359954834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4561061859131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.3907032012939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2762413024902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2026634216309</t>
+    <t xml:space="preserve">23.243537902832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4561023712158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3907051086426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.276237487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2026557922363</t>
   </si>
   <si>
     <t xml:space="preserve">23.1536064147949</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0309715270996</t>
+    <t xml:space="preserve">23.030969619751</t>
   </si>
   <si>
     <t xml:space="preserve">22.9246864318848</t>
   </si>
   <si>
-    <t xml:space="preserve">23.1127300262451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3360366821289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.5077266693115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0335350036621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.164342880249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0662364959717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9108982086182</t>
+    <t xml:space="preserve">23.1127281188965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3360404968262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5077247619629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0335330963135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1643447875977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.066234588623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9108943939209</t>
   </si>
   <si>
     <t xml:space="preserve">21.8945484161377</t>
   </si>
   <si>
-    <t xml:space="preserve">21.0769729614258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.6191349029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9298152923584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0279235839844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5700798034668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.0851535797119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0008296966553</t>
+    <t xml:space="preserve">21.076976776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6191368103027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9298133850098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0279216766357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5700817108154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0851497650146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0008239746094</t>
   </si>
   <si>
     <t xml:space="preserve">21.2977180480957</t>
   </si>
   <si>
-    <t xml:space="preserve">21.3385944366455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.9052810668945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.7826519012451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.036096572876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.986364364624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.4641933441162</t>
+    <t xml:space="preserve">21.3385963439941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9052829742432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.7826499938965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0360927581787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9863624572754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.4641952514648</t>
   </si>
   <si>
     <t xml:space="preserve">20.7791538238525</t>
@@ -659,31 +659,31 @@
     <t xml:space="preserve">21.0278072357178</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1023998260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.8537483215332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.135555267334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2930374145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.5636539459229</t>
+    <t xml:space="preserve">21.1023979187012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.8537502288818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.1355590820312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2930431365967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.5636558532715</t>
   </si>
   <si>
     <t xml:space="preserve">20.895191192627</t>
   </si>
   <si>
-    <t xml:space="preserve">21.1189765930176</t>
+    <t xml:space="preserve">21.1189823150635</t>
   </si>
   <si>
     <t xml:space="preserve">21.3427715301514</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2847537994385</t>
+    <t xml:space="preserve">21.2847518920898</t>
   </si>
   <si>
     <t xml:space="preserve">21.1604232788086</t>
@@ -692,70 +692,70 @@
     <t xml:space="preserve">21.5499801635742</t>
   </si>
   <si>
-    <t xml:space="preserve">21.2516002655029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5251159667969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.2018623352051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9146728515625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1716156005859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.337381362915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1053085327148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.9063816070557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.7240390777588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3208084106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4285564422607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.1633262634277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3125152587891</t>
+    <t xml:space="preserve">21.2515964508057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.5251121520996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.2018642425537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9146709442139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1716136932373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3373851776123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1053104400635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.9063854217529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7240352630615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3208045959473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4285526275635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.1633319854736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3125190734863</t>
   </si>
   <si>
     <t xml:space="preserve">22.6357650756836</t>
   </si>
   <si>
-    <t xml:space="preserve">22.5611686706543</t>
+    <t xml:space="preserve">22.5611743927002</t>
   </si>
   <si>
     <t xml:space="preserve">22.6772117614746</t>
   </si>
   <si>
-    <t xml:space="preserve">23.0419025421143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0253257751465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.536304473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.0667667388916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.6191902160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.9507312774658</t>
+    <t xml:space="preserve">23.0419006347656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0253238677979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.5363006591797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.0667686462402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.6191940307617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.9507293701172</t>
   </si>
   <si>
     <t xml:space="preserve">22.793249130249</t>
@@ -764,7 +764,7 @@
     <t xml:space="preserve">22.8264045715332</t>
   </si>
   <si>
-    <t xml:space="preserve">22.6026153564453</t>
+    <t xml:space="preserve">22.6026172637939</t>
   </si>
   <si>
     <t xml:space="preserve">22.6109046936035</t>
@@ -773,79 +773,79 @@
     <t xml:space="preserve">22.5777473449707</t>
   </si>
   <si>
-    <t xml:space="preserve">22.2793636322021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4617080688477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.4368438720703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.806921005249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.8898086547852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.0638675689697</t>
+    <t xml:space="preserve">22.279369354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4617118835449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.4368476867676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8069171905518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.8898067474365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0638637542725</t>
   </si>
   <si>
     <t xml:space="preserve">22.2544994354248</t>
   </si>
   <si>
-    <t xml:space="preserve">21.8732299804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.2710742950439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3788242340088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.2822704315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.398307800293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4563255310059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.6884002685547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.4231719970703</t>
+    <t xml:space="preserve">21.8732280731201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.2710800170898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3788223266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.2822666168213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.3983039855957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.4563236236572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.6884021759033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.423168182373</t>
   </si>
   <si>
     <t xml:space="preserve">23.9287662506104</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0282287597656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4509410858154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4177875518799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.343189239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7824745178223</t>
+    <t xml:space="preserve">24.028226852417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4509391784668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.417781829834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3431911468506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7824764251709</t>
   </si>
   <si>
     <t xml:space="preserve">24.8404941558838</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7741870880127</t>
+    <t xml:space="preserve">24.7741889953613</t>
   </si>
   <si>
     <t xml:space="preserve">25.0891513824463</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1554565429688</t>
+    <t xml:space="preserve">25.1554584503174</t>
   </si>
   <si>
     <t xml:space="preserve">25.0062656402588</t>
@@ -854,28 +854,28 @@
     <t xml:space="preserve">25.1057300567627</t>
   </si>
   <si>
-    <t xml:space="preserve">25.2714977264404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5532970428467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.5450172424316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8019561767578</t>
+    <t xml:space="preserve">25.2714958190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5533027648926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.5450134277344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8019580841064</t>
   </si>
   <si>
     <t xml:space="preserve">25.9262847900391</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2080917358398</t>
+    <t xml:space="preserve">26.2080936431885</t>
   </si>
   <si>
     <t xml:space="preserve">26.4070148468018</t>
   </si>
   <si>
-    <t xml:space="preserve">26.44016456604</t>
+    <t xml:space="preserve">26.4401664733887</t>
   </si>
   <si>
     <t xml:space="preserve">25.959436416626</t>
@@ -884,43 +884,43 @@
     <t xml:space="preserve">25.8765563964844</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1252059936523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2992610931396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2412433624268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.6059417724609</t>
+    <t xml:space="preserve">26.1252040863037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2992649078369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2412414550781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.605936050415</t>
   </si>
   <si>
     <t xml:space="preserve">26.3655700683594</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1666469573975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.249532699585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3324165344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5644950866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9374732971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9540538787842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2192802429199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0369338989258</t>
+    <t xml:space="preserve">26.1666507720947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2495346069336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3324203491211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5644912719727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9374752044678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9540519714355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2192783355713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0369358062744</t>
   </si>
   <si>
     <t xml:space="preserve">27.0120697021484</t>
@@ -929,94 +929,94 @@
     <t xml:space="preserve">27.4099197387695</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6751461029053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6254177093506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.3850517272949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6585674285889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0647087097168</t>
+    <t xml:space="preserve">27.675142288208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6254215240479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3850536346436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6585693359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0647048950195</t>
   </si>
   <si>
     <t xml:space="preserve">27.5093765258789</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7407722473145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5145931243896</t>
+    <t xml:space="preserve">28.7407684326172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5145950317383</t>
   </si>
   <si>
     <t xml:space="preserve">28.4810886383057</t>
   </si>
   <si>
-    <t xml:space="preserve">28.7742729187012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.4894599914551</t>
+    <t xml:space="preserve">28.7742710113525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4894638061523</t>
   </si>
   <si>
     <t xml:space="preserve">28.8412895202637</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6067428588867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6737575531006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4276657104492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8381271362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8129997253418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5669097900391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6590480804443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5752811431885</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7543601989746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9386501312256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0307903289795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9302749633789</t>
+    <t xml:space="preserve">28.6067409515381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6737499237061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4276676177979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8381309509277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8129959106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5669136047363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.659049987793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.575288772583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7543621063232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9386539459229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0307884216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9302711486816</t>
   </si>
   <si>
     <t xml:space="preserve">29.8716354370117</t>
   </si>
   <si>
-    <t xml:space="preserve">30.047550201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8967666625977</t>
+    <t xml:space="preserve">30.0475444793701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.896764755249</t>
   </si>
   <si>
     <t xml:space="preserve">30.248592376709</t>
   </si>
   <si>
-    <t xml:space="preserve">29.4695529937744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5700740814209</t>
+    <t xml:space="preserve">29.4695491790771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5700721740723</t>
   </si>
   <si>
     <t xml:space="preserve">29.9972877502441</t>
@@ -1025,97 +1025,97 @@
     <t xml:space="preserve">31.7480392456055</t>
   </si>
   <si>
-    <t xml:space="preserve">30.75119972229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8768501281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3826160430908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5585289001465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5920372009277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0391674041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5250225067139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2202968597412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0276298522949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2538089752197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4967365264893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1700344085693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3291931152344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3658638000488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5449352264404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1512336730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6538352966309</t>
+    <t xml:space="preserve">30.7511978149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8768482208252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3826141357422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5585327148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5920391082764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0391712188721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5250205993652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2203044891357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0276279449463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2538051605225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4967269897461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1700305938721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3292026519775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3658618927002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5449409484863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1512355804443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6538429260254</t>
   </si>
   <si>
     <t xml:space="preserve">29.7292327880859</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2852611541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2266254425049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5198097229004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3355197906494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6957187652588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3941593170166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6789722442627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7459812164307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2234649658203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2402095794678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1731929779053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9051399230957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.7711143493652</t>
+    <t xml:space="preserve">29.2852535247803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2266235351562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5198040008545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3355178833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6957225799561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3941631317139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6789703369141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7459850311279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2234630584717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2402172088623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1732006072998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.905143737793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7711124420166</t>
   </si>
   <si>
     <t xml:space="preserve">29.9554042816162</t>
@@ -1124,97 +1124,97 @@
     <t xml:space="preserve">29.7878684997559</t>
   </si>
   <si>
-    <t xml:space="preserve">29.720853805542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8548812866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3271408081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0423336029053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4360466003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4946746826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2517509460449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2768840789795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6203365325928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3606491088867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6873378753662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5868244171143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4611663818359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.8632583618164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.1396923065186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.4496250152588</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.3239822387695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2988548278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5166454315186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9773769378662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1784191131592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1365261077881</t>
+    <t xml:space="preserve">29.7208518981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8548793792725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3271465301514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.042329788208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4360389709473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4946842193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2517528533936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2768802642822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6203289031982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3606452941895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6873474121094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5868225097656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4611721038818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.8632564544678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1396942138672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.449634552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.3239841461182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2988471984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5166473388672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9773712158203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1784133911133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1365280151367</t>
   </si>
   <si>
     <t xml:space="preserve">31.2454280853271</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3710861206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9857444763184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2286758422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5637493133545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7647914886475</t>
+    <t xml:space="preserve">31.3710823059082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9857521057129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2286739349365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5637454986572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7647838592529</t>
   </si>
   <si>
     <t xml:space="preserve">32.2171363830566</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7281112670898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6359710693359</t>
+    <t xml:space="preserve">32.7281074523926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6359748840332</t>
   </si>
   <si>
     <t xml:space="preserve">32.5438232421875</t>
@@ -1223,7 +1223,7 @@
     <t xml:space="preserve">33.0045547485352</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6694793701172</t>
+    <t xml:space="preserve">32.6694831848145</t>
   </si>
   <si>
     <t xml:space="preserve">32.9794235229492</t>
@@ -1232,28 +1232,28 @@
     <t xml:space="preserve">32.7867584228516</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0129280090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.121826171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.1469612121582</t>
+    <t xml:space="preserve">33.0129318237305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1218299865723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.1469573974609</t>
   </si>
   <si>
     <t xml:space="preserve">33.3898887634277</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3647537231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5741729736328</t>
+    <t xml:space="preserve">33.3647575378418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5741806030273</t>
   </si>
   <si>
     <t xml:space="preserve">33.3312530517578</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5909233093262</t>
+    <t xml:space="preserve">33.5909271240234</t>
   </si>
   <si>
     <t xml:space="preserve">33.1804656982422</t>
@@ -1262,13 +1262,13 @@
     <t xml:space="preserve">33.2307281494141</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1134490966797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2642364501953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4568939208984</t>
+    <t xml:space="preserve">33.113452911377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.264232635498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4568977355957</t>
   </si>
   <si>
     <t xml:space="preserve">33.6579475402832</t>
@@ -1277,109 +1277,109 @@
     <t xml:space="preserve">33.1720924377441</t>
   </si>
   <si>
-    <t xml:space="preserve">33.2558555603027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4150199890137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.599308013916</t>
+    <t xml:space="preserve">33.2558517456055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4150238037109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.5993041992188</t>
   </si>
   <si>
     <t xml:space="preserve">33.4317665100098</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7249565124512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3479995727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0097770690918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8924903869629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3228607177734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5071601867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6024742126465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5103225708008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3427925109863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6108436584473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9742050170898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3679161071777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8653125762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4243545532227</t>
+    <t xml:space="preserve">33.7249603271484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3480072021484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0097694396973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8924942016602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3228721618652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.507152557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6024703979492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5103149414062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3427886962891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6108474731445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9742126464844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.367919921875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8653087615967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.4243469238281</t>
   </si>
   <si>
     <t xml:space="preserve">32.4667053222656</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3481101989746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3989372253418</t>
+    <t xml:space="preserve">32.3481178283691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3989448547363</t>
   </si>
   <si>
     <t xml:space="preserve">32.1787109375</t>
   </si>
   <si>
-    <t xml:space="preserve">32.170238494873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0177726745605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8737812042236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0940093994141</t>
+    <t xml:space="preserve">32.1702461242676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0177803039551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8737735748291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0940055847168</t>
   </si>
   <si>
     <t xml:space="preserve">32.8055191040039</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4497604370117</t>
+    <t xml:space="preserve">32.449764251709</t>
   </si>
   <si>
     <t xml:space="preserve">32.2295341491699</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7631645202637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7208137512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.78857421875</t>
+    <t xml:space="preserve">32.7631607055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7208099365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7885704040527</t>
   </si>
   <si>
     <t xml:space="preserve">32.0093040466309</t>
   </si>
   <si>
-    <t xml:space="preserve">31.3570938110352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.975923538208</t>
+    <t xml:space="preserve">31.3570880889893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9759292602539</t>
   </si>
   <si>
     <t xml:space="preserve">31.551908493042</t>
@@ -1388,94 +1388,94 @@
     <t xml:space="preserve">31.534969329834</t>
   </si>
   <si>
-    <t xml:space="preserve">30.9843997955322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.8742923736572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3401565551758</t>
+    <t xml:space="preserve">30.9843978881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.8742809295654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.340145111084</t>
   </si>
   <si>
     <t xml:space="preserve">31.6196708679199</t>
   </si>
   <si>
-    <t xml:space="preserve">31.6704940795898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3909740447998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5942611694336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4417934417725</t>
+    <t xml:space="preserve">31.6704902648926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3909721374512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5942649841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4417915344238</t>
   </si>
   <si>
     <t xml:space="preserve">31.933069229126</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4921112060547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6276435852051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7800941467285</t>
+    <t xml:space="preserve">32.492115020752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6276321411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7800979614258</t>
   </si>
   <si>
     <t xml:space="preserve">32.5429306030273</t>
   </si>
   <si>
-    <t xml:space="preserve">32.3565940856934</t>
+    <t xml:space="preserve">32.3565902709961</t>
   </si>
   <si>
     <t xml:space="preserve">32.6954002380371</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2888259887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1194152832031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7128391265869</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.9669570922852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6615104675293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0347137451172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5259971618652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.4672107696533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.0606250762939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.6794719696045</t>
+    <t xml:space="preserve">32.2888221740723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1194114685059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.7128467559814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.9669532775879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6615219116211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0347213745117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.525993347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.4672069549561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.0606346130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.67946434021</t>
   </si>
   <si>
     <t xml:space="preserve">29.8832550048828</t>
   </si>
   <si>
-    <t xml:space="preserve">29.2225723266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1891956329346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.442798614502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0711097717285</t>
+    <t xml:space="preserve">29.2225761413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1891937255859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4427928924561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0711116790771</t>
   </si>
   <si>
     <t xml:space="preserve">26.1478481292725</t>
@@ -1484,73 +1484,73 @@
     <t xml:space="preserve">25.571870803833</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0890636444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3172550201416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9869136810303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3680744171143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4278755187988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.987419128418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8180141448975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6147212982178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3262252807617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1568260192871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9450664520264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6231918334961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.021800994873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.4707298278809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.5469589233398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3516407012939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2415256500244</t>
+    <t xml:space="preserve">25.0890598297119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3172569274902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9869155883789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3680801391602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4278736114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9874172210693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8180122375488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6147232055664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.326229095459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1568222045898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.945068359375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6231937408447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0218048095703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.4707260131836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.5469608306885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3516426086426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2415294647217</t>
   </si>
   <si>
     <t xml:space="preserve">25.4871673583984</t>
   </si>
   <si>
-    <t xml:space="preserve">25.1229419708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6994285583496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9789447784424</t>
+    <t xml:space="preserve">25.1229438781738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6994247436523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.978946685791</t>
   </si>
   <si>
     <t xml:space="preserve">24.8349514007568</t>
   </si>
   <si>
-    <t xml:space="preserve">24.6062507629395</t>
+    <t xml:space="preserve">24.6062545776367</t>
   </si>
   <si>
     <t xml:space="preserve">24.2250900268555</t>
@@ -1559,10 +1559,10 @@
     <t xml:space="preserve">24.1234436035156</t>
   </si>
   <si>
-    <t xml:space="preserve">24.0726222991943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.0387420654297</t>
+    <t xml:space="preserve">24.072624206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.0387382507324</t>
   </si>
   <si>
     <t xml:space="preserve">23.3102970123291</t>
@@ -1571,16 +1571,16 @@
     <t xml:space="preserve">23.716869354248</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4453201293945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3939876556396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0043601989746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3092880249023</t>
+    <t xml:space="preserve">24.4453182220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3939914703369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.004358291626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.309289932251</t>
   </si>
   <si>
     <t xml:space="preserve">25.2838802337646</t>
@@ -1592,31 +1592,31 @@
     <t xml:space="preserve">25.0467090606689</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8264865875244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1314144134521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0721244812012</t>
+    <t xml:space="preserve">24.8264770507812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1314105987549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0721206665039</t>
   </si>
   <si>
     <t xml:space="preserve">25.2754077911377</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4902610778809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2152462005615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4387016296387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.387134552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4816703796387</t>
+    <t xml:space="preserve">25.4902648925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2152481079102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4386978149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.3871326446533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.48166847229</t>
   </si>
   <si>
     <t xml:space="preserve">26.5129642486572</t>
@@ -1625,7 +1625,7 @@
     <t xml:space="preserve">26.272331237793</t>
   </si>
   <si>
-    <t xml:space="preserve">26.34108543396</t>
+    <t xml:space="preserve">26.3410835266113</t>
   </si>
   <si>
     <t xml:space="preserve">26.5731258392334</t>
@@ -1637,118 +1637,118 @@
     <t xml:space="preserve">26.3926486968994</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1090412139893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2121696472168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.5043716430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3840522766113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8770008087158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6388034820557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.4325408935547</t>
+    <t xml:space="preserve">26.1090393066406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2121753692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5043678283691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.38405418396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8769969940186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.638801574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.4325428009033</t>
   </si>
   <si>
     <t xml:space="preserve">27.6989593505859</t>
   </si>
   <si>
-    <t xml:space="preserve">27.561450958252</t>
+    <t xml:space="preserve">27.5614528656006</t>
   </si>
   <si>
     <t xml:space="preserve">27.5184841156006</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5786437988281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.61301612854</t>
+    <t xml:space="preserve">27.5786418914795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6130199432373</t>
   </si>
   <si>
     <t xml:space="preserve">27.2434692382812</t>
   </si>
   <si>
-    <t xml:space="preserve">27.1059646606445</t>
+    <t xml:space="preserve">27.1059608459473</t>
   </si>
   <si>
     <t xml:space="preserve">27.2606601715088</t>
   </si>
   <si>
-    <t xml:space="preserve">27.3465976715088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2950305938721</t>
+    <t xml:space="preserve">27.3465995788574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2950344085693</t>
   </si>
   <si>
     <t xml:space="preserve">28.291955947876</t>
   </si>
   <si>
-    <t xml:space="preserve">28.3607063293457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3177433013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9739761352539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1630458831787</t>
+    <t xml:space="preserve">28.360710144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.317741394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9739723205566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1630401611328</t>
   </si>
   <si>
     <t xml:space="preserve">28.223201751709</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6185340881348</t>
+    <t xml:space="preserve">28.618537902832</t>
   </si>
   <si>
     <t xml:space="preserve">28.2317981719971</t>
   </si>
   <si>
-    <t xml:space="preserve">28.0942878723145</t>
+    <t xml:space="preserve">28.0942916870117</t>
   </si>
   <si>
     <t xml:space="preserve">28.8419818878174</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6326427459717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.3576335906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.426383972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.5497798919678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.498218536377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8591690063477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8247928619385</t>
+    <t xml:space="preserve">29.6326465606689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.3576354980469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4263820648193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.5497856140137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.4982204437256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8591709136963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8247909545898</t>
   </si>
   <si>
     <t xml:space="preserve">29.2716903686523</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6277694702148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.6050643920898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.957426071167</t>
+    <t xml:space="preserve">25.6277713775635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.6050624847412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9574222564697</t>
   </si>
   <si>
     <t xml:space="preserve">25.2668132781982</t>
@@ -1760,7 +1760,7 @@
     <t xml:space="preserve">25.9973182678223</t>
   </si>
   <si>
-    <t xml:space="preserve">26.6418781280518</t>
+    <t xml:space="preserve">26.6418800354004</t>
   </si>
   <si>
     <t xml:space="preserve">26.6504726409912</t>
@@ -1769,19 +1769,19 @@
     <t xml:space="preserve">26.3238945007324</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4184303283691</t>
+    <t xml:space="preserve">26.4184284210205</t>
   </si>
   <si>
     <t xml:space="preserve">25.8254318237305</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6965179443359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8082466125488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.8137607574463</t>
+    <t xml:space="preserve">25.6965217590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8082485198975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.8137664794922</t>
   </si>
   <si>
     <t xml:space="preserve">26.6676616668701</t>
@@ -1790,16 +1790,16 @@
     <t xml:space="preserve">26.8911113739014</t>
   </si>
   <si>
-    <t xml:space="preserve">27.0544013977051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0372085571289</t>
+    <t xml:space="preserve">27.0543994903564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0372104644775</t>
   </si>
   <si>
     <t xml:space="preserve">26.7364139556885</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8997001647949</t>
+    <t xml:space="preserve">26.8997039794922</t>
   </si>
   <si>
     <t xml:space="preserve">27.4841060638428</t>
@@ -1811,28 +1811,28 @@
     <t xml:space="preserve">27.2348766326904</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5872383117676</t>
+    <t xml:space="preserve">27.5872344970703</t>
   </si>
   <si>
     <t xml:space="preserve">27.7161483764648</t>
   </si>
   <si>
-    <t xml:space="preserve">27.999755859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.016939163208</t>
+    <t xml:space="preserve">27.9997577667236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0169448852539</t>
   </si>
   <si>
     <t xml:space="preserve">27.8966255187988</t>
   </si>
   <si>
-    <t xml:space="preserve">27.5012950897217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2262840270996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.616096496582</t>
+    <t xml:space="preserve">27.501293182373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2262802124023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.6160945892334</t>
   </si>
   <si>
     <t xml:space="preserve">26.2379550933838</t>
@@ -1841,55 +1841,55 @@
     <t xml:space="preserve">26.5645294189453</t>
   </si>
   <si>
-    <t xml:space="preserve">26.4012432098389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1520118713379</t>
+    <t xml:space="preserve">26.4012413024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1520137786865</t>
   </si>
   <si>
     <t xml:space="preserve">25.9285621643066</t>
   </si>
   <si>
-    <t xml:space="preserve">25.954345703125</t>
+    <t xml:space="preserve">25.9543495178223</t>
   </si>
   <si>
     <t xml:space="preserve">26.0660705566406</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9199714660645</t>
+    <t xml:space="preserve">25.9199676513672</t>
   </si>
   <si>
     <t xml:space="preserve">26.203577041626</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1176338195801</t>
+    <t xml:space="preserve">26.1176376342773</t>
   </si>
   <si>
     <t xml:space="preserve">26.2551403045654</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8340282440186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2207660675049</t>
+    <t xml:space="preserve">25.8340263366699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2207679748535</t>
   </si>
   <si>
     <t xml:space="preserve">25.7566814422607</t>
   </si>
   <si>
-    <t xml:space="preserve">25.5676078796387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6105823516846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4988574981689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.3183784484863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2238445281982</t>
+    <t xml:space="preserve">25.5676097869873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.6105804443359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4988594055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.318380355835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2238426208496</t>
   </si>
   <si>
     <t xml:space="preserve">25.026180267334</t>
@@ -1898,25 +1898,25 @@
     <t xml:space="preserve">25.2324390411377</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3785400390625</t>
+    <t xml:space="preserve">25.3785381317139</t>
   </si>
   <si>
     <t xml:space="preserve">25.550422668457</t>
   </si>
   <si>
-    <t xml:space="preserve">25.0605564117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.2840003967285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.4215106964111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.3496742248535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.0746650695801</t>
+    <t xml:space="preserve">25.0605545043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.2840042114258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.4215068817139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.3496761322021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.0746631622314</t>
   </si>
   <si>
     <t xml:space="preserve">25.662145614624</t>
@@ -1925,76 +1925,76 @@
     <t xml:space="preserve">25.799654006958</t>
   </si>
   <si>
-    <t xml:space="preserve">25.9715385437012</t>
+    <t xml:space="preserve">25.9715347290039</t>
   </si>
   <si>
     <t xml:space="preserve">25.0089912414551</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8628902435303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7253837585449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9144535064697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.0691471099854</t>
+    <t xml:space="preserve">24.8628921508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7253875732422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9144554138184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.069149017334</t>
   </si>
   <si>
     <t xml:space="preserve">25.4558868408203</t>
   </si>
   <si>
-    <t xml:space="preserve">25.7738704681396</t>
+    <t xml:space="preserve">25.773868560791</t>
   </si>
   <si>
     <t xml:space="preserve">25.5246391296387</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6019859313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.1722793579102</t>
+    <t xml:space="preserve">25.6019878387451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1722774505615</t>
   </si>
   <si>
     <t xml:space="preserve">26.0402889251709</t>
   </si>
   <si>
-    <t xml:space="preserve">26.5817184448242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7137107849121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.8598098754883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.9113750457764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.7394905090332</t>
+    <t xml:space="preserve">26.5817203521729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7137126922607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.8598136901855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.9113788604736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.7394924163818</t>
   </si>
   <si>
     <t xml:space="preserve">25.8684043884277</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6363620758057</t>
+    <t xml:space="preserve">25.6363639831543</t>
   </si>
   <si>
     <t xml:space="preserve">25.9801292419434</t>
   </si>
   <si>
-    <t xml:space="preserve">25.6535530090332</t>
+    <t xml:space="preserve">25.6535511016846</t>
   </si>
   <si>
     <t xml:space="preserve">25.4644794464111</t>
   </si>
   <si>
-    <t xml:space="preserve">24.8542976379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.9230499267578</t>
+    <t xml:space="preserve">24.8542938232422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.9230480194092</t>
   </si>
   <si>
     <t xml:space="preserve">25.0433654785156</t>
@@ -2003,91 +2003,91 @@
     <t xml:space="preserve">25.1306571960449</t>
   </si>
   <si>
-    <t xml:space="preserve">24.7727680206299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7640380859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3799667358398</t>
+    <t xml:space="preserve">24.7727661132812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7640361785889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3799648284912</t>
   </si>
   <si>
     <t xml:space="preserve">24.3712368011475</t>
   </si>
   <si>
-    <t xml:space="preserve">24.4323387145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.2315731048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7989559173584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.13938331604</t>
+    <t xml:space="preserve">24.4323406219482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.2315711975098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.7989540100098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.1393814086914</t>
   </si>
   <si>
     <t xml:space="preserve">25.1131973266602</t>
   </si>
   <si>
-    <t xml:space="preserve">24.9648036956787</t>
+    <t xml:space="preserve">24.9648056030273</t>
   </si>
   <si>
     <t xml:space="preserve">24.441068649292</t>
   </si>
   <si>
-    <t xml:space="preserve">24.528356552124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3886947631836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.3537769317627</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.8164119720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.7902278900146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.052095413208</t>
+    <t xml:space="preserve">24.5283584594727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.388692855835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.3537788391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.8164157867432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24.790225982666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25.0520915985107</t>
   </si>
   <si>
     <t xml:space="preserve">25.3139629364014</t>
   </si>
   <si>
-    <t xml:space="preserve">25.4885406494141</t>
+    <t xml:space="preserve">25.4885425567627</t>
   </si>
   <si>
     <t xml:space="preserve">25.8813457489014</t>
   </si>
   <si>
-    <t xml:space="preserve">26.44873046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.0684795379639</t>
+    <t xml:space="preserve">26.4487247467041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.0684852600098</t>
   </si>
   <si>
     <t xml:space="preserve">26.439998626709</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2043151855469</t>
+    <t xml:space="preserve">26.2043170928955</t>
   </si>
   <si>
     <t xml:space="preserve">26.012279510498</t>
   </si>
   <si>
-    <t xml:space="preserve">26.2916049957275</t>
+    <t xml:space="preserve">26.2916069030762</t>
   </si>
   <si>
     <t xml:space="preserve">25.9686336517334</t>
   </si>
   <si>
-    <t xml:space="preserve">25.8376979827881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.1170253753662</t>
+    <t xml:space="preserve">25.8377017974854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.1170272827148</t>
   </si>
   <si>
     <t xml:space="preserve">25.8638858795166</t>
@@ -2096,208 +2096,208 @@
     <t xml:space="preserve">26.7804260253906</t>
   </si>
   <si>
-    <t xml:space="preserve">26.8415298461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.9811916351318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6009483337402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.2343311309814</t>
+    <t xml:space="preserve">26.84153175354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.9811935424805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6009502410889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.2343330383301</t>
   </si>
   <si>
     <t xml:space="preserve">26.7978858947754</t>
   </si>
   <si>
-    <t xml:space="preserve">26.3352489471436</t>
+    <t xml:space="preserve">26.3352508544922</t>
   </si>
   <si>
     <t xml:space="preserve">26.134485244751</t>
   </si>
   <si>
-    <t xml:space="preserve">26.1606731414795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.2392292022705</t>
+    <t xml:space="preserve">26.1606750488281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.2392330169678</t>
   </si>
   <si>
     <t xml:space="preserve">26.5622043609619</t>
   </si>
   <si>
-    <t xml:space="preserve">27.6184062957764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.391450881958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.0286693572998</t>
+    <t xml:space="preserve">27.6184043884277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.3914546966553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.0286712646484</t>
   </si>
   <si>
     <t xml:space="preserve">28.9364814758301</t>
   </si>
   <si>
-    <t xml:space="preserve">28.8928337097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.1770572662354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.6707820892334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.9675636291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3516407012939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1896190643311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.259449005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5300483703613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.6435222625732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.1110553741455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.2681770324707</t>
+    <t xml:space="preserve">28.8928318023682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.1770610809326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.6707801818848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.9675693511963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.3516368865967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1896171569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.2594470977783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5300540924072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6435279846191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.1110591888428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.268180847168</t>
   </si>
   <si>
     <t xml:space="preserve">28.8579196929932</t>
   </si>
   <si>
-    <t xml:space="preserve">28.6571559906006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.6309623718262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8753757476807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.7357120513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.8666458129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.0761413574219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.5475063323975</t>
+    <t xml:space="preserve">28.6571521759033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.6309661865234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8753795623779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.735710144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.8666439056396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.0761432647705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.5475006103516</t>
   </si>
   <si>
     <t xml:space="preserve">29.6784381866455</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6173419952393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4776763916016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.4427585601807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0014095306396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.132345199585</t>
+    <t xml:space="preserve">29.617338180542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4776744842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.4427528381348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0014152526855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.1323432922363</t>
   </si>
   <si>
     <t xml:space="preserve">30.4989566802979</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4504165649414</t>
+    <t xml:space="preserve">31.4504146575928</t>
   </si>
   <si>
     <t xml:space="preserve">31.5726222991943</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0090637207031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0789031982422</t>
+    <t xml:space="preserve">32.0090599060059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0788993835449</t>
   </si>
   <si>
     <t xml:space="preserve">31.9130554199219</t>
   </si>
   <si>
-    <t xml:space="preserve">31.1099872589111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2060089111328</t>
+    <t xml:space="preserve">31.109992980957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2060070037842</t>
   </si>
   <si>
     <t xml:space="preserve">31.3282089233398</t>
   </si>
   <si>
-    <t xml:space="preserve">31.0401554107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9664936065674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.2981948852539</t>
+    <t xml:space="preserve">31.0401573181152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9664916992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.2981967926025</t>
   </si>
   <si>
     <t xml:space="preserve">30.5076923370361</t>
   </si>
   <si>
-    <t xml:space="preserve">31.066349029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2845668792725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9703216552734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5027904510498</t>
+    <t xml:space="preserve">31.0663433074951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2845687866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9703254699707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5027923583984</t>
   </si>
   <si>
     <t xml:space="preserve">31.5464305877686</t>
   </si>
   <si>
-    <t xml:space="preserve">31.2671165466309</t>
+    <t xml:space="preserve">31.2671089172363</t>
   </si>
   <si>
     <t xml:space="preserve">31.4766044616699</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5638904571533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.6773738861084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5115165710449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.9877815246582</t>
+    <t xml:space="preserve">31.5638980865479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.6773700714111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5115203857422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.9877796173096</t>
   </si>
   <si>
     <t xml:space="preserve">31.7841663360596</t>
   </si>
   <si>
-    <t xml:space="preserve">31.4126358032227</t>
+    <t xml:space="preserve">31.4126262664795</t>
   </si>
   <si>
     <t xml:space="preserve">31.4391708374023</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0318565368652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.8195552825928</t>
+    <t xml:space="preserve">32.0318603515625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.8195476531982</t>
   </si>
   <si>
     <t xml:space="preserve">31.8372478485107</t>
@@ -2306,34 +2306,34 @@
     <t xml:space="preserve">31.9964714050293</t>
   </si>
   <si>
-    <t xml:space="preserve">32.0141639709473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.3595542907715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5453205108643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.2618598937988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.288782119751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.1118583679199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.9618682861328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.5280113220215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2534027099609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3591690063477</t>
+    <t xml:space="preserve">32.0141677856445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.3595581054688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5453186035156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.2618637084961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2887916564941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.1118602752686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.9618663787842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5280151367188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2533988952637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3591728210449</t>
   </si>
   <si>
     <t xml:space="preserve">32.3237838745117</t>
@@ -2345,16 +2345,16 @@
     <t xml:space="preserve">32.8014717102051</t>
   </si>
   <si>
-    <t xml:space="preserve">32.4476356506348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.0053215026855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.4564781188965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1557006835938</t>
+    <t xml:space="preserve">32.4476280212402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.0053176879883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.456470489502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.155704498291</t>
   </si>
   <si>
     <t xml:space="preserve">32.3945503234863</t>
@@ -2363,7 +2363,7 @@
     <t xml:space="preserve">32.5980072021484</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6953277587891</t>
+    <t xml:space="preserve">32.6953201293945</t>
   </si>
   <si>
     <t xml:space="preserve">32.7307052612305</t>
@@ -2375,22 +2375,22 @@
     <t xml:space="preserve">33.1818580627441</t>
   </si>
   <si>
-    <t xml:space="preserve">33.6153182983398</t>
+    <t xml:space="preserve">33.6153221130371</t>
   </si>
   <si>
     <t xml:space="preserve">33.5799369812012</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7037773132324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6860885620117</t>
+    <t xml:space="preserve">33.7037811279297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6860847473145</t>
   </si>
   <si>
     <t xml:space="preserve">33.288013458252</t>
   </si>
   <si>
-    <t xml:space="preserve">33.270320892334</t>
+    <t xml:space="preserve">33.2703170776367</t>
   </si>
   <si>
     <t xml:space="preserve">33.0845527648926</t>
@@ -2399,19 +2399,19 @@
     <t xml:space="preserve">32.7749328613281</t>
   </si>
   <si>
-    <t xml:space="preserve">32.2353096008301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.7130165100098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9960899353027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.0756988525391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.1203269958496</t>
+    <t xml:space="preserve">32.2353210449219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.7130088806152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9960861206055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.0757064819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.1203193664551</t>
   </si>
   <si>
     <t xml:space="preserve">31.934549331665</t>
@@ -2420,16 +2420,16 @@
     <t xml:space="preserve">32.429931640625</t>
   </si>
   <si>
-    <t xml:space="preserve">32.5449371337891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8987770080566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.252628326416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3764762878418</t>
+    <t xml:space="preserve">32.5449409484863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8987808227539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2526245117188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3764686584473</t>
   </si>
   <si>
     <t xml:space="preserve">33.8364677429199</t>
@@ -2438,55 +2438,55 @@
     <t xml:space="preserve">33.3676300048828</t>
   </si>
   <si>
-    <t xml:space="preserve">34.0753135681152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0576286315918</t>
+    <t xml:space="preserve">34.075309753418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0576248168945</t>
   </si>
   <si>
     <t xml:space="preserve">34.7653121948242</t>
   </si>
   <si>
-    <t xml:space="preserve">34.791862487793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6856956481934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0749397277832</t>
+    <t xml:space="preserve">34.7918586730957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6856994628906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0749359130859</t>
   </si>
   <si>
     <t xml:space="preserve">35.0483932495117</t>
   </si>
   <si>
-    <t xml:space="preserve">35.1810836791992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3226203918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7295417785645</t>
+    <t xml:space="preserve">35.1810874938965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3226280212402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.729549407959</t>
   </si>
   <si>
     <t xml:space="preserve">35.4730072021484</t>
   </si>
   <si>
-    <t xml:space="preserve">35.5526161193848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5083923339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1987762451172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8533935546875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8710861206055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.03955078125</t>
+    <t xml:space="preserve">35.5526237487793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5083885192871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1987800598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.853385925293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8710899353027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0395469665527</t>
   </si>
   <si>
     <t xml:space="preserve">34.349552154541</t>
@@ -2498,34 +2498,34 @@
     <t xml:space="preserve">35.1191635131836</t>
   </si>
   <si>
-    <t xml:space="preserve">35.287239074707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6591644287109</t>
+    <t xml:space="preserve">35.2872352600098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6591606140137</t>
   </si>
   <si>
     <t xml:space="preserve">34.376091003418</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7922477722168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3230133056641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5530128479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1814765930176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2518501281738</t>
+    <t xml:space="preserve">33.7922401428223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3230056762695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5530090332031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1814727783203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2518539428711</t>
   </si>
   <si>
     <t xml:space="preserve">34.9510841369629</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3668518066406</t>
+    <t xml:space="preserve">35.3668556213379</t>
   </si>
   <si>
     <t xml:space="preserve">35.296085357666</t>
@@ -2540,19 +2540,19 @@
     <t xml:space="preserve">35.2607040405273</t>
   </si>
   <si>
-    <t xml:space="preserve">35.9153175354004</t>
+    <t xml:space="preserve">35.9153099060059</t>
   </si>
   <si>
     <t xml:space="preserve">35.7914657592773</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8445472717285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3314666748047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3491592407227</t>
+    <t xml:space="preserve">35.844554901123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3314628601074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3491554260254</t>
   </si>
   <si>
     <t xml:space="preserve">33.8099365234375</t>
@@ -2564,22 +2564,22 @@
     <t xml:space="preserve">33.783390045166</t>
   </si>
   <si>
-    <t xml:space="preserve">34.367244720459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.8980140686035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.1280097961426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.2076225280762</t>
+    <t xml:space="preserve">34.3672409057617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.898006439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.1280059814453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.2076301574707</t>
   </si>
   <si>
     <t xml:space="preserve">34.5707092285156</t>
   </si>
   <si>
-    <t xml:space="preserve">34.9245414733887</t>
+    <t xml:space="preserve">34.9245491027832</t>
   </si>
   <si>
     <t xml:space="preserve">34.8095550537109</t>
@@ -2588,13 +2588,13 @@
     <t xml:space="preserve">34.8183937072754</t>
   </si>
   <si>
-    <t xml:space="preserve">34.1903190612793</t>
+    <t xml:space="preserve">34.190315246582</t>
   </si>
   <si>
     <t xml:space="preserve">32.863395690918</t>
   </si>
   <si>
-    <t xml:space="preserve">33.0403099060059</t>
+    <t xml:space="preserve">33.0403137207031</t>
   </si>
   <si>
     <t xml:space="preserve">32.571475982666</t>
@@ -2606,7 +2606,7 @@
     <t xml:space="preserve">32.4653205871582</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7837753295898</t>
+    <t xml:space="preserve">32.7837829589844</t>
   </si>
   <si>
     <t xml:space="preserve">33.1464767456055</t>
@@ -2615,7 +2615,7 @@
     <t xml:space="preserve">33.7657012939453</t>
   </si>
   <si>
-    <t xml:space="preserve">33.137622833252</t>
+    <t xml:space="preserve">33.1376266479492</t>
   </si>
   <si>
     <t xml:space="preserve">33.3499374389648</t>
@@ -2630,37 +2630,37 @@
     <t xml:space="preserve">32.3414726257324</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6068649291992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8103179931641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6330146789551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3233985900879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3768615722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9253311157227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6599426269531</t>
+    <t xml:space="preserve">32.606861114502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8103218078613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6330108642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3233909606934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3768577575684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9253273010254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6599388122559</t>
   </si>
   <si>
     <t xml:space="preserve">33.1553153991699</t>
   </si>
   <si>
-    <t xml:space="preserve">33.1110916137695</t>
+    <t xml:space="preserve">33.1110954284668</t>
   </si>
   <si>
     <t xml:space="preserve">33.4649353027344</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5268630981445</t>
+    <t xml:space="preserve">33.52685546875</t>
   </si>
   <si>
     <t xml:space="preserve">33.2939109802246</t>
@@ -2669,34 +2669,34 @@
     <t xml:space="preserve">33.1505546569824</t>
   </si>
   <si>
-    <t xml:space="preserve">34.1271553039551</t>
+    <t xml:space="preserve">34.1271514892578</t>
   </si>
   <si>
     <t xml:space="preserve">33.9569206237793</t>
   </si>
   <si>
-    <t xml:space="preserve">33.5268592834473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.3118286132812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.5358200073242</t>
+    <t xml:space="preserve">33.5268516540527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.3118209838867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.535816192627</t>
   </si>
   <si>
     <t xml:space="preserve">33.8583679199219</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4372634887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.1092300415039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.39794921875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.8907279968262</t>
+    <t xml:space="preserve">33.437255859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.1092376708984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3979454040527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.8907241821289</t>
   </si>
   <si>
     <t xml:space="preserve">32.953441619873</t>
@@ -2705,10 +2705,10 @@
     <t xml:space="preserve">32.7921676635742</t>
   </si>
   <si>
-    <t xml:space="preserve">32.7294502258301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.7438926696777</t>
+    <t xml:space="preserve">32.7294540405273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.743896484375</t>
   </si>
   <si>
     <t xml:space="preserve">32.2814712524414</t>
@@ -2717,40 +2717,40 @@
     <t xml:space="preserve">32.4785804748535</t>
   </si>
   <si>
-    <t xml:space="preserve">32.6577796936035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6040229797363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2043113708496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.8135681152344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.001708984375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6702117919922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2257118225098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.0106811523438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.6612510681152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.3421859741211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.831485748291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.9479560852051</t>
+    <t xml:space="preserve">32.6577758789062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6040191650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2043151855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8135604858398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0017166137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6702156066895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2257041931152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.0106735229492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6612548828125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3421936035156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.8314819335938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.9479637145996</t>
   </si>
   <si>
     <t xml:space="preserve">34.754322052002</t>
@@ -2759,25 +2759,25 @@
     <t xml:space="preserve">34.7364082336426</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7274436950684</t>
+    <t xml:space="preserve">34.7274398803711</t>
   </si>
   <si>
     <t xml:space="preserve">35.1395874023438</t>
   </si>
   <si>
-    <t xml:space="preserve">35.6950759887695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.9603958129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.3814964294434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.4621276855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8384399414062</t>
+    <t xml:space="preserve">35.6950874328613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.9603996276855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.3815002441406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.4621315002441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.838436126709</t>
   </si>
   <si>
     <t xml:space="preserve">36.1251449584961</t>
@@ -2786,22 +2786,22 @@
     <t xml:space="preserve">36.0982704162598</t>
   </si>
   <si>
-    <t xml:space="preserve">35.7757186889648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6268882751465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5606918334961</t>
+    <t xml:space="preserve">35.7757148742676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6268844604492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.5606880187988</t>
   </si>
   <si>
     <t xml:space="preserve">34.6109733581543</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2471084594727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.8653182983398</t>
+    <t xml:space="preserve">35.2471046447754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8653144836426</t>
   </si>
   <si>
     <t xml:space="preserve">35.8563575744629</t>
@@ -2813,10 +2813,10 @@
     <t xml:space="preserve">36.0086669921875</t>
   </si>
   <si>
-    <t xml:space="preserve">36.3670539855957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6627159118652</t>
+    <t xml:space="preserve">36.3670501708984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.6627197265625</t>
   </si>
   <si>
     <t xml:space="preserve">37.012149810791</t>
@@ -2825,106 +2825,106 @@
     <t xml:space="preserve">36.7343978881836</t>
   </si>
   <si>
-    <t xml:space="preserve">36.1520233154297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8239936828613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.2092590332031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7737159729004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.4028930664062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.485538482666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6199340820312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6502876281738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.6682014465332</t>
+    <t xml:space="preserve">36.1520195007324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.8239898681641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2092552185059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.7737121582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.402889251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.4855422973633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6199264526367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6502838134766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.6681976318359</t>
   </si>
   <si>
     <t xml:space="preserve">34.6557731628418</t>
   </si>
   <si>
-    <t xml:space="preserve">34.4676132202148</t>
+    <t xml:space="preserve">34.4676208496094</t>
   </si>
   <si>
     <t xml:space="preserve">35.1575088500977</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2650260925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5751342773438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9892807006836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.7762546539307</t>
+    <t xml:space="preserve">35.265022277832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.575138092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.9892845153809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.7762565612793</t>
   </si>
   <si>
     <t xml:space="preserve">30.3103618621826</t>
   </si>
   <si>
-    <t xml:space="preserve">25.3198585510254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.0594882965088</t>
+    <t xml:space="preserve">25.3198566436768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.0594844818115</t>
   </si>
   <si>
     <t xml:space="preserve">29.6473484039307</t>
   </si>
   <si>
-    <t xml:space="preserve">30.6149864196777</t>
+    <t xml:space="preserve">30.6149845123291</t>
   </si>
   <si>
     <t xml:space="preserve">31.1794414520264</t>
   </si>
   <si>
-    <t xml:space="preserve">31.5647029876709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.5736713409424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31.2959156036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.3710670471191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.5681762695312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.058952331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.5303382873535</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7777290344238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.2167434692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.2132720947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.7329330444336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.4820556640625</t>
+    <t xml:space="preserve">31.5647048950195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.5736675262451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31.2959175109863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.3710632324219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.5681800842285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0589485168457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.5303344726562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7777252197266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.2167472839355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.2132759094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.7329292297363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.4820594787598</t>
   </si>
   <si>
     <t xml:space="preserve">32.9176063537598</t>
@@ -2936,7 +2936,7 @@
     <t xml:space="preserve">34.4944953918457</t>
   </si>
   <si>
-    <t xml:space="preserve">34.2973861694336</t>
+    <t xml:space="preserve">34.2973823547363</t>
   </si>
   <si>
     <t xml:space="preserve">33.8225288391113</t>
@@ -2948,13 +2948,13 @@
     <t xml:space="preserve">34.189868927002</t>
   </si>
   <si>
-    <t xml:space="preserve">34.5930557250977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.315299987793</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.0141563415527</t>
+    <t xml:space="preserve">34.5930519104004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.3153038024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.0141525268555</t>
   </si>
   <si>
     <t xml:space="preserve">36.6000022888184</t>
@@ -2966,82 +2966,82 @@
     <t xml:space="preserve">35.3725357055664</t>
   </si>
   <si>
-    <t xml:space="preserve">36.2774620056152</t>
+    <t xml:space="preserve">36.2774658203125</t>
   </si>
   <si>
     <t xml:space="preserve">35.7309265136719</t>
   </si>
   <si>
-    <t xml:space="preserve">36.6537590026855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.0927848815918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.4222831726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6338310241699</t>
+    <t xml:space="preserve">36.6537666320801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0927886962891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.4222793579102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6338386535645</t>
   </si>
   <si>
     <t xml:space="preserve">39.1445274353027</t>
   </si>
   <si>
-    <t xml:space="preserve">37.8991470336914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.192813873291</t>
+    <t xml:space="preserve">37.8991432189941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1928100585938</t>
   </si>
   <si>
     <t xml:space="preserve">40.3015823364258</t>
   </si>
   <si>
-    <t xml:space="preserve">37.0473556518555</t>
+    <t xml:space="preserve">37.0473594665527</t>
   </si>
   <si>
     <t xml:space="preserve">37.6728248596191</t>
   </si>
   <si>
-    <t xml:space="preserve">37.3283615112305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2167091369629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1623191833496</t>
+    <t xml:space="preserve">37.328369140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2167053222656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1623153686523</t>
   </si>
   <si>
     <t xml:space="preserve">38.3798751831055</t>
   </si>
   <si>
-    <t xml:space="preserve">37.4643363952637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.8722496032715</t>
+    <t xml:space="preserve">37.4643402099609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.8722457885742</t>
   </si>
   <si>
     <t xml:space="preserve">37.0926856994629</t>
   </si>
   <si>
-    <t xml:space="preserve">36.8479423522949</t>
+    <t xml:space="preserve">36.8479385375977</t>
   </si>
   <si>
     <t xml:space="preserve">37.2739791870117</t>
   </si>
   <si>
-    <t xml:space="preserve">37.1923942565918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7815971374512</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.4824600219727</t>
+    <t xml:space="preserve">37.1923980712891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.7816009521484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4824676513672</t>
   </si>
   <si>
     <t xml:space="preserve">37.3646202087402</t>
   </si>
   <si>
-    <t xml:space="preserve">37.6003074645996</t>
+    <t xml:space="preserve">37.6003150939941</t>
   </si>
   <si>
     <t xml:space="preserve">37.9719581604004</t>
@@ -3053,34 +3053,34 @@
     <t xml:space="preserve">36.7663536071777</t>
   </si>
   <si>
-    <t xml:space="preserve">37.6637649536133</t>
+    <t xml:space="preserve">37.663761138916</t>
   </si>
   <si>
     <t xml:space="preserve">38.5974235534668</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0176963806152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0930976867676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1445999145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1627349853516</t>
+    <t xml:space="preserve">41.017692565918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0930938720703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.144603729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.162727355957</t>
   </si>
   <si>
     <t xml:space="preserve">41.8244476318359</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7910766601562</t>
+    <t xml:space="preserve">40.791072845459</t>
   </si>
   <si>
     <t xml:space="preserve">40.9633026123047</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7094993591309</t>
+    <t xml:space="preserve">40.7094917297363</t>
   </si>
   <si>
     <t xml:space="preserve">40.2925148010254</t>
@@ -3089,13 +3089,13 @@
     <t xml:space="preserve">41.1717910766602</t>
   </si>
   <si>
-    <t xml:space="preserve">41.4527931213379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5525169372559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.2776832580566</t>
+    <t xml:space="preserve">41.4528007507324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5525131225586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.2776794433594</t>
   </si>
   <si>
     <t xml:space="preserve">41.6884841918945</t>
@@ -3104,22 +3104,22 @@
     <t xml:space="preserve">41.6975440979004</t>
   </si>
   <si>
-    <t xml:space="preserve">41.8335227966309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3349533081055</t>
+    <t xml:space="preserve">41.8335189819336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3349571228027</t>
   </si>
   <si>
     <t xml:space="preserve">42.3139419555664</t>
   </si>
   <si>
-    <t xml:space="preserve">42.6221466064453</t>
+    <t xml:space="preserve">42.622142791748</t>
   </si>
   <si>
     <t xml:space="preserve">42.9666023254395</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1569557189941</t>
+    <t xml:space="preserve">43.1569595336914</t>
   </si>
   <si>
     <t xml:space="preserve">43.8005485534668</t>
@@ -3128,7 +3128,7 @@
     <t xml:space="preserve">44.1993980407715</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8096199035645</t>
+    <t xml:space="preserve">43.8096160888672</t>
   </si>
   <si>
     <t xml:space="preserve">43.2022857666016</t>
@@ -3137,10 +3137,10 @@
     <t xml:space="preserve">43.6373825073242</t>
   </si>
   <si>
-    <t xml:space="preserve">42.567756652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8940849304199</t>
+    <t xml:space="preserve">42.5677528381348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8940887451172</t>
   </si>
   <si>
     <t xml:space="preserve">42.903148651123</t>
@@ -3152,25 +3152,25 @@
     <t xml:space="preserve">41.4074745178223</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0086288452148</t>
+    <t xml:space="preserve">41.0086250305176</t>
   </si>
   <si>
     <t xml:space="preserve">41.525318145752</t>
   </si>
   <si>
-    <t xml:space="preserve">40.5372657775879</t>
+    <t xml:space="preserve">40.5372619628906</t>
   </si>
   <si>
     <t xml:space="preserve">40.4828758239746</t>
   </si>
   <si>
-    <t xml:space="preserve">40.4466094970703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6279144287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3741035461426</t>
+    <t xml:space="preserve">40.4466171264648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6279106140137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.374095916748</t>
   </si>
   <si>
     <t xml:space="preserve">41.8788375854492</t>
@@ -3179,37 +3179,37 @@
     <t xml:space="preserve">40.8545265197754</t>
   </si>
   <si>
-    <t xml:space="preserve">41.5978317260742</t>
+    <t xml:space="preserve">41.597827911377</t>
   </si>
   <si>
     <t xml:space="preserve">41.353084564209</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0630149841309</t>
+    <t xml:space="preserve">41.0630187988281</t>
   </si>
   <si>
     <t xml:space="preserve">41.7881889343262</t>
   </si>
   <si>
-    <t xml:space="preserve">42.1507797241211</t>
+    <t xml:space="preserve">42.1507759094238</t>
   </si>
   <si>
     <t xml:space="preserve">41.1536674499512</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3984031677246</t>
+    <t xml:space="preserve">41.3984069824219</t>
   </si>
   <si>
     <t xml:space="preserve">41.0992736816406</t>
   </si>
   <si>
-    <t xml:space="preserve">41.5071830749512</t>
+    <t xml:space="preserve">41.5071907043457</t>
   </si>
   <si>
     <t xml:space="preserve">40.736686706543</t>
   </si>
   <si>
-    <t xml:space="preserve">40.2290687561035</t>
+    <t xml:space="preserve">40.2290649414062</t>
   </si>
   <si>
     <t xml:space="preserve">40.9723701477051</t>
@@ -3224,40 +3224,40 @@
     <t xml:space="preserve">40.655101776123</t>
   </si>
   <si>
-    <t xml:space="preserve">40.9179801940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.9995651245117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.546329498291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2109375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6913642883301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6460418701172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.5825881958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7820091247559</t>
+    <t xml:space="preserve">40.9179840087891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.9995574951172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.5463256835938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2109298706055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6913681030273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6460380554199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.582592010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7820129394531</t>
   </si>
   <si>
     <t xml:space="preserve">40.455680847168</t>
   </si>
   <si>
-    <t xml:space="preserve">39.6489334106445</t>
+    <t xml:space="preserve">39.6489295959473</t>
   </si>
   <si>
     <t xml:space="preserve">39.7848968505859</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9752502441406</t>
+    <t xml:space="preserve">39.9752540588379</t>
   </si>
   <si>
     <t xml:space="preserve">41.3712158203125</t>
@@ -3269,16 +3269,16 @@
     <t xml:space="preserve">42.3411331176758</t>
   </si>
   <si>
-    <t xml:space="preserve">42.023868560791</t>
+    <t xml:space="preserve">42.0238761901855</t>
   </si>
   <si>
     <t xml:space="preserve">42.0782623291016</t>
   </si>
   <si>
-    <t xml:space="preserve">41.7972602844238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.8306274414062</t>
+    <t xml:space="preserve">41.7972526550293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8306312561035</t>
   </si>
   <si>
     <t xml:space="preserve">42.25048828125</t>
@@ -3287,70 +3287,70 @@
     <t xml:space="preserve">42.8759498596191</t>
   </si>
   <si>
-    <t xml:space="preserve">42.5405578613281</t>
+    <t xml:space="preserve">42.5405616760254</t>
   </si>
   <si>
     <t xml:space="preserve">43.2838668823242</t>
   </si>
   <si>
-    <t xml:space="preserve">43.2657318115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2566680908203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.5133628845215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9966850280762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3287811279297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7787132263184</t>
+    <t xml:space="preserve">43.2657356262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.2566719055176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5133666992188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9966773986816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3287773132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7787170410156</t>
   </si>
   <si>
     <t xml:space="preserve">40.8363990783691</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9060325622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9785575866699</t>
+    <t xml:space="preserve">41.9060363769531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.9785461425781</t>
   </si>
   <si>
     <t xml:space="preserve">41.6250267028809</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3197135925293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3440246582031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6159591674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.866886138916</t>
+    <t xml:space="preserve">40.319709777832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3440284729004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6159629821777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8668899536133</t>
   </si>
   <si>
     <t xml:space="preserve">42.3502006530762</t>
   </si>
   <si>
-    <t xml:space="preserve">41.8607063293457</t>
+    <t xml:space="preserve">41.860710144043</t>
   </si>
   <si>
     <t xml:space="preserve">41.9332237243652</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2276229858398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.164623260498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7052879333496</t>
+    <t xml:space="preserve">41.2276191711426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1646270751953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7052841186523</t>
   </si>
   <si>
     <t xml:space="preserve">41.1084899902344</t>
@@ -3365,10 +3365,10 @@
     <t xml:space="preserve">40.1279716491699</t>
   </si>
   <si>
-    <t xml:space="preserve">39.4406967163086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.3490524291992</t>
+    <t xml:space="preserve">39.4406890869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.349048614502</t>
   </si>
   <si>
     <t xml:space="preserve">39.5781440734863</t>
@@ -3380,34 +3380,34 @@
     <t xml:space="preserve">40.4303741455078</t>
   </si>
   <si>
-    <t xml:space="preserve">40.2929191589355</t>
+    <t xml:space="preserve">40.2929229736328</t>
   </si>
   <si>
     <t xml:space="preserve">40.338737487793</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0260162353516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8072395324707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6777954101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.3295669555664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.751106262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.5861587524414</t>
+    <t xml:space="preserve">41.0260124206543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.807243347168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6777877807617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.3295707702637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.7510986328125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.5861549377441</t>
   </si>
   <si>
     <t xml:space="preserve">40.9802017211914</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2367782592773</t>
+    <t xml:space="preserve">41.2367858886719</t>
   </si>
   <si>
     <t xml:space="preserve">41.5391883850098</t>
@@ -3431,19 +3431,19 @@
     <t xml:space="preserve">39.275749206543</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9721908569336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1554641723633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0180053710938</t>
+    <t xml:space="preserve">39.9721870422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.155460357666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0179977416992</t>
   </si>
   <si>
     <t xml:space="preserve">40.0546607971191</t>
   </si>
   <si>
-    <t xml:space="preserve">39.8805503845215</t>
+    <t xml:space="preserve">39.8805541992188</t>
   </si>
   <si>
     <t xml:space="preserve">38.9916687011719</t>
@@ -3452,16 +3452,16 @@
     <t xml:space="preserve">39.083309173584</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3398857116699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8725357055664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9550170898438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9458503723145</t>
+    <t xml:space="preserve">39.3398933410645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8725395202637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9550132751465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9458465576172</t>
   </si>
   <si>
     <t xml:space="preserve">38.6067924499512</t>
@@ -3473,25 +3473,25 @@
     <t xml:space="preserve">39.8438949584961</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3845558166504</t>
+    <t xml:space="preserve">40.3845596313477</t>
   </si>
   <si>
     <t xml:space="preserve">40.2654266357422</t>
   </si>
   <si>
-    <t xml:space="preserve">39.8164100646973</t>
+    <t xml:space="preserve">39.81640625</t>
   </si>
   <si>
     <t xml:space="preserve">41.1268196105957</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6033363342285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7682838439941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4658813476562</t>
+    <t xml:space="preserve">41.603328704834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7682800292969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.465877532959</t>
   </si>
   <si>
     <t xml:space="preserve">41.5025291442871</t>
@@ -3500,31 +3500,31 @@
     <t xml:space="preserve">41.0901641845703</t>
   </si>
   <si>
-    <t xml:space="preserve">40.5495071411133</t>
+    <t xml:space="preserve">40.549503326416</t>
   </si>
   <si>
     <t xml:space="preserve">40.3204116821289</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0821571350098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.137134552002</t>
+    <t xml:space="preserve">40.0821533203125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1371307373047</t>
   </si>
   <si>
     <t xml:space="preserve">38.7808990478516</t>
   </si>
   <si>
-    <t xml:space="preserve">38.9000396728516</t>
+    <t xml:space="preserve">38.9000358581543</t>
   </si>
   <si>
     <t xml:space="preserve">39.2849044799805</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2207641601562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6159553527832</t>
+    <t xml:space="preserve">39.220760345459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6159515380859</t>
   </si>
   <si>
     <t xml:space="preserve">38.8908653259277</t>
@@ -3533,10 +3533,10 @@
     <t xml:space="preserve">39.101634979248</t>
   </si>
   <si>
-    <t xml:space="preserve">39.4131965637207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.0454978942871</t>
+    <t xml:space="preserve">39.4131927490234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0454940795898</t>
   </si>
   <si>
     <t xml:space="preserve">39.7247695922852</t>
@@ -3554,16 +3554,16 @@
     <t xml:space="preserve">41.3559112548828</t>
   </si>
   <si>
-    <t xml:space="preserve">40.806095123291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.4383888244629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1818008422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.1726341247559</t>
+    <t xml:space="preserve">40.8060874938965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.4383850097656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1818046569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.1726379394531</t>
   </si>
   <si>
     <t xml:space="preserve">40.9985237121582</t>
@@ -3572,7 +3572,7 @@
     <t xml:space="preserve">41.4292182922363</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6766357421875</t>
+    <t xml:space="preserve">41.676643371582</t>
   </si>
   <si>
     <t xml:space="preserve">41.4108924865723</t>
@@ -3584,70 +3584,70 @@
     <t xml:space="preserve">41.8232574462891</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0340270996094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.9595680236816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.2997779846191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0798454284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.6583137512207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5758438110352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7499504089355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.7316207885742</t>
+    <t xml:space="preserve">42.0340309143066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.9595642089844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.2997741699219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.0798416137695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.6583099365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5758399963379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7499542236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.7316246032715</t>
   </si>
   <si>
     <t xml:space="preserve">41.8965721130371</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0523567199707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.1073379516602</t>
+    <t xml:space="preserve">42.0523529052734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.1073341369629</t>
   </si>
   <si>
     <t xml:space="preserve">43.1886596679688</t>
   </si>
   <si>
-    <t xml:space="preserve">43.0878601074219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.6479949951172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.5746841430664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.3089332580566</t>
+    <t xml:space="preserve">43.0878524780273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6479988098145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.5746879577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.3089370727539</t>
   </si>
   <si>
     <t xml:space="preserve">42.1989707946777</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9057312011719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0065383911133</t>
+    <t xml:space="preserve">41.9057350158691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.0065422058105</t>
   </si>
   <si>
     <t xml:space="preserve">41.9698829650879</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0248641967773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.2551116943359</t>
+    <t xml:space="preserve">42.0248680114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.2551078796387</t>
   </si>
   <si>
     <t xml:space="preserve">41.0535049438477</t>
@@ -3659,19 +3659,19 @@
     <t xml:space="preserve">40.0363311767578</t>
   </si>
   <si>
-    <t xml:space="preserve">40.3753967285156</t>
+    <t xml:space="preserve">40.3753929138184</t>
   </si>
   <si>
     <t xml:space="preserve">40.5036849975586</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2092895507812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.5300216674805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.8690757751465</t>
+    <t xml:space="preserve">41.2092971801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.5300254821777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.8690795898438</t>
   </si>
   <si>
     <t xml:space="preserve">42.602180480957</t>
@@ -3680,7 +3680,7 @@
     <t xml:space="preserve">42.6949119567871</t>
   </si>
   <si>
-    <t xml:space="preserve">42.9545707702637</t>
+    <t xml:space="preserve">42.9545669555664</t>
   </si>
   <si>
     <t xml:space="preserve">42.6021766662598</t>
@@ -3692,7 +3692,7 @@
     <t xml:space="preserve">42.463077545166</t>
   </si>
   <si>
-    <t xml:space="preserve">42.1848793029785</t>
+    <t xml:space="preserve">42.184871673584</t>
   </si>
   <si>
     <t xml:space="preserve">42.1477813720703</t>
@@ -3701,16 +3701,16 @@
     <t xml:space="preserve">41.9437637329102</t>
   </si>
   <si>
-    <t xml:space="preserve">42.4167137145996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.7690925598145</t>
+    <t xml:space="preserve">42.4167098999023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.769100189209</t>
   </si>
   <si>
     <t xml:space="preserve">43.5480690002441</t>
   </si>
   <si>
-    <t xml:space="preserve">43.9004554748535</t>
+    <t xml:space="preserve">43.900463104248</t>
   </si>
   <si>
     <t xml:space="preserve">44.3270378112793</t>
@@ -3722,28 +3722,28 @@
     <t xml:space="preserve">44.1508407592773</t>
   </si>
   <si>
-    <t xml:space="preserve">44.2435722351074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.4846878051758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.8927230834961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.9761734008789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.6701545715332</t>
+    <t xml:space="preserve">44.2435760498047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.4846839904785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.8927116394043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.9761810302734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.6701507568359</t>
   </si>
   <si>
     <t xml:space="preserve">44.5866928100586</t>
   </si>
   <si>
-    <t xml:space="preserve">44.1044769287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.7443428039551</t>
+    <t xml:space="preserve">44.1044731140137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.7443389892578</t>
   </si>
   <si>
     <t xml:space="preserve">44.7628860473633</t>
@@ -3761,7 +3761,7 @@
     <t xml:space="preserve">45.1987419128418</t>
   </si>
   <si>
-    <t xml:space="preserve">45.1338233947754</t>
+    <t xml:space="preserve">45.1338195800781</t>
   </si>
   <si>
     <t xml:space="preserve">45.1152801513672</t>
@@ -3770,10 +3770,10 @@
     <t xml:space="preserve">46.4599304199219</t>
   </si>
   <si>
-    <t xml:space="preserve">47.9807777404785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.552661895752</t>
+    <t xml:space="preserve">47.9807739257812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.5526657104492</t>
   </si>
   <si>
     <t xml:space="preserve">48.7782897949219</t>
@@ -3788,7 +3788,7 @@
     <t xml:space="preserve">46.8494148254395</t>
   </si>
   <si>
-    <t xml:space="preserve">46.8679618835449</t>
+    <t xml:space="preserve">46.8679656982422</t>
   </si>
   <si>
     <t xml:space="preserve">46.3301010131836</t>
@@ -3797,10 +3797,10 @@
     <t xml:space="preserve">46.1724510192871</t>
   </si>
   <si>
-    <t xml:space="preserve">46.9421501159668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.0534362792969</t>
+    <t xml:space="preserve">46.9421463012695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.0534324645996</t>
   </si>
   <si>
     <t xml:space="preserve">47.5171089172363</t>
@@ -3812,16 +3812,16 @@
     <t xml:space="preserve">47.2945404052734</t>
   </si>
   <si>
-    <t xml:space="preserve">48.2218780517578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.7396659851074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.3888053894043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.8339309692383</t>
+    <t xml:space="preserve">48.2218818664551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.7396621704102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.3888092041016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.833927154541</t>
   </si>
   <si>
     <t xml:space="preserve">49.427433013916</t>
@@ -3830,37 +3830,37 @@
     <t xml:space="preserve">49.9838371276855</t>
   </si>
   <si>
-    <t xml:space="preserve">49.8911056518555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.9482727050781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.9111824035645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0981826782227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.3392906188965</t>
+    <t xml:space="preserve">49.8911018371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.9482765197754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.9111785888672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.0981788635254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.3392868041992</t>
   </si>
   <si>
     <t xml:space="preserve">52.7102241516113</t>
   </si>
   <si>
-    <t xml:space="preserve">53.0069770812988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.4320297241211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.7287750244141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.914249420166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.2666320800781</t>
+    <t xml:space="preserve">53.0069808959961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.4320259094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.7287788391113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.9142417907715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.2666358947754</t>
   </si>
   <si>
     <t xml:space="preserve">52.5989532470703</t>
@@ -3872,13 +3872,13 @@
     <t xml:space="preserve">51.4675903320312</t>
   </si>
   <si>
-    <t xml:space="preserve">52.0610885620117</t>
+    <t xml:space="preserve">52.0610847473145</t>
   </si>
   <si>
     <t xml:space="preserve">51.8014335632324</t>
   </si>
   <si>
-    <t xml:space="preserve">51.5232315063477</t>
+    <t xml:space="preserve">51.5232238769531</t>
   </si>
   <si>
     <t xml:space="preserve">51.6530570983887</t>
@@ -3887,7 +3887,7 @@
     <t xml:space="preserve">51.430492401123</t>
   </si>
   <si>
-    <t xml:space="preserve">51.8570709228516</t>
+    <t xml:space="preserve">51.8570671081543</t>
   </si>
   <si>
     <t xml:space="preserve">50.6886215209961</t>
@@ -3896,7 +3896,7 @@
     <t xml:space="preserve">49.9467430114746</t>
   </si>
   <si>
-    <t xml:space="preserve">49.0564918518066</t>
+    <t xml:space="preserve">49.0564956665039</t>
   </si>
   <si>
     <t xml:space="preserve">48.7411994934082</t>
@@ -3905,40 +3905,40 @@
     <t xml:space="preserve">48.6670112609863</t>
   </si>
   <si>
-    <t xml:space="preserve">47.3872718811035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.0920600891113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.9236068725586</t>
+    <t xml:space="preserve">47.3872756958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.0920562744141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.9236030578613</t>
   </si>
   <si>
     <t xml:space="preserve">46.3857421875</t>
   </si>
   <si>
-    <t xml:space="preserve">47.3501777648926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.9050598144531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.4614639282227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.1647109985352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.3656616210938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4305839538574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.6268463134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.7829666137695</t>
+    <t xml:space="preserve">47.3501815795898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.9050559997559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.4614601135254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.1647148132324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.365665435791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4305801391602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.6268539428711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.7829627990723</t>
   </si>
   <si>
     <t xml:space="preserve">45.356388092041</t>
@@ -3947,40 +3947,40 @@
     <t xml:space="preserve">45.6160430908203</t>
   </si>
   <si>
-    <t xml:space="preserve">45.4120254516602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.3378372192383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.8200645446777</t>
+    <t xml:space="preserve">45.4120292663574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.3378410339355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.8200607299805</t>
   </si>
   <si>
     <t xml:space="preserve">45.9591636657715</t>
   </si>
   <si>
-    <t xml:space="preserve">47.146167755127</t>
+    <t xml:space="preserve">47.1461639404297</t>
   </si>
   <si>
     <t xml:space="preserve">47.4243659973145</t>
   </si>
   <si>
-    <t xml:space="preserve">47.3687324523926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.6654777526855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.9436836242676</t>
+    <t xml:space="preserve">47.3687286376953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.6654815673828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.9436798095703</t>
   </si>
   <si>
     <t xml:space="preserve">48.2589797973633</t>
   </si>
   <si>
-    <t xml:space="preserve">48.889575958252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.6113662719727</t>
+    <t xml:space="preserve">48.8895721435547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.6113700866699</t>
   </si>
   <si>
     <t xml:space="preserve">49.019401550293</t>
@@ -3992,52 +3992,52 @@
     <t xml:space="preserve">51.0781059265137</t>
   </si>
   <si>
-    <t xml:space="preserve">52.2280082702637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.3949356079102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.2465515136719</t>
+    <t xml:space="preserve">52.2280120849609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.3949317932129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.2465591430664</t>
   </si>
   <si>
     <t xml:space="preserve">51.9312591552734</t>
   </si>
   <si>
-    <t xml:space="preserve">52.1352767944336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.3578414916992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.0255241394043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.5804023742676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0239906311035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.0410079956055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.4134826660156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.6849555969238</t>
+    <t xml:space="preserve">52.1352806091309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.357837677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.0255279541016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.5803985595703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.0239944458008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.0410118103027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.4134788513184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.6849517822266</t>
   </si>
   <si>
     <t xml:space="preserve">51.8611679077148</t>
   </si>
   <si>
-    <t xml:space="preserve">52.029670715332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.4228363037109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.2620506286621</t>
+    <t xml:space="preserve">52.0296669006348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.4228401184082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.2620468139648</t>
   </si>
   <si>
     <t xml:space="preserve">51.4492721557617</t>
@@ -4055,22 +4055,22 @@
     <t xml:space="preserve">50.0263633728027</t>
   </si>
   <si>
-    <t xml:space="preserve">50.3820915222168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.730110168457</t>
+    <t xml:space="preserve">50.3820953369141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.7301063537598</t>
   </si>
   <si>
     <t xml:space="preserve">50.4944267272949</t>
   </si>
   <si>
-    <t xml:space="preserve">50.475700378418</t>
+    <t xml:space="preserve">50.4757041931152</t>
   </si>
   <si>
     <t xml:space="preserve">50.1387062072754</t>
   </si>
   <si>
-    <t xml:space="preserve">50.8688774108887</t>
+    <t xml:space="preserve">50.8688735961914</t>
   </si>
   <si>
     <t xml:space="preserve">50.0450897216797</t>
@@ -4079,19 +4079,19 @@
     <t xml:space="preserve">51.3556594848633</t>
   </si>
   <si>
-    <t xml:space="preserve">51.6552200317383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.9734992980957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0109481811523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.9096260070801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.1981735229492</t>
+    <t xml:space="preserve">51.6552238464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.973503112793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.0109443664551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.9096221923828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.198169708252</t>
   </si>
   <si>
     <t xml:space="preserve">52.3666725158691</t>
@@ -4100,28 +4100,28 @@
     <t xml:space="preserve">52.7598457336426</t>
   </si>
   <si>
-    <t xml:space="preserve">52.928352355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.8909034729004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.9922294616699</t>
+    <t xml:space="preserve">52.9283447265625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.8908996582031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.9922256469727</t>
   </si>
   <si>
     <t xml:space="preserve">51.130989074707</t>
   </si>
   <si>
-    <t xml:space="preserve">51.1684379577637</t>
+    <t xml:space="preserve">51.1684341430664</t>
   </si>
   <si>
     <t xml:space="preserve">50.8875999450684</t>
   </si>
   <si>
-    <t xml:space="preserve">50.62548828125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.9999389648438</t>
+    <t xml:space="preserve">50.6254844665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.9999351501465</t>
   </si>
   <si>
     <t xml:space="preserve">51.4118232727051</t>
@@ -4130,13 +4130,13 @@
     <t xml:space="preserve">50.1574287414551</t>
   </si>
   <si>
-    <t xml:space="preserve">48.8842964172363</t>
+    <t xml:space="preserve">48.8843040466309</t>
   </si>
   <si>
     <t xml:space="preserve">47.9294548034668</t>
   </si>
   <si>
-    <t xml:space="preserve">48.6783447265625</t>
+    <t xml:space="preserve">48.6783485412598</t>
   </si>
   <si>
     <t xml:space="preserve">48.2102928161621</t>
@@ -4148,37 +4148,37 @@
     <t xml:space="preserve">46.7593040466309</t>
   </si>
   <si>
-    <t xml:space="preserve">46.3193244934082</t>
+    <t xml:space="preserve">46.3193206787109</t>
   </si>
   <si>
     <t xml:space="preserve">46.3474044799805</t>
   </si>
   <si>
-    <t xml:space="preserve">46.3754959106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.5814361572266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.7686614990234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.4393730163574</t>
+    <t xml:space="preserve">46.3754920959473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.5814323425293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.7686653137207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.4393692016602</t>
   </si>
   <si>
     <t xml:space="preserve">44.325382232666</t>
   </si>
   <si>
-    <t xml:space="preserve">43.9134864807129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1458740234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.5764808654785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.874397277832</t>
+    <t xml:space="preserve">43.9134902954102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1458702087402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.5764846801758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8743934631348</t>
   </si>
   <si>
     <t xml:space="preserve">42.4999465942383</t>
@@ -4187,7 +4187,7 @@
     <t xml:space="preserve">41.9195518493652</t>
   </si>
   <si>
-    <t xml:space="preserve">42.8275871276855</t>
+    <t xml:space="preserve">42.8275909423828</t>
   </si>
   <si>
     <t xml:space="preserve">42.6029205322266</t>
@@ -4199,16 +4199,16 @@
     <t xml:space="preserve">43.2488403320312</t>
   </si>
   <si>
-    <t xml:space="preserve">43.1645965576172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3330917358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.1552238464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.5808906555176</t>
+    <t xml:space="preserve">43.1645927429199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3330955505371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.1552276611328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.5808944702148</t>
   </si>
   <si>
     <t xml:space="preserve">41.7978591918945</t>
@@ -4217,19 +4217,19 @@
     <t xml:space="preserve">40.9647026062012</t>
   </si>
   <si>
-    <t xml:space="preserve">39.7290229797363</t>
+    <t xml:space="preserve">39.7290267944336</t>
   </si>
   <si>
     <t xml:space="preserve">40.4123916625977</t>
   </si>
   <si>
-    <t xml:space="preserve">40.094108581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.3639373779297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.1767082214355</t>
+    <t xml:space="preserve">40.0941123962402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.3639335632324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.1767120361328</t>
   </si>
   <si>
     <t xml:space="preserve">37.7725296020508</t>
@@ -4238,7 +4238,7 @@
     <t xml:space="preserve">41.4140434265137</t>
   </si>
   <si>
-    <t xml:space="preserve">40.2719764709473</t>
+    <t xml:space="preserve">40.2719688415527</t>
   </si>
   <si>
     <t xml:space="preserve">40.7494010925293</t>
@@ -4253,46 +4253,46 @@
     <t xml:space="preserve">42.5280303955078</t>
   </si>
   <si>
-    <t xml:space="preserve">42.7433395385742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.7339706420898</t>
+    <t xml:space="preserve">42.743335723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.7339744567871</t>
   </si>
   <si>
     <t xml:space="preserve">42.7995071411133</t>
   </si>
   <si>
-    <t xml:space="preserve">43.2113952636719</t>
+    <t xml:space="preserve">43.2113990783691</t>
   </si>
   <si>
     <t xml:space="preserve">42.9399223327637</t>
   </si>
   <si>
-    <t xml:space="preserve">42.5186653137207</t>
+    <t xml:space="preserve">42.518669128418</t>
   </si>
   <si>
     <t xml:space="preserve">42.1348533630371</t>
   </si>
   <si>
-    <t xml:space="preserve">43.9696578979492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.8854064941406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.7246170043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.2130508422852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.7576560974121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.7279167175293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45.9823188781738</t>
+    <t xml:space="preserve">43.9696617126465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.8854026794434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.7246131896973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.2130470275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.7576522827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.7279205322266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.9823150634766</t>
   </si>
   <si>
     <t xml:space="preserve">46.0665664672852</t>
@@ -4304,7 +4304,7 @@
     <t xml:space="preserve">44.6343078613281</t>
   </si>
   <si>
-    <t xml:space="preserve">45.0368385314941</t>
+    <t xml:space="preserve">45.0368347167969</t>
   </si>
   <si>
     <t xml:space="preserve">45.1117248535156</t>
@@ -4328,13 +4328,13 @@
     <t xml:space="preserve">42.0786895751953</t>
   </si>
   <si>
-    <t xml:space="preserve">41.8727416992188</t>
+    <t xml:space="preserve">41.872745513916</t>
   </si>
   <si>
     <t xml:space="preserve">43.0522575378418</t>
   </si>
   <si>
-    <t xml:space="preserve">41.6293563842773</t>
+    <t xml:space="preserve">41.6293525695801</t>
   </si>
   <si>
     <t xml:space="preserve">40.6183395385742</t>
@@ -4352,43 +4352,43 @@
     <t xml:space="preserve">39.7009391784668</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3264923095703</t>
+    <t xml:space="preserve">39.326488494873</t>
   </si>
   <si>
     <t xml:space="preserve">37.3512763977051</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6992874145508</t>
+    <t xml:space="preserve">38.699291229248</t>
   </si>
   <si>
     <t xml:space="preserve">39.1579933166504</t>
   </si>
   <si>
-    <t xml:space="preserve">39.1954307556152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.7180137634277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8584327697754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8413619995117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.1639633178711</t>
+    <t xml:space="preserve">39.1954345703125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.7180061340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.8584289550781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.841365814209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.1639595031738</t>
   </si>
   <si>
     <t xml:space="preserve">39.3764305114746</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2625732421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.6705665588379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9362449645996</t>
+    <t xml:space="preserve">39.2625694274902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.6705703735352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9362411499023</t>
   </si>
   <si>
     <t xml:space="preserve">40.6004219055176</t>
@@ -4397,22 +4397,22 @@
     <t xml:space="preserve">39.5472221374512</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6743011474609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6363487243652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5167274475098</t>
+    <t xml:space="preserve">38.6742935180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.636344909668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.516731262207</t>
   </si>
   <si>
     <t xml:space="preserve">37.8013763427734</t>
   </si>
   <si>
-    <t xml:space="preserve">37.2320823669434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.4408149719238</t>
+    <t xml:space="preserve">37.2320785522461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4408187866211</t>
   </si>
   <si>
     <t xml:space="preserve">36.7576637268066</t>
@@ -4421,16 +4421,16 @@
     <t xml:space="preserve">35.1351623535156</t>
   </si>
   <si>
-    <t xml:space="preserve">35.647533416748</t>
+    <t xml:space="preserve">35.6475296020508</t>
   </si>
   <si>
     <t xml:space="preserve">35.6570205688477</t>
   </si>
   <si>
-    <t xml:space="preserve">35.8847389221191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.7898559570312</t>
+    <t xml:space="preserve">35.8847351074219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.7898597717285</t>
   </si>
   <si>
     <t xml:space="preserve">37.0233345031738</t>
@@ -4460,49 +4460,49 @@
     <t xml:space="preserve">39.3479690551758</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3859214782715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8376312255859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.8186569213867</t>
+    <t xml:space="preserve">39.3859176635742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8376274108887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.8186492919922</t>
   </si>
   <si>
     <t xml:space="preserve">40.714282989502</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0273971557617</t>
+    <t xml:space="preserve">41.027400970459</t>
   </si>
   <si>
     <t xml:space="preserve">41.2835807800293</t>
   </si>
   <si>
-    <t xml:space="preserve">41.2930679321289</t>
+    <t xml:space="preserve">41.2930717468262</t>
   </si>
   <si>
     <t xml:space="preserve">41.568229675293</t>
   </si>
   <si>
-    <t xml:space="preserve">40.9799575805664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.7996788024902</t>
+    <t xml:space="preserve">40.9799537658691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.799674987793</t>
   </si>
   <si>
     <t xml:space="preserve">40.0026626586914</t>
   </si>
   <si>
-    <t xml:space="preserve">40.7807006835938</t>
+    <t xml:space="preserve">40.7806968688965</t>
   </si>
   <si>
     <t xml:space="preserve">40.9420051574707</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1886940002441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3784637451172</t>
+    <t xml:space="preserve">41.1886978149414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3784599304199</t>
   </si>
   <si>
     <t xml:space="preserve">40.7047958374023</t>
@@ -4514,7 +4514,7 @@
     <t xml:space="preserve">40.2967987060547</t>
   </si>
   <si>
-    <t xml:space="preserve">40.0311241149902</t>
+    <t xml:space="preserve">40.031120300293</t>
   </si>
   <si>
     <t xml:space="preserve">39.5662002563477</t>
@@ -4529,10 +4529,10 @@
     <t xml:space="preserve">41.1222801208496</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3120422363281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2019157409668</t>
+    <t xml:space="preserve">41.3120498657227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2019081115723</t>
   </si>
   <si>
     <t xml:space="preserve">40.0880546569824</t>
@@ -4553,40 +4553,40 @@
     <t xml:space="preserve">40.1354942321777</t>
   </si>
   <si>
-    <t xml:space="preserve">39.9077796936035</t>
+    <t xml:space="preserve">39.9077758789062</t>
   </si>
   <si>
     <t xml:space="preserve">40.2398681640625</t>
   </si>
   <si>
-    <t xml:space="preserve">41.0748405456543</t>
+    <t xml:space="preserve">41.074836730957</t>
   </si>
   <si>
     <t xml:space="preserve">41.7579917907715</t>
   </si>
   <si>
-    <t xml:space="preserve">41.3974418640137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.9857139587402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41.3499984741211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.9647026062012</t>
+    <t xml:space="preserve">41.3974380493164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.985710144043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.3499946594238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.9647064208984</t>
   </si>
   <si>
     <t xml:space="preserve">38.9779281616211</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4465789794922</t>
+    <t xml:space="preserve">38.4465827941895</t>
   </si>
   <si>
     <t xml:space="preserve">38.6553230285645</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6078796386719</t>
+    <t xml:space="preserve">38.6078758239746</t>
   </si>
   <si>
     <t xml:space="preserve">39.2720565795898</t>
@@ -4601,7 +4601,7 @@
     <t xml:space="preserve">38.4181175231934</t>
   </si>
   <si>
-    <t xml:space="preserve">38.8925323486328</t>
+    <t xml:space="preserve">38.8925285339355</t>
   </si>
   <si>
     <t xml:space="preserve">38.550952911377</t>
@@ -4610,19 +4610,19 @@
     <t xml:space="preserve">39.0253677368164</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4560661315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.0480728149414</t>
+    <t xml:space="preserve">38.4560699462891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.0480690002441</t>
   </si>
   <si>
     <t xml:space="preserve">38.1049995422363</t>
   </si>
   <si>
-    <t xml:space="preserve">37.7254676818848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.5546836853027</t>
+    <t xml:space="preserve">37.7254638671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.5546798706055</t>
   </si>
   <si>
     <t xml:space="preserve">37.0043601989746</t>
@@ -4631,7 +4631,7 @@
     <t xml:space="preserve">36.956916809082</t>
   </si>
   <si>
-    <t xml:space="preserve">35.2015800476074</t>
+    <t xml:space="preserve">35.2015762329102</t>
   </si>
   <si>
     <t xml:space="preserve">34.5848426818848</t>
@@ -4652,7 +4652,7 @@
     <t xml:space="preserve">34.2527542114258</t>
   </si>
   <si>
-    <t xml:space="preserve">33.4936866760254</t>
+    <t xml:space="preserve">33.4936904907227</t>
   </si>
   <si>
     <t xml:space="preserve">33.5506172180176</t>
@@ -4661,13 +4661,13 @@
     <t xml:space="preserve">33.9965705871582</t>
   </si>
   <si>
-    <t xml:space="preserve">33.7119178771973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33.626522064209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34.6987037658691</t>
+    <t xml:space="preserve">33.7119140625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33.6265258789062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34.6986999511719</t>
   </si>
   <si>
     <t xml:space="preserve">34.9169311523438</t>
@@ -4685,13 +4685,13 @@
     <t xml:space="preserve">33.6360130310059</t>
   </si>
   <si>
-    <t xml:space="preserve">34.7935829162598</t>
+    <t xml:space="preserve">34.793586730957</t>
   </si>
   <si>
     <t xml:space="preserve">35.9891128540039</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0555267333984</t>
+    <t xml:space="preserve">36.0555305480957</t>
   </si>
   <si>
     <t xml:space="preserve">35.770881652832</t>
@@ -4700,10 +4700,10 @@
     <t xml:space="preserve">36.4065933227539</t>
   </si>
   <si>
-    <t xml:space="preserve">36.0839920043945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1314392089844</t>
+    <t xml:space="preserve">36.0839958190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.1314353942871</t>
   </si>
   <si>
     <t xml:space="preserve">36.5014762878418</t>
@@ -4712,10 +4712,10 @@
     <t xml:space="preserve">35.9226913452148</t>
   </si>
   <si>
-    <t xml:space="preserve">36.5109672546387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.9321746826172</t>
+    <t xml:space="preserve">36.5109634399414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9321784973145</t>
   </si>
   <si>
     <t xml:space="preserve">36.4825019836426</t>
@@ -4727,13 +4727,13 @@
     <t xml:space="preserve">39.4048957824707</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6648063659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.2188568115234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7918853759766</t>
+    <t xml:space="preserve">38.6648101806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.2188606262207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.7918891906738</t>
   </si>
   <si>
     <t xml:space="preserve">37.3079833984375</t>
@@ -4745,10 +4745,10 @@
     <t xml:space="preserve">37.4692878723145</t>
   </si>
   <si>
-    <t xml:space="preserve">37.5943756103516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.1613693237305</t>
+    <t xml:space="preserve">37.5943717956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.1613655090332</t>
   </si>
   <si>
     <t xml:space="preserve">37.6713562011719</t>
@@ -4763,10 +4763,10 @@
     <t xml:space="preserve">38.6720733642578</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4988708496094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.1050796508789</t>
+    <t xml:space="preserve">38.4988670349121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.1050758361816</t>
   </si>
   <si>
     <t xml:space="preserve">40.0288200378418</t>
@@ -4775,10 +4775,10 @@
     <t xml:space="preserve">39.9229774475098</t>
   </si>
   <si>
-    <t xml:space="preserve">39.8363761901855</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.8933868408203</t>
+    <t xml:space="preserve">39.8363723754883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.893383026123</t>
   </si>
   <si>
     <t xml:space="preserve">38.9703636169434</t>
@@ -4790,28 +4790,28 @@
     <t xml:space="preserve">40.3078651428223</t>
   </si>
   <si>
-    <t xml:space="preserve">40.2982444763184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.057689666748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.9222526550293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1043586730957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7387084960938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.0170402526855</t>
+    <t xml:space="preserve">40.2982482910156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.0576858520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.9222564697266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1043548583984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.738712310791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.0170364379883</t>
   </si>
   <si>
     <t xml:space="preserve">37.7002182006836</t>
   </si>
   <si>
-    <t xml:space="preserve">37.2672157287598</t>
+    <t xml:space="preserve">37.267219543457</t>
   </si>
   <si>
     <t xml:space="preserve">37.6424865722656</t>
@@ -4823,7 +4823,7 @@
     <t xml:space="preserve">37.5751266479492</t>
   </si>
   <si>
-    <t xml:space="preserve">38.1717109680176</t>
+    <t xml:space="preserve">38.1717147827148</t>
   </si>
   <si>
     <t xml:space="preserve">37.2864608764648</t>
@@ -4832,13 +4832,13 @@
     <t xml:space="preserve">37.353816986084</t>
   </si>
   <si>
-    <t xml:space="preserve">37.4500389099121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.9496803283691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.219108581543</t>
+    <t xml:space="preserve">37.4500350952148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.9496841430664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.2191047668457</t>
   </si>
   <si>
     <t xml:space="preserve">37.8541793823242</t>
@@ -4850,25 +4850,25 @@
     <t xml:space="preserve">37.3345718383789</t>
   </si>
   <si>
-    <t xml:space="preserve">37.902286529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.6528282165527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.5662269592285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.2693786621094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.6446533203125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8652381896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.7497711181641</t>
+    <t xml:space="preserve">37.9022903442383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.6528244018555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.5662307739258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.2693748474121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.6446495056152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8652420043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.7497749328613</t>
   </si>
   <si>
     <t xml:space="preserve">39.4707260131836</t>
@@ -4877,34 +4877,34 @@
     <t xml:space="preserve">39.0377197265625</t>
   </si>
   <si>
-    <t xml:space="preserve">39.2205467224121</t>
+    <t xml:space="preserve">39.2205429077148</t>
   </si>
   <si>
     <t xml:space="preserve">39.6920394897461</t>
   </si>
   <si>
-    <t xml:space="preserve">38.6143417358398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.6328659057617</t>
+    <t xml:space="preserve">38.6143379211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.6328620910645</t>
   </si>
   <si>
     <t xml:space="preserve">38.4700050354004</t>
   </si>
   <si>
-    <t xml:space="preserve">38.7394256591797</t>
+    <t xml:space="preserve">38.739429473877</t>
   </si>
   <si>
     <t xml:space="preserve">39.0858306884766</t>
   </si>
   <si>
-    <t xml:space="preserve">39.3745002746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.70166015625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.5380821228027</t>
+    <t xml:space="preserve">39.3745040893555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.7016563415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.5380783081055</t>
   </si>
   <si>
     <t xml:space="preserve">38.729808807373</t>
@@ -4916,10 +4916,10 @@
     <t xml:space="preserve">39.4995918273926</t>
   </si>
   <si>
-    <t xml:space="preserve">39.4226150512695</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.8171348571777</t>
+    <t xml:space="preserve">39.4226112365723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.8171272277832</t>
   </si>
   <si>
     <t xml:space="preserve">39.5477027893066</t>
@@ -4931,7 +4931,7 @@
     <t xml:space="preserve">38.0562477111816</t>
   </si>
   <si>
-    <t xml:space="preserve">38.5181159973145</t>
+    <t xml:space="preserve">38.5181121826172</t>
   </si>
   <si>
     <t xml:space="preserve">37.9600219726562</t>
@@ -4955,19 +4955,19 @@
     <t xml:space="preserve">37.2479705810547</t>
   </si>
   <si>
-    <t xml:space="preserve">37.1806182861328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.5647850036621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.3923110961914</t>
+    <t xml:space="preserve">37.1806106567383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36.5647888183594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.3923072814941</t>
   </si>
   <si>
     <t xml:space="preserve">36.8342132568359</t>
   </si>
   <si>
-    <t xml:space="preserve">37.0843925476074</t>
+    <t xml:space="preserve">37.0843963623047</t>
   </si>
   <si>
     <t xml:space="preserve">37.2287254333496</t>
@@ -4976,34 +4976,34 @@
     <t xml:space="preserve">38.4507598876953</t>
   </si>
   <si>
-    <t xml:space="preserve">37.7579536437988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.7771949768066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.488525390625</t>
+    <t xml:space="preserve">37.7579574584961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.7771987915039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.4885292053223</t>
   </si>
   <si>
     <t xml:space="preserve">37.5847549438477</t>
   </si>
   <si>
-    <t xml:space="preserve">37.873420715332</t>
+    <t xml:space="preserve">37.8734245300293</t>
   </si>
   <si>
     <t xml:space="preserve">38.344913482666</t>
   </si>
   <si>
-    <t xml:space="preserve">38.4026489257812</t>
+    <t xml:space="preserve">38.402645111084</t>
   </si>
   <si>
     <t xml:space="preserve">38.787540435791</t>
   </si>
   <si>
-    <t xml:space="preserve">39.1916770935059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39.2879028320312</t>
+    <t xml:space="preserve">39.1916809082031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39.287899017334</t>
   </si>
   <si>
     <t xml:space="preserve">38.9030075073242</t>
@@ -5024,7 +5024,7 @@
     <t xml:space="preserve">38.5084953308105</t>
   </si>
   <si>
-    <t xml:space="preserve">40.1539115905762</t>
+    <t xml:space="preserve">40.1539077758789</t>
   </si>
   <si>
     <t xml:space="preserve">39.3841247558594</t>
@@ -5033,13 +5033,13 @@
     <t xml:space="preserve">39.5573272705078</t>
   </si>
   <si>
-    <t xml:space="preserve">40.8755836486816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4906921386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40.4137115478516</t>
+    <t xml:space="preserve">40.8755798339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4906883239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40.4137153625488</t>
   </si>
   <si>
     <t xml:space="preserve">40.663890838623</t>
@@ -5048,7 +5048,7 @@
     <t xml:space="preserve">41.5106544494629</t>
   </si>
   <si>
-    <t xml:space="preserve">42.4247741699219</t>
+    <t xml:space="preserve">42.4247779846191</t>
   </si>
   <si>
     <t xml:space="preserve">44.1664161682129</t>
@@ -5057,16 +5057,16 @@
     <t xml:space="preserve">43.8969879150391</t>
   </si>
   <si>
-    <t xml:space="preserve">43.300407409668</t>
+    <t xml:space="preserve">43.3004035949707</t>
   </si>
   <si>
     <t xml:space="preserve">42.877025604248</t>
   </si>
   <si>
-    <t xml:space="preserve">42.9590759277344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.2418899536133</t>
+    <t xml:space="preserve">42.9590721130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.2418937683105</t>
   </si>
   <si>
     <t xml:space="preserve">42.0618591308594</t>
@@ -5093,10 +5093,10 @@
     <t xml:space="preserve">41.7790412902832</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9350738525391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.0273399353027</t>
+    <t xml:space="preserve">41.9350776672363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.0273361206055</t>
   </si>
   <si>
     <t xml:space="preserve">43.5149574279785</t>
@@ -5105,25 +5105,25 @@
     <t xml:space="preserve">43.7392578125</t>
   </si>
   <si>
-    <t xml:space="preserve">43.2906532287598</t>
+    <t xml:space="preserve">43.2906494140625</t>
   </si>
   <si>
     <t xml:space="preserve">44.373161315918</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8660430908203</t>
+    <t xml:space="preserve">43.866039276123</t>
   </si>
   <si>
     <t xml:space="preserve">43.8172798156738</t>
   </si>
   <si>
-    <t xml:space="preserve">44.1391067504883</t>
+    <t xml:space="preserve">44.139102935791</t>
   </si>
   <si>
     <t xml:space="preserve">42.9688262939453</t>
   </si>
   <si>
-    <t xml:space="preserve">42.2081413269043</t>
+    <t xml:space="preserve">42.2081451416016</t>
   </si>
   <si>
     <t xml:space="preserve">41.7205238342285</t>
@@ -5147,13 +5147,13 @@
     <t xml:space="preserve">42.2959136962891</t>
   </si>
   <si>
-    <t xml:space="preserve">42.5007171630859</t>
+    <t xml:space="preserve">42.5007133483887</t>
   </si>
   <si>
     <t xml:space="preserve">42.6079902648926</t>
   </si>
   <si>
-    <t xml:space="preserve">41.1743927001953</t>
+    <t xml:space="preserve">41.1743965148926</t>
   </si>
   <si>
     <t xml:space="preserve">40.9208335876465</t>
@@ -5171,7 +5171,7 @@
     <t xml:space="preserve">41.8278007507324</t>
   </si>
   <si>
-    <t xml:space="preserve">42.0130958557129</t>
+    <t xml:space="preserve">42.0130996704102</t>
   </si>
   <si>
     <t xml:space="preserve">41.9448280334473</t>
@@ -5186,7 +5186,7 @@
     <t xml:space="preserve">42.0911140441895</t>
   </si>
   <si>
-    <t xml:space="preserve">44.2073745727539</t>
+    <t xml:space="preserve">44.2073783874512</t>
   </si>
   <si>
     <t xml:space="preserve">43.9440612792969</t>
@@ -5210,7 +5210,7 @@
     <t xml:space="preserve">44.8412742614746</t>
   </si>
   <si>
-    <t xml:space="preserve">44.4706840515137</t>
+    <t xml:space="preserve">44.4706878662109</t>
   </si>
   <si>
     <t xml:space="preserve">43.4759483337402</t>
@@ -5219,13 +5219,13 @@
     <t xml:space="preserve">42.432445526123</t>
   </si>
   <si>
-    <t xml:space="preserve">43.8367881774902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.334156036377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.8855438232422</t>
+    <t xml:space="preserve">43.836784362793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.3341522216797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.8855476379395</t>
   </si>
   <si>
     <t xml:space="preserve">44.3244018554688</t>
@@ -5264,7 +5264,7 @@
     <t xml:space="preserve">45.2313690185547</t>
   </si>
   <si>
-    <t xml:space="preserve">44.6559829711914</t>
+    <t xml:space="preserve">44.6559791564941</t>
   </si>
   <si>
     <t xml:space="preserve">44.4414291381836</t>
@@ -5279,13 +5279,13 @@
     <t xml:space="preserve">44.4609336853027</t>
   </si>
   <si>
-    <t xml:space="preserve">44.1001014709473</t>
-  </si>
-  <si>
-    <t xml:spac